--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48473E2C-8D25-4DE7-A86E-69A73E20C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333E4148-E646-4175-AC91-C92FB240CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="395">
   <si>
     <t>SC</t>
   </si>
@@ -1226,6 +1226,9 @@
   </si>
   <si>
     <t>previsão de entrega</t>
+  </si>
+  <si>
+    <t>Glaudoberto</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,6 +1347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,7 +1410,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,6 +1578,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1751,8 +1772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T194" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T194" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T195" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T195" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="5">
       <filters>
         <filter val="68317"/>
@@ -2239,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T194"/>
+  <dimension ref="A1:T195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P116" sqref="P116"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195:T195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14681,6 +14702,70 @@
         <v>0</v>
       </c>
       <c r="T194" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A195" s="63">
+        <v>45864</v>
+      </c>
+      <c r="B195" s="63">
+        <v>45864</v>
+      </c>
+      <c r="C195" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F195" s="64">
+        <v>70000</v>
+      </c>
+      <c r="G195" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="H195" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="I195" s="65">
+        <f>NETWORKDAYS(B195, A195)</f>
+        <v>0</v>
+      </c>
+      <c r="J195" s="64">
+        <v>70001</v>
+      </c>
+      <c r="K195" s="64">
+        <v>2931</v>
+      </c>
+      <c r="L195" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="M195" s="63">
+        <v>45868</v>
+      </c>
+      <c r="N195" s="66">
+        <v>3500</v>
+      </c>
+      <c r="O195" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="P195" s="64">
+        <v>30</v>
+      </c>
+      <c r="Q195" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="R195" s="64">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
+        <v>4</v>
+      </c>
+      <c r="S195" s="66">
+        <v>320</v>
+      </c>
+      <c r="T195" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14959,7 +15044,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -14967,7 +15052,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 614 dias para vencer</v>
+        <v>Faltam 602 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -14985,7 +15070,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -14993,7 +15078,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 286 dias</v>
+        <v>Venceu há 298 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -15011,7 +15096,7 @@
       </c>
       <c r="E4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F4" s="41" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -15019,7 +15104,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Negociar</v>
+        <v>Venceu há 6 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -15037,7 +15122,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -15063,7 +15148,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -15089,7 +15174,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -15097,7 +15182,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 118 dias</v>
+        <v>Venceu há 130 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -15115,7 +15200,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -15123,7 +15208,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 861 dias</v>
+        <v>Venceu há 873 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -15141,7 +15226,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -15149,7 +15234,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 430 dias para vencer</v>
+        <v>Faltam 418 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -15167,7 +15252,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -15175,7 +15260,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 351 dias para vencer</v>
+        <v>Faltam 339 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -15193,7 +15278,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45852</v>
+        <v>45864</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -15201,7 +15286,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 140 dias para vencer</v>
+        <v>Faltam 128 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -16652,9 +16737,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16784,26 +16872,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16827,9 +16904,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup_frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333E4148-E646-4175-AC91-C92FB240CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846AAE7C-847F-4066-9260-8154BCEFF407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="395">
   <si>
     <t>SC</t>
   </si>
@@ -1198,12 +1198,6 @@
     <t>MEGALOG SOLUCOES EM TRANSPORTES E LOGISTICA LTDA</t>
   </si>
   <si>
-    <t>UNIMQG</t>
-  </si>
-  <si>
-    <t>CABFIL INDUSTRIA E COMERCIO DE PECAS E FILTROS LTDA</t>
-  </si>
-  <si>
     <t>ASG TREINAMENTO E SERVICOS LTDA</t>
   </si>
   <si>
@@ -1229,6 +1223,12 @@
   </si>
   <si>
     <t>Glaudoberto</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>MOTIVA INFRAESTRUTURA DE MOBILIDADE S.A</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1410,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,9 +1577,6 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,6 +1587,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1772,128 +1775,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T195" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T195" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="68317"/>
-        <filter val="68324"/>
-        <filter val="68325"/>
-        <filter val="68329"/>
-        <filter val="68344"/>
-        <filter val="68350"/>
-        <filter val="68354"/>
-        <filter val="68355"/>
-        <filter val="68358"/>
-        <filter val="68360"/>
-        <filter val="68363"/>
-        <filter val="68364"/>
-        <filter val="68366"/>
-        <filter val="68369"/>
-        <filter val="68370"/>
-        <filter val="68371"/>
-        <filter val="68372"/>
-        <filter val="68373"/>
-        <filter val="68374"/>
-        <filter val="68375"/>
-        <filter val="68378"/>
-        <filter val="68379"/>
-        <filter val="68381"/>
-        <filter val="68382"/>
-        <filter val="68383"/>
-        <filter val="68384"/>
-        <filter val="68385"/>
-        <filter val="68386"/>
-        <filter val="68387"/>
-        <filter val="68389"/>
-        <filter val="68390"/>
-        <filter val="68392"/>
-        <filter val="68394"/>
-        <filter val="68395"/>
-        <filter val="68398"/>
-        <filter val="68399"/>
-        <filter val="68400"/>
-        <filter val="68401"/>
-        <filter val="68402"/>
-        <filter val="68403"/>
-        <filter val="68404"/>
-        <filter val="68405"/>
-        <filter val="68407"/>
-        <filter val="68408"/>
-        <filter val="68409"/>
-        <filter val="68411"/>
-        <filter val="68413"/>
-        <filter val="68414"/>
-        <filter val="68415"/>
-        <filter val="68416"/>
-        <filter val="68417"/>
-        <filter val="68419"/>
-        <filter val="68421"/>
-        <filter val="68422"/>
-        <filter val="68423"/>
-        <filter val="68424"/>
-        <filter val="68425"/>
-        <filter val="68426"/>
-        <filter val="68427"/>
-        <filter val="68428"/>
-        <filter val="68429"/>
-        <filter val="68430"/>
-        <filter val="68431"/>
-        <filter val="68432"/>
-        <filter val="68433"/>
-        <filter val="68434"/>
-        <filter val="68436"/>
-        <filter val="68437"/>
-        <filter val="68438"/>
-        <filter val="68439"/>
-        <filter val="68440"/>
-        <filter val="68441"/>
-        <filter val="68442"/>
-        <filter val="68443"/>
-        <filter val="68447"/>
-        <filter val="68448"/>
-        <filter val="68449"/>
-        <filter val="68450"/>
-        <filter val="68451"/>
-        <filter val="68452"/>
-        <filter val="68453"/>
-        <filter val="68456"/>
-        <filter val="68457"/>
-        <filter val="68459"/>
-        <filter val="68461"/>
-        <filter val="68642"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Armindo Santos"/>
-        <filter val="Bruna Bezerra da Silva"/>
-        <filter val="Cleyton Melo"/>
-        <filter val="Felipe Teruel"/>
-        <filter val="Giovanna Silva"/>
-        <filter val="Iasmin"/>
-        <filter val="Lucas"/>
-        <filter val="Mateus Santos"/>
-        <filter val="Natalia Silva"/>
-        <filter val="Ovandir Bazan"/>
-        <filter val="Paulo Lopes"/>
-        <filter val="Rogers Novais"/>
-        <filter val="Sergio Junior"/>
-        <filter val="Tays Kamozaki"/>
-        <filter val="Thiago Moreira"/>
-        <filter val="Thiago Piccoli"/>
-        <filter val="Vitor Prado"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="AGUARDANDO APROVAÇÃO"/>
-        <filter val="AGUARDANDO ENTREGA"/>
-        <filter val="AGUARDANDO PAGAMENTO"/>
-        <filter val="AJUSTE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T196" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T196" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T146">
     <sortCondition ref="A1:A146"/>
   </sortState>
@@ -2260,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T195"/>
+  <dimension ref="A1:T196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195:T195"/>
+    <sheetView tabSelected="1" topLeftCell="L178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M196" sqref="M196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2326,10 +2209,10 @@
         <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>107</v>
@@ -2353,7 +2236,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45782</v>
       </c>
@@ -2417,7 +2300,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>45784</v>
       </c>
@@ -2481,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>45784</v>
       </c>
@@ -2545,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>45784</v>
       </c>
@@ -2609,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>45784</v>
       </c>
@@ -2673,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>45784</v>
       </c>
@@ -2737,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>45785</v>
       </c>
@@ -2801,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>45785</v>
       </c>
@@ -2865,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>45785</v>
       </c>
@@ -2993,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>45786</v>
       </c>
@@ -3057,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>45786</v>
       </c>
@@ -3121,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>45786</v>
       </c>
@@ -3185,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>45786</v>
       </c>
@@ -3249,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>45786</v>
       </c>
@@ -3313,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>45786</v>
       </c>
@@ -3377,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>45789</v>
       </c>
@@ -3441,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>45789</v>
       </c>
@@ -3505,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>45790</v>
       </c>
@@ -3569,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>45790</v>
       </c>
@@ -3633,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>45790</v>
       </c>
@@ -3697,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>45790</v>
       </c>
@@ -3761,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>45791</v>
       </c>
@@ -3825,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>45791</v>
       </c>
@@ -3889,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>45792</v>
       </c>
@@ -3953,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>45792</v>
       </c>
@@ -4017,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>45792</v>
       </c>
@@ -4081,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>45792</v>
       </c>
@@ -4145,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>45792</v>
       </c>
@@ -4209,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>45793</v>
       </c>
@@ -4273,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>45793</v>
       </c>
@@ -4337,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>45793</v>
       </c>
@@ -4401,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>45793</v>
       </c>
@@ -4465,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>45796</v>
       </c>
@@ -4529,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>45796</v>
       </c>
@@ -4593,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>45796</v>
       </c>
@@ -4657,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>45796</v>
       </c>
@@ -4721,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>45797</v>
       </c>
@@ -4785,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>45797</v>
       </c>
@@ -4849,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>45797</v>
       </c>
@@ -4913,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>45797</v>
       </c>
@@ -4977,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>45797</v>
       </c>
@@ -5041,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>45797</v>
       </c>
@@ -5105,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>45797</v>
       </c>
@@ -5169,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45797</v>
       </c>
@@ -5233,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>45797</v>
       </c>
@@ -5297,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>45798</v>
       </c>
@@ -5361,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>45798</v>
       </c>
@@ -5425,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>45798</v>
       </c>
@@ -5489,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>45798</v>
       </c>
@@ -5553,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>45798</v>
       </c>
@@ -5617,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>45798</v>
       </c>
@@ -5681,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>45798</v>
       </c>
@@ -5809,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>45799</v>
       </c>
@@ -5873,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>45799</v>
       </c>
@@ -5937,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>45800</v>
       </c>
@@ -6001,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>45800</v>
       </c>
@@ -6065,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>45800</v>
       </c>
@@ -6129,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>45800</v>
       </c>
@@ -6193,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>45800</v>
       </c>
@@ -6257,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>45800</v>
       </c>
@@ -6321,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>45800</v>
       </c>
@@ -6385,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>45800</v>
       </c>
@@ -6449,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>45800</v>
       </c>
@@ -6513,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>45803</v>
       </c>
@@ -6577,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>45804</v>
       </c>
@@ -6641,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>45804</v>
       </c>
@@ -6705,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>45805</v>
       </c>
@@ -6769,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>45806</v>
       </c>
@@ -6833,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>45806</v>
       </c>
@@ -6897,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>45806</v>
       </c>
@@ -6961,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>45806</v>
       </c>
@@ -7025,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>45806</v>
       </c>
@@ -7153,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>45807</v>
       </c>
@@ -7217,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>45810</v>
       </c>
@@ -7281,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>45810</v>
       </c>
@@ -7345,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>45810</v>
       </c>
@@ -7409,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>45810</v>
       </c>
@@ -7473,7 +7356,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>45810</v>
       </c>
@@ -7537,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>45810</v>
       </c>
@@ -7601,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>45810</v>
       </c>
@@ -7793,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>45811</v>
       </c>
@@ -7857,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>45811</v>
       </c>
@@ -7921,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>45811</v>
       </c>
@@ -7985,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>45812</v>
       </c>
@@ -8049,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>45812</v>
       </c>
@@ -8113,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>45812</v>
       </c>
@@ -8177,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>45812</v>
       </c>
@@ -8241,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>45812</v>
       </c>
@@ -8305,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>45812</v>
       </c>
@@ -8369,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>45812</v>
       </c>
@@ -8433,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>45813</v>
       </c>
@@ -8497,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>45813</v>
       </c>
@@ -8561,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>45813</v>
       </c>
@@ -8625,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>45813</v>
       </c>
@@ -8689,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>45813</v>
       </c>
@@ -8817,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>45814</v>
       </c>
@@ -8881,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>45817</v>
       </c>
@@ -8945,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>45817</v>
       </c>
@@ -9009,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>45818</v>
       </c>
@@ -9073,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>45818</v>
       </c>
@@ -9137,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>45818</v>
       </c>
@@ -9201,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>45818</v>
       </c>
@@ -9521,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>45819</v>
       </c>
@@ -9585,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>45819</v>
       </c>
@@ -9713,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>45820</v>
       </c>
@@ -9777,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>45820</v>
       </c>
@@ -9841,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>45820</v>
       </c>
@@ -9905,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>45820</v>
       </c>
@@ -10033,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>45821</v>
       </c>
@@ -10097,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>45821</v>
       </c>
@@ -10161,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>45821</v>
       </c>
@@ -10225,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>45824</v>
       </c>
@@ -10289,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>45824</v>
       </c>
@@ -10353,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>45824</v>
       </c>
@@ -10417,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>45824</v>
       </c>
@@ -10481,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>45824</v>
       </c>
@@ -10545,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>45825</v>
       </c>
@@ -10609,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>45825</v>
       </c>
@@ -10673,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="42">
         <v>45826</v>
       </c>
@@ -10801,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>45826</v>
       </c>
@@ -10865,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>45826</v>
       </c>
@@ -10929,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>45826</v>
       </c>
@@ -10993,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>45826</v>
       </c>
@@ -11185,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>45826</v>
       </c>
@@ -11249,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>45826</v>
       </c>
@@ -11313,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>45826</v>
       </c>
@@ -11377,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>45826</v>
       </c>
@@ -11441,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>45826</v>
       </c>
@@ -11505,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>45826</v>
       </c>
@@ -11569,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>45826</v>
       </c>
@@ -11633,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>45831</v>
       </c>
@@ -11697,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>45831</v>
       </c>
@@ -11761,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>45831</v>
       </c>
@@ -11825,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>45831</v>
       </c>
@@ -11889,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>45831</v>
       </c>
@@ -11953,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>45831</v>
       </c>
@@ -12017,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>45831</v>
       </c>
@@ -12081,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>45831</v>
       </c>
@@ -12145,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>45831</v>
       </c>
@@ -12209,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>45833</v>
       </c>
@@ -12273,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>45833</v>
       </c>
@@ -12337,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>45833</v>
       </c>
@@ -12401,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>45833</v>
       </c>
@@ -12465,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>45833</v>
       </c>
@@ -12529,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>45834</v>
       </c>
@@ -12593,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>45834</v>
       </c>
@@ -12657,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>45834</v>
       </c>
@@ -12721,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>45834</v>
       </c>
@@ -12785,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>45835</v>
       </c>
@@ -12977,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>45839</v>
       </c>
@@ -13092,7 +12975,7 @@
         <v>30</v>
       </c>
       <c r="Q169" s="59" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="R169" s="59">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
@@ -13105,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>45839</v>
       </c>
@@ -13169,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>45839</v>
       </c>
@@ -13233,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>45839</v>
       </c>
@@ -13361,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>45840</v>
       </c>
@@ -13489,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>45841</v>
       </c>
@@ -13553,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>45842</v>
       </c>
@@ -13617,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>45842</v>
       </c>
@@ -13681,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>45846</v>
       </c>
@@ -13745,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>45846</v>
       </c>
@@ -13809,7 +13692,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>45846</v>
       </c>
@@ -13938,66 +13821,66 @@
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A183" s="48">
+      <c r="A183" s="11">
         <v>45846</v>
       </c>
-      <c r="B183" s="48">
+      <c r="B183" s="11">
         <v>45846</v>
       </c>
-      <c r="C183" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="48" t="s">
+      <c r="C183" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E183" s="48" t="s">
+      <c r="E183" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F183" s="49">
+      <c r="F183" s="12">
         <v>68461</v>
       </c>
-      <c r="G183" s="49" t="s">
+      <c r="G183" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H183" s="49" t="s">
+      <c r="H183" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I183" s="50">
+      <c r="I183" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J183" s="49">
+      <c r="J183" s="12">
         <v>66119</v>
       </c>
-      <c r="K183" s="49">
+      <c r="K183" s="12">
         <v>10677</v>
       </c>
-      <c r="L183" s="49" t="s">
+      <c r="L183" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="M183" s="48">
+      <c r="M183" s="11">
         <v>45870</v>
       </c>
-      <c r="N183" s="51">
+      <c r="N183" s="14">
         <v>2800</v>
       </c>
-      <c r="O183" s="49" t="s">
+      <c r="O183" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="P183" s="49">
+      <c r="P183" s="12">
         <v>30</v>
       </c>
-      <c r="Q183" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="R183" s="49">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
+      <c r="Q183" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S183" s="51">
-        <v>0</v>
-      </c>
-      <c r="T183" s="51">
+      <c r="R183" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
+        <v>24</v>
+      </c>
+      <c r="S183" s="14">
+        <v>0</v>
+      </c>
+      <c r="T183" s="14">
         <v>0</v>
       </c>
     </row>
@@ -14129,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>45848</v>
       </c>
@@ -14257,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>45848</v>
       </c>
@@ -14321,7 +14204,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>45848</v>
       </c>
@@ -14385,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>45848</v>
       </c>
@@ -14460,38 +14343,38 @@
         <v>7</v>
       </c>
       <c r="D191" s="48" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E191" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F191" s="49">
-        <v>68642</v>
+      <c r="F191" s="49" t="s">
+        <v>3</v>
       </c>
       <c r="G191" s="49" t="s">
-        <v>88</v>
+        <v>385</v>
       </c>
       <c r="H191" s="49" t="s">
-        <v>34</v>
+        <v>386</v>
       </c>
       <c r="I191" s="50">
         <f>NETWORKDAYS(B191, A191)</f>
         <v>1</v>
       </c>
       <c r="J191" s="49">
-        <v>66164</v>
-      </c>
-      <c r="K191" s="49" t="s">
+        <v>66166</v>
+      </c>
+      <c r="K191" s="49">
+        <v>11782</v>
+      </c>
+      <c r="L191" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="L191" s="49" t="s">
-        <v>385</v>
-      </c>
       <c r="M191" s="48">
-        <v>45860</v>
+        <v>45880</v>
       </c>
       <c r="N191" s="51">
-        <v>2300</v>
+        <v>2250</v>
       </c>
       <c r="O191" s="49" t="s">
         <v>121</v>
@@ -14504,268 +14387,332 @@
       </c>
       <c r="R191" s="49">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="S191" s="51">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T191" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="48">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A192" s="11">
         <v>45849</v>
       </c>
-      <c r="B192" s="48">
+      <c r="B192" s="11">
         <v>45849</v>
       </c>
-      <c r="C192" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E192" s="48" t="s">
+      <c r="C192" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F192" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="G192" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="H192" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="I192" s="50">
+      <c r="F192" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I192" s="13">
         <f>NETWORKDAYS(B192, A192)</f>
         <v>1</v>
       </c>
-      <c r="J192" s="49">
-        <v>66166</v>
-      </c>
-      <c r="K192" s="49">
-        <v>11782</v>
-      </c>
-      <c r="L192" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="M192" s="48">
-        <v>45880</v>
-      </c>
-      <c r="N192" s="51">
-        <v>2250</v>
-      </c>
-      <c r="O192" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="P192" s="49">
-        <v>30</v>
-      </c>
-      <c r="Q192" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="R192" s="49">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S192" s="51">
-        <v>250</v>
-      </c>
-      <c r="T192" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="11">
+      <c r="J192" s="12">
+        <v>66171</v>
+      </c>
+      <c r="K192" s="12">
+        <v>11783</v>
+      </c>
+      <c r="L192" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M192" s="11">
+        <v>45859</v>
+      </c>
+      <c r="N192" s="14">
+        <v>661.2</v>
+      </c>
+      <c r="O192" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P192" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q192" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R192" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
+        <v>10</v>
+      </c>
+      <c r="S192" s="14">
+        <v>0</v>
+      </c>
+      <c r="T192" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A193" s="48">
         <v>45849</v>
       </c>
-      <c r="B193" s="11">
+      <c r="B193" s="48">
         <v>45849</v>
       </c>
-      <c r="C193" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" s="11" t="s">
+      <c r="C193" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E193" s="11" t="s">
+      <c r="E193" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F193" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G193" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="H193" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I193" s="13">
+      <c r="F193" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G193" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H193" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193" s="50">
         <f>NETWORKDAYS(B193, A193)</f>
         <v>1</v>
       </c>
-      <c r="J193" s="12">
-        <v>66171</v>
-      </c>
-      <c r="K193" s="12">
-        <v>11783</v>
-      </c>
-      <c r="L193" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="M193" s="11">
-        <v>45859</v>
-      </c>
-      <c r="N193" s="14">
-        <v>661.2</v>
-      </c>
-      <c r="O193" s="12" t="s">
+      <c r="J193" s="49">
+        <v>66176</v>
+      </c>
+      <c r="K193" s="49">
+        <v>419</v>
+      </c>
+      <c r="L193" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="M193" s="48">
+        <v>45849</v>
+      </c>
+      <c r="N193" s="51">
+        <v>4455.05</v>
+      </c>
+      <c r="O193" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="P193" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q193" s="12" t="s">
+      <c r="P193" s="49">
+        <v>30</v>
+      </c>
+      <c r="Q193" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="R193" s="49">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S193" s="51">
+        <v>0</v>
+      </c>
+      <c r="T193" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A194" s="62">
+        <v>45864</v>
+      </c>
+      <c r="B194" s="62">
+        <v>45864</v>
+      </c>
+      <c r="C194" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F194" s="63">
+        <v>70090</v>
+      </c>
+      <c r="G194" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="H194" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="I194" s="64">
+        <f>NETWORKDAYS(B194, A194)</f>
+        <v>0</v>
+      </c>
+      <c r="J194" s="63">
+        <v>70050</v>
+      </c>
+      <c r="K194" s="63">
+        <v>419</v>
+      </c>
+      <c r="L194" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="M194" s="62">
+        <v>45874</v>
+      </c>
+      <c r="N194" s="65">
+        <v>400</v>
+      </c>
+      <c r="O194" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="P194" s="63">
+        <v>30</v>
+      </c>
+      <c r="Q194" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="R193" s="12">
+      <c r="R194" s="63">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
         <v>10</v>
       </c>
-      <c r="S193" s="14">
-        <v>0</v>
-      </c>
-      <c r="T193" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="48">
-        <v>45849</v>
-      </c>
-      <c r="B194" s="48">
-        <v>45849</v>
-      </c>
-      <c r="C194" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E194" s="48" t="s">
+      <c r="S194" s="65">
+        <v>0</v>
+      </c>
+      <c r="T194" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A195" s="62">
+        <v>45864</v>
+      </c>
+      <c r="B195" s="62">
+        <v>45864</v>
+      </c>
+      <c r="C195" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F194" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="G194" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H194" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="I194" s="50">
-        <f>NETWORKDAYS(B194, A194)</f>
-        <v>1</v>
-      </c>
-      <c r="J194" s="49">
-        <v>66176</v>
-      </c>
-      <c r="K194" s="49">
+      <c r="F195" s="63">
+        <v>70091</v>
+      </c>
+      <c r="G195" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="H195" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="I195" s="64">
+        <f>NETWORKDAYS(B195, A195)</f>
+        <v>0</v>
+      </c>
+      <c r="J195" s="63">
+        <v>70051</v>
+      </c>
+      <c r="K195" s="63">
         <v>419</v>
       </c>
-      <c r="L194" s="49" t="s">
+      <c r="L195" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="M194" s="48">
-        <v>45849</v>
-      </c>
-      <c r="N194" s="51">
-        <v>4455.05</v>
-      </c>
-      <c r="O194" s="49" t="s">
+      <c r="M195" s="62">
+        <v>45867</v>
+      </c>
+      <c r="N195" s="65">
+        <v>400</v>
+      </c>
+      <c r="O195" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="P194" s="49">
+      <c r="P195" s="63">
         <v>30</v>
       </c>
-      <c r="Q194" s="49" t="s">
-        <v>374</v>
-      </c>
-      <c r="R194" s="49">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
-        <v>0</v>
-      </c>
-      <c r="S194" s="51">
-        <v>0</v>
-      </c>
-      <c r="T194" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A195" s="63">
+      <c r="Q195" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="R195" s="63">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S195" s="65">
+        <v>0</v>
+      </c>
+      <c r="T195" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A196" s="62">
         <v>45864</v>
       </c>
-      <c r="B195" s="63">
+      <c r="B196" s="62">
         <v>45864</v>
       </c>
-      <c r="C195" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E195" s="63" t="s">
+      <c r="C196" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F195" s="64">
-        <v>70000</v>
-      </c>
-      <c r="G195" s="64" t="s">
+      <c r="F196" s="63">
+        <v>70092</v>
+      </c>
+      <c r="G196" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="H196" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="I196" s="64">
+        <f>NETWORKDAYS(B196, A196)</f>
+        <v>0</v>
+      </c>
+      <c r="J196" s="63">
+        <v>70052</v>
+      </c>
+      <c r="K196" s="67">
+        <v>420</v>
+      </c>
+      <c r="L196" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="H195" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="I195" s="65">
-        <f>NETWORKDAYS(B195, A195)</f>
-        <v>0</v>
-      </c>
-      <c r="J195" s="64">
-        <v>70001</v>
-      </c>
-      <c r="K195" s="64">
-        <v>2931</v>
-      </c>
-      <c r="L195" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="M195" s="63">
+      <c r="M196" s="62">
         <v>45868</v>
       </c>
-      <c r="N195" s="66">
-        <v>3500</v>
-      </c>
-      <c r="O195" s="64" t="s">
+      <c r="N196" s="65">
+        <v>8000</v>
+      </c>
+      <c r="O196" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="P195" s="64">
+      <c r="P196" s="63">
         <v>30</v>
       </c>
-      <c r="Q195" s="64" t="s">
+      <c r="Q196" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="R195" s="64">
+      <c r="R196" s="67">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[previsão de entrega]],"D")</f>
         <v>4</v>
       </c>
-      <c r="S195" s="66">
-        <v>320</v>
-      </c>
-      <c r="T195" s="66">
+      <c r="S196" s="65">
+        <v>0</v>
+      </c>
+      <c r="T196" s="65">
         <v>0</v>
       </c>
     </row>
@@ -16052,7 +15999,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="37">
@@ -16066,7 +16013,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="52">
         <v>50</v>
       </c>
@@ -16078,7 +16025,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="38">
         <v>13</v>
       </c>
@@ -16090,7 +16037,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="52">
         <v>13</v>
       </c>
@@ -16102,7 +16049,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="38">
         <v>7</v>
       </c>
@@ -16114,7 +16061,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="52">
         <v>7</v>
       </c>
@@ -16138,7 +16085,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="66" t="s">
         <v>232</v>
       </c>
       <c r="B10" s="36">
@@ -16152,7 +16099,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="36">
         <v>2</v>
       </c>
@@ -16164,7 +16111,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="36">
         <v>1</v>
       </c>
@@ -16708,7 +16655,7 @@
         <v>11782</v>
       </c>
       <c r="E30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -16725,7 +16672,7 @@
         <v>11783</v>
       </c>
       <c r="E31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -16737,15 +16684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068C9492B0923CC418696A025D9B79530" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12b5152450087b045156d8e5bdb7ac17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7545978-8353-4157-ab02-92f5c69a97d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74a8823586b7fc5940aaf3e9d5b706e7" ns3:_="">
     <xsd:import namespace="b7545978-8353-4157-ab02-92f5c69a97d9"/>
@@ -16871,21 +16809,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED76536-08DB-4BCA-BAA6-597FC860B20C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16903,7 +16842,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -16917,4 +16856,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2A02F8-5AF9-4AF1-A683-6A3F04F4A2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639662BA-467F-4F10-BA20-604BC6341315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1653,6 +1653,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1742,16 +1743,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T226" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T226" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="AGUARDANDO APROVAÇÃO"/>
-        <filter val="AGUARDANDO ENTREGA"/>
-        <filter val="AGUARDANDO PAGAMENTO"/>
-        <filter val="AJUSTE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T226" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T146">
     <sortCondition ref="A1:A146"/>
   </sortState>
@@ -2120,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K224" sqref="K224"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2211,7 +2203,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45782</v>
       </c>
@@ -2275,7 +2267,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>45784</v>
       </c>
@@ -2339,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>45784</v>
       </c>
@@ -2403,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>45784</v>
       </c>
@@ -2467,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>45784</v>
       </c>
@@ -2531,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>45784</v>
       </c>
@@ -2595,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>45785</v>
       </c>
@@ -2659,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>45785</v>
       </c>
@@ -2723,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>45785</v>
       </c>
@@ -2851,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>45786</v>
       </c>
@@ -2915,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>45786</v>
       </c>
@@ -2979,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>45786</v>
       </c>
@@ -3043,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>45786</v>
       </c>
@@ -3107,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>45786</v>
       </c>
@@ -3171,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>45786</v>
       </c>
@@ -3235,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>45789</v>
       </c>
@@ -3299,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>45789</v>
       </c>
@@ -3363,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>45790</v>
       </c>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>45790</v>
       </c>
@@ -3491,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>45790</v>
       </c>
@@ -3555,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>45790</v>
       </c>
@@ -3619,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>45791</v>
       </c>
@@ -3683,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>45791</v>
       </c>
@@ -3747,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>45792</v>
       </c>
@@ -3811,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>45792</v>
       </c>
@@ -3875,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>45792</v>
       </c>
@@ -3939,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>45792</v>
       </c>
@@ -4003,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>45792</v>
       </c>
@@ -4067,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>45793</v>
       </c>
@@ -4131,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>45793</v>
       </c>
@@ -4195,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>45793</v>
       </c>
@@ -4259,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>45793</v>
       </c>
@@ -4323,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>45796</v>
       </c>
@@ -4387,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>45796</v>
       </c>
@@ -4451,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>45796</v>
       </c>
@@ -4515,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>45796</v>
       </c>
@@ -4579,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>45797</v>
       </c>
@@ -4643,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>45797</v>
       </c>
@@ -4707,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>45797</v>
       </c>
@@ -4771,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>45797</v>
       </c>
@@ -4835,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>45797</v>
       </c>
@@ -4899,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>45797</v>
       </c>
@@ -4963,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>45797</v>
       </c>
@@ -5027,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45797</v>
       </c>
@@ -5091,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>45797</v>
       </c>
@@ -5155,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>45798</v>
       </c>
@@ -5219,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>45798</v>
       </c>
@@ -5283,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>45798</v>
       </c>
@@ -5347,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>45798</v>
       </c>
@@ -5411,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>45798</v>
       </c>
@@ -5475,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>45798</v>
       </c>
@@ -5539,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>45798</v>
       </c>
@@ -5667,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>45799</v>
       </c>
@@ -5731,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>45799</v>
       </c>
@@ -5795,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>45800</v>
       </c>
@@ -5859,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>45800</v>
       </c>
@@ -5923,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>45800</v>
       </c>
@@ -5987,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>45800</v>
       </c>
@@ -6051,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>45800</v>
       </c>
@@ -6115,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>45800</v>
       </c>
@@ -6179,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>45800</v>
       </c>
@@ -6243,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>45800</v>
       </c>
@@ -6307,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>45800</v>
       </c>
@@ -6371,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>45803</v>
       </c>
@@ -6435,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>45804</v>
       </c>
@@ -6499,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>45804</v>
       </c>
@@ -6563,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>45805</v>
       </c>
@@ -6627,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>45806</v>
       </c>
@@ -6691,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>45806</v>
       </c>
@@ -6755,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>45806</v>
       </c>
@@ -6819,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>45806</v>
       </c>
@@ -6883,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>45806</v>
       </c>
@@ -6947,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>45806</v>
       </c>
@@ -7011,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>45807</v>
       </c>
@@ -7075,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>45810</v>
       </c>
@@ -7139,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>45810</v>
       </c>
@@ -7203,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>45810</v>
       </c>
@@ -7267,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>45810</v>
       </c>
@@ -7331,7 +7323,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>45810</v>
       </c>
@@ -7395,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>45810</v>
       </c>
@@ -7459,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>45810</v>
       </c>
@@ -7523,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>45810</v>
       </c>
@@ -7587,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="28">
         <v>45810</v>
       </c>
@@ -7651,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>45811</v>
       </c>
@@ -7715,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>45811</v>
       </c>
@@ -7779,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>45811</v>
       </c>
@@ -7843,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>45812</v>
       </c>
@@ -7907,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>45812</v>
       </c>
@@ -7971,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>45812</v>
       </c>
@@ -8035,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>45812</v>
       </c>
@@ -8099,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>45812</v>
       </c>
@@ -8163,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>45812</v>
       </c>
@@ -8227,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>45812</v>
       </c>
@@ -8291,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>45813</v>
       </c>
@@ -8355,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>45813</v>
       </c>
@@ -8419,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>45813</v>
       </c>
@@ -8483,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>45813</v>
       </c>
@@ -8547,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>45813</v>
       </c>
@@ -8611,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>45813</v>
       </c>
@@ -8675,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>45814</v>
       </c>
@@ -8739,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>45817</v>
       </c>
@@ -8803,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>45817</v>
       </c>
@@ -8867,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>45818</v>
       </c>
@@ -8931,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>45818</v>
       </c>
@@ -8995,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>45818</v>
       </c>
@@ -9249,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>45818</v>
       </c>
@@ -9377,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>45819</v>
       </c>
@@ -9441,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>45819</v>
       </c>
@@ -9505,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>45819</v>
       </c>
@@ -9569,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>45820</v>
       </c>
@@ -9633,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>45820</v>
       </c>
@@ -9697,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>45820</v>
       </c>
@@ -9761,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>45820</v>
       </c>
@@ -9825,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>45820</v>
       </c>
@@ -9889,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>45821</v>
       </c>
@@ -9953,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>45821</v>
       </c>
@@ -10017,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>45821</v>
       </c>
@@ -10081,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>45824</v>
       </c>
@@ -10145,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>45824</v>
       </c>
@@ -10209,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>45824</v>
       </c>
@@ -10273,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>45824</v>
       </c>
@@ -10337,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>45824</v>
       </c>
@@ -10401,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>45825</v>
       </c>
@@ -10465,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>45825</v>
       </c>
@@ -10657,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>45826</v>
       </c>
@@ -10721,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>45826</v>
       </c>
@@ -10785,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>45826</v>
       </c>
@@ -10849,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>45826</v>
       </c>
@@ -10977,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>45826</v>
       </c>
@@ -11041,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>45826</v>
       </c>
@@ -11105,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>45826</v>
       </c>
@@ -11169,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>45826</v>
       </c>
@@ -11233,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>45826</v>
       </c>
@@ -11297,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>45826</v>
       </c>
@@ -11361,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>45826</v>
       </c>
@@ -11425,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>45826</v>
       </c>
@@ -11489,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>45831</v>
       </c>
@@ -11553,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>45831</v>
       </c>
@@ -11617,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>45831</v>
       </c>
@@ -11745,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>45831</v>
       </c>
@@ -11809,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>45831</v>
       </c>
@@ -11873,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>45831</v>
       </c>
@@ -11937,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>45831</v>
       </c>
@@ -12001,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>45831</v>
       </c>
@@ -12065,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>45833</v>
       </c>
@@ -12129,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>45833</v>
       </c>
@@ -12193,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>45833</v>
       </c>
@@ -12257,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>45833</v>
       </c>
@@ -12321,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>45833</v>
       </c>
@@ -12385,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>45834</v>
       </c>
@@ -12449,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>45834</v>
       </c>
@@ -12513,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>45834</v>
       </c>
@@ -12577,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>45834</v>
       </c>
@@ -12641,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>45835</v>
       </c>
@@ -12705,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>45835</v>
       </c>
@@ -12769,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>45839</v>
       </c>
@@ -12833,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>45839</v>
       </c>
@@ -12897,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>45839</v>
       </c>
@@ -12961,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>45839</v>
       </c>
@@ -13025,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>45839</v>
       </c>
@@ -13089,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>45839</v>
       </c>
@@ -13217,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>45840</v>
       </c>
@@ -13345,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>45841</v>
       </c>
@@ -13409,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>45842</v>
       </c>
@@ -13473,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>45842</v>
       </c>
@@ -13537,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>45846</v>
       </c>
@@ -13601,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>45846</v>
       </c>
@@ -13665,7 +13657,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>45846</v>
       </c>
@@ -13857,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>45846</v>
       </c>
@@ -13985,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>45848</v>
       </c>
@@ -14113,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>45848</v>
       </c>
@@ -14177,7 +14169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>45848</v>
       </c>
@@ -14241,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>45848</v>
       </c>
@@ -14305,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>45849</v>
       </c>
@@ -14433,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>45849</v>
       </c>
@@ -14497,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>45849</v>
       </c>
@@ -14561,7 +14553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>45853</v>
       </c>
@@ -14625,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>45853</v>
       </c>
@@ -14689,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>45853</v>
       </c>
@@ -14753,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>45854</v>
       </c>
@@ -14817,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>45854</v>
       </c>
@@ -14881,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>45854</v>
       </c>
@@ -14945,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>45854</v>
       </c>
@@ -15009,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
         <v>45854</v>
       </c>
@@ -15073,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
         <v>45855</v>
       </c>
@@ -15137,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
         <v>45855</v>
       </c>
@@ -15201,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>45855</v>
       </c>
@@ -15457,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>45859</v>
       </c>
@@ -15521,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>45859</v>
       </c>
@@ -15585,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>45859</v>
       </c>
@@ -15649,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>45859</v>
       </c>
@@ -15713,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>45859</v>
       </c>
@@ -15777,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>45859</v>
       </c>
@@ -15969,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>45860</v>
       </c>
@@ -16033,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>45860</v>
       </c>
@@ -16225,7 +16217,7 @@
         <v>141.4</v>
       </c>
     </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>45862</v>
       </c>
@@ -16289,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>45862</v>
       </c>
@@ -16353,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>45863</v>
       </c>
@@ -16481,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>45863</v>
       </c>

--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup_frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639662BA-467F-4F10-BA20-604BC6341315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CD4967-4205-4EA9-B201-2A81B1E64D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -1653,7 +1653,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1743,7 +1742,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T226" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T226" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}"/>
+  <autoFilter ref="A1:T226" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="AGUARDANDO APROVAÇÃO"/>
+        <filter val="AGUARDANDO ENTREGA"/>
+        <filter val="AGUARDANDO PAGAMENTO"/>
+        <filter val="AJUSTE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T146">
     <sortCondition ref="A1:A146"/>
   </sortState>
@@ -2112,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2203,7 +2211,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45782</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>45784</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>45784</v>
       </c>
@@ -2395,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>45784</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>45784</v>
       </c>
@@ -2523,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>45784</v>
       </c>
@@ -2587,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>45785</v>
       </c>
@@ -2651,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>45785</v>
       </c>
@@ -2715,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>45785</v>
       </c>
@@ -2843,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>45786</v>
       </c>
@@ -2907,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>45786</v>
       </c>
@@ -2971,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>45786</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>45786</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>45786</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>45786</v>
       </c>
@@ -3227,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>45789</v>
       </c>
@@ -3291,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>45789</v>
       </c>
@@ -3355,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>45790</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>45790</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>45790</v>
       </c>
@@ -3547,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>45790</v>
       </c>
@@ -3611,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>45791</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>45791</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>45792</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>45792</v>
       </c>
@@ -3867,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>45792</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>45792</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>45792</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>45793</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>45793</v>
       </c>
@@ -4187,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>45793</v>
       </c>
@@ -4251,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>45793</v>
       </c>
@@ -4315,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>45796</v>
       </c>
@@ -4379,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>45796</v>
       </c>
@@ -4443,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>45796</v>
       </c>
@@ -4507,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>45796</v>
       </c>
@@ -4571,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>45797</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>45797</v>
       </c>
@@ -4699,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>45797</v>
       </c>
@@ -4763,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>45797</v>
       </c>
@@ -4827,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>45797</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>45797</v>
       </c>
@@ -4955,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>45797</v>
       </c>
@@ -5019,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45797</v>
       </c>
@@ -5083,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>45797</v>
       </c>
@@ -5147,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>45798</v>
       </c>
@@ -5211,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>45798</v>
       </c>
@@ -5275,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>45798</v>
       </c>
@@ -5339,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>45798</v>
       </c>
@@ -5403,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>45798</v>
       </c>
@@ -5467,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>45798</v>
       </c>
@@ -5531,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>45798</v>
       </c>
@@ -5659,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>45799</v>
       </c>
@@ -5723,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>45799</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>45800</v>
       </c>
@@ -5851,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>45800</v>
       </c>
@@ -5915,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>45800</v>
       </c>
@@ -5979,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>45800</v>
       </c>
@@ -6043,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>45800</v>
       </c>
@@ -6107,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>45800</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>45800</v>
       </c>
@@ -6235,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>45800</v>
       </c>
@@ -6299,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>45800</v>
       </c>
@@ -6363,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>45803</v>
       </c>
@@ -6427,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>45804</v>
       </c>
@@ -6491,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>45804</v>
       </c>
@@ -6555,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>45805</v>
       </c>
@@ -6619,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>45806</v>
       </c>
@@ -6683,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>45806</v>
       </c>
@@ -6747,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>45806</v>
       </c>
@@ -6811,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>45806</v>
       </c>
@@ -6875,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>45806</v>
       </c>
@@ -6939,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>45806</v>
       </c>
@@ -7003,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>45807</v>
       </c>
@@ -7067,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>45810</v>
       </c>
@@ -7131,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>45810</v>
       </c>
@@ -7195,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>45810</v>
       </c>
@@ -7259,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>45810</v>
       </c>
@@ -7323,7 +7331,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>45810</v>
       </c>
@@ -7387,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>45810</v>
       </c>
@@ -7451,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>45810</v>
       </c>
@@ -7515,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>45810</v>
       </c>
@@ -7579,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="28">
         <v>45810</v>
       </c>
@@ -7643,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>45811</v>
       </c>
@@ -7707,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>45811</v>
       </c>
@@ -7771,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>45811</v>
       </c>
@@ -7835,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>45812</v>
       </c>
@@ -7899,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>45812</v>
       </c>
@@ -7963,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>45812</v>
       </c>
@@ -8027,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>45812</v>
       </c>
@@ -8091,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>45812</v>
       </c>
@@ -8155,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>45812</v>
       </c>
@@ -8219,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>45812</v>
       </c>
@@ -8283,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>45813</v>
       </c>
@@ -8347,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>45813</v>
       </c>
@@ -8411,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>45813</v>
       </c>
@@ -8475,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>45813</v>
       </c>
@@ -8539,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>45813</v>
       </c>
@@ -8603,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>45813</v>
       </c>
@@ -8667,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>45814</v>
       </c>
@@ -8731,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>45817</v>
       </c>
@@ -8795,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>45817</v>
       </c>
@@ -8859,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>45818</v>
       </c>
@@ -8923,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>45818</v>
       </c>
@@ -8987,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>45818</v>
       </c>
@@ -9088,7 +9096,7 @@
         <v>295</v>
       </c>
       <c r="M109" s="44">
-        <v>45843</v>
+        <v>45869</v>
       </c>
       <c r="N109" s="47">
         <v>7774.51</v>
@@ -9104,7 +9112,7 @@
       </c>
       <c r="R109" s="45">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="S109" s="47">
         <v>0</v>
@@ -9241,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>45818</v>
       </c>
@@ -9369,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>45819</v>
       </c>
@@ -9433,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>45819</v>
       </c>
@@ -9497,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>45819</v>
       </c>
@@ -9561,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>45820</v>
       </c>
@@ -9625,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>45820</v>
       </c>
@@ -9689,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>45820</v>
       </c>
@@ -9753,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>45820</v>
       </c>
@@ -9817,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>45820</v>
       </c>
@@ -9881,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>45821</v>
       </c>
@@ -9945,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>45821</v>
       </c>
@@ -10009,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>45821</v>
       </c>
@@ -10073,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>45824</v>
       </c>
@@ -10137,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>45824</v>
       </c>
@@ -10201,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>45824</v>
       </c>
@@ -10265,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>45824</v>
       </c>
@@ -10329,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>45824</v>
       </c>
@@ -10393,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>45825</v>
       </c>
@@ -10457,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>45825</v>
       </c>
@@ -10649,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>45826</v>
       </c>
@@ -10713,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>45826</v>
       </c>
@@ -10777,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>45826</v>
       </c>
@@ -10841,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>45826</v>
       </c>
@@ -10969,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>45826</v>
       </c>
@@ -11033,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>45826</v>
       </c>
@@ -11097,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>45826</v>
       </c>
@@ -11161,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>45826</v>
       </c>
@@ -11225,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>45826</v>
       </c>
@@ -11289,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>45826</v>
       </c>
@@ -11353,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>45826</v>
       </c>
@@ -11417,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>45826</v>
       </c>
@@ -11481,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>45831</v>
       </c>
@@ -11545,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>45831</v>
       </c>
@@ -11609,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>45831</v>
       </c>
@@ -11737,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>45831</v>
       </c>
@@ -11801,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>45831</v>
       </c>
@@ -11865,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>45831</v>
       </c>
@@ -11929,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>45831</v>
       </c>
@@ -11993,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>45831</v>
       </c>
@@ -12057,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>45833</v>
       </c>
@@ -12121,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>45833</v>
       </c>
@@ -12185,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>45833</v>
       </c>
@@ -12249,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>45833</v>
       </c>
@@ -12313,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>45833</v>
       </c>
@@ -12377,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>45834</v>
       </c>
@@ -12441,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>45834</v>
       </c>
@@ -12505,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>45834</v>
       </c>
@@ -12569,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>45834</v>
       </c>
@@ -12633,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>45835</v>
       </c>
@@ -12697,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>45835</v>
       </c>
@@ -12761,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>45839</v>
       </c>
@@ -12825,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>45839</v>
       </c>
@@ -12889,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>45839</v>
       </c>
@@ -12953,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>45839</v>
       </c>
@@ -13017,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>45839</v>
       </c>
@@ -13081,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>45839</v>
       </c>
@@ -13209,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>45840</v>
       </c>
@@ -13337,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>45841</v>
       </c>
@@ -13401,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>45842</v>
       </c>
@@ -13465,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>45842</v>
       </c>
@@ -13529,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>45846</v>
       </c>
@@ -13593,7 +13601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>45846</v>
       </c>
@@ -13657,7 +13665,7 @@
         <v>285.3</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>45846</v>
       </c>
@@ -13849,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>45846</v>
       </c>
@@ -13977,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>45848</v>
       </c>
@@ -14105,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>45848</v>
       </c>
@@ -14169,7 +14177,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>45848</v>
       </c>
@@ -14233,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>45848</v>
       </c>
@@ -14297,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>45849</v>
       </c>
@@ -14425,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>45849</v>
       </c>
@@ -14489,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>45849</v>
       </c>
@@ -14553,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>45853</v>
       </c>
@@ -14617,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>45853</v>
       </c>
@@ -14681,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>45853</v>
       </c>
@@ -14745,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>45854</v>
       </c>
@@ -14809,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>45854</v>
       </c>
@@ -14873,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>45854</v>
       </c>
@@ -14937,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>45854</v>
       </c>
@@ -15001,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
         <v>45854</v>
       </c>
@@ -15065,7 +15073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
         <v>45855</v>
       </c>
@@ -15129,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
         <v>45855</v>
       </c>
@@ -15193,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>45855</v>
       </c>
@@ -15449,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>45859</v>
       </c>
@@ -15513,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>45859</v>
       </c>
@@ -15577,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>45859</v>
       </c>
@@ -15641,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>45859</v>
       </c>
@@ -15705,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>45859</v>
       </c>
@@ -15769,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>45859</v>
       </c>
@@ -15961,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>45860</v>
       </c>
@@ -16025,7 +16033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>45860</v>
       </c>
@@ -16217,7 +16225,7 @@
         <v>141.4</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>45862</v>
       </c>
@@ -16281,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>45862</v>
       </c>
@@ -16345,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>45863</v>
       </c>
@@ -16473,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>45863</v>
       </c>
@@ -18545,12 +18553,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18680,15 +18685,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18712,17 +18728,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CD4967-4205-4EA9-B201-2A81B1E64D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA06748-2258-433D-B4CF-3D2C8C8FC81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -2120,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5642,7 +5642,7 @@
         <v>203</v>
       </c>
       <c r="M55" s="31">
-        <v>45807</v>
+        <v>45869</v>
       </c>
       <c r="N55" s="33">
         <v>26920</v>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="R55" s="32">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="S55" s="33">
         <v>0</v>
@@ -13320,7 +13320,7 @@
         <v>354</v>
       </c>
       <c r="M175" s="11">
-        <v>45859</v>
+        <v>45869</v>
       </c>
       <c r="N175" s="14">
         <v>1750</v>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="R175" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="S175" s="14">
         <v>0</v>
@@ -15905,67 +15905,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A216" s="11">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="6">
         <v>45860</v>
       </c>
-      <c r="B216" s="11">
+      <c r="B216" s="6">
         <v>45860</v>
       </c>
-      <c r="C216" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D216" s="11" t="s">
+      <c r="C216" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E216" s="11" t="s">
+      <c r="E216" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F216" s="12">
+      <c r="F216" s="7">
         <v>68471</v>
       </c>
-      <c r="G216" s="12" t="s">
+      <c r="G216" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H216" s="12" t="s">
+      <c r="H216" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I216" s="13">
+      <c r="I216" s="10">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="J216" s="12">
+      <c r="J216" s="7">
         <v>66376</v>
       </c>
-      <c r="K216" s="12">
+      <c r="K216" s="7">
         <v>11783</v>
       </c>
-      <c r="L216" s="12" t="s">
+      <c r="L216" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="M216" s="11">
+      <c r="M216" s="6">
         <v>45863</v>
       </c>
-      <c r="N216" s="14">
+      <c r="N216" s="8">
         <v>1235.02</v>
       </c>
-      <c r="O216" s="12" t="s">
+      <c r="O216" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P216" s="12">
+      <c r="P216" s="7">
         <v>30</v>
       </c>
-      <c r="Q216" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R216" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>3</v>
-      </c>
-      <c r="S216" s="14">
-        <v>0</v>
-      </c>
-      <c r="T216" s="14">
+      <c r="Q216" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R216" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S216" s="8">
+        <v>0</v>
+      </c>
+      <c r="T216" s="8">
         <v>0</v>
       </c>
     </row>
@@ -18553,9 +18553,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18685,26 +18688,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18728,9 +18720,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA06748-2258-433D-B4CF-3D2C8C8FC81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E002E670-6C05-4DB9-AE8E-6436BFF6C3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -2120,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L113" sqref="L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10952,7 +10952,7 @@
         <v>322</v>
       </c>
       <c r="M138" s="11">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="N138" s="14">
         <v>2922.9</v>
@@ -10968,7 +10968,7 @@
       </c>
       <c r="R138" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S138" s="14">
         <v>0</v>
@@ -15841,67 +15841,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A215" s="11">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="6">
         <v>45860</v>
       </c>
-      <c r="B215" s="11">
+      <c r="B215" s="6">
         <v>45860</v>
       </c>
-      <c r="C215" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D215" s="11" t="s">
+      <c r="C215" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E215" s="11" t="s">
+      <c r="E215" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F215" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G215" s="12" t="s">
+      <c r="F215" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G215" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H215" s="12" t="s">
+      <c r="H215" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I215" s="13">
+      <c r="I215" s="10">
         <f t="shared" ref="I215:I220" si="14">NETWORKDAYS(B215, A215)</f>
         <v>1</v>
       </c>
-      <c r="J215" s="12">
+      <c r="J215" s="7">
         <v>66374</v>
       </c>
-      <c r="K215" s="12" t="s">
+      <c r="K215" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L215" s="12" t="s">
+      <c r="L215" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M215" s="11">
+      <c r="M215" s="6">
         <v>45867</v>
       </c>
-      <c r="N215" s="14">
+      <c r="N215" s="8">
         <v>528</v>
       </c>
-      <c r="O215" s="12" t="s">
+      <c r="O215" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P215" s="12">
+      <c r="P215" s="7">
         <v>28</v>
       </c>
-      <c r="Q215" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R215" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
-      </c>
-      <c r="S215" s="14">
-        <v>0</v>
-      </c>
-      <c r="T215" s="14">
+      <c r="Q215" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R215" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S215" s="8">
+        <v>0</v>
+      </c>
+      <c r="T215" s="8">
         <v>0</v>
       </c>
     </row>
@@ -18553,12 +18553,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18688,15 +18685,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18720,17 +18728,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E002E670-6C05-4DB9-AE8E-6436BFF6C3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D3343-1F23-43EB-9E4A-7A6AE0C2C2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>Filho, Glaudoberto</author>
   </authors>
   <commentList>
-    <comment ref="T220" authorId="0" shapeId="0" xr:uid="{6F0B1F1F-8317-47FC-8965-8B65A4B64726}">
+    <comment ref="T183" authorId="0" shapeId="0" xr:uid="{6F0B1F1F-8317-47FC-8965-8B65A4B64726}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="400">
   <si>
     <t>SC</t>
   </si>
@@ -1221,9 +1221,6 @@
     <t>DIAS E GARCIA LTDA</t>
   </si>
   <si>
-    <t>AJUSTE</t>
-  </si>
-  <si>
     <t>11071-961</t>
   </si>
   <si>
@@ -1248,9 +1245,6 @@
     <t>MAMUTE ELETRONICA LTDA   ME</t>
   </si>
   <si>
-    <t>AGUARDANDO PAGAMENTO</t>
-  </si>
-  <si>
     <t>MOLDMIX INDUSTRIA E COMERCIO LTDA</t>
   </si>
   <si>
@@ -1267,6 +1261,21 @@
   </si>
   <si>
     <t>Razao Social</t>
+  </si>
+  <si>
+    <t>PERTEC PERFIL TÉCNICO</t>
+  </si>
+  <si>
+    <t>indiretos</t>
+  </si>
+  <si>
+    <t>Thais Spena</t>
+  </si>
+  <si>
+    <t>TRAYES PRODUÇÕES E CENOGRAFIA</t>
+  </si>
+  <si>
+    <t>ELTRON COMERCIAL DE FERRAMENTAS LTDA</t>
   </si>
 </sst>
 </file>
@@ -1741,19 +1750,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T226" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T226" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T234" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T234" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
         <filter val="AGUARDANDO ENTREGA"/>
-        <filter val="AGUARDANDO PAGAMENTO"/>
-        <filter val="AJUSTE"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T146">
-    <sortCondition ref="A1:A146"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T233">
+    <sortCondition ref="M1:M233"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -2118,31 +2125,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T226"/>
+  <dimension ref="A1:T234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L113" sqref="L113"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K208" sqref="K208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="76.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.90625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.81640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="25.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.26953125" customWidth="1"/>
     <col min="20" max="20" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -2184,10 +2191,10 @@
         <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>107</v>
@@ -2237,7 +2244,7 @@
         <v>130</v>
       </c>
       <c r="I2" s="10">
-        <f t="shared" ref="I2:I33" si="0">NETWORKDAYS(B2, A2)</f>
+        <f t="shared" ref="I2:I10" si="0">NETWORKDAYS(B2, A2)</f>
         <v>1</v>
       </c>
       <c r="J2" s="7">
@@ -2789,63 +2796,63 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <v>45785</v>
+        <v>45848</v>
       </c>
       <c r="B11" s="11">
-        <v>45784</v>
+        <v>45848</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="12">
-        <v>68369</v>
+        <v>68459</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
+        <v>1</v>
       </c>
       <c r="J11" s="12">
-        <v>65234</v>
+        <v>66162</v>
       </c>
       <c r="K11" s="12">
-        <v>11610</v>
+        <v>11781</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="M11" s="11">
         <v>45855</v>
       </c>
       <c r="N11" s="14">
-        <v>9114.5499999999993</v>
+        <v>5396.77</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P11" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R11" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="S11" s="14">
-        <v>183.5</v>
+        <v>284.04000000000002</v>
       </c>
       <c r="T11" s="14">
         <v>0</v>
@@ -2877,7 +2884,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2941,7 +2948,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -3005,7 +3012,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3069,7 +3076,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3133,7 +3140,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3197,7 +3204,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3261,7 +3268,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3325,7 +3332,7 @@
         <v>91</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3389,7 +3396,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3453,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3517,7 +3524,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3581,7 +3588,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J23" s="29">
@@ -3645,7 +3652,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3709,7 +3716,7 @@
         <v>126</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3773,7 +3780,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3837,7 +3844,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3901,7 +3908,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -3965,7 +3972,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4029,7 +4036,7 @@
         <v>138</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4093,7 +4100,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4115,7 +4122,7 @@
         <v>122</v>
       </c>
       <c r="P31" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>116</v>
@@ -4157,7 +4164,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4221,7 +4228,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4285,7 +4292,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" ref="I34:I65" si="1">NETWORKDAYS(B34, A34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -5604,66 +5611,66 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A55" s="31">
-        <v>45798</v>
-      </c>
-      <c r="B55" s="31">
-        <v>45786</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="31" t="s">
+      <c r="A55" s="11">
+        <v>45831</v>
+      </c>
+      <c r="B55" s="11">
+        <v>45824</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="32">
-        <v>68378</v>
-      </c>
-      <c r="G55" s="32" t="s">
+      <c r="F55" s="12">
+        <v>68439</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="13">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J55" s="32">
-        <v>65472</v>
-      </c>
-      <c r="K55" s="32">
+        <v>6</v>
+      </c>
+      <c r="J55" s="12">
+        <v>65915</v>
+      </c>
+      <c r="K55" s="12">
         <v>2201</v>
       </c>
-      <c r="L55" s="32" t="s">
+      <c r="L55" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="M55" s="31">
-        <v>45869</v>
-      </c>
-      <c r="N55" s="33">
-        <v>26920</v>
-      </c>
-      <c r="O55" s="32" t="s">
+      <c r="M55" s="11">
+        <v>45861</v>
+      </c>
+      <c r="N55" s="14">
+        <v>1401.04</v>
+      </c>
+      <c r="O55" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P55" s="32">
-        <v>28</v>
-      </c>
-      <c r="Q55" s="32" t="s">
+      <c r="P55" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q55" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R55" s="32">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>71</v>
-      </c>
-      <c r="S55" s="33">
-        <v>0</v>
-      </c>
-      <c r="T55" s="33">
+      <c r="R55" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>30</v>
+      </c>
+      <c r="S55" s="14">
+        <v>0</v>
+      </c>
+      <c r="T55" s="14">
         <v>0</v>
       </c>
     </row>
@@ -6333,7 +6340,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" ref="I66:I97" si="2">NETWORKDAYS(B66, A66)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6397,7 +6404,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6461,7 +6468,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6525,7 +6532,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6589,7 +6596,7 @@
         <v>98</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6653,7 +6660,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6717,7 +6724,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6781,7 +6788,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6845,7 +6852,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6909,7 +6916,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I75:I138" si="2">NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -8381,7 +8388,7 @@
         <v>138</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" ref="I98:I129" si="3">NETWORKDAYS(B98, A98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8445,7 +8452,7 @@
         <v>98</v>
       </c>
       <c r="I99" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8509,7 +8516,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J100" s="7">
@@ -8573,7 +8580,7 @@
         <v>130</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J101" s="7">
@@ -8637,7 +8644,7 @@
         <v>126</v>
       </c>
       <c r="I102" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J102" s="7">
@@ -8701,7 +8708,7 @@
         <v>98</v>
       </c>
       <c r="I103" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J103" s="7">
@@ -8765,7 +8772,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8829,7 +8836,7 @@
         <v>91</v>
       </c>
       <c r="I105" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J105" s="7">
@@ -8893,7 +8900,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -8957,7 +8964,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9021,7 +9028,7 @@
         <v>98</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J108" s="7">
@@ -9061,58 +9068,60 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="44">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="B109" s="44">
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="C109" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="44" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E109" s="44" t="s">
         <v>113</v>
       </c>
       <c r="F109" s="45">
-        <v>68329</v>
+        <v>68441</v>
       </c>
       <c r="G109" s="45" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I109" s="46">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="J109" s="45"/>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J109" s="45">
+        <v>65872</v>
+      </c>
       <c r="K109" s="45">
-        <v>224</v>
+        <v>11590</v>
       </c>
       <c r="L109" s="45" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="M109" s="44">
-        <v>45869</v>
+        <v>45867</v>
       </c>
       <c r="N109" s="47">
-        <v>7774.51</v>
+        <v>2922.9</v>
       </c>
       <c r="O109" s="45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P109" s="45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q109" s="45" t="s">
-        <v>381</v>
+        <v>24</v>
       </c>
       <c r="R109" s="45">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S109" s="47">
         <v>0</v>
@@ -9123,60 +9132,60 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
-        <v>45818</v>
+        <v>45866</v>
       </c>
       <c r="B110" s="11">
-        <v>45813</v>
+        <v>45863</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F110" s="12">
-        <v>68421</v>
+        <v>68481</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="I110" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J110" s="12">
-        <v>65719</v>
+        <v>66462</v>
       </c>
       <c r="K110" s="12">
-        <v>1450</v>
+        <v>10535</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="M110" s="11">
-        <v>45877</v>
+        <v>45868</v>
       </c>
       <c r="N110" s="14">
-        <v>1548.71</v>
+        <v>300</v>
       </c>
       <c r="O110" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P110" s="12">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="Q110" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R110" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="S110" s="14">
         <v>0</v>
@@ -9187,10 +9196,10 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="31">
-        <v>45818</v>
+        <v>45798</v>
       </c>
       <c r="B111" s="31">
-        <v>45813</v>
+        <v>45786</v>
       </c>
       <c r="C111" s="31" t="s">
         <v>7</v>
@@ -9202,45 +9211,45 @@
         <v>124</v>
       </c>
       <c r="F111" s="32">
-        <v>68422</v>
+        <v>68378</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H111" s="32" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I111" s="27">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="J111" s="32">
-        <v>65720</v>
+        <v>65472</v>
       </c>
       <c r="K111" s="32">
-        <v>1450</v>
+        <v>2201</v>
       </c>
       <c r="L111" s="32" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="M111" s="31">
-        <v>45877</v>
+        <v>45869</v>
       </c>
       <c r="N111" s="33">
-        <v>1637.47</v>
+        <v>26920</v>
       </c>
       <c r="O111" s="32" t="s">
         <v>122</v>
       </c>
       <c r="P111" s="32">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="Q111" s="32" t="s">
         <v>24</v>
       </c>
       <c r="R111" s="32">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="S111" s="33">
         <v>0</v>
@@ -9275,7 +9284,7 @@
         <v>91</v>
       </c>
       <c r="I112" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J112" s="7">
@@ -9314,66 +9323,66 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A113" s="11">
+      <c r="A113" s="40">
         <v>45818</v>
       </c>
-      <c r="B113" s="11">
-        <v>45813</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="11" t="s">
+      <c r="B113" s="40">
+        <v>45811</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F113" s="12">
-        <v>68422</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I113" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J113" s="12">
-        <v>65725</v>
-      </c>
-      <c r="K113" s="12">
-        <v>1450</v>
-      </c>
-      <c r="L113" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="M113" s="11">
-        <v>45877</v>
-      </c>
-      <c r="N113" s="14">
-        <v>239.63</v>
-      </c>
-      <c r="O113" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P113" s="12">
-        <v>120</v>
-      </c>
-      <c r="Q113" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R113" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
-      </c>
-      <c r="S113" s="14">
-        <v>0</v>
-      </c>
-      <c r="T113" s="14">
+      <c r="E113" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F113" s="41">
+        <v>68329</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H113" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I113" s="42">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J113" s="41">
+        <v>66494</v>
+      </c>
+      <c r="K113" s="41">
+        <v>224</v>
+      </c>
+      <c r="L113" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="M113" s="40">
+        <v>45869</v>
+      </c>
+      <c r="N113" s="43">
+        <v>7774.51</v>
+      </c>
+      <c r="O113" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P113" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="R113" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>51</v>
+      </c>
+      <c r="S113" s="43">
+        <v>0</v>
+      </c>
+      <c r="T113" s="43">
         <v>0</v>
       </c>
     </row>
@@ -9403,7 +9412,7 @@
         <v>32</v>
       </c>
       <c r="I114" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9467,7 +9476,7 @@
         <v>96</v>
       </c>
       <c r="I115" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J115" s="7">
@@ -9531,7 +9540,7 @@
         <v>91</v>
       </c>
       <c r="I116" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J116" s="7">
@@ -9595,7 +9604,7 @@
         <v>32</v>
       </c>
       <c r="I117" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9659,7 +9668,7 @@
         <v>98</v>
       </c>
       <c r="I118" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J118" s="7">
@@ -9723,7 +9732,7 @@
         <v>91</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J119" s="7">
@@ -9787,7 +9796,7 @@
         <v>91</v>
       </c>
       <c r="I120" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9851,7 +9860,7 @@
         <v>91</v>
       </c>
       <c r="I121" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9915,7 +9924,7 @@
         <v>98</v>
       </c>
       <c r="I122" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J122" s="7">
@@ -9979,7 +9988,7 @@
         <v>126</v>
       </c>
       <c r="I123" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J123" s="7">
@@ -10011,7 +10020,7 @@
         <v>7</v>
       </c>
       <c r="S123" s="8">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="T123" s="8">
         <v>0</v>
@@ -10043,7 +10052,7 @@
         <v>91</v>
       </c>
       <c r="I124" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10107,7 +10116,7 @@
         <v>34</v>
       </c>
       <c r="I125" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10171,7 +10180,7 @@
         <v>130</v>
       </c>
       <c r="I126" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10235,7 +10244,7 @@
         <v>130</v>
       </c>
       <c r="I127" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10299,7 +10308,7 @@
         <v>98</v>
       </c>
       <c r="I128" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10363,7 +10372,7 @@
         <v>130</v>
       </c>
       <c r="I129" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10427,7 +10436,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f t="shared" ref="I130:I161" si="4">NETWORKDAYS(B130, A130)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10491,7 +10500,7 @@
         <v>32</v>
       </c>
       <c r="I131" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J131" s="7">
@@ -10530,66 +10539,66 @@
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A132" s="53">
-        <v>45826</v>
-      </c>
-      <c r="B132" s="53">
-        <v>45826</v>
-      </c>
-      <c r="C132" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="53" t="s">
+      <c r="A132" s="11">
+        <v>45839</v>
+      </c>
+      <c r="B132" s="11">
+        <v>45824</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="53" t="s">
+      <c r="E132" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F132" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H132" s="54" t="s">
+      <c r="F132" s="12">
+        <v>68438</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H132" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I132" s="55">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J132" s="54">
-        <v>66341</v>
-      </c>
-      <c r="K132" s="54">
-        <v>11758</v>
-      </c>
-      <c r="L132" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="M132" s="53">
-        <v>45842</v>
-      </c>
-      <c r="N132" s="56">
-        <v>924.61</v>
-      </c>
-      <c r="O132" s="54" t="s">
+      <c r="I132" s="13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J132" s="12">
+        <v>66025</v>
+      </c>
+      <c r="K132" s="12">
+        <v>3034</v>
+      </c>
+      <c r="L132" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="M132" s="11">
+        <v>45870</v>
+      </c>
+      <c r="N132" s="14">
+        <v>2087</v>
+      </c>
+      <c r="O132" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P132" s="54">
-        <v>28</v>
-      </c>
-      <c r="Q132" s="54" t="s">
+      <c r="P132" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q132" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R132" s="54">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>16</v>
-      </c>
-      <c r="S132" s="56">
-        <v>0</v>
-      </c>
-      <c r="T132" s="56">
+      <c r="R132" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S132" s="14">
+        <v>0</v>
+      </c>
+      <c r="T132" s="14">
         <v>0</v>
       </c>
     </row>
@@ -10619,7 +10628,7 @@
         <v>126</v>
       </c>
       <c r="I133" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="J133" s="12">
@@ -10683,7 +10692,7 @@
         <v>98</v>
       </c>
       <c r="I134" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J134" s="7">
@@ -10747,7 +10756,7 @@
         <v>126</v>
       </c>
       <c r="I135" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J135" s="7">
@@ -10811,7 +10820,7 @@
         <v>126</v>
       </c>
       <c r="I136" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J136" s="7">
@@ -10875,7 +10884,7 @@
         <v>32</v>
       </c>
       <c r="I137" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J137" s="7">
@@ -10915,10 +10924,10 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="11">
-        <v>45826</v>
+        <v>45855</v>
       </c>
       <c r="B138" s="11">
-        <v>45825</v>
+        <v>45855</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>7</v>
@@ -10927,51 +10936,51 @@
         <v>5</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F138" s="12">
-        <v>68441</v>
+        <v>142</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I138" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J138" s="12">
-        <v>65872</v>
+        <v>66308</v>
       </c>
       <c r="K138" s="12">
-        <v>11590</v>
+        <v>11757</v>
       </c>
       <c r="L138" s="12" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="M138" s="11">
-        <v>45867</v>
+        <v>45873</v>
       </c>
       <c r="N138" s="14">
-        <v>2922.9</v>
+        <v>1428.29</v>
       </c>
       <c r="O138" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P138" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R138" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="S138" s="14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T138" s="14">
         <v>0</v>
@@ -11003,7 +11012,7 @@
         <v>98</v>
       </c>
       <c r="I139" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
         <v>2</v>
       </c>
       <c r="J139" s="7">
@@ -11067,7 +11076,7 @@
         <v>98</v>
       </c>
       <c r="I140" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J140" s="7">
@@ -11131,7 +11140,7 @@
         <v>98</v>
       </c>
       <c r="I141" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="J141" s="7">
@@ -11195,7 +11204,7 @@
         <v>91</v>
       </c>
       <c r="I142" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J142" s="7">
@@ -11259,7 +11268,7 @@
         <v>130</v>
       </c>
       <c r="I143" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J143" s="7">
@@ -11323,7 +11332,7 @@
         <v>374</v>
       </c>
       <c r="I144" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J144" s="7">
@@ -11387,7 +11396,7 @@
         <v>98</v>
       </c>
       <c r="I145" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J145" s="7">
@@ -11451,7 +11460,7 @@
         <v>34</v>
       </c>
       <c r="I146" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J146" s="7">
@@ -11515,7 +11524,7 @@
         <v>98</v>
       </c>
       <c r="I147" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J147" s="7">
@@ -11579,7 +11588,7 @@
         <v>138</v>
       </c>
       <c r="I148" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J148" s="7">
@@ -11643,7 +11652,7 @@
         <v>91</v>
       </c>
       <c r="I149" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="J149" s="7">
@@ -11683,10 +11692,10 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
-        <v>45831</v>
+        <v>45861</v>
       </c>
       <c r="B150" s="11">
-        <v>45824</v>
+        <v>45861</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>7</v>
@@ -11695,48 +11704,48 @@
         <v>15</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F150" s="12">
-        <v>68439</v>
+        <v>68472</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I150" s="13">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J150" s="12">
-        <v>65915</v>
+        <v>66413</v>
       </c>
       <c r="K150" s="12">
-        <v>2201</v>
+        <v>11715</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="M150" s="11">
-        <v>45861</v>
+        <v>45873</v>
       </c>
       <c r="N150" s="14">
-        <v>1401.04</v>
+        <v>178.3</v>
       </c>
       <c r="O150" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P150" s="12">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R150" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="S150" s="14">
         <v>0</v>
@@ -11771,7 +11780,7 @@
         <v>130</v>
       </c>
       <c r="I151" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11835,7 +11844,7 @@
         <v>32</v>
       </c>
       <c r="I152" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11899,7 +11908,7 @@
         <v>91</v>
       </c>
       <c r="I153" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -11963,7 +11972,7 @@
         <v>32</v>
       </c>
       <c r="I154" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12027,7 +12036,7 @@
         <v>34</v>
       </c>
       <c r="I155" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12091,7 +12100,7 @@
         <v>130</v>
       </c>
       <c r="I156" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12155,7 +12164,7 @@
         <v>32</v>
       </c>
       <c r="I157" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12219,7 +12228,7 @@
         <v>98</v>
       </c>
       <c r="I158" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12283,7 +12292,7 @@
         <v>91</v>
       </c>
       <c r="I159" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12347,7 +12356,7 @@
         <v>91</v>
       </c>
       <c r="I160" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12411,7 +12420,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12475,7 +12484,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f t="shared" ref="I162:I169" si="5">NETWORKDAYS(B162, A162)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12539,7 +12548,7 @@
         <v>32</v>
       </c>
       <c r="I163" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12603,7 +12612,7 @@
         <v>32</v>
       </c>
       <c r="I164" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J164" s="7">
@@ -12667,7 +12676,7 @@
         <v>185</v>
       </c>
       <c r="I165" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J165" s="7">
@@ -12731,7 +12740,7 @@
         <v>91</v>
       </c>
       <c r="I166" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J166" s="7">
@@ -12795,7 +12804,7 @@
         <v>98</v>
       </c>
       <c r="I167" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J167" s="7">
@@ -12859,7 +12868,7 @@
         <v>91</v>
       </c>
       <c r="I168" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J168" s="7">
@@ -12923,7 +12932,7 @@
         <v>130</v>
       </c>
       <c r="I169" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -12987,7 +12996,7 @@
         <v>32</v>
       </c>
       <c r="I170" s="10">
-        <f t="shared" ref="I170:I175" si="6">NETWORKDAYS(B170, A170)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13051,7 +13060,7 @@
         <v>130</v>
       </c>
       <c r="I171" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J171" s="7">
@@ -13115,7 +13124,7 @@
         <v>130</v>
       </c>
       <c r="I172" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13155,60 +13164,60 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B173" s="11">
-        <v>45824</v>
+        <v>45840</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F173" s="12">
-        <v>68438</v>
+        <v>68452</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I173" s="13">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J173" s="12">
-        <v>66025</v>
+        <v>66037</v>
       </c>
       <c r="K173" s="12">
-        <v>3034</v>
+        <v>11775</v>
       </c>
       <c r="L173" s="12" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M173" s="11">
-        <v>45866</v>
+        <v>45874</v>
       </c>
       <c r="N173" s="14">
-        <v>2087</v>
+        <v>1750</v>
       </c>
       <c r="O173" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P173" s="12">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q173" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R173" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="S173" s="14">
         <v>0</v>
@@ -13243,7 +13252,7 @@
         <v>130</v>
       </c>
       <c r="I174" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13283,10 +13292,10 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" s="11">
-        <v>45840</v>
+        <v>45846</v>
       </c>
       <c r="B175" s="11">
-        <v>45840</v>
+        <v>45846</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>7</v>
@@ -13298,35 +13307,35 @@
         <v>113</v>
       </c>
       <c r="F175" s="12">
-        <v>68452</v>
+        <v>68461</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I175" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J175" s="12">
-        <v>66037</v>
+        <v>66119</v>
       </c>
       <c r="K175" s="12">
-        <v>11775</v>
+        <v>10677</v>
       </c>
       <c r="L175" s="12" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="M175" s="11">
-        <v>45869</v>
+        <v>45874</v>
       </c>
       <c r="N175" s="14">
-        <v>1750</v>
+        <v>2800</v>
       </c>
       <c r="O175" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P175" s="12">
         <v>30</v>
@@ -13336,7 +13345,7 @@
       </c>
       <c r="R175" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S175" s="14">
         <v>0</v>
@@ -13371,7 +13380,7 @@
         <v>32</v>
       </c>
       <c r="I176" s="10">
-        <f t="shared" ref="I176:I184" si="7">NETWORKDAYS(B176, A176)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13435,7 +13444,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13499,7 +13508,7 @@
         <v>138</v>
       </c>
       <c r="I178" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13563,7 +13572,7 @@
         <v>32</v>
       </c>
       <c r="I179" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13627,7 +13636,7 @@
         <v>130</v>
       </c>
       <c r="I180" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J180" s="7">
@@ -13691,7 +13700,7 @@
         <v>34</v>
       </c>
       <c r="I181" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J181" s="7">
@@ -13731,60 +13740,60 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" s="11">
-        <v>45846</v>
+        <v>45868</v>
       </c>
       <c r="B182" s="11">
-        <v>45846</v>
+        <v>45868</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>113</v>
+        <v>396</v>
       </c>
       <c r="F182" s="12">
-        <v>68456</v>
+        <v>68487</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I182" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J182" s="12">
-        <v>66118</v>
+        <v>66489</v>
       </c>
       <c r="K182" s="12">
-        <v>2289</v>
+        <v>11614</v>
       </c>
       <c r="L182" s="12" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="M182" s="11">
-        <v>45877</v>
+        <v>45874</v>
       </c>
       <c r="N182" s="14">
-        <v>607.57000000000005</v>
+        <v>6633</v>
       </c>
       <c r="O182" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P182" s="12">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Q182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R182" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="S182" s="14">
         <v>0</v>
@@ -13795,66 +13804,66 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
-        <v>45846</v>
+        <v>45861</v>
       </c>
       <c r="B183" s="11">
-        <v>45846</v>
+        <v>45861</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F183" s="12">
-        <v>68461</v>
+        <v>124</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I183" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J183" s="12">
-        <v>66119</v>
+        <v>66301</v>
       </c>
       <c r="K183" s="12">
-        <v>10677</v>
+        <v>1522</v>
       </c>
       <c r="L183" s="12" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="M183" s="11">
-        <v>45870</v>
+        <v>45875</v>
       </c>
       <c r="N183" s="14">
-        <v>2800</v>
+        <v>1023.45</v>
       </c>
       <c r="O183" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P183" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q183" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R183" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S183" s="14">
         <v>0</v>
       </c>
       <c r="T183" s="14">
-        <v>0</v>
+        <v>141.4</v>
       </c>
     </row>
     <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -13883,7 +13892,7 @@
         <v>91</v>
       </c>
       <c r="I184" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13923,53 +13932,53 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" s="11">
-        <v>45848</v>
+        <v>45868</v>
       </c>
       <c r="B185" s="11">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F185" s="12">
-        <v>68459</v>
+        <v>68476</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>366</v>
+        <v>98</v>
       </c>
       <c r="I185" s="13">
-        <f t="shared" ref="I185:I190" si="8">NETWORKDAYS(B185, A185)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="J185" s="12">
-        <v>66162</v>
+        <v>66491</v>
       </c>
       <c r="K185" s="12">
-        <v>11781</v>
+        <v>11522</v>
       </c>
       <c r="L185" s="12" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="M185" s="11">
-        <v>45855</v>
+        <v>45875</v>
       </c>
       <c r="N185" s="14">
-        <v>5396.77</v>
+        <v>398.42</v>
       </c>
       <c r="O185" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P185" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q185" s="12" t="s">
         <v>24</v>
@@ -13979,7 +13988,7 @@
         <v>7</v>
       </c>
       <c r="S185" s="14">
-        <v>284.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="T185" s="14">
         <v>0</v>
@@ -14011,7 +14020,7 @@
         <v>98</v>
       </c>
       <c r="I186" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14051,63 +14060,63 @@
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187" s="11">
-        <v>45848</v>
+        <v>45818</v>
       </c>
       <c r="B187" s="11">
-        <v>45848</v>
+        <v>45813</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F187" s="12">
-        <v>68457</v>
+        <v>68421</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I187" s="13">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J187" s="12">
-        <v>66126</v>
+        <v>65719</v>
       </c>
       <c r="K187" s="12">
-        <v>2931</v>
+        <v>1450</v>
       </c>
       <c r="L187" s="12" t="s">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="M187" s="11">
-        <v>45879</v>
+        <v>45877</v>
       </c>
       <c r="N187" s="14">
-        <v>3500</v>
+        <v>1548.71</v>
       </c>
       <c r="O187" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P187" s="12">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="Q187" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R187" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="S187" s="14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T187" s="14">
         <v>0</v>
@@ -14139,7 +14148,7 @@
         <v>34</v>
       </c>
       <c r="I188" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J188" s="7">
@@ -14203,7 +14212,7 @@
         <v>96</v>
       </c>
       <c r="I189" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J189" s="7">
@@ -14267,7 +14276,7 @@
         <v>32</v>
       </c>
       <c r="I190" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J190" s="7">
@@ -14331,7 +14340,7 @@
         <v>34</v>
       </c>
       <c r="I191" s="10">
-        <f t="shared" ref="I191:I197" si="9">NETWORKDAYS(B191, A191)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14370,66 +14379,66 @@
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A192" s="11">
-        <v>45849</v>
-      </c>
-      <c r="B192" s="11">
-        <v>45849</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F192" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G192" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="H192" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I192" s="13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J192" s="12">
-        <v>66166</v>
-      </c>
-      <c r="K192" s="12">
-        <v>11782</v>
-      </c>
-      <c r="L192" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="M192" s="11">
-        <v>45880</v>
-      </c>
-      <c r="N192" s="14">
-        <v>2250</v>
-      </c>
-      <c r="O192" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P192" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q192" s="12" t="s">
+      <c r="A192" s="31">
+        <v>45818</v>
+      </c>
+      <c r="B192" s="31">
+        <v>45813</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F192" s="32">
+        <v>68422</v>
+      </c>
+      <c r="G192" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H192" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I192" s="27">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J192" s="32">
+        <v>65720</v>
+      </c>
+      <c r="K192" s="32">
+        <v>1450</v>
+      </c>
+      <c r="L192" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="M192" s="31">
+        <v>45877</v>
+      </c>
+      <c r="N192" s="33">
+        <v>1637.47</v>
+      </c>
+      <c r="O192" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="P192" s="32">
+        <v>120</v>
+      </c>
+      <c r="Q192" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R192" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S192" s="14">
-        <v>250</v>
-      </c>
-      <c r="T192" s="14">
+      <c r="R192" s="32">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>59</v>
+      </c>
+      <c r="S192" s="33">
+        <v>0</v>
+      </c>
+      <c r="T192" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14459,7 +14468,7 @@
         <v>91</v>
       </c>
       <c r="I193" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14523,7 +14532,7 @@
         <v>34</v>
       </c>
       <c r="I194" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14587,7 +14596,7 @@
         <v>98</v>
       </c>
       <c r="I195" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14651,7 +14660,7 @@
         <v>374</v>
       </c>
       <c r="I196" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14715,7 +14724,7 @@
         <v>32</v>
       </c>
       <c r="I197" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14779,7 +14788,7 @@
         <v>374</v>
       </c>
       <c r="I198" s="10">
-        <f>NETWORKDAYS(B198, A198)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14843,7 +14852,7 @@
         <v>374</v>
       </c>
       <c r="I199" s="10">
-        <f>NETWORKDAYS(B199, A199)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14907,7 +14916,7 @@
         <v>374</v>
       </c>
       <c r="I200" s="10">
-        <f>NETWORKDAYS(B200, A200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -14971,7 +14980,7 @@
         <v>32</v>
       </c>
       <c r="I201" s="10">
-        <f t="shared" ref="I201" si="10">NETWORKDAYS(B201, A201)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15035,7 +15044,7 @@
         <v>32</v>
       </c>
       <c r="I202" s="10">
-        <f>NETWORKDAYS(B202, A202)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15099,7 +15108,7 @@
         <v>130</v>
       </c>
       <c r="I203" s="10">
-        <f>NETWORKDAYS(B203, A203)</f>
+        <f t="shared" ref="I203:I234" si="4">NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15163,7 +15172,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="10">
-        <f t="shared" ref="I204:I205" si="11">NETWORKDAYS(B204, A204)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J204" s="7">
@@ -15227,7 +15236,7 @@
         <v>32</v>
       </c>
       <c r="I205" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J205" s="7">
@@ -15267,60 +15276,60 @@
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
-        <v>45855</v>
+        <v>45818</v>
       </c>
       <c r="B206" s="11">
-        <v>45855</v>
+        <v>45813</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F206" s="12" t="s">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="F206" s="12">
+        <v>68422</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="H206" s="12" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I206" s="13">
-        <f t="shared" ref="I206" si="12">NETWORKDAYS(B206, A206)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J206" s="12">
-        <v>66308</v>
+        <v>65725</v>
       </c>
       <c r="K206" s="12">
-        <v>11757</v>
+        <v>1450</v>
       </c>
       <c r="L206" s="12" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="M206" s="11">
-        <v>45873</v>
+        <v>45877</v>
       </c>
       <c r="N206" s="14">
-        <v>1428.29</v>
+        <v>239.63</v>
       </c>
       <c r="O206" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P206" s="12">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="Q206" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R206" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="S206" s="14">
         <v>0</v>
@@ -15331,10 +15340,10 @@
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
-        <v>45856</v>
+        <v>45846</v>
       </c>
       <c r="B207" s="11">
-        <v>45856</v>
+        <v>45846</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>7</v>
@@ -15343,51 +15352,51 @@
         <v>15</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F207" s="12">
-        <v>68466</v>
+        <v>68456</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="H207" s="12" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I207" s="13">
-        <f t="shared" ref="I207:I214" si="13">NETWORKDAYS(B207, A207)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J207" s="12">
-        <v>66337</v>
+        <v>66118</v>
       </c>
       <c r="K207" s="12">
-        <v>11736</v>
+        <v>2289</v>
       </c>
       <c r="L207" s="12" t="s">
-        <v>127</v>
+        <v>362</v>
       </c>
       <c r="M207" s="11">
-        <v>45889</v>
+        <v>45877</v>
       </c>
       <c r="N207" s="14">
-        <v>16134.54</v>
+        <v>607.57000000000005</v>
       </c>
       <c r="O207" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P207" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q207" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R207" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S207" s="14">
-        <v>25720</v>
+        <v>0</v>
       </c>
       <c r="T207" s="14">
         <v>0</v>
@@ -15395,10 +15404,10 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
-        <v>45856</v>
+        <v>45868</v>
       </c>
       <c r="B208" s="11">
-        <v>45856</v>
+        <v>45868</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>7</v>
@@ -15410,45 +15419,45 @@
         <v>113</v>
       </c>
       <c r="F208" s="12">
-        <v>68470</v>
+        <v>68468</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>88</v>
+        <v>373</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>34</v>
+        <v>374</v>
       </c>
       <c r="I208" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J208" s="12">
-        <v>66342</v>
+        <v>66499</v>
       </c>
       <c r="K208" s="12">
-        <v>11590</v>
+        <v>10556</v>
       </c>
       <c r="L208" s="12" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="M208" s="11">
-        <v>45889</v>
+        <v>45877</v>
       </c>
       <c r="N208" s="14">
-        <v>1150.47</v>
+        <v>1217</v>
       </c>
       <c r="O208" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P208" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q208" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R208" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="S208" s="14">
         <v>0</v>
@@ -15483,7 +15492,7 @@
         <v>130</v>
       </c>
       <c r="I209" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15547,7 +15556,7 @@
         <v>130</v>
       </c>
       <c r="I210" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15611,7 +15620,7 @@
         <v>130</v>
       </c>
       <c r="I211" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15675,7 +15684,7 @@
         <v>130</v>
       </c>
       <c r="I212" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15739,7 +15748,7 @@
         <v>34</v>
       </c>
       <c r="I213" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15749,7 +15758,7 @@
         <v>2952</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M213" s="6">
         <v>45867</v>
@@ -15803,7 +15812,7 @@
         <v>32</v>
       </c>
       <c r="I214" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15813,7 +15822,7 @@
         <v>10567</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M214" s="6">
         <v>45861</v>
@@ -15861,13 +15870,13 @@
         <v>3</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>138</v>
       </c>
       <c r="I215" s="10">
-        <f t="shared" ref="I215:I220" si="14">NETWORKDAYS(B215, A215)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15931,7 +15940,7 @@
         <v>91</v>
       </c>
       <c r="I216" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -15995,7 +16004,7 @@
         <v>98</v>
       </c>
       <c r="I217" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J217" s="7">
@@ -16059,7 +16068,7 @@
         <v>138</v>
       </c>
       <c r="I218" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J218" s="7">
@@ -16098,131 +16107,131 @@
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A219" s="40">
-        <v>45861</v>
-      </c>
-      <c r="B219" s="40">
-        <v>45861</v>
-      </c>
-      <c r="C219" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D219" s="40" t="s">
+      <c r="A219" s="11">
+        <v>45848</v>
+      </c>
+      <c r="B219" s="11">
+        <v>45848</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F219" s="12">
+        <v>68457</v>
+      </c>
+      <c r="G219" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H219" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I219" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J219" s="12">
+        <v>66126</v>
+      </c>
+      <c r="K219" s="12">
+        <v>2931</v>
+      </c>
+      <c r="L219" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="M219" s="11">
+        <v>45879</v>
+      </c>
+      <c r="N219" s="14">
+        <v>3500</v>
+      </c>
+      <c r="O219" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P219" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q219" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R219" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S219" s="14">
+        <v>320</v>
+      </c>
+      <c r="T219" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A220" s="53">
+        <v>45826</v>
+      </c>
+      <c r="B220" s="53">
+        <v>45826</v>
+      </c>
+      <c r="C220" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E219" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F219" s="41">
-        <v>68472</v>
-      </c>
-      <c r="G219" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H219" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="I219" s="42">
-        <f t="shared" si="14"/>
+      <c r="E220" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F220" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G220" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H220" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I220" s="55">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J219" s="41">
-        <v>66413</v>
-      </c>
-      <c r="K219" s="41">
-        <v>11715</v>
-      </c>
-      <c r="L219" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="M219" s="40">
-        <v>45873</v>
-      </c>
-      <c r="N219" s="43">
-        <v>178.3</v>
-      </c>
-      <c r="O219" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="P219" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q219" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="R219" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>12</v>
-      </c>
-      <c r="S219" s="43">
-        <v>0</v>
-      </c>
-      <c r="T219" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A220" s="11">
-        <v>45861</v>
-      </c>
-      <c r="B220" s="11">
-        <v>45861</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E220" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F220" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G220" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H220" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I220" s="13">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J220" s="12">
-        <v>66301</v>
-      </c>
-      <c r="K220" s="12">
-        <v>1522</v>
-      </c>
-      <c r="L220" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="M220" s="11">
-        <v>45875</v>
-      </c>
-      <c r="N220" s="14">
-        <v>1023.45</v>
-      </c>
-      <c r="O220" s="12" t="s">
+      <c r="J220" s="54">
+        <v>66341</v>
+      </c>
+      <c r="K220" s="54">
+        <v>11758</v>
+      </c>
+      <c r="L220" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="M220" s="53">
+        <v>45880</v>
+      </c>
+      <c r="N220" s="56">
+        <v>924.61</v>
+      </c>
+      <c r="O220" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="P220" s="12">
+      <c r="P220" s="54">
         <v>28</v>
       </c>
-      <c r="Q220" s="12" t="s">
+      <c r="Q220" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="R220" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S220" s="14">
-        <v>0</v>
-      </c>
-      <c r="T220" s="14">
-        <v>141.4</v>
+      <c r="R220" s="54">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>54</v>
+      </c>
+      <c r="S220" s="56">
+        <v>0</v>
+      </c>
+      <c r="T220" s="56">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -16251,7 +16260,7 @@
         <v>130</v>
       </c>
       <c r="I221" s="10">
-        <f t="shared" ref="I221:I225" si="15">NETWORKDAYS(B221, A221)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16315,7 +16324,7 @@
         <v>130</v>
       </c>
       <c r="I222" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16379,7 +16388,7 @@
         <v>98</v>
       </c>
       <c r="I223" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16418,66 +16427,66 @@
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A224" s="40">
-        <v>45863</v>
-      </c>
-      <c r="B224" s="40">
-        <v>45863</v>
-      </c>
-      <c r="C224" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="40" t="s">
+      <c r="A224" s="11">
+        <v>45849</v>
+      </c>
+      <c r="B224" s="11">
+        <v>45849</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E224" s="40" t="s">
+      <c r="E224" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F224" s="41">
-        <v>68479</v>
-      </c>
-      <c r="G224" s="41" t="s">
-        <v>392</v>
-      </c>
-      <c r="H224" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="I224" s="42">
-        <f t="shared" si="15"/>
+      <c r="F224" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G224" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="H224" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I224" s="13">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J224" s="41">
-        <v>66454</v>
-      </c>
-      <c r="K224" s="41">
-        <v>11788</v>
-      </c>
-      <c r="L224" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="M224" s="40">
-        <v>45866</v>
-      </c>
-      <c r="N224" s="43">
-        <v>4122.3</v>
-      </c>
-      <c r="O224" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="P224" s="41">
+      <c r="J224" s="12">
+        <v>66166</v>
+      </c>
+      <c r="K224" s="12">
+        <v>11782</v>
+      </c>
+      <c r="L224" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="M224" s="11">
+        <v>45880</v>
+      </c>
+      <c r="N224" s="14">
+        <v>2250</v>
+      </c>
+      <c r="O224" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P224" s="12">
         <v>30</v>
       </c>
-      <c r="Q224" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="R224" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>3</v>
-      </c>
-      <c r="S224" s="43">
-        <v>0</v>
-      </c>
-      <c r="T224" s="43">
+      <c r="Q224" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R224" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S224" s="14">
+        <v>250</v>
+      </c>
+      <c r="T224" s="14">
         <v>0</v>
       </c>
     </row>
@@ -16507,7 +16516,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J225" s="7">
@@ -16547,74 +16556,583 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226" s="11">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B226" s="11">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F226" s="12">
-        <v>68481</v>
+        <v>124</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="H226" s="12" t="s">
-        <v>374</v>
+        <v>126</v>
       </c>
       <c r="I226" s="13">
-        <f>NETWORKDAYS(B226, A226)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J226" s="12">
-        <v>66462</v>
+        <v>66471</v>
       </c>
       <c r="K226" s="12">
-        <v>10535</v>
+        <v>9</v>
       </c>
       <c r="L226" s="12" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M226" s="11">
-        <v>45868</v>
+        <v>45880</v>
       </c>
       <c r="N226" s="14">
-        <v>300</v>
+        <v>6505.5</v>
       </c>
       <c r="O226" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P226" s="12">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R226" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>13</v>
+      </c>
+      <c r="S226" s="14">
+        <v>135</v>
+      </c>
+      <c r="T226" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A227" s="11">
+        <v>45785</v>
+      </c>
+      <c r="B227" s="11">
+        <v>45784</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F227" s="12">
+        <v>68369</v>
+      </c>
+      <c r="G227" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H227" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I227" s="13">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S226" s="14">
-        <v>0</v>
-      </c>
-      <c r="T226" s="14">
+      <c r="J227" s="12">
+        <v>65234</v>
+      </c>
+      <c r="K227" s="12">
+        <v>11610</v>
+      </c>
+      <c r="L227" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M227" s="11">
+        <v>45881</v>
+      </c>
+      <c r="N227" s="14">
+        <v>9114.5499999999993</v>
+      </c>
+      <c r="O227" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P227" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q227" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R227" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>96</v>
+      </c>
+      <c r="S227" s="14">
+        <v>183.5</v>
+      </c>
+      <c r="T227" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="6">
+        <v>45867</v>
+      </c>
+      <c r="B228" s="6">
+        <v>45867</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I228" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J228" s="7">
+        <v>66476</v>
+      </c>
+      <c r="K228" s="7">
+        <v>381</v>
+      </c>
+      <c r="L228" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M228" s="6">
+        <v>45869</v>
+      </c>
+      <c r="N228" s="8">
+        <v>6098.28</v>
+      </c>
+      <c r="O228" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P228" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q228" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R228" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S228" s="8">
+        <v>0</v>
+      </c>
+      <c r="T228" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A229" s="40">
+        <v>45867</v>
+      </c>
+      <c r="B229" s="40">
+        <v>45867</v>
+      </c>
+      <c r="C229" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D229" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F229" s="41">
+        <v>68486</v>
+      </c>
+      <c r="G229" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="H229" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I229" s="42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J229" s="41">
+        <v>66478</v>
+      </c>
+      <c r="K229" s="41">
+        <v>10460</v>
+      </c>
+      <c r="L229" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="M229" s="40">
+        <v>45883</v>
+      </c>
+      <c r="N229" s="43">
+        <v>4789.6099999999997</v>
+      </c>
+      <c r="O229" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P229" s="41">
+        <v>28</v>
+      </c>
+      <c r="Q229" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="R229" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>16</v>
+      </c>
+      <c r="S229" s="43">
+        <v>1509.38</v>
+      </c>
+      <c r="T229" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A230" s="11">
+        <v>45863</v>
+      </c>
+      <c r="B230" s="11">
+        <v>45863</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F230" s="12">
+        <v>68479</v>
+      </c>
+      <c r="G230" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="H230" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I230" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J230" s="12">
+        <v>66454</v>
+      </c>
+      <c r="K230" s="12">
+        <v>11788</v>
+      </c>
+      <c r="L230" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="M230" s="11">
+        <v>45889</v>
+      </c>
+      <c r="N230" s="14">
+        <v>4122.3</v>
+      </c>
+      <c r="O230" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P230" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q230" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R230" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>26</v>
+      </c>
+      <c r="S230" s="14">
+        <v>0</v>
+      </c>
+      <c r="T230" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A231" s="11">
+        <v>45856</v>
+      </c>
+      <c r="B231" s="11">
+        <v>45856</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F231" s="12">
+        <v>68466</v>
+      </c>
+      <c r="G231" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H231" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I231" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J231" s="12">
+        <v>66337</v>
+      </c>
+      <c r="K231" s="12">
+        <v>11736</v>
+      </c>
+      <c r="L231" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M231" s="11">
+        <v>45889</v>
+      </c>
+      <c r="N231" s="14">
+        <v>16134.54</v>
+      </c>
+      <c r="O231" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P231" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q231" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R231" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>33</v>
+      </c>
+      <c r="S231" s="14">
+        <v>25720</v>
+      </c>
+      <c r="T231" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A232" s="11">
+        <v>45856</v>
+      </c>
+      <c r="B232" s="11">
+        <v>45856</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F232" s="12">
+        <v>68470</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H232" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I232" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J232" s="12">
+        <v>66342</v>
+      </c>
+      <c r="K232" s="12">
+        <v>11590</v>
+      </c>
+      <c r="L232" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="M232" s="11">
+        <v>45889</v>
+      </c>
+      <c r="N232" s="14">
+        <v>1150.47</v>
+      </c>
+      <c r="O232" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P232" s="12">
+        <v>21</v>
+      </c>
+      <c r="Q232" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R232" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>33</v>
+      </c>
+      <c r="S232" s="14">
+        <v>0</v>
+      </c>
+      <c r="T232" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A233" s="11">
+        <v>45867</v>
+      </c>
+      <c r="B233" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F233" s="12">
+        <v>68483</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H233" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I233" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J233" s="12">
+        <v>66467</v>
+      </c>
+      <c r="K233" s="12">
+        <v>11164</v>
+      </c>
+      <c r="L233" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M233" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N233" s="14">
+        <v>2623.03</v>
+      </c>
+      <c r="O233" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P233" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q233" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R233" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S233" s="14">
+        <v>52</v>
+      </c>
+      <c r="T233" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A234" s="11">
+        <v>45868</v>
+      </c>
+      <c r="B234" s="11">
+        <v>45868</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G234" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H234" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I234" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J234" s="12">
+        <v>66504</v>
+      </c>
+      <c r="K234" s="12">
+        <v>3034</v>
+      </c>
+      <c r="L234" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="M234" s="11">
+        <v>45897</v>
+      </c>
+      <c r="N234" s="14">
+        <v>2364.3000000000002</v>
+      </c>
+      <c r="O234" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P234" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q234" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R234" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>29</v>
+      </c>
+      <c r="S234" s="14">
+        <v>80</v>
+      </c>
+      <c r="T234" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="R160" evalError="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -16841,7 +17359,7 @@
   <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="64.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.453125" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
@@ -16885,7 +17403,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -16893,7 +17411,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 600 dias para vencer</v>
+        <v>Faltam 597 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -16911,7 +17429,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -16919,7 +17437,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 300 dias</v>
+        <v>Venceu há 303 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -16937,7 +17455,7 @@
       </c>
       <c r="E4" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F4" s="37" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -16945,7 +17463,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 8 dias</v>
+        <v>Venceu há 11 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -16963,7 +17481,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -16989,7 +17507,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17015,7 +17533,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17023,7 +17541,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 132 dias</v>
+        <v>Venceu há 135 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -17041,7 +17559,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17049,7 +17567,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 875 dias</v>
+        <v>Venceu há 878 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -17067,7 +17585,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17075,7 +17593,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 416 dias para vencer</v>
+        <v>Faltam 413 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -17093,7 +17611,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17101,7 +17619,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 337 dias para vencer</v>
+        <v>Faltam 334 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -17119,7 +17637,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17127,7 +17645,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 126 dias para vencer</v>
+        <v>Faltam 123 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -17876,7 +18394,7 @@
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.1796875" bestFit="1" customWidth="1"/>
@@ -18457,7 +18975,7 @@
         <v>11786</v>
       </c>
       <c r="E34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -18474,7 +18992,7 @@
         <v>11787</v>
       </c>
       <c r="E35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -18491,7 +19009,7 @@
         <v>11788</v>
       </c>
       <c r="E36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -18513,13 +19031,12 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2" s="50">
         <v>0.7</v>
@@ -18534,7 +19051,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" s="48">
         <v>0.5</v>

--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6776E3D-3F94-4A34-B84A-4261D8499DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4553A7-8913-4AF3-B286-526CE3ADE6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <author>Filho, Glaudoberto</author>
   </authors>
   <commentList>
-    <comment ref="T181" authorId="0" shapeId="0" xr:uid="{6F0B1F1F-8317-47FC-8965-8B65A4B64726}">
+    <comment ref="T218" authorId="0" shapeId="0" xr:uid="{6F0B1F1F-8317-47FC-8965-8B65A4B64726}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="402">
   <si>
     <t>SC</t>
   </si>
@@ -1276,6 +1276,12 @@
   </si>
   <si>
     <t>DALLANESE COM.E MANUF.DE PARAFUSOS LTDA</t>
+  </si>
+  <si>
+    <t>YESCODE AUTOMACAO LTDA - ME</t>
+  </si>
+  <si>
+    <t>CADSERVICE PRODUTOS ELETRONICOS LTDA</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1424,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1549,9 +1555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1735,8 +1738,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T235" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T235" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T238" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T238" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
@@ -1744,8 +1747,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T231">
-    <sortCondition ref="M1:M231"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T238">
+    <sortCondition ref="A1:A238"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -2110,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T235"/>
+  <dimension ref="A1:T238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L181" sqref="L181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2781,63 +2784,63 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <v>45848</v>
+        <v>45785</v>
       </c>
       <c r="B11" s="11">
-        <v>45848</v>
+        <v>45784</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="12">
-        <v>68459</v>
+        <v>68369</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>364</v>
+        <v>39</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>365</v>
+        <v>98</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
-        <v>1</v>
+        <f>NETWORKDAYS(B11, A11)</f>
+        <v>2</v>
       </c>
       <c r="J11" s="12">
-        <v>66162</v>
+        <v>65234</v>
       </c>
       <c r="K11" s="12">
-        <v>11781</v>
+        <v>11610</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>366</v>
+        <v>38</v>
       </c>
       <c r="M11" s="11">
-        <v>45855</v>
+        <v>45881</v>
       </c>
       <c r="N11" s="14">
-        <v>5396.77</v>
+        <v>9114.5499999999993</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P11" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R11" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="S11" s="14">
-        <v>284.04000000000002</v>
+        <v>183.5</v>
       </c>
       <c r="T11" s="14">
         <v>0</v>
@@ -2869,7 +2872,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B12, A12)</f>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2933,7 +2936,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B13, A13)</f>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -2997,7 +3000,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B14, A14)</f>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3061,7 +3064,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B15, A15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3125,7 +3128,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B16, A16)</f>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3189,7 +3192,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B17, A17)</f>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3253,7 +3256,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B18, A18)</f>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3317,7 +3320,7 @@
         <v>91</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B19, A19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3381,7 +3384,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B20, A20)</f>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3445,7 +3448,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B21, A21)</f>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3509,7 +3512,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B22, A22)</f>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3573,7 +3576,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="34">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B23, A23)</f>
         <v>2</v>
       </c>
       <c r="J23" s="29">
@@ -3637,7 +3640,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B24, A24)</f>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3701,7 +3704,7 @@
         <v>126</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B25, A25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3765,7 +3768,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B26, A26)</f>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3829,7 +3832,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B27, A27)</f>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3893,7 +3896,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B28, A28)</f>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -3957,7 +3960,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B29, A29)</f>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4021,7 +4024,7 @@
         <v>138</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B30, A30)</f>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4085,7 +4088,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B31, A31)</f>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4149,7 +4152,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B32, A32)</f>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4213,7 +4216,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B33, A33)</f>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4277,7 +4280,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B34, A34)</f>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -4341,7 +4344,7 @@
         <v>130</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B35, A35)</f>
         <v>37</v>
       </c>
       <c r="J35" s="7">
@@ -4405,7 +4408,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B36, A36)</f>
         <v>4</v>
       </c>
       <c r="J36" s="7">
@@ -4469,7 +4472,7 @@
         <v>91</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B37, A37)</f>
         <v>3</v>
       </c>
       <c r="J37" s="7">
@@ -4533,7 +4536,7 @@
         <v>91</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B38, A38)</f>
         <v>3</v>
       </c>
       <c r="J38" s="7">
@@ -4597,7 +4600,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B39, A39)</f>
         <v>1</v>
       </c>
       <c r="J39" s="7">
@@ -4661,7 +4664,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B40, A40)</f>
         <v>1</v>
       </c>
       <c r="J40" s="7">
@@ -4725,7 +4728,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B41, A41)</f>
         <v>1</v>
       </c>
       <c r="J41" s="7">
@@ -4789,7 +4792,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B42, A42)</f>
         <v>9</v>
       </c>
       <c r="J42" s="7">
@@ -4853,7 +4856,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B43, A43)</f>
         <v>1</v>
       </c>
       <c r="J43" s="7">
@@ -4917,7 +4920,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B44, A44)</f>
         <v>9</v>
       </c>
       <c r="J44" s="7">
@@ -4981,7 +4984,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B45, A45)</f>
         <v>9</v>
       </c>
       <c r="J45" s="7">
@@ -5045,7 +5048,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B46, A46)</f>
         <v>1</v>
       </c>
       <c r="J46" s="7">
@@ -5109,7 +5112,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B47, A47)</f>
         <v>2</v>
       </c>
       <c r="J47" s="7">
@@ -5173,7 +5176,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B48, A48)</f>
         <v>1</v>
       </c>
       <c r="J48" s="7">
@@ -5237,7 +5240,7 @@
         <v>130</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B49, A49)</f>
         <v>1</v>
       </c>
       <c r="J49" s="7">
@@ -5301,7 +5304,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B50, A50)</f>
         <v>1</v>
       </c>
       <c r="J50" s="7">
@@ -5365,7 +5368,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B51, A51)</f>
         <v>1</v>
       </c>
       <c r="J51" s="7">
@@ -5429,7 +5432,7 @@
         <v>98</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B52, A52)</f>
         <v>1</v>
       </c>
       <c r="J52" s="7">
@@ -5493,7 +5496,7 @@
         <v>98</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B53, A53)</f>
         <v>9</v>
       </c>
       <c r="J53" s="7">
@@ -5557,7 +5560,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B54, A54)</f>
         <v>1</v>
       </c>
       <c r="J54" s="7">
@@ -5596,66 +5599,66 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A55" s="11">
-        <v>45831</v>
-      </c>
-      <c r="B55" s="11">
-        <v>45824</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="11" t="s">
+      <c r="A55" s="31">
+        <v>45798</v>
+      </c>
+      <c r="B55" s="31">
+        <v>45786</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="12">
-        <v>68439</v>
-      </c>
-      <c r="G55" s="12" t="s">
+      <c r="F55" s="32">
+        <v>68378</v>
+      </c>
+      <c r="G55" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="I55" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J55" s="12">
-        <v>65915</v>
-      </c>
-      <c r="K55" s="12">
+      <c r="I55" s="27">
+        <f>NETWORKDAYS(B55, A55)</f>
+        <v>9</v>
+      </c>
+      <c r="J55" s="32">
+        <v>65472</v>
+      </c>
+      <c r="K55" s="32">
         <v>2201</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="L55" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="M55" s="11">
-        <v>45861</v>
-      </c>
-      <c r="N55" s="14">
-        <v>1401.04</v>
-      </c>
-      <c r="O55" s="12" t="s">
+      <c r="M55" s="31">
+        <v>45869</v>
+      </c>
+      <c r="N55" s="33">
+        <v>26920</v>
+      </c>
+      <c r="O55" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="P55" s="12">
-        <v>120</v>
-      </c>
-      <c r="Q55" s="12" t="s">
+      <c r="P55" s="32">
+        <v>28</v>
+      </c>
+      <c r="Q55" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R55" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
-      </c>
-      <c r="S55" s="14">
-        <v>0</v>
-      </c>
-      <c r="T55" s="14">
+      <c r="R55" s="32">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>71</v>
+      </c>
+      <c r="S55" s="33">
+        <v>0</v>
+      </c>
+      <c r="T55" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5685,7 +5688,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B56, A56)</f>
         <v>1</v>
       </c>
       <c r="J56" s="7">
@@ -5749,7 +5752,7 @@
         <v>96</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B57, A57)</f>
         <v>2</v>
       </c>
       <c r="J57" s="7">
@@ -5813,7 +5816,7 @@
         <v>32</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B58, A58)</f>
         <v>1</v>
       </c>
       <c r="J58" s="7">
@@ -5877,7 +5880,7 @@
         <v>32</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B59, A59)</f>
         <v>1</v>
       </c>
       <c r="J59" s="7">
@@ -5941,7 +5944,7 @@
         <v>32</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B60, A60)</f>
         <v>1</v>
       </c>
       <c r="J60" s="7">
@@ -6005,7 +6008,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B61, A61)</f>
         <v>10</v>
       </c>
       <c r="J61" s="7">
@@ -6069,7 +6072,7 @@
         <v>130</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B62, A62)</f>
         <v>1</v>
       </c>
       <c r="J62" s="7">
@@ -6133,7 +6136,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B63, A63)</f>
         <v>18</v>
       </c>
       <c r="J63" s="7">
@@ -6197,7 +6200,7 @@
         <v>91</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B64, A64)</f>
         <v>4</v>
       </c>
       <c r="J64" s="7">
@@ -6261,7 +6264,7 @@
         <v>98</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B65, A65)</f>
         <v>1</v>
       </c>
       <c r="J65" s="7">
@@ -6325,7 +6328,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B66, A66)</f>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6389,7 +6392,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B67, A67)</f>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6453,7 +6456,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B68, A68)</f>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6517,7 +6520,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B69, A69)</f>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6581,7 +6584,7 @@
         <v>98</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B70, A70)</f>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6645,7 +6648,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B71, A71)</f>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6709,7 +6712,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B72, A72)</f>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6773,7 +6776,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B73, A73)</f>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6837,7 +6840,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B74, A74)</f>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6901,7 +6904,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" ref="I75:I137" si="2">NETWORKDAYS(B75, A75)</f>
+        <f>NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -6965,7 +6968,7 @@
         <v>91</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B76, A76)</f>
         <v>3</v>
       </c>
       <c r="J76" s="7">
@@ -7029,7 +7032,7 @@
         <v>98</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B77, A77)</f>
         <v>2</v>
       </c>
       <c r="J77" s="7">
@@ -7093,7 +7096,7 @@
         <v>32</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B78, A78)</f>
         <v>1</v>
       </c>
       <c r="J78" s="7">
@@ -7157,7 +7160,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B79, A79)</f>
         <v>1</v>
       </c>
       <c r="J79" s="7">
@@ -7221,7 +7224,7 @@
         <v>138</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B80, A80)</f>
         <v>1</v>
       </c>
       <c r="J80" s="7">
@@ -7285,7 +7288,7 @@
         <v>130</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B81, A81)</f>
         <v>1</v>
       </c>
       <c r="J81" s="7">
@@ -7349,7 +7352,7 @@
         <v>98</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B82, A82)</f>
         <v>1</v>
       </c>
       <c r="J82" s="7">
@@ -7413,7 +7416,7 @@
         <v>130</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B83, A83)</f>
         <v>1</v>
       </c>
       <c r="J83" s="7">
@@ -7477,7 +7480,7 @@
         <v>98</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B84, A84)</f>
         <v>2</v>
       </c>
       <c r="J84" s="7">
@@ -7541,7 +7544,7 @@
         <v>98</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B85, A85)</f>
         <v>2</v>
       </c>
       <c r="J85" s="7">
@@ -7605,7 +7608,7 @@
         <v>34</v>
       </c>
       <c r="I86" s="34">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B86, A86)</f>
         <v>2</v>
       </c>
       <c r="J86" s="29">
@@ -7669,7 +7672,7 @@
         <v>34</v>
       </c>
       <c r="I87" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B87, A87)</f>
         <v>1</v>
       </c>
       <c r="J87" s="7">
@@ -7733,7 +7736,7 @@
         <v>32</v>
       </c>
       <c r="I88" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B88, A88)</f>
         <v>1</v>
       </c>
       <c r="J88" s="7">
@@ -7797,7 +7800,7 @@
         <v>126</v>
       </c>
       <c r="I89" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B89, A89)</f>
         <v>1</v>
       </c>
       <c r="J89" s="7">
@@ -7861,7 +7864,7 @@
         <v>98</v>
       </c>
       <c r="I90" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B90, A90)</f>
         <v>1</v>
       </c>
       <c r="J90" s="7">
@@ -7925,7 +7928,7 @@
         <v>32</v>
       </c>
       <c r="I91" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B91, A91)</f>
         <v>1</v>
       </c>
       <c r="J91" s="7">
@@ -7989,7 +7992,7 @@
         <v>98</v>
       </c>
       <c r="I92" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B92, A92)</f>
         <v>4</v>
       </c>
       <c r="J92" s="7">
@@ -8053,7 +8056,7 @@
         <v>126</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B93, A93)</f>
         <v>3</v>
       </c>
       <c r="J93" s="7">
@@ -8117,7 +8120,7 @@
         <v>126</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B94, A94)</f>
         <v>1</v>
       </c>
       <c r="J94" s="7">
@@ -8181,7 +8184,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B95, A95)</f>
         <v>2</v>
       </c>
       <c r="J95" s="7">
@@ -8245,7 +8248,7 @@
         <v>130</v>
       </c>
       <c r="I96" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B96, A96)</f>
         <v>1</v>
       </c>
       <c r="J96" s="7">
@@ -8309,7 +8312,7 @@
         <v>138</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B97, A97)</f>
         <v>1</v>
       </c>
       <c r="J97" s="7">
@@ -8373,7 +8376,7 @@
         <v>98</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B98, A98)</f>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8437,7 +8440,7 @@
         <v>130</v>
       </c>
       <c r="I99" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B99, A99)</f>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8501,7 +8504,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B100, A100)</f>
         <v>24</v>
       </c>
       <c r="J100" s="7">
@@ -8565,7 +8568,7 @@
         <v>126</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B101, A101)</f>
         <v>25</v>
       </c>
       <c r="J101" s="7">
@@ -8629,7 +8632,7 @@
         <v>98</v>
       </c>
       <c r="I102" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B102, A102)</f>
         <v>1</v>
       </c>
       <c r="J102" s="7">
@@ -8693,7 +8696,7 @@
         <v>91</v>
       </c>
       <c r="I103" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B103, A103)</f>
         <v>3</v>
       </c>
       <c r="J103" s="7">
@@ -8757,7 +8760,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B104, A104)</f>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8821,7 +8824,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B105, A105)</f>
         <v>1</v>
       </c>
       <c r="J105" s="7">
@@ -8885,7 +8888,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B106, A106)</f>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -8949,7 +8952,7 @@
         <v>98</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B107, A107)</f>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9013,7 +9016,7 @@
         <v>91</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B108, A108)</f>
         <v>2</v>
       </c>
       <c r="J108" s="7">
@@ -9052,130 +9055,130 @@
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A109" s="11">
-        <v>45866</v>
-      </c>
-      <c r="B109" s="11">
-        <v>45863</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="11" t="s">
+      <c r="A109" s="40">
+        <v>45818</v>
+      </c>
+      <c r="B109" s="40">
+        <v>45811</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F109" s="12">
-        <v>68481</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="I109" s="13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J109" s="12">
-        <v>66462</v>
-      </c>
-      <c r="K109" s="12">
-        <v>10535</v>
-      </c>
-      <c r="L109" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="M109" s="11">
-        <v>45868</v>
-      </c>
-      <c r="N109" s="14">
-        <v>300</v>
-      </c>
-      <c r="O109" s="12" t="s">
+      <c r="F109" s="41">
+        <v>68329</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H109" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I109" s="42">
+        <f>NETWORKDAYS(B109, A109)</f>
+        <v>6</v>
+      </c>
+      <c r="J109" s="41">
+        <v>66494</v>
+      </c>
+      <c r="K109" s="41">
+        <v>224</v>
+      </c>
+      <c r="L109" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="M109" s="40">
+        <v>45869</v>
+      </c>
+      <c r="N109" s="43">
+        <v>7774.51</v>
+      </c>
+      <c r="O109" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P109" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="R109" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>51</v>
+      </c>
+      <c r="S109" s="43">
+        <v>0</v>
+      </c>
+      <c r="T109" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A110" s="11">
+        <v>45818</v>
+      </c>
+      <c r="B110" s="11">
+        <v>45813</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="12">
+        <v>68422</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I110" s="13">
+        <f>NETWORKDAYS(B110, A110)</f>
+        <v>4</v>
+      </c>
+      <c r="J110" s="12">
+        <v>65725</v>
+      </c>
+      <c r="K110" s="12">
+        <v>1450</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="M110" s="11">
+        <v>45877</v>
+      </c>
+      <c r="N110" s="14">
+        <v>239.63</v>
+      </c>
+      <c r="O110" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P109" s="12">
-        <v>14</v>
-      </c>
-      <c r="Q109" s="12" t="s">
+      <c r="P110" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q110" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R109" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
-      </c>
-      <c r="S109" s="14">
-        <v>0</v>
-      </c>
-      <c r="T109" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A110" s="31">
-        <v>45798</v>
-      </c>
-      <c r="B110" s="31">
-        <v>45786</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F110" s="32">
-        <v>68378</v>
-      </c>
-      <c r="G110" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H110" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I110" s="27">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J110" s="32">
-        <v>65472</v>
-      </c>
-      <c r="K110" s="32">
-        <v>2201</v>
-      </c>
-      <c r="L110" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="M110" s="31">
-        <v>45869</v>
-      </c>
-      <c r="N110" s="33">
-        <v>26920</v>
-      </c>
-      <c r="O110" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="P110" s="32">
-        <v>28</v>
-      </c>
-      <c r="Q110" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="R110" s="32">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>71</v>
-      </c>
-      <c r="S110" s="33">
-        <v>0</v>
-      </c>
-      <c r="T110" s="33">
+      <c r="R110" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>59</v>
+      </c>
+      <c r="S110" s="14">
+        <v>0</v>
+      </c>
+      <c r="T110" s="14">
         <v>0</v>
       </c>
     </row>
@@ -9205,7 +9208,7 @@
         <v>91</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B111, A111)</f>
         <v>4</v>
       </c>
       <c r="J111" s="7">
@@ -9244,66 +9247,66 @@
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A112" s="40">
-        <v>45818</v>
-      </c>
-      <c r="B112" s="40">
-        <v>45811</v>
-      </c>
-      <c r="C112" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="40" t="s">
+      <c r="A112" s="11">
+        <v>45826</v>
+      </c>
+      <c r="B112" s="11">
+        <v>45789</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F112" s="41">
-        <v>68329</v>
-      </c>
-      <c r="G112" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H112" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I112" s="42">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J112" s="41">
-        <v>66494</v>
-      </c>
-      <c r="K112" s="41">
-        <v>224</v>
-      </c>
-      <c r="L112" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="M112" s="40">
-        <v>45869</v>
-      </c>
-      <c r="N112" s="43">
-        <v>7774.51</v>
-      </c>
-      <c r="O112" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="P112" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R112" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>51</v>
-      </c>
-      <c r="S112" s="43">
-        <v>0</v>
-      </c>
-      <c r="T112" s="43">
+      <c r="E112" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="12">
+        <v>68384</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I112" s="13">
+        <f>NETWORKDAYS(B112, A112)</f>
+        <v>28</v>
+      </c>
+      <c r="J112" s="12">
+        <v>65867</v>
+      </c>
+      <c r="K112" s="12">
+        <v>1463</v>
+      </c>
+      <c r="L112" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M112" s="11">
+        <v>45874</v>
+      </c>
+      <c r="N112" s="14">
+        <v>4215.5</v>
+      </c>
+      <c r="O112" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P112" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q112" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R112" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>48</v>
+      </c>
+      <c r="S112" s="14">
+        <v>0</v>
+      </c>
+      <c r="T112" s="14">
         <v>0</v>
       </c>
     </row>
@@ -9333,7 +9336,7 @@
         <v>32</v>
       </c>
       <c r="I113" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B113, A113)</f>
         <v>1</v>
       </c>
       <c r="J113" s="7">
@@ -9397,7 +9400,7 @@
         <v>96</v>
       </c>
       <c r="I114" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B114, A114)</f>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9461,7 +9464,7 @@
         <v>91</v>
       </c>
       <c r="I115" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B115, A115)</f>
         <v>2</v>
       </c>
       <c r="J115" s="7">
@@ -9525,7 +9528,7 @@
         <v>32</v>
       </c>
       <c r="I116" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B116, A116)</f>
         <v>1</v>
       </c>
       <c r="J116" s="7">
@@ -9589,7 +9592,7 @@
         <v>98</v>
       </c>
       <c r="I117" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B117, A117)</f>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9653,7 +9656,7 @@
         <v>91</v>
       </c>
       <c r="I118" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B118, A118)</f>
         <v>5</v>
       </c>
       <c r="J118" s="7">
@@ -9717,7 +9720,7 @@
         <v>91</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B119, A119)</f>
         <v>1</v>
       </c>
       <c r="J119" s="7">
@@ -9781,7 +9784,7 @@
         <v>91</v>
       </c>
       <c r="I120" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B120, A120)</f>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9845,7 +9848,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B121, A121)</f>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9909,7 +9912,7 @@
         <v>126</v>
       </c>
       <c r="I122" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B122, A122)</f>
         <v>18</v>
       </c>
       <c r="J122" s="7">
@@ -9973,7 +9976,7 @@
         <v>91</v>
       </c>
       <c r="I123" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B123, A123)</f>
         <v>1</v>
       </c>
       <c r="J123" s="7">
@@ -10037,7 +10040,7 @@
         <v>34</v>
       </c>
       <c r="I124" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B124, A124)</f>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10101,7 +10104,7 @@
         <v>130</v>
       </c>
       <c r="I125" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B125, A125)</f>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10165,7 +10168,7 @@
         <v>130</v>
       </c>
       <c r="I126" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B126, A126)</f>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10229,7 +10232,7 @@
         <v>98</v>
       </c>
       <c r="I127" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B127, A127)</f>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10293,7 +10296,7 @@
         <v>130</v>
       </c>
       <c r="I128" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B128, A128)</f>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10357,7 +10360,7 @@
         <v>32</v>
       </c>
       <c r="I129" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B129, A129)</f>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10421,7 +10424,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B130, A130)</f>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10460,75 +10463,75 @@
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A131" s="11">
-        <v>45839</v>
-      </c>
-      <c r="B131" s="11">
-        <v>45824</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" s="11" t="s">
+      <c r="A131" s="49">
+        <v>45826</v>
+      </c>
+      <c r="B131" s="49">
+        <v>45826</v>
+      </c>
+      <c r="C131" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F131" s="12">
-        <v>68438</v>
-      </c>
-      <c r="G131" s="12" t="s">
+      <c r="F131" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="H131" s="12" t="s">
+      <c r="H131" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I131" s="13">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J131" s="12">
-        <v>66025</v>
-      </c>
-      <c r="K131" s="12">
-        <v>3034</v>
-      </c>
-      <c r="L131" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="M131" s="11">
-        <v>45870</v>
-      </c>
-      <c r="N131" s="14">
-        <v>2087</v>
-      </c>
-      <c r="O131" s="12" t="s">
+      <c r="I131" s="51">
+        <f>NETWORKDAYS(B131, A131)</f>
+        <v>1</v>
+      </c>
+      <c r="J131" s="50">
+        <v>66341</v>
+      </c>
+      <c r="K131" s="50">
+        <v>11758</v>
+      </c>
+      <c r="L131" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="M131" s="49">
+        <v>45880</v>
+      </c>
+      <c r="N131" s="52">
+        <v>924.61</v>
+      </c>
+      <c r="O131" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="P131" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q131" s="12" t="s">
+      <c r="P131" s="50">
+        <v>28</v>
+      </c>
+      <c r="Q131" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="R131" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S131" s="14">
-        <v>0</v>
-      </c>
-      <c r="T131" s="14">
+      <c r="R131" s="50">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>54</v>
+      </c>
+      <c r="S131" s="52">
+        <v>0</v>
+      </c>
+      <c r="T131" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
-        <v>45826</v>
+        <v>45831</v>
       </c>
       <c r="B132" s="11">
-        <v>45789</v>
+        <v>45824</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>7</v>
@@ -10540,7 +10543,7 @@
         <v>124</v>
       </c>
       <c r="F132" s="12">
-        <v>68384</v>
+        <v>68439</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>125</v>
@@ -10549,36 +10552,36 @@
         <v>126</v>
       </c>
       <c r="I132" s="13">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>NETWORKDAYS(B132, A132)</f>
+        <v>6</v>
       </c>
       <c r="J132" s="12">
-        <v>65867</v>
+        <v>65915</v>
       </c>
       <c r="K132" s="12">
-        <v>1463</v>
+        <v>2201</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>317</v>
+        <v>203</v>
       </c>
       <c r="M132" s="11">
-        <v>45874</v>
+        <v>45861</v>
       </c>
       <c r="N132" s="14">
-        <v>4215.5</v>
+        <v>1401.04</v>
       </c>
       <c r="O132" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P132" s="12">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="Q132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R132" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="S132" s="14">
         <v>0</v>
@@ -10613,7 +10616,7 @@
         <v>98</v>
       </c>
       <c r="I133" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B133, A133)</f>
         <v>7</v>
       </c>
       <c r="J133" s="7">
@@ -10677,7 +10680,7 @@
         <v>126</v>
       </c>
       <c r="I134" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B134, A134)</f>
         <v>6</v>
       </c>
       <c r="J134" s="7">
@@ -10741,7 +10744,7 @@
         <v>126</v>
       </c>
       <c r="I135" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B135, A135)</f>
         <v>7</v>
       </c>
       <c r="J135" s="7">
@@ -10805,7 +10808,7 @@
         <v>32</v>
       </c>
       <c r="I136" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B136, A136)</f>
         <v>1</v>
       </c>
       <c r="J136" s="7">
@@ -10845,22 +10848,22 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="11">
-        <v>45855</v>
+        <v>45839</v>
       </c>
       <c r="B137" s="11">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="F137" s="12">
+        <v>68438</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>125</v>
@@ -10869,39 +10872,39 @@
         <v>126</v>
       </c>
       <c r="I137" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B137, A137)</f>
+        <v>12</v>
       </c>
       <c r="J137" s="12">
-        <v>66308</v>
+        <v>66025</v>
       </c>
       <c r="K137" s="12">
-        <v>11757</v>
+        <v>3034</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="M137" s="11">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="N137" s="14">
-        <v>1428.29</v>
+        <v>2087</v>
       </c>
       <c r="O137" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P137" s="12">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Q137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R137" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="S137" s="14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T137" s="14">
         <v>0</v>
@@ -10933,7 +10936,7 @@
         <v>98</v>
       </c>
       <c r="I138" s="10">
-        <f t="shared" ref="I138:I200" si="3">NETWORKDAYS(B138, A138)</f>
+        <f>NETWORKDAYS(B138, A138)</f>
         <v>2</v>
       </c>
       <c r="J138" s="7">
@@ -10997,7 +11000,7 @@
         <v>98</v>
       </c>
       <c r="I139" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B139, A139)</f>
         <v>7</v>
       </c>
       <c r="J139" s="7">
@@ -11061,7 +11064,7 @@
         <v>98</v>
       </c>
       <c r="I140" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B140, A140)</f>
         <v>18</v>
       </c>
       <c r="J140" s="7">
@@ -11125,7 +11128,7 @@
         <v>91</v>
       </c>
       <c r="I141" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B141, A141)</f>
         <v>6</v>
       </c>
       <c r="J141" s="7">
@@ -11189,7 +11192,7 @@
         <v>130</v>
       </c>
       <c r="I142" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B142, A142)</f>
         <v>1</v>
       </c>
       <c r="J142" s="7">
@@ -11253,7 +11256,7 @@
         <v>373</v>
       </c>
       <c r="I143" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B143, A143)</f>
         <v>1</v>
       </c>
       <c r="J143" s="7">
@@ -11317,7 +11320,7 @@
         <v>98</v>
       </c>
       <c r="I144" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B144, A144)</f>
         <v>1</v>
       </c>
       <c r="J144" s="7">
@@ -11381,7 +11384,7 @@
         <v>34</v>
       </c>
       <c r="I145" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B145, A145)</f>
         <v>1</v>
       </c>
       <c r="J145" s="7">
@@ -11445,7 +11448,7 @@
         <v>98</v>
       </c>
       <c r="I146" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B146, A146)</f>
         <v>1</v>
       </c>
       <c r="J146" s="7">
@@ -11509,7 +11512,7 @@
         <v>138</v>
       </c>
       <c r="I147" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B147, A147)</f>
         <v>1</v>
       </c>
       <c r="J147" s="7">
@@ -11573,7 +11576,7 @@
         <v>91</v>
       </c>
       <c r="I148" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B148, A148)</f>
         <v>9</v>
       </c>
       <c r="J148" s="7">
@@ -11637,7 +11640,7 @@
         <v>98</v>
       </c>
       <c r="I149" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B149, A149)</f>
         <v>1</v>
       </c>
       <c r="J149" s="7">
@@ -11701,7 +11704,7 @@
         <v>130</v>
       </c>
       <c r="I150" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B150, A150)</f>
         <v>1</v>
       </c>
       <c r="J150" s="7">
@@ -11765,7 +11768,7 @@
         <v>32</v>
       </c>
       <c r="I151" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B151, A151)</f>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11829,7 +11832,7 @@
         <v>91</v>
       </c>
       <c r="I152" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B152, A152)</f>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11893,7 +11896,7 @@
         <v>32</v>
       </c>
       <c r="I153" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B153, A153)</f>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -11957,7 +11960,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B154, A154)</f>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12021,7 +12024,7 @@
         <v>130</v>
       </c>
       <c r="I155" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B155, A155)</f>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12085,7 +12088,7 @@
         <v>98</v>
       </c>
       <c r="I156" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B156, A156)</f>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12149,7 +12152,7 @@
         <v>91</v>
       </c>
       <c r="I157" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B157, A157)</f>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12213,7 +12216,7 @@
         <v>91</v>
       </c>
       <c r="I158" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B158, A158)</f>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12277,7 +12280,7 @@
         <v>32</v>
       </c>
       <c r="I159" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B159, A159)</f>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12341,7 +12344,7 @@
         <v>32</v>
       </c>
       <c r="I160" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B160, A160)</f>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12405,7 +12408,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B161, A161)</f>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12469,7 +12472,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B162, A162)</f>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12533,7 +12536,7 @@
         <v>185</v>
       </c>
       <c r="I163" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B163, A163)</f>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12597,7 +12600,7 @@
         <v>91</v>
       </c>
       <c r="I164" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B164, A164)</f>
         <v>17</v>
       </c>
       <c r="J164" s="7">
@@ -12661,7 +12664,7 @@
         <v>98</v>
       </c>
       <c r="I165" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B165, A165)</f>
         <v>2</v>
       </c>
       <c r="J165" s="7">
@@ -12725,7 +12728,7 @@
         <v>91</v>
       </c>
       <c r="I166" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B166, A166)</f>
         <v>4</v>
       </c>
       <c r="J166" s="7">
@@ -12789,7 +12792,7 @@
         <v>130</v>
       </c>
       <c r="I167" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B167, A167)</f>
         <v>5</v>
       </c>
       <c r="J167" s="7">
@@ -12853,7 +12856,7 @@
         <v>32</v>
       </c>
       <c r="I168" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B168, A168)</f>
         <v>1</v>
       </c>
       <c r="J168" s="7">
@@ -12917,7 +12920,7 @@
         <v>130</v>
       </c>
       <c r="I169" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B169, A169)</f>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -12981,7 +12984,7 @@
         <v>130</v>
       </c>
       <c r="I170" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B170, A170)</f>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13045,7 +13048,7 @@
         <v>34</v>
       </c>
       <c r="I171" s="13">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B171, A171)</f>
         <v>1</v>
       </c>
       <c r="J171" s="12">
@@ -13109,7 +13112,7 @@
         <v>130</v>
       </c>
       <c r="I172" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B172, A172)</f>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13173,7 +13176,7 @@
         <v>98</v>
       </c>
       <c r="I173" s="13">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B173, A173)</f>
         <v>1</v>
       </c>
       <c r="J173" s="12">
@@ -13237,7 +13240,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B174, A174)</f>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13301,7 +13304,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B175, A175)</f>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13365,7 +13368,7 @@
         <v>138</v>
       </c>
       <c r="I176" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B176, A176)</f>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13429,7 +13432,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B177, A177)</f>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13493,7 +13496,7 @@
         <v>130</v>
       </c>
       <c r="I178" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B178, A178)</f>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13557,7 +13560,7 @@
         <v>34</v>
       </c>
       <c r="I179" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B179, A179)</f>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13597,60 +13600,60 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" s="11">
-        <v>45868</v>
+        <v>45846</v>
       </c>
       <c r="B180" s="11">
-        <v>45868</v>
+        <v>45846</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>395</v>
+        <v>113</v>
       </c>
       <c r="F180" s="12">
-        <v>68487</v>
+        <v>68456</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I180" s="13">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B180, A180)</f>
         <v>1</v>
       </c>
       <c r="J180" s="12">
-        <v>66489</v>
+        <v>66118</v>
       </c>
       <c r="K180" s="12">
-        <v>11614</v>
+        <v>2289</v>
       </c>
       <c r="L180" s="12" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="M180" s="11">
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="N180" s="14">
-        <v>6633</v>
+        <v>607.57000000000005</v>
       </c>
       <c r="O180" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P180" s="12">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q180" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R180" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="S180" s="14">
         <v>0</v>
@@ -13661,10 +13664,10 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="11">
-        <v>45861</v>
+        <v>45848</v>
       </c>
       <c r="B181" s="11">
-        <v>45861</v>
+        <v>45848</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>7</v>
@@ -13673,54 +13676,54 @@
         <v>15</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F181" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F181" s="12">
+        <v>68459</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>125</v>
+        <v>364</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>126</v>
+        <v>365</v>
       </c>
       <c r="I181" s="13">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B181, A181)</f>
         <v>1</v>
       </c>
       <c r="J181" s="12">
-        <v>66301</v>
+        <v>66162</v>
       </c>
       <c r="K181" s="12">
-        <v>1522</v>
+        <v>11781</v>
       </c>
       <c r="L181" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="M181" s="11">
-        <v>45875</v>
+        <v>45855</v>
       </c>
       <c r="N181" s="14">
-        <v>1023.45</v>
+        <v>5396.77</v>
       </c>
       <c r="O181" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P181" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q181" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R181" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S181" s="14">
-        <v>0</v>
+        <v>284.04000000000002</v>
       </c>
       <c r="T181" s="14">
-        <v>141.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -13749,7 +13752,7 @@
         <v>91</v>
       </c>
       <c r="I182" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B182, A182)</f>
         <v>1</v>
       </c>
       <c r="J182" s="7">
@@ -13789,10 +13792,10 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
-        <v>45868</v>
+        <v>45848</v>
       </c>
       <c r="B183" s="11">
-        <v>45862</v>
+        <v>45848</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>7</v>
@@ -13804,48 +13807,48 @@
         <v>113</v>
       </c>
       <c r="F183" s="12">
-        <v>68476</v>
+        <v>68457</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I183" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>NETWORKDAYS(B183, A183)</f>
+        <v>1</v>
       </c>
       <c r="J183" s="12">
-        <v>66491</v>
+        <v>66126</v>
       </c>
       <c r="K183" s="12">
-        <v>11522</v>
+        <v>2931</v>
       </c>
       <c r="L183" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M183" s="11">
-        <v>45875</v>
+        <v>45879</v>
       </c>
       <c r="N183" s="14">
-        <v>398.42</v>
+        <v>3500</v>
       </c>
       <c r="O183" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P183" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q183" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R183" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="S183" s="14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T183" s="14">
         <v>0</v>
@@ -13877,7 +13880,7 @@
         <v>98</v>
       </c>
       <c r="I184" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B184, A184)</f>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13941,7 +13944,7 @@
         <v>91</v>
       </c>
       <c r="I185" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B185, A185)</f>
         <v>4</v>
       </c>
       <c r="J185" s="7">
@@ -14005,7 +14008,7 @@
         <v>34</v>
       </c>
       <c r="I186" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B186, A186)</f>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14069,7 +14072,7 @@
         <v>96</v>
       </c>
       <c r="I187" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B187, A187)</f>
         <v>1</v>
       </c>
       <c r="J187" s="7">
@@ -14133,7 +14136,7 @@
         <v>32</v>
       </c>
       <c r="I188" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B188, A188)</f>
         <v>1</v>
       </c>
       <c r="J188" s="7">
@@ -14197,7 +14200,7 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B189, A189)</f>
         <v>1</v>
       </c>
       <c r="J189" s="7">
@@ -14261,7 +14264,7 @@
         <v>91</v>
       </c>
       <c r="I190" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B190, A190)</f>
         <v>4</v>
       </c>
       <c r="J190" s="7">
@@ -14325,7 +14328,7 @@
         <v>91</v>
       </c>
       <c r="I191" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B191, A191)</f>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14389,7 +14392,7 @@
         <v>34</v>
       </c>
       <c r="I192" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B192, A192)</f>
         <v>1</v>
       </c>
       <c r="J192" s="7">
@@ -14453,7 +14456,7 @@
         <v>98</v>
       </c>
       <c r="I193" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B193, A193)</f>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14517,7 +14520,7 @@
         <v>373</v>
       </c>
       <c r="I194" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B194, A194)</f>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14581,7 +14584,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B195, A195)</f>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14645,7 +14648,7 @@
         <v>373</v>
       </c>
       <c r="I196" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B196, A196)</f>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14709,7 +14712,7 @@
         <v>373</v>
       </c>
       <c r="I197" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B197, A197)</f>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14773,7 +14776,7 @@
         <v>373</v>
       </c>
       <c r="I198" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B198, A198)</f>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14837,7 +14840,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B199, A199)</f>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14901,7 +14904,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B200, A200)</f>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -14965,7 +14968,7 @@
         <v>130</v>
       </c>
       <c r="I201" s="10">
-        <f t="shared" ref="I201:I232" si="4">NETWORKDAYS(B201, A201)</f>
+        <f>NETWORKDAYS(B201, A201)</f>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15029,7 +15032,7 @@
         <v>32</v>
       </c>
       <c r="I202" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B202, A202)</f>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15093,7 +15096,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15133,63 +15136,63 @@
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
-        <v>45818</v>
+        <v>45849</v>
       </c>
       <c r="B204" s="11">
-        <v>45813</v>
+        <v>45849</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F204" s="12">
-        <v>68422</v>
+        <v>113</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>90</v>
+        <v>372</v>
       </c>
       <c r="H204" s="12" t="s">
-        <v>91</v>
+        <v>373</v>
       </c>
       <c r="I204" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>NETWORKDAYS(B204, A204)</f>
+        <v>1</v>
       </c>
       <c r="J204" s="12">
-        <v>65725</v>
+        <v>66166</v>
       </c>
       <c r="K204" s="12">
-        <v>1450</v>
+        <v>11782</v>
       </c>
       <c r="L204" s="12" t="s">
-        <v>229</v>
+        <v>371</v>
       </c>
       <c r="M204" s="11">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="N204" s="14">
-        <v>239.63</v>
+        <v>2250</v>
       </c>
       <c r="O204" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P204" s="12">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Q204" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R204" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="S204" s="14">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T204" s="14">
         <v>0</v>
@@ -15197,63 +15200,63 @@
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
-        <v>45846</v>
+        <v>45855</v>
       </c>
       <c r="B205" s="11">
-        <v>45846</v>
+        <v>45855</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F205" s="12">
-        <v>68456</v>
+        <v>142</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="H205" s="12" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I205" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B205, A205)</f>
         <v>1</v>
       </c>
       <c r="J205" s="12">
-        <v>66118</v>
+        <v>66308</v>
       </c>
       <c r="K205" s="12">
-        <v>2289</v>
+        <v>11757</v>
       </c>
       <c r="L205" s="12" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="M205" s="11">
-        <v>45877</v>
+        <v>45873</v>
       </c>
       <c r="N205" s="14">
-        <v>607.57000000000005</v>
+        <v>1428.29</v>
       </c>
       <c r="O205" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P205" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q205" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R205" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="S205" s="14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T205" s="14">
         <v>0</v>
@@ -15285,7 +15288,7 @@
         <v>373</v>
       </c>
       <c r="I206" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B206, A206)</f>
         <v>1</v>
       </c>
       <c r="J206" s="7">
@@ -15349,7 +15352,7 @@
         <v>130</v>
       </c>
       <c r="I207" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B207, A207)</f>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15413,7 +15416,7 @@
         <v>130</v>
       </c>
       <c r="I208" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B208, A208)</f>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15477,7 +15480,7 @@
         <v>130</v>
       </c>
       <c r="I209" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B209, A209)</f>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15541,7 +15544,7 @@
         <v>130</v>
       </c>
       <c r="I210" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B210, A210)</f>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15605,7 +15608,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B211, A211)</f>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15669,7 +15672,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B212, A212)</f>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15733,7 +15736,7 @@
         <v>138</v>
       </c>
       <c r="I213" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B213, A213)</f>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15797,7 +15800,7 @@
         <v>91</v>
       </c>
       <c r="I214" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B214, A214)</f>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15861,7 +15864,7 @@
         <v>98</v>
       </c>
       <c r="I215" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B215, A215)</f>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15925,7 +15928,7 @@
         <v>138</v>
       </c>
       <c r="I216" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B216, A216)</f>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -15965,130 +15968,130 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
-        <v>45848</v>
+        <v>45856</v>
       </c>
       <c r="B217" s="11">
-        <v>45848</v>
+        <v>45856</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F217" s="12">
-        <v>68457</v>
+        <v>68466</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H217" s="12" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I217" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B217, A217)</f>
         <v>1</v>
       </c>
       <c r="J217" s="12">
-        <v>66126</v>
+        <v>66337</v>
       </c>
       <c r="K217" s="12">
-        <v>2931</v>
+        <v>11736</v>
       </c>
       <c r="L217" s="12" t="s">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="M217" s="11">
-        <v>45879</v>
+        <v>45889</v>
       </c>
       <c r="N217" s="14">
-        <v>3500</v>
+        <v>16134.54</v>
       </c>
       <c r="O217" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P217" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R217" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S217" s="14">
-        <v>320</v>
+        <v>25720</v>
       </c>
       <c r="T217" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A218" s="49">
-        <v>45826</v>
-      </c>
-      <c r="B218" s="49">
-        <v>45826</v>
-      </c>
-      <c r="C218" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" s="49" t="s">
+      <c r="A218" s="11">
+        <v>45861</v>
+      </c>
+      <c r="B218" s="11">
+        <v>45861</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E218" s="49" t="s">
+      <c r="E218" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F218" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G218" s="50" t="s">
+      <c r="F218" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G218" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H218" s="50" t="s">
+      <c r="H218" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I218" s="51">
-        <f t="shared" si="4"/>
+      <c r="I218" s="13">
+        <f>NETWORKDAYS(B218, A218)</f>
         <v>1</v>
       </c>
-      <c r="J218" s="50">
-        <v>66341</v>
-      </c>
-      <c r="K218" s="50">
-        <v>11758</v>
-      </c>
-      <c r="L218" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="M218" s="49">
-        <v>45880</v>
-      </c>
-      <c r="N218" s="52">
-        <v>924.61</v>
-      </c>
-      <c r="O218" s="50" t="s">
+      <c r="J218" s="12">
+        <v>66301</v>
+      </c>
+      <c r="K218" s="12">
+        <v>1522</v>
+      </c>
+      <c r="L218" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M218" s="11">
+        <v>45875</v>
+      </c>
+      <c r="N218" s="14">
+        <v>1023.45</v>
+      </c>
+      <c r="O218" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P218" s="50">
+      <c r="P218" s="12">
         <v>28</v>
       </c>
-      <c r="Q218" s="50" t="s">
+      <c r="Q218" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R218" s="50">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>54</v>
-      </c>
-      <c r="S218" s="52">
-        <v>0</v>
-      </c>
-      <c r="T218" s="52">
-        <v>0</v>
+      <c r="R218" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>14</v>
+      </c>
+      <c r="S218" s="14">
+        <v>0</v>
+      </c>
+      <c r="T218" s="14">
+        <v>141.4</v>
       </c>
     </row>
     <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -16117,7 +16120,7 @@
         <v>130</v>
       </c>
       <c r="I219" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B219, A219)</f>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16181,7 +16184,7 @@
         <v>130</v>
       </c>
       <c r="I220" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B220, A220)</f>
         <v>1</v>
       </c>
       <c r="J220" s="7">
@@ -16245,7 +16248,7 @@
         <v>98</v>
       </c>
       <c r="I221" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B221, A221)</f>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16285,10 +16288,10 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222" s="11">
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="B222" s="11">
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>7</v>
@@ -16299,36 +16302,36 @@
       <c r="E222" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F222" s="12" t="s">
-        <v>3</v>
+      <c r="F222" s="12">
+        <v>68479</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="H222" s="12" t="s">
-        <v>373</v>
+        <v>91</v>
       </c>
       <c r="I222" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B222, A222)</f>
         <v>1</v>
       </c>
       <c r="J222" s="12">
-        <v>66166</v>
+        <v>66454</v>
       </c>
       <c r="K222" s="12">
-        <v>11782</v>
+        <v>11788</v>
       </c>
       <c r="L222" s="12" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="M222" s="11">
-        <v>45880</v>
+        <v>45889</v>
       </c>
       <c r="N222" s="14">
-        <v>2250</v>
+        <v>4122.3</v>
       </c>
       <c r="O222" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P222" s="12">
         <v>30</v>
@@ -16338,10 +16341,10 @@
       </c>
       <c r="R222" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S222" s="14">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="T222" s="14">
         <v>0</v>
@@ -16373,7 +16376,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B223, A223)</f>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16413,63 +16416,63 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A224" s="11">
-        <v>45867</v>
+        <v>45866</v>
       </c>
       <c r="B224" s="11">
-        <v>45867</v>
+        <v>45863</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F224" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F224" s="12">
+        <v>68481</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>125</v>
+        <v>372</v>
       </c>
       <c r="H224" s="12" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
       <c r="I224" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B224, A224)</f>
+        <v>2</v>
       </c>
       <c r="J224" s="12">
-        <v>66471</v>
+        <v>66462</v>
       </c>
       <c r="K224" s="12">
-        <v>9</v>
+        <v>10535</v>
       </c>
       <c r="L224" s="12" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M224" s="11">
-        <v>45880</v>
+        <v>45868</v>
       </c>
       <c r="N224" s="14">
-        <v>6505.5</v>
+        <v>300</v>
       </c>
       <c r="O224" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P224" s="12">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q224" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R224" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S224" s="14">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="T224" s="14">
         <v>0</v>
@@ -16477,63 +16480,63 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
-        <v>45785</v>
+        <v>45867</v>
       </c>
       <c r="B225" s="11">
-        <v>45784</v>
+        <v>45867</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F225" s="12">
-        <v>68369</v>
+        <v>124</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="H225" s="12" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I225" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B225, A225)</f>
+        <v>1</v>
       </c>
       <c r="J225" s="12">
-        <v>65234</v>
+        <v>66471</v>
       </c>
       <c r="K225" s="12">
-        <v>11610</v>
+        <v>9</v>
       </c>
       <c r="L225" s="12" t="s">
-        <v>38</v>
+        <v>398</v>
       </c>
       <c r="M225" s="11">
-        <v>45881</v>
+        <v>45880</v>
       </c>
       <c r="N225" s="14">
-        <v>9114.5499999999993</v>
+        <v>6505.5</v>
       </c>
       <c r="O225" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P225" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q225" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R225" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="S225" s="14">
-        <v>183.5</v>
+        <v>135</v>
       </c>
       <c r="T225" s="14">
         <v>0</v>
@@ -16565,7 +16568,7 @@
         <v>32</v>
       </c>
       <c r="I226" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B226, A226)</f>
         <v>1</v>
       </c>
       <c r="J226" s="7">
@@ -16629,7 +16632,7 @@
         <v>96</v>
       </c>
       <c r="I227" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B227, A227)</f>
         <v>1</v>
       </c>
       <c r="J227" s="12">
@@ -16669,63 +16672,63 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B228" s="11">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F228" s="12">
-        <v>68479</v>
+        <v>68483</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>389</v>
+        <v>125</v>
       </c>
       <c r="H228" s="12" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I228" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B228, A228)</f>
+        <v>2</v>
       </c>
       <c r="J228" s="12">
-        <v>66454</v>
+        <v>66467</v>
       </c>
       <c r="K228" s="12">
-        <v>11788</v>
+        <v>11164</v>
       </c>
       <c r="L228" s="12" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="M228" s="11">
-        <v>45889</v>
+        <v>45908</v>
       </c>
       <c r="N228" s="14">
-        <v>4122.3</v>
+        <v>2623.03</v>
       </c>
       <c r="O228" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P228" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q228" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R228" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="S228" s="14">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="T228" s="14">
         <v>0</v>
@@ -16733,63 +16736,63 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
-        <v>45856</v>
+        <v>45868</v>
       </c>
       <c r="B229" s="11">
-        <v>45856</v>
+        <v>45868</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>124</v>
+        <v>395</v>
       </c>
       <c r="F229" s="12">
-        <v>68466</v>
+        <v>68487</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>125</v>
+        <v>396</v>
       </c>
       <c r="H229" s="12" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="I229" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B229, A229)</f>
         <v>1</v>
       </c>
       <c r="J229" s="12">
-        <v>66337</v>
+        <v>66489</v>
       </c>
       <c r="K229" s="12">
-        <v>11736</v>
+        <v>11614</v>
       </c>
       <c r="L229" s="12" t="s">
-        <v>127</v>
+        <v>397</v>
       </c>
       <c r="M229" s="11">
-        <v>45889</v>
+        <v>45874</v>
       </c>
       <c r="N229" s="14">
-        <v>16134.54</v>
+        <v>6633</v>
       </c>
       <c r="O229" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P229" s="12">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R229" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="S229" s="14">
-        <v>25720</v>
+        <v>0</v>
       </c>
       <c r="T229" s="14">
         <v>0</v>
@@ -16821,7 +16824,7 @@
         <v>34</v>
       </c>
       <c r="I230" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B230, A230)</f>
         <v>1</v>
       </c>
       <c r="J230" s="7">
@@ -16861,47 +16864,47 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B231" s="11">
-        <v>45866</v>
+        <v>45862</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F231" s="12">
-        <v>68483</v>
+        <v>68476</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="H231" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I231" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B231, A231)</f>
+        <v>5</v>
       </c>
       <c r="J231" s="12">
-        <v>66467</v>
+        <v>66491</v>
       </c>
       <c r="K231" s="12">
-        <v>11164</v>
+        <v>11522</v>
       </c>
       <c r="L231" s="12" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="M231" s="11">
-        <v>45908</v>
+        <v>45875</v>
       </c>
       <c r="N231" s="14">
-        <v>2623.03</v>
+        <v>398.42</v>
       </c>
       <c r="O231" s="12" t="s">
         <v>122</v>
@@ -16914,10 +16917,10 @@
       </c>
       <c r="R231" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="S231" s="14">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="T231" s="14">
         <v>0</v>
@@ -16949,7 +16952,7 @@
         <v>126</v>
       </c>
       <c r="I232" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B232, A232)</f>
         <v>1</v>
       </c>
       <c r="J232" s="12">
@@ -17052,66 +17055,66 @@
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A234" s="40">
+      <c r="A234" s="11">
         <v>45870</v>
       </c>
-      <c r="B234" s="40">
+      <c r="B234" s="11">
         <v>45869</v>
       </c>
-      <c r="C234" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E234" s="40" t="s">
+      <c r="C234" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F234" s="41">
+      <c r="F234" s="12">
         <v>68491</v>
       </c>
-      <c r="G234" s="41" t="s">
+      <c r="G234" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H234" s="41" t="s">
+      <c r="H234" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="I234" s="42">
+      <c r="I234" s="13">
         <f>NETWORKDAYS(B234, A234)</f>
         <v>2</v>
       </c>
-      <c r="J234" s="41">
+      <c r="J234" s="12">
         <v>66521</v>
       </c>
-      <c r="K234" s="54">
+      <c r="K234" s="12">
         <v>3061</v>
       </c>
-      <c r="L234" s="41" t="s">
+      <c r="L234" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="M234" s="40">
+      <c r="M234" s="11">
         <v>45883</v>
       </c>
-      <c r="N234" s="43">
+      <c r="N234" s="14">
         <v>3000</v>
       </c>
-      <c r="O234" s="41" t="s">
+      <c r="O234" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P234" s="41">
+      <c r="P234" s="12">
         <v>15</v>
       </c>
-      <c r="Q234" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R234" s="54">
+      <c r="Q234" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R234" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>13</v>
       </c>
-      <c r="S234" s="43">
-        <v>0</v>
-      </c>
-      <c r="T234" s="43">
+      <c r="S234" s="14">
+        <v>50</v>
+      </c>
+      <c r="T234" s="14">
         <v>0</v>
       </c>
     </row>
@@ -17147,7 +17150,7 @@
       <c r="J235" s="41">
         <v>66522</v>
       </c>
-      <c r="K235" s="54">
+      <c r="K235" s="41">
         <v>679</v>
       </c>
       <c r="L235" s="41" t="s">
@@ -17168,7 +17171,7 @@
       <c r="Q235" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="R235" s="54">
+      <c r="R235" s="41">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>11</v>
       </c>
@@ -17176,6 +17179,198 @@
         <v>0</v>
       </c>
       <c r="T235" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A236" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B236" s="40">
+        <v>45867</v>
+      </c>
+      <c r="C236" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F236" s="41">
+        <v>68485</v>
+      </c>
+      <c r="G236" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="H236" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="I236" s="42">
+        <f>NETWORKDAYS(B236, A236)</f>
+        <v>4</v>
+      </c>
+      <c r="J236" s="41">
+        <v>66526</v>
+      </c>
+      <c r="K236" s="41">
+        <v>3061</v>
+      </c>
+      <c r="L236" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="M236" s="40">
+        <v>45877</v>
+      </c>
+      <c r="N236" s="43">
+        <v>1150</v>
+      </c>
+      <c r="O236" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P236" s="41">
+        <v>15</v>
+      </c>
+      <c r="Q236" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="R236" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S236" s="43">
+        <v>0</v>
+      </c>
+      <c r="T236" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A237" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B237" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H237" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I237" s="13">
+        <f>NETWORKDAYS(B237, A237)</f>
+        <v>1</v>
+      </c>
+      <c r="J237" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K237" s="12">
+        <v>333</v>
+      </c>
+      <c r="L237" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="M237" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N237" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O237" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P237" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q237" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R237" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>243</v>
+      </c>
+      <c r="S237" s="14">
+        <v>0</v>
+      </c>
+      <c r="T237" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A238" s="40">
+        <v>45873</v>
+      </c>
+      <c r="B238" s="40">
+        <v>45873</v>
+      </c>
+      <c r="C238" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F238" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G238" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H238" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I238" s="42">
+        <f>NETWORKDAYS(B238, A238)</f>
+        <v>1</v>
+      </c>
+      <c r="J238" s="41">
+        <v>66529</v>
+      </c>
+      <c r="K238" s="41">
+        <v>2856</v>
+      </c>
+      <c r="L238" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="M238" s="40">
+        <v>45875</v>
+      </c>
+      <c r="N238" s="43">
+        <v>5600</v>
+      </c>
+      <c r="O238" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P238" s="41">
+        <v>30</v>
+      </c>
+      <c r="Q238" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="R238" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S238" s="43">
+        <v>0</v>
+      </c>
+      <c r="T238" s="43">
         <v>0</v>
       </c>
     </row>
@@ -17452,7 +17647,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17460,7 +17655,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 596 dias para vencer</v>
+        <v>Faltam 593 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -17478,7 +17673,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17486,7 +17681,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 304 dias</v>
+        <v>Venceu há 307 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -17504,7 +17699,7 @@
       </c>
       <c r="E4" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F4" s="37" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17512,7 +17707,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 12 dias</v>
+        <v>Venceu há 15 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -17530,7 +17725,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17556,7 +17751,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17582,7 +17777,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17590,7 +17785,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 136 dias</v>
+        <v>Venceu há 139 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -17608,7 +17803,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17616,7 +17811,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 879 dias</v>
+        <v>Venceu há 882 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -17634,7 +17829,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17642,7 +17837,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 412 dias para vencer</v>
+        <v>Faltam 409 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -17660,7 +17855,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17668,7 +17863,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 333 dias para vencer</v>
+        <v>Faltam 330 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -17686,7 +17881,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17694,7 +17889,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 122 dias para vencer</v>
+        <v>Faltam 119 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -19119,15 +19314,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068C9492B0923CC418696A025D9B79530" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12b5152450087b045156d8e5bdb7ac17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7545978-8353-4157-ab02-92f5c69a97d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74a8823586b7fc5940aaf3e9d5b706e7" ns3:_="">
     <xsd:import namespace="b7545978-8353-4157-ab02-92f5c69a97d9"/>
@@ -19253,6 +19439,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -19260,14 +19455,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED76536-08DB-4BCA-BAA6-597FC860B20C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19281,6 +19468,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4553A7-8913-4AF3-B286-526CE3ADE6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75669927-1480-4851-BC31-81B9B26C398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <author>Filho, Glaudoberto</author>
   </authors>
   <commentList>
-    <comment ref="T218" authorId="0" shapeId="0" xr:uid="{6F0B1F1F-8317-47FC-8965-8B65A4B64726}">
+    <comment ref="T181" authorId="0" shapeId="0" xr:uid="{6F0B1F1F-8317-47FC-8965-8B65A4B64726}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="405">
   <si>
     <t>SC</t>
   </si>
@@ -1282,6 +1282,15 @@
   </si>
   <si>
     <t>CADSERVICE PRODUTOS ELETRONICOS LTDA</t>
+  </si>
+  <si>
+    <t>CARBOROIL COMERCIO DE DERIVADOS DE PETROLEO LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA </t>
+  </si>
+  <si>
+    <t>INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA</t>
   </si>
 </sst>
 </file>
@@ -1738,8 +1747,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T238" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T238" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T246" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T246" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
@@ -1747,8 +1756,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T238">
-    <sortCondition ref="A1:A238"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T246">
+    <sortCondition ref="M1:M246"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -1837,8 +1846,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E36" totalsRowShown="0">
-  <autoFilter ref="A1:E36" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E38" totalsRowShown="0">
+  <autoFilter ref="A1:E38" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
@@ -2113,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T238"/>
+  <dimension ref="A1:T246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L181" sqref="L181"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L204" sqref="L204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2784,63 +2793,63 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <v>45785</v>
+        <v>45848</v>
       </c>
       <c r="B11" s="11">
-        <v>45784</v>
+        <v>45848</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="12">
-        <v>68369</v>
+        <v>68459</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>39</v>
+        <v>364</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>98</v>
+        <v>365</v>
       </c>
       <c r="I11" s="13">
         <f>NETWORKDAYS(B11, A11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="12">
-        <v>65234</v>
+        <v>66162</v>
       </c>
       <c r="K11" s="12">
-        <v>11610</v>
+        <v>11781</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="M11" s="11">
-        <v>45881</v>
+        <v>45855</v>
       </c>
       <c r="N11" s="14">
-        <v>9114.5499999999993</v>
+        <v>5396.77</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P11" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R11" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="S11" s="14">
-        <v>183.5</v>
+        <v>284.04000000000002</v>
       </c>
       <c r="T11" s="14">
         <v>0</v>
@@ -5599,66 +5608,66 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A55" s="31">
-        <v>45798</v>
-      </c>
-      <c r="B55" s="31">
-        <v>45786</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="31" t="s">
+      <c r="A55" s="11">
+        <v>45831</v>
+      </c>
+      <c r="B55" s="11">
+        <v>45824</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="32">
-        <v>68378</v>
-      </c>
-      <c r="G55" s="32" t="s">
+      <c r="F55" s="12">
+        <v>68439</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="13">
         <f>NETWORKDAYS(B55, A55)</f>
-        <v>9</v>
-      </c>
-      <c r="J55" s="32">
-        <v>65472</v>
-      </c>
-      <c r="K55" s="32">
+        <v>6</v>
+      </c>
+      <c r="J55" s="12">
+        <v>65915</v>
+      </c>
+      <c r="K55" s="12">
         <v>2201</v>
       </c>
-      <c r="L55" s="32" t="s">
+      <c r="L55" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="M55" s="31">
-        <v>45869</v>
-      </c>
-      <c r="N55" s="33">
-        <v>26920</v>
-      </c>
-      <c r="O55" s="32" t="s">
+      <c r="M55" s="11">
+        <v>45861</v>
+      </c>
+      <c r="N55" s="14">
+        <v>1401.04</v>
+      </c>
+      <c r="O55" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P55" s="32">
-        <v>28</v>
-      </c>
-      <c r="Q55" s="32" t="s">
+      <c r="P55" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q55" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R55" s="32">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>71</v>
-      </c>
-      <c r="S55" s="33">
-        <v>0</v>
-      </c>
-      <c r="T55" s="33">
+      <c r="R55" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>30</v>
+      </c>
+      <c r="S55" s="14">
+        <v>0</v>
+      </c>
+      <c r="T55" s="14">
         <v>0</v>
       </c>
     </row>
@@ -9054,131 +9063,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A109" s="40">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
         <v>45818</v>
       </c>
-      <c r="B109" s="40">
+      <c r="B109" s="6">
         <v>45811</v>
       </c>
-      <c r="C109" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="40" t="s">
+      <c r="C109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="40" t="s">
+      <c r="E109" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F109" s="41">
+      <c r="F109" s="7">
         <v>68329</v>
       </c>
-      <c r="G109" s="41" t="s">
+      <c r="G109" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="41" t="s">
+      <c r="H109" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I109" s="42">
+      <c r="I109" s="10">
         <f>NETWORKDAYS(B109, A109)</f>
         <v>6</v>
       </c>
-      <c r="J109" s="41">
+      <c r="J109" s="7">
         <v>66494</v>
       </c>
-      <c r="K109" s="41">
+      <c r="K109" s="7">
         <v>224</v>
       </c>
-      <c r="L109" s="41" t="s">
+      <c r="L109" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="M109" s="40">
+      <c r="M109" s="6">
         <v>45869</v>
       </c>
-      <c r="N109" s="43">
-        <v>7774.51</v>
-      </c>
-      <c r="O109" s="41" t="s">
+      <c r="N109" s="8">
+        <v>6586.89</v>
+      </c>
+      <c r="O109" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P109" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R109" s="41">
+      <c r="P109" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R109" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>51</v>
       </c>
-      <c r="S109" s="43">
-        <v>0</v>
-      </c>
-      <c r="T109" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A110" s="11">
-        <v>45818</v>
-      </c>
-      <c r="B110" s="11">
-        <v>45813</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F110" s="12">
-        <v>68422</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I110" s="13">
+      <c r="S109" s="8">
+        <v>0</v>
+      </c>
+      <c r="T109" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="6">
+        <v>45866</v>
+      </c>
+      <c r="B110" s="6">
+        <v>45863</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110" s="7">
+        <v>68481</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I110" s="10">
         <f>NETWORKDAYS(B110, A110)</f>
-        <v>4</v>
-      </c>
-      <c r="J110" s="12">
-        <v>65725</v>
-      </c>
-      <c r="K110" s="12">
-        <v>1450</v>
-      </c>
-      <c r="L110" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="M110" s="11">
-        <v>45877</v>
-      </c>
-      <c r="N110" s="14">
-        <v>239.63</v>
-      </c>
-      <c r="O110" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="7">
+        <v>66462</v>
+      </c>
+      <c r="K110" s="7">
+        <v>10535</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M110" s="6">
+        <v>45868</v>
+      </c>
+      <c r="N110" s="8">
+        <v>300</v>
+      </c>
+      <c r="O110" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P110" s="12">
-        <v>120</v>
-      </c>
-      <c r="Q110" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R110" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
-      </c>
-      <c r="S110" s="14">
-        <v>0</v>
-      </c>
-      <c r="T110" s="14">
+      <c r="P110" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q110" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R110" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S110" s="8">
+        <v>0</v>
+      </c>
+      <c r="T110" s="8">
         <v>0</v>
       </c>
     </row>
@@ -9246,67 +9255,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A112" s="11">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="6">
         <v>45826</v>
       </c>
-      <c r="B112" s="11">
+      <c r="B112" s="6">
         <v>45789</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="11" t="s">
+      <c r="C112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="7">
         <v>68384</v>
       </c>
-      <c r="G112" s="12" t="s">
+      <c r="G112" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H112" s="12" t="s">
+      <c r="H112" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I112" s="13">
+      <c r="I112" s="10">
         <f>NETWORKDAYS(B112, A112)</f>
         <v>28</v>
       </c>
-      <c r="J112" s="12">
+      <c r="J112" s="7">
         <v>65867</v>
       </c>
-      <c r="K112" s="12">
+      <c r="K112" s="7">
         <v>1463</v>
       </c>
-      <c r="L112" s="12" t="s">
+      <c r="L112" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M112" s="11">
+      <c r="M112" s="6">
         <v>45874</v>
       </c>
-      <c r="N112" s="14">
+      <c r="N112" s="8">
         <v>4215.5</v>
       </c>
-      <c r="O112" s="12" t="s">
+      <c r="O112" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P112" s="12">
+      <c r="P112" s="7">
         <v>28</v>
       </c>
-      <c r="Q112" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R112" s="12">
+      <c r="Q112" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R112" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>48</v>
       </c>
-      <c r="S112" s="14">
-        <v>0</v>
-      </c>
-      <c r="T112" s="14">
+      <c r="S112" s="8">
+        <v>0</v>
+      </c>
+      <c r="T112" s="8">
         <v>0</v>
       </c>
     </row>
@@ -10463,87 +10472,87 @@
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A131" s="49">
-        <v>45826</v>
-      </c>
-      <c r="B131" s="49">
-        <v>45826</v>
-      </c>
-      <c r="C131" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" s="49" t="s">
+      <c r="A131" s="31">
+        <v>45798</v>
+      </c>
+      <c r="B131" s="31">
+        <v>45786</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E131" s="49" t="s">
+      <c r="E131" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F131" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G131" s="50" t="s">
+      <c r="F131" s="32">
+        <v>68378</v>
+      </c>
+      <c r="G131" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="H131" s="50" t="s">
+      <c r="H131" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="I131" s="51">
+      <c r="I131" s="27">
         <f>NETWORKDAYS(B131, A131)</f>
-        <v>1</v>
-      </c>
-      <c r="J131" s="50">
-        <v>66341</v>
-      </c>
-      <c r="K131" s="50">
-        <v>11758</v>
-      </c>
-      <c r="L131" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="M131" s="49">
-        <v>45880</v>
-      </c>
-      <c r="N131" s="52">
-        <v>924.61</v>
-      </c>
-      <c r="O131" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J131" s="32">
+        <v>65472</v>
+      </c>
+      <c r="K131" s="32">
+        <v>2201</v>
+      </c>
+      <c r="L131" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="M131" s="31">
+        <v>45869</v>
+      </c>
+      <c r="N131" s="33">
+        <v>26920</v>
+      </c>
+      <c r="O131" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="P131" s="50">
+      <c r="P131" s="32">
         <v>28</v>
       </c>
-      <c r="Q131" s="50" t="s">
+      <c r="Q131" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R131" s="50">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>54</v>
-      </c>
-      <c r="S131" s="52">
-        <v>0</v>
-      </c>
-      <c r="T131" s="52">
+      <c r="R131" s="32">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>71</v>
+      </c>
+      <c r="S131" s="33">
+        <v>0</v>
+      </c>
+      <c r="T131" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
-        <v>45831</v>
+        <v>45855</v>
       </c>
       <c r="B132" s="11">
-        <v>45824</v>
+        <v>45855</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F132" s="12">
-        <v>68439</v>
+        <v>142</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>125</v>
@@ -10553,38 +10562,38 @@
       </c>
       <c r="I132" s="13">
         <f>NETWORKDAYS(B132, A132)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J132" s="12">
-        <v>65915</v>
+        <v>66308</v>
       </c>
       <c r="K132" s="12">
-        <v>2201</v>
+        <v>11757</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="M132" s="11">
-        <v>45861</v>
+        <v>45873</v>
       </c>
       <c r="N132" s="14">
-        <v>1401.04</v>
+        <v>1428.29</v>
       </c>
       <c r="O132" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P132" s="12">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="Q132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R132" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="S132" s="14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T132" s="14">
         <v>0</v>
@@ -10846,67 +10855,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A137" s="11">
-        <v>45839</v>
-      </c>
-      <c r="B137" s="11">
-        <v>45824</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" s="11" t="s">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="6">
+        <v>45873</v>
+      </c>
+      <c r="B137" s="6">
+        <v>45873</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E137" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F137" s="12">
-        <v>68438</v>
-      </c>
-      <c r="G137" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H137" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I137" s="13">
+      <c r="E137" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F137" s="7">
+        <v>68494</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I137" s="10">
         <f>NETWORKDAYS(B137, A137)</f>
-        <v>12</v>
-      </c>
-      <c r="J137" s="12">
-        <v>66025</v>
-      </c>
-      <c r="K137" s="12">
-        <v>3034</v>
-      </c>
-      <c r="L137" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="M137" s="11">
-        <v>45870</v>
-      </c>
-      <c r="N137" s="14">
-        <v>2087</v>
-      </c>
-      <c r="O137" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J137" s="7">
+        <v>66534</v>
+      </c>
+      <c r="K137" s="7">
+        <v>11790</v>
+      </c>
+      <c r="L137" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M137" s="6">
+        <v>45873</v>
+      </c>
+      <c r="N137" s="8">
+        <v>1475</v>
+      </c>
+      <c r="O137" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P137" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q137" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R137" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S137" s="14">
-        <v>0</v>
-      </c>
-      <c r="T137" s="14">
+      <c r="P137" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q137" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R137" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S137" s="8">
+        <v>204</v>
+      </c>
+      <c r="T137" s="8">
         <v>0</v>
       </c>
     </row>
@@ -13024,60 +13033,60 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="11">
-        <v>45840</v>
+        <v>45839</v>
       </c>
       <c r="B171" s="11">
-        <v>45840</v>
+        <v>45824</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F171" s="12">
-        <v>68452</v>
+        <v>68438</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I171" s="13">
         <f>NETWORKDAYS(B171, A171)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J171" s="12">
-        <v>66037</v>
+        <v>66025</v>
       </c>
       <c r="K171" s="12">
-        <v>11775</v>
+        <v>3034</v>
       </c>
       <c r="L171" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M171" s="11">
         <v>45874</v>
       </c>
       <c r="N171" s="14">
-        <v>1750</v>
+        <v>2087</v>
       </c>
       <c r="O171" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P171" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q171" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R171" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S171" s="14">
         <v>0</v>
@@ -13152,60 +13161,60 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
-        <v>45846</v>
+        <v>45868</v>
       </c>
       <c r="B173" s="11">
-        <v>45846</v>
+        <v>45868</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>113</v>
+        <v>395</v>
       </c>
       <c r="F173" s="12">
-        <v>68461</v>
+        <v>68487</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>227</v>
+        <v>396</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I173" s="13">
         <f>NETWORKDAYS(B173, A173)</f>
         <v>1</v>
       </c>
       <c r="J173" s="12">
-        <v>66119</v>
+        <v>66489</v>
       </c>
       <c r="K173" s="12">
-        <v>10677</v>
+        <v>11614</v>
       </c>
       <c r="L173" s="12" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="M173" s="11">
         <v>45874</v>
       </c>
       <c r="N173" s="14">
-        <v>2800</v>
+        <v>6633</v>
       </c>
       <c r="O173" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P173" s="12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q173" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R173" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="S173" s="14">
         <v>0</v>
@@ -13637,7 +13646,7 @@
         <v>361</v>
       </c>
       <c r="M180" s="11">
-        <v>45877</v>
+        <v>45875</v>
       </c>
       <c r="N180" s="14">
         <v>607.57000000000005</v>
@@ -13653,7 +13662,7 @@
       </c>
       <c r="R180" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S180" s="14">
         <v>0</v>
@@ -13664,10 +13673,10 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="11">
-        <v>45848</v>
+        <v>45861</v>
       </c>
       <c r="B181" s="11">
-        <v>45848</v>
+        <v>45861</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>7</v>
@@ -13676,54 +13685,54 @@
         <v>15</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F181" s="12">
-        <v>68459</v>
+        <v>124</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="I181" s="13">
         <f>NETWORKDAYS(B181, A181)</f>
         <v>1</v>
       </c>
       <c r="J181" s="12">
-        <v>66162</v>
+        <v>66301</v>
       </c>
       <c r="K181" s="12">
-        <v>11781</v>
+        <v>1522</v>
       </c>
       <c r="L181" s="12" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="M181" s="11">
-        <v>45855</v>
+        <v>45875</v>
       </c>
       <c r="N181" s="14">
-        <v>5396.77</v>
+        <v>1023.45</v>
       </c>
       <c r="O181" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P181" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q181" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R181" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S181" s="14">
-        <v>284.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="T181" s="14">
-        <v>0</v>
+        <v>141.4</v>
       </c>
     </row>
     <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -13792,10 +13801,10 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
-        <v>45848</v>
+        <v>45868</v>
       </c>
       <c r="B183" s="11">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>7</v>
@@ -13807,48 +13816,48 @@
         <v>113</v>
       </c>
       <c r="F183" s="12">
-        <v>68457</v>
+        <v>68476</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I183" s="13">
         <f>NETWORKDAYS(B183, A183)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J183" s="12">
-        <v>66126</v>
+        <v>66491</v>
       </c>
       <c r="K183" s="12">
-        <v>2931</v>
+        <v>11522</v>
       </c>
       <c r="L183" s="12" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="M183" s="11">
-        <v>45879</v>
+        <v>45875</v>
       </c>
       <c r="N183" s="14">
-        <v>3500</v>
+        <v>398.42</v>
       </c>
       <c r="O183" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P183" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q183" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R183" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="S183" s="14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T183" s="14">
         <v>0</v>
@@ -15135,130 +15144,130 @@
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A204" s="11">
-        <v>45849</v>
-      </c>
-      <c r="B204" s="11">
-        <v>45849</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="11" t="s">
+      <c r="A204" s="40">
+        <v>45874</v>
+      </c>
+      <c r="B204" s="40">
+        <v>45874</v>
+      </c>
+      <c r="C204" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F204" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G204" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H204" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="I204" s="13">
+      <c r="F204" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H204" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I204" s="42">
         <f>NETWORKDAYS(B204, A204)</f>
         <v>1</v>
       </c>
-      <c r="J204" s="12">
-        <v>66166</v>
-      </c>
-      <c r="K204" s="12">
-        <v>11782</v>
-      </c>
-      <c r="L204" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="M204" s="11">
-        <v>45880</v>
-      </c>
-      <c r="N204" s="14">
-        <v>2250</v>
-      </c>
-      <c r="O204" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P204" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q204" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R204" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S204" s="14">
-        <v>250</v>
-      </c>
-      <c r="T204" s="14">
+      <c r="J204" s="41">
+        <v>66561</v>
+      </c>
+      <c r="K204" s="41">
+        <v>2785</v>
+      </c>
+      <c r="L204" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="M204" s="40">
+        <v>45875</v>
+      </c>
+      <c r="N204" s="43">
+        <v>475</v>
+      </c>
+      <c r="O204" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P204" s="41">
+        <v>15</v>
+      </c>
+      <c r="Q204" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="R204" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S204" s="43">
+        <v>0</v>
+      </c>
+      <c r="T204" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A205" s="11">
-        <v>45855</v>
-      </c>
-      <c r="B205" s="11">
-        <v>45855</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" s="11" t="s">
+      <c r="A205" s="40">
+        <v>45874</v>
+      </c>
+      <c r="B205" s="40">
+        <v>45874</v>
+      </c>
+      <c r="C205" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E205" s="11" t="s">
+      <c r="E205" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F205" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G205" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H205" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I205" s="13">
+      <c r="F205" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G205" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H205" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="I205" s="42">
         <f>NETWORKDAYS(B205, A205)</f>
         <v>1</v>
       </c>
-      <c r="J205" s="12">
-        <v>66308</v>
-      </c>
-      <c r="K205" s="12">
-        <v>11757</v>
-      </c>
-      <c r="L205" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="M205" s="11">
-        <v>45873</v>
-      </c>
-      <c r="N205" s="14">
-        <v>1428.29</v>
-      </c>
-      <c r="O205" s="12" t="s">
+      <c r="J205" s="41">
+        <v>66560</v>
+      </c>
+      <c r="K205" s="41">
+        <v>10692</v>
+      </c>
+      <c r="L205" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="M205" s="40">
+        <v>45876</v>
+      </c>
+      <c r="N205" s="43">
+        <v>5026.62</v>
+      </c>
+      <c r="O205" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="P205" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q205" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R205" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>18</v>
-      </c>
-      <c r="S205" s="14">
-        <v>320</v>
-      </c>
-      <c r="T205" s="14">
+      <c r="P205" s="41">
+        <v>14</v>
+      </c>
+      <c r="Q205" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="R205" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S205" s="43">
+        <v>0</v>
+      </c>
+      <c r="T205" s="43">
         <v>0</v>
       </c>
     </row>
@@ -15968,10 +15977,10 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
-        <v>45856</v>
+        <v>45818</v>
       </c>
       <c r="B217" s="11">
-        <v>45856</v>
+        <v>45813</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>7</v>
@@ -15983,115 +15992,115 @@
         <v>124</v>
       </c>
       <c r="F217" s="12">
-        <v>68466</v>
+        <v>68422</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="H217" s="12" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I217" s="13">
         <f>NETWORKDAYS(B217, A217)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" s="12">
-        <v>66337</v>
+        <v>65725</v>
       </c>
       <c r="K217" s="12">
-        <v>11736</v>
+        <v>1450</v>
       </c>
       <c r="L217" s="12" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="M217" s="11">
-        <v>45889</v>
+        <v>45877</v>
       </c>
       <c r="N217" s="14">
-        <v>16134.54</v>
+        <v>239.63</v>
       </c>
       <c r="O217" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P217" s="12">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="Q217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R217" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="S217" s="14">
-        <v>25720</v>
+        <v>0</v>
       </c>
       <c r="T217" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A218" s="11">
-        <v>45861</v>
-      </c>
-      <c r="B218" s="11">
-        <v>45861</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" s="11" t="s">
+      <c r="A218" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B218" s="40">
+        <v>45867</v>
+      </c>
+      <c r="C218" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F218" s="41">
+        <v>68485</v>
+      </c>
+      <c r="G218" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="H218" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="I218" s="42">
+        <f>NETWORKDAYS(B218, A218)</f>
+        <v>4</v>
+      </c>
+      <c r="J218" s="41">
+        <v>66526</v>
+      </c>
+      <c r="K218" s="41">
+        <v>3061</v>
+      </c>
+      <c r="L218" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="M218" s="40">
+        <v>45877</v>
+      </c>
+      <c r="N218" s="43">
+        <v>1150</v>
+      </c>
+      <c r="O218" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P218" s="41">
         <v>15</v>
       </c>
-      <c r="E218" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F218" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G218" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H218" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I218" s="13">
-        <f>NETWORKDAYS(B218, A218)</f>
-        <v>1</v>
-      </c>
-      <c r="J218" s="12">
-        <v>66301</v>
-      </c>
-      <c r="K218" s="12">
-        <v>1522</v>
-      </c>
-      <c r="L218" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="M218" s="11">
-        <v>45875</v>
-      </c>
-      <c r="N218" s="14">
-        <v>1023.45</v>
-      </c>
-      <c r="O218" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P218" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q218" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R218" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S218" s="14">
-        <v>0</v>
-      </c>
-      <c r="T218" s="14">
-        <v>141.4</v>
+      <c r="Q218" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="R218" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S218" s="43">
+        <v>0</v>
+      </c>
+      <c r="T218" s="43">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -16286,67 +16295,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A222" s="11">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="6">
         <v>45863</v>
       </c>
-      <c r="B222" s="11">
+      <c r="B222" s="6">
         <v>45863</v>
       </c>
-      <c r="C222" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="11" t="s">
+      <c r="C222" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E222" s="11" t="s">
+      <c r="E222" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F222" s="12">
+      <c r="F222" s="7">
         <v>68479</v>
       </c>
-      <c r="G222" s="12" t="s">
+      <c r="G222" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H222" s="12" t="s">
+      <c r="H222" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I222" s="13">
+      <c r="I222" s="10">
         <f>NETWORKDAYS(B222, A222)</f>
         <v>1</v>
       </c>
-      <c r="J222" s="12">
+      <c r="J222" s="7">
         <v>66454</v>
       </c>
-      <c r="K222" s="12">
+      <c r="K222" s="7">
         <v>11788</v>
       </c>
-      <c r="L222" s="12" t="s">
+      <c r="L222" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="M222" s="11">
+      <c r="M222" s="6">
         <v>45889</v>
       </c>
-      <c r="N222" s="14">
-        <v>4122.3</v>
-      </c>
-      <c r="O222" s="12" t="s">
+      <c r="N222" s="8">
+        <v>3867.5</v>
+      </c>
+      <c r="O222" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P222" s="12">
+      <c r="P222" s="7">
         <v>30</v>
       </c>
-      <c r="Q222" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R222" s="12">
+      <c r="Q222" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R222" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>26</v>
       </c>
-      <c r="S222" s="14">
-        <v>0</v>
-      </c>
-      <c r="T222" s="14">
+      <c r="S222" s="8">
+        <v>0</v>
+      </c>
+      <c r="T222" s="8">
         <v>0</v>
       </c>
     </row>
@@ -16415,115 +16424,115 @@
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A224" s="11">
-        <v>45866</v>
-      </c>
-      <c r="B224" s="11">
-        <v>45863</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E224" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F224" s="12">
-        <v>68481</v>
-      </c>
-      <c r="G224" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H224" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="I224" s="13">
+      <c r="A224" s="49">
+        <v>45826</v>
+      </c>
+      <c r="B224" s="49">
+        <v>45826</v>
+      </c>
+      <c r="C224" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F224" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G224" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H224" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I224" s="51">
         <f>NETWORKDAYS(B224, A224)</f>
-        <v>2</v>
-      </c>
-      <c r="J224" s="12">
-        <v>66462</v>
-      </c>
-      <c r="K224" s="12">
-        <v>10535</v>
-      </c>
-      <c r="L224" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="M224" s="11">
-        <v>45868</v>
-      </c>
-      <c r="N224" s="14">
-        <v>300</v>
-      </c>
-      <c r="O224" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J224" s="50">
+        <v>66341</v>
+      </c>
+      <c r="K224" s="50">
+        <v>11758</v>
+      </c>
+      <c r="L224" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="M224" s="49">
+        <v>45880</v>
+      </c>
+      <c r="N224" s="52">
+        <v>924.61</v>
+      </c>
+      <c r="O224" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="P224" s="12">
-        <v>14</v>
-      </c>
-      <c r="Q224" s="12" t="s">
+      <c r="P224" s="50">
+        <v>28</v>
+      </c>
+      <c r="Q224" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="R224" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
-      </c>
-      <c r="S224" s="14">
-        <v>0</v>
-      </c>
-      <c r="T224" s="14">
+      <c r="R224" s="50">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>54</v>
+      </c>
+      <c r="S224" s="52">
+        <v>0</v>
+      </c>
+      <c r="T224" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
-        <v>45867</v>
+        <v>45849</v>
       </c>
       <c r="B225" s="11">
-        <v>45867</v>
+        <v>45849</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F225" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>125</v>
+        <v>372</v>
       </c>
       <c r="H225" s="12" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
       <c r="I225" s="13">
         <f>NETWORKDAYS(B225, A225)</f>
         <v>1</v>
       </c>
       <c r="J225" s="12">
-        <v>66471</v>
+        <v>66166</v>
       </c>
       <c r="K225" s="12">
-        <v>9</v>
+        <v>11782</v>
       </c>
       <c r="L225" s="12" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="M225" s="11">
         <v>45880</v>
       </c>
       <c r="N225" s="14">
-        <v>6505.5</v>
+        <v>2250</v>
       </c>
       <c r="O225" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P225" s="12">
         <v>30</v>
@@ -16533,10 +16542,10 @@
       </c>
       <c r="R225" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="S225" s="14">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="T225" s="14">
         <v>0</v>
@@ -16614,57 +16623,57 @@
         <v>45867</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F227" s="12">
-        <v>68486</v>
+        <v>124</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="H227" s="12" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="I227" s="13">
         <f>NETWORKDAYS(B227, A227)</f>
         <v>1</v>
       </c>
       <c r="J227" s="12">
-        <v>66478</v>
+        <v>66471</v>
       </c>
       <c r="K227" s="12">
-        <v>10460</v>
+        <v>9</v>
       </c>
       <c r="L227" s="12" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M227" s="11">
-        <v>45883</v>
+        <v>45880</v>
       </c>
       <c r="N227" s="14">
-        <v>4789.6099999999997</v>
+        <v>6505.5</v>
       </c>
       <c r="O227" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P227" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q227" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R227" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S227" s="14">
-        <v>1509.38</v>
+        <v>135</v>
       </c>
       <c r="T227" s="14">
         <v>0</v>
@@ -16672,47 +16681,47 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
-        <v>45867</v>
+        <v>45785</v>
       </c>
       <c r="B228" s="11">
-        <v>45866</v>
+        <v>45784</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F228" s="12">
-        <v>68483</v>
+        <v>68369</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="H228" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I228" s="13">
         <f>NETWORKDAYS(B228, A228)</f>
         <v>2</v>
       </c>
       <c r="J228" s="12">
-        <v>66467</v>
+        <v>65234</v>
       </c>
       <c r="K228" s="12">
-        <v>11164</v>
+        <v>11610</v>
       </c>
       <c r="L228" s="12" t="s">
-        <v>298</v>
+        <v>38</v>
       </c>
       <c r="M228" s="11">
-        <v>45908</v>
+        <v>45881</v>
       </c>
       <c r="N228" s="14">
-        <v>2623.03</v>
+        <v>9114.5499999999993</v>
       </c>
       <c r="O228" s="12" t="s">
         <v>122</v>
@@ -16725,10 +16734,10 @@
       </c>
       <c r="R228" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="S228" s="14">
-        <v>52</v>
+        <v>183.5</v>
       </c>
       <c r="T228" s="14">
         <v>0</v>
@@ -16736,60 +16745,60 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B229" s="11">
-        <v>45868</v>
+        <v>45863</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>395</v>
+        <v>113</v>
       </c>
       <c r="F229" s="12">
-        <v>68487</v>
+        <v>68482</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>396</v>
+        <v>129</v>
       </c>
       <c r="H229" s="12" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="I229" s="13">
         <f>NETWORKDAYS(B229, A229)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J229" s="12">
-        <v>66489</v>
+        <v>66522</v>
       </c>
       <c r="K229" s="12">
-        <v>11614</v>
+        <v>679</v>
       </c>
       <c r="L229" s="12" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="M229" s="11">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="N229" s="14">
-        <v>6633</v>
+        <v>5173.3</v>
       </c>
       <c r="O229" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P229" s="12">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R229" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S229" s="14">
         <v>0</v>
@@ -16864,47 +16873,47 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="B231" s="11">
-        <v>45862</v>
+        <v>45867</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E231" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F231" s="12">
-        <v>68476</v>
+        <v>68486</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="H231" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I231" s="13">
         <f>NETWORKDAYS(B231, A231)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J231" s="12">
-        <v>66491</v>
+        <v>66478</v>
       </c>
       <c r="K231" s="12">
-        <v>11522</v>
+        <v>10460</v>
       </c>
       <c r="L231" s="12" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="M231" s="11">
-        <v>45875</v>
+        <v>45883</v>
       </c>
       <c r="N231" s="14">
-        <v>398.42</v>
+        <v>4789.6099999999997</v>
       </c>
       <c r="O231" s="12" t="s">
         <v>122</v>
@@ -16917,10 +16926,10 @@
       </c>
       <c r="R231" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="S231" s="14">
-        <v>0</v>
+        <v>1509.38</v>
       </c>
       <c r="T231" s="14">
         <v>0</v>
@@ -16928,63 +16937,63 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B232" s="11">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F232" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F232" s="12">
+        <v>68491</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>125</v>
+        <v>372</v>
       </c>
       <c r="H232" s="12" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
       <c r="I232" s="13">
         <f>NETWORKDAYS(B232, A232)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" s="12">
-        <v>66504</v>
+        <v>66521</v>
       </c>
       <c r="K232" s="12">
-        <v>3034</v>
+        <v>3061</v>
       </c>
       <c r="L232" s="12" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="M232" s="11">
-        <v>45897</v>
+        <v>45883</v>
       </c>
       <c r="N232" s="14">
-        <v>2364.3000000000002</v>
+        <v>3000</v>
       </c>
       <c r="O232" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P232" s="12">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="Q232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R232" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="S232" s="14">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="T232" s="14">
         <v>0</v>
@@ -16992,10 +17001,10 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
-        <v>45869</v>
+        <v>45856</v>
       </c>
       <c r="B233" s="11">
-        <v>45869</v>
+        <v>45856</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>7</v>
@@ -17006,8 +17015,8 @@
       <c r="E233" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F233" s="12" t="s">
-        <v>3</v>
+      <c r="F233" s="12">
+        <v>68466</v>
       </c>
       <c r="G233" s="12" t="s">
         <v>125</v>
@@ -17020,35 +17029,35 @@
         <v>1</v>
       </c>
       <c r="J233" s="12">
-        <v>66427</v>
+        <v>66337</v>
       </c>
       <c r="K233" s="12">
-        <v>1277</v>
+        <v>11736</v>
       </c>
       <c r="L233" s="12" t="s">
-        <v>399</v>
+        <v>127</v>
       </c>
       <c r="M233" s="11">
-        <v>45897</v>
+        <v>45889</v>
       </c>
       <c r="N233" s="14">
-        <v>2715.75</v>
+        <v>16134.54</v>
       </c>
       <c r="O233" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P233" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R233" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="S233" s="14">
-        <v>950</v>
+        <v>25720</v>
       </c>
       <c r="T233" s="14">
         <v>0</v>
@@ -17056,252 +17065,252 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
-        <v>45870</v>
+        <v>45868</v>
       </c>
       <c r="B234" s="11">
-        <v>45869</v>
+        <v>45868</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F234" s="12">
-        <v>68491</v>
+        <v>124</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>372</v>
+        <v>125</v>
       </c>
       <c r="H234" s="12" t="s">
-        <v>373</v>
+        <v>126</v>
       </c>
       <c r="I234" s="13">
         <f>NETWORKDAYS(B234, A234)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J234" s="12">
-        <v>66521</v>
+        <v>66504</v>
       </c>
       <c r="K234" s="12">
-        <v>3061</v>
+        <v>3034</v>
       </c>
       <c r="L234" s="12" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="M234" s="11">
-        <v>45883</v>
+        <v>45897</v>
       </c>
       <c r="N234" s="14">
-        <v>3000</v>
+        <v>66522</v>
       </c>
       <c r="O234" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P234" s="12">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="Q234" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R234" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="S234" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="T234" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A235" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B235" s="40">
-        <v>45863</v>
-      </c>
-      <c r="C235" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="40" t="s">
+      <c r="A235" s="11">
+        <v>45869</v>
+      </c>
+      <c r="B235" s="11">
+        <v>45869</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E235" s="40" t="s">
+      <c r="E235" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H235" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I235" s="13">
+        <f>NETWORKDAYS(B235, A235)</f>
+        <v>1</v>
+      </c>
+      <c r="J235" s="12">
+        <v>66427</v>
+      </c>
+      <c r="K235" s="12">
+        <v>1277</v>
+      </c>
+      <c r="L235" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M235" s="11">
+        <v>45897</v>
+      </c>
+      <c r="N235" s="14">
+        <v>2715.75</v>
+      </c>
+      <c r="O235" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P235" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q235" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R235" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>28</v>
+      </c>
+      <c r="S235" s="14">
+        <v>950</v>
+      </c>
+      <c r="T235" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A236" s="11">
+        <v>45840</v>
+      </c>
+      <c r="B236" s="11">
+        <v>45840</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F235" s="41">
-        <v>68482</v>
-      </c>
-      <c r="G235" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H235" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I235" s="42">
-        <f>NETWORKDAYS(B235, A235)</f>
-        <v>6</v>
-      </c>
-      <c r="J235" s="41">
-        <v>66522</v>
-      </c>
-      <c r="K235" s="41">
-        <v>679</v>
-      </c>
-      <c r="L235" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="M235" s="40">
-        <v>45881</v>
-      </c>
-      <c r="N235" s="43">
-        <v>5173.3</v>
-      </c>
-      <c r="O235" s="41" t="s">
+      <c r="F236" s="12">
+        <v>68452</v>
+      </c>
+      <c r="G236" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H236" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I236" s="13">
+        <f>NETWORKDAYS(B236, A236)</f>
+        <v>1</v>
+      </c>
+      <c r="J236" s="12">
+        <v>66037</v>
+      </c>
+      <c r="K236" s="12">
+        <v>11775</v>
+      </c>
+      <c r="L236" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="M236" s="11">
+        <v>45905</v>
+      </c>
+      <c r="N236" s="14">
+        <v>1750</v>
+      </c>
+      <c r="O236" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P235" s="41">
+      <c r="P236" s="12">
         <v>30</v>
       </c>
-      <c r="Q235" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R235" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>11</v>
-      </c>
-      <c r="S235" s="43">
-        <v>0</v>
-      </c>
-      <c r="T235" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A236" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B236" s="40">
-        <v>45867</v>
-      </c>
-      <c r="C236" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E236" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F236" s="41">
-        <v>68485</v>
-      </c>
-      <c r="G236" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="H236" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="I236" s="42">
-        <f>NETWORKDAYS(B236, A236)</f>
-        <v>4</v>
-      </c>
-      <c r="J236" s="41">
-        <v>66526</v>
-      </c>
-      <c r="K236" s="41">
-        <v>3061</v>
-      </c>
-      <c r="L236" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="M236" s="40">
-        <v>45877</v>
-      </c>
-      <c r="N236" s="43">
-        <v>1150</v>
-      </c>
-      <c r="O236" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="P236" s="41">
-        <v>15</v>
-      </c>
-      <c r="Q236" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R236" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
-      </c>
-      <c r="S236" s="43">
-        <v>0</v>
-      </c>
-      <c r="T236" s="43">
+      <c r="Q236" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R236" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>65</v>
+      </c>
+      <c r="S236" s="14">
+        <v>0</v>
+      </c>
+      <c r="T236" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="B237" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F237" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F237" s="12">
+        <v>68461</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="H237" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I237" s="13">
         <f>NETWORKDAYS(B237, A237)</f>
         <v>1</v>
       </c>
       <c r="J237" s="12">
-        <v>66430</v>
+        <v>66119</v>
       </c>
       <c r="K237" s="12">
-        <v>333</v>
+        <v>10677</v>
       </c>
       <c r="L237" s="12" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="M237" s="11">
-        <v>46113</v>
+        <v>45905</v>
       </c>
       <c r="N237" s="14">
-        <v>281569.34000000003</v>
+        <v>2800</v>
       </c>
       <c r="O237" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P237" s="12">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Q237" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R237" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="S237" s="14">
         <v>0</v>
@@ -17310,67 +17319,579 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A238" s="40">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="6">
         <v>45873</v>
       </c>
-      <c r="B238" s="40">
+      <c r="B238" s="6">
         <v>45873</v>
       </c>
-      <c r="C238" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="40" t="s">
+      <c r="C238" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E238" s="40" t="s">
+      <c r="E238" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F238" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G238" s="41" t="s">
+      <c r="F238" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G238" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H238" s="41" t="s">
+      <c r="H238" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I238" s="42">
+      <c r="I238" s="10">
         <f>NETWORKDAYS(B238, A238)</f>
         <v>1</v>
       </c>
-      <c r="J238" s="41">
+      <c r="J238" s="7">
         <v>66529</v>
       </c>
-      <c r="K238" s="41">
+      <c r="K238" s="7">
         <v>2856</v>
       </c>
-      <c r="L238" s="41" t="s">
+      <c r="L238" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="M238" s="40">
+      <c r="M238" s="6">
         <v>45875</v>
       </c>
-      <c r="N238" s="43">
+      <c r="N238" s="8">
         <v>5600</v>
       </c>
-      <c r="O238" s="41" t="s">
+      <c r="O238" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P238" s="41">
+      <c r="P238" s="7">
         <v>30</v>
       </c>
-      <c r="Q238" s="41" t="s">
+      <c r="Q238" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R238" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S238" s="8">
+        <v>0</v>
+      </c>
+      <c r="T238" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="6">
+        <v>45873</v>
+      </c>
+      <c r="B239" s="6">
+        <v>45873</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I239" s="10">
+        <f>NETWORKDAYS(B239, A239)</f>
+        <v>1</v>
+      </c>
+      <c r="J239" s="7">
+        <v>66530</v>
+      </c>
+      <c r="K239" s="7">
+        <v>280</v>
+      </c>
+      <c r="L239" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M239" s="6">
+        <v>45875</v>
+      </c>
+      <c r="N239" s="8">
+        <v>15507.16</v>
+      </c>
+      <c r="O239" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P239" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q239" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R239" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S239" s="8">
+        <v>0</v>
+      </c>
+      <c r="T239" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="6">
+        <v>45873</v>
+      </c>
+      <c r="B240" s="6">
+        <v>45873</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I240" s="10">
+        <f>NETWORKDAYS(B240, A240)</f>
+        <v>1</v>
+      </c>
+      <c r="J240" s="7">
+        <v>66532</v>
+      </c>
+      <c r="K240" s="7">
+        <v>11263</v>
+      </c>
+      <c r="L240" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M240" s="6">
+        <v>45875</v>
+      </c>
+      <c r="N240" s="8">
+        <v>11841</v>
+      </c>
+      <c r="O240" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P240" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q240" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R240" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S240" s="8">
+        <v>0</v>
+      </c>
+      <c r="T240" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="6">
+        <v>45873</v>
+      </c>
+      <c r="B241" s="6">
+        <v>45873</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H241" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I241" s="10">
+        <f>NETWORKDAYS(B241, A241)</f>
+        <v>1</v>
+      </c>
+      <c r="J241" s="7">
+        <v>66533</v>
+      </c>
+      <c r="K241" s="7">
+        <v>495</v>
+      </c>
+      <c r="L241" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M241" s="6">
+        <v>45875</v>
+      </c>
+      <c r="N241" s="8">
+        <v>257</v>
+      </c>
+      <c r="O241" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P241" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q241" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R241" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S241" s="8">
+        <v>0</v>
+      </c>
+      <c r="T241" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A242" s="11">
+        <v>45848</v>
+      </c>
+      <c r="B242" s="11">
+        <v>45848</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F242" s="12">
+        <v>68457</v>
+      </c>
+      <c r="G242" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H242" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I242" s="13">
+        <f>NETWORKDAYS(B242, A242)</f>
+        <v>1</v>
+      </c>
+      <c r="J242" s="12">
+        <v>66126</v>
+      </c>
+      <c r="K242" s="12">
+        <v>2931</v>
+      </c>
+      <c r="L242" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="M242" s="11">
+        <v>45905</v>
+      </c>
+      <c r="N242" s="14">
+        <v>3500</v>
+      </c>
+      <c r="O242" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P242" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q242" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R242" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>57</v>
+      </c>
+      <c r="S242" s="14">
+        <v>320</v>
+      </c>
+      <c r="T242" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A243" s="40">
+        <v>45874</v>
+      </c>
+      <c r="B243" s="40">
+        <v>45853</v>
+      </c>
+      <c r="C243" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F243" s="41">
+        <v>68465</v>
+      </c>
+      <c r="G243" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H243" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I243" s="42">
+        <f>NETWORKDAYS(B243, A243)</f>
+        <v>16</v>
+      </c>
+      <c r="J243" s="41">
+        <v>66555</v>
+      </c>
+      <c r="K243" s="41">
+        <v>11791</v>
+      </c>
+      <c r="L243" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="M243" s="40">
+        <v>45906</v>
+      </c>
+      <c r="N243" s="43">
+        <v>1075.55</v>
+      </c>
+      <c r="O243" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P243" s="41">
+        <v>20</v>
+      </c>
+      <c r="Q243" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="R238" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+      <c r="R243" s="41">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>32</v>
+      </c>
+      <c r="S243" s="43">
+        <v>0</v>
+      </c>
+      <c r="T243" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A244" s="11">
+        <v>45867</v>
+      </c>
+      <c r="B244" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F244" s="12">
+        <v>68483</v>
+      </c>
+      <c r="G244" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H244" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I244" s="13">
+        <f>NETWORKDAYS(B244, A244)</f>
         <v>2</v>
       </c>
-      <c r="S238" s="43">
-        <v>0</v>
-      </c>
-      <c r="T238" s="43">
+      <c r="J244" s="12">
+        <v>66467</v>
+      </c>
+      <c r="K244" s="12">
+        <v>11164</v>
+      </c>
+      <c r="L244" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M244" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N244" s="14">
+        <v>2623.03</v>
+      </c>
+      <c r="O244" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P244" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q244" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R244" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S244" s="14">
+        <v>52</v>
+      </c>
+      <c r="T244" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="6">
+        <v>45874</v>
+      </c>
+      <c r="B245" s="6">
+        <v>45874</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I245" s="10">
+        <f>NETWORKDAYS(B245, A245)</f>
+        <v>1</v>
+      </c>
+      <c r="J245" s="7">
+        <v>64425</v>
+      </c>
+      <c r="K245" s="7">
+        <v>2954</v>
+      </c>
+      <c r="L245" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M245" s="6">
+        <v>45876</v>
+      </c>
+      <c r="N245" s="8">
+        <v>255.15</v>
+      </c>
+      <c r="O245" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P245" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q245" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R245" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S245" s="8">
+        <v>0</v>
+      </c>
+      <c r="T245" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A246" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B246" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F246" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H246" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I246" s="13">
+        <f>NETWORKDAYS(B246, A246)</f>
+        <v>1</v>
+      </c>
+      <c r="J246" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K246" s="12">
+        <v>333</v>
+      </c>
+      <c r="L246" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="M246" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N246" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O246" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P246" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q246" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R246" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>243</v>
+      </c>
+      <c r="S246" s="14">
+        <v>0</v>
+      </c>
+      <c r="T246" s="14">
         <v>0</v>
       </c>
     </row>
@@ -17647,7 +18168,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17655,7 +18176,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 593 dias para vencer</v>
+        <v>Faltam 592 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -17673,7 +18194,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17681,7 +18202,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 307 dias</v>
+        <v>Venceu há 308 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -17699,7 +18220,7 @@
       </c>
       <c r="E4" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F4" s="37" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17707,7 +18228,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 15 dias</v>
+        <v>Venceu há 16 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -17725,7 +18246,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17751,7 +18272,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17777,7 +18298,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17785,7 +18306,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 139 dias</v>
+        <v>Venceu há 140 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -17803,7 +18324,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17811,7 +18332,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 882 dias</v>
+        <v>Venceu há 883 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -17829,7 +18350,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17837,7 +18358,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 409 dias para vencer</v>
+        <v>Faltam 408 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -17855,7 +18376,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17863,7 +18384,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 330 dias para vencer</v>
+        <v>Faltam 329 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -17881,7 +18402,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -17889,7 +18410,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 119 dias para vencer</v>
+        <v>Faltam 118 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -17911,7 +18432,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18629,10 +19150,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6577E-1BBE-47C5-96B8-0E0691F59A60}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19254,6 +19775,40 @@
       </c>
       <c r="E36" t="s">
         <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="17">
+        <v>45873</v>
+      </c>
+      <c r="B37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37">
+        <v>11790</v>
+      </c>
+      <c r="E37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="17">
+        <v>45874</v>
+      </c>
+      <c r="B38" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38">
+        <v>11791</v>
+      </c>
+      <c r="E38" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -19314,6 +19869,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068C9492B0923CC418696A025D9B79530" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12b5152450087b045156d8e5bdb7ac17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7545978-8353-4157-ab02-92f5c69a97d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74a8823586b7fc5940aaf3e9d5b706e7" ns3:_="">
     <xsd:import namespace="b7545978-8353-4157-ab02-92f5c69a97d9"/>
@@ -19439,22 +20009,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED76536-08DB-4BCA-BAA6-597FC860B20C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19470,28 +20049,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup_background\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75669927-1480-4851-BC31-81B9B26C398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BCA624-6BCE-418F-BDC7-4FF5DB4EE752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>Filho, Glaudoberto</author>
   </authors>
   <commentList>
-    <comment ref="T181" authorId="0" shapeId="0" xr:uid="{6F0B1F1F-8317-47FC-8965-8B65A4B64726}">
+    <comment ref="T171" authorId="0" shapeId="0" xr:uid="{6F0B1F1F-8317-47FC-8965-8B65A4B64726}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="409">
   <si>
     <t>SC</t>
   </si>
@@ -1158,148 +1158,161 @@
     <t>PAULO ROGERIO DA SILVA RIBEIRO 12960566866</t>
   </si>
   <si>
+    <t>ELASTOBOR BORRACHAS E PLASTICOS LTDA</t>
+  </si>
+  <si>
+    <t>MP CONSULTORIA, TREINAMENTO E AUDITORIA EM GESTAO EMPRESARIAL EIRELI</t>
+  </si>
+  <si>
+    <t>RAISA PRODUTOS ELETRONICOS LTDA</t>
+  </si>
+  <si>
+    <t>Tays Kamozaki</t>
+  </si>
+  <si>
+    <t>Qualitrol</t>
+  </si>
+  <si>
+    <t>TOTAL CROMO COMERCIO DE ARTEFATOS DE METAIS LTDA</t>
+  </si>
+  <si>
+    <t>EPEMAM SOLUCOES EM ENERGIA ELETRICA EPP</t>
+  </si>
+  <si>
+    <t>MEGALOG SOLUCOES EM TRANSPORTES E LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>UNIMQG</t>
+  </si>
+  <si>
+    <t>CABFIL INDUSTRIA E COMERCIO DE PECAS E FILTROS LTDA</t>
+  </si>
+  <si>
+    <t>ASG TREINAMENTO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Segurança do Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITTO HD COMERCIO DE HIGIENE E MATERIAIS DESCARTAVEIS E ALIMENTICIOS LTDA       </t>
+  </si>
+  <si>
+    <t>LITTO HD COMERCIO DE HIGIENE E MATERIAIS DESCARTAVEIS E ALIMENTICIOS LTDA</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>SPILL PREVENTION SERVICOS DE QUALIF. MAO DE OBRA E PREST. DE SERVICOS EM GERAL</t>
+  </si>
+  <si>
+    <t>HD TOOLS COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>DIAS E GARCIA LTDA</t>
+  </si>
+  <si>
+    <t>11071-961</t>
+  </si>
+  <si>
+    <t>11071-321</t>
+  </si>
+  <si>
+    <t>SUBRA DO BRASIL IND.COM.E REPRES.LTDA</t>
+  </si>
+  <si>
+    <t>CONSIGAZ DISTRIBUIDORA DE GAS LTDA</t>
+  </si>
+  <si>
+    <t>VIACAO LUXOR LTDA</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>MEGA SHOP COMERCIO DE UTILIDADES</t>
+  </si>
+  <si>
+    <t>MAMUTE ELETRONICA LTDA   ME</t>
+  </si>
+  <si>
+    <t>MOLDMIX INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>Rene Mapa</t>
+  </si>
+  <si>
+    <t>M. NEVES GESTAO EM SAUDE E SEGURANCA DO TRABALHO LTDA</t>
+  </si>
+  <si>
+    <t>RMABRASIL TECNOLOGIAS SMS LTDA</t>
+  </si>
+  <si>
+    <t>Previsao de Entrega</t>
+  </si>
+  <si>
+    <t>Razao Social</t>
+  </si>
+  <si>
+    <t>PERTEC PERFIL TÉCNICO</t>
+  </si>
+  <si>
+    <t>indiretos</t>
+  </si>
+  <si>
+    <t>Thais Spena</t>
+  </si>
+  <si>
+    <t>TRAYES PRODUÇÕES E CENOGRAFIA</t>
+  </si>
+  <si>
+    <t>ELTRON COMERCIAL DE FERRAMENTAS LTDA</t>
+  </si>
+  <si>
+    <t>DALLANESE COM.E MANUF.DE PARAFUSOS LTDA</t>
+  </si>
+  <si>
+    <t>YESCODE AUTOMACAO LTDA - ME</t>
+  </si>
+  <si>
+    <t>CADSERVICE PRODUTOS ELETRONICOS LTDA</t>
+  </si>
+  <si>
+    <t>CARBOROIL COMERCIO DE DERIVADOS DE PETROLEO LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA </t>
+  </si>
+  <si>
+    <t>INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA</t>
+  </si>
+  <si>
+    <t>Geovana</t>
+  </si>
+  <si>
+    <t>LOCALIZA RENT A CAR AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTELARIA ACCOR BRASIL SA </t>
+  </si>
+  <si>
     <t>AGUARDANDO APROVAÇÃO</t>
   </si>
   <si>
-    <t>ELASTOBOR BORRACHAS E PLASTICOS LTDA</t>
-  </si>
-  <si>
-    <t>MP CONSULTORIA, TREINAMENTO E AUDITORIA EM GESTAO EMPRESARIAL EIRELI</t>
-  </si>
-  <si>
-    <t>RAISA PRODUTOS ELETRONICOS LTDA</t>
-  </si>
-  <si>
-    <t>Tays Kamozaki</t>
-  </si>
-  <si>
-    <t>Qualitrol</t>
-  </si>
-  <si>
-    <t>TOTAL CROMO COMERCIO DE ARTEFATOS DE METAIS LTDA</t>
-  </si>
-  <si>
-    <t>EPEMAM SOLUCOES EM ENERGIA ELETRICA EPP</t>
-  </si>
-  <si>
-    <t>MEGALOG SOLUCOES EM TRANSPORTES E LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>UNIMQG</t>
-  </si>
-  <si>
-    <t>CABFIL INDUSTRIA E COMERCIO DE PECAS E FILTROS LTDA</t>
-  </si>
-  <si>
-    <t>ASG TREINAMENTO E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Segurança do Trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LITTO HD COMERCIO DE HIGIENE E MATERIAIS DESCARTAVEIS E ALIMENTICIOS LTDA       </t>
-  </si>
-  <si>
-    <t>LITTO HD COMERCIO DE HIGIENE E MATERIAIS DESCARTAVEIS E ALIMENTICIOS LTDA</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>SPILL PREVENTION SERVICOS DE QUALIF. MAO DE OBRA E PREST. DE SERVICOS EM GERAL</t>
-  </si>
-  <si>
-    <t>HD TOOLS COMERCIAL LTDA</t>
-  </si>
-  <si>
-    <t>DIAS E GARCIA LTDA</t>
-  </si>
-  <si>
-    <t>11071-961</t>
-  </si>
-  <si>
-    <t>11071-321</t>
-  </si>
-  <si>
-    <t>SUBRA DO BRASIL IND.COM.E REPRES.LTDA</t>
-  </si>
-  <si>
-    <t>CONSIGAZ DISTRIBUIDORA DE GAS LTDA</t>
-  </si>
-  <si>
-    <t>VIACAO LUXOR LTDA</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>MEGA SHOP COMERCIO DE UTILIDADES</t>
-  </si>
-  <si>
-    <t>MAMUTE ELETRONICA LTDA   ME</t>
-  </si>
-  <si>
-    <t>MOLDMIX INDUSTRIA E COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>Rene Mapa</t>
-  </si>
-  <si>
-    <t>M. NEVES GESTAO EM SAUDE E SEGURANCA DO TRABALHO LTDA</t>
-  </si>
-  <si>
-    <t>RMABRASIL TECNOLOGIAS SMS LTDA</t>
-  </si>
-  <si>
-    <t>Previsao de Entrega</t>
-  </si>
-  <si>
-    <t>Razao Social</t>
-  </si>
-  <si>
-    <t>PERTEC PERFIL TÉCNICO</t>
-  </si>
-  <si>
-    <t>indiretos</t>
-  </si>
-  <si>
-    <t>Thais Spena</t>
-  </si>
-  <si>
-    <t>TRAYES PRODUÇÕES E CENOGRAFIA</t>
-  </si>
-  <si>
-    <t>ELTRON COMERCIAL DE FERRAMENTAS LTDA</t>
-  </si>
-  <si>
-    <t>DALLANESE COM.E MANUF.DE PARAFUSOS LTDA</t>
-  </si>
-  <si>
-    <t>YESCODE AUTOMACAO LTDA - ME</t>
-  </si>
-  <si>
-    <t>CADSERVICE PRODUTOS ELETRONICOS LTDA</t>
-  </si>
-  <si>
-    <t>CARBOROIL COMERCIO DE DERIVADOS DE PETROLEO LTDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA </t>
-  </si>
-  <si>
-    <t>INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA</t>
+    <t>METALEX FERRAMENTARIA INDUSTRIA E COMERCIO LTDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.000_-;\-&quot;R$&quot;\ * #,##0.000_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1534,18 +1547,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1557,13 +1558,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1747,8 +1760,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T246" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T246" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T253" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T253" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
@@ -1756,8 +1769,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T246">
-    <sortCondition ref="M1:M246"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T251">
+    <sortCondition ref="M1:M251"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -1846,8 +1859,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E38" totalsRowShown="0">
-  <autoFilter ref="A1:E38" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E40" totalsRowShown="0">
+  <autoFilter ref="A1:E40" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
@@ -2122,34 +2135,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T246"/>
+  <dimension ref="A1:T253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L204" sqref="L204"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.26953125" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="18" style="1"/>
   </cols>
   <sheetData>
@@ -2188,10 +2201,10 @@
         <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>107</v>
@@ -2811,13 +2824,13 @@
         <v>68459</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>365</v>
-      </c>
       <c r="I11" s="13">
-        <f>NETWORKDAYS(B11, A11)</f>
+        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
         <v>1</v>
       </c>
       <c r="J11" s="12">
@@ -2827,7 +2840,7 @@
         <v>11781</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M11" s="11">
         <v>45855</v>
@@ -2881,7 +2894,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f>NETWORKDAYS(B12, A12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2945,7 +2958,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="10">
-        <f>NETWORKDAYS(B13, A13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -3009,7 +3022,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f>NETWORKDAYS(B14, A14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3073,7 +3086,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10">
-        <f>NETWORKDAYS(B15, A15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3137,7 +3150,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10">
-        <f>NETWORKDAYS(B16, A16)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3201,7 +3214,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f>NETWORKDAYS(B17, A17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3265,7 +3278,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f>NETWORKDAYS(B18, A18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3329,7 +3342,7 @@
         <v>91</v>
       </c>
       <c r="I19" s="10">
-        <f>NETWORKDAYS(B19, A19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3393,7 +3406,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f>NETWORKDAYS(B20, A20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3457,7 +3470,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10">
-        <f>NETWORKDAYS(B21, A21)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3521,7 +3534,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10">
-        <f>NETWORKDAYS(B22, A22)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3585,7 +3598,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="34">
-        <f>NETWORKDAYS(B23, A23)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J23" s="29">
@@ -3649,7 +3662,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f>NETWORKDAYS(B24, A24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3713,7 +3726,7 @@
         <v>126</v>
       </c>
       <c r="I25" s="10">
-        <f>NETWORKDAYS(B25, A25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3777,7 +3790,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="10">
-        <f>NETWORKDAYS(B26, A26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3841,7 +3854,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f>NETWORKDAYS(B27, A27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3905,7 +3918,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f>NETWORKDAYS(B28, A28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -3969,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f>NETWORKDAYS(B29, A29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4033,7 +4046,7 @@
         <v>138</v>
       </c>
       <c r="I30" s="10">
-        <f>NETWORKDAYS(B30, A30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4097,7 +4110,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f>NETWORKDAYS(B31, A31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4161,7 +4174,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="10">
-        <f>NETWORKDAYS(B32, A32)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4225,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="10">
-        <f>NETWORKDAYS(B33, A33)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4289,7 +4302,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f>NETWORKDAYS(B34, A34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -4353,7 +4366,7 @@
         <v>130</v>
       </c>
       <c r="I35" s="10">
-        <f>NETWORKDAYS(B35, A35)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="J35" s="7">
@@ -4417,7 +4430,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="10">
-        <f>NETWORKDAYS(B36, A36)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J36" s="7">
@@ -4481,7 +4494,7 @@
         <v>91</v>
       </c>
       <c r="I37" s="10">
-        <f>NETWORKDAYS(B37, A37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J37" s="7">
@@ -4545,7 +4558,7 @@
         <v>91</v>
       </c>
       <c r="I38" s="10">
-        <f>NETWORKDAYS(B38, A38)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J38" s="7">
@@ -4609,7 +4622,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="10">
-        <f>NETWORKDAYS(B39, A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J39" s="7">
@@ -4673,7 +4686,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="10">
-        <f>NETWORKDAYS(B40, A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J40" s="7">
@@ -4737,7 +4750,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="10">
-        <f>NETWORKDAYS(B41, A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J41" s="7">
@@ -4801,7 +4814,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="10">
-        <f>NETWORKDAYS(B42, A42)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J42" s="7">
@@ -4865,7 +4878,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="10">
-        <f>NETWORKDAYS(B43, A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J43" s="7">
@@ -4929,7 +4942,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="10">
-        <f>NETWORKDAYS(B44, A44)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J44" s="7">
@@ -4993,7 +5006,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="10">
-        <f>NETWORKDAYS(B45, A45)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J45" s="7">
@@ -5057,7 +5070,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="10">
-        <f>NETWORKDAYS(B46, A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J46" s="7">
@@ -5121,7 +5134,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="10">
-        <f>NETWORKDAYS(B47, A47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J47" s="7">
@@ -5185,7 +5198,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="10">
-        <f>NETWORKDAYS(B48, A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J48" s="7">
@@ -5249,7 +5262,7 @@
         <v>130</v>
       </c>
       <c r="I49" s="10">
-        <f>NETWORKDAYS(B49, A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J49" s="7">
@@ -5313,7 +5326,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="10">
-        <f>NETWORKDAYS(B50, A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J50" s="7">
@@ -5377,7 +5390,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="10">
-        <f>NETWORKDAYS(B51, A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J51" s="7">
@@ -5441,7 +5454,7 @@
         <v>98</v>
       </c>
       <c r="I52" s="10">
-        <f>NETWORKDAYS(B52, A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J52" s="7">
@@ -5505,7 +5518,7 @@
         <v>98</v>
       </c>
       <c r="I53" s="10">
-        <f>NETWORKDAYS(B53, A53)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J53" s="7">
@@ -5569,7 +5582,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="10">
-        <f>NETWORKDAYS(B54, A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J54" s="7">
@@ -5633,7 +5646,7 @@
         <v>126</v>
       </c>
       <c r="I55" s="13">
-        <f>NETWORKDAYS(B55, A55)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J55" s="12">
@@ -5697,7 +5710,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="10">
-        <f>NETWORKDAYS(B56, A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J56" s="7">
@@ -5761,7 +5774,7 @@
         <v>96</v>
       </c>
       <c r="I57" s="10">
-        <f>NETWORKDAYS(B57, A57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J57" s="7">
@@ -5825,7 +5838,7 @@
         <v>32</v>
       </c>
       <c r="I58" s="10">
-        <f>NETWORKDAYS(B58, A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J58" s="7">
@@ -5889,7 +5902,7 @@
         <v>32</v>
       </c>
       <c r="I59" s="10">
-        <f>NETWORKDAYS(B59, A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J59" s="7">
@@ -5953,7 +5966,7 @@
         <v>32</v>
       </c>
       <c r="I60" s="10">
-        <f>NETWORKDAYS(B60, A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J60" s="7">
@@ -6017,7 +6030,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="10">
-        <f>NETWORKDAYS(B61, A61)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J61" s="7">
@@ -6081,7 +6094,7 @@
         <v>130</v>
       </c>
       <c r="I62" s="10">
-        <f>NETWORKDAYS(B62, A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J62" s="7">
@@ -6145,7 +6158,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="10">
-        <f>NETWORKDAYS(B63, A63)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J63" s="7">
@@ -6209,7 +6222,7 @@
         <v>91</v>
       </c>
       <c r="I64" s="10">
-        <f>NETWORKDAYS(B64, A64)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J64" s="7">
@@ -6273,7 +6286,7 @@
         <v>98</v>
       </c>
       <c r="I65" s="10">
-        <f>NETWORKDAYS(B65, A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J65" s="7">
@@ -6337,7 +6350,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="10">
-        <f>NETWORKDAYS(B66, A66)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6401,7 +6414,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="10">
-        <f>NETWORKDAYS(B67, A67)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6465,7 +6478,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f>NETWORKDAYS(B68, A68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6529,7 +6542,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f>NETWORKDAYS(B69, A69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6593,7 +6606,7 @@
         <v>98</v>
       </c>
       <c r="I70" s="10">
-        <f>NETWORKDAYS(B70, A70)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6657,7 +6670,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="10">
-        <f>NETWORKDAYS(B71, A71)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6721,7 +6734,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="10">
-        <f>NETWORKDAYS(B72, A72)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6785,7 +6798,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="10">
-        <f>NETWORKDAYS(B73, A73)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6849,7 +6862,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="10">
-        <f>NETWORKDAYS(B74, A74)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6913,7 +6926,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="10">
-        <f>NETWORKDAYS(B75, A75)</f>
+        <f t="shared" ref="I75:I138" si="2">NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -6977,7 +6990,7 @@
         <v>91</v>
       </c>
       <c r="I76" s="10">
-        <f>NETWORKDAYS(B76, A76)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J76" s="7">
@@ -7041,7 +7054,7 @@
         <v>98</v>
       </c>
       <c r="I77" s="10">
-        <f>NETWORKDAYS(B77, A77)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J77" s="7">
@@ -7105,7 +7118,7 @@
         <v>32</v>
       </c>
       <c r="I78" s="10">
-        <f>NETWORKDAYS(B78, A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J78" s="7">
@@ -7169,7 +7182,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="10">
-        <f>NETWORKDAYS(B79, A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J79" s="7">
@@ -7233,7 +7246,7 @@
         <v>138</v>
       </c>
       <c r="I80" s="10">
-        <f>NETWORKDAYS(B80, A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J80" s="7">
@@ -7297,7 +7310,7 @@
         <v>130</v>
       </c>
       <c r="I81" s="10">
-        <f>NETWORKDAYS(B81, A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J81" s="7">
@@ -7361,7 +7374,7 @@
         <v>98</v>
       </c>
       <c r="I82" s="10">
-        <f>NETWORKDAYS(B82, A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J82" s="7">
@@ -7425,7 +7438,7 @@
         <v>130</v>
       </c>
       <c r="I83" s="10">
-        <f>NETWORKDAYS(B83, A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J83" s="7">
@@ -7489,7 +7502,7 @@
         <v>98</v>
       </c>
       <c r="I84" s="10">
-        <f>NETWORKDAYS(B84, A84)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J84" s="7">
@@ -7553,7 +7566,7 @@
         <v>98</v>
       </c>
       <c r="I85" s="10">
-        <f>NETWORKDAYS(B85, A85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J85" s="7">
@@ -7617,7 +7630,7 @@
         <v>34</v>
       </c>
       <c r="I86" s="34">
-        <f>NETWORKDAYS(B86, A86)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J86" s="29">
@@ -7681,7 +7694,7 @@
         <v>34</v>
       </c>
       <c r="I87" s="10">
-        <f>NETWORKDAYS(B87, A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J87" s="7">
@@ -7745,7 +7758,7 @@
         <v>32</v>
       </c>
       <c r="I88" s="10">
-        <f>NETWORKDAYS(B88, A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J88" s="7">
@@ -7809,7 +7822,7 @@
         <v>126</v>
       </c>
       <c r="I89" s="10">
-        <f>NETWORKDAYS(B89, A89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J89" s="7">
@@ -7873,7 +7886,7 @@
         <v>98</v>
       </c>
       <c r="I90" s="10">
-        <f>NETWORKDAYS(B90, A90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J90" s="7">
@@ -7937,7 +7950,7 @@
         <v>32</v>
       </c>
       <c r="I91" s="10">
-        <f>NETWORKDAYS(B91, A91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J91" s="7">
@@ -8001,7 +8014,7 @@
         <v>98</v>
       </c>
       <c r="I92" s="10">
-        <f>NETWORKDAYS(B92, A92)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J92" s="7">
@@ -8065,7 +8078,7 @@
         <v>126</v>
       </c>
       <c r="I93" s="10">
-        <f>NETWORKDAYS(B93, A93)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J93" s="7">
@@ -8129,7 +8142,7 @@
         <v>126</v>
       </c>
       <c r="I94" s="10">
-        <f>NETWORKDAYS(B94, A94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J94" s="7">
@@ -8193,7 +8206,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="10">
-        <f>NETWORKDAYS(B95, A95)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J95" s="7">
@@ -8257,7 +8270,7 @@
         <v>130</v>
       </c>
       <c r="I96" s="10">
-        <f>NETWORKDAYS(B96, A96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J96" s="7">
@@ -8321,7 +8334,7 @@
         <v>138</v>
       </c>
       <c r="I97" s="10">
-        <f>NETWORKDAYS(B97, A97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J97" s="7">
@@ -8385,7 +8398,7 @@
         <v>98</v>
       </c>
       <c r="I98" s="10">
-        <f>NETWORKDAYS(B98, A98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8449,7 +8462,7 @@
         <v>130</v>
       </c>
       <c r="I99" s="10">
-        <f>NETWORKDAYS(B99, A99)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8513,7 +8526,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="10">
-        <f>NETWORKDAYS(B100, A100)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J100" s="7">
@@ -8577,7 +8590,7 @@
         <v>126</v>
       </c>
       <c r="I101" s="10">
-        <f>NETWORKDAYS(B101, A101)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J101" s="7">
@@ -8641,7 +8654,7 @@
         <v>98</v>
       </c>
       <c r="I102" s="10">
-        <f>NETWORKDAYS(B102, A102)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J102" s="7">
@@ -8705,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="I103" s="10">
-        <f>NETWORKDAYS(B103, A103)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J103" s="7">
@@ -8769,7 +8782,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="10">
-        <f>NETWORKDAYS(B104, A104)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8833,7 +8846,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="10">
-        <f>NETWORKDAYS(B105, A105)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J105" s="7">
@@ -8897,7 +8910,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f>NETWORKDAYS(B106, A106)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -8961,7 +8974,7 @@
         <v>98</v>
       </c>
       <c r="I107" s="10">
-        <f>NETWORKDAYS(B107, A107)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9001,60 +9014,60 @@
     </row>
     <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
-        <v>45826</v>
+        <v>45818</v>
       </c>
       <c r="B108" s="6">
-        <v>45825</v>
+        <v>45811</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F108" s="7">
-        <v>68441</v>
+        <v>68329</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>321</v>
+        <v>95</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I108" s="10">
-        <f>NETWORKDAYS(B108, A108)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J108" s="7">
-        <v>65872</v>
+        <v>66494</v>
       </c>
       <c r="K108" s="7">
-        <v>11590</v>
+        <v>224</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="M108" s="6">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="N108" s="8">
-        <v>2922.9</v>
+        <v>6586.89</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P108" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q108" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R108" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="S108" s="8">
         <v>0</v>
@@ -9068,7 +9081,7 @@
         <v>45818</v>
       </c>
       <c r="B109" s="6">
-        <v>45811</v>
+        <v>45813</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>7</v>
@@ -9077,48 +9090,48 @@
         <v>15</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F109" s="7">
-        <v>68329</v>
+        <v>68421</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I109" s="10">
-        <f>NETWORKDAYS(B109, A109)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J109" s="7">
-        <v>66494</v>
+        <v>65722</v>
       </c>
       <c r="K109" s="7">
-        <v>224</v>
+        <v>10644</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M109" s="6">
-        <v>45869</v>
+        <v>45845</v>
       </c>
       <c r="N109" s="8">
-        <v>6586.89</v>
+        <v>15515.58</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P109" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q109" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R109" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="S109" s="8">
         <v>0</v>
@@ -9129,60 +9142,60 @@
     </row>
     <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
-        <v>45866</v>
+        <v>45818</v>
       </c>
       <c r="B110" s="6">
-        <v>45863</v>
+        <v>45813</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F110" s="7">
-        <v>68481</v>
+        <v>68421</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>372</v>
+        <v>90</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>373</v>
+        <v>91</v>
       </c>
       <c r="I110" s="10">
-        <f>NETWORKDAYS(B110, A110)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J110" s="7">
-        <v>66462</v>
+        <v>65719</v>
       </c>
       <c r="K110" s="7">
-        <v>10535</v>
+        <v>1450</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>391</v>
+        <v>229</v>
       </c>
       <c r="M110" s="6">
-        <v>45868</v>
+        <v>45877</v>
       </c>
       <c r="N110" s="8">
-        <v>300</v>
+        <v>1548.71</v>
       </c>
       <c r="O110" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P110" s="7">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="Q110" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R110" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="S110" s="8">
         <v>0</v>
@@ -9208,7 +9221,7 @@
         <v>124</v>
       </c>
       <c r="F111" s="7">
-        <v>68421</v>
+        <v>68422</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>90</v>
@@ -9217,36 +9230,36 @@
         <v>91</v>
       </c>
       <c r="I111" s="10">
-        <f>NETWORKDAYS(B111, A111)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J111" s="7">
-        <v>65722</v>
+        <v>65720</v>
       </c>
       <c r="K111" s="7">
-        <v>10644</v>
+        <v>1450</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="M111" s="6">
-        <v>45845</v>
+        <v>45877</v>
       </c>
       <c r="N111" s="8">
-        <v>15515.58</v>
+        <v>1637.47</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P111" s="7">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="Q111" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R111" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="S111" s="8">
         <v>0</v>
@@ -9255,67 +9268,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="6">
-        <v>45826</v>
-      </c>
-      <c r="B112" s="6">
-        <v>45789</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="6" t="s">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A112" s="31">
+        <v>45798</v>
+      </c>
+      <c r="B112" s="31">
+        <v>45786</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="7">
-        <v>68384</v>
-      </c>
-      <c r="G112" s="7" t="s">
+      <c r="F112" s="32">
+        <v>68378</v>
+      </c>
+      <c r="G112" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="I112" s="10">
-        <f>NETWORKDAYS(B112, A112)</f>
+      <c r="I112" s="27">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J112" s="32">
+        <v>65472</v>
+      </c>
+      <c r="K112" s="32">
+        <v>2201</v>
+      </c>
+      <c r="L112" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="M112" s="31">
+        <v>45869</v>
+      </c>
+      <c r="N112" s="33">
+        <v>26920</v>
+      </c>
+      <c r="O112" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="P112" s="32">
         <v>28</v>
       </c>
-      <c r="J112" s="7">
-        <v>65867</v>
-      </c>
-      <c r="K112" s="7">
-        <v>1463</v>
-      </c>
-      <c r="L112" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M112" s="6">
-        <v>45874</v>
-      </c>
-      <c r="N112" s="8">
-        <v>4215.5</v>
-      </c>
-      <c r="O112" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P112" s="7">
-        <v>28</v>
-      </c>
-      <c r="Q112" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R112" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>48</v>
-      </c>
-      <c r="S112" s="8">
-        <v>0</v>
-      </c>
-      <c r="T112" s="8">
+      <c r="Q112" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R112" s="32">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>71</v>
+      </c>
+      <c r="S112" s="33">
+        <v>0</v>
+      </c>
+      <c r="T112" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9345,7 +9358,7 @@
         <v>32</v>
       </c>
       <c r="I113" s="10">
-        <f>NETWORKDAYS(B113, A113)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J113" s="7">
@@ -9409,7 +9422,7 @@
         <v>96</v>
       </c>
       <c r="I114" s="10">
-        <f>NETWORKDAYS(B114, A114)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9473,7 +9486,7 @@
         <v>91</v>
       </c>
       <c r="I115" s="10">
-        <f>NETWORKDAYS(B115, A115)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J115" s="7">
@@ -9537,7 +9550,7 @@
         <v>32</v>
       </c>
       <c r="I116" s="10">
-        <f>NETWORKDAYS(B116, A116)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J116" s="7">
@@ -9601,7 +9614,7 @@
         <v>98</v>
       </c>
       <c r="I117" s="10">
-        <f>NETWORKDAYS(B117, A117)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9665,7 +9678,7 @@
         <v>91</v>
       </c>
       <c r="I118" s="10">
-        <f>NETWORKDAYS(B118, A118)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J118" s="7">
@@ -9729,7 +9742,7 @@
         <v>91</v>
       </c>
       <c r="I119" s="10">
-        <f>NETWORKDAYS(B119, A119)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J119" s="7">
@@ -9793,7 +9806,7 @@
         <v>91</v>
       </c>
       <c r="I120" s="10">
-        <f>NETWORKDAYS(B120, A120)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9857,7 +9870,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="10">
-        <f>NETWORKDAYS(B121, A121)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9921,7 +9934,7 @@
         <v>126</v>
       </c>
       <c r="I122" s="10">
-        <f>NETWORKDAYS(B122, A122)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J122" s="7">
@@ -9985,7 +9998,7 @@
         <v>91</v>
       </c>
       <c r="I123" s="10">
-        <f>NETWORKDAYS(B123, A123)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J123" s="7">
@@ -10049,7 +10062,7 @@
         <v>34</v>
       </c>
       <c r="I124" s="10">
-        <f>NETWORKDAYS(B124, A124)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10113,7 +10126,7 @@
         <v>130</v>
       </c>
       <c r="I125" s="10">
-        <f>NETWORKDAYS(B125, A125)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10177,7 +10190,7 @@
         <v>130</v>
       </c>
       <c r="I126" s="10">
-        <f>NETWORKDAYS(B126, A126)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10241,7 +10254,7 @@
         <v>98</v>
       </c>
       <c r="I127" s="10">
-        <f>NETWORKDAYS(B127, A127)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10305,7 +10318,7 @@
         <v>130</v>
       </c>
       <c r="I128" s="10">
-        <f>NETWORKDAYS(B128, A128)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10369,7 +10382,7 @@
         <v>32</v>
       </c>
       <c r="I129" s="10">
-        <f>NETWORKDAYS(B129, A129)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10433,7 +10446,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f>NETWORKDAYS(B130, A130)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10471,131 +10484,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A131" s="31">
-        <v>45798</v>
-      </c>
-      <c r="B131" s="31">
-        <v>45786</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" s="31" t="s">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="6">
+        <v>45826</v>
+      </c>
+      <c r="B131" s="6">
+        <v>45825</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F131" s="7">
+        <v>68441</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I131" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J131" s="7">
+        <v>65872</v>
+      </c>
+      <c r="K131" s="7">
+        <v>11590</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M131" s="6">
+        <v>45867</v>
+      </c>
+      <c r="N131" s="8">
+        <v>2922.9</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P131" s="7">
+        <v>21</v>
+      </c>
+      <c r="Q131" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R131" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S131" s="8">
+        <v>0</v>
+      </c>
+      <c r="T131" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="6">
+        <v>45826</v>
+      </c>
+      <c r="B132" s="6">
+        <v>45789</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="E132" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F131" s="32">
-        <v>68378</v>
-      </c>
-      <c r="G131" s="32" t="s">
+      <c r="F132" s="7">
+        <v>68384</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H131" s="32" t="s">
+      <c r="H132" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I131" s="27">
-        <f>NETWORKDAYS(B131, A131)</f>
-        <v>9</v>
-      </c>
-      <c r="J131" s="32">
-        <v>65472</v>
-      </c>
-      <c r="K131" s="32">
-        <v>2201</v>
-      </c>
-      <c r="L131" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="M131" s="31">
-        <v>45869</v>
-      </c>
-      <c r="N131" s="33">
-        <v>26920</v>
-      </c>
-      <c r="O131" s="32" t="s">
+      <c r="I132" s="10">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J132" s="7">
+        <v>65867</v>
+      </c>
+      <c r="K132" s="7">
+        <v>1463</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M132" s="6">
+        <v>45874</v>
+      </c>
+      <c r="N132" s="8">
+        <v>4215.5</v>
+      </c>
+      <c r="O132" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P131" s="32">
+      <c r="P132" s="7">
         <v>28</v>
       </c>
-      <c r="Q131" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="R131" s="32">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>71</v>
-      </c>
-      <c r="S131" s="33">
-        <v>0</v>
-      </c>
-      <c r="T131" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A132" s="11">
-        <v>45855</v>
-      </c>
-      <c r="B132" s="11">
-        <v>45855</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I132" s="13">
-        <f>NETWORKDAYS(B132, A132)</f>
-        <v>1</v>
-      </c>
-      <c r="J132" s="12">
-        <v>66308</v>
-      </c>
-      <c r="K132" s="12">
-        <v>11757</v>
-      </c>
-      <c r="L132" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="M132" s="11">
-        <v>45873</v>
-      </c>
-      <c r="N132" s="14">
-        <v>1428.29</v>
-      </c>
-      <c r="O132" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P132" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q132" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R132" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>18</v>
-      </c>
-      <c r="S132" s="14">
-        <v>320</v>
-      </c>
-      <c r="T132" s="14">
+      <c r="Q132" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R132" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>48</v>
+      </c>
+      <c r="S132" s="8">
+        <v>0</v>
+      </c>
+      <c r="T132" s="8">
         <v>0</v>
       </c>
     </row>
@@ -10625,7 +10638,7 @@
         <v>98</v>
       </c>
       <c r="I133" s="10">
-        <f>NETWORKDAYS(B133, A133)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J133" s="7">
@@ -10689,7 +10702,7 @@
         <v>126</v>
       </c>
       <c r="I134" s="10">
-        <f>NETWORKDAYS(B134, A134)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J134" s="7">
@@ -10753,7 +10766,7 @@
         <v>126</v>
       </c>
       <c r="I135" s="10">
-        <f>NETWORKDAYS(B135, A135)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J135" s="7">
@@ -10817,7 +10830,7 @@
         <v>32</v>
       </c>
       <c r="I136" s="10">
-        <f>NETWORKDAYS(B136, A136)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J136" s="7">
@@ -10857,63 +10870,63 @@
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
-        <v>45873</v>
+        <v>45826</v>
       </c>
       <c r="B137" s="6">
-        <v>45873</v>
+        <v>45825</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F137" s="7">
-        <v>68494</v>
+        <v>68440</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I137" s="10">
-        <f>NETWORKDAYS(B137, A137)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J137" s="7">
-        <v>66534</v>
+        <v>65873</v>
       </c>
       <c r="K137" s="7">
-        <v>11790</v>
+        <v>127</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="M137" s="6">
-        <v>45873</v>
+        <v>45840</v>
       </c>
       <c r="N137" s="8">
-        <v>1475</v>
+        <v>955</v>
       </c>
       <c r="O137" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P137" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q137" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R137" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S137" s="8">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="T137" s="8">
         <v>0</v>
@@ -10924,7 +10937,7 @@
         <v>45826</v>
       </c>
       <c r="B138" s="6">
-        <v>45825</v>
+        <v>45818</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>7</v>
@@ -10936,7 +10949,7 @@
         <v>113</v>
       </c>
       <c r="F138" s="7">
-        <v>68440</v>
+        <v>68427</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>227</v>
@@ -10945,23 +10958,23 @@
         <v>98</v>
       </c>
       <c r="I138" s="10">
-        <f>NETWORKDAYS(B138, A138)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="J138" s="7">
-        <v>65873</v>
+        <v>65875</v>
       </c>
       <c r="K138" s="7">
-        <v>127</v>
+        <v>561</v>
       </c>
       <c r="L138" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M138" s="6">
         <v>45840</v>
       </c>
       <c r="N138" s="8">
-        <v>955</v>
+        <v>2275.59</v>
       </c>
       <c r="O138" s="7" t="s">
         <v>122</v>
@@ -10988,7 +11001,7 @@
         <v>45826</v>
       </c>
       <c r="B139" s="6">
-        <v>45818</v>
+        <v>45803</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>7</v>
@@ -11000,38 +11013,38 @@
         <v>113</v>
       </c>
       <c r="F139" s="7">
-        <v>68427</v>
+        <v>68405</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I139" s="10">
-        <f>NETWORKDAYS(B139, A139)</f>
-        <v>7</v>
+        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
+        <v>18</v>
       </c>
       <c r="J139" s="7">
-        <v>65875</v>
+        <v>65876</v>
       </c>
       <c r="K139" s="7">
-        <v>561</v>
+        <v>11750</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M139" s="6">
         <v>45840</v>
       </c>
       <c r="N139" s="8">
-        <v>2275.59</v>
+        <v>3904</v>
       </c>
       <c r="O139" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P139" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q139" s="7" t="s">
         <v>116</v>
@@ -11052,50 +11065,50 @@
         <v>45826</v>
       </c>
       <c r="B140" s="6">
-        <v>45803</v>
+        <v>45819</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F140" s="7">
-        <v>68405</v>
+        <v>68433</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>39</v>
+        <v>321</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I140" s="10">
-        <f>NETWORKDAYS(B140, A140)</f>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="J140" s="7">
-        <v>65876</v>
+        <v>65877</v>
       </c>
       <c r="K140" s="7">
-        <v>11750</v>
+        <v>11763</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M140" s="6">
         <v>45840</v>
       </c>
       <c r="N140" s="8">
-        <v>3904</v>
+        <v>167.12</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P140" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q140" s="7" t="s">
         <v>116</v>
@@ -11116,57 +11129,57 @@
         <v>45826</v>
       </c>
       <c r="B141" s="6">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F141" s="7">
-        <v>68433</v>
+        <v>142</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I141" s="10">
-        <f>NETWORKDAYS(B141, A141)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J141" s="7">
-        <v>65877</v>
+        <v>65879</v>
       </c>
       <c r="K141" s="7">
-        <v>11763</v>
+        <v>2967</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>327</v>
+        <v>57</v>
       </c>
       <c r="M141" s="6">
-        <v>45840</v>
+        <v>45826</v>
       </c>
       <c r="N141" s="8">
-        <v>167.12</v>
+        <v>2506.85</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P141" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q141" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R141" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S141" s="8">
         <v>0</v>
@@ -11189,41 +11202,41 @@
         <v>5</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="I142" s="10">
-        <f>NETWORKDAYS(B142, A142)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J142" s="7">
-        <v>65879</v>
+        <v>65881</v>
       </c>
       <c r="K142" s="7">
-        <v>2967</v>
+        <v>10479</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="M142" s="6">
         <v>45826</v>
       </c>
       <c r="N142" s="8">
-        <v>2506.85</v>
+        <v>3500</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P142" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q142" s="7" t="s">
         <v>116</v>
@@ -11253,41 +11266,41 @@
         <v>5</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>293</v>
+        <v>3</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="I143" s="10">
-        <f>NETWORKDAYS(B143, A143)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J143" s="7">
-        <v>65881</v>
+        <v>65882</v>
       </c>
       <c r="K143" s="7">
-        <v>10479</v>
+        <v>3061</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="M143" s="6">
         <v>45826</v>
       </c>
       <c r="N143" s="8">
-        <v>3500</v>
+        <v>6927.08</v>
       </c>
       <c r="O143" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P143" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q143" s="7" t="s">
         <v>116</v>
@@ -11314,184 +11327,184 @@
         <v>7</v>
       </c>
       <c r="D144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F144" s="7">
+        <v>68442</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I144" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J144" s="7">
+        <v>65896</v>
+      </c>
+      <c r="K144" s="7">
+        <v>3636</v>
+      </c>
+      <c r="L144" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M144" s="6">
+        <v>45834</v>
+      </c>
+      <c r="N144" s="8">
+        <v>450.22</v>
+      </c>
+      <c r="O144" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P144" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q144" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R144" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S144" s="8">
+        <v>0</v>
+      </c>
+      <c r="T144" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A145" s="11">
+        <v>45839</v>
+      </c>
+      <c r="B145" s="11">
+        <v>45824</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F145" s="12">
+        <v>68438</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I145" s="13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J145" s="12">
+        <v>66025</v>
+      </c>
+      <c r="K145" s="12">
+        <v>3034</v>
+      </c>
+      <c r="L145" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="M145" s="11">
+        <v>45874</v>
+      </c>
+      <c r="N145" s="14">
+        <v>2087</v>
+      </c>
+      <c r="O145" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P145" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q145" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R145" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>35</v>
+      </c>
+      <c r="S145" s="14">
+        <v>0</v>
+      </c>
+      <c r="T145" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A146" s="11">
+        <v>45868</v>
+      </c>
+      <c r="B146" s="11">
+        <v>45868</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I144" s="10">
-        <f>NETWORKDAYS(B144, A144)</f>
+      <c r="E146" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F146" s="12">
+        <v>68487</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I146" s="13">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J144" s="7">
-        <v>65882</v>
-      </c>
-      <c r="K144" s="7">
-        <v>3061</v>
-      </c>
-      <c r="L144" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M144" s="6">
-        <v>45826</v>
-      </c>
-      <c r="N144" s="8">
-        <v>6927.08</v>
-      </c>
-      <c r="O144" s="7" t="s">
+      <c r="J146" s="12">
+        <v>66489</v>
+      </c>
+      <c r="K146" s="12">
+        <v>11614</v>
+      </c>
+      <c r="L146" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M146" s="11">
+        <v>45874</v>
+      </c>
+      <c r="N146" s="14">
+        <v>6633</v>
+      </c>
+      <c r="O146" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="P144" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q144" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R144" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>0</v>
-      </c>
-      <c r="S144" s="8">
-        <v>0</v>
-      </c>
-      <c r="T144" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="6">
-        <v>45826</v>
-      </c>
-      <c r="B145" s="6">
-        <v>45826</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F145" s="7">
-        <v>68442</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I145" s="10">
-        <f>NETWORKDAYS(B145, A145)</f>
+      <c r="P146" s="12">
         <v>1</v>
       </c>
-      <c r="J145" s="7">
-        <v>65896</v>
-      </c>
-      <c r="K145" s="7">
-        <v>3636</v>
-      </c>
-      <c r="L145" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M145" s="6">
-        <v>45834</v>
-      </c>
-      <c r="N145" s="8">
-        <v>450.22</v>
-      </c>
-      <c r="O145" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P145" s="7">
-        <v>28</v>
-      </c>
-      <c r="Q145" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R145" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
-      </c>
-      <c r="S145" s="8">
-        <v>0</v>
-      </c>
-      <c r="T145" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="6">
-        <v>45831</v>
-      </c>
-      <c r="B146" s="6">
-        <v>45831</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I146" s="10">
-        <f>NETWORKDAYS(B146, A146)</f>
-        <v>1</v>
-      </c>
-      <c r="J146" s="7">
-        <v>63752</v>
-      </c>
-      <c r="K146" s="7">
-        <v>266</v>
-      </c>
-      <c r="L146" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M146" s="6">
-        <v>45831</v>
-      </c>
-      <c r="N146" s="8">
-        <v>1407.45</v>
-      </c>
-      <c r="O146" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P146" s="7">
-        <v>28</v>
-      </c>
-      <c r="Q146" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R146" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>0</v>
-      </c>
-      <c r="S146" s="8">
-        <v>0</v>
-      </c>
-      <c r="T146" s="8">
+      <c r="Q146" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R146" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>6</v>
+      </c>
+      <c r="S146" s="14">
+        <v>0</v>
+      </c>
+      <c r="T146" s="14">
         <v>0</v>
       </c>
     </row>
@@ -11518,32 +11531,32 @@
         <v>3</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="I147" s="10">
-        <f>NETWORKDAYS(B147, A147)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J147" s="7">
-        <v>65913</v>
+        <v>63752</v>
       </c>
       <c r="K147" s="7">
-        <v>953</v>
+        <v>266</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c r="M147" s="6">
         <v>45831</v>
       </c>
       <c r="N147" s="8">
-        <v>2863.4</v>
+        <v>1407.45</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P147" s="7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q147" s="7" t="s">
         <v>116</v>
@@ -11564,57 +11577,57 @@
         <v>45831</v>
       </c>
       <c r="B148" s="6">
-        <v>45819</v>
+        <v>45831</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F148" s="7">
-        <v>68433</v>
+        <v>142</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>321</v>
+        <v>3</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="I148" s="10">
-        <f>NETWORKDAYS(B148, A148)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J148" s="7">
-        <v>65914</v>
+        <v>65913</v>
       </c>
       <c r="K148" s="7">
-        <v>11765</v>
+        <v>953</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="M148" s="6">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="N148" s="8">
-        <v>173.07</v>
+        <v>2863.4</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P148" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q148" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R148" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S148" s="8">
         <v>0</v>
@@ -11625,10 +11638,10 @@
     </row>
     <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
-        <v>45861</v>
+        <v>45831</v>
       </c>
       <c r="B149" s="6">
-        <v>45861</v>
+        <v>45819</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>7</v>
@@ -11640,35 +11653,35 @@
         <v>113</v>
       </c>
       <c r="F149" s="7">
-        <v>68472</v>
+        <v>68433</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>39</v>
+        <v>321</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I149" s="10">
-        <f>NETWORKDAYS(B149, A149)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="J149" s="7">
-        <v>66413</v>
+        <v>65914</v>
       </c>
       <c r="K149" s="7">
-        <v>11715</v>
+        <v>11765</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="M149" s="6">
-        <v>45873</v>
+        <v>45834</v>
       </c>
       <c r="N149" s="8">
-        <v>178.3</v>
+        <v>173.07</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P149" s="7">
         <v>0</v>
@@ -11678,7 +11691,7 @@
       </c>
       <c r="R149" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S149" s="8">
         <v>0</v>
@@ -11713,7 +11726,7 @@
         <v>130</v>
       </c>
       <c r="I150" s="10">
-        <f>NETWORKDAYS(B150, A150)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J150" s="7">
@@ -11777,7 +11790,7 @@
         <v>32</v>
       </c>
       <c r="I151" s="10">
-        <f>NETWORKDAYS(B151, A151)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11841,7 +11854,7 @@
         <v>91</v>
       </c>
       <c r="I152" s="10">
-        <f>NETWORKDAYS(B152, A152)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11905,7 +11918,7 @@
         <v>32</v>
       </c>
       <c r="I153" s="10">
-        <f>NETWORKDAYS(B153, A153)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -11969,7 +11982,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="10">
-        <f>NETWORKDAYS(B154, A154)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12033,7 +12046,7 @@
         <v>130</v>
       </c>
       <c r="I155" s="10">
-        <f>NETWORKDAYS(B155, A155)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12097,7 +12110,7 @@
         <v>98</v>
       </c>
       <c r="I156" s="10">
-        <f>NETWORKDAYS(B156, A156)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12161,7 +12174,7 @@
         <v>91</v>
       </c>
       <c r="I157" s="10">
-        <f>NETWORKDAYS(B157, A157)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12225,7 +12238,7 @@
         <v>91</v>
       </c>
       <c r="I158" s="10">
-        <f>NETWORKDAYS(B158, A158)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12289,7 +12302,7 @@
         <v>32</v>
       </c>
       <c r="I159" s="10">
-        <f>NETWORKDAYS(B159, A159)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12353,7 +12366,7 @@
         <v>32</v>
       </c>
       <c r="I160" s="10">
-        <f>NETWORKDAYS(B160, A160)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12417,7 +12430,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f>NETWORKDAYS(B161, A161)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12481,7 +12494,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f>NETWORKDAYS(B162, A162)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12545,7 +12558,7 @@
         <v>185</v>
       </c>
       <c r="I163" s="10">
-        <f>NETWORKDAYS(B163, A163)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12609,7 +12622,7 @@
         <v>91</v>
       </c>
       <c r="I164" s="10">
-        <f>NETWORKDAYS(B164, A164)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J164" s="7">
@@ -12673,7 +12686,7 @@
         <v>98</v>
       </c>
       <c r="I165" s="10">
-        <f>NETWORKDAYS(B165, A165)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J165" s="7">
@@ -12737,7 +12750,7 @@
         <v>91</v>
       </c>
       <c r="I166" s="10">
-        <f>NETWORKDAYS(B166, A166)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J166" s="7">
@@ -12801,7 +12814,7 @@
         <v>130</v>
       </c>
       <c r="I167" s="10">
-        <f>NETWORKDAYS(B167, A167)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J167" s="7">
@@ -12865,7 +12878,7 @@
         <v>32</v>
       </c>
       <c r="I168" s="10">
-        <f>NETWORKDAYS(B168, A168)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J168" s="7">
@@ -12929,7 +12942,7 @@
         <v>130</v>
       </c>
       <c r="I169" s="10">
-        <f>NETWORKDAYS(B169, A169)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -12993,7 +13006,7 @@
         <v>130</v>
       </c>
       <c r="I170" s="10">
-        <f>NETWORKDAYS(B170, A170)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13033,10 +13046,10 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="11">
-        <v>45839</v>
+        <v>45861</v>
       </c>
       <c r="B171" s="11">
-        <v>45824</v>
+        <v>45861</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>7</v>
@@ -13047,8 +13060,8 @@
       <c r="E171" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F171" s="12">
-        <v>68438</v>
+      <c r="F171" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G171" s="12" t="s">
         <v>125</v>
@@ -13057,42 +13070,42 @@
         <v>126</v>
       </c>
       <c r="I171" s="13">
-        <f>NETWORKDAYS(B171, A171)</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J171" s="12">
-        <v>66025</v>
+        <v>66301</v>
       </c>
       <c r="K171" s="12">
-        <v>3034</v>
+        <v>1522</v>
       </c>
       <c r="L171" s="12" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="M171" s="11">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="N171" s="14">
-        <v>2087</v>
+        <v>1023.45</v>
       </c>
       <c r="O171" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P171" s="12">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q171" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R171" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S171" s="14">
         <v>0</v>
       </c>
       <c r="T171" s="14">
-        <v>0</v>
+        <v>141.4</v>
       </c>
     </row>
     <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -13121,7 +13134,7 @@
         <v>130</v>
       </c>
       <c r="I172" s="10">
-        <f>NETWORKDAYS(B172, A172)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13164,57 +13177,57 @@
         <v>45868</v>
       </c>
       <c r="B173" s="11">
-        <v>45868</v>
+        <v>45862</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>395</v>
+        <v>113</v>
       </c>
       <c r="F173" s="12">
-        <v>68487</v>
+        <v>68476</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>396</v>
+        <v>227</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I173" s="13">
-        <f>NETWORKDAYS(B173, A173)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="J173" s="12">
-        <v>66489</v>
+        <v>66491</v>
       </c>
       <c r="K173" s="12">
-        <v>11614</v>
+        <v>11522</v>
       </c>
       <c r="L173" s="12" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="M173" s="11">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="N173" s="14">
-        <v>6633</v>
+        <v>398.42</v>
       </c>
       <c r="O173" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P173" s="12">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q173" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R173" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S173" s="14">
         <v>0</v>
@@ -13249,7 +13262,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f>NETWORKDAYS(B174, A174)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13313,7 +13326,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f>NETWORKDAYS(B175, A175)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13377,7 +13390,7 @@
         <v>138</v>
       </c>
       <c r="I176" s="10">
-        <f>NETWORKDAYS(B176, A176)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13441,7 +13454,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f>NETWORKDAYS(B177, A177)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13505,7 +13518,7 @@
         <v>130</v>
       </c>
       <c r="I178" s="10">
-        <f>NETWORKDAYS(B178, A178)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13569,7 +13582,7 @@
         <v>34</v>
       </c>
       <c r="I179" s="10">
-        <f>NETWORKDAYS(B179, A179)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13609,10 +13622,10 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" s="11">
-        <v>45846</v>
+        <v>45818</v>
       </c>
       <c r="B180" s="11">
-        <v>45846</v>
+        <v>45813</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>7</v>
@@ -13621,48 +13634,48 @@
         <v>15</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F180" s="12">
-        <v>68456</v>
+        <v>68422</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c r="H180" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I180" s="13">
-        <f>NETWORKDAYS(B180, A180)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J180" s="12">
-        <v>66118</v>
+        <v>65725</v>
       </c>
       <c r="K180" s="12">
-        <v>2289</v>
+        <v>1450</v>
       </c>
       <c r="L180" s="12" t="s">
-        <v>361</v>
+        <v>229</v>
       </c>
       <c r="M180" s="11">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="N180" s="14">
-        <v>607.57000000000005</v>
+        <v>239.63</v>
       </c>
       <c r="O180" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P180" s="12">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="Q180" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R180" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="S180" s="14">
         <v>0</v>
@@ -13671,195 +13684,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A181" s="11">
-        <v>45861</v>
-      </c>
-      <c r="B181" s="11">
-        <v>45861</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" s="11" t="s">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="6">
+        <v>45846</v>
+      </c>
+      <c r="B181" s="6">
+        <v>45846</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E181" s="11" t="s">
+      <c r="E181" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F181" s="7">
+        <v>68453</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I181" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J181" s="7">
+        <v>66120</v>
+      </c>
+      <c r="K181" s="7">
+        <v>10627</v>
+      </c>
+      <c r="L181" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M181" s="6">
+        <v>45858</v>
+      </c>
+      <c r="N181" s="8">
+        <v>1800</v>
+      </c>
+      <c r="O181" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P181" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q181" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R181" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>12</v>
+      </c>
+      <c r="S181" s="8">
+        <v>0</v>
+      </c>
+      <c r="T181" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A182" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B182" s="11">
+        <v>45867</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F182" s="12">
+        <v>68485</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I182" s="13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J182" s="12">
+        <v>66526</v>
+      </c>
+      <c r="K182" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L182" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="M182" s="11">
+        <v>45877</v>
+      </c>
+      <c r="N182" s="14">
+        <v>1150</v>
+      </c>
+      <c r="O182" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P182" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q182" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R182" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S182" s="14">
+        <v>0</v>
+      </c>
+      <c r="T182" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A183" s="45">
+        <v>45826</v>
+      </c>
+      <c r="B183" s="45">
+        <v>45826</v>
+      </c>
+      <c r="C183" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F181" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G181" s="12" t="s">
+      <c r="F183" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G183" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="H181" s="12" t="s">
+      <c r="H183" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="I181" s="13">
-        <f>NETWORKDAYS(B181, A181)</f>
+      <c r="I183" s="13">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J181" s="12">
-        <v>66301</v>
-      </c>
-      <c r="K181" s="12">
-        <v>1522</v>
-      </c>
-      <c r="L181" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="M181" s="11">
-        <v>45875</v>
-      </c>
-      <c r="N181" s="14">
-        <v>1023.45</v>
-      </c>
-      <c r="O181" s="12" t="s">
+      <c r="J183" s="46">
+        <v>66341</v>
+      </c>
+      <c r="K183" s="46">
+        <v>11758</v>
+      </c>
+      <c r="L183" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M183" s="45">
+        <v>45880</v>
+      </c>
+      <c r="N183" s="47">
+        <v>924.61</v>
+      </c>
+      <c r="O183" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P181" s="12">
+      <c r="P183" s="46">
         <v>28</v>
       </c>
-      <c r="Q181" s="12" t="s">
+      <c r="Q183" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="R181" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S181" s="14">
-        <v>0</v>
-      </c>
-      <c r="T181" s="14">
-        <v>141.4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="6">
-        <v>45846</v>
-      </c>
-      <c r="B182" s="6">
-        <v>45846</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F182" s="7">
-        <v>68453</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I182" s="10">
-        <f>NETWORKDAYS(B182, A182)</f>
-        <v>1</v>
-      </c>
-      <c r="J182" s="7">
-        <v>66120</v>
-      </c>
-      <c r="K182" s="7">
-        <v>10627</v>
-      </c>
-      <c r="L182" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M182" s="6">
-        <v>45858</v>
-      </c>
-      <c r="N182" s="8">
-        <v>1800</v>
-      </c>
-      <c r="O182" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P182" s="7">
-        <v>28</v>
-      </c>
-      <c r="Q182" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R182" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>12</v>
-      </c>
-      <c r="S182" s="8">
-        <v>0</v>
-      </c>
-      <c r="T182" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A183" s="11">
-        <v>45868</v>
-      </c>
-      <c r="B183" s="11">
-        <v>45862</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F183" s="12">
-        <v>68476</v>
-      </c>
-      <c r="G183" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H183" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I183" s="13">
-        <f>NETWORKDAYS(B183, A183)</f>
-        <v>5</v>
-      </c>
-      <c r="J183" s="12">
-        <v>66491</v>
-      </c>
-      <c r="K183" s="12">
-        <v>11522</v>
-      </c>
-      <c r="L183" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="M183" s="11">
-        <v>45875</v>
-      </c>
-      <c r="N183" s="14">
-        <v>398.42</v>
-      </c>
-      <c r="O183" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P183" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q183" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R183" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
-      </c>
-      <c r="S183" s="14">
-        <v>0</v>
-      </c>
-      <c r="T183" s="14">
+      <c r="R183" s="46">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>54</v>
+      </c>
+      <c r="S183" s="47">
+        <v>0</v>
+      </c>
+      <c r="T183" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13889,7 +13902,7 @@
         <v>98</v>
       </c>
       <c r="I184" s="10">
-        <f>NETWORKDAYS(B184, A184)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13929,66 +13942,66 @@
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
-        <v>45818</v>
+        <v>45848</v>
       </c>
       <c r="B185" s="6">
-        <v>45813</v>
+        <v>45848</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F185" s="7">
-        <v>68421</v>
+        <v>142</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I185" s="10">
-        <f>NETWORKDAYS(B185, A185)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J185" s="7">
-        <v>65719</v>
+        <v>65769</v>
       </c>
       <c r="K185" s="7">
-        <v>1450</v>
+        <v>175</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="M185" s="6">
-        <v>45877</v>
+        <v>45848</v>
       </c>
       <c r="N185" s="8">
-        <v>1548.71</v>
+        <v>3685</v>
       </c>
       <c r="O185" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P185" s="7">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Q185" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R185" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="S185" s="8">
         <v>0</v>
       </c>
       <c r="T185" s="8">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -14005,41 +14018,41 @@
         <v>5</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="I186" s="10">
-        <f>NETWORKDAYS(B186, A186)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J186" s="7">
-        <v>65769</v>
+        <v>66128</v>
       </c>
       <c r="K186" s="7">
-        <v>175</v>
+        <v>11204</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>188</v>
+        <v>367</v>
       </c>
       <c r="M186" s="6">
         <v>45848</v>
       </c>
       <c r="N186" s="8">
-        <v>3685</v>
+        <v>3739.1</v>
       </c>
       <c r="O186" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P186" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q186" s="7" t="s">
         <v>116</v>
@@ -14052,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="T186" s="8">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -14069,41 +14082,41 @@
         <v>5</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I187" s="10">
-        <f>NETWORKDAYS(B187, A187)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J187" s="7">
-        <v>66128</v>
+        <v>66154</v>
       </c>
       <c r="K187" s="7">
-        <v>11204</v>
+        <v>10581</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="M187" s="6">
         <v>45848</v>
       </c>
       <c r="N187" s="8">
-        <v>3739.1</v>
+        <v>16306.04</v>
       </c>
       <c r="O187" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P187" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q187" s="7" t="s">
         <v>116</v>
@@ -14119,67 +14132,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="6">
-        <v>45848</v>
-      </c>
-      <c r="B188" s="6">
-        <v>45848</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" s="6" t="s">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A188" s="11">
+        <v>45849</v>
+      </c>
+      <c r="B188" s="11">
+        <v>45849</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H188" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I188" s="10">
-        <f>NETWORKDAYS(B188, A188)</f>
+      <c r="E188" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I188" s="13">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J188" s="7">
-        <v>66154</v>
-      </c>
-      <c r="K188" s="7">
-        <v>10581</v>
-      </c>
-      <c r="L188" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M188" s="6">
-        <v>45848</v>
-      </c>
-      <c r="N188" s="8">
-        <v>16306.04</v>
-      </c>
-      <c r="O188" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P188" s="7">
-        <v>14</v>
-      </c>
-      <c r="Q188" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R188" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>0</v>
-      </c>
-      <c r="S188" s="8">
-        <v>0</v>
-      </c>
-      <c r="T188" s="8">
+      <c r="J188" s="12">
+        <v>66166</v>
+      </c>
+      <c r="K188" s="12">
+        <v>11782</v>
+      </c>
+      <c r="L188" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M188" s="11">
+        <v>45880</v>
+      </c>
+      <c r="N188" s="14">
+        <v>2250</v>
+      </c>
+      <c r="O188" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P188" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q188" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R188" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S188" s="14">
+        <v>250</v>
+      </c>
+      <c r="T188" s="14">
         <v>0</v>
       </c>
     </row>
@@ -14209,17 +14222,17 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f>NETWORKDAYS(B189, A189)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J189" s="7">
         <v>66164</v>
       </c>
       <c r="K189" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L189" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L189" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M189" s="6">
         <v>45860</v>
@@ -14249,10 +14262,10 @@
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
-        <v>45818</v>
+        <v>45849</v>
       </c>
       <c r="B190" s="6">
-        <v>45813</v>
+        <v>45849</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>7</v>
@@ -14261,48 +14274,48 @@
         <v>15</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F190" s="7">
-        <v>68422</v>
+        <v>113</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="H190" s="7" t="s">
         <v>91</v>
       </c>
       <c r="I190" s="10">
-        <f>NETWORKDAYS(B190, A190)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J190" s="7">
-        <v>65720</v>
+        <v>66171</v>
       </c>
       <c r="K190" s="7">
-        <v>1450</v>
+        <v>11783</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="M190" s="6">
-        <v>45877</v>
+        <v>45859</v>
       </c>
       <c r="N190" s="8">
-        <v>1637.47</v>
+        <v>661.2</v>
       </c>
       <c r="O190" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P190" s="7">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="Q190" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R190" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="S190" s="8">
         <v>0</v>
@@ -14331,42 +14344,42 @@
         <v>3</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I191" s="10">
-        <f>NETWORKDAYS(B191, A191)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J191" s="7">
-        <v>66171</v>
+        <v>66176</v>
       </c>
       <c r="K191" s="7">
-        <v>11783</v>
+        <v>419</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>374</v>
+        <v>51</v>
       </c>
       <c r="M191" s="6">
-        <v>45859</v>
+        <v>45849</v>
       </c>
       <c r="N191" s="8">
-        <v>661.2</v>
+        <v>4455.05</v>
       </c>
       <c r="O191" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P191" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q191" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R191" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S191" s="8">
         <v>0</v>
@@ -14375,67 +14388,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="6">
-        <v>45849</v>
-      </c>
-      <c r="B192" s="6">
-        <v>45849</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" s="6" t="s">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A192" s="11">
+        <v>45846</v>
+      </c>
+      <c r="B192" s="11">
+        <v>45846</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E192" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F192" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I192" s="10">
-        <f>NETWORKDAYS(B192, A192)</f>
+      <c r="F192" s="12">
+        <v>68456</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I192" s="13">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J192" s="7">
-        <v>66176</v>
-      </c>
-      <c r="K192" s="7">
-        <v>419</v>
-      </c>
-      <c r="L192" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M192" s="6">
-        <v>45849</v>
-      </c>
-      <c r="N192" s="8">
-        <v>4455.05</v>
-      </c>
-      <c r="O192" s="7" t="s">
+      <c r="J192" s="12">
+        <v>66118</v>
+      </c>
+      <c r="K192" s="12">
+        <v>2289</v>
+      </c>
+      <c r="L192" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="M192" s="11">
+        <v>45881</v>
+      </c>
+      <c r="N192" s="14">
+        <v>607.57000000000005</v>
+      </c>
+      <c r="O192" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P192" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q192" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R192" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>0</v>
-      </c>
-      <c r="S192" s="8">
-        <v>0</v>
-      </c>
-      <c r="T192" s="8">
+      <c r="P192" s="12">
+        <v>21</v>
+      </c>
+      <c r="Q192" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R192" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>35</v>
+      </c>
+      <c r="S192" s="14">
+        <v>0</v>
+      </c>
+      <c r="T192" s="14">
         <v>0</v>
       </c>
     </row>
@@ -14459,13 +14472,13 @@
         <v>68460</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H193" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I193" s="10">
-        <f>NETWORKDAYS(B193, A193)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14475,7 +14488,7 @@
         <v>11522</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M193" s="6">
         <v>45856</v>
@@ -14523,13 +14536,13 @@
         <v>3</v>
       </c>
       <c r="G194" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H194" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H194" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="I194" s="10">
-        <f>NETWORKDAYS(B194, A194)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14539,7 +14552,7 @@
         <v>11784</v>
       </c>
       <c r="L194" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M194" s="6">
         <v>45867</v>
@@ -14593,7 +14606,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f>NETWORKDAYS(B195, A195)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14654,10 +14667,10 @@
         <v>275</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I196" s="10">
-        <f>NETWORKDAYS(B196, A196)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14718,10 +14731,10 @@
         <v>3</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I197" s="10">
-        <f>NETWORKDAYS(B197, A197)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14782,10 +14795,10 @@
         <v>3</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I198" s="10">
-        <f>NETWORKDAYS(B198, A198)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14849,7 +14862,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f>NETWORKDAYS(B199, A199)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14913,7 +14926,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f>NETWORKDAYS(B200, A200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -14971,45 +14984,45 @@
         <v>3</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I201" s="10">
-        <f>NETWORKDAYS(B201, A201)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J201" s="7">
-        <v>66298</v>
+        <v>66308</v>
       </c>
       <c r="K201" s="7">
-        <v>10990</v>
+        <v>11757</v>
       </c>
       <c r="L201" s="7" t="s">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="M201" s="6">
-        <v>45856</v>
+        <v>45873</v>
       </c>
       <c r="N201" s="8">
-        <v>10986.26</v>
+        <v>1428.29</v>
       </c>
       <c r="O201" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P201" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q201" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R201" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="S201" s="8">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T201" s="8">
         <v>0</v>
@@ -15038,32 +15051,32 @@
         <v>3</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I202" s="10">
-        <f>NETWORKDAYS(B202, A202)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J202" s="7">
-        <v>63853</v>
+        <v>66298</v>
       </c>
       <c r="K202" s="7">
-        <v>789</v>
+        <v>10990</v>
       </c>
       <c r="L202" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="M202" s="6">
         <v>45856</v>
       </c>
       <c r="N202" s="8">
-        <v>75436.87</v>
+        <v>10986.26</v>
       </c>
       <c r="O202" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P202" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q202" s="7" t="s">
         <v>116</v>
@@ -15105,11 +15118,11 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f>NETWORKDAYS(B203, A203)</f>
+        <f t="shared" ref="I203:I253" si="4">NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
-        <v>63854</v>
+        <v>63853</v>
       </c>
       <c r="K203" s="7">
         <v>789</v>
@@ -15121,7 +15134,7 @@
         <v>45856</v>
       </c>
       <c r="N203" s="8">
-        <v>1428.29</v>
+        <v>75436.87</v>
       </c>
       <c r="O203" s="7" t="s">
         <v>121</v>
@@ -15143,140 +15156,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A204" s="40">
-        <v>45874</v>
-      </c>
-      <c r="B204" s="40">
-        <v>45874</v>
-      </c>
-      <c r="C204" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="40" t="s">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="6">
+        <v>45855</v>
+      </c>
+      <c r="B204" s="6">
+        <v>45855</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I204" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J204" s="7">
+        <v>63854</v>
+      </c>
+      <c r="K204" s="7">
+        <v>789</v>
+      </c>
+      <c r="L204" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M204" s="6">
+        <v>45856</v>
+      </c>
+      <c r="N204" s="8">
+        <v>1428.29</v>
+      </c>
+      <c r="O204" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P204" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q204" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R204" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S204" s="8">
+        <v>0</v>
+      </c>
+      <c r="T204" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="6">
+        <v>45856</v>
+      </c>
+      <c r="B205" s="6">
+        <v>45856</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E204" s="40" t="s">
+      <c r="E205" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F204" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G204" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H204" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="I204" s="42">
-        <f>NETWORKDAYS(B204, A204)</f>
+      <c r="F205" s="7">
+        <v>68470</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I205" s="10">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J204" s="41">
-        <v>66561</v>
-      </c>
-      <c r="K204" s="41">
-        <v>2785</v>
-      </c>
-      <c r="L204" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="M204" s="40">
-        <v>45875</v>
-      </c>
-      <c r="N204" s="43">
-        <v>475</v>
-      </c>
-      <c r="O204" s="41" t="s">
+      <c r="J205" s="7">
+        <v>66342</v>
+      </c>
+      <c r="K205" s="7">
+        <v>11590</v>
+      </c>
+      <c r="L205" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M205" s="6">
+        <v>45889</v>
+      </c>
+      <c r="N205" s="8">
+        <v>1150.47</v>
+      </c>
+      <c r="O205" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P204" s="41">
-        <v>15</v>
-      </c>
-      <c r="Q204" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R204" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>1</v>
-      </c>
-      <c r="S204" s="43">
-        <v>0</v>
-      </c>
-      <c r="T204" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A205" s="40">
-        <v>45874</v>
-      </c>
-      <c r="B205" s="40">
-        <v>45874</v>
-      </c>
-      <c r="C205" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E205" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F205" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G205" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H205" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="I205" s="42">
-        <f>NETWORKDAYS(B205, A205)</f>
-        <v>1</v>
-      </c>
-      <c r="J205" s="41">
-        <v>66560</v>
-      </c>
-      <c r="K205" s="41">
-        <v>10692</v>
-      </c>
-      <c r="L205" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="M205" s="40">
-        <v>45876</v>
-      </c>
-      <c r="N205" s="43">
-        <v>5026.62</v>
-      </c>
-      <c r="O205" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="P205" s="41">
-        <v>14</v>
-      </c>
-      <c r="Q205" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R205" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
-      </c>
-      <c r="S205" s="43">
-        <v>0</v>
-      </c>
-      <c r="T205" s="43">
+      <c r="P205" s="7">
+        <v>21</v>
+      </c>
+      <c r="Q205" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R205" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>33</v>
+      </c>
+      <c r="S205" s="8">
+        <v>0</v>
+      </c>
+      <c r="T205" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="B206" s="6">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>7</v>
@@ -15285,35 +15298,35 @@
         <v>15</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F206" s="7">
-        <v>68468</v>
+        <v>124</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>372</v>
+        <v>125</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>373</v>
+        <v>126</v>
       </c>
       <c r="I206" s="10">
-        <f>NETWORKDAYS(B206, A206)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J206" s="7">
-        <v>66499</v>
+        <v>66471</v>
       </c>
       <c r="K206" s="7">
-        <v>10556</v>
+        <v>9</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M206" s="6">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="N206" s="8">
-        <v>1217</v>
+        <v>6505.5</v>
       </c>
       <c r="O206" s="7" t="s">
         <v>122</v>
@@ -15326,10 +15339,10 @@
       </c>
       <c r="R206" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S206" s="8">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="T206" s="8">
         <v>0</v>
@@ -15361,7 +15374,7 @@
         <v>130</v>
       </c>
       <c r="I207" s="10">
-        <f>NETWORKDAYS(B207, A207)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15425,7 +15438,7 @@
         <v>130</v>
       </c>
       <c r="I208" s="10">
-        <f>NETWORKDAYS(B208, A208)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15489,7 +15502,7 @@
         <v>130</v>
       </c>
       <c r="I209" s="10">
-        <f>NETWORKDAYS(B209, A209)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15553,7 +15566,7 @@
         <v>130</v>
       </c>
       <c r="I210" s="10">
-        <f>NETWORKDAYS(B210, A210)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15617,7 +15630,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f>NETWORKDAYS(B211, A211)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15627,7 +15640,7 @@
         <v>2952</v>
       </c>
       <c r="L211" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M211" s="6">
         <v>45867</v>
@@ -15681,7 +15694,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f>NETWORKDAYS(B212, A212)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15691,7 +15704,7 @@
         <v>10567</v>
       </c>
       <c r="L212" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M212" s="6">
         <v>45861</v>
@@ -15739,13 +15752,13 @@
         <v>3</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>138</v>
       </c>
       <c r="I213" s="10">
-        <f>NETWORKDAYS(B213, A213)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15809,7 +15822,7 @@
         <v>91</v>
       </c>
       <c r="I214" s="10">
-        <f>NETWORKDAYS(B214, A214)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15819,7 +15832,7 @@
         <v>11783</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M214" s="6">
         <v>45863</v>
@@ -15873,7 +15886,7 @@
         <v>98</v>
       </c>
       <c r="I215" s="10">
-        <f>NETWORKDAYS(B215, A215)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15937,7 +15950,7 @@
         <v>138</v>
       </c>
       <c r="I216" s="10">
-        <f>NETWORKDAYS(B216, A216)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -15975,131 +15988,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A217" s="11">
-        <v>45818</v>
-      </c>
-      <c r="B217" s="11">
-        <v>45813</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D217" s="11" t="s">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="6">
+        <v>45861</v>
+      </c>
+      <c r="B217" s="6">
+        <v>45861</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E217" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F217" s="12">
-        <v>68422</v>
-      </c>
-      <c r="G217" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H217" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I217" s="13">
-        <f>NETWORKDAYS(B217, A217)</f>
-        <v>4</v>
-      </c>
-      <c r="J217" s="12">
-        <v>65725</v>
-      </c>
-      <c r="K217" s="12">
-        <v>1450</v>
-      </c>
-      <c r="L217" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="M217" s="11">
-        <v>45877</v>
-      </c>
-      <c r="N217" s="14">
-        <v>239.63</v>
-      </c>
-      <c r="O217" s="12" t="s">
+      <c r="E217" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F217" s="7">
+        <v>68472</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I217" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J217" s="7">
+        <v>66413</v>
+      </c>
+      <c r="K217" s="7">
+        <v>11715</v>
+      </c>
+      <c r="L217" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="M217" s="6">
+        <v>45873</v>
+      </c>
+      <c r="N217" s="8">
+        <v>178.3</v>
+      </c>
+      <c r="O217" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P217" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q217" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R217" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>12</v>
+      </c>
+      <c r="S217" s="8">
+        <v>0</v>
+      </c>
+      <c r="T217" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A218" s="11">
+        <v>45785</v>
+      </c>
+      <c r="B218" s="11">
+        <v>45784</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F218" s="12">
+        <v>68369</v>
+      </c>
+      <c r="G218" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H218" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I218" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J218" s="12">
+        <v>65234</v>
+      </c>
+      <c r="K218" s="12">
+        <v>11610</v>
+      </c>
+      <c r="L218" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M218" s="11">
+        <v>45881</v>
+      </c>
+      <c r="N218" s="14">
+        <v>9114.5499999999993</v>
+      </c>
+      <c r="O218" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P217" s="12">
-        <v>120</v>
-      </c>
-      <c r="Q217" s="12" t="s">
+      <c r="P218" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q218" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R217" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
-      </c>
-      <c r="S217" s="14">
-        <v>0</v>
-      </c>
-      <c r="T217" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A218" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B218" s="40">
-        <v>45867</v>
-      </c>
-      <c r="C218" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E218" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F218" s="41">
-        <v>68485</v>
-      </c>
-      <c r="G218" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="H218" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="I218" s="42">
-        <f>NETWORKDAYS(B218, A218)</f>
-        <v>4</v>
-      </c>
-      <c r="J218" s="41">
-        <v>66526</v>
-      </c>
-      <c r="K218" s="41">
-        <v>3061</v>
-      </c>
-      <c r="L218" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="M218" s="40">
-        <v>45877</v>
-      </c>
-      <c r="N218" s="43">
-        <v>1150</v>
-      </c>
-      <c r="O218" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="P218" s="41">
-        <v>15</v>
-      </c>
-      <c r="Q218" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R218" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
-      </c>
-      <c r="S218" s="43">
-        <v>0</v>
-      </c>
-      <c r="T218" s="43">
+      <c r="R218" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>96</v>
+      </c>
+      <c r="S218" s="14">
+        <v>183.5</v>
+      </c>
+      <c r="T218" s="14">
         <v>0</v>
       </c>
     </row>
@@ -16129,7 +16142,7 @@
         <v>130</v>
       </c>
       <c r="I219" s="10">
-        <f>NETWORKDAYS(B219, A219)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16193,13 +16206,13 @@
         <v>130</v>
       </c>
       <c r="I220" s="10">
-        <f>NETWORKDAYS(B220, A220)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J220" s="7">
         <v>66429</v>
       </c>
-      <c r="K220" s="53">
+      <c r="K220" s="48">
         <v>766</v>
       </c>
       <c r="L220" s="7" t="s">
@@ -16257,7 +16270,7 @@
         <v>98</v>
       </c>
       <c r="I221" s="10">
-        <f>NETWORKDAYS(B221, A221)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16315,13 +16328,13 @@
         <v>68479</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H222" s="7" t="s">
         <v>91</v>
       </c>
       <c r="I222" s="10">
-        <f>NETWORKDAYS(B222, A222)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16331,7 +16344,7 @@
         <v>11788</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M222" s="6">
         <v>45889</v>
@@ -16385,7 +16398,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f>NETWORKDAYS(B223, A223)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16423,195 +16436,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A224" s="49">
-        <v>45826</v>
-      </c>
-      <c r="B224" s="49">
-        <v>45826</v>
-      </c>
-      <c r="C224" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="49" t="s">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="6">
+        <v>45866</v>
+      </c>
+      <c r="B224" s="6">
+        <v>45863</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F224" s="7">
+        <v>68481</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H224" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I224" s="10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J224" s="7">
+        <v>66462</v>
+      </c>
+      <c r="K224" s="7">
+        <v>10535</v>
+      </c>
+      <c r="L224" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M224" s="6">
+        <v>45868</v>
+      </c>
+      <c r="N224" s="8">
+        <v>300</v>
+      </c>
+      <c r="O224" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P224" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q224" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R224" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S224" s="8">
+        <v>0</v>
+      </c>
+      <c r="T224" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="6">
+        <v>45867</v>
+      </c>
+      <c r="B225" s="6">
+        <v>45867</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H225" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I225" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J225" s="7">
+        <v>66476</v>
+      </c>
+      <c r="K225" s="7">
+        <v>381</v>
+      </c>
+      <c r="L225" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M225" s="6">
+        <v>45869</v>
+      </c>
+      <c r="N225" s="8">
+        <v>6098.28</v>
+      </c>
+      <c r="O225" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P225" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q225" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R225" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S225" s="8">
+        <v>0</v>
+      </c>
+      <c r="T225" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A226" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B226" s="11">
+        <v>45863</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E224" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="F224" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G224" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="H224" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I224" s="51">
-        <f>NETWORKDAYS(B224, A224)</f>
-        <v>1</v>
-      </c>
-      <c r="J224" s="50">
-        <v>66341</v>
-      </c>
-      <c r="K224" s="50">
-        <v>11758</v>
-      </c>
-      <c r="L224" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="M224" s="49">
-        <v>45880</v>
-      </c>
-      <c r="N224" s="52">
-        <v>924.61</v>
-      </c>
-      <c r="O224" s="50" t="s">
+      <c r="E226" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F226" s="12">
+        <v>68482</v>
+      </c>
+      <c r="G226" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H226" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I226" s="13">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J226" s="12">
+        <v>66522</v>
+      </c>
+      <c r="K226" s="12">
+        <v>679</v>
+      </c>
+      <c r="L226" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="M226" s="11">
+        <v>45889</v>
+      </c>
+      <c r="N226" s="14">
+        <v>6048.2</v>
+      </c>
+      <c r="O226" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P224" s="50">
-        <v>28</v>
-      </c>
-      <c r="Q224" s="50" t="s">
+      <c r="P226" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q226" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R224" s="50">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>54</v>
-      </c>
-      <c r="S224" s="52">
-        <v>0</v>
-      </c>
-      <c r="T224" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A225" s="11">
-        <v>45849</v>
-      </c>
-      <c r="B225" s="11">
-        <v>45849</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E225" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F225" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G225" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H225" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="I225" s="13">
-        <f>NETWORKDAYS(B225, A225)</f>
-        <v>1</v>
-      </c>
-      <c r="J225" s="12">
-        <v>66166</v>
-      </c>
-      <c r="K225" s="12">
-        <v>11782</v>
-      </c>
-      <c r="L225" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="M225" s="11">
-        <v>45880</v>
-      </c>
-      <c r="N225" s="14">
-        <v>2250</v>
-      </c>
-      <c r="O225" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P225" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q225" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R225" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S225" s="14">
-        <v>250</v>
-      </c>
-      <c r="T225" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="6">
-        <v>45867</v>
-      </c>
-      <c r="B226" s="6">
-        <v>45867</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H226" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I226" s="10">
-        <f>NETWORKDAYS(B226, A226)</f>
-        <v>1</v>
-      </c>
-      <c r="J226" s="7">
-        <v>66476</v>
-      </c>
-      <c r="K226" s="7">
-        <v>381</v>
-      </c>
-      <c r="L226" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M226" s="6">
-        <v>45869</v>
-      </c>
-      <c r="N226" s="8">
-        <v>6098.28</v>
-      </c>
-      <c r="O226" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P226" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q226" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R226" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
-      </c>
-      <c r="S226" s="8">
-        <v>0</v>
-      </c>
-      <c r="T226" s="8">
+      <c r="R226" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>19</v>
+      </c>
+      <c r="S226" s="14">
+        <v>0</v>
+      </c>
+      <c r="T226" s="14">
         <v>0</v>
       </c>
     </row>
@@ -16623,57 +16636,57 @@
         <v>45867</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F227" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F227" s="12">
+        <v>68486</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="H227" s="12" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="I227" s="13">
-        <f>NETWORKDAYS(B227, A227)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J227" s="12">
-        <v>66471</v>
+        <v>66478</v>
       </c>
       <c r="K227" s="12">
-        <v>9</v>
+        <v>10460</v>
       </c>
       <c r="L227" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M227" s="11">
-        <v>45880</v>
+        <v>45883</v>
       </c>
       <c r="N227" s="14">
-        <v>6505.5</v>
+        <v>4789.6099999999997</v>
       </c>
       <c r="O227" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P227" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q227" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R227" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S227" s="14">
-        <v>135</v>
+        <v>1509.38</v>
       </c>
       <c r="T227" s="14">
         <v>0</v>
@@ -16681,10 +16694,10 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
-        <v>45785</v>
+        <v>45870</v>
       </c>
       <c r="B228" s="11">
-        <v>45784</v>
+        <v>45869</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>7</v>
@@ -16696,48 +16709,48 @@
         <v>113</v>
       </c>
       <c r="F228" s="12">
-        <v>68369</v>
+        <v>68491</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>39</v>
+        <v>371</v>
       </c>
       <c r="H228" s="12" t="s">
-        <v>98</v>
+        <v>372</v>
       </c>
       <c r="I228" s="13">
-        <f>NETWORKDAYS(B228, A228)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J228" s="12">
-        <v>65234</v>
+        <v>66521</v>
       </c>
       <c r="K228" s="12">
-        <v>11610</v>
+        <v>3061</v>
       </c>
       <c r="L228" s="12" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="M228" s="11">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="N228" s="14">
-        <v>9114.5499999999993</v>
+        <v>3000</v>
       </c>
       <c r="O228" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P228" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q228" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R228" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="S228" s="14">
-        <v>183.5</v>
+        <v>50</v>
       </c>
       <c r="T228" s="14">
         <v>0</v>
@@ -16745,10 +16758,10 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
-        <v>45870</v>
+        <v>45856</v>
       </c>
       <c r="B229" s="11">
-        <v>45863</v>
+        <v>45856</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>7</v>
@@ -16757,243 +16770,243 @@
         <v>15</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F229" s="12">
-        <v>68482</v>
+        <v>68466</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H229" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I229" s="13">
-        <f>NETWORKDAYS(B229, A229)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J229" s="12">
-        <v>66522</v>
+        <v>66337</v>
       </c>
       <c r="K229" s="12">
-        <v>679</v>
+        <v>11736</v>
       </c>
       <c r="L229" s="12" t="s">
-        <v>346</v>
+        <v>127</v>
       </c>
       <c r="M229" s="11">
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="N229" s="14">
-        <v>5173.3</v>
+        <v>16134.54</v>
       </c>
       <c r="O229" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P229" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R229" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="S229" s="14">
-        <v>0</v>
+        <v>25720</v>
       </c>
       <c r="T229" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="6">
-        <v>45856</v>
-      </c>
-      <c r="B230" s="6">
-        <v>45856</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D230" s="6" t="s">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A230" s="11">
+        <v>45876</v>
+      </c>
+      <c r="B230" s="11">
+        <v>45876</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="E230" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F230" s="7">
-        <v>68470</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H230" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I230" s="10">
-        <f>NETWORKDAYS(B230, A230)</f>
+      <c r="F230" s="12">
+        <v>68458</v>
+      </c>
+      <c r="G230" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H230" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I230" s="13">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J230" s="7">
-        <v>66342</v>
-      </c>
-      <c r="K230" s="7">
-        <v>11590</v>
-      </c>
-      <c r="L230" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M230" s="6">
-        <v>45889</v>
-      </c>
-      <c r="N230" s="8">
-        <v>1150.47</v>
-      </c>
-      <c r="O230" s="7" t="s">
+      <c r="J230" s="12">
+        <v>66591</v>
+      </c>
+      <c r="K230" s="12">
+        <v>561</v>
+      </c>
+      <c r="L230" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="M230" s="11">
+        <v>45896</v>
+      </c>
+      <c r="N230" s="14">
+        <v>758.53</v>
+      </c>
+      <c r="O230" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P230" s="7">
-        <v>21</v>
-      </c>
-      <c r="Q230" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R230" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>33</v>
-      </c>
-      <c r="S230" s="8">
-        <v>0</v>
-      </c>
-      <c r="T230" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A231" s="11">
-        <v>45867</v>
-      </c>
-      <c r="B231" s="11">
-        <v>45867</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D231" s="11" t="s">
+      <c r="P230" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q230" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R230" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>20</v>
+      </c>
+      <c r="S230" s="14">
+        <v>0</v>
+      </c>
+      <c r="T230" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="6">
+        <v>45868</v>
+      </c>
+      <c r="B231" s="6">
+        <v>45868</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E231" s="11" t="s">
+      <c r="E231" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F231" s="12">
-        <v>68486</v>
-      </c>
-      <c r="G231" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="H231" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I231" s="13">
-        <f>NETWORKDAYS(B231, A231)</f>
+      <c r="F231" s="7">
+        <v>68468</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I231" s="10">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J231" s="12">
-        <v>66478</v>
-      </c>
-      <c r="K231" s="12">
-        <v>10460</v>
-      </c>
-      <c r="L231" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="M231" s="11">
-        <v>45883</v>
-      </c>
-      <c r="N231" s="14">
-        <v>4789.6099999999997</v>
-      </c>
-      <c r="O231" s="12" t="s">
+      <c r="J231" s="7">
+        <v>66499</v>
+      </c>
+      <c r="K231" s="7">
+        <v>10556</v>
+      </c>
+      <c r="L231" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M231" s="6">
+        <v>45877</v>
+      </c>
+      <c r="N231" s="8">
+        <v>1217</v>
+      </c>
+      <c r="O231" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P231" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q231" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R231" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>16</v>
-      </c>
-      <c r="S231" s="14">
-        <v>1509.38</v>
-      </c>
-      <c r="T231" s="14">
+      <c r="P231" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q231" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R231" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>9</v>
+      </c>
+      <c r="S231" s="8">
+        <v>0</v>
+      </c>
+      <c r="T231" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
-        <v>45870</v>
+        <v>45868</v>
       </c>
       <c r="B232" s="11">
-        <v>45869</v>
+        <v>45868</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F232" s="12">
-        <v>68491</v>
+        <v>124</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>372</v>
+        <v>125</v>
       </c>
       <c r="H232" s="12" t="s">
-        <v>373</v>
+        <v>126</v>
       </c>
       <c r="I232" s="13">
-        <f>NETWORKDAYS(B232, A232)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J232" s="12">
-        <v>66521</v>
+        <v>66504</v>
       </c>
       <c r="K232" s="12">
-        <v>3061</v>
+        <v>3034</v>
       </c>
       <c r="L232" s="12" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="M232" s="11">
-        <v>45883</v>
+        <v>45897</v>
       </c>
       <c r="N232" s="14">
-        <v>3000</v>
+        <v>66522</v>
       </c>
       <c r="O232" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P232" s="12">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="Q232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R232" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="S232" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="T232" s="14">
         <v>0</v>
@@ -17001,10 +17014,10 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
-        <v>45856</v>
+        <v>45869</v>
       </c>
       <c r="B233" s="11">
-        <v>45856</v>
+        <v>45869</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>7</v>
@@ -17015,8 +17028,8 @@
       <c r="E233" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F233" s="12">
-        <v>68466</v>
+      <c r="F233" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G233" s="12" t="s">
         <v>125</v>
@@ -17025,39 +17038,39 @@
         <v>126</v>
       </c>
       <c r="I233" s="13">
-        <f>NETWORKDAYS(B233, A233)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J233" s="12">
-        <v>66337</v>
+        <v>66427</v>
       </c>
       <c r="K233" s="12">
-        <v>11736</v>
+        <v>1277</v>
       </c>
       <c r="L233" s="12" t="s">
-        <v>127</v>
+        <v>398</v>
       </c>
       <c r="M233" s="11">
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="N233" s="14">
-        <v>16134.54</v>
+        <v>2715.75</v>
       </c>
       <c r="O233" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P233" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R233" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S233" s="14">
-        <v>25720</v>
+        <v>950</v>
       </c>
       <c r="T233" s="14">
         <v>0</v>
@@ -17065,13 +17078,13 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
-        <v>45868</v>
+        <v>45875</v>
       </c>
       <c r="B234" s="11">
-        <v>45868</v>
+        <v>45873</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>15</v>
@@ -17079,35 +17092,35 @@
       <c r="E234" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F234" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G234" s="12" t="s">
+      <c r="F234" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G234" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H234" s="12" t="s">
+      <c r="H234" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I234" s="13">
-        <f>NETWORKDAYS(B234, A234)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J234" s="12">
-        <v>66504</v>
+        <v>66430</v>
       </c>
       <c r="K234" s="12">
-        <v>3034</v>
+        <v>333</v>
       </c>
       <c r="L234" s="12" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="M234" s="11">
-        <v>45897</v>
-      </c>
-      <c r="N234" s="14">
-        <v>66522</v>
-      </c>
-      <c r="O234" s="12" t="s">
+        <v>45901</v>
+      </c>
+      <c r="N234" s="49">
+        <v>1483685.03</v>
+      </c>
+      <c r="O234" s="11" t="s">
         <v>122</v>
       </c>
       <c r="P234" s="12">
@@ -17118,58 +17131,58 @@
       </c>
       <c r="R234" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S234" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T234" s="14">
-        <v>0</v>
+        <v>59008.35</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
-        <v>45869</v>
+        <v>45840</v>
       </c>
       <c r="B235" s="11">
-        <v>45869</v>
+        <v>45840</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F235" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F235" s="12">
+        <v>68452</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="H235" s="12" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I235" s="13">
-        <f>NETWORKDAYS(B235, A235)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J235" s="12">
-        <v>66427</v>
+        <v>66037</v>
       </c>
       <c r="K235" s="12">
-        <v>1277</v>
+        <v>11775</v>
       </c>
       <c r="L235" s="12" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="M235" s="11">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="N235" s="14">
-        <v>2715.75</v>
+        <v>1750</v>
       </c>
       <c r="O235" s="12" t="s">
         <v>122</v>
@@ -17182,10 +17195,10 @@
       </c>
       <c r="R235" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="S235" s="14">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="T235" s="14">
         <v>0</v>
@@ -17193,10 +17206,10 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236" s="11">
-        <v>45840</v>
+        <v>45846</v>
       </c>
       <c r="B236" s="11">
-        <v>45840</v>
+        <v>45846</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>7</v>
@@ -17208,35 +17221,35 @@
         <v>113</v>
       </c>
       <c r="F236" s="12">
-        <v>68452</v>
+        <v>68461</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="H236" s="12" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I236" s="13">
-        <f>NETWORKDAYS(B236, A236)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J236" s="12">
-        <v>66037</v>
+        <v>66119</v>
       </c>
       <c r="K236" s="12">
-        <v>11775</v>
+        <v>10677</v>
       </c>
       <c r="L236" s="12" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M236" s="11">
         <v>45905</v>
       </c>
       <c r="N236" s="14">
-        <v>1750</v>
+        <v>2800</v>
       </c>
       <c r="O236" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P236" s="12">
         <v>30</v>
@@ -17246,7 +17259,7 @@
       </c>
       <c r="R236" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="S236" s="14">
         <v>0</v>
@@ -17257,10 +17270,10 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B237" s="11">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>7</v>
@@ -17272,35 +17285,35 @@
         <v>113</v>
       </c>
       <c r="F237" s="12">
-        <v>68461</v>
+        <v>68457</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="H237" s="12" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I237" s="13">
-        <f>NETWORKDAYS(B237, A237)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J237" s="12">
-        <v>66119</v>
+        <v>66126</v>
       </c>
       <c r="K237" s="12">
-        <v>10677</v>
+        <v>2931</v>
       </c>
       <c r="L237" s="12" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M237" s="11">
         <v>45905</v>
       </c>
       <c r="N237" s="14">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="O237" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P237" s="12">
         <v>30</v>
@@ -17310,10 +17323,10 @@
       </c>
       <c r="R237" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S237" s="14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T237" s="14">
         <v>0</v>
@@ -17330,54 +17343,54 @@
         <v>7</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F238" s="7" t="s">
-        <v>3</v>
+      <c r="F238" s="7">
+        <v>68494</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="I238" s="10">
-        <f>NETWORKDAYS(B238, A238)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J238" s="7">
-        <v>66529</v>
+        <v>66534</v>
       </c>
       <c r="K238" s="7">
-        <v>2856</v>
+        <v>11790</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M238" s="6">
-        <v>45875</v>
+        <v>45873</v>
       </c>
       <c r="N238" s="8">
-        <v>5600</v>
+        <v>1475</v>
       </c>
       <c r="O238" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P238" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q238" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R238" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S238" s="8">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="T238" s="8">
         <v>0</v>
@@ -17397,7 +17410,7 @@
         <v>5</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F239" s="7" t="s">
         <v>3</v>
@@ -17409,29 +17422,29 @@
         <v>130</v>
       </c>
       <c r="I239" s="10">
-        <f>NETWORKDAYS(B239, A239)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J239" s="7">
-        <v>66530</v>
+        <v>66529</v>
       </c>
       <c r="K239" s="7">
-        <v>280</v>
+        <v>2856</v>
       </c>
       <c r="L239" s="7" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="M239" s="6">
         <v>45875</v>
       </c>
       <c r="N239" s="8">
-        <v>15507.16</v>
+        <v>5600</v>
       </c>
       <c r="O239" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P239" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q239" s="7" t="s">
         <v>116</v>
@@ -17473,29 +17486,29 @@
         <v>130</v>
       </c>
       <c r="I240" s="10">
-        <f>NETWORKDAYS(B240, A240)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J240" s="7">
-        <v>66532</v>
+        <v>66530</v>
       </c>
       <c r="K240" s="7">
-        <v>11263</v>
+        <v>280</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="M240" s="6">
         <v>45875</v>
       </c>
       <c r="N240" s="8">
-        <v>11841</v>
+        <v>15507.16</v>
       </c>
       <c r="O240" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P240" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q240" s="7" t="s">
         <v>116</v>
@@ -17531,367 +17544,815 @@
         <v>3</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I241" s="10">
-        <f>NETWORKDAYS(B241, A241)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J241" s="7">
-        <v>66533</v>
+        <v>66532</v>
       </c>
       <c r="K241" s="7">
-        <v>495</v>
+        <v>11263</v>
       </c>
       <c r="L241" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M241" s="6">
         <v>45875</v>
       </c>
       <c r="N241" s="8">
-        <v>257</v>
+        <v>11841</v>
       </c>
       <c r="O241" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P241" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q241" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R241" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S241" s="8">
+        <v>0</v>
+      </c>
+      <c r="T241" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="6">
+        <v>45873</v>
+      </c>
+      <c r="B242" s="6">
+        <v>45873</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H242" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I242" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J242" s="7">
+        <v>66533</v>
+      </c>
+      <c r="K242" s="7">
+        <v>495</v>
+      </c>
+      <c r="L242" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M242" s="6">
+        <v>45875</v>
+      </c>
+      <c r="N242" s="8">
+        <v>257</v>
+      </c>
+      <c r="O242" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P242" s="7">
         <v>14</v>
       </c>
-      <c r="Q241" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R241" s="7">
+      <c r="Q242" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R242" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>2</v>
       </c>
-      <c r="S241" s="8">
-        <v>0</v>
-      </c>
-      <c r="T241" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A242" s="11">
-        <v>45848</v>
-      </c>
-      <c r="B242" s="11">
-        <v>45848</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" s="11" t="s">
+      <c r="S242" s="8">
+        <v>0</v>
+      </c>
+      <c r="T242" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="6">
+        <v>45874</v>
+      </c>
+      <c r="B243" s="6">
+        <v>45874</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I243" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J243" s="7">
+        <v>66561</v>
+      </c>
+      <c r="K243" s="7">
+        <v>2785</v>
+      </c>
+      <c r="L243" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M243" s="6">
+        <v>45875</v>
+      </c>
+      <c r="N243" s="8">
+        <v>475</v>
+      </c>
+      <c r="O243" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P243" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q243" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R243" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S243" s="8">
+        <v>0</v>
+      </c>
+      <c r="T243" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="6">
+        <v>45874</v>
+      </c>
+      <c r="B244" s="6">
+        <v>45874</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="E244" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I244" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J244" s="7">
+        <v>66560</v>
+      </c>
+      <c r="K244" s="7">
+        <v>10692</v>
+      </c>
+      <c r="L244" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M244" s="6">
+        <v>45876</v>
+      </c>
+      <c r="N244" s="8">
+        <v>5026.62</v>
+      </c>
+      <c r="O244" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P244" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q244" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R244" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S244" s="8">
+        <v>0</v>
+      </c>
+      <c r="T244" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A245" s="11">
+        <v>45874</v>
+      </c>
+      <c r="B245" s="11">
+        <v>45853</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F245" s="12">
+        <v>68465</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H245" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I245" s="13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J245" s="12">
+        <v>66555</v>
+      </c>
+      <c r="K245" s="12">
+        <v>11791</v>
+      </c>
+      <c r="L245" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="M245" s="11">
+        <v>45906</v>
+      </c>
+      <c r="N245" s="14">
+        <v>1075.55</v>
+      </c>
+      <c r="O245" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P245" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q245" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R245" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>32</v>
+      </c>
+      <c r="S245" s="14">
+        <v>1215.25</v>
+      </c>
+      <c r="T245" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="6">
+        <v>45874</v>
+      </c>
+      <c r="B246" s="6">
+        <v>45874</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I246" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J246" s="7">
+        <v>64425</v>
+      </c>
+      <c r="K246" s="7">
+        <v>2954</v>
+      </c>
+      <c r="L246" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M246" s="6">
+        <v>45876</v>
+      </c>
+      <c r="N246" s="8">
+        <v>255.15</v>
+      </c>
+      <c r="O246" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P246" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q246" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R246" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S246" s="8">
+        <v>0</v>
+      </c>
+      <c r="T246" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A247" s="11">
+        <v>45867</v>
+      </c>
+      <c r="B247" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F247" s="12">
+        <v>68483</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H247" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I247" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J247" s="12">
+        <v>66467</v>
+      </c>
+      <c r="K247" s="12">
+        <v>11164</v>
+      </c>
+      <c r="L247" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M247" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N247" s="14">
+        <v>2623.03</v>
+      </c>
+      <c r="O247" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P247" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q247" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R247" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S247" s="14">
+        <v>52</v>
+      </c>
+      <c r="T247" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="6">
+        <v>45875</v>
+      </c>
+      <c r="B248" s="6">
+        <v>45875</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E248" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F242" s="12">
-        <v>68457</v>
-      </c>
-      <c r="G242" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H242" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I242" s="13">
-        <f>NETWORKDAYS(B242, A242)</f>
+      <c r="F248" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H248" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I248" s="10">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J242" s="12">
-        <v>66126</v>
-      </c>
-      <c r="K242" s="12">
-        <v>2931</v>
-      </c>
-      <c r="L242" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="M242" s="11">
-        <v>45905</v>
-      </c>
-      <c r="N242" s="14">
-        <v>3500</v>
-      </c>
-      <c r="O242" s="12" t="s">
+      <c r="J248" s="7">
+        <v>66565</v>
+      </c>
+      <c r="K248" s="7">
+        <v>11673</v>
+      </c>
+      <c r="L248" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M248" s="6">
+        <v>45877</v>
+      </c>
+      <c r="N248" s="8">
+        <v>5087.95</v>
+      </c>
+      <c r="O248" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P242" s="12">
+      <c r="P248" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q248" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R248" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S248" s="8">
+        <v>0</v>
+      </c>
+      <c r="T248" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="6">
+        <v>45875</v>
+      </c>
+      <c r="B249" s="6">
+        <v>45875</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H249" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I249" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J249" s="7">
+        <v>66567</v>
+      </c>
+      <c r="K249" s="7">
+        <v>405</v>
+      </c>
+      <c r="L249" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M249" s="6">
+        <v>45877</v>
+      </c>
+      <c r="N249" s="8">
+        <v>1618.75</v>
+      </c>
+      <c r="O249" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P249" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q249" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R249" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S249" s="8">
+        <v>0</v>
+      </c>
+      <c r="T249" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="6">
+        <v>45875</v>
+      </c>
+      <c r="B250" s="6">
+        <v>45875</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H250" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I250" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J250" s="7">
+        <v>63752</v>
+      </c>
+      <c r="K250" s="7">
+        <v>266</v>
+      </c>
+      <c r="L250" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M250" s="6">
+        <v>45877</v>
+      </c>
+      <c r="N250" s="8">
+        <v>1407.45</v>
+      </c>
+      <c r="O250" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P250" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q250" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R250" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S250" s="8">
+        <v>0</v>
+      </c>
+      <c r="T250" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A251" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B251" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G251" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H251" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I251" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J251" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K251" s="12">
+        <v>333</v>
+      </c>
+      <c r="L251" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="M251" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N251" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O251" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P251" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q251" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R251" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>243</v>
+      </c>
+      <c r="S251" s="14">
+        <v>0</v>
+      </c>
+      <c r="T251" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A252" s="50">
+        <v>45877</v>
+      </c>
+      <c r="B252" s="50">
+        <v>45877</v>
+      </c>
+      <c r="C252" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F252" s="51">
+        <v>68458</v>
+      </c>
+      <c r="G252" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="H252" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="I252" s="52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J252" s="51">
+        <v>66605</v>
+      </c>
+      <c r="K252" s="51">
+        <v>561</v>
+      </c>
+      <c r="L252" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="M252" s="50">
+        <v>45891</v>
+      </c>
+      <c r="N252" s="53">
+        <v>758.53</v>
+      </c>
+      <c r="O252" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P252" s="51">
+        <v>28</v>
+      </c>
+      <c r="Q252" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="R252" s="51">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>14</v>
+      </c>
+      <c r="S252" s="53">
+        <v>0</v>
+      </c>
+      <c r="T252" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A253" s="50">
+        <v>45877</v>
+      </c>
+      <c r="B253" s="50">
+        <v>45873</v>
+      </c>
+      <c r="C253" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F253" s="51">
+        <v>68493</v>
+      </c>
+      <c r="G253" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="H253" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I253" s="52">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J253" s="51">
+        <v>66607</v>
+      </c>
+      <c r="K253" s="51">
+        <v>1586</v>
+      </c>
+      <c r="L253" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="M253" s="50">
+        <v>45907</v>
+      </c>
+      <c r="N253" s="53">
+        <v>680</v>
+      </c>
+      <c r="O253" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P253" s="51">
         <v>30</v>
       </c>
-      <c r="Q242" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R242" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
-      </c>
-      <c r="S242" s="14">
-        <v>320</v>
-      </c>
-      <c r="T242" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A243" s="40">
-        <v>45874</v>
-      </c>
-      <c r="B243" s="40">
-        <v>45853</v>
-      </c>
-      <c r="C243" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D243" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E243" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F243" s="41">
-        <v>68465</v>
-      </c>
-      <c r="G243" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="H243" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="I243" s="42">
-        <f>NETWORKDAYS(B243, A243)</f>
-        <v>16</v>
-      </c>
-      <c r="J243" s="41">
-        <v>66555</v>
-      </c>
-      <c r="K243" s="41">
-        <v>11791</v>
-      </c>
-      <c r="L243" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="M243" s="40">
-        <v>45906</v>
-      </c>
-      <c r="N243" s="43">
-        <v>1075.55</v>
-      </c>
-      <c r="O243" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="P243" s="41">
-        <v>20</v>
-      </c>
-      <c r="Q243" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="R243" s="41">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>32</v>
-      </c>
-      <c r="S243" s="43">
-        <v>0</v>
-      </c>
-      <c r="T243" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A244" s="11">
-        <v>45867</v>
-      </c>
-      <c r="B244" s="11">
-        <v>45866</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F244" s="12">
-        <v>68483</v>
-      </c>
-      <c r="G244" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H244" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I244" s="13">
-        <f>NETWORKDAYS(B244, A244)</f>
-        <v>2</v>
-      </c>
-      <c r="J244" s="12">
-        <v>66467</v>
-      </c>
-      <c r="K244" s="12">
-        <v>11164</v>
-      </c>
-      <c r="L244" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="M244" s="11">
-        <v>45908</v>
-      </c>
-      <c r="N244" s="14">
-        <v>2623.03</v>
-      </c>
-      <c r="O244" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P244" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q244" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R244" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
-      </c>
-      <c r="S244" s="14">
-        <v>52</v>
-      </c>
-      <c r="T244" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="6">
-        <v>45874</v>
-      </c>
-      <c r="B245" s="6">
-        <v>45874</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G245" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H245" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I245" s="10">
-        <f>NETWORKDAYS(B245, A245)</f>
-        <v>1</v>
-      </c>
-      <c r="J245" s="7">
-        <v>64425</v>
-      </c>
-      <c r="K245" s="7">
-        <v>2954</v>
-      </c>
-      <c r="L245" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M245" s="6">
-        <v>45876</v>
-      </c>
-      <c r="N245" s="8">
-        <v>255.15</v>
-      </c>
-      <c r="O245" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P245" s="7">
+      <c r="Q253" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="R253" s="51">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>30</v>
       </c>
-      <c r="Q245" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R245" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
-      </c>
-      <c r="S245" s="8">
-        <v>0</v>
-      </c>
-      <c r="T245" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A246" s="11">
-        <v>45870</v>
-      </c>
-      <c r="B246" s="11">
-        <v>45870</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E246" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F246" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G246" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H246" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I246" s="13">
-        <f>NETWORKDAYS(B246, A246)</f>
-        <v>1</v>
-      </c>
-      <c r="J246" s="12">
-        <v>66430</v>
-      </c>
-      <c r="K246" s="12">
-        <v>333</v>
-      </c>
-      <c r="L246" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="M246" s="11">
-        <v>46113</v>
-      </c>
-      <c r="N246" s="14">
-        <v>281569.34000000003</v>
-      </c>
-      <c r="O246" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P246" s="12">
-        <v>120</v>
-      </c>
-      <c r="Q246" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R246" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>243</v>
-      </c>
-      <c r="S246" s="14">
-        <v>0</v>
-      </c>
-      <c r="T246" s="14">
+      <c r="S253" s="53">
+        <v>0</v>
+      </c>
+      <c r="T253" s="53">
         <v>0</v>
       </c>
     </row>
@@ -18168,7 +18629,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18176,7 +18637,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 592 dias para vencer</v>
+        <v>Faltam 589 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -18194,7 +18655,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18202,7 +18663,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 308 dias</v>
+        <v>Venceu há 311 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -18220,7 +18681,7 @@
       </c>
       <c r="E4" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F4" s="37" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18228,7 +18689,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 16 dias</v>
+        <v>Venceu há 19 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -18246,7 +18707,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18272,7 +18733,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18298,7 +18759,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18306,7 +18767,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 140 dias</v>
+        <v>Venceu há 143 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -18324,7 +18785,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18332,7 +18793,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 883 dias</v>
+        <v>Venceu há 886 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -18350,7 +18811,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18358,7 +18819,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 408 dias para vencer</v>
+        <v>Faltam 405 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -18376,7 +18837,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18384,7 +18845,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 329 dias para vencer</v>
+        <v>Faltam 326 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -18402,7 +18863,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18410,7 +18871,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 118 dias para vencer</v>
+        <v>Faltam 115 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -19150,10 +19611,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6577E-1BBE-47C5-96B8-0E0691F59A60}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19655,7 +20116,7 @@
         <v>11781</v>
       </c>
       <c r="E29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -19672,7 +20133,7 @@
         <v>11782</v>
       </c>
       <c r="E30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -19689,7 +20150,7 @@
         <v>11783</v>
       </c>
       <c r="E31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -19706,7 +20167,7 @@
         <v>11784</v>
       </c>
       <c r="E32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -19723,7 +20184,7 @@
         <v>11785</v>
       </c>
       <c r="E33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -19740,7 +20201,7 @@
         <v>11786</v>
       </c>
       <c r="E34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -19757,7 +20218,7 @@
         <v>11787</v>
       </c>
       <c r="E35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -19774,7 +20235,7 @@
         <v>11788</v>
       </c>
       <c r="E36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -19791,7 +20252,7 @@
         <v>11790</v>
       </c>
       <c r="E37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -19808,7 +20269,41 @@
         <v>11791</v>
       </c>
       <c r="E38" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="17">
+        <v>45875</v>
+      </c>
+      <c r="B39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39">
+        <v>11792</v>
+      </c>
+      <c r="E39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="17">
+        <v>45875</v>
+      </c>
+      <c r="B40" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40">
+        <v>11793</v>
+      </c>
+      <c r="E40" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -19835,30 +20330,30 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="46">
+        <v>379</v>
+      </c>
+      <c r="B2" s="42">
         <v>0.7</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="43">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="44">
         <f>C2/B2-1</f>
         <v>-0.90571428571428569</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="44">
+        <v>380</v>
+      </c>
+      <c r="B3" s="40">
         <v>0.5</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="40">
         <v>0.2</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="41">
         <f>C3/B3-1</f>
         <v>-0.6</v>
       </c>
@@ -19869,18 +20364,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20010,6 +20505,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -20021,14 +20524,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup_background\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\splfps01\data$\GROUP\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BCA624-6BCE-418F-BDC7-4FF5DB4EE752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348A454-B154-4B28-BAF7-6870D59D9686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="409">
   <si>
     <t>SC</t>
   </si>
@@ -1446,7 +1446,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1512,9 +1512,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,15 +1519,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1577,6 +1565,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1760,8 +1751,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T253" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T253" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T254" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T254" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
@@ -1769,8 +1760,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T251">
-    <sortCondition ref="M1:M251"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T252">
+    <sortCondition ref="M1:M254"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -2135,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T253"/>
+  <dimension ref="A1:T254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H260" sqref="H260"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L188" sqref="L188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2830,7 +2821,7 @@
         <v>364</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
+        <f>NETWORKDAYS(B11, A11)</f>
         <v>1</v>
       </c>
       <c r="J11" s="12">
@@ -2894,7 +2885,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B12, A12)</f>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2958,7 +2949,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B13, A13)</f>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -3022,7 +3013,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B14, A14)</f>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3086,7 +3077,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B15, A15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3150,7 +3141,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B16, A16)</f>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3214,7 +3205,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B17, A17)</f>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3278,7 +3269,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B18, A18)</f>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3342,7 +3333,7 @@
         <v>91</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B19, A19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3406,7 +3397,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B20, A20)</f>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3470,7 +3461,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B21, A21)</f>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3534,7 +3525,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B22, A22)</f>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3573,66 +3564,66 @@
       </c>
     </row>
     <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>45790</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>45789</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>68383</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="34">
-        <f t="shared" si="1"/>
+      <c r="I23" s="30">
+        <f>NETWORKDAYS(B23, A23)</f>
         <v>2</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <v>65427</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="28">
         <v>74</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="27">
         <v>45798</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="29">
         <v>1529.01</v>
       </c>
-      <c r="O23" s="29" t="s">
+      <c r="O23" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="28">
         <v>28</v>
       </c>
-      <c r="Q23" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="R23" s="29">
+      <c r="Q23" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R23" s="28">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>8</v>
       </c>
-      <c r="S23" s="30">
-        <v>0</v>
-      </c>
-      <c r="T23" s="30">
+      <c r="S23" s="29">
+        <v>0</v>
+      </c>
+      <c r="T23" s="29">
         <v>0</v>
       </c>
     </row>
@@ -3662,7 +3653,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B24, A24)</f>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3726,7 +3717,7 @@
         <v>126</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B25, A25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3790,7 +3781,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B26, A26)</f>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3854,7 +3845,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B27, A27)</f>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3918,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B28, A28)</f>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -3982,7 +3973,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B29, A29)</f>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4046,7 +4037,7 @@
         <v>138</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B30, A30)</f>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4110,7 +4101,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B31, A31)</f>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4174,7 +4165,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B32, A32)</f>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4238,7 +4229,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B33, A33)</f>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4302,7 +4293,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B34, A34)</f>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -4366,7 +4357,7 @@
         <v>130</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B35, A35)</f>
         <v>37</v>
       </c>
       <c r="J35" s="7">
@@ -4430,7 +4421,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B36, A36)</f>
         <v>4</v>
       </c>
       <c r="J36" s="7">
@@ -4494,7 +4485,7 @@
         <v>91</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B37, A37)</f>
         <v>3</v>
       </c>
       <c r="J37" s="7">
@@ -4558,7 +4549,7 @@
         <v>91</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B38, A38)</f>
         <v>3</v>
       </c>
       <c r="J38" s="7">
@@ -4622,7 +4613,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B39, A39)</f>
         <v>1</v>
       </c>
       <c r="J39" s="7">
@@ -4686,7 +4677,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B40, A40)</f>
         <v>1</v>
       </c>
       <c r="J40" s="7">
@@ -4750,7 +4741,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B41, A41)</f>
         <v>1</v>
       </c>
       <c r="J41" s="7">
@@ -4814,7 +4805,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B42, A42)</f>
         <v>9</v>
       </c>
       <c r="J42" s="7">
@@ -4878,7 +4869,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B43, A43)</f>
         <v>1</v>
       </c>
       <c r="J43" s="7">
@@ -4942,7 +4933,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B44, A44)</f>
         <v>9</v>
       </c>
       <c r="J44" s="7">
@@ -5006,7 +4997,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B45, A45)</f>
         <v>9</v>
       </c>
       <c r="J45" s="7">
@@ -5070,7 +5061,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B46, A46)</f>
         <v>1</v>
       </c>
       <c r="J46" s="7">
@@ -5134,7 +5125,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B47, A47)</f>
         <v>2</v>
       </c>
       <c r="J47" s="7">
@@ -5198,7 +5189,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B48, A48)</f>
         <v>1</v>
       </c>
       <c r="J48" s="7">
@@ -5262,7 +5253,7 @@
         <v>130</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B49, A49)</f>
         <v>1</v>
       </c>
       <c r="J49" s="7">
@@ -5326,7 +5317,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B50, A50)</f>
         <v>1</v>
       </c>
       <c r="J50" s="7">
@@ -5390,7 +5381,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B51, A51)</f>
         <v>1</v>
       </c>
       <c r="J51" s="7">
@@ -5454,7 +5445,7 @@
         <v>98</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B52, A52)</f>
         <v>1</v>
       </c>
       <c r="J52" s="7">
@@ -5518,7 +5509,7 @@
         <v>98</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B53, A53)</f>
         <v>9</v>
       </c>
       <c r="J53" s="7">
@@ -5582,7 +5573,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B54, A54)</f>
         <v>1</v>
       </c>
       <c r="J54" s="7">
@@ -5620,67 +5611,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A55" s="11">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
         <v>45831</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="6">
         <v>45824</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="11" t="s">
+      <c r="C55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="7">
         <v>68439</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I55" s="13">
-        <f t="shared" si="1"/>
+      <c r="I55" s="10">
+        <f>NETWORKDAYS(B55, A55)</f>
         <v>6</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="7">
         <v>65915</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="7">
         <v>2201</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="L55" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="6">
         <v>45861</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N55" s="8">
         <v>1401.04</v>
       </c>
-      <c r="O55" s="12" t="s">
+      <c r="O55" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P55" s="12">
+      <c r="P55" s="7">
         <v>120</v>
       </c>
-      <c r="Q55" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R55" s="12">
+      <c r="Q55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R55" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>30</v>
       </c>
-      <c r="S55" s="14">
-        <v>0</v>
-      </c>
-      <c r="T55" s="14">
+      <c r="S55" s="8">
+        <v>0</v>
+      </c>
+      <c r="T55" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5710,7 +5701,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B56, A56)</f>
         <v>1</v>
       </c>
       <c r="J56" s="7">
@@ -5774,7 +5765,7 @@
         <v>96</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B57, A57)</f>
         <v>2</v>
       </c>
       <c r="J57" s="7">
@@ -5838,7 +5829,7 @@
         <v>32</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B58, A58)</f>
         <v>1</v>
       </c>
       <c r="J58" s="7">
@@ -5902,7 +5893,7 @@
         <v>32</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B59, A59)</f>
         <v>1</v>
       </c>
       <c r="J59" s="7">
@@ -5966,7 +5957,7 @@
         <v>32</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B60, A60)</f>
         <v>1</v>
       </c>
       <c r="J60" s="7">
@@ -6030,7 +6021,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B61, A61)</f>
         <v>10</v>
       </c>
       <c r="J61" s="7">
@@ -6094,7 +6085,7 @@
         <v>130</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B62, A62)</f>
         <v>1</v>
       </c>
       <c r="J62" s="7">
@@ -6158,7 +6149,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B63, A63)</f>
         <v>18</v>
       </c>
       <c r="J63" s="7">
@@ -6222,7 +6213,7 @@
         <v>91</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B64, A64)</f>
         <v>4</v>
       </c>
       <c r="J64" s="7">
@@ -6286,7 +6277,7 @@
         <v>98</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B65, A65)</f>
         <v>1</v>
       </c>
       <c r="J65" s="7">
@@ -6350,7 +6341,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B66, A66)</f>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6414,7 +6405,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B67, A67)</f>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6478,7 +6469,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B68, A68)</f>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6542,7 +6533,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B69, A69)</f>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6606,7 +6597,7 @@
         <v>98</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B70, A70)</f>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6670,7 +6661,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B71, A71)</f>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6734,7 +6725,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B72, A72)</f>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6798,7 +6789,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B73, A73)</f>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6862,7 +6853,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B74, A74)</f>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6926,7 +6917,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" ref="I75:I138" si="2">NETWORKDAYS(B75, A75)</f>
+        <f>NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -6990,7 +6981,7 @@
         <v>91</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B76, A76)</f>
         <v>3</v>
       </c>
       <c r="J76" s="7">
@@ -7054,7 +7045,7 @@
         <v>98</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B77, A77)</f>
         <v>2</v>
       </c>
       <c r="J77" s="7">
@@ -7118,7 +7109,7 @@
         <v>32</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B78, A78)</f>
         <v>1</v>
       </c>
       <c r="J78" s="7">
@@ -7182,7 +7173,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B79, A79)</f>
         <v>1</v>
       </c>
       <c r="J79" s="7">
@@ -7246,7 +7237,7 @@
         <v>138</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B80, A80)</f>
         <v>1</v>
       </c>
       <c r="J80" s="7">
@@ -7310,7 +7301,7 @@
         <v>130</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B81, A81)</f>
         <v>1</v>
       </c>
       <c r="J81" s="7">
@@ -7374,7 +7365,7 @@
         <v>98</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B82, A82)</f>
         <v>1</v>
       </c>
       <c r="J82" s="7">
@@ -7438,7 +7429,7 @@
         <v>130</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B83, A83)</f>
         <v>1</v>
       </c>
       <c r="J83" s="7">
@@ -7502,7 +7493,7 @@
         <v>98</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B84, A84)</f>
         <v>2</v>
       </c>
       <c r="J84" s="7">
@@ -7566,7 +7557,7 @@
         <v>98</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B85, A85)</f>
         <v>2</v>
       </c>
       <c r="J85" s="7">
@@ -7605,66 +7596,66 @@
       </c>
     </row>
     <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <v>45810</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B86" s="27">
         <v>45807</v>
       </c>
-      <c r="C86" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="28" t="s">
+      <c r="C86" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="28">
         <v>68413</v>
       </c>
-      <c r="G86" s="29" t="s">
+      <c r="G86" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H86" s="29" t="s">
+      <c r="H86" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I86" s="34">
-        <f t="shared" si="2"/>
+      <c r="I86" s="30">
+        <f>NETWORKDAYS(B86, A86)</f>
         <v>2</v>
       </c>
-      <c r="J86" s="29">
+      <c r="J86" s="28">
         <v>65606</v>
       </c>
-      <c r="K86" s="29">
+      <c r="K86" s="28">
         <v>2937</v>
       </c>
-      <c r="L86" s="29" t="s">
+      <c r="L86" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="M86" s="28">
+      <c r="M86" s="27">
         <v>45853</v>
       </c>
-      <c r="N86" s="30">
+      <c r="N86" s="29">
         <v>2389.6999999999998</v>
       </c>
-      <c r="O86" s="29" t="s">
+      <c r="O86" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="P86" s="29">
+      <c r="P86" s="28">
         <v>28</v>
       </c>
-      <c r="Q86" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="R86" s="29">
+      <c r="Q86" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R86" s="28">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>43</v>
       </c>
-      <c r="S86" s="30">
-        <v>0</v>
-      </c>
-      <c r="T86" s="30">
+      <c r="S86" s="29">
+        <v>0</v>
+      </c>
+      <c r="T86" s="29">
         <v>0</v>
       </c>
     </row>
@@ -7694,7 +7685,7 @@
         <v>34</v>
       </c>
       <c r="I87" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B87, A87)</f>
         <v>1</v>
       </c>
       <c r="J87" s="7">
@@ -7758,7 +7749,7 @@
         <v>32</v>
       </c>
       <c r="I88" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B88, A88)</f>
         <v>1</v>
       </c>
       <c r="J88" s="7">
@@ -7822,7 +7813,7 @@
         <v>126</v>
       </c>
       <c r="I89" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B89, A89)</f>
         <v>1</v>
       </c>
       <c r="J89" s="7">
@@ -7886,7 +7877,7 @@
         <v>98</v>
       </c>
       <c r="I90" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B90, A90)</f>
         <v>1</v>
       </c>
       <c r="J90" s="7">
@@ -7950,7 +7941,7 @@
         <v>32</v>
       </c>
       <c r="I91" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B91, A91)</f>
         <v>1</v>
       </c>
       <c r="J91" s="7">
@@ -8014,7 +8005,7 @@
         <v>98</v>
       </c>
       <c r="I92" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B92, A92)</f>
         <v>4</v>
       </c>
       <c r="J92" s="7">
@@ -8078,7 +8069,7 @@
         <v>126</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B93, A93)</f>
         <v>3</v>
       </c>
       <c r="J93" s="7">
@@ -8142,7 +8133,7 @@
         <v>126</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B94, A94)</f>
         <v>1</v>
       </c>
       <c r="J94" s="7">
@@ -8206,7 +8197,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B95, A95)</f>
         <v>2</v>
       </c>
       <c r="J95" s="7">
@@ -8270,7 +8261,7 @@
         <v>130</v>
       </c>
       <c r="I96" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B96, A96)</f>
         <v>1</v>
       </c>
       <c r="J96" s="7">
@@ -8334,7 +8325,7 @@
         <v>138</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B97, A97)</f>
         <v>1</v>
       </c>
       <c r="J97" s="7">
@@ -8398,7 +8389,7 @@
         <v>98</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B98, A98)</f>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8462,7 +8453,7 @@
         <v>130</v>
       </c>
       <c r="I99" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B99, A99)</f>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8526,7 +8517,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B100, A100)</f>
         <v>24</v>
       </c>
       <c r="J100" s="7">
@@ -8590,7 +8581,7 @@
         <v>126</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B101, A101)</f>
         <v>25</v>
       </c>
       <c r="J101" s="7">
@@ -8654,7 +8645,7 @@
         <v>98</v>
       </c>
       <c r="I102" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B102, A102)</f>
         <v>1</v>
       </c>
       <c r="J102" s="7">
@@ -8718,7 +8709,7 @@
         <v>91</v>
       </c>
       <c r="I103" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B103, A103)</f>
         <v>3</v>
       </c>
       <c r="J103" s="7">
@@ -8782,7 +8773,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B104, A104)</f>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8846,7 +8837,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B105, A105)</f>
         <v>1</v>
       </c>
       <c r="J105" s="7">
@@ -8910,7 +8901,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B106, A106)</f>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -8974,7 +8965,7 @@
         <v>98</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B107, A107)</f>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9038,7 +9029,7 @@
         <v>96</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B108, A108)</f>
         <v>6</v>
       </c>
       <c r="J108" s="7">
@@ -9102,7 +9093,7 @@
         <v>91</v>
       </c>
       <c r="I109" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B109, A109)</f>
         <v>4</v>
       </c>
       <c r="J109" s="7">
@@ -9166,7 +9157,7 @@
         <v>91</v>
       </c>
       <c r="I110" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B110, A110)</f>
         <v>4</v>
       </c>
       <c r="J110" s="7">
@@ -9230,7 +9221,7 @@
         <v>91</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B111, A111)</f>
         <v>4</v>
       </c>
       <c r="J111" s="7">
@@ -9268,67 +9259,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A112" s="31">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="6">
         <v>45798</v>
       </c>
-      <c r="B112" s="31">
+      <c r="B112" s="6">
         <v>45786</v>
       </c>
-      <c r="C112" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="31" t="s">
+      <c r="C112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="31" t="s">
+      <c r="E112" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="32">
+      <c r="F112" s="7">
         <v>68378</v>
       </c>
-      <c r="G112" s="32" t="s">
+      <c r="G112" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H112" s="32" t="s">
+      <c r="H112" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I112" s="27">
-        <f t="shared" si="2"/>
+      <c r="I112" s="10">
+        <f>NETWORKDAYS(B112, A112)</f>
         <v>9</v>
       </c>
-      <c r="J112" s="32">
+      <c r="J112" s="7">
         <v>65472</v>
       </c>
-      <c r="K112" s="32">
+      <c r="K112" s="7">
         <v>2201</v>
       </c>
-      <c r="L112" s="32" t="s">
+      <c r="L112" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M112" s="31">
+      <c r="M112" s="6">
         <v>45869</v>
       </c>
-      <c r="N112" s="33">
+      <c r="N112" s="8">
         <v>26920</v>
       </c>
-      <c r="O112" s="32" t="s">
+      <c r="O112" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P112" s="32">
+      <c r="P112" s="7">
         <v>28</v>
       </c>
-      <c r="Q112" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="R112" s="32">
+      <c r="Q112" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R112" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>71</v>
       </c>
-      <c r="S112" s="33">
-        <v>0</v>
-      </c>
-      <c r="T112" s="33">
+      <c r="S112" s="8">
+        <v>0</v>
+      </c>
+      <c r="T112" s="8">
         <v>0</v>
       </c>
     </row>
@@ -9358,7 +9349,7 @@
         <v>32</v>
       </c>
       <c r="I113" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B113, A113)</f>
         <v>1</v>
       </c>
       <c r="J113" s="7">
@@ -9422,7 +9413,7 @@
         <v>96</v>
       </c>
       <c r="I114" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B114, A114)</f>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9486,7 +9477,7 @@
         <v>91</v>
       </c>
       <c r="I115" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B115, A115)</f>
         <v>2</v>
       </c>
       <c r="J115" s="7">
@@ -9550,7 +9541,7 @@
         <v>32</v>
       </c>
       <c r="I116" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B116, A116)</f>
         <v>1</v>
       </c>
       <c r="J116" s="7">
@@ -9614,7 +9605,7 @@
         <v>98</v>
       </c>
       <c r="I117" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B117, A117)</f>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9678,7 +9669,7 @@
         <v>91</v>
       </c>
       <c r="I118" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B118, A118)</f>
         <v>5</v>
       </c>
       <c r="J118" s="7">
@@ -9742,7 +9733,7 @@
         <v>91</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B119, A119)</f>
         <v>1</v>
       </c>
       <c r="J119" s="7">
@@ -9806,7 +9797,7 @@
         <v>91</v>
       </c>
       <c r="I120" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B120, A120)</f>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9870,7 +9861,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B121, A121)</f>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9934,7 +9925,7 @@
         <v>126</v>
       </c>
       <c r="I122" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B122, A122)</f>
         <v>18</v>
       </c>
       <c r="J122" s="7">
@@ -9998,7 +9989,7 @@
         <v>91</v>
       </c>
       <c r="I123" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B123, A123)</f>
         <v>1</v>
       </c>
       <c r="J123" s="7">
@@ -10062,7 +10053,7 @@
         <v>34</v>
       </c>
       <c r="I124" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B124, A124)</f>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10126,7 +10117,7 @@
         <v>130</v>
       </c>
       <c r="I125" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B125, A125)</f>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10190,7 +10181,7 @@
         <v>130</v>
       </c>
       <c r="I126" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B126, A126)</f>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10254,7 +10245,7 @@
         <v>98</v>
       </c>
       <c r="I127" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B127, A127)</f>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10318,7 +10309,7 @@
         <v>130</v>
       </c>
       <c r="I128" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B128, A128)</f>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10382,7 +10373,7 @@
         <v>32</v>
       </c>
       <c r="I129" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B129, A129)</f>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10446,7 +10437,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B130, A130)</f>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10510,7 +10501,7 @@
         <v>91</v>
       </c>
       <c r="I131" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B131, A131)</f>
         <v>2</v>
       </c>
       <c r="J131" s="7">
@@ -10574,7 +10565,7 @@
         <v>126</v>
       </c>
       <c r="I132" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B132, A132)</f>
         <v>28</v>
       </c>
       <c r="J132" s="7">
@@ -10638,7 +10629,7 @@
         <v>98</v>
       </c>
       <c r="I133" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B133, A133)</f>
         <v>7</v>
       </c>
       <c r="J133" s="7">
@@ -10702,7 +10693,7 @@
         <v>126</v>
       </c>
       <c r="I134" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B134, A134)</f>
         <v>6</v>
       </c>
       <c r="J134" s="7">
@@ -10766,7 +10757,7 @@
         <v>126</v>
       </c>
       <c r="I135" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B135, A135)</f>
         <v>7</v>
       </c>
       <c r="J135" s="7">
@@ -10830,7 +10821,7 @@
         <v>32</v>
       </c>
       <c r="I136" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B136, A136)</f>
         <v>1</v>
       </c>
       <c r="J136" s="7">
@@ -10894,7 +10885,7 @@
         <v>98</v>
       </c>
       <c r="I137" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B137, A137)</f>
         <v>2</v>
       </c>
       <c r="J137" s="7">
@@ -10958,7 +10949,7 @@
         <v>98</v>
       </c>
       <c r="I138" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B138, A138)</f>
         <v>7</v>
       </c>
       <c r="J138" s="7">
@@ -11022,7 +11013,7 @@
         <v>98</v>
       </c>
       <c r="I139" s="10">
-        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
+        <f>NETWORKDAYS(B139, A139)</f>
         <v>18</v>
       </c>
       <c r="J139" s="7">
@@ -11086,7 +11077,7 @@
         <v>91</v>
       </c>
       <c r="I140" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B140, A140)</f>
         <v>6</v>
       </c>
       <c r="J140" s="7">
@@ -11150,7 +11141,7 @@
         <v>130</v>
       </c>
       <c r="I141" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B141, A141)</f>
         <v>1</v>
       </c>
       <c r="J141" s="7">
@@ -11214,7 +11205,7 @@
         <v>372</v>
       </c>
       <c r="I142" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B142, A142)</f>
         <v>1</v>
       </c>
       <c r="J142" s="7">
@@ -11278,7 +11269,7 @@
         <v>98</v>
       </c>
       <c r="I143" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B143, A143)</f>
         <v>1</v>
       </c>
       <c r="J143" s="7">
@@ -11342,7 +11333,7 @@
         <v>34</v>
       </c>
       <c r="I144" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B144, A144)</f>
         <v>1</v>
       </c>
       <c r="J144" s="7">
@@ -11380,126 +11371,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A145" s="11">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
         <v>45839</v>
       </c>
-      <c r="B145" s="11">
+      <c r="B145" s="6">
         <v>45824</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="11" t="s">
+      <c r="C145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F145" s="12">
+      <c r="F145" s="7">
         <v>68438</v>
       </c>
-      <c r="G145" s="12" t="s">
+      <c r="G145" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H145" s="12" t="s">
+      <c r="H145" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I145" s="13">
-        <f t="shared" si="3"/>
+      <c r="I145" s="10">
+        <f>NETWORKDAYS(B145, A145)</f>
         <v>12</v>
       </c>
-      <c r="J145" s="12">
+      <c r="J145" s="7">
         <v>66025</v>
       </c>
-      <c r="K145" s="12">
+      <c r="K145" s="7">
         <v>3034</v>
       </c>
-      <c r="L145" s="12" t="s">
+      <c r="L145" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="M145" s="11">
+      <c r="M145" s="6">
         <v>45874</v>
       </c>
-      <c r="N145" s="14">
+      <c r="N145" s="8">
         <v>2087</v>
       </c>
-      <c r="O145" s="12" t="s">
+      <c r="O145" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P145" s="12">
+      <c r="P145" s="7">
         <v>90</v>
       </c>
-      <c r="Q145" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R145" s="12">
+      <c r="Q145" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R145" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>35</v>
       </c>
-      <c r="S145" s="14">
-        <v>0</v>
-      </c>
-      <c r="T145" s="14">
+      <c r="S145" s="8">
+        <v>0</v>
+      </c>
+      <c r="T145" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
-        <v>45868</v>
+        <v>45818</v>
       </c>
       <c r="B146" s="11">
-        <v>45868</v>
+        <v>45813</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>394</v>
+        <v>124</v>
       </c>
       <c r="F146" s="12">
-        <v>68487</v>
+        <v>68422</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>395</v>
+        <v>90</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I146" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B146, A146)</f>
+        <v>4</v>
       </c>
       <c r="J146" s="12">
-        <v>66489</v>
+        <v>65725</v>
       </c>
       <c r="K146" s="12">
-        <v>11614</v>
+        <v>1450</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>396</v>
+        <v>229</v>
       </c>
       <c r="M146" s="11">
-        <v>45874</v>
+        <v>45877</v>
       </c>
       <c r="N146" s="14">
-        <v>6633</v>
+        <v>239.63</v>
       </c>
       <c r="O146" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P146" s="12">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="Q146" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R146" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="S146" s="14">
         <v>0</v>
@@ -11534,7 +11525,7 @@
         <v>98</v>
       </c>
       <c r="I147" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B147, A147)</f>
         <v>1</v>
       </c>
       <c r="J147" s="7">
@@ -11598,7 +11589,7 @@
         <v>138</v>
       </c>
       <c r="I148" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B148, A148)</f>
         <v>1</v>
       </c>
       <c r="J148" s="7">
@@ -11662,7 +11653,7 @@
         <v>91</v>
       </c>
       <c r="I149" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B149, A149)</f>
         <v>9</v>
       </c>
       <c r="J149" s="7">
@@ -11726,7 +11717,7 @@
         <v>130</v>
       </c>
       <c r="I150" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B150, A150)</f>
         <v>1</v>
       </c>
       <c r="J150" s="7">
@@ -11790,7 +11781,7 @@
         <v>32</v>
       </c>
       <c r="I151" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B151, A151)</f>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11854,7 +11845,7 @@
         <v>91</v>
       </c>
       <c r="I152" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B152, A152)</f>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11918,7 +11909,7 @@
         <v>32</v>
       </c>
       <c r="I153" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B153, A153)</f>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -11982,7 +11973,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B154, A154)</f>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12046,7 +12037,7 @@
         <v>130</v>
       </c>
       <c r="I155" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B155, A155)</f>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12110,7 +12101,7 @@
         <v>98</v>
       </c>
       <c r="I156" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B156, A156)</f>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12174,7 +12165,7 @@
         <v>91</v>
       </c>
       <c r="I157" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B157, A157)</f>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12238,7 +12229,7 @@
         <v>91</v>
       </c>
       <c r="I158" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B158, A158)</f>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12302,7 +12293,7 @@
         <v>32</v>
       </c>
       <c r="I159" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B159, A159)</f>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12366,7 +12357,7 @@
         <v>32</v>
       </c>
       <c r="I160" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B160, A160)</f>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12430,7 +12421,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B161, A161)</f>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12494,7 +12485,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B162, A162)</f>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12558,7 +12549,7 @@
         <v>185</v>
       </c>
       <c r="I163" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B163, A163)</f>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12622,7 +12613,7 @@
         <v>91</v>
       </c>
       <c r="I164" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B164, A164)</f>
         <v>17</v>
       </c>
       <c r="J164" s="7">
@@ -12686,7 +12677,7 @@
         <v>98</v>
       </c>
       <c r="I165" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B165, A165)</f>
         <v>2</v>
       </c>
       <c r="J165" s="7">
@@ -12750,7 +12741,7 @@
         <v>91</v>
       </c>
       <c r="I166" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B166, A166)</f>
         <v>4</v>
       </c>
       <c r="J166" s="7">
@@ -12814,7 +12805,7 @@
         <v>130</v>
       </c>
       <c r="I167" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B167, A167)</f>
         <v>5</v>
       </c>
       <c r="J167" s="7">
@@ -12878,7 +12869,7 @@
         <v>32</v>
       </c>
       <c r="I168" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B168, A168)</f>
         <v>1</v>
       </c>
       <c r="J168" s="7">
@@ -12942,7 +12933,7 @@
         <v>130</v>
       </c>
       <c r="I169" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B169, A169)</f>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -13006,7 +12997,7 @@
         <v>130</v>
       </c>
       <c r="I170" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B170, A170)</f>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13044,67 +13035,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A171" s="11">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="6">
         <v>45861</v>
       </c>
-      <c r="B171" s="11">
+      <c r="B171" s="6">
         <v>45861</v>
       </c>
-      <c r="C171" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" s="11" t="s">
+      <c r="C171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F171" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G171" s="12" t="s">
+      <c r="F171" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H171" s="12" t="s">
+      <c r="H171" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I171" s="13">
-        <f t="shared" si="3"/>
+      <c r="I171" s="10">
+        <f>NETWORKDAYS(B171, A171)</f>
         <v>1</v>
       </c>
-      <c r="J171" s="12">
+      <c r="J171" s="7">
         <v>66301</v>
       </c>
-      <c r="K171" s="12">
+      <c r="K171" s="7">
         <v>1522</v>
       </c>
-      <c r="L171" s="12" t="s">
+      <c r="L171" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="M171" s="11">
+      <c r="M171" s="6">
         <v>45875</v>
       </c>
-      <c r="N171" s="14">
+      <c r="N171" s="8">
         <v>1023.45</v>
       </c>
-      <c r="O171" s="12" t="s">
+      <c r="O171" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P171" s="12">
+      <c r="P171" s="7">
         <v>28</v>
       </c>
-      <c r="Q171" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R171" s="12">
+      <c r="Q171" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R171" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>14</v>
       </c>
-      <c r="S171" s="14">
-        <v>0</v>
-      </c>
-      <c r="T171" s="14">
+      <c r="S171" s="8">
+        <v>0</v>
+      </c>
+      <c r="T171" s="8">
         <v>141.4</v>
       </c>
     </row>
@@ -13134,7 +13125,7 @@
         <v>130</v>
       </c>
       <c r="I172" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B172, A172)</f>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13174,10 +13165,10 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
-        <v>45868</v>
+        <v>45849</v>
       </c>
       <c r="B173" s="11">
-        <v>45862</v>
+        <v>45849</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>7</v>
@@ -13188,49 +13179,49 @@
       <c r="E173" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F173" s="12">
-        <v>68476</v>
+      <c r="F173" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>98</v>
+        <v>372</v>
       </c>
       <c r="I173" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>NETWORKDAYS(B173, A173)</f>
+        <v>1</v>
       </c>
       <c r="J173" s="12">
-        <v>66491</v>
+        <v>66166</v>
       </c>
       <c r="K173" s="12">
-        <v>11522</v>
+        <v>11782</v>
       </c>
       <c r="L173" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M173" s="11">
-        <v>45875</v>
+        <v>45880</v>
       </c>
       <c r="N173" s="14">
-        <v>398.42</v>
+        <v>2250</v>
       </c>
       <c r="O173" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P173" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q173" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R173" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="S173" s="14">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T173" s="14">
         <v>0</v>
@@ -13262,7 +13253,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B174, A174)</f>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13326,7 +13317,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B175, A175)</f>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13390,7 +13381,7 @@
         <v>138</v>
       </c>
       <c r="I176" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B176, A176)</f>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13454,7 +13445,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B177, A177)</f>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13518,7 +13509,7 @@
         <v>130</v>
       </c>
       <c r="I178" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B178, A178)</f>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13582,7 +13573,7 @@
         <v>34</v>
       </c>
       <c r="I179" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B179, A179)</f>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13621,66 +13612,66 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A180" s="11">
-        <v>45818</v>
-      </c>
-      <c r="B180" s="11">
-        <v>45813</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="11" t="s">
+      <c r="A180" s="41">
+        <v>45826</v>
+      </c>
+      <c r="B180" s="41">
+        <v>45826</v>
+      </c>
+      <c r="C180" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E180" s="11" t="s">
+      <c r="E180" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F180" s="12">
-        <v>68422</v>
-      </c>
-      <c r="G180" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H180" s="12" t="s">
-        <v>91</v>
+      <c r="F180" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G180" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H180" s="42" t="s">
+        <v>126</v>
       </c>
       <c r="I180" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J180" s="12">
-        <v>65725</v>
-      </c>
-      <c r="K180" s="12">
-        <v>1450</v>
-      </c>
-      <c r="L180" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="M180" s="11">
-        <v>45877</v>
-      </c>
-      <c r="N180" s="14">
-        <v>239.63</v>
-      </c>
-      <c r="O180" s="12" t="s">
+        <f>NETWORKDAYS(B180, A180)</f>
+        <v>1</v>
+      </c>
+      <c r="J180" s="42">
+        <v>66341</v>
+      </c>
+      <c r="K180" s="42">
+        <v>11758</v>
+      </c>
+      <c r="L180" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M180" s="41">
+        <v>45881</v>
+      </c>
+      <c r="N180" s="43">
+        <v>924.61</v>
+      </c>
+      <c r="O180" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="P180" s="12">
-        <v>120</v>
-      </c>
-      <c r="Q180" s="12" t="s">
+      <c r="P180" s="42">
+        <v>28</v>
+      </c>
+      <c r="Q180" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R180" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
-      </c>
-      <c r="S180" s="14">
-        <v>0</v>
-      </c>
-      <c r="T180" s="14">
+      <c r="R180" s="42">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>55</v>
+      </c>
+      <c r="S180" s="43">
+        <v>0</v>
+      </c>
+      <c r="T180" s="43">
         <v>0</v>
       </c>
     </row>
@@ -13710,7 +13701,7 @@
         <v>91</v>
       </c>
       <c r="I181" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B181, A181)</f>
         <v>1</v>
       </c>
       <c r="J181" s="7">
@@ -13750,60 +13741,60 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="B182" s="11">
-        <v>45867</v>
+        <v>45846</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F182" s="12">
-        <v>68485</v>
+        <v>68456</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>372</v>
+        <v>91</v>
       </c>
       <c r="I182" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>NETWORKDAYS(B182, A182)</f>
+        <v>1</v>
       </c>
       <c r="J182" s="12">
-        <v>66526</v>
+        <v>66118</v>
       </c>
       <c r="K182" s="12">
-        <v>3061</v>
+        <v>2289</v>
       </c>
       <c r="L182" s="12" t="s">
-        <v>192</v>
+        <v>360</v>
       </c>
       <c r="M182" s="11">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="N182" s="14">
-        <v>1150</v>
+        <v>607.57000000000005</v>
       </c>
       <c r="O182" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P182" s="12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R182" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S182" s="14">
         <v>0</v>
@@ -13813,66 +13804,66 @@
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A183" s="45">
-        <v>45826</v>
-      </c>
-      <c r="B183" s="45">
-        <v>45826</v>
-      </c>
-      <c r="C183" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E183" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="F183" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G183" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H183" s="46" t="s">
-        <v>126</v>
+      <c r="A183" s="11">
+        <v>45785</v>
+      </c>
+      <c r="B183" s="11">
+        <v>45784</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F183" s="12">
+        <v>68369</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H183" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="I183" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J183" s="46">
-        <v>66341</v>
-      </c>
-      <c r="K183" s="46">
-        <v>11758</v>
-      </c>
-      <c r="L183" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M183" s="45">
-        <v>45880</v>
-      </c>
-      <c r="N183" s="47">
-        <v>924.61</v>
-      </c>
-      <c r="O183" s="46" t="s">
+        <f>NETWORKDAYS(B183, A183)</f>
+        <v>2</v>
+      </c>
+      <c r="J183" s="12">
+        <v>65234</v>
+      </c>
+      <c r="K183" s="12">
+        <v>11610</v>
+      </c>
+      <c r="L183" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M183" s="11">
+        <v>45881</v>
+      </c>
+      <c r="N183" s="14">
+        <v>9114.5499999999993</v>
+      </c>
+      <c r="O183" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P183" s="46">
+      <c r="P183" s="12">
         <v>28</v>
       </c>
-      <c r="Q183" s="46" t="s">
+      <c r="Q183" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R183" s="46">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>54</v>
-      </c>
-      <c r="S183" s="47">
-        <v>0</v>
-      </c>
-      <c r="T183" s="47">
+      <c r="R183" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>96</v>
+      </c>
+      <c r="S183" s="14">
+        <v>183.5</v>
+      </c>
+      <c r="T183" s="14">
         <v>0</v>
       </c>
     </row>
@@ -13902,7 +13893,7 @@
         <v>98</v>
       </c>
       <c r="I184" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B184, A184)</f>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13966,7 +13957,7 @@
         <v>34</v>
       </c>
       <c r="I185" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B185, A185)</f>
         <v>1</v>
       </c>
       <c r="J185" s="7">
@@ -14030,7 +14021,7 @@
         <v>96</v>
       </c>
       <c r="I186" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B186, A186)</f>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14094,7 +14085,7 @@
         <v>32</v>
       </c>
       <c r="I187" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B187, A187)</f>
         <v>1</v>
       </c>
       <c r="J187" s="7">
@@ -14134,63 +14125,63 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" s="11">
-        <v>45849</v>
+        <v>45868</v>
       </c>
       <c r="B188" s="11">
-        <v>45849</v>
+        <v>45868</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F188" s="12" t="s">
-        <v>3</v>
+        <v>394</v>
+      </c>
+      <c r="F188" s="12">
+        <v>68487</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>372</v>
+        <v>96</v>
       </c>
       <c r="I188" s="13">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B188, A188)</f>
         <v>1</v>
       </c>
       <c r="J188" s="12">
-        <v>66166</v>
+        <v>66489</v>
       </c>
       <c r="K188" s="12">
-        <v>11782</v>
+        <v>11614</v>
       </c>
       <c r="L188" s="12" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="M188" s="11">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="N188" s="14">
-        <v>2250</v>
+        <v>6633</v>
       </c>
       <c r="O188" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P188" s="12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R188" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="S188" s="14">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="T188" s="14">
         <v>0</v>
@@ -14222,7 +14213,7 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B189, A189)</f>
         <v>1</v>
       </c>
       <c r="J189" s="7">
@@ -14286,7 +14277,7 @@
         <v>91</v>
       </c>
       <c r="I190" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B190, A190)</f>
         <v>1</v>
       </c>
       <c r="J190" s="7">
@@ -14350,7 +14341,7 @@
         <v>34</v>
       </c>
       <c r="I191" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B191, A191)</f>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14390,60 +14381,60 @@
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
-        <v>45846</v>
+        <v>45868</v>
       </c>
       <c r="B192" s="11">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E192" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F192" s="12">
-        <v>68456</v>
+        <v>68476</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="H192" s="12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I192" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B192, A192)</f>
+        <v>5</v>
       </c>
       <c r="J192" s="12">
-        <v>66118</v>
+        <v>66491</v>
       </c>
       <c r="K192" s="12">
-        <v>2289</v>
+        <v>11522</v>
       </c>
       <c r="L192" s="12" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="M192" s="11">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="N192" s="14">
-        <v>607.57000000000005</v>
+        <v>398.42</v>
       </c>
       <c r="O192" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P192" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q192" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R192" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S192" s="14">
         <v>0</v>
@@ -14478,7 +14469,7 @@
         <v>98</v>
       </c>
       <c r="I193" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B193, A193)</f>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14542,7 +14533,7 @@
         <v>372</v>
       </c>
       <c r="I194" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B194, A194)</f>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14606,7 +14597,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B195, A195)</f>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14670,7 +14661,7 @@
         <v>372</v>
       </c>
       <c r="I196" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B196, A196)</f>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14734,7 +14725,7 @@
         <v>372</v>
       </c>
       <c r="I197" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B197, A197)</f>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14798,7 +14789,7 @@
         <v>372</v>
       </c>
       <c r="I198" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B198, A198)</f>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14862,7 +14853,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B199, A199)</f>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14926,7 +14917,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B200, A200)</f>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -14990,7 +14981,7 @@
         <v>126</v>
       </c>
       <c r="I201" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B201, A201)</f>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15054,7 +15045,7 @@
         <v>130</v>
       </c>
       <c r="I202" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B202, A202)</f>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15118,7 +15109,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f t="shared" ref="I203:I253" si="4">NETWORKDAYS(B203, A203)</f>
+        <f>NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15182,7 +15173,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B204, A204)</f>
         <v>1</v>
       </c>
       <c r="J204" s="7">
@@ -15246,7 +15237,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B205, A205)</f>
         <v>1</v>
       </c>
       <c r="J205" s="7">
@@ -15310,7 +15301,7 @@
         <v>126</v>
       </c>
       <c r="I206" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B206, A206)</f>
         <v>1</v>
       </c>
       <c r="J206" s="7">
@@ -15374,7 +15365,7 @@
         <v>130</v>
       </c>
       <c r="I207" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B207, A207)</f>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15438,7 +15429,7 @@
         <v>130</v>
       </c>
       <c r="I208" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B208, A208)</f>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15502,7 +15493,7 @@
         <v>130</v>
       </c>
       <c r="I209" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B209, A209)</f>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15566,7 +15557,7 @@
         <v>130</v>
       </c>
       <c r="I210" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B210, A210)</f>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15630,7 +15621,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B211, A211)</f>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15694,7 +15685,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B212, A212)</f>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15758,7 +15749,7 @@
         <v>138</v>
       </c>
       <c r="I213" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B213, A213)</f>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15822,7 +15813,7 @@
         <v>91</v>
       </c>
       <c r="I214" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B214, A214)</f>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15886,7 +15877,7 @@
         <v>98</v>
       </c>
       <c r="I215" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B215, A215)</f>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15950,7 +15941,7 @@
         <v>138</v>
       </c>
       <c r="I216" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B216, A216)</f>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -16014,7 +16005,7 @@
         <v>98</v>
       </c>
       <c r="I217" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B217, A217)</f>
         <v>1</v>
       </c>
       <c r="J217" s="7">
@@ -16054,47 +16045,47 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218" s="11">
-        <v>45785</v>
+        <v>45867</v>
       </c>
       <c r="B218" s="11">
-        <v>45784</v>
+        <v>45867</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E218" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F218" s="12">
-        <v>68369</v>
+        <v>68486</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="H218" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I218" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B218, A218)</f>
+        <v>1</v>
       </c>
       <c r="J218" s="12">
-        <v>65234</v>
+        <v>66478</v>
       </c>
       <c r="K218" s="12">
-        <v>11610</v>
+        <v>10460</v>
       </c>
       <c r="L218" s="12" t="s">
-        <v>38</v>
+        <v>393</v>
       </c>
       <c r="M218" s="11">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="N218" s="14">
-        <v>9114.5499999999993</v>
+        <v>4789.6099999999997</v>
       </c>
       <c r="O218" s="12" t="s">
         <v>122</v>
@@ -16107,10 +16098,10 @@
       </c>
       <c r="R218" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="S218" s="14">
-        <v>183.5</v>
+        <v>1509.38</v>
       </c>
       <c r="T218" s="14">
         <v>0</v>
@@ -16142,7 +16133,7 @@
         <v>130</v>
       </c>
       <c r="I219" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B219, A219)</f>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16206,13 +16197,13 @@
         <v>130</v>
       </c>
       <c r="I220" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B220, A220)</f>
         <v>1</v>
       </c>
       <c r="J220" s="7">
         <v>66429</v>
       </c>
-      <c r="K220" s="48">
+      <c r="K220" s="44">
         <v>766</v>
       </c>
       <c r="L220" s="7" t="s">
@@ -16270,7 +16261,7 @@
         <v>98</v>
       </c>
       <c r="I221" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B221, A221)</f>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16334,7 +16325,7 @@
         <v>91</v>
       </c>
       <c r="I222" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B222, A222)</f>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16398,7 +16389,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B223, A223)</f>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16462,7 +16453,7 @@
         <v>372</v>
       </c>
       <c r="I224" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B224, A224)</f>
         <v>2</v>
       </c>
       <c r="J224" s="7">
@@ -16526,7 +16517,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B225, A225)</f>
         <v>1</v>
       </c>
       <c r="J225" s="7">
@@ -16569,60 +16560,60 @@
         <v>45870</v>
       </c>
       <c r="B226" s="11">
-        <v>45863</v>
+        <v>45869</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E226" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F226" s="12">
-        <v>68482</v>
+        <v>68491</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="H226" s="12" t="s">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="I226" s="13">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f>NETWORKDAYS(B226, A226)</f>
+        <v>2</v>
       </c>
       <c r="J226" s="12">
-        <v>66522</v>
+        <v>66521</v>
       </c>
       <c r="K226" s="12">
-        <v>679</v>
+        <v>3061</v>
       </c>
       <c r="L226" s="12" t="s">
-        <v>346</v>
+        <v>192</v>
       </c>
       <c r="M226" s="11">
-        <v>45889</v>
+        <v>45883</v>
       </c>
       <c r="N226" s="14">
-        <v>6048.2</v>
+        <v>3000</v>
       </c>
       <c r="O226" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P226" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R226" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S226" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T226" s="14">
         <v>0</v>
@@ -16630,63 +16621,63 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
-        <v>45867</v>
+        <v>45870</v>
       </c>
       <c r="B227" s="11">
         <v>45867</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E227" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F227" s="12">
-        <v>68486</v>
+        <v>68485</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>296</v>
+        <v>371</v>
       </c>
       <c r="H227" s="12" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="I227" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B227, A227)</f>
+        <v>4</v>
       </c>
       <c r="J227" s="12">
-        <v>66478</v>
+        <v>66526</v>
       </c>
       <c r="K227" s="12">
-        <v>10460</v>
+        <v>3061</v>
       </c>
       <c r="L227" s="12" t="s">
-        <v>393</v>
+        <v>192</v>
       </c>
       <c r="M227" s="11">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="N227" s="14">
-        <v>4789.6099999999997</v>
+        <v>1150</v>
       </c>
       <c r="O227" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P227" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q227" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R227" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S227" s="14">
-        <v>1509.38</v>
+        <v>0</v>
       </c>
       <c r="T227" s="14">
         <v>0</v>
@@ -16697,135 +16688,135 @@
         <v>45870</v>
       </c>
       <c r="B228" s="11">
-        <v>45869</v>
+        <v>45863</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E228" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F228" s="12">
-        <v>68491</v>
+        <v>68482</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>371</v>
+        <v>129</v>
       </c>
       <c r="H228" s="12" t="s">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="I228" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B228, A228)</f>
+        <v>6</v>
       </c>
       <c r="J228" s="12">
-        <v>66521</v>
+        <v>66522</v>
       </c>
       <c r="K228" s="12">
-        <v>3061</v>
+        <v>679</v>
       </c>
       <c r="L228" s="12" t="s">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="M228" s="11">
-        <v>45883</v>
+        <v>45889</v>
       </c>
       <c r="N228" s="14">
-        <v>3000</v>
+        <v>6048.2</v>
       </c>
       <c r="O228" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P228" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q228" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R228" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S228" s="14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T228" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A229" s="11">
-        <v>45856</v>
-      </c>
-      <c r="B229" s="11">
-        <v>45856</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E229" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F229" s="12">
-        <v>68466</v>
-      </c>
-      <c r="G229" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H229" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I229" s="13">
-        <f t="shared" si="4"/>
+      <c r="A229" s="46">
+        <v>45877</v>
+      </c>
+      <c r="B229" s="46">
+        <v>45877</v>
+      </c>
+      <c r="C229" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F229" s="47">
+        <v>68458</v>
+      </c>
+      <c r="G229" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H229" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I229" s="48">
+        <f>NETWORKDAYS(B229, A229)</f>
         <v>1</v>
       </c>
-      <c r="J229" s="12">
-        <v>66337</v>
-      </c>
-      <c r="K229" s="12">
-        <v>11736</v>
-      </c>
-      <c r="L229" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M229" s="11">
-        <v>45889</v>
-      </c>
-      <c r="N229" s="14">
-        <v>16134.54</v>
-      </c>
-      <c r="O229" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P229" s="12">
+      <c r="J229" s="47">
+        <v>66605</v>
+      </c>
+      <c r="K229" s="47">
+        <v>561</v>
+      </c>
+      <c r="L229" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="M229" s="46">
+        <v>45891</v>
+      </c>
+      <c r="N229" s="49">
+        <v>758.53</v>
+      </c>
+      <c r="O229" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P229" s="47">
         <v>28</v>
       </c>
-      <c r="Q229" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R229" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>33</v>
-      </c>
-      <c r="S229" s="14">
-        <v>25720</v>
-      </c>
-      <c r="T229" s="14">
+      <c r="Q229" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="R229" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>14</v>
+      </c>
+      <c r="S229" s="49">
+        <v>0</v>
+      </c>
+      <c r="T229" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
-        <v>45876</v>
+        <v>45868</v>
       </c>
       <c r="B230" s="11">
-        <v>45876</v>
+        <v>45868</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>7</v>
@@ -16834,51 +16825,51 @@
         <v>15</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F230" s="12">
-        <v>68458</v>
+        <v>124</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="H230" s="12" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I230" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B230, A230)</f>
         <v>1</v>
       </c>
       <c r="J230" s="12">
-        <v>66591</v>
+        <v>66504</v>
       </c>
       <c r="K230" s="12">
-        <v>561</v>
+        <v>3034</v>
       </c>
       <c r="L230" s="12" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="M230" s="11">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="N230" s="14">
-        <v>758.53</v>
+        <v>66522</v>
       </c>
       <c r="O230" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P230" s="12">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="Q230" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R230" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="S230" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T230" s="14">
         <v>0</v>
@@ -16910,7 +16901,7 @@
         <v>372</v>
       </c>
       <c r="I231" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B231, A231)</f>
         <v>1</v>
       </c>
       <c r="J231" s="7">
@@ -16950,10 +16941,10 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B232" s="11">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>7</v>
@@ -16974,39 +16965,39 @@
         <v>126</v>
       </c>
       <c r="I232" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B232, A232)</f>
         <v>1</v>
       </c>
       <c r="J232" s="12">
-        <v>66504</v>
+        <v>66427</v>
       </c>
       <c r="K232" s="12">
-        <v>3034</v>
+        <v>1277</v>
       </c>
       <c r="L232" s="12" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="M232" s="11">
         <v>45897</v>
       </c>
       <c r="N232" s="14">
-        <v>66522</v>
+        <v>2715.75</v>
       </c>
       <c r="O232" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P232" s="12">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R232" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S232" s="14">
-        <v>80</v>
+        <v>950</v>
       </c>
       <c r="T232" s="14">
         <v>0</v>
@@ -17014,13 +17005,13 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
-        <v>45869</v>
+        <v>45875</v>
       </c>
       <c r="B233" s="11">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>15</v>
@@ -17028,63 +17019,63 @@
       <c r="E233" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F233" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G233" s="12" t="s">
+      <c r="F233" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G233" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H233" s="12" t="s">
+      <c r="H233" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I233" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B233, A233)</f>
+        <v>3</v>
       </c>
       <c r="J233" s="12">
-        <v>66427</v>
+        <v>66430</v>
       </c>
       <c r="K233" s="12">
-        <v>1277</v>
+        <v>333</v>
       </c>
       <c r="L233" s="12" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M233" s="11">
-        <v>45897</v>
-      </c>
-      <c r="N233" s="14">
-        <v>2715.75</v>
-      </c>
-      <c r="O233" s="12" t="s">
+        <v>45901</v>
+      </c>
+      <c r="N233" s="45">
+        <v>1483685.03</v>
+      </c>
+      <c r="O233" s="11" t="s">
         <v>122</v>
       </c>
       <c r="P233" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R233" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S233" s="14">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="T233" s="14">
-        <v>0</v>
+        <v>59008.35</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
-        <v>45875</v>
+        <v>45856</v>
       </c>
       <c r="B234" s="11">
-        <v>45873</v>
+        <v>45856</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>15</v>
@@ -17092,52 +17083,52 @@
       <c r="E234" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F234" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G234" s="11" t="s">
+      <c r="F234" s="12">
+        <v>68466</v>
+      </c>
+      <c r="G234" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H234" s="11" t="s">
+      <c r="H234" s="12" t="s">
         <v>126</v>
       </c>
       <c r="I234" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>NETWORKDAYS(B234, A234)</f>
+        <v>1</v>
       </c>
       <c r="J234" s="12">
-        <v>66430</v>
+        <v>66337</v>
       </c>
       <c r="K234" s="12">
-        <v>333</v>
+        <v>11736</v>
       </c>
       <c r="L234" s="12" t="s">
-        <v>400</v>
+        <v>127</v>
       </c>
       <c r="M234" s="11">
-        <v>45901</v>
-      </c>
-      <c r="N234" s="49">
-        <v>1483685.03</v>
-      </c>
-      <c r="O234" s="11" t="s">
-        <v>122</v>
+        <v>45902</v>
+      </c>
+      <c r="N234" s="14">
+        <v>16134.54</v>
+      </c>
+      <c r="O234" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="P234" s="12">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q234" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R234" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="S234" s="14">
-        <v>0</v>
+        <v>25720</v>
       </c>
       <c r="T234" s="14">
-        <v>59008.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.35">
@@ -17166,7 +17157,7 @@
         <v>34</v>
       </c>
       <c r="I235" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B235, A235)</f>
         <v>1</v>
       </c>
       <c r="J235" s="12">
@@ -17230,7 +17221,7 @@
         <v>98</v>
       </c>
       <c r="I236" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B236, A236)</f>
         <v>1</v>
       </c>
       <c r="J236" s="12">
@@ -17268,67 +17259,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A237" s="11">
-        <v>45848</v>
-      </c>
-      <c r="B237" s="11">
-        <v>45848</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E237" s="11" t="s">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="6">
+        <v>45873</v>
+      </c>
+      <c r="B237" s="6">
+        <v>45873</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E237" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F237" s="12">
-        <v>68457</v>
-      </c>
-      <c r="G237" s="12" t="s">
+      <c r="F237" s="7">
+        <v>68494</v>
+      </c>
+      <c r="G237" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H237" s="12" t="s">
+      <c r="H237" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I237" s="13">
-        <f t="shared" si="4"/>
+      <c r="I237" s="10">
+        <f>NETWORKDAYS(B237, A237)</f>
         <v>1</v>
       </c>
-      <c r="J237" s="12">
-        <v>66126</v>
-      </c>
-      <c r="K237" s="12">
-        <v>2931</v>
-      </c>
-      <c r="L237" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="M237" s="11">
-        <v>45905</v>
-      </c>
-      <c r="N237" s="14">
-        <v>3500</v>
-      </c>
-      <c r="O237" s="12" t="s">
+      <c r="J237" s="7">
+        <v>66534</v>
+      </c>
+      <c r="K237" s="7">
+        <v>11790</v>
+      </c>
+      <c r="L237" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M237" s="6">
+        <v>45873</v>
+      </c>
+      <c r="N237" s="8">
+        <v>1475</v>
+      </c>
+      <c r="O237" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P237" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q237" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R237" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
-      </c>
-      <c r="S237" s="14">
-        <v>320</v>
-      </c>
-      <c r="T237" s="14">
+      <c r="P237" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q237" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R237" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S237" s="8">
+        <v>204</v>
+      </c>
+      <c r="T237" s="8">
         <v>0</v>
       </c>
     </row>
@@ -17343,54 +17334,54 @@
         <v>7</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F238" s="7">
-        <v>68494</v>
+      <c r="F238" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="I238" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B238, A238)</f>
         <v>1</v>
       </c>
       <c r="J238" s="7">
-        <v>66534</v>
+        <v>66529</v>
       </c>
       <c r="K238" s="7">
-        <v>11790</v>
+        <v>2856</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M238" s="6">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="N238" s="8">
-        <v>1475</v>
+        <v>5600</v>
       </c>
       <c r="O238" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P238" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q238" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R238" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S238" s="8">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="T238" s="8">
         <v>0</v>
@@ -17410,7 +17401,7 @@
         <v>5</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F239" s="7" t="s">
         <v>3</v>
@@ -17422,29 +17413,29 @@
         <v>130</v>
       </c>
       <c r="I239" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B239, A239)</f>
         <v>1</v>
       </c>
       <c r="J239" s="7">
-        <v>66529</v>
+        <v>66530</v>
       </c>
       <c r="K239" s="7">
-        <v>2856</v>
+        <v>280</v>
       </c>
       <c r="L239" s="7" t="s">
-        <v>399</v>
+        <v>60</v>
       </c>
       <c r="M239" s="6">
         <v>45875</v>
       </c>
       <c r="N239" s="8">
-        <v>5600</v>
+        <v>15507.16</v>
       </c>
       <c r="O239" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P239" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q239" s="7" t="s">
         <v>116</v>
@@ -17486,29 +17477,29 @@
         <v>130</v>
       </c>
       <c r="I240" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B240, A240)</f>
         <v>1</v>
       </c>
       <c r="J240" s="7">
-        <v>66530</v>
+        <v>66532</v>
       </c>
       <c r="K240" s="7">
-        <v>280</v>
+        <v>11263</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="M240" s="6">
         <v>45875</v>
       </c>
       <c r="N240" s="8">
-        <v>15507.16</v>
+        <v>11841</v>
       </c>
       <c r="O240" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P240" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q240" s="7" t="s">
         <v>116</v>
@@ -17544,35 +17535,35 @@
         <v>3</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="I241" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B241, A241)</f>
         <v>1</v>
       </c>
       <c r="J241" s="7">
-        <v>66532</v>
+        <v>66533</v>
       </c>
       <c r="K241" s="7">
-        <v>11263</v>
+        <v>495</v>
       </c>
       <c r="L241" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M241" s="6">
         <v>45875</v>
       </c>
       <c r="N241" s="8">
-        <v>11841</v>
+        <v>257</v>
       </c>
       <c r="O241" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P241" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q241" s="7" t="s">
         <v>116</v>
@@ -17590,60 +17581,60 @@
     </row>
     <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B242" s="6">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="I242" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B242, A242)</f>
         <v>1</v>
       </c>
       <c r="J242" s="7">
-        <v>66533</v>
+        <v>66561</v>
       </c>
       <c r="K242" s="7">
-        <v>495</v>
+        <v>2785</v>
       </c>
       <c r="L242" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M242" s="6">
         <v>45875</v>
       </c>
       <c r="N242" s="8">
-        <v>257</v>
+        <v>475</v>
       </c>
       <c r="O242" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P242" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q242" s="7" t="s">
         <v>116</v>
       </c>
       <c r="R242" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S242" s="8">
         <v>0</v>
@@ -17663,312 +17654,312 @@
         <v>7</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I243" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B243, A243)</f>
         <v>1</v>
       </c>
       <c r="J243" s="7">
-        <v>66561</v>
+        <v>66560</v>
       </c>
       <c r="K243" s="7">
-        <v>2785</v>
+        <v>10692</v>
       </c>
       <c r="L243" s="7" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="M243" s="6">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="N243" s="8">
-        <v>475</v>
+        <v>5026.62</v>
       </c>
       <c r="O243" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P243" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q243" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R243" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S243" s="8">
+        <v>0</v>
+      </c>
+      <c r="T243" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A244" s="11">
+        <v>45848</v>
+      </c>
+      <c r="B244" s="11">
+        <v>45848</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F244" s="12">
+        <v>68457</v>
+      </c>
+      <c r="G244" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H244" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I244" s="13">
+        <f>NETWORKDAYS(B244, A244)</f>
+        <v>1</v>
+      </c>
+      <c r="J244" s="12">
+        <v>66126</v>
+      </c>
+      <c r="K244" s="12">
+        <v>2931</v>
+      </c>
+      <c r="L244" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="M244" s="11">
+        <v>45905</v>
+      </c>
+      <c r="N244" s="14">
+        <v>3500</v>
+      </c>
+      <c r="O244" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P244" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q244" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R244" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>57</v>
+      </c>
+      <c r="S244" s="14">
+        <v>320</v>
+      </c>
+      <c r="T244" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="6">
+        <v>45874</v>
+      </c>
+      <c r="B245" s="6">
+        <v>45874</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I245" s="10">
+        <f>NETWORKDAYS(B245, A245)</f>
+        <v>1</v>
+      </c>
+      <c r="J245" s="7">
+        <v>64425</v>
+      </c>
+      <c r="K245" s="7">
+        <v>2954</v>
+      </c>
+      <c r="L245" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M245" s="6">
+        <v>45876</v>
+      </c>
+      <c r="N245" s="8">
+        <v>255.15</v>
+      </c>
+      <c r="O245" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P245" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q245" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R245" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S245" s="8">
+        <v>0</v>
+      </c>
+      <c r="T245" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A246" s="11">
+        <v>45874</v>
+      </c>
+      <c r="B246" s="11">
+        <v>45853</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q243" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R243" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+      <c r="E246" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F246" s="12">
+        <v>68465</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H246" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I246" s="13">
+        <f>NETWORKDAYS(B246, A246)</f>
+        <v>16</v>
+      </c>
+      <c r="J246" s="12">
+        <v>66555</v>
+      </c>
+      <c r="K246" s="12">
+        <v>11791</v>
+      </c>
+      <c r="L246" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="M246" s="11">
+        <v>45906</v>
+      </c>
+      <c r="N246" s="14">
+        <v>1075.55</v>
+      </c>
+      <c r="O246" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P246" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q246" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R246" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>32</v>
+      </c>
+      <c r="S246" s="14">
+        <v>1215.25</v>
+      </c>
+      <c r="T246" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="6">
+        <v>45875</v>
+      </c>
+      <c r="B247" s="6">
+        <v>45875</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I247" s="10">
+        <f>NETWORKDAYS(B247, A247)</f>
         <v>1</v>
       </c>
-      <c r="S243" s="8">
-        <v>0</v>
-      </c>
-      <c r="T243" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="6">
-        <v>45874</v>
-      </c>
-      <c r="B244" s="6">
-        <v>45874</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" s="6" t="s">
+      <c r="J247" s="7">
+        <v>66565</v>
+      </c>
+      <c r="K247" s="7">
+        <v>11673</v>
+      </c>
+      <c r="L247" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M247" s="6">
+        <v>45877</v>
+      </c>
+      <c r="N247" s="8">
+        <v>5087.95</v>
+      </c>
+      <c r="O247" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P247" s="7">
         <v>5</v>
       </c>
-      <c r="E244" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F244" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H244" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I244" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J244" s="7">
-        <v>66560</v>
-      </c>
-      <c r="K244" s="7">
-        <v>10692</v>
-      </c>
-      <c r="L244" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M244" s="6">
-        <v>45876</v>
-      </c>
-      <c r="N244" s="8">
-        <v>5026.62</v>
-      </c>
-      <c r="O244" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P244" s="7">
-        <v>14</v>
-      </c>
-      <c r="Q244" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R244" s="7">
+      <c r="Q247" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R247" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>2</v>
       </c>
-      <c r="S244" s="8">
-        <v>0</v>
-      </c>
-      <c r="T244" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A245" s="11">
-        <v>45874</v>
-      </c>
-      <c r="B245" s="11">
-        <v>45853</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D245" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E245" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F245" s="12">
-        <v>68465</v>
-      </c>
-      <c r="G245" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H245" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I245" s="13">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="J245" s="12">
-        <v>66555</v>
-      </c>
-      <c r="K245" s="12">
-        <v>11791</v>
-      </c>
-      <c r="L245" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="M245" s="11">
-        <v>45906</v>
-      </c>
-      <c r="N245" s="14">
-        <v>1075.55</v>
-      </c>
-      <c r="O245" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P245" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q245" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R245" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>32</v>
-      </c>
-      <c r="S245" s="14">
-        <v>1215.25</v>
-      </c>
-      <c r="T245" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="6">
-        <v>45874</v>
-      </c>
-      <c r="B246" s="6">
-        <v>45874</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H246" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I246" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J246" s="7">
-        <v>64425</v>
-      </c>
-      <c r="K246" s="7">
-        <v>2954</v>
-      </c>
-      <c r="L246" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M246" s="6">
-        <v>45876</v>
-      </c>
-      <c r="N246" s="8">
-        <v>255.15</v>
-      </c>
-      <c r="O246" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P246" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q246" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R246" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
-      </c>
-      <c r="S246" s="8">
-        <v>0</v>
-      </c>
-      <c r="T246" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A247" s="11">
-        <v>45867</v>
-      </c>
-      <c r="B247" s="11">
-        <v>45866</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E247" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F247" s="12">
-        <v>68483</v>
-      </c>
-      <c r="G247" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H247" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I247" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J247" s="12">
-        <v>66467</v>
-      </c>
-      <c r="K247" s="12">
-        <v>11164</v>
-      </c>
-      <c r="L247" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="M247" s="11">
-        <v>45908</v>
-      </c>
-      <c r="N247" s="14">
-        <v>2623.03</v>
-      </c>
-      <c r="O247" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P247" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q247" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R247" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
-      </c>
-      <c r="S247" s="14">
-        <v>52</v>
-      </c>
-      <c r="T247" s="14">
+      <c r="S247" s="8">
+        <v>0</v>
+      </c>
+      <c r="T247" s="8">
         <v>0</v>
       </c>
     </row>
@@ -17983,10 +17974,10 @@
         <v>7</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F248" s="7" t="s">
         <v>3</v>
@@ -17995,32 +17986,32 @@
         <v>3</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I248" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B248, A248)</f>
         <v>1</v>
       </c>
       <c r="J248" s="7">
-        <v>66565</v>
+        <v>66567</v>
       </c>
       <c r="K248" s="7">
-        <v>11673</v>
+        <v>405</v>
       </c>
       <c r="L248" s="7" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="M248" s="6">
         <v>45877</v>
       </c>
       <c r="N248" s="8">
-        <v>5087.95</v>
+        <v>1618.75</v>
       </c>
       <c r="O248" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P248" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="Q248" s="7" t="s">
         <v>116</v>
@@ -18062,26 +18053,26 @@
         <v>98</v>
       </c>
       <c r="I249" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B249, A249)</f>
         <v>1</v>
       </c>
       <c r="J249" s="7">
-        <v>66567</v>
+        <v>63752</v>
       </c>
       <c r="K249" s="7">
-        <v>405</v>
+        <v>266</v>
       </c>
       <c r="L249" s="7" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="M249" s="6">
         <v>45877</v>
       </c>
       <c r="N249" s="8">
-        <v>1618.75</v>
+        <v>1407.45</v>
       </c>
       <c r="O249" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P249" s="7">
         <v>28</v>
@@ -18100,79 +18091,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="6">
-        <v>45875</v>
-      </c>
-      <c r="B250" s="6">
-        <v>45875</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" s="6" t="s">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A250" s="46">
+        <v>45877</v>
+      </c>
+      <c r="B250" s="46">
+        <v>45873</v>
+      </c>
+      <c r="C250" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E250" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F250" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G250" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H250" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I250" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J250" s="7">
-        <v>63752</v>
-      </c>
-      <c r="K250" s="7">
-        <v>266</v>
-      </c>
-      <c r="L250" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M250" s="6">
-        <v>45877</v>
-      </c>
-      <c r="N250" s="8">
-        <v>1407.45</v>
-      </c>
-      <c r="O250" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P250" s="7">
-        <v>28</v>
-      </c>
-      <c r="Q250" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R250" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
-      </c>
-      <c r="S250" s="8">
-        <v>0</v>
-      </c>
-      <c r="T250" s="8">
+      <c r="E250" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F250" s="47">
+        <v>68493</v>
+      </c>
+      <c r="G250" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="H250" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I250" s="48">
+        <f>NETWORKDAYS(B250, A250)</f>
+        <v>5</v>
+      </c>
+      <c r="J250" s="47">
+        <v>66607</v>
+      </c>
+      <c r="K250" s="47">
+        <v>1586</v>
+      </c>
+      <c r="L250" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="M250" s="46">
+        <v>45907</v>
+      </c>
+      <c r="N250" s="49">
+        <v>680</v>
+      </c>
+      <c r="O250" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P250" s="47">
+        <v>30</v>
+      </c>
+      <c r="Q250" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="R250" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>30</v>
+      </c>
+      <c r="S250" s="49">
+        <v>0</v>
+      </c>
+      <c r="T250" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
-        <v>45870</v>
+        <v>45867</v>
       </c>
       <c r="B251" s="11">
-        <v>45870</v>
+        <v>45866</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D251" s="11" t="s">
         <v>15</v>
@@ -18180,8 +18171,8 @@
       <c r="E251" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F251" s="12" t="s">
-        <v>3</v>
+      <c r="F251" s="12">
+        <v>68483</v>
       </c>
       <c r="G251" s="12" t="s">
         <v>125</v>
@@ -18190,169 +18181,233 @@
         <v>126</v>
       </c>
       <c r="I251" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B251, A251)</f>
+        <v>2</v>
       </c>
       <c r="J251" s="12">
-        <v>66430</v>
+        <v>66467</v>
       </c>
       <c r="K251" s="12">
-        <v>333</v>
+        <v>11164</v>
       </c>
       <c r="L251" s="12" t="s">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="M251" s="11">
-        <v>46113</v>
+        <v>45908</v>
       </c>
       <c r="N251" s="14">
-        <v>281569.34000000003</v>
+        <v>2623.03</v>
       </c>
       <c r="O251" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P251" s="12">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="Q251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R251" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S251" s="14">
+        <v>52</v>
+      </c>
+      <c r="T251" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A252" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B252" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H252" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I252" s="13">
+        <f>NETWORKDAYS(B252, A252)</f>
+        <v>1</v>
+      </c>
+      <c r="J252" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K252" s="12">
+        <v>333</v>
+      </c>
+      <c r="L252" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="M252" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N252" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O252" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P252" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q252" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R252" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>243</v>
       </c>
-      <c r="S251" s="14">
-        <v>0</v>
-      </c>
-      <c r="T251" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A252" s="50">
+      <c r="S252" s="14">
+        <v>0</v>
+      </c>
+      <c r="T252" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="6">
         <v>45877</v>
       </c>
-      <c r="B252" s="50">
+      <c r="B253" s="6">
         <v>45877</v>
       </c>
-      <c r="C252" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D252" s="50" t="s">
+      <c r="C253" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E252" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F252" s="51">
-        <v>68458</v>
-      </c>
-      <c r="G252" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="H252" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="I252" s="52">
-        <f t="shared" si="4"/>
+      <c r="E253" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H253" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I253" s="10">
+        <f>NETWORKDAYS(B253, A253)</f>
         <v>1</v>
       </c>
-      <c r="J252" s="51">
-        <v>66605</v>
-      </c>
-      <c r="K252" s="51">
-        <v>561</v>
-      </c>
-      <c r="L252" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="M252" s="50">
-        <v>45891</v>
-      </c>
-      <c r="N252" s="53">
-        <v>758.53</v>
-      </c>
-      <c r="O252" s="51" t="s">
+      <c r="J253" s="7">
+        <v>66615</v>
+      </c>
+      <c r="K253" s="7">
+        <v>10581</v>
+      </c>
+      <c r="L253" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M253" s="6">
+        <v>45877</v>
+      </c>
+      <c r="N253" s="8">
+        <v>17323.11</v>
+      </c>
+      <c r="O253" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P252" s="51">
-        <v>28</v>
-      </c>
-      <c r="Q252" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="R252" s="51">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+      <c r="P253" s="7">
         <v>14</v>
       </c>
-      <c r="S252" s="53">
-        <v>0</v>
-      </c>
-      <c r="T252" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A253" s="50">
+      <c r="Q253" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R253" s="50">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S253" s="8">
+        <v>0</v>
+      </c>
+      <c r="T253" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="6">
         <v>45877</v>
       </c>
-      <c r="B253" s="50">
-        <v>45873</v>
-      </c>
-      <c r="C253" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" s="50" t="s">
+      <c r="B254" s="6">
+        <v>45877</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E253" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F253" s="51">
-        <v>68493</v>
-      </c>
-      <c r="G253" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="H253" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="I253" s="52">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J253" s="51">
-        <v>66607</v>
-      </c>
-      <c r="K253" s="51">
-        <v>1586</v>
-      </c>
-      <c r="L253" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="M253" s="50">
-        <v>45907</v>
-      </c>
-      <c r="N253" s="53">
-        <v>680</v>
-      </c>
-      <c r="O253" s="51" t="s">
+      <c r="E254" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I254" s="10">
+        <f>NETWORKDAYS(B254, A254)</f>
+        <v>1</v>
+      </c>
+      <c r="J254" s="7">
+        <v>66626</v>
+      </c>
+      <c r="K254" s="7">
+        <v>10581</v>
+      </c>
+      <c r="L254" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M254" s="6">
+        <v>45877</v>
+      </c>
+      <c r="N254" s="8">
+        <v>4676.18</v>
+      </c>
+      <c r="O254" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P253" s="51">
-        <v>30</v>
-      </c>
-      <c r="Q253" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="R253" s="51">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
-      </c>
-      <c r="S253" s="53">
-        <v>0</v>
-      </c>
-      <c r="T253" s="53">
+      <c r="P254" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q254" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R254" s="50">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S254" s="8">
+        <v>0</v>
+      </c>
+      <c r="T254" s="8">
         <v>0</v>
       </c>
     </row>
@@ -18667,23 +18722,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="32">
         <v>44732</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="32">
         <v>45858</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>45877</v>
       </c>
-      <c r="F4" s="37" t="str">
+      <c r="F4" s="33" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
    IF(DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &lt;= 90,
       "Negociar",
@@ -19363,244 +19418,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38">
+      <c r="A1" s="34">
         <v>2954</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38">
+      <c r="A2" s="34">
         <v>10990</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="38">
+      <c r="A3" s="34">
         <v>381</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="38">
+      <c r="A4" s="34">
         <v>789</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38">
+      <c r="A5" s="34">
         <v>789</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="38">
+      <c r="A6" s="34">
         <v>266</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38">
+      <c r="A7" s="34">
         <v>419</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="38">
+      <c r="A8" s="34">
         <v>953</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="38">
+      <c r="A9" s="34">
         <v>1441</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="38">
+      <c r="A10" s="34">
         <v>11121</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="38">
+      <c r="A11" s="34">
         <v>10581</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="38">
+      <c r="A12" s="34">
         <v>175</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="38">
+      <c r="A13" s="34">
         <v>2967</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="38">
+      <c r="A14" s="34">
         <v>10194</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="38">
+      <c r="A15" s="34">
         <v>11673</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="38">
+      <c r="A16" s="34">
         <v>280</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="38">
+      <c r="A17" s="34">
         <v>766</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="38">
+      <c r="A19" s="34">
         <v>11263</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="38">
+      <c r="A20" s="34">
         <v>11527</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="38">
+      <c r="A21" s="34">
         <v>4658</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="38">
+      <c r="A22" s="34">
         <v>3495</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="35" t="s">
         <v>45</v>
       </c>
     </row>
@@ -20332,13 +20387,13 @@
       <c r="A2" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="38">
         <v>0.7</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="39">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="40">
         <f>C2/B2-1</f>
         <v>-0.90571428571428569</v>
       </c>
@@ -20347,13 +20402,13 @@
       <c r="A3" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="36">
         <v>0.5</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="36">
         <v>0.2</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="37">
         <f>C3/B3-1</f>
         <v>-0.6</v>
       </c>
@@ -20364,21 +20419,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068C9492B0923CC418696A025D9B79530" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12b5152450087b045156d8e5bdb7ac17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7545978-8353-4157-ab02-92f5c69a97d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74a8823586b7fc5940aaf3e9d5b706e7" ns3:_="">
     <xsd:import namespace="b7545978-8353-4157-ab02-92f5c69a97d9"/>
@@ -20504,15 +20550,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -20528,7 +20575,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED76536-08DB-4BCA-BAA6-597FC860B20C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20544,4 +20591,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\splfps01\data$\GROUP\PUBLICO\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348A454-B154-4B28-BAF7-6870D59D9686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D64EC-004E-4BD4-9486-EA96EC0B9A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="411">
   <si>
     <t>SC</t>
   </si>
@@ -1303,6 +1303,12 @@
   </si>
   <si>
     <t>METALEX FERRAMENTARIA INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>C T MOL PINTURAS LTDA – ME</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1452,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1565,9 +1571,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1751,8 +1754,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T254" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T254" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T257" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T257" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
@@ -1760,8 +1763,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T252">
-    <sortCondition ref="M1:M254"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T257">
+    <sortCondition ref="M1:M257"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -1850,8 +1853,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E40" totalsRowShown="0">
-  <autoFilter ref="A1:E40" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E41" totalsRowShown="0">
+  <autoFilter ref="A1:E41" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
@@ -2126,35 +2129,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T254"/>
+  <dimension ref="A1:T257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L188" sqref="L188"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H233" sqref="H233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="18" style="1"/>
+    <col min="21" max="16384" width="16.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -2821,7 +2824,7 @@
         <v>364</v>
       </c>
       <c r="I11" s="13">
-        <f>NETWORKDAYS(B11, A11)</f>
+        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
         <v>1</v>
       </c>
       <c r="J11" s="12">
@@ -2885,7 +2888,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f>NETWORKDAYS(B12, A12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2949,7 +2952,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="10">
-        <f>NETWORKDAYS(B13, A13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -3013,7 +3016,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f>NETWORKDAYS(B14, A14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3077,7 +3080,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10">
-        <f>NETWORKDAYS(B15, A15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3141,7 +3144,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10">
-        <f>NETWORKDAYS(B16, A16)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3205,7 +3208,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f>NETWORKDAYS(B17, A17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3269,7 +3272,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f>NETWORKDAYS(B18, A18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3333,7 +3336,7 @@
         <v>91</v>
       </c>
       <c r="I19" s="10">
-        <f>NETWORKDAYS(B19, A19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3397,7 +3400,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f>NETWORKDAYS(B20, A20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3461,7 +3464,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10">
-        <f>NETWORKDAYS(B21, A21)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3525,7 +3528,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10">
-        <f>NETWORKDAYS(B22, A22)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3589,7 +3592,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="30">
-        <f>NETWORKDAYS(B23, A23)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J23" s="28">
@@ -3653,7 +3656,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f>NETWORKDAYS(B24, A24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3717,7 +3720,7 @@
         <v>126</v>
       </c>
       <c r="I25" s="10">
-        <f>NETWORKDAYS(B25, A25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3781,7 +3784,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="10">
-        <f>NETWORKDAYS(B26, A26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3845,7 +3848,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f>NETWORKDAYS(B27, A27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3909,7 +3912,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f>NETWORKDAYS(B28, A28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -3973,7 +3976,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f>NETWORKDAYS(B29, A29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4037,7 +4040,7 @@
         <v>138</v>
       </c>
       <c r="I30" s="10">
-        <f>NETWORKDAYS(B30, A30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4101,7 +4104,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f>NETWORKDAYS(B31, A31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4165,7 +4168,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="10">
-        <f>NETWORKDAYS(B32, A32)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4229,7 +4232,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="10">
-        <f>NETWORKDAYS(B33, A33)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4293,7 +4296,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f>NETWORKDAYS(B34, A34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -4357,7 +4360,7 @@
         <v>130</v>
       </c>
       <c r="I35" s="10">
-        <f>NETWORKDAYS(B35, A35)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="J35" s="7">
@@ -4421,7 +4424,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="10">
-        <f>NETWORKDAYS(B36, A36)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J36" s="7">
@@ -4485,7 +4488,7 @@
         <v>91</v>
       </c>
       <c r="I37" s="10">
-        <f>NETWORKDAYS(B37, A37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J37" s="7">
@@ -4549,7 +4552,7 @@
         <v>91</v>
       </c>
       <c r="I38" s="10">
-        <f>NETWORKDAYS(B38, A38)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J38" s="7">
@@ -4613,7 +4616,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="10">
-        <f>NETWORKDAYS(B39, A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J39" s="7">
@@ -4677,7 +4680,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="10">
-        <f>NETWORKDAYS(B40, A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J40" s="7">
@@ -4741,7 +4744,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="10">
-        <f>NETWORKDAYS(B41, A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J41" s="7">
@@ -4805,7 +4808,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="10">
-        <f>NETWORKDAYS(B42, A42)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J42" s="7">
@@ -4869,7 +4872,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="10">
-        <f>NETWORKDAYS(B43, A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J43" s="7">
@@ -4933,7 +4936,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="10">
-        <f>NETWORKDAYS(B44, A44)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J44" s="7">
@@ -4997,7 +5000,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="10">
-        <f>NETWORKDAYS(B45, A45)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J45" s="7">
@@ -5061,7 +5064,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="10">
-        <f>NETWORKDAYS(B46, A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J46" s="7">
@@ -5125,7 +5128,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="10">
-        <f>NETWORKDAYS(B47, A47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J47" s="7">
@@ -5189,7 +5192,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="10">
-        <f>NETWORKDAYS(B48, A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J48" s="7">
@@ -5253,7 +5256,7 @@
         <v>130</v>
       </c>
       <c r="I49" s="10">
-        <f>NETWORKDAYS(B49, A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J49" s="7">
@@ -5317,7 +5320,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="10">
-        <f>NETWORKDAYS(B50, A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J50" s="7">
@@ -5381,7 +5384,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="10">
-        <f>NETWORKDAYS(B51, A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J51" s="7">
@@ -5445,7 +5448,7 @@
         <v>98</v>
       </c>
       <c r="I52" s="10">
-        <f>NETWORKDAYS(B52, A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J52" s="7">
@@ -5509,7 +5512,7 @@
         <v>98</v>
       </c>
       <c r="I53" s="10">
-        <f>NETWORKDAYS(B53, A53)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J53" s="7">
@@ -5573,7 +5576,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="10">
-        <f>NETWORKDAYS(B54, A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J54" s="7">
@@ -5637,7 +5640,7 @@
         <v>126</v>
       </c>
       <c r="I55" s="10">
-        <f>NETWORKDAYS(B55, A55)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J55" s="7">
@@ -5701,7 +5704,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="10">
-        <f>NETWORKDAYS(B56, A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J56" s="7">
@@ -5765,7 +5768,7 @@
         <v>96</v>
       </c>
       <c r="I57" s="10">
-        <f>NETWORKDAYS(B57, A57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J57" s="7">
@@ -5829,7 +5832,7 @@
         <v>32</v>
       </c>
       <c r="I58" s="10">
-        <f>NETWORKDAYS(B58, A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J58" s="7">
@@ -5893,7 +5896,7 @@
         <v>32</v>
       </c>
       <c r="I59" s="10">
-        <f>NETWORKDAYS(B59, A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J59" s="7">
@@ -5957,7 +5960,7 @@
         <v>32</v>
       </c>
       <c r="I60" s="10">
-        <f>NETWORKDAYS(B60, A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J60" s="7">
@@ -6021,7 +6024,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="10">
-        <f>NETWORKDAYS(B61, A61)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J61" s="7">
@@ -6085,7 +6088,7 @@
         <v>130</v>
       </c>
       <c r="I62" s="10">
-        <f>NETWORKDAYS(B62, A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J62" s="7">
@@ -6149,7 +6152,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="10">
-        <f>NETWORKDAYS(B63, A63)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J63" s="7">
@@ -6213,7 +6216,7 @@
         <v>91</v>
       </c>
       <c r="I64" s="10">
-        <f>NETWORKDAYS(B64, A64)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J64" s="7">
@@ -6277,7 +6280,7 @@
         <v>98</v>
       </c>
       <c r="I65" s="10">
-        <f>NETWORKDAYS(B65, A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J65" s="7">
@@ -6341,7 +6344,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="10">
-        <f>NETWORKDAYS(B66, A66)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6405,7 +6408,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="10">
-        <f>NETWORKDAYS(B67, A67)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6469,7 +6472,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f>NETWORKDAYS(B68, A68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6533,7 +6536,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f>NETWORKDAYS(B69, A69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6597,7 +6600,7 @@
         <v>98</v>
       </c>
       <c r="I70" s="10">
-        <f>NETWORKDAYS(B70, A70)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6661,7 +6664,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="10">
-        <f>NETWORKDAYS(B71, A71)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6725,7 +6728,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="10">
-        <f>NETWORKDAYS(B72, A72)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6789,7 +6792,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="10">
-        <f>NETWORKDAYS(B73, A73)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6853,7 +6856,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="10">
-        <f>NETWORKDAYS(B74, A74)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6917,7 +6920,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="10">
-        <f>NETWORKDAYS(B75, A75)</f>
+        <f t="shared" ref="I75:I138" si="2">NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -6981,7 +6984,7 @@
         <v>91</v>
       </c>
       <c r="I76" s="10">
-        <f>NETWORKDAYS(B76, A76)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J76" s="7">
@@ -7045,7 +7048,7 @@
         <v>98</v>
       </c>
       <c r="I77" s="10">
-        <f>NETWORKDAYS(B77, A77)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J77" s="7">
@@ -7109,7 +7112,7 @@
         <v>32</v>
       </c>
       <c r="I78" s="10">
-        <f>NETWORKDAYS(B78, A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J78" s="7">
@@ -7173,7 +7176,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="10">
-        <f>NETWORKDAYS(B79, A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J79" s="7">
@@ -7237,7 +7240,7 @@
         <v>138</v>
       </c>
       <c r="I80" s="10">
-        <f>NETWORKDAYS(B80, A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J80" s="7">
@@ -7301,7 +7304,7 @@
         <v>130</v>
       </c>
       <c r="I81" s="10">
-        <f>NETWORKDAYS(B81, A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J81" s="7">
@@ -7365,7 +7368,7 @@
         <v>98</v>
       </c>
       <c r="I82" s="10">
-        <f>NETWORKDAYS(B82, A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J82" s="7">
@@ -7429,7 +7432,7 @@
         <v>130</v>
       </c>
       <c r="I83" s="10">
-        <f>NETWORKDAYS(B83, A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J83" s="7">
@@ -7493,7 +7496,7 @@
         <v>98</v>
       </c>
       <c r="I84" s="10">
-        <f>NETWORKDAYS(B84, A84)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J84" s="7">
@@ -7557,7 +7560,7 @@
         <v>98</v>
       </c>
       <c r="I85" s="10">
-        <f>NETWORKDAYS(B85, A85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J85" s="7">
@@ -7621,7 +7624,7 @@
         <v>34</v>
       </c>
       <c r="I86" s="30">
-        <f>NETWORKDAYS(B86, A86)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J86" s="28">
@@ -7682,10 +7685,10 @@
         <v>3</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I87" s="10">
-        <f>NETWORKDAYS(B87, A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J87" s="7">
@@ -7749,7 +7752,7 @@
         <v>32</v>
       </c>
       <c r="I88" s="10">
-        <f>NETWORKDAYS(B88, A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J88" s="7">
@@ -7813,7 +7816,7 @@
         <v>126</v>
       </c>
       <c r="I89" s="10">
-        <f>NETWORKDAYS(B89, A89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J89" s="7">
@@ -7877,7 +7880,7 @@
         <v>98</v>
       </c>
       <c r="I90" s="10">
-        <f>NETWORKDAYS(B90, A90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J90" s="7">
@@ -7941,7 +7944,7 @@
         <v>32</v>
       </c>
       <c r="I91" s="10">
-        <f>NETWORKDAYS(B91, A91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J91" s="7">
@@ -8005,7 +8008,7 @@
         <v>98</v>
       </c>
       <c r="I92" s="10">
-        <f>NETWORKDAYS(B92, A92)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J92" s="7">
@@ -8069,7 +8072,7 @@
         <v>126</v>
       </c>
       <c r="I93" s="10">
-        <f>NETWORKDAYS(B93, A93)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J93" s="7">
@@ -8133,7 +8136,7 @@
         <v>126</v>
       </c>
       <c r="I94" s="10">
-        <f>NETWORKDAYS(B94, A94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J94" s="7">
@@ -8197,7 +8200,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="10">
-        <f>NETWORKDAYS(B95, A95)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J95" s="7">
@@ -8261,7 +8264,7 @@
         <v>130</v>
       </c>
       <c r="I96" s="10">
-        <f>NETWORKDAYS(B96, A96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J96" s="7">
@@ -8325,7 +8328,7 @@
         <v>138</v>
       </c>
       <c r="I97" s="10">
-        <f>NETWORKDAYS(B97, A97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J97" s="7">
@@ -8389,7 +8392,7 @@
         <v>98</v>
       </c>
       <c r="I98" s="10">
-        <f>NETWORKDAYS(B98, A98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8453,7 +8456,7 @@
         <v>130</v>
       </c>
       <c r="I99" s="10">
-        <f>NETWORKDAYS(B99, A99)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8517,7 +8520,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="10">
-        <f>NETWORKDAYS(B100, A100)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J100" s="7">
@@ -8581,7 +8584,7 @@
         <v>126</v>
       </c>
       <c r="I101" s="10">
-        <f>NETWORKDAYS(B101, A101)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J101" s="7">
@@ -8645,7 +8648,7 @@
         <v>98</v>
       </c>
       <c r="I102" s="10">
-        <f>NETWORKDAYS(B102, A102)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J102" s="7">
@@ -8709,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="I103" s="10">
-        <f>NETWORKDAYS(B103, A103)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J103" s="7">
@@ -8773,7 +8776,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="10">
-        <f>NETWORKDAYS(B104, A104)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8837,7 +8840,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="10">
-        <f>NETWORKDAYS(B105, A105)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J105" s="7">
@@ -8901,7 +8904,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f>NETWORKDAYS(B106, A106)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -8965,7 +8968,7 @@
         <v>98</v>
       </c>
       <c r="I107" s="10">
-        <f>NETWORKDAYS(B107, A107)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9029,7 +9032,7 @@
         <v>96</v>
       </c>
       <c r="I108" s="10">
-        <f>NETWORKDAYS(B108, A108)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J108" s="7">
@@ -9093,7 +9096,7 @@
         <v>91</v>
       </c>
       <c r="I109" s="10">
-        <f>NETWORKDAYS(B109, A109)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J109" s="7">
@@ -9157,7 +9160,7 @@
         <v>91</v>
       </c>
       <c r="I110" s="10">
-        <f>NETWORKDAYS(B110, A110)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J110" s="7">
@@ -9221,7 +9224,7 @@
         <v>91</v>
       </c>
       <c r="I111" s="10">
-        <f>NETWORKDAYS(B111, A111)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J111" s="7">
@@ -9285,7 +9288,7 @@
         <v>126</v>
       </c>
       <c r="I112" s="10">
-        <f>NETWORKDAYS(B112, A112)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J112" s="7">
@@ -9349,7 +9352,7 @@
         <v>32</v>
       </c>
       <c r="I113" s="10">
-        <f>NETWORKDAYS(B113, A113)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J113" s="7">
@@ -9413,7 +9416,7 @@
         <v>96</v>
       </c>
       <c r="I114" s="10">
-        <f>NETWORKDAYS(B114, A114)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9477,7 +9480,7 @@
         <v>91</v>
       </c>
       <c r="I115" s="10">
-        <f>NETWORKDAYS(B115, A115)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J115" s="7">
@@ -9541,7 +9544,7 @@
         <v>32</v>
       </c>
       <c r="I116" s="10">
-        <f>NETWORKDAYS(B116, A116)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J116" s="7">
@@ -9605,7 +9608,7 @@
         <v>98</v>
       </c>
       <c r="I117" s="10">
-        <f>NETWORKDAYS(B117, A117)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9669,7 +9672,7 @@
         <v>91</v>
       </c>
       <c r="I118" s="10">
-        <f>NETWORKDAYS(B118, A118)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J118" s="7">
@@ -9733,7 +9736,7 @@
         <v>91</v>
       </c>
       <c r="I119" s="10">
-        <f>NETWORKDAYS(B119, A119)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J119" s="7">
@@ -9797,7 +9800,7 @@
         <v>91</v>
       </c>
       <c r="I120" s="10">
-        <f>NETWORKDAYS(B120, A120)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9861,7 +9864,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="10">
-        <f>NETWORKDAYS(B121, A121)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9925,7 +9928,7 @@
         <v>126</v>
       </c>
       <c r="I122" s="10">
-        <f>NETWORKDAYS(B122, A122)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J122" s="7">
@@ -9989,7 +9992,7 @@
         <v>91</v>
       </c>
       <c r="I123" s="10">
-        <f>NETWORKDAYS(B123, A123)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J123" s="7">
@@ -10050,10 +10053,10 @@
         <v>3</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I124" s="10">
-        <f>NETWORKDAYS(B124, A124)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10117,7 +10120,7 @@
         <v>130</v>
       </c>
       <c r="I125" s="10">
-        <f>NETWORKDAYS(B125, A125)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10181,7 +10184,7 @@
         <v>130</v>
       </c>
       <c r="I126" s="10">
-        <f>NETWORKDAYS(B126, A126)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10245,7 +10248,7 @@
         <v>98</v>
       </c>
       <c r="I127" s="10">
-        <f>NETWORKDAYS(B127, A127)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10309,7 +10312,7 @@
         <v>130</v>
       </c>
       <c r="I128" s="10">
-        <f>NETWORKDAYS(B128, A128)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10373,7 +10376,7 @@
         <v>32</v>
       </c>
       <c r="I129" s="10">
-        <f>NETWORKDAYS(B129, A129)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10437,7 +10440,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f>NETWORKDAYS(B130, A130)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10501,7 +10504,7 @@
         <v>91</v>
       </c>
       <c r="I131" s="10">
-        <f>NETWORKDAYS(B131, A131)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J131" s="7">
@@ -10565,7 +10568,7 @@
         <v>126</v>
       </c>
       <c r="I132" s="10">
-        <f>NETWORKDAYS(B132, A132)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="J132" s="7">
@@ -10629,7 +10632,7 @@
         <v>98</v>
       </c>
       <c r="I133" s="10">
-        <f>NETWORKDAYS(B133, A133)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J133" s="7">
@@ -10693,7 +10696,7 @@
         <v>126</v>
       </c>
       <c r="I134" s="10">
-        <f>NETWORKDAYS(B134, A134)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J134" s="7">
@@ -10757,7 +10760,7 @@
         <v>126</v>
       </c>
       <c r="I135" s="10">
-        <f>NETWORKDAYS(B135, A135)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J135" s="7">
@@ -10821,7 +10824,7 @@
         <v>32</v>
       </c>
       <c r="I136" s="10">
-        <f>NETWORKDAYS(B136, A136)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J136" s="7">
@@ -10885,7 +10888,7 @@
         <v>98</v>
       </c>
       <c r="I137" s="10">
-        <f>NETWORKDAYS(B137, A137)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J137" s="7">
@@ -10949,7 +10952,7 @@
         <v>98</v>
       </c>
       <c r="I138" s="10">
-        <f>NETWORKDAYS(B138, A138)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J138" s="7">
@@ -11013,7 +11016,7 @@
         <v>98</v>
       </c>
       <c r="I139" s="10">
-        <f>NETWORKDAYS(B139, A139)</f>
+        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
         <v>18</v>
       </c>
       <c r="J139" s="7">
@@ -11077,7 +11080,7 @@
         <v>91</v>
       </c>
       <c r="I140" s="10">
-        <f>NETWORKDAYS(B140, A140)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J140" s="7">
@@ -11141,7 +11144,7 @@
         <v>130</v>
       </c>
       <c r="I141" s="10">
-        <f>NETWORKDAYS(B141, A141)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J141" s="7">
@@ -11205,7 +11208,7 @@
         <v>372</v>
       </c>
       <c r="I142" s="10">
-        <f>NETWORKDAYS(B142, A142)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J142" s="7">
@@ -11269,7 +11272,7 @@
         <v>98</v>
       </c>
       <c r="I143" s="10">
-        <f>NETWORKDAYS(B143, A143)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J143" s="7">
@@ -11333,7 +11336,7 @@
         <v>34</v>
       </c>
       <c r="I144" s="10">
-        <f>NETWORKDAYS(B144, A144)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J144" s="7">
@@ -11397,7 +11400,7 @@
         <v>126</v>
       </c>
       <c r="I145" s="10">
-        <f>NETWORKDAYS(B145, A145)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="J145" s="7">
@@ -11435,67 +11438,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A146" s="11">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="6">
         <v>45818</v>
       </c>
-      <c r="B146" s="11">
+      <c r="B146" s="6">
         <v>45813</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" s="11" t="s">
+      <c r="C146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F146" s="12">
+      <c r="F146" s="7">
         <v>68422</v>
       </c>
-      <c r="G146" s="12" t="s">
+      <c r="G146" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H146" s="12" t="s">
+      <c r="H146" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I146" s="13">
-        <f>NETWORKDAYS(B146, A146)</f>
+      <c r="I146" s="10">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J146" s="12">
+      <c r="J146" s="7">
         <v>65725</v>
       </c>
-      <c r="K146" s="12">
+      <c r="K146" s="7">
         <v>1450</v>
       </c>
-      <c r="L146" s="12" t="s">
+      <c r="L146" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M146" s="11">
+      <c r="M146" s="6">
         <v>45877</v>
       </c>
-      <c r="N146" s="14">
+      <c r="N146" s="8">
         <v>239.63</v>
       </c>
-      <c r="O146" s="12" t="s">
+      <c r="O146" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P146" s="12">
+      <c r="P146" s="7">
         <v>120</v>
       </c>
-      <c r="Q146" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R146" s="12">
+      <c r="Q146" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R146" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>59</v>
       </c>
-      <c r="S146" s="14">
-        <v>0</v>
-      </c>
-      <c r="T146" s="14">
+      <c r="S146" s="8">
+        <v>0</v>
+      </c>
+      <c r="T146" s="8">
         <v>0</v>
       </c>
     </row>
@@ -11525,7 +11528,7 @@
         <v>98</v>
       </c>
       <c r="I147" s="10">
-        <f>NETWORKDAYS(B147, A147)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J147" s="7">
@@ -11589,7 +11592,7 @@
         <v>138</v>
       </c>
       <c r="I148" s="10">
-        <f>NETWORKDAYS(B148, A148)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J148" s="7">
@@ -11653,7 +11656,7 @@
         <v>91</v>
       </c>
       <c r="I149" s="10">
-        <f>NETWORKDAYS(B149, A149)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="J149" s="7">
@@ -11717,7 +11720,7 @@
         <v>130</v>
       </c>
       <c r="I150" s="10">
-        <f>NETWORKDAYS(B150, A150)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J150" s="7">
@@ -11781,7 +11784,7 @@
         <v>32</v>
       </c>
       <c r="I151" s="10">
-        <f>NETWORKDAYS(B151, A151)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11845,7 +11848,7 @@
         <v>91</v>
       </c>
       <c r="I152" s="10">
-        <f>NETWORKDAYS(B152, A152)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11909,7 +11912,7 @@
         <v>32</v>
       </c>
       <c r="I153" s="10">
-        <f>NETWORKDAYS(B153, A153)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -11973,7 +11976,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="10">
-        <f>NETWORKDAYS(B154, A154)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12037,7 +12040,7 @@
         <v>130</v>
       </c>
       <c r="I155" s="10">
-        <f>NETWORKDAYS(B155, A155)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12101,7 +12104,7 @@
         <v>98</v>
       </c>
       <c r="I156" s="10">
-        <f>NETWORKDAYS(B156, A156)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12165,7 +12168,7 @@
         <v>91</v>
       </c>
       <c r="I157" s="10">
-        <f>NETWORKDAYS(B157, A157)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12229,7 +12232,7 @@
         <v>91</v>
       </c>
       <c r="I158" s="10">
-        <f>NETWORKDAYS(B158, A158)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12293,7 +12296,7 @@
         <v>32</v>
       </c>
       <c r="I159" s="10">
-        <f>NETWORKDAYS(B159, A159)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12357,7 +12360,7 @@
         <v>32</v>
       </c>
       <c r="I160" s="10">
-        <f>NETWORKDAYS(B160, A160)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12421,7 +12424,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f>NETWORKDAYS(B161, A161)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12485,7 +12488,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f>NETWORKDAYS(B162, A162)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12549,7 +12552,7 @@
         <v>185</v>
       </c>
       <c r="I163" s="10">
-        <f>NETWORKDAYS(B163, A163)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12613,7 +12616,7 @@
         <v>91</v>
       </c>
       <c r="I164" s="10">
-        <f>NETWORKDAYS(B164, A164)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J164" s="7">
@@ -12677,7 +12680,7 @@
         <v>98</v>
       </c>
       <c r="I165" s="10">
-        <f>NETWORKDAYS(B165, A165)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J165" s="7">
@@ -12741,7 +12744,7 @@
         <v>91</v>
       </c>
       <c r="I166" s="10">
-        <f>NETWORKDAYS(B166, A166)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J166" s="7">
@@ -12805,7 +12808,7 @@
         <v>130</v>
       </c>
       <c r="I167" s="10">
-        <f>NETWORKDAYS(B167, A167)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J167" s="7">
@@ -12869,7 +12872,7 @@
         <v>32</v>
       </c>
       <c r="I168" s="10">
-        <f>NETWORKDAYS(B168, A168)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J168" s="7">
@@ -12933,7 +12936,7 @@
         <v>130</v>
       </c>
       <c r="I169" s="10">
-        <f>NETWORKDAYS(B169, A169)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -12997,7 +13000,7 @@
         <v>130</v>
       </c>
       <c r="I170" s="10">
-        <f>NETWORKDAYS(B170, A170)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13061,7 +13064,7 @@
         <v>126</v>
       </c>
       <c r="I171" s="10">
-        <f>NETWORKDAYS(B171, A171)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J171" s="7">
@@ -13125,7 +13128,7 @@
         <v>130</v>
       </c>
       <c r="I172" s="10">
-        <f>NETWORKDAYS(B172, A172)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13189,7 +13192,7 @@
         <v>372</v>
       </c>
       <c r="I173" s="13">
-        <f>NETWORKDAYS(B173, A173)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J173" s="12">
@@ -13253,7 +13256,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f>NETWORKDAYS(B174, A174)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13317,7 +13320,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f>NETWORKDAYS(B175, A175)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13381,7 +13384,7 @@
         <v>138</v>
       </c>
       <c r="I176" s="10">
-        <f>NETWORKDAYS(B176, A176)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13445,7 +13448,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f>NETWORKDAYS(B177, A177)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13509,7 +13512,7 @@
         <v>130</v>
       </c>
       <c r="I178" s="10">
-        <f>NETWORKDAYS(B178, A178)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13570,10 +13573,10 @@
         <v>3</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I179" s="10">
-        <f>NETWORKDAYS(B179, A179)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13612,66 +13615,66 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A180" s="41">
-        <v>45826</v>
-      </c>
-      <c r="B180" s="41">
-        <v>45826</v>
-      </c>
-      <c r="C180" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E180" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F180" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G180" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H180" s="42" t="s">
-        <v>126</v>
+      <c r="A180" s="11">
+        <v>45785</v>
+      </c>
+      <c r="B180" s="11">
+        <v>45784</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F180" s="12">
+        <v>68369</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="I180" s="13">
-        <f>NETWORKDAYS(B180, A180)</f>
-        <v>1</v>
-      </c>
-      <c r="J180" s="42">
-        <v>66341</v>
-      </c>
-      <c r="K180" s="42">
-        <v>11758</v>
-      </c>
-      <c r="L180" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="M180" s="41">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J180" s="12">
+        <v>65234</v>
+      </c>
+      <c r="K180" s="12">
+        <v>11610</v>
+      </c>
+      <c r="L180" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M180" s="11">
         <v>45881</v>
       </c>
-      <c r="N180" s="43">
-        <v>924.61</v>
-      </c>
-      <c r="O180" s="42" t="s">
+      <c r="N180" s="14">
+        <v>9114.5499999999993</v>
+      </c>
+      <c r="O180" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P180" s="42">
+      <c r="P180" s="12">
         <v>28</v>
       </c>
-      <c r="Q180" s="42" t="s">
+      <c r="Q180" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R180" s="42">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>55</v>
-      </c>
-      <c r="S180" s="43">
-        <v>0</v>
-      </c>
-      <c r="T180" s="43">
+      <c r="R180" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>96</v>
+      </c>
+      <c r="S180" s="14">
+        <v>183.5</v>
+      </c>
+      <c r="T180" s="14">
         <v>0</v>
       </c>
     </row>
@@ -13701,7 +13704,7 @@
         <v>91</v>
       </c>
       <c r="I181" s="10">
-        <f>NETWORKDAYS(B181, A181)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J181" s="7">
@@ -13765,7 +13768,7 @@
         <v>91</v>
       </c>
       <c r="I182" s="13">
-        <f>NETWORKDAYS(B182, A182)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J182" s="12">
@@ -13803,67 +13806,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A183" s="11">
-        <v>45785</v>
-      </c>
-      <c r="B183" s="11">
-        <v>45784</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="11" t="s">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="6">
+        <v>45846</v>
+      </c>
+      <c r="B183" s="6">
+        <v>45846</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E183" s="11" t="s">
+      <c r="E183" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F183" s="12">
-        <v>68369</v>
-      </c>
-      <c r="G183" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H183" s="12" t="s">
+      <c r="F183" s="7">
+        <v>68461</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H183" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I183" s="13">
-        <f>NETWORKDAYS(B183, A183)</f>
-        <v>2</v>
-      </c>
-      <c r="J183" s="12">
-        <v>65234</v>
-      </c>
-      <c r="K183" s="12">
-        <v>11610</v>
-      </c>
-      <c r="L183" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M183" s="11">
-        <v>45881</v>
-      </c>
-      <c r="N183" s="14">
-        <v>9114.5499999999993</v>
-      </c>
-      <c r="O183" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P183" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q183" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R183" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>96</v>
-      </c>
-      <c r="S183" s="14">
-        <v>183.5</v>
-      </c>
-      <c r="T183" s="14">
+      <c r="I183" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J183" s="7">
+        <v>66119</v>
+      </c>
+      <c r="K183" s="7">
+        <v>10677</v>
+      </c>
+      <c r="L183" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M183" s="6">
+        <v>45905</v>
+      </c>
+      <c r="N183" s="8">
+        <v>2800</v>
+      </c>
+      <c r="O183" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P183" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q183" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R183" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>59</v>
+      </c>
+      <c r="S183" s="8">
+        <v>0</v>
+      </c>
+      <c r="T183" s="8">
         <v>0</v>
       </c>
     </row>
@@ -13893,7 +13896,7 @@
         <v>98</v>
       </c>
       <c r="I184" s="10">
-        <f>NETWORKDAYS(B184, A184)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13957,7 +13960,7 @@
         <v>34</v>
       </c>
       <c r="I185" s="10">
-        <f>NETWORKDAYS(B185, A185)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J185" s="7">
@@ -14021,7 +14024,7 @@
         <v>96</v>
       </c>
       <c r="I186" s="10">
-        <f>NETWORKDAYS(B186, A186)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14085,7 +14088,7 @@
         <v>32</v>
       </c>
       <c r="I187" s="10">
-        <f>NETWORKDAYS(B187, A187)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J187" s="7">
@@ -14124,66 +14127,66 @@
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A188" s="11">
-        <v>45868</v>
-      </c>
-      <c r="B188" s="11">
-        <v>45868</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D188" s="11" t="s">
+      <c r="A188" s="46">
+        <v>45877</v>
+      </c>
+      <c r="B188" s="46">
+        <v>45877</v>
+      </c>
+      <c r="C188" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E188" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="F188" s="12">
-        <v>68487</v>
-      </c>
-      <c r="G188" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="H188" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I188" s="13">
-        <f>NETWORKDAYS(B188, A188)</f>
+      <c r="E188" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F188" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G188" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I188" s="48">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J188" s="12">
-        <v>66489</v>
-      </c>
-      <c r="K188" s="12">
-        <v>11614</v>
-      </c>
-      <c r="L188" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="M188" s="11">
-        <v>45882</v>
-      </c>
-      <c r="N188" s="14">
-        <v>6633</v>
-      </c>
-      <c r="O188" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P188" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q188" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R188" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S188" s="14">
-        <v>0</v>
-      </c>
-      <c r="T188" s="14">
+      <c r="J188" s="47">
+        <v>66627</v>
+      </c>
+      <c r="K188" s="47">
+        <v>11127</v>
+      </c>
+      <c r="L188" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="M188" s="46">
+        <v>45881</v>
+      </c>
+      <c r="N188" s="49">
+        <v>547.91999999999996</v>
+      </c>
+      <c r="O188" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P188" s="47">
+        <v>35</v>
+      </c>
+      <c r="Q188" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="R188" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>4</v>
+      </c>
+      <c r="S188" s="49">
+        <v>0</v>
+      </c>
+      <c r="T188" s="49">
         <v>0</v>
       </c>
     </row>
@@ -14213,7 +14216,7 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f>NETWORKDAYS(B189, A189)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J189" s="7">
@@ -14277,7 +14280,7 @@
         <v>91</v>
       </c>
       <c r="I190" s="10">
-        <f>NETWORKDAYS(B190, A190)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J190" s="7">
@@ -14341,7 +14344,7 @@
         <v>34</v>
       </c>
       <c r="I191" s="10">
-        <f>NETWORKDAYS(B191, A191)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14384,50 +14387,50 @@
         <v>45868</v>
       </c>
       <c r="B192" s="11">
-        <v>45862</v>
+        <v>45868</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="F192" s="12">
-        <v>68476</v>
+        <v>68487</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>227</v>
+        <v>395</v>
       </c>
       <c r="H192" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I192" s="13">
-        <f>NETWORKDAYS(B192, A192)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J192" s="12">
-        <v>66491</v>
+        <v>66489</v>
       </c>
       <c r="K192" s="12">
-        <v>11522</v>
+        <v>11614</v>
       </c>
       <c r="L192" s="12" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="M192" s="11">
         <v>45882</v>
       </c>
       <c r="N192" s="14">
-        <v>398.42</v>
+        <v>6633</v>
       </c>
       <c r="O192" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P192" s="12">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q192" s="12" t="s">
         <v>24</v>
@@ -14469,7 +14472,7 @@
         <v>98</v>
       </c>
       <c r="I193" s="10">
-        <f>NETWORKDAYS(B193, A193)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14533,7 +14536,7 @@
         <v>372</v>
       </c>
       <c r="I194" s="10">
-        <f>NETWORKDAYS(B194, A194)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14597,7 +14600,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f>NETWORKDAYS(B195, A195)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14661,7 +14664,7 @@
         <v>372</v>
       </c>
       <c r="I196" s="10">
-        <f>NETWORKDAYS(B196, A196)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14725,7 +14728,7 @@
         <v>372</v>
       </c>
       <c r="I197" s="10">
-        <f>NETWORKDAYS(B197, A197)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14789,7 +14792,7 @@
         <v>372</v>
       </c>
       <c r="I198" s="10">
-        <f>NETWORKDAYS(B198, A198)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14853,7 +14856,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f>NETWORKDAYS(B199, A199)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14917,7 +14920,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f>NETWORKDAYS(B200, A200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -14981,7 +14984,7 @@
         <v>126</v>
       </c>
       <c r="I201" s="10">
-        <f>NETWORKDAYS(B201, A201)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15045,7 +15048,7 @@
         <v>130</v>
       </c>
       <c r="I202" s="10">
-        <f>NETWORKDAYS(B202, A202)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15109,7 +15112,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f>NETWORKDAYS(B203, A203)</f>
+        <f t="shared" ref="I203:I257" si="4">NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15173,7 +15176,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="10">
-        <f>NETWORKDAYS(B204, A204)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J204" s="7">
@@ -15237,7 +15240,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="10">
-        <f>NETWORKDAYS(B205, A205)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J205" s="7">
@@ -15301,7 +15304,7 @@
         <v>126</v>
       </c>
       <c r="I206" s="10">
-        <f>NETWORKDAYS(B206, A206)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J206" s="7">
@@ -15365,7 +15368,7 @@
         <v>130</v>
       </c>
       <c r="I207" s="10">
-        <f>NETWORKDAYS(B207, A207)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15429,7 +15432,7 @@
         <v>130</v>
       </c>
       <c r="I208" s="10">
-        <f>NETWORKDAYS(B208, A208)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15493,7 +15496,7 @@
         <v>130</v>
       </c>
       <c r="I209" s="10">
-        <f>NETWORKDAYS(B209, A209)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15557,7 +15560,7 @@
         <v>130</v>
       </c>
       <c r="I210" s="10">
-        <f>NETWORKDAYS(B210, A210)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15621,7 +15624,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f>NETWORKDAYS(B211, A211)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15685,7 +15688,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f>NETWORKDAYS(B212, A212)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15749,7 +15752,7 @@
         <v>138</v>
       </c>
       <c r="I213" s="10">
-        <f>NETWORKDAYS(B213, A213)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15813,7 +15816,7 @@
         <v>91</v>
       </c>
       <c r="I214" s="10">
-        <f>NETWORKDAYS(B214, A214)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15877,7 +15880,7 @@
         <v>98</v>
       </c>
       <c r="I215" s="10">
-        <f>NETWORKDAYS(B215, A215)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15941,7 +15944,7 @@
         <v>138</v>
       </c>
       <c r="I216" s="10">
-        <f>NETWORKDAYS(B216, A216)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -16005,7 +16008,7 @@
         <v>98</v>
       </c>
       <c r="I217" s="10">
-        <f>NETWORKDAYS(B217, A217)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J217" s="7">
@@ -16044,66 +16047,66 @@
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A218" s="11">
-        <v>45867</v>
-      </c>
-      <c r="B218" s="11">
-        <v>45867</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E218" s="11" t="s">
+      <c r="A218" s="46">
+        <v>45868</v>
+      </c>
+      <c r="B218" s="46">
+        <v>45862</v>
+      </c>
+      <c r="C218" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F218" s="12">
-        <v>68486</v>
-      </c>
-      <c r="G218" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="H218" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I218" s="13">
-        <f>NETWORKDAYS(B218, A218)</f>
-        <v>1</v>
-      </c>
-      <c r="J218" s="12">
-        <v>66478</v>
-      </c>
-      <c r="K218" s="12">
-        <v>10460</v>
-      </c>
-      <c r="L218" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="M218" s="11">
-        <v>45883</v>
-      </c>
-      <c r="N218" s="14">
-        <v>4789.6099999999997</v>
-      </c>
-      <c r="O218" s="12" t="s">
+      <c r="F218" s="47">
+        <v>68476</v>
+      </c>
+      <c r="G218" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H218" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I218" s="48">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J218" s="47">
+        <v>66491</v>
+      </c>
+      <c r="K218" s="47">
+        <v>11522</v>
+      </c>
+      <c r="L218" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M218" s="46">
+        <v>45888</v>
+      </c>
+      <c r="N218" s="49">
+        <v>1680.4</v>
+      </c>
+      <c r="O218" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="P218" s="12">
+      <c r="P218" s="47">
         <v>28</v>
       </c>
-      <c r="Q218" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R218" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>16</v>
-      </c>
-      <c r="S218" s="14">
-        <v>1509.38</v>
-      </c>
-      <c r="T218" s="14">
+      <c r="Q218" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="R218" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>20</v>
+      </c>
+      <c r="S218" s="49">
+        <v>0</v>
+      </c>
+      <c r="T218" s="49">
         <v>0</v>
       </c>
     </row>
@@ -16133,7 +16136,7 @@
         <v>130</v>
       </c>
       <c r="I219" s="10">
-        <f>NETWORKDAYS(B219, A219)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16197,7 +16200,7 @@
         <v>130</v>
       </c>
       <c r="I220" s="10">
-        <f>NETWORKDAYS(B220, A220)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J220" s="7">
@@ -16261,7 +16264,7 @@
         <v>98</v>
       </c>
       <c r="I221" s="10">
-        <f>NETWORKDAYS(B221, A221)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16325,7 +16328,7 @@
         <v>91</v>
       </c>
       <c r="I222" s="10">
-        <f>NETWORKDAYS(B222, A222)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16389,7 +16392,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f>NETWORKDAYS(B223, A223)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16453,7 +16456,7 @@
         <v>372</v>
       </c>
       <c r="I224" s="10">
-        <f>NETWORKDAYS(B224, A224)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J224" s="7">
@@ -16517,7 +16520,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="10">
-        <f>NETWORKDAYS(B225, A225)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J225" s="7">
@@ -16556,128 +16559,128 @@
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A226" s="11">
-        <v>45870</v>
-      </c>
-      <c r="B226" s="11">
-        <v>45869</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F226" s="12">
-        <v>68491</v>
-      </c>
-      <c r="G226" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="H226" s="12" t="s">
-        <v>372</v>
+      <c r="A226" s="41">
+        <v>45826</v>
+      </c>
+      <c r="B226" s="41">
+        <v>45826</v>
+      </c>
+      <c r="C226" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F226" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G226" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H226" s="42" t="s">
+        <v>126</v>
       </c>
       <c r="I226" s="13">
-        <f>NETWORKDAYS(B226, A226)</f>
-        <v>2</v>
-      </c>
-      <c r="J226" s="12">
-        <v>66521</v>
-      </c>
-      <c r="K226" s="12">
-        <v>3061</v>
-      </c>
-      <c r="L226" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="M226" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J226" s="42">
+        <v>66341</v>
+      </c>
+      <c r="K226" s="42">
+        <v>11758</v>
+      </c>
+      <c r="L226" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M226" s="41">
         <v>45883</v>
       </c>
-      <c r="N226" s="14">
-        <v>3000</v>
-      </c>
-      <c r="O226" s="12" t="s">
+      <c r="N226" s="43">
+        <v>924.61</v>
+      </c>
+      <c r="O226" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="P226" s="12">
-        <v>15</v>
-      </c>
-      <c r="Q226" s="12" t="s">
+      <c r="P226" s="42">
+        <v>28</v>
+      </c>
+      <c r="Q226" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R226" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
-      </c>
-      <c r="S226" s="14">
-        <v>50</v>
-      </c>
-      <c r="T226" s="14">
+      <c r="R226" s="42">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>57</v>
+      </c>
+      <c r="S226" s="43">
+        <v>0</v>
+      </c>
+      <c r="T226" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
-        <v>45870</v>
+        <v>45867</v>
       </c>
       <c r="B227" s="11">
         <v>45867</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E227" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F227" s="12">
-        <v>68485</v>
+        <v>68486</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="H227" s="12" t="s">
-        <v>372</v>
+        <v>96</v>
       </c>
       <c r="I227" s="13">
-        <f>NETWORKDAYS(B227, A227)</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J227" s="12">
-        <v>66526</v>
+        <v>66478</v>
       </c>
       <c r="K227" s="12">
-        <v>3061</v>
+        <v>10460</v>
       </c>
       <c r="L227" s="12" t="s">
-        <v>192</v>
+        <v>393</v>
       </c>
       <c r="M227" s="11">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N227" s="14">
-        <v>1150</v>
+        <v>4789.6099999999997</v>
       </c>
       <c r="O227" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P227" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q227" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R227" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S227" s="14">
-        <v>0</v>
+        <v>1080.08</v>
       </c>
       <c r="T227" s="14">
         <v>0</v>
@@ -16688,188 +16691,188 @@
         <v>45870</v>
       </c>
       <c r="B228" s="11">
-        <v>45863</v>
+        <v>45869</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E228" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F228" s="12">
-        <v>68482</v>
+        <v>68491</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="H228" s="12" t="s">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="I228" s="13">
-        <f>NETWORKDAYS(B228, A228)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="J228" s="12">
-        <v>66522</v>
+        <v>66521</v>
       </c>
       <c r="K228" s="12">
-        <v>679</v>
+        <v>3061</v>
       </c>
       <c r="L228" s="12" t="s">
-        <v>346</v>
+        <v>192</v>
       </c>
       <c r="M228" s="11">
-        <v>45889</v>
+        <v>45883</v>
       </c>
       <c r="N228" s="14">
-        <v>6048.2</v>
+        <v>3000</v>
       </c>
       <c r="O228" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P228" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q228" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R228" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S228" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T228" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A229" s="46">
-        <v>45877</v>
-      </c>
-      <c r="B229" s="46">
-        <v>45877</v>
-      </c>
-      <c r="C229" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="46" t="s">
+      <c r="A229" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B229" s="11">
+        <v>45867</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E229" s="46" t="s">
+      <c r="E229" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F229" s="47">
-        <v>68458</v>
-      </c>
-      <c r="G229" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="H229" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="I229" s="48">
-        <f>NETWORKDAYS(B229, A229)</f>
-        <v>1</v>
-      </c>
-      <c r="J229" s="47">
-        <v>66605</v>
-      </c>
-      <c r="K229" s="47">
-        <v>561</v>
-      </c>
-      <c r="L229" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="M229" s="46">
-        <v>45891</v>
-      </c>
-      <c r="N229" s="49">
-        <v>758.53</v>
-      </c>
-      <c r="O229" s="47" t="s">
+      <c r="F229" s="12">
+        <v>68485</v>
+      </c>
+      <c r="G229" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H229" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I229" s="13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J229" s="12">
+        <v>66526</v>
+      </c>
+      <c r="K229" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L229" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="M229" s="11">
+        <v>45884</v>
+      </c>
+      <c r="N229" s="14">
+        <v>1150</v>
+      </c>
+      <c r="O229" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P229" s="47">
-        <v>28</v>
-      </c>
-      <c r="Q229" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="R229" s="47">
+      <c r="P229" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q229" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R229" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>14</v>
       </c>
-      <c r="S229" s="49">
-        <v>0</v>
-      </c>
-      <c r="T229" s="49">
+      <c r="S229" s="14">
+        <v>0</v>
+      </c>
+      <c r="T229" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
-        <v>45868</v>
+        <v>45880</v>
       </c>
       <c r="B230" s="11">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F230" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F230" s="12">
+        <v>68490</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="H230" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I230" s="13">
-        <f>NETWORKDAYS(B230, A230)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J230" s="12">
-        <v>66504</v>
+        <v>66638</v>
       </c>
       <c r="K230" s="12">
-        <v>3034</v>
+        <v>8992</v>
       </c>
       <c r="L230" s="12" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="M230" s="11">
-        <v>45897</v>
+        <v>45884</v>
       </c>
       <c r="N230" s="14">
-        <v>66522</v>
+        <v>10750</v>
       </c>
       <c r="O230" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P230" s="12">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q230" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R230" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="S230" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T230" s="14">
         <v>0</v>
@@ -16901,7 +16904,7 @@
         <v>372</v>
       </c>
       <c r="I231" s="10">
-        <f>NETWORKDAYS(B231, A231)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J231" s="7">
@@ -16941,10 +16944,10 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B232" s="11">
-        <v>45869</v>
+        <v>45863</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>7</v>
@@ -16953,35 +16956,35 @@
         <v>15</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F232" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F232" s="12">
+        <v>68482</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H232" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I232" s="13">
-        <f>NETWORKDAYS(B232, A232)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J232" s="12">
-        <v>66427</v>
+        <v>66522</v>
       </c>
       <c r="K232" s="12">
-        <v>1277</v>
+        <v>679</v>
       </c>
       <c r="L232" s="12" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="M232" s="11">
-        <v>45897</v>
+        <v>45889</v>
       </c>
       <c r="N232" s="14">
-        <v>2715.75</v>
+        <v>6048.2</v>
       </c>
       <c r="O232" s="12" t="s">
         <v>122</v>
@@ -16994,10 +16997,10 @@
       </c>
       <c r="R232" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S232" s="14">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="T232" s="14">
         <v>0</v>
@@ -17005,127 +17008,127 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B233" s="11">
-        <v>45873</v>
+        <v>45877</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G233" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H233" s="11" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="F233" s="12">
+        <v>68458</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H233" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="I233" s="13">
-        <f>NETWORKDAYS(B233, A233)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J233" s="12">
-        <v>66430</v>
+        <v>66605</v>
       </c>
       <c r="K233" s="12">
-        <v>333</v>
+        <v>561</v>
       </c>
       <c r="L233" s="12" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="M233" s="11">
-        <v>45901</v>
-      </c>
-      <c r="N233" s="45">
-        <v>1483685.03</v>
-      </c>
-      <c r="O233" s="11" t="s">
+        <v>45891</v>
+      </c>
+      <c r="N233" s="14">
+        <v>758.53</v>
+      </c>
+      <c r="O233" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P233" s="12">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R233" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="S233" s="14">
         <v>0</v>
       </c>
       <c r="T233" s="14">
-        <v>59008.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
-        <v>45856</v>
+        <v>45880</v>
       </c>
       <c r="B234" s="11">
-        <v>45856</v>
+        <v>45868</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F234" s="12">
-        <v>68466</v>
+        <v>113</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="H234" s="12" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="I234" s="13">
-        <f>NETWORKDAYS(B234, A234)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="J234" s="12">
-        <v>66337</v>
+        <v>66629</v>
       </c>
       <c r="K234" s="12">
-        <v>11736</v>
+        <v>11121</v>
       </c>
       <c r="L234" s="12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="M234" s="11">
-        <v>45902</v>
+        <v>45894</v>
       </c>
       <c r="N234" s="14">
-        <v>16134.54</v>
+        <v>1242.04</v>
       </c>
       <c r="O234" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P234" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q234" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R234" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="S234" s="14">
-        <v>25720</v>
+        <v>108</v>
       </c>
       <c r="T234" s="14">
         <v>0</v>
@@ -17133,63 +17136,63 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
-        <v>45840</v>
+        <v>45868</v>
       </c>
       <c r="B235" s="11">
-        <v>45840</v>
+        <v>45868</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F235" s="12">
-        <v>68452</v>
+        <v>124</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H235" s="12" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I235" s="13">
-        <f>NETWORKDAYS(B235, A235)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J235" s="12">
-        <v>66037</v>
+        <v>66504</v>
       </c>
       <c r="K235" s="12">
-        <v>11775</v>
+        <v>3034</v>
       </c>
       <c r="L235" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M235" s="11">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="N235" s="14">
-        <v>1750</v>
+        <v>2220</v>
       </c>
       <c r="O235" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P235" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R235" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="S235" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T235" s="14">
         <v>0</v>
@@ -17197,50 +17200,50 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236" s="11">
-        <v>45846</v>
+        <v>45869</v>
       </c>
       <c r="B236" s="11">
-        <v>45846</v>
+        <v>45869</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F236" s="12">
-        <v>68461</v>
+        <v>124</v>
+      </c>
+      <c r="F236" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="H236" s="12" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I236" s="13">
-        <f>NETWORKDAYS(B236, A236)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J236" s="12">
-        <v>66119</v>
+        <v>66427</v>
       </c>
       <c r="K236" s="12">
-        <v>10677</v>
+        <v>1277</v>
       </c>
       <c r="L236" s="12" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="M236" s="11">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="N236" s="14">
-        <v>2800</v>
+        <v>2715.75</v>
       </c>
       <c r="O236" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P236" s="12">
         <v>30</v>
@@ -17250,10 +17253,10 @@
       </c>
       <c r="R236" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="S236" s="14">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="T236" s="14">
         <v>0</v>
@@ -17285,7 +17288,7 @@
         <v>34</v>
       </c>
       <c r="I237" s="10">
-        <f>NETWORKDAYS(B237, A237)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J237" s="7">
@@ -17349,7 +17352,7 @@
         <v>130</v>
       </c>
       <c r="I238" s="10">
-        <f>NETWORKDAYS(B238, A238)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J238" s="7">
@@ -17413,7 +17416,7 @@
         <v>130</v>
       </c>
       <c r="I239" s="10">
-        <f>NETWORKDAYS(B239, A239)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J239" s="7">
@@ -17477,7 +17480,7 @@
         <v>130</v>
       </c>
       <c r="I240" s="10">
-        <f>NETWORKDAYS(B240, A240)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J240" s="7">
@@ -17541,7 +17544,7 @@
         <v>32</v>
       </c>
       <c r="I241" s="10">
-        <f>NETWORKDAYS(B241, A241)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J241" s="7">
@@ -17605,7 +17608,7 @@
         <v>126</v>
       </c>
       <c r="I242" s="10">
-        <f>NETWORKDAYS(B242, A242)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J242" s="7">
@@ -17669,7 +17672,7 @@
         <v>138</v>
       </c>
       <c r="I243" s="10">
-        <f>NETWORKDAYS(B243, A243)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J243" s="7">
@@ -17709,66 +17712,66 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
-        <v>45848</v>
+        <v>45875</v>
       </c>
       <c r="B244" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F244" s="12">
-        <v>68457</v>
-      </c>
-      <c r="G244" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H244" s="12" t="s">
-        <v>34</v>
+        <v>124</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H244" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="I244" s="13">
-        <f>NETWORKDAYS(B244, A244)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J244" s="12">
-        <v>66126</v>
+        <v>66430</v>
       </c>
       <c r="K244" s="12">
-        <v>2931</v>
+        <v>333</v>
       </c>
       <c r="L244" s="12" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="M244" s="11">
-        <v>45905</v>
-      </c>
-      <c r="N244" s="14">
-        <v>3500</v>
-      </c>
-      <c r="O244" s="12" t="s">
+        <v>45901</v>
+      </c>
+      <c r="N244" s="45">
+        <v>1483685.03</v>
+      </c>
+      <c r="O244" s="11" t="s">
         <v>122</v>
       </c>
       <c r="P244" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R244" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="S244" s="14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T244" s="14">
-        <v>0</v>
+        <v>59008.35</v>
       </c>
     </row>
     <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -17797,7 +17800,7 @@
         <v>32</v>
       </c>
       <c r="I245" s="10">
-        <f>NETWORKDAYS(B245, A245)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J245" s="7">
@@ -17837,10 +17840,10 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
-        <v>45874</v>
+        <v>45856</v>
       </c>
       <c r="B246" s="11">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>7</v>
@@ -17852,7 +17855,7 @@
         <v>124</v>
       </c>
       <c r="F246" s="12">
-        <v>68465</v>
+        <v>68466</v>
       </c>
       <c r="G246" s="12" t="s">
         <v>125</v>
@@ -17861,39 +17864,39 @@
         <v>126</v>
       </c>
       <c r="I246" s="13">
-        <f>NETWORKDAYS(B246, A246)</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J246" s="12">
-        <v>66555</v>
+        <v>66337</v>
       </c>
       <c r="K246" s="12">
-        <v>11791</v>
+        <v>11736</v>
       </c>
       <c r="L246" s="12" t="s">
-        <v>403</v>
+        <v>127</v>
       </c>
       <c r="M246" s="11">
-        <v>45906</v>
+        <v>45902</v>
       </c>
       <c r="N246" s="14">
-        <v>1075.55</v>
+        <v>16134.54</v>
       </c>
       <c r="O246" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P246" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q246" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R246" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="S246" s="14">
-        <v>1215.25</v>
+        <v>25720</v>
       </c>
       <c r="T246" s="14">
         <v>0</v>
@@ -17925,7 +17928,7 @@
         <v>32</v>
       </c>
       <c r="I247" s="10">
-        <f>NETWORKDAYS(B247, A247)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J247" s="7">
@@ -17989,7 +17992,7 @@
         <v>98</v>
       </c>
       <c r="I248" s="10">
-        <f>NETWORKDAYS(B248, A248)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J248" s="7">
@@ -18053,7 +18056,7 @@
         <v>98</v>
       </c>
       <c r="I249" s="10">
-        <f>NETWORKDAYS(B249, A249)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J249" s="7">
@@ -18092,128 +18095,128 @@
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A250" s="46">
-        <v>45877</v>
-      </c>
-      <c r="B250" s="46">
-        <v>45873</v>
-      </c>
-      <c r="C250" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" s="46" t="s">
+      <c r="A250" s="11">
+        <v>45840</v>
+      </c>
+      <c r="B250" s="11">
+        <v>45840</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E250" s="46" t="s">
+      <c r="E250" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F250" s="47">
-        <v>68493</v>
-      </c>
-      <c r="G250" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="H250" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I250" s="48">
-        <f>NETWORKDAYS(B250, A250)</f>
-        <v>5</v>
-      </c>
-      <c r="J250" s="47">
-        <v>66607</v>
-      </c>
-      <c r="K250" s="47">
-        <v>1586</v>
-      </c>
-      <c r="L250" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="M250" s="46">
-        <v>45907</v>
-      </c>
-      <c r="N250" s="49">
-        <v>680</v>
-      </c>
-      <c r="O250" s="47" t="s">
+      <c r="F250" s="12">
+        <v>68452</v>
+      </c>
+      <c r="G250" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H250" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I250" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J250" s="12">
+        <v>66037</v>
+      </c>
+      <c r="K250" s="12">
+        <v>11775</v>
+      </c>
+      <c r="L250" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="M250" s="11">
+        <v>45905</v>
+      </c>
+      <c r="N250" s="14">
+        <v>1750</v>
+      </c>
+      <c r="O250" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P250" s="47">
+      <c r="P250" s="12">
         <v>30</v>
       </c>
-      <c r="Q250" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="R250" s="47">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
-      </c>
-      <c r="S250" s="49">
-        <v>0</v>
-      </c>
-      <c r="T250" s="49">
+      <c r="Q250" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R250" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>65</v>
+      </c>
+      <c r="S250" s="14">
+        <v>0</v>
+      </c>
+      <c r="T250" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
-        <v>45867</v>
+        <v>45848</v>
       </c>
       <c r="B251" s="11">
-        <v>45866</v>
+        <v>45848</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F251" s="12">
-        <v>68483</v>
+        <v>68457</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I251" s="13">
-        <f>NETWORKDAYS(B251, A251)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J251" s="12">
-        <v>66467</v>
+        <v>66126</v>
       </c>
       <c r="K251" s="12">
-        <v>11164</v>
+        <v>2931</v>
       </c>
       <c r="L251" s="12" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="M251" s="11">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="N251" s="14">
-        <v>2623.03</v>
+        <v>3500</v>
       </c>
       <c r="O251" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P251" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R251" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="S251" s="14">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="T251" s="14">
         <v>0</v>
@@ -18221,13 +18224,13 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252" s="11">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B252" s="11">
-        <v>45870</v>
+        <v>45853</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D252" s="11" t="s">
         <v>15</v>
@@ -18235,8 +18238,8 @@
       <c r="E252" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F252" s="12" t="s">
-        <v>3</v>
+      <c r="F252" s="12">
+        <v>68465</v>
       </c>
       <c r="G252" s="12" t="s">
         <v>125</v>
@@ -18245,39 +18248,39 @@
         <v>126</v>
       </c>
       <c r="I252" s="13">
-        <f>NETWORKDAYS(B252, A252)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="J252" s="12">
-        <v>66430</v>
+        <v>66555</v>
       </c>
       <c r="K252" s="12">
-        <v>333</v>
+        <v>11791</v>
       </c>
       <c r="L252" s="12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M252" s="11">
-        <v>46113</v>
+        <v>45906</v>
       </c>
       <c r="N252" s="14">
-        <v>281569.34000000003</v>
+        <v>1075.55</v>
       </c>
       <c r="O252" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P252" s="12">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="Q252" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R252" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="S252" s="14">
-        <v>0</v>
+        <v>1215.25</v>
       </c>
       <c r="T252" s="14">
         <v>0</v>
@@ -18309,7 +18312,7 @@
         <v>32</v>
       </c>
       <c r="I253" s="10">
-        <f>NETWORKDAYS(B253, A253)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J253" s="7">
@@ -18336,7 +18339,7 @@
       <c r="Q253" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="R253" s="50">
+      <c r="R253" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>0</v>
       </c>
@@ -18373,7 +18376,7 @@
         <v>32</v>
       </c>
       <c r="I254" s="10">
-        <f>NETWORKDAYS(B254, A254)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J254" s="7">
@@ -18400,7 +18403,7 @@
       <c r="Q254" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="R254" s="50">
+      <c r="R254" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>0</v>
       </c>
@@ -18408,6 +18411,198 @@
         <v>0</v>
       </c>
       <c r="T254" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A255" s="11">
+        <v>45877</v>
+      </c>
+      <c r="B255" s="11">
+        <v>45873</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F255" s="12">
+        <v>68493</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H255" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I255" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J255" s="12">
+        <v>66607</v>
+      </c>
+      <c r="K255" s="12">
+        <v>1586</v>
+      </c>
+      <c r="L255" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="M255" s="11">
+        <v>45907</v>
+      </c>
+      <c r="N255" s="14">
+        <v>680</v>
+      </c>
+      <c r="O255" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P255" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q255" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R255" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>30</v>
+      </c>
+      <c r="S255" s="14">
+        <v>0</v>
+      </c>
+      <c r="T255" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A256" s="11">
+        <v>45867</v>
+      </c>
+      <c r="B256" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F256" s="12">
+        <v>68483</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H256" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I256" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J256" s="12">
+        <v>66467</v>
+      </c>
+      <c r="K256" s="12">
+        <v>11164</v>
+      </c>
+      <c r="L256" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M256" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N256" s="14">
+        <v>2623.03</v>
+      </c>
+      <c r="O256" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P256" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q256" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R256" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S256" s="14">
+        <v>52</v>
+      </c>
+      <c r="T256" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A257" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B257" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H257" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I257" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J257" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K257" s="12">
+        <v>333</v>
+      </c>
+      <c r="L257" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="M257" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N257" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O257" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P257" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q257" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R257" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>243</v>
+      </c>
+      <c r="S257" s="14">
+        <v>0</v>
+      </c>
+      <c r="T257" s="14">
         <v>0</v>
       </c>
     </row>
@@ -18684,7 +18879,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18692,7 +18887,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 589 dias para vencer</v>
+        <v>Faltam 585 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -18710,7 +18905,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18718,7 +18913,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 311 dias</v>
+        <v>Venceu há 315 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -18736,7 +18931,7 @@
       </c>
       <c r="E4" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F4" s="33" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18744,7 +18939,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 19 dias</v>
+        <v>Venceu há 23 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -18762,7 +18957,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18788,7 +18983,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18814,7 +19009,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18822,7 +19017,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 143 dias</v>
+        <v>Venceu há 147 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -18840,7 +19035,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18848,7 +19043,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 886 dias</v>
+        <v>Venceu há 890 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -18866,7 +19061,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18874,7 +19069,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 405 dias para vencer</v>
+        <v>Faltam 401 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -18892,7 +19087,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18900,7 +19095,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 326 dias para vencer</v>
+        <v>Faltam 322 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -18918,7 +19113,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -18926,7 +19121,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 115 dias para vencer</v>
+        <v>Faltam 111 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -19666,10 +19861,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6577E-1BBE-47C5-96B8-0E0691F59A60}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20359,6 +20554,23 @@
       </c>
       <c r="E40" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="17">
+        <v>45880</v>
+      </c>
+      <c r="B41" t="s">
+        <v>409</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41">
+        <v>11795</v>
+      </c>
+      <c r="E41" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -20419,9 +20631,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20551,26 +20766,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20594,9 +20798,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D64EC-004E-4BD4-9486-EA96EC0B9A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F456F7-9CE7-4B18-B33F-8262E1E652F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="411">
   <si>
     <t>SC</t>
   </si>
@@ -1452,7 +1452,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1571,6 +1571,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1754,8 +1760,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T257" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T257" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T259" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T259" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
@@ -1763,8 +1769,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T257">
-    <sortCondition ref="M1:M257"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T259">
+    <sortCondition ref="M1:M259"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -2129,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T257"/>
+  <dimension ref="A1:T259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H233" sqref="H233"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K262" sqref="K262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2153,7 +2159,7 @@
     <col min="14" max="14" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.1796875" style="1" customWidth="1"/>
     <col min="18" max="18" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.453125" style="1" bestFit="1" customWidth="1"/>
@@ -2824,7 +2830,7 @@
         <v>364</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
+        <f>NETWORKDAYS(B11, A11)</f>
         <v>1</v>
       </c>
       <c r="J11" s="12">
@@ -2888,7 +2894,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B12, A12)</f>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2952,7 +2958,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B13, A13)</f>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -3016,7 +3022,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B14, A14)</f>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3080,7 +3086,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B15, A15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3144,7 +3150,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B16, A16)</f>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3208,7 +3214,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B17, A17)</f>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3272,7 +3278,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B18, A18)</f>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3336,7 +3342,7 @@
         <v>91</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B19, A19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3400,7 +3406,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B20, A20)</f>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3464,7 +3470,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B21, A21)</f>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3528,7 +3534,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B22, A22)</f>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3592,7 +3598,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="30">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B23, A23)</f>
         <v>2</v>
       </c>
       <c r="J23" s="28">
@@ -3656,7 +3662,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B24, A24)</f>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3720,7 +3726,7 @@
         <v>126</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B25, A25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3784,7 +3790,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B26, A26)</f>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3848,7 +3854,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B27, A27)</f>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3912,7 +3918,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B28, A28)</f>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -3976,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B29, A29)</f>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4040,7 +4046,7 @@
         <v>138</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B30, A30)</f>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4104,7 +4110,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B31, A31)</f>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4168,7 +4174,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B32, A32)</f>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4232,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B33, A33)</f>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4296,7 +4302,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B34, A34)</f>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -4360,7 +4366,7 @@
         <v>130</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B35, A35)</f>
         <v>37</v>
       </c>
       <c r="J35" s="7">
@@ -4424,7 +4430,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B36, A36)</f>
         <v>4</v>
       </c>
       <c r="J36" s="7">
@@ -4488,7 +4494,7 @@
         <v>91</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B37, A37)</f>
         <v>3</v>
       </c>
       <c r="J37" s="7">
@@ -4552,7 +4558,7 @@
         <v>91</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B38, A38)</f>
         <v>3</v>
       </c>
       <c r="J38" s="7">
@@ -4616,7 +4622,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B39, A39)</f>
         <v>1</v>
       </c>
       <c r="J39" s="7">
@@ -4680,7 +4686,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B40, A40)</f>
         <v>1</v>
       </c>
       <c r="J40" s="7">
@@ -4744,7 +4750,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B41, A41)</f>
         <v>1</v>
       </c>
       <c r="J41" s="7">
@@ -4808,7 +4814,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B42, A42)</f>
         <v>9</v>
       </c>
       <c r="J42" s="7">
@@ -4872,7 +4878,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B43, A43)</f>
         <v>1</v>
       </c>
       <c r="J43" s="7">
@@ -4936,7 +4942,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B44, A44)</f>
         <v>9</v>
       </c>
       <c r="J44" s="7">
@@ -5000,7 +5006,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B45, A45)</f>
         <v>9</v>
       </c>
       <c r="J45" s="7">
@@ -5064,7 +5070,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B46, A46)</f>
         <v>1</v>
       </c>
       <c r="J46" s="7">
@@ -5128,7 +5134,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B47, A47)</f>
         <v>2</v>
       </c>
       <c r="J47" s="7">
@@ -5192,7 +5198,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B48, A48)</f>
         <v>1</v>
       </c>
       <c r="J48" s="7">
@@ -5256,7 +5262,7 @@
         <v>130</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B49, A49)</f>
         <v>1</v>
       </c>
       <c r="J49" s="7">
@@ -5320,7 +5326,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B50, A50)</f>
         <v>1</v>
       </c>
       <c r="J50" s="7">
@@ -5384,7 +5390,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B51, A51)</f>
         <v>1</v>
       </c>
       <c r="J51" s="7">
@@ -5448,7 +5454,7 @@
         <v>98</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B52, A52)</f>
         <v>1</v>
       </c>
       <c r="J52" s="7">
@@ -5512,7 +5518,7 @@
         <v>98</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B53, A53)</f>
         <v>9</v>
       </c>
       <c r="J53" s="7">
@@ -5576,7 +5582,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B54, A54)</f>
         <v>1</v>
       </c>
       <c r="J54" s="7">
@@ -5640,7 +5646,7 @@
         <v>126</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B55, A55)</f>
         <v>6</v>
       </c>
       <c r="J55" s="7">
@@ -5704,7 +5710,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B56, A56)</f>
         <v>1</v>
       </c>
       <c r="J56" s="7">
@@ -5768,7 +5774,7 @@
         <v>96</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B57, A57)</f>
         <v>2</v>
       </c>
       <c r="J57" s="7">
@@ -5832,7 +5838,7 @@
         <v>32</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B58, A58)</f>
         <v>1</v>
       </c>
       <c r="J58" s="7">
@@ -5896,7 +5902,7 @@
         <v>32</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B59, A59)</f>
         <v>1</v>
       </c>
       <c r="J59" s="7">
@@ -5960,7 +5966,7 @@
         <v>32</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B60, A60)</f>
         <v>1</v>
       </c>
       <c r="J60" s="7">
@@ -6024,7 +6030,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B61, A61)</f>
         <v>10</v>
       </c>
       <c r="J61" s="7">
@@ -6088,7 +6094,7 @@
         <v>130</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B62, A62)</f>
         <v>1</v>
       </c>
       <c r="J62" s="7">
@@ -6152,7 +6158,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B63, A63)</f>
         <v>18</v>
       </c>
       <c r="J63" s="7">
@@ -6216,7 +6222,7 @@
         <v>91</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B64, A64)</f>
         <v>4</v>
       </c>
       <c r="J64" s="7">
@@ -6280,7 +6286,7 @@
         <v>98</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B65, A65)</f>
         <v>1</v>
       </c>
       <c r="J65" s="7">
@@ -6344,7 +6350,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B66, A66)</f>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6408,7 +6414,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B67, A67)</f>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6472,7 +6478,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B68, A68)</f>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6536,7 +6542,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B69, A69)</f>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6600,7 +6606,7 @@
         <v>98</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B70, A70)</f>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6664,7 +6670,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B71, A71)</f>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6728,7 +6734,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B72, A72)</f>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6792,7 +6798,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B73, A73)</f>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6856,7 +6862,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B74, A74)</f>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6920,7 +6926,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" ref="I75:I138" si="2">NETWORKDAYS(B75, A75)</f>
+        <f>NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -6984,7 +6990,7 @@
         <v>91</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B76, A76)</f>
         <v>3</v>
       </c>
       <c r="J76" s="7">
@@ -7048,7 +7054,7 @@
         <v>98</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B77, A77)</f>
         <v>2</v>
       </c>
       <c r="J77" s="7">
@@ -7112,7 +7118,7 @@
         <v>32</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B78, A78)</f>
         <v>1</v>
       </c>
       <c r="J78" s="7">
@@ -7176,7 +7182,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B79, A79)</f>
         <v>1</v>
       </c>
       <c r="J79" s="7">
@@ -7240,7 +7246,7 @@
         <v>138</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B80, A80)</f>
         <v>1</v>
       </c>
       <c r="J80" s="7">
@@ -7304,7 +7310,7 @@
         <v>130</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B81, A81)</f>
         <v>1</v>
       </c>
       <c r="J81" s="7">
@@ -7368,7 +7374,7 @@
         <v>98</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B82, A82)</f>
         <v>1</v>
       </c>
       <c r="J82" s="7">
@@ -7432,7 +7438,7 @@
         <v>130</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B83, A83)</f>
         <v>1</v>
       </c>
       <c r="J83" s="7">
@@ -7496,7 +7502,7 @@
         <v>98</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B84, A84)</f>
         <v>2</v>
       </c>
       <c r="J84" s="7">
@@ -7560,7 +7566,7 @@
         <v>98</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B85, A85)</f>
         <v>2</v>
       </c>
       <c r="J85" s="7">
@@ -7624,7 +7630,7 @@
         <v>34</v>
       </c>
       <c r="I86" s="30">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B86, A86)</f>
         <v>2</v>
       </c>
       <c r="J86" s="28">
@@ -7688,7 +7694,7 @@
         <v>32</v>
       </c>
       <c r="I87" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B87, A87)</f>
         <v>1</v>
       </c>
       <c r="J87" s="7">
@@ -7752,7 +7758,7 @@
         <v>32</v>
       </c>
       <c r="I88" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B88, A88)</f>
         <v>1</v>
       </c>
       <c r="J88" s="7">
@@ -7816,7 +7822,7 @@
         <v>126</v>
       </c>
       <c r="I89" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B89, A89)</f>
         <v>1</v>
       </c>
       <c r="J89" s="7">
@@ -7880,7 +7886,7 @@
         <v>98</v>
       </c>
       <c r="I90" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B90, A90)</f>
         <v>1</v>
       </c>
       <c r="J90" s="7">
@@ -7944,7 +7950,7 @@
         <v>32</v>
       </c>
       <c r="I91" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B91, A91)</f>
         <v>1</v>
       </c>
       <c r="J91" s="7">
@@ -8008,7 +8014,7 @@
         <v>98</v>
       </c>
       <c r="I92" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B92, A92)</f>
         <v>4</v>
       </c>
       <c r="J92" s="7">
@@ -8072,7 +8078,7 @@
         <v>126</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B93, A93)</f>
         <v>3</v>
       </c>
       <c r="J93" s="7">
@@ -8136,7 +8142,7 @@
         <v>126</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B94, A94)</f>
         <v>1</v>
       </c>
       <c r="J94" s="7">
@@ -8200,7 +8206,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B95, A95)</f>
         <v>2</v>
       </c>
       <c r="J95" s="7">
@@ -8264,7 +8270,7 @@
         <v>130</v>
       </c>
       <c r="I96" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B96, A96)</f>
         <v>1</v>
       </c>
       <c r="J96" s="7">
@@ -8328,7 +8334,7 @@
         <v>138</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B97, A97)</f>
         <v>1</v>
       </c>
       <c r="J97" s="7">
@@ -8392,7 +8398,7 @@
         <v>98</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B98, A98)</f>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8456,7 +8462,7 @@
         <v>130</v>
       </c>
       <c r="I99" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B99, A99)</f>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8520,7 +8526,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B100, A100)</f>
         <v>24</v>
       </c>
       <c r="J100" s="7">
@@ -8584,7 +8590,7 @@
         <v>126</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B101, A101)</f>
         <v>25</v>
       </c>
       <c r="J101" s="7">
@@ -8648,7 +8654,7 @@
         <v>98</v>
       </c>
       <c r="I102" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B102, A102)</f>
         <v>1</v>
       </c>
       <c r="J102" s="7">
@@ -8712,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="I103" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B103, A103)</f>
         <v>3</v>
       </c>
       <c r="J103" s="7">
@@ -8776,7 +8782,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B104, A104)</f>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8840,7 +8846,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B105, A105)</f>
         <v>1</v>
       </c>
       <c r="J105" s="7">
@@ -8904,7 +8910,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B106, A106)</f>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -8968,7 +8974,7 @@
         <v>98</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B107, A107)</f>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9032,7 +9038,7 @@
         <v>96</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B108, A108)</f>
         <v>6</v>
       </c>
       <c r="J108" s="7">
@@ -9096,7 +9102,7 @@
         <v>91</v>
       </c>
       <c r="I109" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B109, A109)</f>
         <v>4</v>
       </c>
       <c r="J109" s="7">
@@ -9160,7 +9166,7 @@
         <v>91</v>
       </c>
       <c r="I110" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B110, A110)</f>
         <v>4</v>
       </c>
       <c r="J110" s="7">
@@ -9224,7 +9230,7 @@
         <v>91</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B111, A111)</f>
         <v>4</v>
       </c>
       <c r="J111" s="7">
@@ -9288,7 +9294,7 @@
         <v>126</v>
       </c>
       <c r="I112" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B112, A112)</f>
         <v>9</v>
       </c>
       <c r="J112" s="7">
@@ -9352,7 +9358,7 @@
         <v>32</v>
       </c>
       <c r="I113" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B113, A113)</f>
         <v>1</v>
       </c>
       <c r="J113" s="7">
@@ -9416,7 +9422,7 @@
         <v>96</v>
       </c>
       <c r="I114" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B114, A114)</f>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9480,7 +9486,7 @@
         <v>91</v>
       </c>
       <c r="I115" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B115, A115)</f>
         <v>2</v>
       </c>
       <c r="J115" s="7">
@@ -9544,7 +9550,7 @@
         <v>32</v>
       </c>
       <c r="I116" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B116, A116)</f>
         <v>1</v>
       </c>
       <c r="J116" s="7">
@@ -9608,7 +9614,7 @@
         <v>98</v>
       </c>
       <c r="I117" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B117, A117)</f>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9672,7 +9678,7 @@
         <v>91</v>
       </c>
       <c r="I118" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B118, A118)</f>
         <v>5</v>
       </c>
       <c r="J118" s="7">
@@ -9736,7 +9742,7 @@
         <v>91</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B119, A119)</f>
         <v>1</v>
       </c>
       <c r="J119" s="7">
@@ -9800,7 +9806,7 @@
         <v>91</v>
       </c>
       <c r="I120" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B120, A120)</f>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9864,7 +9870,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B121, A121)</f>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9928,7 +9934,7 @@
         <v>126</v>
       </c>
       <c r="I122" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B122, A122)</f>
         <v>18</v>
       </c>
       <c r="J122" s="7">
@@ -9992,7 +9998,7 @@
         <v>91</v>
       </c>
       <c r="I123" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B123, A123)</f>
         <v>1</v>
       </c>
       <c r="J123" s="7">
@@ -10056,7 +10062,7 @@
         <v>32</v>
       </c>
       <c r="I124" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B124, A124)</f>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10120,7 +10126,7 @@
         <v>130</v>
       </c>
       <c r="I125" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B125, A125)</f>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10184,7 +10190,7 @@
         <v>130</v>
       </c>
       <c r="I126" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B126, A126)</f>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10248,7 +10254,7 @@
         <v>98</v>
       </c>
       <c r="I127" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B127, A127)</f>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10312,7 +10318,7 @@
         <v>130</v>
       </c>
       <c r="I128" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B128, A128)</f>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10376,7 +10382,7 @@
         <v>32</v>
       </c>
       <c r="I129" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B129, A129)</f>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10440,7 +10446,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B130, A130)</f>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10504,7 +10510,7 @@
         <v>91</v>
       </c>
       <c r="I131" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B131, A131)</f>
         <v>2</v>
       </c>
       <c r="J131" s="7">
@@ -10568,7 +10574,7 @@
         <v>126</v>
       </c>
       <c r="I132" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B132, A132)</f>
         <v>28</v>
       </c>
       <c r="J132" s="7">
@@ -10632,7 +10638,7 @@
         <v>98</v>
       </c>
       <c r="I133" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B133, A133)</f>
         <v>7</v>
       </c>
       <c r="J133" s="7">
@@ -10696,7 +10702,7 @@
         <v>126</v>
       </c>
       <c r="I134" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B134, A134)</f>
         <v>6</v>
       </c>
       <c r="J134" s="7">
@@ -10760,7 +10766,7 @@
         <v>126</v>
       </c>
       <c r="I135" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B135, A135)</f>
         <v>7</v>
       </c>
       <c r="J135" s="7">
@@ -10824,7 +10830,7 @@
         <v>32</v>
       </c>
       <c r="I136" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B136, A136)</f>
         <v>1</v>
       </c>
       <c r="J136" s="7">
@@ -10888,7 +10894,7 @@
         <v>98</v>
       </c>
       <c r="I137" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B137, A137)</f>
         <v>2</v>
       </c>
       <c r="J137" s="7">
@@ -10952,7 +10958,7 @@
         <v>98</v>
       </c>
       <c r="I138" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B138, A138)</f>
         <v>7</v>
       </c>
       <c r="J138" s="7">
@@ -11016,7 +11022,7 @@
         <v>98</v>
       </c>
       <c r="I139" s="10">
-        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
+        <f>NETWORKDAYS(B139, A139)</f>
         <v>18</v>
       </c>
       <c r="J139" s="7">
@@ -11080,7 +11086,7 @@
         <v>91</v>
       </c>
       <c r="I140" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B140, A140)</f>
         <v>6</v>
       </c>
       <c r="J140" s="7">
@@ -11144,7 +11150,7 @@
         <v>130</v>
       </c>
       <c r="I141" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B141, A141)</f>
         <v>1</v>
       </c>
       <c r="J141" s="7">
@@ -11208,7 +11214,7 @@
         <v>372</v>
       </c>
       <c r="I142" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B142, A142)</f>
         <v>1</v>
       </c>
       <c r="J142" s="7">
@@ -11272,7 +11278,7 @@
         <v>98</v>
       </c>
       <c r="I143" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B143, A143)</f>
         <v>1</v>
       </c>
       <c r="J143" s="7">
@@ -11336,7 +11342,7 @@
         <v>34</v>
       </c>
       <c r="I144" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B144, A144)</f>
         <v>1</v>
       </c>
       <c r="J144" s="7">
@@ -11400,7 +11406,7 @@
         <v>126</v>
       </c>
       <c r="I145" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B145, A145)</f>
         <v>12</v>
       </c>
       <c r="J145" s="7">
@@ -11464,7 +11470,7 @@
         <v>91</v>
       </c>
       <c r="I146" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B146, A146)</f>
         <v>4</v>
       </c>
       <c r="J146" s="7">
@@ -11528,7 +11534,7 @@
         <v>98</v>
       </c>
       <c r="I147" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B147, A147)</f>
         <v>1</v>
       </c>
       <c r="J147" s="7">
@@ -11592,7 +11598,7 @@
         <v>138</v>
       </c>
       <c r="I148" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B148, A148)</f>
         <v>1</v>
       </c>
       <c r="J148" s="7">
@@ -11656,7 +11662,7 @@
         <v>91</v>
       </c>
       <c r="I149" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B149, A149)</f>
         <v>9</v>
       </c>
       <c r="J149" s="7">
@@ -11720,7 +11726,7 @@
         <v>130</v>
       </c>
       <c r="I150" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B150, A150)</f>
         <v>1</v>
       </c>
       <c r="J150" s="7">
@@ -11784,7 +11790,7 @@
         <v>32</v>
       </c>
       <c r="I151" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B151, A151)</f>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11848,7 +11854,7 @@
         <v>91</v>
       </c>
       <c r="I152" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B152, A152)</f>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11912,7 +11918,7 @@
         <v>32</v>
       </c>
       <c r="I153" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B153, A153)</f>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -11976,7 +11982,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B154, A154)</f>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12040,7 +12046,7 @@
         <v>130</v>
       </c>
       <c r="I155" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B155, A155)</f>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12104,7 +12110,7 @@
         <v>98</v>
       </c>
       <c r="I156" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B156, A156)</f>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12168,7 +12174,7 @@
         <v>91</v>
       </c>
       <c r="I157" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B157, A157)</f>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12232,7 +12238,7 @@
         <v>91</v>
       </c>
       <c r="I158" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B158, A158)</f>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12296,7 +12302,7 @@
         <v>32</v>
       </c>
       <c r="I159" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B159, A159)</f>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12360,7 +12366,7 @@
         <v>32</v>
       </c>
       <c r="I160" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B160, A160)</f>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12424,7 +12430,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B161, A161)</f>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12488,7 +12494,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B162, A162)</f>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12552,7 +12558,7 @@
         <v>185</v>
       </c>
       <c r="I163" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B163, A163)</f>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12616,7 +12622,7 @@
         <v>91</v>
       </c>
       <c r="I164" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B164, A164)</f>
         <v>17</v>
       </c>
       <c r="J164" s="7">
@@ -12680,7 +12686,7 @@
         <v>98</v>
       </c>
       <c r="I165" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B165, A165)</f>
         <v>2</v>
       </c>
       <c r="J165" s="7">
@@ -12744,7 +12750,7 @@
         <v>91</v>
       </c>
       <c r="I166" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B166, A166)</f>
         <v>4</v>
       </c>
       <c r="J166" s="7">
@@ -12808,7 +12814,7 @@
         <v>130</v>
       </c>
       <c r="I167" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B167, A167)</f>
         <v>5</v>
       </c>
       <c r="J167" s="7">
@@ -12872,7 +12878,7 @@
         <v>32</v>
       </c>
       <c r="I168" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B168, A168)</f>
         <v>1</v>
       </c>
       <c r="J168" s="7">
@@ -12936,7 +12942,7 @@
         <v>130</v>
       </c>
       <c r="I169" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B169, A169)</f>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -13000,7 +13006,7 @@
         <v>130</v>
       </c>
       <c r="I170" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B170, A170)</f>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13064,7 +13070,7 @@
         <v>126</v>
       </c>
       <c r="I171" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B171, A171)</f>
         <v>1</v>
       </c>
       <c r="J171" s="7">
@@ -13128,7 +13134,7 @@
         <v>130</v>
       </c>
       <c r="I172" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B172, A172)</f>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13192,7 +13198,7 @@
         <v>372</v>
       </c>
       <c r="I173" s="13">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B173, A173)</f>
         <v>1</v>
       </c>
       <c r="J173" s="12">
@@ -13256,7 +13262,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B174, A174)</f>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13320,7 +13326,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B175, A175)</f>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13384,7 +13390,7 @@
         <v>138</v>
       </c>
       <c r="I176" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B176, A176)</f>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13448,7 +13454,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B177, A177)</f>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13512,7 +13518,7 @@
         <v>130</v>
       </c>
       <c r="I178" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B178, A178)</f>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13576,7 +13582,7 @@
         <v>32</v>
       </c>
       <c r="I179" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B179, A179)</f>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13615,66 +13621,66 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A180" s="11">
-        <v>45785</v>
-      </c>
-      <c r="B180" s="11">
-        <v>45784</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="11" t="s">
+      <c r="A180" s="46">
+        <v>45877</v>
+      </c>
+      <c r="B180" s="46">
+        <v>45877</v>
+      </c>
+      <c r="C180" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E180" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F180" s="12">
-        <v>68369</v>
-      </c>
-      <c r="G180" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H180" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I180" s="13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J180" s="12">
-        <v>65234</v>
-      </c>
-      <c r="K180" s="12">
-        <v>11610</v>
-      </c>
-      <c r="L180" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M180" s="11">
+      <c r="E180" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F180" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G180" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I180" s="48">
+        <f>NETWORKDAYS(B180, A180)</f>
+        <v>1</v>
+      </c>
+      <c r="J180" s="47">
+        <v>66627</v>
+      </c>
+      <c r="K180" s="47">
+        <v>11127</v>
+      </c>
+      <c r="L180" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="M180" s="46">
         <v>45881</v>
       </c>
-      <c r="N180" s="14">
-        <v>9114.5499999999993</v>
-      </c>
-      <c r="O180" s="12" t="s">
+      <c r="N180" s="49">
+        <v>547.91999999999996</v>
+      </c>
+      <c r="O180" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="P180" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q180" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R180" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>96</v>
-      </c>
-      <c r="S180" s="14">
-        <v>183.5</v>
-      </c>
-      <c r="T180" s="14">
+      <c r="P180" s="47">
+        <v>35</v>
+      </c>
+      <c r="Q180" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="R180" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>4</v>
+      </c>
+      <c r="S180" s="49">
+        <v>0</v>
+      </c>
+      <c r="T180" s="49">
         <v>0</v>
       </c>
     </row>
@@ -13704,7 +13710,7 @@
         <v>91</v>
       </c>
       <c r="I181" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B181, A181)</f>
         <v>1</v>
       </c>
       <c r="J181" s="7">
@@ -13742,67 +13748,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A182" s="11">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="6">
         <v>45846</v>
       </c>
-      <c r="B182" s="11">
+      <c r="B182" s="6">
         <v>45846</v>
       </c>
-      <c r="C182" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" s="11" t="s">
+      <c r="C182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E182" s="11" t="s">
+      <c r="E182" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F182" s="12">
+      <c r="F182" s="7">
         <v>68456</v>
       </c>
-      <c r="G182" s="12" t="s">
+      <c r="G182" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H182" s="12" t="s">
+      <c r="H182" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I182" s="13">
-        <f t="shared" si="3"/>
+      <c r="I182" s="10">
+        <f>NETWORKDAYS(B182, A182)</f>
         <v>1</v>
       </c>
-      <c r="J182" s="12">
+      <c r="J182" s="7">
         <v>66118</v>
       </c>
-      <c r="K182" s="12">
+      <c r="K182" s="7">
         <v>2289</v>
       </c>
-      <c r="L182" s="12" t="s">
+      <c r="L182" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="M182" s="11">
+      <c r="M182" s="6">
         <v>45881</v>
       </c>
-      <c r="N182" s="14">
+      <c r="N182" s="8">
         <v>607.57000000000005</v>
       </c>
-      <c r="O182" s="12" t="s">
+      <c r="O182" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P182" s="12">
+      <c r="P182" s="7">
         <v>21</v>
       </c>
-      <c r="Q182" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R182" s="12">
+      <c r="Q182" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R182" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>35</v>
       </c>
-      <c r="S182" s="14">
-        <v>0</v>
-      </c>
-      <c r="T182" s="14">
+      <c r="S182" s="8">
+        <v>0</v>
+      </c>
+      <c r="T182" s="8">
         <v>0</v>
       </c>
     </row>
@@ -13832,7 +13838,7 @@
         <v>98</v>
       </c>
       <c r="I183" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B183, A183)</f>
         <v>1</v>
       </c>
       <c r="J183" s="7">
@@ -13896,7 +13902,7 @@
         <v>98</v>
       </c>
       <c r="I184" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B184, A184)</f>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13960,7 +13966,7 @@
         <v>34</v>
       </c>
       <c r="I185" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B185, A185)</f>
         <v>1</v>
       </c>
       <c r="J185" s="7">
@@ -14024,7 +14030,7 @@
         <v>96</v>
       </c>
       <c r="I186" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B186, A186)</f>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14088,7 +14094,7 @@
         <v>32</v>
       </c>
       <c r="I187" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B187, A187)</f>
         <v>1</v>
       </c>
       <c r="J187" s="7">
@@ -14127,66 +14133,66 @@
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A188" s="46">
-        <v>45877</v>
-      </c>
-      <c r="B188" s="46">
-        <v>45877</v>
-      </c>
-      <c r="C188" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" s="46" t="s">
+      <c r="A188" s="11">
+        <v>45868</v>
+      </c>
+      <c r="B188" s="11">
+        <v>45868</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D188" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E188" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="F188" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G188" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H188" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I188" s="48">
-        <f t="shared" si="3"/>
+      <c r="E188" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F188" s="12">
+        <v>68487</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I188" s="13">
+        <f>NETWORKDAYS(B188, A188)</f>
         <v>1</v>
       </c>
-      <c r="J188" s="47">
-        <v>66627</v>
-      </c>
-      <c r="K188" s="47">
-        <v>11127</v>
-      </c>
-      <c r="L188" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="M188" s="46">
-        <v>45881</v>
-      </c>
-      <c r="N188" s="49">
-        <v>547.91999999999996</v>
-      </c>
-      <c r="O188" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="P188" s="47">
-        <v>35</v>
-      </c>
-      <c r="Q188" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="R188" s="47">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>4</v>
-      </c>
-      <c r="S188" s="49">
-        <v>0</v>
-      </c>
-      <c r="T188" s="49">
+      <c r="J188" s="12">
+        <v>66489</v>
+      </c>
+      <c r="K188" s="12">
+        <v>11614</v>
+      </c>
+      <c r="L188" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M188" s="11">
+        <v>45882</v>
+      </c>
+      <c r="N188" s="14">
+        <v>6633</v>
+      </c>
+      <c r="O188" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P188" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R188" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>14</v>
+      </c>
+      <c r="S188" s="14">
+        <v>0</v>
+      </c>
+      <c r="T188" s="14">
         <v>0</v>
       </c>
     </row>
@@ -14216,7 +14222,7 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B189, A189)</f>
         <v>1</v>
       </c>
       <c r="J189" s="7">
@@ -14280,7 +14286,7 @@
         <v>91</v>
       </c>
       <c r="I190" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B190, A190)</f>
         <v>1</v>
       </c>
       <c r="J190" s="7">
@@ -14344,7 +14350,7 @@
         <v>34</v>
       </c>
       <c r="I191" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B191, A191)</f>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14384,63 +14390,63 @@
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="B192" s="11">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="F192" s="12">
-        <v>68487</v>
+        <v>68486</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="H192" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I192" s="13">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B192, A192)</f>
         <v>1</v>
       </c>
       <c r="J192" s="12">
-        <v>66489</v>
+        <v>66478</v>
       </c>
       <c r="K192" s="12">
-        <v>11614</v>
+        <v>10460</v>
       </c>
       <c r="L192" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M192" s="11">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="N192" s="14">
-        <v>6633</v>
+        <v>4789.6099999999997</v>
       </c>
       <c r="O192" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P192" s="12">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q192" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R192" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S192" s="14">
-        <v>0</v>
+        <v>1080.08</v>
       </c>
       <c r="T192" s="14">
         <v>0</v>
@@ -14472,7 +14478,7 @@
         <v>98</v>
       </c>
       <c r="I193" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B193, A193)</f>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14536,7 +14542,7 @@
         <v>372</v>
       </c>
       <c r="I194" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B194, A194)</f>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14600,7 +14606,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B195, A195)</f>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14664,7 +14670,7 @@
         <v>372</v>
       </c>
       <c r="I196" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B196, A196)</f>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14728,7 +14734,7 @@
         <v>372</v>
       </c>
       <c r="I197" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B197, A197)</f>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14792,7 +14798,7 @@
         <v>372</v>
       </c>
       <c r="I198" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B198, A198)</f>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14856,7 +14862,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B199, A199)</f>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14920,7 +14926,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B200, A200)</f>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -14984,7 +14990,7 @@
         <v>126</v>
       </c>
       <c r="I201" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B201, A201)</f>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15048,7 +15054,7 @@
         <v>130</v>
       </c>
       <c r="I202" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B202, A202)</f>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15112,7 +15118,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f t="shared" ref="I203:I257" si="4">NETWORKDAYS(B203, A203)</f>
+        <f>NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15176,7 +15182,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B204, A204)</f>
         <v>1</v>
       </c>
       <c r="J204" s="7">
@@ -15240,7 +15246,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B205, A205)</f>
         <v>1</v>
       </c>
       <c r="J205" s="7">
@@ -15304,7 +15310,7 @@
         <v>126</v>
       </c>
       <c r="I206" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B206, A206)</f>
         <v>1</v>
       </c>
       <c r="J206" s="7">
@@ -15368,7 +15374,7 @@
         <v>130</v>
       </c>
       <c r="I207" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B207, A207)</f>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15432,7 +15438,7 @@
         <v>130</v>
       </c>
       <c r="I208" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B208, A208)</f>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15496,7 +15502,7 @@
         <v>130</v>
       </c>
       <c r="I209" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B209, A209)</f>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15560,7 +15566,7 @@
         <v>130</v>
       </c>
       <c r="I210" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B210, A210)</f>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15624,7 +15630,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B211, A211)</f>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15688,7 +15694,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B212, A212)</f>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15752,7 +15758,7 @@
         <v>138</v>
       </c>
       <c r="I213" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B213, A213)</f>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15816,7 +15822,7 @@
         <v>91</v>
       </c>
       <c r="I214" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B214, A214)</f>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15880,7 +15886,7 @@
         <v>98</v>
       </c>
       <c r="I215" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B215, A215)</f>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15944,7 +15950,7 @@
         <v>138</v>
       </c>
       <c r="I216" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B216, A216)</f>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -16008,7 +16014,7 @@
         <v>98</v>
       </c>
       <c r="I217" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B217, A217)</f>
         <v>1</v>
       </c>
       <c r="J217" s="7">
@@ -16047,66 +16053,66 @@
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A218" s="46">
-        <v>45868</v>
-      </c>
-      <c r="B218" s="46">
-        <v>45862</v>
-      </c>
-      <c r="C218" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" s="46" t="s">
+      <c r="A218" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B218" s="11">
+        <v>45869</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E218" s="46" t="s">
+      <c r="E218" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F218" s="47">
-        <v>68476</v>
-      </c>
-      <c r="G218" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="H218" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="I218" s="48">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J218" s="47">
-        <v>66491</v>
-      </c>
-      <c r="K218" s="47">
-        <v>11522</v>
-      </c>
-      <c r="L218" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="M218" s="46">
-        <v>45888</v>
-      </c>
-      <c r="N218" s="49">
-        <v>1680.4</v>
-      </c>
-      <c r="O218" s="47" t="s">
+      <c r="F218" s="12">
+        <v>68491</v>
+      </c>
+      <c r="G218" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H218" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I218" s="13">
+        <f>NETWORKDAYS(B218, A218)</f>
+        <v>2</v>
+      </c>
+      <c r="J218" s="12">
+        <v>66521</v>
+      </c>
+      <c r="K218" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L218" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="M218" s="11">
+        <v>45883</v>
+      </c>
+      <c r="N218" s="14">
+        <v>3000</v>
+      </c>
+      <c r="O218" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P218" s="47">
-        <v>28</v>
-      </c>
-      <c r="Q218" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="R218" s="47">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>20</v>
-      </c>
-      <c r="S218" s="49">
-        <v>0</v>
-      </c>
-      <c r="T218" s="49">
+      <c r="P218" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q218" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R218" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>13</v>
+      </c>
+      <c r="S218" s="14">
+        <v>50</v>
+      </c>
+      <c r="T218" s="14">
         <v>0</v>
       </c>
     </row>
@@ -16136,7 +16142,7 @@
         <v>130</v>
       </c>
       <c r="I219" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B219, A219)</f>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16200,7 +16206,7 @@
         <v>130</v>
       </c>
       <c r="I220" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B220, A220)</f>
         <v>1</v>
       </c>
       <c r="J220" s="7">
@@ -16264,7 +16270,7 @@
         <v>98</v>
       </c>
       <c r="I221" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B221, A221)</f>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16328,7 +16334,7 @@
         <v>91</v>
       </c>
       <c r="I222" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B222, A222)</f>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16392,7 +16398,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B223, A223)</f>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16456,7 +16462,7 @@
         <v>372</v>
       </c>
       <c r="I224" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B224, A224)</f>
         <v>2</v>
       </c>
       <c r="J224" s="7">
@@ -16520,7 +16526,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B225, A225)</f>
         <v>1</v>
       </c>
       <c r="J225" s="7">
@@ -16559,128 +16565,128 @@
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A226" s="41">
-        <v>45826</v>
-      </c>
-      <c r="B226" s="41">
-        <v>45826</v>
-      </c>
-      <c r="C226" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" s="41" t="s">
+      <c r="A226" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B226" s="11">
+        <v>45867</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F226" s="12">
+        <v>68485</v>
+      </c>
+      <c r="G226" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H226" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I226" s="13">
+        <f>NETWORKDAYS(B226, A226)</f>
+        <v>4</v>
+      </c>
+      <c r="J226" s="12">
+        <v>66526</v>
+      </c>
+      <c r="K226" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L226" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="M226" s="11">
+        <v>45884</v>
+      </c>
+      <c r="N226" s="14">
+        <v>1150</v>
+      </c>
+      <c r="O226" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P226" s="12">
         <v>15</v>
       </c>
-      <c r="E226" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F226" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G226" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H226" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I226" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J226" s="42">
-        <v>66341</v>
-      </c>
-      <c r="K226" s="42">
-        <v>11758</v>
-      </c>
-      <c r="L226" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="M226" s="41">
-        <v>45883</v>
-      </c>
-      <c r="N226" s="43">
-        <v>924.61</v>
-      </c>
-      <c r="O226" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="P226" s="42">
-        <v>28</v>
-      </c>
-      <c r="Q226" s="42" t="s">
+      <c r="Q226" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R226" s="42">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
-      </c>
-      <c r="S226" s="43">
-        <v>0</v>
-      </c>
-      <c r="T226" s="43">
+      <c r="R226" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>14</v>
+      </c>
+      <c r="S226" s="14">
+        <v>0</v>
+      </c>
+      <c r="T226" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
-        <v>45867</v>
+        <v>45880</v>
       </c>
       <c r="B227" s="11">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E227" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F227" s="12">
-        <v>68486</v>
+        <v>68490</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="H227" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I227" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B227, A227)</f>
+        <v>8</v>
       </c>
       <c r="J227" s="12">
-        <v>66478</v>
+        <v>66638</v>
       </c>
       <c r="K227" s="12">
-        <v>10460</v>
+        <v>8992</v>
       </c>
       <c r="L227" s="12" t="s">
-        <v>393</v>
+        <v>180</v>
       </c>
       <c r="M227" s="11">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="N227" s="14">
-        <v>4789.6099999999997</v>
+        <v>10750</v>
       </c>
       <c r="O227" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P227" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q227" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R227" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S227" s="14">
-        <v>1080.08</v>
+        <v>0</v>
       </c>
       <c r="T227" s="14">
         <v>0</v>
@@ -16688,10 +16694,10 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
-        <v>45870</v>
+        <v>45785</v>
       </c>
       <c r="B228" s="11">
-        <v>45869</v>
+        <v>45784</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>7</v>
@@ -16703,173 +16709,173 @@
         <v>113</v>
       </c>
       <c r="F228" s="12">
-        <v>68491</v>
+        <v>68369</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>371</v>
+        <v>39</v>
       </c>
       <c r="H228" s="12" t="s">
-        <v>372</v>
+        <v>98</v>
       </c>
       <c r="I228" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B228, A228)</f>
         <v>2</v>
       </c>
       <c r="J228" s="12">
-        <v>66521</v>
+        <v>65234</v>
       </c>
       <c r="K228" s="12">
-        <v>3061</v>
+        <v>11610</v>
       </c>
       <c r="L228" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="M228" s="11">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="N228" s="14">
-        <v>3000</v>
+        <v>9114.5499999999993</v>
       </c>
       <c r="O228" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P228" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q228" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R228" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="S228" s="14">
-        <v>50</v>
+        <v>183.5</v>
       </c>
       <c r="T228" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A229" s="11">
-        <v>45870</v>
-      </c>
-      <c r="B229" s="11">
-        <v>45867</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="11" t="s">
+      <c r="A229" s="46">
+        <v>45868</v>
+      </c>
+      <c r="B229" s="46">
+        <v>45862</v>
+      </c>
+      <c r="C229" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E229" s="11" t="s">
+      <c r="E229" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F229" s="12">
-        <v>68485</v>
-      </c>
-      <c r="G229" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="H229" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="I229" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J229" s="12">
-        <v>66526</v>
-      </c>
-      <c r="K229" s="12">
-        <v>3061</v>
-      </c>
-      <c r="L229" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="M229" s="11">
-        <v>45884</v>
-      </c>
-      <c r="N229" s="14">
-        <v>1150</v>
-      </c>
-      <c r="O229" s="12" t="s">
+      <c r="F229" s="47">
+        <v>68476</v>
+      </c>
+      <c r="G229" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H229" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I229" s="48">
+        <f>NETWORKDAYS(B229, A229)</f>
+        <v>5</v>
+      </c>
+      <c r="J229" s="47">
+        <v>66491</v>
+      </c>
+      <c r="K229" s="47">
+        <v>11522</v>
+      </c>
+      <c r="L229" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M229" s="46">
+        <v>45888</v>
+      </c>
+      <c r="N229" s="49">
+        <v>1680.4</v>
+      </c>
+      <c r="O229" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="P229" s="12">
-        <v>15</v>
-      </c>
-      <c r="Q229" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R229" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S229" s="14">
-        <v>0</v>
-      </c>
-      <c r="T229" s="14">
+      <c r="P229" s="47">
+        <v>28</v>
+      </c>
+      <c r="Q229" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="R229" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>20</v>
+      </c>
+      <c r="S229" s="49">
+        <v>0</v>
+      </c>
+      <c r="T229" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
+        <v>45881</v>
+      </c>
+      <c r="B230" s="11">
         <v>45880</v>
       </c>
-      <c r="B230" s="11">
-        <v>45869</v>
-      </c>
       <c r="C230" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E230" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F230" s="12">
-        <v>68490</v>
+        <v>68500</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="H230" s="12" t="s">
-        <v>98</v>
+        <v>372</v>
       </c>
       <c r="I230" s="13">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>NETWORKDAYS(B230, A230)</f>
+        <v>2</v>
       </c>
       <c r="J230" s="12">
-        <v>66638</v>
-      </c>
-      <c r="K230" s="12">
-        <v>8992</v>
+        <v>66660</v>
+      </c>
+      <c r="K230" s="51">
+        <v>160</v>
       </c>
       <c r="L230" s="12" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M230" s="11">
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="N230" s="14">
-        <v>10750</v>
+        <v>524.1</v>
       </c>
       <c r="O230" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P230" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q230" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R230" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>4</v>
+      <c r="R230" s="51">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
       </c>
       <c r="S230" s="14">
         <v>0</v>
@@ -16904,7 +16910,7 @@
         <v>372</v>
       </c>
       <c r="I231" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B231, A231)</f>
         <v>1</v>
       </c>
       <c r="J231" s="7">
@@ -16968,7 +16974,7 @@
         <v>130</v>
       </c>
       <c r="I232" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B232, A232)</f>
         <v>6</v>
       </c>
       <c r="J232" s="12">
@@ -17007,75 +17013,75 @@
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A233" s="11">
-        <v>45877</v>
-      </c>
-      <c r="B233" s="11">
-        <v>45877</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E233" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F233" s="12">
-        <v>68458</v>
-      </c>
-      <c r="G233" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H233" s="12" t="s">
-        <v>98</v>
+      <c r="A233" s="41">
+        <v>45826</v>
+      </c>
+      <c r="B233" s="41">
+        <v>45826</v>
+      </c>
+      <c r="C233" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F233" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G233" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H233" s="42" t="s">
+        <v>126</v>
       </c>
       <c r="I233" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B233, A233)</f>
         <v>1</v>
       </c>
-      <c r="J233" s="12">
-        <v>66605</v>
-      </c>
-      <c r="K233" s="12">
-        <v>561</v>
-      </c>
-      <c r="L233" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="M233" s="11">
+      <c r="J233" s="42">
+        <v>66341</v>
+      </c>
+      <c r="K233" s="42">
+        <v>11758</v>
+      </c>
+      <c r="L233" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M233" s="41">
         <v>45891</v>
       </c>
-      <c r="N233" s="14">
-        <v>758.53</v>
-      </c>
-      <c r="O233" s="12" t="s">
+      <c r="N233" s="43">
+        <v>924.61</v>
+      </c>
+      <c r="O233" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="P233" s="12">
+      <c r="P233" s="42">
         <v>28</v>
       </c>
-      <c r="Q233" s="12" t="s">
+      <c r="Q233" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R233" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S233" s="14">
-        <v>0</v>
-      </c>
-      <c r="T233" s="14">
+      <c r="R233" s="42">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>65</v>
+      </c>
+      <c r="S233" s="43">
+        <v>0</v>
+      </c>
+      <c r="T233" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
-        <v>45880</v>
+        <v>45877</v>
       </c>
       <c r="B234" s="11">
-        <v>45868</v>
+        <v>45877</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>7</v>
@@ -17086,39 +17092,39 @@
       <c r="E234" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F234" s="12" t="s">
-        <v>3</v>
+      <c r="F234" s="12">
+        <v>68458</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="H234" s="12" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I234" s="13">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>NETWORKDAYS(B234, A234)</f>
+        <v>1</v>
       </c>
       <c r="J234" s="12">
-        <v>66629</v>
+        <v>66605</v>
       </c>
       <c r="K234" s="12">
-        <v>11121</v>
+        <v>561</v>
       </c>
       <c r="L234" s="12" t="s">
-        <v>143</v>
+        <v>324</v>
       </c>
       <c r="M234" s="11">
-        <v>45894</v>
+        <v>45891</v>
       </c>
       <c r="N234" s="14">
-        <v>1242.04</v>
+        <v>758.53</v>
       </c>
       <c r="O234" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P234" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q234" s="12" t="s">
         <v>24</v>
@@ -17128,7 +17134,7 @@
         <v>14</v>
       </c>
       <c r="S234" s="14">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="T234" s="14">
         <v>0</v>
@@ -17136,7 +17142,7 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
-        <v>45868</v>
+        <v>45880</v>
       </c>
       <c r="B235" s="11">
         <v>45868</v>
@@ -17145,120 +17151,120 @@
         <v>7</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F235" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="H235" s="12" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="I235" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B235, A235)</f>
+        <v>9</v>
       </c>
       <c r="J235" s="12">
-        <v>66504</v>
+        <v>66629</v>
       </c>
       <c r="K235" s="12">
-        <v>3034</v>
+        <v>11121</v>
       </c>
       <c r="L235" s="12" t="s">
-        <v>349</v>
+        <v>143</v>
       </c>
       <c r="M235" s="11">
-        <v>45897</v>
+        <v>45894</v>
       </c>
       <c r="N235" s="14">
-        <v>2220</v>
+        <v>1242.04</v>
       </c>
       <c r="O235" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P235" s="12">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R235" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="S235" s="14">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="T235" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A236" s="11">
-        <v>45869</v>
-      </c>
-      <c r="B236" s="11">
-        <v>45869</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="11" t="s">
+      <c r="A236" s="46">
+        <v>45881</v>
+      </c>
+      <c r="B236" s="46">
+        <v>45881</v>
+      </c>
+      <c r="C236" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E236" s="11" t="s">
+      <c r="E236" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F236" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G236" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H236" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I236" s="13">
-        <f t="shared" si="4"/>
+      <c r="F236" s="47">
+        <v>68501</v>
+      </c>
+      <c r="G236" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H236" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I236" s="48">
+        <f>NETWORKDAYS(B236, A236)</f>
         <v>1</v>
       </c>
-      <c r="J236" s="12">
-        <v>66427</v>
-      </c>
-      <c r="K236" s="12">
-        <v>1277</v>
-      </c>
-      <c r="L236" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="M236" s="11">
-        <v>45897</v>
-      </c>
-      <c r="N236" s="14">
-        <v>2715.75</v>
-      </c>
-      <c r="O236" s="12" t="s">
+      <c r="J236" s="47">
+        <v>66662</v>
+      </c>
+      <c r="K236" s="50">
+        <v>3040</v>
+      </c>
+      <c r="L236" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="M236" s="46">
+        <v>45896</v>
+      </c>
+      <c r="N236" s="49">
+        <v>1000</v>
+      </c>
+      <c r="O236" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="P236" s="12">
+      <c r="P236" s="47">
         <v>30</v>
       </c>
-      <c r="Q236" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R236" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
-      </c>
-      <c r="S236" s="14">
-        <v>950</v>
-      </c>
-      <c r="T236" s="14">
+      <c r="Q236" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="R236" s="50">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>15</v>
+      </c>
+      <c r="S236" s="49">
+        <v>0</v>
+      </c>
+      <c r="T236" s="49">
         <v>0</v>
       </c>
     </row>
@@ -17288,7 +17294,7 @@
         <v>34</v>
       </c>
       <c r="I237" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B237, A237)</f>
         <v>1</v>
       </c>
       <c r="J237" s="7">
@@ -17352,7 +17358,7 @@
         <v>130</v>
       </c>
       <c r="I238" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B238, A238)</f>
         <v>1</v>
       </c>
       <c r="J238" s="7">
@@ -17416,7 +17422,7 @@
         <v>130</v>
       </c>
       <c r="I239" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B239, A239)</f>
         <v>1</v>
       </c>
       <c r="J239" s="7">
@@ -17480,7 +17486,7 @@
         <v>130</v>
       </c>
       <c r="I240" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B240, A240)</f>
         <v>1</v>
       </c>
       <c r="J240" s="7">
@@ -17544,7 +17550,7 @@
         <v>32</v>
       </c>
       <c r="I241" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B241, A241)</f>
         <v>1</v>
       </c>
       <c r="J241" s="7">
@@ -17608,7 +17614,7 @@
         <v>126</v>
       </c>
       <c r="I242" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B242, A242)</f>
         <v>1</v>
       </c>
       <c r="J242" s="7">
@@ -17672,7 +17678,7 @@
         <v>138</v>
       </c>
       <c r="I243" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B243, A243)</f>
         <v>1</v>
       </c>
       <c r="J243" s="7">
@@ -17712,13 +17718,13 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
-        <v>45875</v>
+        <v>45868</v>
       </c>
       <c r="B244" s="11">
-        <v>45873</v>
+        <v>45868</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D244" s="11" t="s">
         <v>15</v>
@@ -17726,35 +17732,35 @@
       <c r="E244" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F244" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G244" s="11" t="s">
+      <c r="F244" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H244" s="11" t="s">
+      <c r="H244" s="12" t="s">
         <v>126</v>
       </c>
       <c r="I244" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>NETWORKDAYS(B244, A244)</f>
+        <v>1</v>
       </c>
       <c r="J244" s="12">
-        <v>66430</v>
+        <v>66504</v>
       </c>
       <c r="K244" s="12">
-        <v>333</v>
+        <v>3034</v>
       </c>
       <c r="L244" s="12" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="M244" s="11">
-        <v>45901</v>
-      </c>
-      <c r="N244" s="45">
-        <v>1483685.03</v>
-      </c>
-      <c r="O244" s="11" t="s">
+        <v>45897</v>
+      </c>
+      <c r="N244" s="14">
+        <v>2220</v>
+      </c>
+      <c r="O244" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P244" s="12">
@@ -17765,13 +17771,13 @@
       </c>
       <c r="R244" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S244" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T244" s="14">
-        <v>59008.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -17800,7 +17806,7 @@
         <v>32</v>
       </c>
       <c r="I245" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B245, A245)</f>
         <v>1</v>
       </c>
       <c r="J245" s="7">
@@ -17840,10 +17846,10 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
-        <v>45856</v>
+        <v>45869</v>
       </c>
       <c r="B246" s="11">
-        <v>45856</v>
+        <v>45869</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>7</v>
@@ -17854,8 +17860,8 @@
       <c r="E246" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F246" s="12">
-        <v>68466</v>
+      <c r="F246" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G246" s="12" t="s">
         <v>125</v>
@@ -17864,39 +17870,39 @@
         <v>126</v>
       </c>
       <c r="I246" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B246, A246)</f>
         <v>1</v>
       </c>
       <c r="J246" s="12">
-        <v>66337</v>
+        <v>66427</v>
       </c>
       <c r="K246" s="12">
-        <v>11736</v>
+        <v>1277</v>
       </c>
       <c r="L246" s="12" t="s">
-        <v>127</v>
+        <v>398</v>
       </c>
       <c r="M246" s="11">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="N246" s="14">
-        <v>16134.54</v>
+        <v>2715.75</v>
       </c>
       <c r="O246" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P246" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q246" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R246" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="S246" s="14">
-        <v>25720</v>
+        <v>950</v>
       </c>
       <c r="T246" s="14">
         <v>0</v>
@@ -17928,7 +17934,7 @@
         <v>32</v>
       </c>
       <c r="I247" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B247, A247)</f>
         <v>1</v>
       </c>
       <c r="J247" s="7">
@@ -17992,7 +17998,7 @@
         <v>98</v>
       </c>
       <c r="I248" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B248, A248)</f>
         <v>1</v>
       </c>
       <c r="J248" s="7">
@@ -18056,7 +18062,7 @@
         <v>98</v>
       </c>
       <c r="I249" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B249, A249)</f>
         <v>1</v>
       </c>
       <c r="J249" s="7">
@@ -18096,127 +18102,127 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
-        <v>45840</v>
+        <v>45875</v>
       </c>
       <c r="B250" s="11">
-        <v>45840</v>
+        <v>45873</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F250" s="12">
-        <v>68452</v>
-      </c>
-      <c r="G250" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H250" s="12" t="s">
-        <v>34</v>
+        <v>124</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G250" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H250" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="I250" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B250, A250)</f>
+        <v>3</v>
       </c>
       <c r="J250" s="12">
-        <v>66037</v>
+        <v>66430</v>
       </c>
       <c r="K250" s="12">
-        <v>11775</v>
+        <v>333</v>
       </c>
       <c r="L250" s="12" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="M250" s="11">
-        <v>45905</v>
-      </c>
-      <c r="N250" s="14">
-        <v>1750</v>
-      </c>
-      <c r="O250" s="12" t="s">
+        <v>45901</v>
+      </c>
+      <c r="N250" s="45">
+        <v>1483685.03</v>
+      </c>
+      <c r="O250" s="11" t="s">
         <v>122</v>
       </c>
       <c r="P250" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q250" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R250" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="S250" s="14">
         <v>0</v>
       </c>
       <c r="T250" s="14">
-        <v>0</v>
+        <v>59008.35</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
-        <v>45848</v>
+        <v>45856</v>
       </c>
       <c r="B251" s="11">
-        <v>45848</v>
+        <v>45856</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F251" s="12">
-        <v>68457</v>
+        <v>68466</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I251" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B251, A251)</f>
         <v>1</v>
       </c>
       <c r="J251" s="12">
-        <v>66126</v>
+        <v>66337</v>
       </c>
       <c r="K251" s="12">
-        <v>2931</v>
+        <v>11736</v>
       </c>
       <c r="L251" s="12" t="s">
-        <v>366</v>
+        <v>127</v>
       </c>
       <c r="M251" s="11">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="N251" s="14">
-        <v>3500</v>
+        <v>16134.54</v>
       </c>
       <c r="O251" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P251" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R251" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S251" s="14">
-        <v>320</v>
+        <v>25720</v>
       </c>
       <c r="T251" s="14">
         <v>0</v>
@@ -18224,63 +18230,63 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252" s="11">
-        <v>45874</v>
+        <v>45840</v>
       </c>
       <c r="B252" s="11">
-        <v>45853</v>
+        <v>45840</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F252" s="12">
-        <v>68465</v>
+        <v>68452</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="H252" s="12" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I252" s="13">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f>NETWORKDAYS(B252, A252)</f>
+        <v>1</v>
       </c>
       <c r="J252" s="12">
-        <v>66555</v>
+        <v>66037</v>
       </c>
       <c r="K252" s="12">
-        <v>11791</v>
+        <v>11775</v>
       </c>
       <c r="L252" s="12" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="M252" s="11">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="N252" s="14">
-        <v>1075.55</v>
+        <v>1750</v>
       </c>
       <c r="O252" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P252" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q252" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R252" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="S252" s="14">
-        <v>1215.25</v>
+        <v>0</v>
       </c>
       <c r="T252" s="14">
         <v>0</v>
@@ -18312,7 +18318,7 @@
         <v>32</v>
       </c>
       <c r="I253" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B253, A253)</f>
         <v>1</v>
       </c>
       <c r="J253" s="7">
@@ -18376,7 +18382,7 @@
         <v>32</v>
       </c>
       <c r="I254" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B254, A254)</f>
         <v>1</v>
       </c>
       <c r="J254" s="7">
@@ -18416,10 +18422,10 @@
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255" s="11">
-        <v>45877</v>
+        <v>45848</v>
       </c>
       <c r="B255" s="11">
-        <v>45873</v>
+        <v>45848</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>7</v>
@@ -18431,32 +18437,32 @@
         <v>113</v>
       </c>
       <c r="F255" s="12">
-        <v>68493</v>
+        <v>68457</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="H255" s="12" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I255" s="13">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>NETWORKDAYS(B255, A255)</f>
+        <v>1</v>
       </c>
       <c r="J255" s="12">
-        <v>66607</v>
+        <v>66126</v>
       </c>
       <c r="K255" s="12">
-        <v>1586</v>
+        <v>2931</v>
       </c>
       <c r="L255" s="12" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="M255" s="11">
-        <v>45907</v>
+        <v>45905</v>
       </c>
       <c r="N255" s="14">
-        <v>680</v>
+        <v>3500</v>
       </c>
       <c r="O255" s="12" t="s">
         <v>122</v>
@@ -18469,10 +18475,10 @@
       </c>
       <c r="R255" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="S255" s="14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T255" s="14">
         <v>0</v>
@@ -18480,10 +18486,10 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256" s="11">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="B256" s="11">
-        <v>45866</v>
+        <v>45853</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>7</v>
@@ -18495,7 +18501,7 @@
         <v>124</v>
       </c>
       <c r="F256" s="12">
-        <v>68483</v>
+        <v>68465</v>
       </c>
       <c r="G256" s="12" t="s">
         <v>125</v>
@@ -18504,39 +18510,39 @@
         <v>126</v>
       </c>
       <c r="I256" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B256, A256)</f>
+        <v>16</v>
       </c>
       <c r="J256" s="12">
-        <v>66467</v>
+        <v>66555</v>
       </c>
       <c r="K256" s="12">
-        <v>11164</v>
+        <v>11791</v>
       </c>
       <c r="L256" s="12" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
       <c r="M256" s="11">
-        <v>45908</v>
+        <v>45906</v>
       </c>
       <c r="N256" s="14">
-        <v>2623.03</v>
+        <v>1075.55</v>
       </c>
       <c r="O256" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P256" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q256" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R256" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="S256" s="14">
-        <v>52</v>
+        <v>1215.25</v>
       </c>
       <c r="T256" s="14">
         <v>0</v>
@@ -18544,65 +18550,193 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257" s="11">
-        <v>45870</v>
+        <v>45877</v>
       </c>
       <c r="B257" s="11">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F257" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F257" s="12">
+        <v>68493</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="H257" s="12" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I257" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B257, A257)</f>
+        <v>5</v>
       </c>
       <c r="J257" s="12">
-        <v>66430</v>
+        <v>66607</v>
       </c>
       <c r="K257" s="12">
-        <v>333</v>
+        <v>1586</v>
       </c>
       <c r="L257" s="12" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="M257" s="11">
-        <v>46113</v>
+        <v>45907</v>
       </c>
       <c r="N257" s="14">
-        <v>281569.34000000003</v>
+        <v>680</v>
       </c>
       <c r="O257" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P257" s="12">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Q257" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R257" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>30</v>
+      </c>
+      <c r="S257" s="14">
+        <v>0</v>
+      </c>
+      <c r="T257" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A258" s="11">
+        <v>45867</v>
+      </c>
+      <c r="B258" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F258" s="12">
+        <v>68483</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H258" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I258" s="13">
+        <f>NETWORKDAYS(B258, A258)</f>
+        <v>2</v>
+      </c>
+      <c r="J258" s="12">
+        <v>66467</v>
+      </c>
+      <c r="K258" s="12">
+        <v>11164</v>
+      </c>
+      <c r="L258" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M258" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N258" s="14">
+        <v>2623.03</v>
+      </c>
+      <c r="O258" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P258" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q258" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R258" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S258" s="14">
+        <v>52</v>
+      </c>
+      <c r="T258" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A259" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B259" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H259" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I259" s="13">
+        <f>NETWORKDAYS(B259, A259)</f>
+        <v>1</v>
+      </c>
+      <c r="J259" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K259" s="12">
+        <v>333</v>
+      </c>
+      <c r="L259" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="M259" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N259" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O259" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P259" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q259" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R259" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>243</v>
       </c>
-      <c r="S257" s="14">
-        <v>0</v>
-      </c>
-      <c r="T257" s="14">
+      <c r="S259" s="14">
+        <v>0</v>
+      </c>
+      <c r="T259" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20631,12 +20765,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20766,15 +20897,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20798,17 +20940,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F456F7-9CE7-4B18-B33F-8262E1E652F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F253B68B-F7EB-40B5-B748-62BFDAD2826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="413">
   <si>
     <t>SC</t>
   </si>
@@ -1309,6 +1309,12 @@
   </si>
   <si>
     <t>C T MOL PINTURAS LTDA – ME</t>
+  </si>
+  <si>
+    <t>PALACIO DAS FERRAMENTAS E PARAFUSOS LTDA</t>
+  </si>
+  <si>
+    <t>PULIRE INDUSTRIA E COMERCIO DE MATERIAIS DE LIMPEZA EIRELI</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1381,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,6 +1415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1464,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,10 +1585,16 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1760,8 +1778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T259" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T259" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T267" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T267" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
@@ -1859,8 +1877,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E41" totalsRowShown="0">
-  <autoFilter ref="A1:E41" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E42" totalsRowShown="0">
+  <autoFilter ref="A1:E42" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
@@ -2135,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T259"/>
+  <dimension ref="A1:T267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K262" sqref="K262"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L233" sqref="L233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2830,7 +2848,7 @@
         <v>364</v>
       </c>
       <c r="I11" s="13">
-        <f>NETWORKDAYS(B11, A11)</f>
+        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
         <v>1</v>
       </c>
       <c r="J11" s="12">
@@ -2894,7 +2912,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f>NETWORKDAYS(B12, A12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2958,7 +2976,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="10">
-        <f>NETWORKDAYS(B13, A13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -3022,7 +3040,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f>NETWORKDAYS(B14, A14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3086,7 +3104,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10">
-        <f>NETWORKDAYS(B15, A15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3150,7 +3168,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10">
-        <f>NETWORKDAYS(B16, A16)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3214,7 +3232,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f>NETWORKDAYS(B17, A17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3278,7 +3296,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f>NETWORKDAYS(B18, A18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3342,7 +3360,7 @@
         <v>91</v>
       </c>
       <c r="I19" s="10">
-        <f>NETWORKDAYS(B19, A19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3406,7 +3424,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f>NETWORKDAYS(B20, A20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3470,7 +3488,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10">
-        <f>NETWORKDAYS(B21, A21)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3534,7 +3552,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10">
-        <f>NETWORKDAYS(B22, A22)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3598,7 +3616,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="30">
-        <f>NETWORKDAYS(B23, A23)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J23" s="28">
@@ -3662,7 +3680,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f>NETWORKDAYS(B24, A24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3726,7 +3744,7 @@
         <v>126</v>
       </c>
       <c r="I25" s="10">
-        <f>NETWORKDAYS(B25, A25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3790,7 +3808,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="10">
-        <f>NETWORKDAYS(B26, A26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3854,7 +3872,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f>NETWORKDAYS(B27, A27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3918,7 +3936,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f>NETWORKDAYS(B28, A28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -3982,7 +4000,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f>NETWORKDAYS(B29, A29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4046,7 +4064,7 @@
         <v>138</v>
       </c>
       <c r="I30" s="10">
-        <f>NETWORKDAYS(B30, A30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4110,7 +4128,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f>NETWORKDAYS(B31, A31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4174,7 +4192,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="10">
-        <f>NETWORKDAYS(B32, A32)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4238,7 +4256,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="10">
-        <f>NETWORKDAYS(B33, A33)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4302,7 +4320,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f>NETWORKDAYS(B34, A34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -4366,7 +4384,7 @@
         <v>130</v>
       </c>
       <c r="I35" s="10">
-        <f>NETWORKDAYS(B35, A35)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="J35" s="7">
@@ -4430,7 +4448,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="10">
-        <f>NETWORKDAYS(B36, A36)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J36" s="7">
@@ -4494,7 +4512,7 @@
         <v>91</v>
       </c>
       <c r="I37" s="10">
-        <f>NETWORKDAYS(B37, A37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J37" s="7">
@@ -4558,7 +4576,7 @@
         <v>91</v>
       </c>
       <c r="I38" s="10">
-        <f>NETWORKDAYS(B38, A38)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J38" s="7">
@@ -4622,7 +4640,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="10">
-        <f>NETWORKDAYS(B39, A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J39" s="7">
@@ -4686,7 +4704,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="10">
-        <f>NETWORKDAYS(B40, A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J40" s="7">
@@ -4750,7 +4768,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="10">
-        <f>NETWORKDAYS(B41, A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J41" s="7">
@@ -4814,7 +4832,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="10">
-        <f>NETWORKDAYS(B42, A42)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J42" s="7">
@@ -4878,7 +4896,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="10">
-        <f>NETWORKDAYS(B43, A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J43" s="7">
@@ -4942,7 +4960,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="10">
-        <f>NETWORKDAYS(B44, A44)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J44" s="7">
@@ -5006,7 +5024,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="10">
-        <f>NETWORKDAYS(B45, A45)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J45" s="7">
@@ -5070,7 +5088,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="10">
-        <f>NETWORKDAYS(B46, A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J46" s="7">
@@ -5134,7 +5152,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="10">
-        <f>NETWORKDAYS(B47, A47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J47" s="7">
@@ -5198,7 +5216,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="10">
-        <f>NETWORKDAYS(B48, A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J48" s="7">
@@ -5262,7 +5280,7 @@
         <v>130</v>
       </c>
       <c r="I49" s="10">
-        <f>NETWORKDAYS(B49, A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J49" s="7">
@@ -5326,7 +5344,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="10">
-        <f>NETWORKDAYS(B50, A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J50" s="7">
@@ -5390,7 +5408,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="10">
-        <f>NETWORKDAYS(B51, A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J51" s="7">
@@ -5454,7 +5472,7 @@
         <v>98</v>
       </c>
       <c r="I52" s="10">
-        <f>NETWORKDAYS(B52, A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J52" s="7">
@@ -5518,7 +5536,7 @@
         <v>98</v>
       </c>
       <c r="I53" s="10">
-        <f>NETWORKDAYS(B53, A53)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J53" s="7">
@@ -5582,7 +5600,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="10">
-        <f>NETWORKDAYS(B54, A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J54" s="7">
@@ -5646,7 +5664,7 @@
         <v>126</v>
       </c>
       <c r="I55" s="10">
-        <f>NETWORKDAYS(B55, A55)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J55" s="7">
@@ -5710,7 +5728,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="10">
-        <f>NETWORKDAYS(B56, A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J56" s="7">
@@ -5774,7 +5792,7 @@
         <v>96</v>
       </c>
       <c r="I57" s="10">
-        <f>NETWORKDAYS(B57, A57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J57" s="7">
@@ -5838,7 +5856,7 @@
         <v>32</v>
       </c>
       <c r="I58" s="10">
-        <f>NETWORKDAYS(B58, A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J58" s="7">
@@ -5902,7 +5920,7 @@
         <v>32</v>
       </c>
       <c r="I59" s="10">
-        <f>NETWORKDAYS(B59, A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J59" s="7">
@@ -5966,7 +5984,7 @@
         <v>32</v>
       </c>
       <c r="I60" s="10">
-        <f>NETWORKDAYS(B60, A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J60" s="7">
@@ -6030,7 +6048,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="10">
-        <f>NETWORKDAYS(B61, A61)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J61" s="7">
@@ -6094,7 +6112,7 @@
         <v>130</v>
       </c>
       <c r="I62" s="10">
-        <f>NETWORKDAYS(B62, A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J62" s="7">
@@ -6158,7 +6176,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="10">
-        <f>NETWORKDAYS(B63, A63)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J63" s="7">
@@ -6222,7 +6240,7 @@
         <v>91</v>
       </c>
       <c r="I64" s="10">
-        <f>NETWORKDAYS(B64, A64)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J64" s="7">
@@ -6286,7 +6304,7 @@
         <v>98</v>
       </c>
       <c r="I65" s="10">
-        <f>NETWORKDAYS(B65, A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J65" s="7">
@@ -6350,7 +6368,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="10">
-        <f>NETWORKDAYS(B66, A66)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6414,7 +6432,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="10">
-        <f>NETWORKDAYS(B67, A67)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6478,7 +6496,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f>NETWORKDAYS(B68, A68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6542,7 +6560,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f>NETWORKDAYS(B69, A69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6606,7 +6624,7 @@
         <v>98</v>
       </c>
       <c r="I70" s="10">
-        <f>NETWORKDAYS(B70, A70)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6670,7 +6688,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="10">
-        <f>NETWORKDAYS(B71, A71)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6734,7 +6752,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="10">
-        <f>NETWORKDAYS(B72, A72)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6798,7 +6816,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="10">
-        <f>NETWORKDAYS(B73, A73)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6862,7 +6880,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="10">
-        <f>NETWORKDAYS(B74, A74)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6926,7 +6944,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="10">
-        <f>NETWORKDAYS(B75, A75)</f>
+        <f t="shared" ref="I75:I138" si="2">NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -6990,7 +7008,7 @@
         <v>91</v>
       </c>
       <c r="I76" s="10">
-        <f>NETWORKDAYS(B76, A76)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J76" s="7">
@@ -7054,7 +7072,7 @@
         <v>98</v>
       </c>
       <c r="I77" s="10">
-        <f>NETWORKDAYS(B77, A77)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J77" s="7">
@@ -7118,7 +7136,7 @@
         <v>32</v>
       </c>
       <c r="I78" s="10">
-        <f>NETWORKDAYS(B78, A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J78" s="7">
@@ -7182,7 +7200,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="10">
-        <f>NETWORKDAYS(B79, A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J79" s="7">
@@ -7246,7 +7264,7 @@
         <v>138</v>
       </c>
       <c r="I80" s="10">
-        <f>NETWORKDAYS(B80, A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J80" s="7">
@@ -7310,7 +7328,7 @@
         <v>130</v>
       </c>
       <c r="I81" s="10">
-        <f>NETWORKDAYS(B81, A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J81" s="7">
@@ -7374,7 +7392,7 @@
         <v>98</v>
       </c>
       <c r="I82" s="10">
-        <f>NETWORKDAYS(B82, A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J82" s="7">
@@ -7438,7 +7456,7 @@
         <v>130</v>
       </c>
       <c r="I83" s="10">
-        <f>NETWORKDAYS(B83, A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J83" s="7">
@@ -7502,7 +7520,7 @@
         <v>98</v>
       </c>
       <c r="I84" s="10">
-        <f>NETWORKDAYS(B84, A84)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J84" s="7">
@@ -7566,7 +7584,7 @@
         <v>98</v>
       </c>
       <c r="I85" s="10">
-        <f>NETWORKDAYS(B85, A85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J85" s="7">
@@ -7630,7 +7648,7 @@
         <v>34</v>
       </c>
       <c r="I86" s="30">
-        <f>NETWORKDAYS(B86, A86)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J86" s="28">
@@ -7694,7 +7712,7 @@
         <v>32</v>
       </c>
       <c r="I87" s="10">
-        <f>NETWORKDAYS(B87, A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J87" s="7">
@@ -7758,7 +7776,7 @@
         <v>32</v>
       </c>
       <c r="I88" s="10">
-        <f>NETWORKDAYS(B88, A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J88" s="7">
@@ -7822,7 +7840,7 @@
         <v>126</v>
       </c>
       <c r="I89" s="10">
-        <f>NETWORKDAYS(B89, A89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J89" s="7">
@@ -7886,7 +7904,7 @@
         <v>98</v>
       </c>
       <c r="I90" s="10">
-        <f>NETWORKDAYS(B90, A90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J90" s="7">
@@ -7950,7 +7968,7 @@
         <v>32</v>
       </c>
       <c r="I91" s="10">
-        <f>NETWORKDAYS(B91, A91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J91" s="7">
@@ -8014,7 +8032,7 @@
         <v>98</v>
       </c>
       <c r="I92" s="10">
-        <f>NETWORKDAYS(B92, A92)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J92" s="7">
@@ -8078,7 +8096,7 @@
         <v>126</v>
       </c>
       <c r="I93" s="10">
-        <f>NETWORKDAYS(B93, A93)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J93" s="7">
@@ -8142,7 +8160,7 @@
         <v>126</v>
       </c>
       <c r="I94" s="10">
-        <f>NETWORKDAYS(B94, A94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J94" s="7">
@@ -8206,7 +8224,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="10">
-        <f>NETWORKDAYS(B95, A95)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J95" s="7">
@@ -8270,7 +8288,7 @@
         <v>130</v>
       </c>
       <c r="I96" s="10">
-        <f>NETWORKDAYS(B96, A96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J96" s="7">
@@ -8334,7 +8352,7 @@
         <v>138</v>
       </c>
       <c r="I97" s="10">
-        <f>NETWORKDAYS(B97, A97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J97" s="7">
@@ -8398,7 +8416,7 @@
         <v>98</v>
       </c>
       <c r="I98" s="10">
-        <f>NETWORKDAYS(B98, A98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8462,7 +8480,7 @@
         <v>130</v>
       </c>
       <c r="I99" s="10">
-        <f>NETWORKDAYS(B99, A99)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8526,7 +8544,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="10">
-        <f>NETWORKDAYS(B100, A100)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J100" s="7">
@@ -8590,7 +8608,7 @@
         <v>126</v>
       </c>
       <c r="I101" s="10">
-        <f>NETWORKDAYS(B101, A101)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J101" s="7">
@@ -8654,7 +8672,7 @@
         <v>98</v>
       </c>
       <c r="I102" s="10">
-        <f>NETWORKDAYS(B102, A102)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J102" s="7">
@@ -8718,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="I103" s="10">
-        <f>NETWORKDAYS(B103, A103)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J103" s="7">
@@ -8782,7 +8800,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="10">
-        <f>NETWORKDAYS(B104, A104)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8846,7 +8864,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="10">
-        <f>NETWORKDAYS(B105, A105)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J105" s="7">
@@ -8910,7 +8928,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f>NETWORKDAYS(B106, A106)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -8974,7 +8992,7 @@
         <v>98</v>
       </c>
       <c r="I107" s="10">
-        <f>NETWORKDAYS(B107, A107)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9038,7 +9056,7 @@
         <v>96</v>
       </c>
       <c r="I108" s="10">
-        <f>NETWORKDAYS(B108, A108)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J108" s="7">
@@ -9102,7 +9120,7 @@
         <v>91</v>
       </c>
       <c r="I109" s="10">
-        <f>NETWORKDAYS(B109, A109)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J109" s="7">
@@ -9166,7 +9184,7 @@
         <v>91</v>
       </c>
       <c r="I110" s="10">
-        <f>NETWORKDAYS(B110, A110)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J110" s="7">
@@ -9230,7 +9248,7 @@
         <v>91</v>
       </c>
       <c r="I111" s="10">
-        <f>NETWORKDAYS(B111, A111)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J111" s="7">
@@ -9294,7 +9312,7 @@
         <v>126</v>
       </c>
       <c r="I112" s="10">
-        <f>NETWORKDAYS(B112, A112)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J112" s="7">
@@ -9358,7 +9376,7 @@
         <v>32</v>
       </c>
       <c r="I113" s="10">
-        <f>NETWORKDAYS(B113, A113)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J113" s="7">
@@ -9422,7 +9440,7 @@
         <v>96</v>
       </c>
       <c r="I114" s="10">
-        <f>NETWORKDAYS(B114, A114)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9486,7 +9504,7 @@
         <v>91</v>
       </c>
       <c r="I115" s="10">
-        <f>NETWORKDAYS(B115, A115)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J115" s="7">
@@ -9550,7 +9568,7 @@
         <v>32</v>
       </c>
       <c r="I116" s="10">
-        <f>NETWORKDAYS(B116, A116)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J116" s="7">
@@ -9614,7 +9632,7 @@
         <v>98</v>
       </c>
       <c r="I117" s="10">
-        <f>NETWORKDAYS(B117, A117)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9678,7 +9696,7 @@
         <v>91</v>
       </c>
       <c r="I118" s="10">
-        <f>NETWORKDAYS(B118, A118)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J118" s="7">
@@ -9742,7 +9760,7 @@
         <v>91</v>
       </c>
       <c r="I119" s="10">
-        <f>NETWORKDAYS(B119, A119)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J119" s="7">
@@ -9806,7 +9824,7 @@
         <v>91</v>
       </c>
       <c r="I120" s="10">
-        <f>NETWORKDAYS(B120, A120)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9870,7 +9888,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="10">
-        <f>NETWORKDAYS(B121, A121)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9934,7 +9952,7 @@
         <v>126</v>
       </c>
       <c r="I122" s="10">
-        <f>NETWORKDAYS(B122, A122)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J122" s="7">
@@ -9998,7 +10016,7 @@
         <v>91</v>
       </c>
       <c r="I123" s="10">
-        <f>NETWORKDAYS(B123, A123)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J123" s="7">
@@ -10062,7 +10080,7 @@
         <v>32</v>
       </c>
       <c r="I124" s="10">
-        <f>NETWORKDAYS(B124, A124)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10126,7 +10144,7 @@
         <v>130</v>
       </c>
       <c r="I125" s="10">
-        <f>NETWORKDAYS(B125, A125)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10190,7 +10208,7 @@
         <v>130</v>
       </c>
       <c r="I126" s="10">
-        <f>NETWORKDAYS(B126, A126)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10254,7 +10272,7 @@
         <v>98</v>
       </c>
       <c r="I127" s="10">
-        <f>NETWORKDAYS(B127, A127)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10318,7 +10336,7 @@
         <v>130</v>
       </c>
       <c r="I128" s="10">
-        <f>NETWORKDAYS(B128, A128)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10382,7 +10400,7 @@
         <v>32</v>
       </c>
       <c r="I129" s="10">
-        <f>NETWORKDAYS(B129, A129)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10446,7 +10464,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f>NETWORKDAYS(B130, A130)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10510,7 +10528,7 @@
         <v>91</v>
       </c>
       <c r="I131" s="10">
-        <f>NETWORKDAYS(B131, A131)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J131" s="7">
@@ -10574,7 +10592,7 @@
         <v>126</v>
       </c>
       <c r="I132" s="10">
-        <f>NETWORKDAYS(B132, A132)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="J132" s="7">
@@ -10638,7 +10656,7 @@
         <v>98</v>
       </c>
       <c r="I133" s="10">
-        <f>NETWORKDAYS(B133, A133)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J133" s="7">
@@ -10702,7 +10720,7 @@
         <v>126</v>
       </c>
       <c r="I134" s="10">
-        <f>NETWORKDAYS(B134, A134)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J134" s="7">
@@ -10766,7 +10784,7 @@
         <v>126</v>
       </c>
       <c r="I135" s="10">
-        <f>NETWORKDAYS(B135, A135)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J135" s="7">
@@ -10830,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="I136" s="10">
-        <f>NETWORKDAYS(B136, A136)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J136" s="7">
@@ -10894,7 +10912,7 @@
         <v>98</v>
       </c>
       <c r="I137" s="10">
-        <f>NETWORKDAYS(B137, A137)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J137" s="7">
@@ -10958,7 +10976,7 @@
         <v>98</v>
       </c>
       <c r="I138" s="10">
-        <f>NETWORKDAYS(B138, A138)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J138" s="7">
@@ -11022,7 +11040,7 @@
         <v>98</v>
       </c>
       <c r="I139" s="10">
-        <f>NETWORKDAYS(B139, A139)</f>
+        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
         <v>18</v>
       </c>
       <c r="J139" s="7">
@@ -11086,7 +11104,7 @@
         <v>91</v>
       </c>
       <c r="I140" s="10">
-        <f>NETWORKDAYS(B140, A140)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J140" s="7">
@@ -11150,7 +11168,7 @@
         <v>130</v>
       </c>
       <c r="I141" s="10">
-        <f>NETWORKDAYS(B141, A141)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J141" s="7">
@@ -11214,7 +11232,7 @@
         <v>372</v>
       </c>
       <c r="I142" s="10">
-        <f>NETWORKDAYS(B142, A142)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J142" s="7">
@@ -11278,7 +11296,7 @@
         <v>98</v>
       </c>
       <c r="I143" s="10">
-        <f>NETWORKDAYS(B143, A143)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J143" s="7">
@@ -11342,7 +11360,7 @@
         <v>34</v>
       </c>
       <c r="I144" s="10">
-        <f>NETWORKDAYS(B144, A144)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J144" s="7">
@@ -11406,7 +11424,7 @@
         <v>126</v>
       </c>
       <c r="I145" s="10">
-        <f>NETWORKDAYS(B145, A145)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="J145" s="7">
@@ -11470,7 +11488,7 @@
         <v>91</v>
       </c>
       <c r="I146" s="10">
-        <f>NETWORKDAYS(B146, A146)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J146" s="7">
@@ -11534,7 +11552,7 @@
         <v>98</v>
       </c>
       <c r="I147" s="10">
-        <f>NETWORKDAYS(B147, A147)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J147" s="7">
@@ -11598,7 +11616,7 @@
         <v>138</v>
       </c>
       <c r="I148" s="10">
-        <f>NETWORKDAYS(B148, A148)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J148" s="7">
@@ -11662,7 +11680,7 @@
         <v>91</v>
       </c>
       <c r="I149" s="10">
-        <f>NETWORKDAYS(B149, A149)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="J149" s="7">
@@ -11726,7 +11744,7 @@
         <v>130</v>
       </c>
       <c r="I150" s="10">
-        <f>NETWORKDAYS(B150, A150)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J150" s="7">
@@ -11790,7 +11808,7 @@
         <v>32</v>
       </c>
       <c r="I151" s="10">
-        <f>NETWORKDAYS(B151, A151)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11854,7 +11872,7 @@
         <v>91</v>
       </c>
       <c r="I152" s="10">
-        <f>NETWORKDAYS(B152, A152)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11918,7 +11936,7 @@
         <v>32</v>
       </c>
       <c r="I153" s="10">
-        <f>NETWORKDAYS(B153, A153)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -11982,7 +12000,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="10">
-        <f>NETWORKDAYS(B154, A154)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12046,7 +12064,7 @@
         <v>130</v>
       </c>
       <c r="I155" s="10">
-        <f>NETWORKDAYS(B155, A155)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12110,7 +12128,7 @@
         <v>98</v>
       </c>
       <c r="I156" s="10">
-        <f>NETWORKDAYS(B156, A156)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12174,7 +12192,7 @@
         <v>91</v>
       </c>
       <c r="I157" s="10">
-        <f>NETWORKDAYS(B157, A157)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12238,7 +12256,7 @@
         <v>91</v>
       </c>
       <c r="I158" s="10">
-        <f>NETWORKDAYS(B158, A158)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12302,7 +12320,7 @@
         <v>32</v>
       </c>
       <c r="I159" s="10">
-        <f>NETWORKDAYS(B159, A159)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12366,7 +12384,7 @@
         <v>32</v>
       </c>
       <c r="I160" s="10">
-        <f>NETWORKDAYS(B160, A160)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12430,7 +12448,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f>NETWORKDAYS(B161, A161)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12494,7 +12512,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f>NETWORKDAYS(B162, A162)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12558,7 +12576,7 @@
         <v>185</v>
       </c>
       <c r="I163" s="10">
-        <f>NETWORKDAYS(B163, A163)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12622,7 +12640,7 @@
         <v>91</v>
       </c>
       <c r="I164" s="10">
-        <f>NETWORKDAYS(B164, A164)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J164" s="7">
@@ -12686,7 +12704,7 @@
         <v>98</v>
       </c>
       <c r="I165" s="10">
-        <f>NETWORKDAYS(B165, A165)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J165" s="7">
@@ -12750,7 +12768,7 @@
         <v>91</v>
       </c>
       <c r="I166" s="10">
-        <f>NETWORKDAYS(B166, A166)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J166" s="7">
@@ -12814,7 +12832,7 @@
         <v>130</v>
       </c>
       <c r="I167" s="10">
-        <f>NETWORKDAYS(B167, A167)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J167" s="7">
@@ -12878,7 +12896,7 @@
         <v>32</v>
       </c>
       <c r="I168" s="10">
-        <f>NETWORKDAYS(B168, A168)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J168" s="7">
@@ -12942,7 +12960,7 @@
         <v>130</v>
       </c>
       <c r="I169" s="10">
-        <f>NETWORKDAYS(B169, A169)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -13006,7 +13024,7 @@
         <v>130</v>
       </c>
       <c r="I170" s="10">
-        <f>NETWORKDAYS(B170, A170)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13070,7 +13088,7 @@
         <v>126</v>
       </c>
       <c r="I171" s="10">
-        <f>NETWORKDAYS(B171, A171)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J171" s="7">
@@ -13134,7 +13152,7 @@
         <v>130</v>
       </c>
       <c r="I172" s="10">
-        <f>NETWORKDAYS(B172, A172)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13198,7 +13216,7 @@
         <v>372</v>
       </c>
       <c r="I173" s="13">
-        <f>NETWORKDAYS(B173, A173)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J173" s="12">
@@ -13262,7 +13280,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f>NETWORKDAYS(B174, A174)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13326,7 +13344,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f>NETWORKDAYS(B175, A175)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13390,7 +13408,7 @@
         <v>138</v>
       </c>
       <c r="I176" s="10">
-        <f>NETWORKDAYS(B176, A176)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13454,7 +13472,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f>NETWORKDAYS(B177, A177)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13518,7 +13536,7 @@
         <v>130</v>
       </c>
       <c r="I178" s="10">
-        <f>NETWORKDAYS(B178, A178)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13582,7 +13600,7 @@
         <v>32</v>
       </c>
       <c r="I179" s="10">
-        <f>NETWORKDAYS(B179, A179)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13620,67 +13638,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A180" s="46">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="6">
         <v>45877</v>
       </c>
-      <c r="B180" s="46">
+      <c r="B180" s="6">
         <v>45877</v>
       </c>
-      <c r="C180" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="46" t="s">
+      <c r="C180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E180" s="46" t="s">
+      <c r="E180" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F180" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G180" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H180" s="47" t="s">
+      <c r="F180" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I180" s="48">
-        <f>NETWORKDAYS(B180, A180)</f>
+      <c r="I180" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J180" s="47">
+      <c r="J180" s="7">
         <v>66627</v>
       </c>
-      <c r="K180" s="47">
+      <c r="K180" s="7">
         <v>11127</v>
       </c>
-      <c r="L180" s="47" t="s">
+      <c r="L180" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M180" s="46">
+      <c r="M180" s="6">
         <v>45881</v>
       </c>
-      <c r="N180" s="49">
+      <c r="N180" s="8">
         <v>547.91999999999996</v>
       </c>
-      <c r="O180" s="47" t="s">
+      <c r="O180" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P180" s="47">
+      <c r="P180" s="7">
         <v>35</v>
       </c>
-      <c r="Q180" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="R180" s="47">
+      <c r="Q180" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R180" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>4</v>
       </c>
-      <c r="S180" s="49">
-        <v>0</v>
-      </c>
-      <c r="T180" s="49">
+      <c r="S180" s="8">
+        <v>0</v>
+      </c>
+      <c r="T180" s="8">
         <v>0</v>
       </c>
     </row>
@@ -13710,7 +13728,7 @@
         <v>91</v>
       </c>
       <c r="I181" s="10">
-        <f>NETWORKDAYS(B181, A181)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J181" s="7">
@@ -13774,7 +13792,7 @@
         <v>91</v>
       </c>
       <c r="I182" s="10">
-        <f>NETWORKDAYS(B182, A182)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J182" s="7">
@@ -13838,7 +13856,7 @@
         <v>98</v>
       </c>
       <c r="I183" s="10">
-        <f>NETWORKDAYS(B183, A183)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J183" s="7">
@@ -13902,7 +13920,7 @@
         <v>98</v>
       </c>
       <c r="I184" s="10">
-        <f>NETWORKDAYS(B184, A184)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13966,11 +13984,11 @@
         <v>34</v>
       </c>
       <c r="I185" s="10">
-        <f>NETWORKDAYS(B185, A185)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J185" s="7">
-        <v>65769</v>
+        <v>65768</v>
       </c>
       <c r="K185" s="7">
         <v>175</v>
@@ -14030,7 +14048,7 @@
         <v>96</v>
       </c>
       <c r="I186" s="10">
-        <f>NETWORKDAYS(B186, A186)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14094,7 +14112,7 @@
         <v>32</v>
       </c>
       <c r="I187" s="10">
-        <f>NETWORKDAYS(B187, A187)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J187" s="7">
@@ -14132,67 +14150,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A188" s="11">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="6">
         <v>45868</v>
       </c>
-      <c r="B188" s="11">
+      <c r="B188" s="6">
         <v>45868</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E188" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F188" s="12">
+      <c r="F188" s="7">
         <v>68487</v>
       </c>
-      <c r="G188" s="12" t="s">
+      <c r="G188" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="H188" s="12" t="s">
+      <c r="H188" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I188" s="13">
-        <f>NETWORKDAYS(B188, A188)</f>
+      <c r="I188" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J188" s="12">
+      <c r="J188" s="7">
         <v>66489</v>
       </c>
-      <c r="K188" s="12">
+      <c r="K188" s="7">
         <v>11614</v>
       </c>
-      <c r="L188" s="12" t="s">
+      <c r="L188" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="M188" s="11">
+      <c r="M188" s="6">
         <v>45882</v>
       </c>
-      <c r="N188" s="14">
+      <c r="N188" s="8">
         <v>6633</v>
       </c>
-      <c r="O188" s="12" t="s">
+      <c r="O188" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P188" s="12">
+      <c r="P188" s="7">
         <v>1</v>
       </c>
-      <c r="Q188" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R188" s="12">
+      <c r="Q188" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R188" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>14</v>
       </c>
-      <c r="S188" s="14">
-        <v>0</v>
-      </c>
-      <c r="T188" s="14">
+      <c r="S188" s="8">
+        <v>0</v>
+      </c>
+      <c r="T188" s="8">
         <v>0</v>
       </c>
     </row>
@@ -14222,7 +14240,7 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f>NETWORKDAYS(B189, A189)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J189" s="7">
@@ -14286,7 +14304,7 @@
         <v>91</v>
       </c>
       <c r="I190" s="10">
-        <f>NETWORKDAYS(B190, A190)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J190" s="7">
@@ -14350,7 +14368,7 @@
         <v>34</v>
       </c>
       <c r="I191" s="10">
-        <f>NETWORKDAYS(B191, A191)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14414,7 +14432,7 @@
         <v>96</v>
       </c>
       <c r="I192" s="13">
-        <f>NETWORKDAYS(B192, A192)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J192" s="12">
@@ -14478,7 +14496,7 @@
         <v>98</v>
       </c>
       <c r="I193" s="10">
-        <f>NETWORKDAYS(B193, A193)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14542,7 +14560,7 @@
         <v>372</v>
       </c>
       <c r="I194" s="10">
-        <f>NETWORKDAYS(B194, A194)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14606,7 +14624,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f>NETWORKDAYS(B195, A195)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14670,7 +14688,7 @@
         <v>372</v>
       </c>
       <c r="I196" s="10">
-        <f>NETWORKDAYS(B196, A196)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14734,7 +14752,7 @@
         <v>372</v>
       </c>
       <c r="I197" s="10">
-        <f>NETWORKDAYS(B197, A197)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14798,7 +14816,7 @@
         <v>372</v>
       </c>
       <c r="I198" s="10">
-        <f>NETWORKDAYS(B198, A198)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14862,7 +14880,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f>NETWORKDAYS(B199, A199)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14926,7 +14944,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f>NETWORKDAYS(B200, A200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -14990,7 +15008,7 @@
         <v>126</v>
       </c>
       <c r="I201" s="10">
-        <f>NETWORKDAYS(B201, A201)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15054,7 +15072,7 @@
         <v>130</v>
       </c>
       <c r="I202" s="10">
-        <f>NETWORKDAYS(B202, A202)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15118,7 +15136,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f>NETWORKDAYS(B203, A203)</f>
+        <f t="shared" ref="I203:I259" si="4">NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15182,7 +15200,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="10">
-        <f>NETWORKDAYS(B204, A204)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J204" s="7">
@@ -15246,7 +15264,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="10">
-        <f>NETWORKDAYS(B205, A205)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J205" s="7">
@@ -15310,7 +15328,7 @@
         <v>126</v>
       </c>
       <c r="I206" s="10">
-        <f>NETWORKDAYS(B206, A206)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J206" s="7">
@@ -15374,7 +15392,7 @@
         <v>130</v>
       </c>
       <c r="I207" s="10">
-        <f>NETWORKDAYS(B207, A207)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15438,7 +15456,7 @@
         <v>130</v>
       </c>
       <c r="I208" s="10">
-        <f>NETWORKDAYS(B208, A208)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15502,7 +15520,7 @@
         <v>130</v>
       </c>
       <c r="I209" s="10">
-        <f>NETWORKDAYS(B209, A209)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15566,7 +15584,7 @@
         <v>130</v>
       </c>
       <c r="I210" s="10">
-        <f>NETWORKDAYS(B210, A210)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15630,7 +15648,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f>NETWORKDAYS(B211, A211)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15694,7 +15712,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f>NETWORKDAYS(B212, A212)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15758,7 +15776,7 @@
         <v>138</v>
       </c>
       <c r="I213" s="10">
-        <f>NETWORKDAYS(B213, A213)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15822,7 +15840,7 @@
         <v>91</v>
       </c>
       <c r="I214" s="10">
-        <f>NETWORKDAYS(B214, A214)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15886,7 +15904,7 @@
         <v>98</v>
       </c>
       <c r="I215" s="10">
-        <f>NETWORKDAYS(B215, A215)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15950,7 +15968,7 @@
         <v>138</v>
       </c>
       <c r="I216" s="10">
-        <f>NETWORKDAYS(B216, A216)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -16014,7 +16032,7 @@
         <v>98</v>
       </c>
       <c r="I217" s="10">
-        <f>NETWORKDAYS(B217, A217)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J217" s="7">
@@ -16078,7 +16096,7 @@
         <v>372</v>
       </c>
       <c r="I218" s="13">
-        <f>NETWORKDAYS(B218, A218)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J218" s="12">
@@ -16142,7 +16160,7 @@
         <v>130</v>
       </c>
       <c r="I219" s="10">
-        <f>NETWORKDAYS(B219, A219)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16206,7 +16224,7 @@
         <v>130</v>
       </c>
       <c r="I220" s="10">
-        <f>NETWORKDAYS(B220, A220)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J220" s="7">
@@ -16270,7 +16288,7 @@
         <v>98</v>
       </c>
       <c r="I221" s="10">
-        <f>NETWORKDAYS(B221, A221)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16334,7 +16352,7 @@
         <v>91</v>
       </c>
       <c r="I222" s="10">
-        <f>NETWORKDAYS(B222, A222)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16398,7 +16416,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f>NETWORKDAYS(B223, A223)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16462,7 +16480,7 @@
         <v>372</v>
       </c>
       <c r="I224" s="10">
-        <f>NETWORKDAYS(B224, A224)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J224" s="7">
@@ -16526,7 +16544,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="10">
-        <f>NETWORKDAYS(B225, A225)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J225" s="7">
@@ -16590,7 +16608,7 @@
         <v>372</v>
       </c>
       <c r="I226" s="13">
-        <f>NETWORKDAYS(B226, A226)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J226" s="12">
@@ -16654,7 +16672,7 @@
         <v>98</v>
       </c>
       <c r="I227" s="13">
-        <f>NETWORKDAYS(B227, A227)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="J227" s="12">
@@ -16718,7 +16736,7 @@
         <v>98</v>
       </c>
       <c r="I228" s="13">
-        <f>NETWORKDAYS(B228, A228)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J228" s="12">
@@ -16757,66 +16775,66 @@
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A229" s="46">
+      <c r="A229" s="11">
         <v>45868</v>
       </c>
-      <c r="B229" s="46">
+      <c r="B229" s="11">
         <v>45862</v>
       </c>
-      <c r="C229" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="46" t="s">
+      <c r="C229" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E229" s="46" t="s">
+      <c r="E229" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F229" s="47">
+      <c r="F229" s="12">
         <v>68476</v>
       </c>
-      <c r="G229" s="47" t="s">
+      <c r="G229" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H229" s="47" t="s">
+      <c r="H229" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I229" s="48">
-        <f>NETWORKDAYS(B229, A229)</f>
+      <c r="I229" s="13">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J229" s="47">
+      <c r="J229" s="12">
         <v>66491</v>
       </c>
-      <c r="K229" s="47">
+      <c r="K229" s="12">
         <v>11522</v>
       </c>
-      <c r="L229" s="47" t="s">
+      <c r="L229" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="M229" s="46">
+      <c r="M229" s="11">
         <v>45888</v>
       </c>
-      <c r="N229" s="49">
+      <c r="N229" s="14">
         <v>1680.4</v>
       </c>
-      <c r="O229" s="47" t="s">
+      <c r="O229" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P229" s="47">
+      <c r="P229" s="12">
         <v>28</v>
       </c>
-      <c r="Q229" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="R229" s="47">
+      <c r="Q229" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R229" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>20</v>
       </c>
-      <c r="S229" s="49">
-        <v>0</v>
-      </c>
-      <c r="T229" s="49">
+      <c r="S229" s="14">
+        <v>0</v>
+      </c>
+      <c r="T229" s="14">
         <v>0</v>
       </c>
     </row>
@@ -16846,13 +16864,13 @@
         <v>372</v>
       </c>
       <c r="I230" s="13">
-        <f>NETWORKDAYS(B230, A230)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J230" s="12">
         <v>66660</v>
       </c>
-      <c r="K230" s="51">
+      <c r="K230" s="12">
         <v>160</v>
       </c>
       <c r="L230" s="12" t="s">
@@ -16873,7 +16891,7 @@
       <c r="Q230" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R230" s="51">
+      <c r="R230" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>7</v>
       </c>
@@ -16910,7 +16928,7 @@
         <v>372</v>
       </c>
       <c r="I231" s="10">
-        <f>NETWORKDAYS(B231, A231)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J231" s="7">
@@ -16974,7 +16992,7 @@
         <v>130</v>
       </c>
       <c r="I232" s="13">
-        <f>NETWORKDAYS(B232, A232)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J232" s="12">
@@ -17038,7 +17056,7 @@
         <v>126</v>
       </c>
       <c r="I233" s="13">
-        <f>NETWORKDAYS(B233, A233)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J233" s="42">
@@ -17102,7 +17120,7 @@
         <v>98</v>
       </c>
       <c r="I234" s="13">
-        <f>NETWORKDAYS(B234, A234)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J234" s="12">
@@ -17166,7 +17184,7 @@
         <v>32</v>
       </c>
       <c r="I235" s="13">
-        <f>NETWORKDAYS(B235, A235)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J235" s="12">
@@ -17205,66 +17223,66 @@
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A236" s="46">
+      <c r="A236" s="11">
         <v>45881</v>
       </c>
-      <c r="B236" s="46">
+      <c r="B236" s="11">
         <v>45881</v>
       </c>
-      <c r="C236" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="46" t="s">
+      <c r="C236" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E236" s="46" t="s">
+      <c r="E236" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F236" s="47">
+      <c r="F236" s="12">
         <v>68501</v>
       </c>
-      <c r="G236" s="47" t="s">
+      <c r="G236" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H236" s="47" t="s">
+      <c r="H236" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I236" s="48">
-        <f>NETWORKDAYS(B236, A236)</f>
+      <c r="I236" s="13">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J236" s="47">
+      <c r="J236" s="12">
         <v>66662</v>
       </c>
-      <c r="K236" s="50">
+      <c r="K236" s="12">
         <v>3040</v>
       </c>
-      <c r="L236" s="47" t="s">
+      <c r="L236" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="M236" s="46">
+      <c r="M236" s="11">
         <v>45896</v>
       </c>
-      <c r="N236" s="49">
+      <c r="N236" s="14">
         <v>1000</v>
       </c>
-      <c r="O236" s="47" t="s">
+      <c r="O236" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P236" s="47">
+      <c r="P236" s="12">
         <v>30</v>
       </c>
-      <c r="Q236" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="R236" s="50">
+      <c r="Q236" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R236" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>15</v>
       </c>
-      <c r="S236" s="49">
-        <v>0</v>
-      </c>
-      <c r="T236" s="49">
+      <c r="S236" s="14">
+        <v>0</v>
+      </c>
+      <c r="T236" s="14">
         <v>0</v>
       </c>
     </row>
@@ -17294,7 +17312,7 @@
         <v>34</v>
       </c>
       <c r="I237" s="10">
-        <f>NETWORKDAYS(B237, A237)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J237" s="7">
@@ -17358,7 +17376,7 @@
         <v>130</v>
       </c>
       <c r="I238" s="10">
-        <f>NETWORKDAYS(B238, A238)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J238" s="7">
@@ -17422,7 +17440,7 @@
         <v>130</v>
       </c>
       <c r="I239" s="10">
-        <f>NETWORKDAYS(B239, A239)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J239" s="7">
@@ -17486,7 +17504,7 @@
         <v>130</v>
       </c>
       <c r="I240" s="10">
-        <f>NETWORKDAYS(B240, A240)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J240" s="7">
@@ -17550,7 +17568,7 @@
         <v>32</v>
       </c>
       <c r="I241" s="10">
-        <f>NETWORKDAYS(B241, A241)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J241" s="7">
@@ -17614,7 +17632,7 @@
         <v>126</v>
       </c>
       <c r="I242" s="10">
-        <f>NETWORKDAYS(B242, A242)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J242" s="7">
@@ -17678,7 +17696,7 @@
         <v>138</v>
       </c>
       <c r="I243" s="10">
-        <f>NETWORKDAYS(B243, A243)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J243" s="7">
@@ -17742,7 +17760,7 @@
         <v>126</v>
       </c>
       <c r="I244" s="13">
-        <f>NETWORKDAYS(B244, A244)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J244" s="12">
@@ -17806,7 +17824,7 @@
         <v>32</v>
       </c>
       <c r="I245" s="10">
-        <f>NETWORKDAYS(B245, A245)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J245" s="7">
@@ -17870,7 +17888,7 @@
         <v>126</v>
       </c>
       <c r="I246" s="13">
-        <f>NETWORKDAYS(B246, A246)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J246" s="12">
@@ -17934,7 +17952,7 @@
         <v>32</v>
       </c>
       <c r="I247" s="10">
-        <f>NETWORKDAYS(B247, A247)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J247" s="7">
@@ -17998,7 +18016,7 @@
         <v>98</v>
       </c>
       <c r="I248" s="10">
-        <f>NETWORKDAYS(B248, A248)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J248" s="7">
@@ -18062,7 +18080,7 @@
         <v>98</v>
       </c>
       <c r="I249" s="10">
-        <f>NETWORKDAYS(B249, A249)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J249" s="7">
@@ -18126,7 +18144,7 @@
         <v>126</v>
       </c>
       <c r="I250" s="13">
-        <f>NETWORKDAYS(B250, A250)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J250" s="12">
@@ -18190,7 +18208,7 @@
         <v>126</v>
       </c>
       <c r="I251" s="13">
-        <f>NETWORKDAYS(B251, A251)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J251" s="12">
@@ -18254,7 +18272,7 @@
         <v>34</v>
       </c>
       <c r="I252" s="13">
-        <f>NETWORKDAYS(B252, A252)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J252" s="12">
@@ -18318,7 +18336,7 @@
         <v>32</v>
       </c>
       <c r="I253" s="10">
-        <f>NETWORKDAYS(B253, A253)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J253" s="7">
@@ -18382,7 +18400,7 @@
         <v>32</v>
       </c>
       <c r="I254" s="10">
-        <f>NETWORKDAYS(B254, A254)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J254" s="7">
@@ -18446,7 +18464,7 @@
         <v>34</v>
       </c>
       <c r="I255" s="13">
-        <f>NETWORKDAYS(B255, A255)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J255" s="12">
@@ -18510,7 +18528,7 @@
         <v>126</v>
       </c>
       <c r="I256" s="13">
-        <f>NETWORKDAYS(B256, A256)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="J256" s="12">
@@ -18574,7 +18592,7 @@
         <v>91</v>
       </c>
       <c r="I257" s="13">
-        <f>NETWORKDAYS(B257, A257)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J257" s="12">
@@ -18638,7 +18656,7 @@
         <v>126</v>
       </c>
       <c r="I258" s="13">
-        <f>NETWORKDAYS(B258, A258)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J258" s="12">
@@ -18702,7 +18720,7 @@
         <v>126</v>
       </c>
       <c r="I259" s="13">
-        <f>NETWORKDAYS(B259, A259)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J259" s="12">
@@ -18738,6 +18756,518 @@
       </c>
       <c r="T259" s="14">
         <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A260" s="11">
+        <v>45882</v>
+      </c>
+      <c r="B260" s="11">
+        <v>45881</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F260" s="12">
+        <v>68503</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I260" s="13">
+        <f>NETWORKDAYS(B260, A260)</f>
+        <v>2</v>
+      </c>
+      <c r="J260" s="12">
+        <v>66669</v>
+      </c>
+      <c r="K260" s="52">
+        <v>3509</v>
+      </c>
+      <c r="L260" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="M260" s="11">
+        <v>45894</v>
+      </c>
+      <c r="N260" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O260" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P260" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q260" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R260" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>12</v>
+      </c>
+      <c r="S260" s="14">
+        <v>0</v>
+      </c>
+      <c r="T260" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A261" s="46">
+        <v>45882</v>
+      </c>
+      <c r="B261" s="46">
+        <v>45880</v>
+      </c>
+      <c r="C261" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F261" s="47">
+        <v>68498</v>
+      </c>
+      <c r="G261" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="H261" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I261" s="48">
+        <f>NETWORKDAYS(B261, A261)</f>
+        <v>3</v>
+      </c>
+      <c r="J261" s="53">
+        <v>66670</v>
+      </c>
+      <c r="K261" s="51">
+        <v>11796</v>
+      </c>
+      <c r="L261" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="M261" s="46">
+        <v>45890</v>
+      </c>
+      <c r="N261" s="49">
+        <v>42.23</v>
+      </c>
+      <c r="O261" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="P261" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q261" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="R261" s="51">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S261" s="49">
+        <v>0</v>
+      </c>
+      <c r="T261" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A262" s="11">
+        <v>45882</v>
+      </c>
+      <c r="B262" s="11">
+        <v>45880</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F262" s="12">
+        <v>68499</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H262" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I262" s="13">
+        <f>NETWORKDAYS(B262, A262)</f>
+        <v>3</v>
+      </c>
+      <c r="J262" s="12">
+        <v>66671</v>
+      </c>
+      <c r="K262" s="52">
+        <v>1277</v>
+      </c>
+      <c r="L262" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="M262" s="11">
+        <v>45884</v>
+      </c>
+      <c r="N262" s="14">
+        <v>207.68</v>
+      </c>
+      <c r="O262" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P262" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q262" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R262" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S262" s="14">
+        <v>0</v>
+      </c>
+      <c r="T262" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A263" s="11">
+        <v>45882</v>
+      </c>
+      <c r="B263" s="11">
+        <v>45881</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F263" s="12">
+        <v>68502</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H263" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I263" s="13">
+        <f>NETWORKDAYS(B263, A263)</f>
+        <v>2</v>
+      </c>
+      <c r="J263" s="12">
+        <v>66672</v>
+      </c>
+      <c r="K263" s="52">
+        <v>10594</v>
+      </c>
+      <c r="L263" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="M263" s="11">
+        <v>45891</v>
+      </c>
+      <c r="N263" s="14">
+        <v>1159.8</v>
+      </c>
+      <c r="O263" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P263" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q263" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R263" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>9</v>
+      </c>
+      <c r="S263" s="14">
+        <v>0</v>
+      </c>
+      <c r="T263" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A264" s="11">
+        <v>45882</v>
+      </c>
+      <c r="B264" s="11">
+        <v>45881</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F264" s="12">
+        <v>68502</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H264" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I264" s="13">
+        <f>NETWORKDAYS(B264, A264)</f>
+        <v>2</v>
+      </c>
+      <c r="J264" s="12">
+        <v>66673</v>
+      </c>
+      <c r="K264" s="52">
+        <v>11682</v>
+      </c>
+      <c r="L264" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="M264" s="11">
+        <v>45891</v>
+      </c>
+      <c r="N264" s="14">
+        <v>1173.95</v>
+      </c>
+      <c r="O264" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P264" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q264" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R264" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>9</v>
+      </c>
+      <c r="S264" s="14">
+        <v>0</v>
+      </c>
+      <c r="T264" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A265" s="11">
+        <v>45882</v>
+      </c>
+      <c r="B265" s="11">
+        <v>45881</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F265" s="12">
+        <v>68502</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H265" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I265" s="13">
+        <f>NETWORKDAYS(B265, A265)</f>
+        <v>2</v>
+      </c>
+      <c r="J265" s="12">
+        <v>66675</v>
+      </c>
+      <c r="K265" s="52">
+        <v>11783</v>
+      </c>
+      <c r="L265" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="M265" s="11">
+        <v>45891</v>
+      </c>
+      <c r="N265" s="14">
+        <v>227.88</v>
+      </c>
+      <c r="O265" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P265" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q265" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R265" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>9</v>
+      </c>
+      <c r="S265" s="14">
+        <v>0</v>
+      </c>
+      <c r="T265" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A266" s="11">
+        <v>45882</v>
+      </c>
+      <c r="B266" s="11">
+        <v>45882</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F266" s="12">
+        <v>68507</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H266" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I266" s="13">
+        <f>NETWORKDAYS(B266, A266)</f>
+        <v>1</v>
+      </c>
+      <c r="J266" s="12">
+        <v>66681</v>
+      </c>
+      <c r="K266" s="52">
+        <v>10627</v>
+      </c>
+      <c r="L266" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="M266" s="11">
+        <v>45890</v>
+      </c>
+      <c r="N266" s="14">
+        <v>850</v>
+      </c>
+      <c r="O266" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P266" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q266" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R266" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S266" s="14">
+        <v>0</v>
+      </c>
+      <c r="T266" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="6">
+        <v>45882</v>
+      </c>
+      <c r="B267" s="6">
+        <v>45882</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G267" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I267" s="10">
+        <f>NETWORKDAYS(B267, A267)</f>
+        <v>1</v>
+      </c>
+      <c r="J267" s="7">
+        <v>65768</v>
+      </c>
+      <c r="K267" s="50">
+        <v>175</v>
+      </c>
+      <c r="L267" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M267" s="6">
+        <v>45882</v>
+      </c>
+      <c r="N267" s="8">
+        <v>3685</v>
+      </c>
+      <c r="O267" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P267" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q267" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R267" s="50">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S267" s="8">
+        <v>0</v>
+      </c>
+      <c r="T267" s="8">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -19013,7 +19543,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19021,7 +19551,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 585 dias para vencer</v>
+        <v>Faltam 584 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -19039,7 +19569,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19047,7 +19577,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 315 dias</v>
+        <v>Venceu há 316 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -19065,7 +19595,7 @@
       </c>
       <c r="E4" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F4" s="33" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19073,7 +19603,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 23 dias</v>
+        <v>Venceu há 24 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -19091,7 +19621,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19117,7 +19647,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19143,7 +19673,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19151,7 +19681,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 147 dias</v>
+        <v>Venceu há 148 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -19169,7 +19699,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19177,7 +19707,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 890 dias</v>
+        <v>Venceu há 891 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -19195,7 +19725,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19203,7 +19733,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 401 dias para vencer</v>
+        <v>Faltam 400 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -19221,7 +19751,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19229,7 +19759,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 322 dias para vencer</v>
+        <v>Faltam 321 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -19247,7 +19777,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19255,7 +19785,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 111 dias para vencer</v>
+        <v>Faltam 110 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -19995,10 +20525,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6577E-1BBE-47C5-96B8-0E0691F59A60}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20705,6 +21235,23 @@
       </c>
       <c r="E41" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="17">
+        <v>45882</v>
+      </c>
+      <c r="B42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42">
+        <v>11796</v>
+      </c>
+      <c r="E42" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -20765,9 +21312,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20897,26 +21447,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20940,9 +21479,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\splfps01\data$\GROUP\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F253B68B-F7EB-40B5-B748-62BFDAD2826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F3F46-CE99-4938-A209-24B41561AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="420">
   <si>
     <t>SC</t>
   </si>
@@ -1254,67 +1254,88 @@
     <t>Previsao de Entrega</t>
   </si>
   <si>
+    <t>PERTEC PERFIL TÉCNICO</t>
+  </si>
+  <si>
+    <t>indiretos</t>
+  </si>
+  <si>
+    <t>Thais Spena</t>
+  </si>
+  <si>
+    <t>TRAYES PRODUÇÕES E CENOGRAFIA</t>
+  </si>
+  <si>
+    <t>ELTRON COMERCIAL DE FERRAMENTAS LTDA</t>
+  </si>
+  <si>
+    <t>DALLANESE COM.E MANUF.DE PARAFUSOS LTDA</t>
+  </si>
+  <si>
+    <t>YESCODE AUTOMACAO LTDA - ME</t>
+  </si>
+  <si>
+    <t>CADSERVICE PRODUTOS ELETRONICOS LTDA</t>
+  </si>
+  <si>
+    <t>CARBOROIL COMERCIO DE DERIVADOS DE PETROLEO LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA </t>
+  </si>
+  <si>
+    <t>INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA</t>
+  </si>
+  <si>
+    <t>Geovana</t>
+  </si>
+  <si>
+    <t>LOCALIZA RENT A CAR AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTELARIA ACCOR BRASIL SA </t>
+  </si>
+  <si>
+    <t>METALEX FERRAMENTARIA INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>C T MOL PINTURAS LTDA – ME</t>
+  </si>
+  <si>
+    <t>PALACIO DAS FERRAMENTAS E PARAFUSOS LTDA</t>
+  </si>
+  <si>
+    <t>PULIRE INDUSTRIA E COMERCIO DE MATERIAIS DE LIMPEZA EIRELI</t>
+  </si>
+  <si>
+    <t>AGUARDANDO PAGAMENTO</t>
+  </si>
+  <si>
+    <t>Thais</t>
+  </si>
+  <si>
+    <t>FOTON TEM CONSULTORIA E PRODUCAO LTDA</t>
+  </si>
+  <si>
+    <t>AGUARDANDO APROVAÇÃO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>logistica</t>
+  </si>
+  <si>
+    <t>TRANSLIGUE TRANSPORTES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>GARCIQUIMICA COM.PRODS.QUIMICOS LTDA</t>
+  </si>
+  <si>
     <t>Razao Social</t>
-  </si>
-  <si>
-    <t>PERTEC PERFIL TÉCNICO</t>
-  </si>
-  <si>
-    <t>indiretos</t>
-  </si>
-  <si>
-    <t>Thais Spena</t>
-  </si>
-  <si>
-    <t>TRAYES PRODUÇÕES E CENOGRAFIA</t>
-  </si>
-  <si>
-    <t>ELTRON COMERCIAL DE FERRAMENTAS LTDA</t>
-  </si>
-  <si>
-    <t>DALLANESE COM.E MANUF.DE PARAFUSOS LTDA</t>
-  </si>
-  <si>
-    <t>YESCODE AUTOMACAO LTDA - ME</t>
-  </si>
-  <si>
-    <t>CADSERVICE PRODUTOS ELETRONICOS LTDA</t>
-  </si>
-  <si>
-    <t>CARBOROIL COMERCIO DE DERIVADOS DE PETROLEO LTDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA </t>
-  </si>
-  <si>
-    <t>INDUSTRIA E COMERCIO DE MOLAS CASA VERDE LTDA</t>
-  </si>
-  <si>
-    <t>Geovana</t>
-  </si>
-  <si>
-    <t>LOCALIZA RENT A CAR AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOTELARIA ACCOR BRASIL SA </t>
-  </si>
-  <si>
-    <t>AGUARDANDO APROVAÇÃO</t>
-  </si>
-  <si>
-    <t>METALEX FERRAMENTARIA INDUSTRIA E COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>Gabriela</t>
-  </si>
-  <si>
-    <t>C T MOL PINTURAS LTDA – ME</t>
-  </si>
-  <si>
-    <t>PALACIO DAS FERRAMENTAS E PARAFUSOS LTDA</t>
-  </si>
-  <si>
-    <t>PULIRE INDUSTRIA E COMERCIO DE MATERIAIS DE LIMPEZA EIRELI</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1402,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1415,12 +1436,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,7 +1479,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,6 +1588,18 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,16 +1612,7 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1778,17 +1796,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T267" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T267" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T275" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T275" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
         <filter val="AGUARDANDO ENTREGA"/>
+        <filter val="AGUARDANDO PAGAMENTO"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T259">
-    <sortCondition ref="M1:M259"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T271">
+    <sortCondition ref="M1:M271"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -1858,13 +1877,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}" name="Tabela3" displayName="Tabela3" ref="A1:E24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:E24" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="MRO - Ferramentas"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E24" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{D8511443-CF4D-4DC9-8296-BF1A944D3CAC}" name="Fornecedor" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{D2B0299B-E81C-4AF4-BF9F-2F26C1F2794A}" name="Segmento" dataDxfId="4"/>
@@ -1877,8 +1890,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E42" totalsRowShown="0">
-  <autoFilter ref="A1:E42" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E44" totalsRowShown="0">
+  <autoFilter ref="A1:E44" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
@@ -2153,33 +2166,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T267"/>
+  <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L233" sqref="L233"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I229" sqref="I229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="76.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="16.81640625" style="1"/>
   </cols>
@@ -2219,7 +2232,7 @@
         <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>391</v>
@@ -14164,13 +14177,13 @@
         <v>5</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F188" s="7">
         <v>68487</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H188" s="7" t="s">
         <v>96</v>
@@ -14186,7 +14199,7 @@
         <v>11614</v>
       </c>
       <c r="L188" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M188" s="6">
         <v>45882</v>
@@ -14406,67 +14419,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A192" s="11">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="6">
         <v>45867</v>
       </c>
-      <c r="B192" s="11">
+      <c r="B192" s="6">
         <v>45867</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="E192" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F192" s="12">
+      <c r="F192" s="7">
         <v>68486</v>
       </c>
-      <c r="G192" s="12" t="s">
+      <c r="G192" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H192" s="12" t="s">
+      <c r="H192" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I192" s="13">
+      <c r="I192" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J192" s="12">
+      <c r="J192" s="7">
         <v>66478</v>
       </c>
-      <c r="K192" s="12">
+      <c r="K192" s="7">
         <v>10460</v>
       </c>
-      <c r="L192" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="M192" s="11">
+      <c r="L192" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M192" s="6">
         <v>45883</v>
       </c>
-      <c r="N192" s="14">
+      <c r="N192" s="8">
         <v>4789.6099999999997</v>
       </c>
-      <c r="O192" s="12" t="s">
+      <c r="O192" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P192" s="12">
+      <c r="P192" s="7">
         <v>28</v>
       </c>
-      <c r="Q192" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R192" s="12">
+      <c r="Q192" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R192" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>16</v>
       </c>
-      <c r="S192" s="14">
+      <c r="S192" s="8">
         <v>1080.08</v>
       </c>
-      <c r="T192" s="14">
+      <c r="T192" s="8">
         <v>0</v>
       </c>
     </row>
@@ -15136,7 +15149,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f t="shared" ref="I203:I259" si="4">NETWORKDAYS(B203, A203)</f>
+        <f t="shared" ref="I203:I266" si="4">NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15338,7 +15351,7 @@
         <v>9</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M206" s="6">
         <v>45880</v>
@@ -16710,177 +16723,177 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A228" s="11">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="6">
+        <v>45882</v>
+      </c>
+      <c r="B228" s="6">
+        <v>45880</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F228" s="7">
+        <v>68499</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I228" s="10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J228" s="7">
+        <v>66671</v>
+      </c>
+      <c r="K228" s="7">
+        <v>1277</v>
+      </c>
+      <c r="L228" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M228" s="6">
+        <v>45884</v>
+      </c>
+      <c r="N228" s="8">
+        <v>207.68</v>
+      </c>
+      <c r="O228" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P228" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q228" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R228" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S228" s="8">
+        <v>0</v>
+      </c>
+      <c r="T228" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A229" s="11">
         <v>45785</v>
       </c>
-      <c r="B228" s="11">
+      <c r="B229" s="11">
         <v>45784</v>
       </c>
-      <c r="C228" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D228" s="11" t="s">
+      <c r="C229" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E228" s="11" t="s">
+      <c r="E229" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F228" s="12">
+      <c r="F229" s="12">
         <v>68369</v>
       </c>
-      <c r="G228" s="12" t="s">
+      <c r="G229" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H228" s="12" t="s">
+      <c r="H229" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I228" s="13">
+      <c r="I229" s="13">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J228" s="12">
+      <c r="J229" s="12">
         <v>65234</v>
       </c>
-      <c r="K228" s="12">
+      <c r="K229" s="12">
         <v>11610</v>
       </c>
-      <c r="L228" s="12" t="s">
+      <c r="L229" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M228" s="11">
+      <c r="M229" s="11">
         <v>45887</v>
       </c>
-      <c r="N228" s="14">
+      <c r="N229" s="14">
         <v>9114.5499999999993</v>
       </c>
-      <c r="O228" s="12" t="s">
+      <c r="O229" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P228" s="12">
+      <c r="P229" s="12">
         <v>28</v>
       </c>
-      <c r="Q228" s="12" t="s">
+      <c r="Q229" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R228" s="12">
+      <c r="R229" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>102</v>
       </c>
-      <c r="S228" s="14">
+      <c r="S229" s="14">
         <v>183.5</v>
       </c>
-      <c r="T228" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A229" s="11">
+      <c r="T229" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A230" s="11">
         <v>45868</v>
       </c>
-      <c r="B229" s="11">
+      <c r="B230" s="11">
         <v>45862</v>
       </c>
-      <c r="C229" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="11" t="s">
+      <c r="C230" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E229" s="11" t="s">
+      <c r="E230" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F229" s="12">
+      <c r="F230" s="12">
         <v>68476</v>
       </c>
-      <c r="G229" s="12" t="s">
+      <c r="G230" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H229" s="12" t="s">
+      <c r="H230" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I229" s="13">
+      <c r="I230" s="13">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J229" s="12">
+      <c r="J230" s="12">
         <v>66491</v>
       </c>
-      <c r="K229" s="12">
+      <c r="K230" s="12">
         <v>11522</v>
       </c>
-      <c r="L229" s="12" t="s">
+      <c r="L230" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="M229" s="11">
-        <v>45888</v>
-      </c>
-      <c r="N229" s="14">
-        <v>1680.4</v>
-      </c>
-      <c r="O229" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P229" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q229" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R229" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>20</v>
-      </c>
-      <c r="S229" s="14">
-        <v>0</v>
-      </c>
-      <c r="T229" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A230" s="11">
-        <v>45881</v>
-      </c>
-      <c r="B230" s="11">
-        <v>45880</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E230" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F230" s="12">
-        <v>68500</v>
-      </c>
-      <c r="G230" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="H230" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="I230" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J230" s="12">
-        <v>66660</v>
-      </c>
-      <c r="K230" s="12">
-        <v>160</v>
-      </c>
-      <c r="L230" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="M230" s="11">
         <v>45888</v>
       </c>
       <c r="N230" s="14">
-        <v>524.1</v>
+        <v>1680.4</v>
       </c>
       <c r="O230" s="12" t="s">
         <v>122</v>
@@ -16893,7 +16906,7 @@
       </c>
       <c r="R230" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="S230" s="14">
         <v>0</v>
@@ -16938,7 +16951,7 @@
         <v>10556</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M231" s="6">
         <v>45877</v>
@@ -16968,10 +16981,10 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
-        <v>45870</v>
+        <v>45881</v>
       </c>
       <c r="B232" s="11">
-        <v>45863</v>
+        <v>45880</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>7</v>
@@ -16983,45 +16996,45 @@
         <v>113</v>
       </c>
       <c r="F232" s="12">
-        <v>68482</v>
+        <v>68500</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="H232" s="12" t="s">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="I232" s="13">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J232" s="12">
-        <v>66522</v>
+        <v>66660</v>
       </c>
       <c r="K232" s="12">
-        <v>679</v>
+        <v>160</v>
       </c>
       <c r="L232" s="12" t="s">
-        <v>346</v>
+        <v>201</v>
       </c>
       <c r="M232" s="11">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N232" s="14">
-        <v>6048.2</v>
+        <v>524.1</v>
       </c>
       <c r="O232" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P232" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R232" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="S232" s="14">
         <v>0</v>
@@ -17031,258 +17044,258 @@
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A233" s="41">
-        <v>45826</v>
-      </c>
-      <c r="B233" s="41">
-        <v>45826</v>
-      </c>
-      <c r="C233" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="41" t="s">
+      <c r="A233" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B233" s="11">
+        <v>45863</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E233" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F233" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G233" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H233" s="42" t="s">
-        <v>126</v>
+      <c r="E233" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F233" s="12">
+        <v>68482</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H233" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="I233" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J233" s="42">
-        <v>66341</v>
-      </c>
-      <c r="K233" s="42">
-        <v>11758</v>
-      </c>
-      <c r="L233" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="M233" s="41">
-        <v>45891</v>
-      </c>
-      <c r="N233" s="43">
-        <v>924.61</v>
-      </c>
-      <c r="O233" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J233" s="12">
+        <v>66522</v>
+      </c>
+      <c r="K233" s="12">
+        <v>679</v>
+      </c>
+      <c r="L233" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="M233" s="11">
+        <v>45889</v>
+      </c>
+      <c r="N233" s="14">
+        <v>6048.2</v>
+      </c>
+      <c r="O233" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P233" s="42">
-        <v>28</v>
-      </c>
-      <c r="Q233" s="42" t="s">
+      <c r="P233" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q233" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R233" s="42">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
-      </c>
-      <c r="S233" s="43">
-        <v>0</v>
-      </c>
-      <c r="T233" s="43">
+      <c r="R233" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>19</v>
+      </c>
+      <c r="S233" s="14">
+        <v>0</v>
+      </c>
+      <c r="T233" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A234" s="11">
-        <v>45877</v>
-      </c>
-      <c r="B234" s="11">
-        <v>45877</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E234" s="11" t="s">
+      <c r="A234" s="46">
+        <v>45882</v>
+      </c>
+      <c r="B234" s="46">
+        <v>45880</v>
+      </c>
+      <c r="C234" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F234" s="12">
-        <v>68458</v>
-      </c>
-      <c r="G234" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H234" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I234" s="13">
+      <c r="F234" s="47">
+        <v>68498</v>
+      </c>
+      <c r="G234" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="H234" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I234" s="48">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J234" s="47">
+        <v>66670</v>
+      </c>
+      <c r="K234" s="47">
+        <v>11796</v>
+      </c>
+      <c r="L234" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M234" s="46">
+        <v>45890</v>
+      </c>
+      <c r="N234" s="49">
+        <v>42.23</v>
+      </c>
+      <c r="O234" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="P234" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="R234" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S234" s="49">
+        <v>0</v>
+      </c>
+      <c r="T234" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A235" s="11">
+        <v>45882</v>
+      </c>
+      <c r="B235" s="11">
+        <v>45882</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F235" s="12">
+        <v>68507</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H235" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I235" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J234" s="12">
-        <v>66605</v>
-      </c>
-      <c r="K234" s="12">
-        <v>561</v>
-      </c>
-      <c r="L234" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="M234" s="11">
-        <v>45891</v>
-      </c>
-      <c r="N234" s="14">
-        <v>758.53</v>
-      </c>
-      <c r="O234" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P234" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q234" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R234" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S234" s="14">
-        <v>0</v>
-      </c>
-      <c r="T234" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A235" s="11">
-        <v>45880</v>
-      </c>
-      <c r="B235" s="11">
-        <v>45868</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F235" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G235" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H235" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I235" s="13">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
       <c r="J235" s="12">
-        <v>66629</v>
+        <v>66681</v>
       </c>
       <c r="K235" s="12">
-        <v>11121</v>
+        <v>10627</v>
       </c>
       <c r="L235" s="12" t="s">
-        <v>143</v>
+        <v>362</v>
       </c>
       <c r="M235" s="11">
-        <v>45894</v>
+        <v>45890</v>
       </c>
       <c r="N235" s="14">
-        <v>1242.04</v>
+        <v>850</v>
       </c>
       <c r="O235" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P235" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R235" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S235" s="14">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="T235" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A236" s="11">
-        <v>45881</v>
-      </c>
-      <c r="B236" s="11">
-        <v>45881</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="11" t="s">
+      <c r="A236" s="41">
+        <v>45826</v>
+      </c>
+      <c r="B236" s="41">
+        <v>45826</v>
+      </c>
+      <c r="C236" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E236" s="11" t="s">
+      <c r="E236" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F236" s="12">
-        <v>68501</v>
-      </c>
-      <c r="G236" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H236" s="12" t="s">
-        <v>91</v>
+      <c r="F236" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G236" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H236" s="42" t="s">
+        <v>126</v>
       </c>
       <c r="I236" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J236" s="12">
-        <v>66662</v>
-      </c>
-      <c r="K236" s="12">
-        <v>3040</v>
-      </c>
-      <c r="L236" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="M236" s="11">
-        <v>45896</v>
-      </c>
-      <c r="N236" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O236" s="12" t="s">
+      <c r="J236" s="42">
+        <v>66341</v>
+      </c>
+      <c r="K236" s="42">
+        <v>11758</v>
+      </c>
+      <c r="L236" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M236" s="41">
+        <v>45891</v>
+      </c>
+      <c r="N236" s="43">
+        <v>924.61</v>
+      </c>
+      <c r="O236" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="P236" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q236" s="12" t="s">
+      <c r="P236" s="42">
+        <v>28</v>
+      </c>
+      <c r="Q236" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R236" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>15</v>
-      </c>
-      <c r="S236" s="14">
-        <v>0</v>
-      </c>
-      <c r="T236" s="14">
+      <c r="R236" s="42">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>65</v>
+      </c>
+      <c r="S236" s="43">
+        <v>0</v>
+      </c>
+      <c r="T236" s="43">
         <v>0</v>
       </c>
     </row>
@@ -17322,7 +17335,7 @@
         <v>11790</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M237" s="6">
         <v>45873</v>
@@ -17386,7 +17399,7 @@
         <v>2856</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M238" s="6">
         <v>45875</v>
@@ -17498,7 +17511,7 @@
         <v>3</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="H240" s="7" t="s">
         <v>130</v>
@@ -17736,63 +17749,63 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
-        <v>45868</v>
+        <v>45877</v>
       </c>
       <c r="B244" s="11">
-        <v>45868</v>
+        <v>45877</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F244" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F244" s="12">
+        <v>68458</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="H244" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I244" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J244" s="12">
-        <v>66504</v>
+        <v>66605</v>
       </c>
       <c r="K244" s="12">
-        <v>3034</v>
+        <v>561</v>
       </c>
       <c r="L244" s="12" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="M244" s="11">
-        <v>45897</v>
+        <v>45891</v>
       </c>
       <c r="N244" s="14">
-        <v>2220</v>
+        <v>758.53</v>
       </c>
       <c r="O244" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P244" s="12">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R244" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="S244" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T244" s="14">
         <v>0</v>
@@ -17864,10 +17877,10 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
-        <v>45869</v>
+        <v>45882</v>
       </c>
       <c r="B246" s="11">
-        <v>45869</v>
+        <v>45881</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>7</v>
@@ -17876,51 +17889,51 @@
         <v>15</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F246" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F246" s="12">
+        <v>68502</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="H246" s="12" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I246" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" s="12">
-        <v>66427</v>
+        <v>66672</v>
       </c>
       <c r="K246" s="12">
-        <v>1277</v>
+        <v>10594</v>
       </c>
       <c r="L246" s="12" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="M246" s="11">
-        <v>45897</v>
+        <v>45891</v>
       </c>
       <c r="N246" s="14">
-        <v>2715.75</v>
+        <v>2446.5500000000002</v>
       </c>
       <c r="O246" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P246" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q246" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R246" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S246" s="14">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="T246" s="14">
         <v>0</v>
@@ -18120,127 +18133,127 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
-        <v>45875</v>
+        <v>45882</v>
       </c>
       <c r="B250" s="11">
-        <v>45873</v>
+        <v>45881</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D250" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G250" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H250" s="11" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="F250" s="12">
+        <v>68502</v>
+      </c>
+      <c r="G250" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H250" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="I250" s="13">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J250" s="12">
-        <v>66430</v>
+        <v>66675</v>
       </c>
       <c r="K250" s="12">
-        <v>333</v>
+        <v>11783</v>
       </c>
       <c r="L250" s="12" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="M250" s="11">
-        <v>45901</v>
-      </c>
-      <c r="N250" s="45">
-        <v>1483685.03</v>
-      </c>
-      <c r="O250" s="11" t="s">
+        <v>45891</v>
+      </c>
+      <c r="N250" s="14">
+        <v>227.88</v>
+      </c>
+      <c r="O250" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P250" s="12">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q250" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R250" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="S250" s="14">
         <v>0</v>
       </c>
       <c r="T250" s="14">
-        <v>59008.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
-        <v>45856</v>
+        <v>45883</v>
       </c>
       <c r="B251" s="11">
-        <v>45856</v>
+        <v>45882</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E251" s="11" t="s">
         <v>124</v>
       </c>
       <c r="F251" s="12">
-        <v>68466</v>
+        <v>68504</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I251" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J251" s="12">
-        <v>66337</v>
+        <v>66691</v>
       </c>
       <c r="K251" s="12">
-        <v>11736</v>
+        <v>3509</v>
       </c>
       <c r="L251" s="12" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="M251" s="11">
-        <v>45902</v>
+        <v>45891</v>
       </c>
       <c r="N251" s="14">
-        <v>16134.54</v>
+        <v>1920</v>
       </c>
       <c r="O251" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P251" s="12">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R251" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="S251" s="14">
-        <v>25720</v>
+        <v>0</v>
       </c>
       <c r="T251" s="14">
         <v>0</v>
@@ -18248,10 +18261,10 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252" s="11">
-        <v>45840</v>
+        <v>45883</v>
       </c>
       <c r="B252" s="11">
-        <v>45840</v>
+        <v>45882</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>7</v>
@@ -18260,48 +18273,48 @@
         <v>5</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F252" s="12">
-        <v>68452</v>
+        <v>68506</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="H252" s="12" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I252" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J252" s="12">
-        <v>66037</v>
+        <v>66692</v>
       </c>
       <c r="K252" s="12">
-        <v>11775</v>
+        <v>3509</v>
       </c>
       <c r="L252" s="12" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="M252" s="11">
-        <v>45905</v>
+        <v>45891</v>
       </c>
       <c r="N252" s="14">
-        <v>1750</v>
+        <v>1920</v>
       </c>
       <c r="O252" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P252" s="12">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Q252" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R252" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="S252" s="14">
         <v>0</v>
@@ -18440,63 +18453,63 @@
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255" s="11">
-        <v>45848</v>
+        <v>45883</v>
       </c>
       <c r="B255" s="11">
-        <v>45848</v>
+        <v>45874</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E255" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F255" s="12">
-        <v>68457</v>
+        <v>68495</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="H255" s="12" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I255" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J255" s="12">
-        <v>66126</v>
+        <v>66694</v>
       </c>
       <c r="K255" s="12">
-        <v>2931</v>
+        <v>2289</v>
       </c>
       <c r="L255" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M255" s="11">
-        <v>45905</v>
+        <v>45891</v>
       </c>
       <c r="N255" s="14">
-        <v>3500</v>
+        <v>682.1</v>
       </c>
       <c r="O255" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P255" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q255" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R255" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="S255" s="14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T255" s="14">
         <v>0</v>
@@ -18504,10 +18517,10 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256" s="11">
-        <v>45874</v>
+        <v>45883</v>
       </c>
       <c r="B256" s="11">
-        <v>45853</v>
+        <v>45880</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>7</v>
@@ -18516,51 +18529,51 @@
         <v>15</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F256" s="12">
-        <v>68465</v>
+        <v>68500</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>125</v>
+        <v>371</v>
       </c>
       <c r="H256" s="12" t="s">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="I256" s="13">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J256" s="12">
-        <v>66555</v>
+        <v>66708</v>
       </c>
       <c r="K256" s="12">
-        <v>11791</v>
+        <v>4656</v>
       </c>
       <c r="L256" s="12" t="s">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="M256" s="11">
-        <v>45906</v>
+        <v>45891</v>
       </c>
       <c r="N256" s="14">
-        <v>1075.55</v>
+        <v>2207.7399999999998</v>
       </c>
       <c r="O256" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P256" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q256" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R256" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="S256" s="14">
-        <v>1215.25</v>
+        <v>0</v>
       </c>
       <c r="T256" s="14">
         <v>0</v>
@@ -18568,10 +18581,10 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257" s="11">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B257" s="11">
-        <v>45873</v>
+        <v>45868</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>7</v>
@@ -18582,33 +18595,33 @@
       <c r="E257" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F257" s="12">
-        <v>68493</v>
+      <c r="F257" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>321</v>
+        <v>3</v>
       </c>
       <c r="H257" s="12" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="I257" s="13">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J257" s="12">
-        <v>66607</v>
+        <v>66629</v>
       </c>
       <c r="K257" s="12">
-        <v>1586</v>
+        <v>11121</v>
       </c>
       <c r="L257" s="12" t="s">
-        <v>408</v>
+        <v>143</v>
       </c>
       <c r="M257" s="11">
-        <v>45907</v>
+        <v>45894</v>
       </c>
       <c r="N257" s="14">
-        <v>680</v>
+        <v>1242.04</v>
       </c>
       <c r="O257" s="12" t="s">
         <v>122</v>
@@ -18621,10 +18634,10 @@
       </c>
       <c r="R257" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="S257" s="14">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="T257" s="14">
         <v>0</v>
@@ -18632,63 +18645,63 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A258" s="11">
-        <v>45867</v>
+        <v>45882</v>
       </c>
       <c r="B258" s="11">
-        <v>45866</v>
+        <v>45881</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E258" s="11" t="s">
         <v>124</v>
       </c>
       <c r="F258" s="12">
-        <v>68483</v>
+        <v>68503</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="H258" s="12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I258" s="13">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J258" s="12">
-        <v>66467</v>
+        <v>66669</v>
       </c>
       <c r="K258" s="12">
-        <v>11164</v>
+        <v>3509</v>
       </c>
       <c r="L258" s="12" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="M258" s="11">
-        <v>45908</v>
+        <v>45894</v>
       </c>
       <c r="N258" s="14">
-        <v>2623.03</v>
+        <v>1920</v>
       </c>
       <c r="O258" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P258" s="12">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q258" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R258" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S258" s="14">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="T258" s="14">
         <v>0</v>
@@ -18696,13 +18709,13 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259" s="11">
-        <v>45870</v>
+        <v>45881</v>
       </c>
       <c r="B259" s="11">
-        <v>45870</v>
+        <v>45881</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D259" s="11" t="s">
         <v>15</v>
@@ -18710,46 +18723,46 @@
       <c r="E259" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F259" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G259" s="12" t="s">
-        <v>125</v>
+      <c r="F259" s="12">
+        <v>68501</v>
+      </c>
+      <c r="G259" s="12">
+        <v>2289</v>
       </c>
       <c r="H259" s="12" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I259" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J259" s="12">
-        <v>66430</v>
+        <v>66662</v>
       </c>
       <c r="K259" s="12">
-        <v>333</v>
+        <v>3040</v>
       </c>
       <c r="L259" s="12" t="s">
-        <v>400</v>
+        <v>214</v>
       </c>
       <c r="M259" s="11">
-        <v>46113</v>
+        <v>45896</v>
       </c>
       <c r="N259" s="14">
-        <v>281569.34000000003</v>
+        <v>1000</v>
       </c>
       <c r="O259" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P259" s="12">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Q259" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R259" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="S259" s="14">
         <v>0</v>
@@ -18760,141 +18773,141 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260" s="11">
-        <v>45882</v>
+        <v>45868</v>
       </c>
       <c r="B260" s="11">
-        <v>45881</v>
+        <v>45868</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E260" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F260" s="12">
-        <v>68503</v>
+      <c r="F260" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="H260" s="12" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I260" s="13">
-        <f>NETWORKDAYS(B260, A260)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J260" s="12">
-        <v>66669</v>
-      </c>
-      <c r="K260" s="52">
-        <v>3509</v>
+        <v>66504</v>
+      </c>
+      <c r="K260" s="12">
+        <v>3034</v>
       </c>
       <c r="L260" s="12" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M260" s="11">
-        <v>45894</v>
+        <v>45897</v>
       </c>
       <c r="N260" s="14">
-        <v>1920</v>
+        <v>2220</v>
       </c>
       <c r="O260" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P260" s="12">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="Q260" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R260" s="52">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>12</v>
+      <c r="R260" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>29</v>
       </c>
       <c r="S260" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T260" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A261" s="46">
-        <v>45882</v>
-      </c>
-      <c r="B261" s="46">
-        <v>45880</v>
-      </c>
-      <c r="C261" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D261" s="46" t="s">
+      <c r="A261" s="11">
+        <v>45869</v>
+      </c>
+      <c r="B261" s="11">
+        <v>45869</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E261" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F261" s="47">
-        <v>68498</v>
-      </c>
-      <c r="G261" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="H261" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I261" s="48">
-        <f>NETWORKDAYS(B261, A261)</f>
-        <v>3</v>
-      </c>
-      <c r="J261" s="53">
-        <v>66670</v>
-      </c>
-      <c r="K261" s="51">
-        <v>11796</v>
-      </c>
-      <c r="L261" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="M261" s="46">
-        <v>45890</v>
-      </c>
-      <c r="N261" s="49">
-        <v>42.23</v>
-      </c>
-      <c r="O261" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="P261" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q261" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="R261" s="51">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
-      </c>
-      <c r="S261" s="49">
-        <v>0</v>
-      </c>
-      <c r="T261" s="49">
+      <c r="E261" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I261" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J261" s="12">
+        <v>66427</v>
+      </c>
+      <c r="K261" s="12">
+        <v>1277</v>
+      </c>
+      <c r="L261" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="M261" s="11">
+        <v>45897</v>
+      </c>
+      <c r="N261" s="14">
+        <v>2715.75</v>
+      </c>
+      <c r="O261" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P261" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q261" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R261" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>28</v>
+      </c>
+      <c r="S261" s="14">
+        <v>950</v>
+      </c>
+      <c r="T261" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A262" s="11">
-        <v>45882</v>
+        <v>45875</v>
       </c>
       <c r="B262" s="11">
-        <v>45880</v>
+        <v>45873</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D262" s="11" t="s">
         <v>15</v>
@@ -18902,60 +18915,60 @@
       <c r="E262" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F262" s="12">
-        <v>68499</v>
-      </c>
-      <c r="G262" s="12" t="s">
+      <c r="F262" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I262" s="13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J262" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K262" s="12">
+        <v>333</v>
+      </c>
+      <c r="L262" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M262" s="11">
+        <v>45901</v>
+      </c>
+      <c r="N262" s="45">
+        <v>1483685.03</v>
+      </c>
+      <c r="O262" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P262" s="12">
         <v>90</v>
-      </c>
-      <c r="H262" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I262" s="13">
-        <f>NETWORKDAYS(B262, A262)</f>
-        <v>3</v>
-      </c>
-      <c r="J262" s="12">
-        <v>66671</v>
-      </c>
-      <c r="K262" s="52">
-        <v>1277</v>
-      </c>
-      <c r="L262" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="M262" s="11">
-        <v>45884</v>
-      </c>
-      <c r="N262" s="14">
-        <v>207.68</v>
-      </c>
-      <c r="O262" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P262" s="12">
-        <v>35</v>
       </c>
       <c r="Q262" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R262" s="52">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
+      <c r="R262" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>26</v>
       </c>
       <c r="S262" s="14">
         <v>0</v>
       </c>
       <c r="T262" s="14">
-        <v>0</v>
+        <v>59008.35</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263" s="11">
-        <v>45882</v>
+        <v>45856</v>
       </c>
       <c r="B263" s="11">
-        <v>45881</v>
+        <v>45856</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>7</v>
@@ -18964,38 +18977,38 @@
         <v>15</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F263" s="12">
-        <v>68502</v>
+        <v>68466</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="H263" s="12" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I263" s="13">
-        <f>NETWORKDAYS(B263, A263)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J263" s="12">
-        <v>66672</v>
-      </c>
-      <c r="K263" s="52">
-        <v>10594</v>
+        <v>66337</v>
+      </c>
+      <c r="K263" s="12">
+        <v>11736</v>
       </c>
       <c r="L263" s="12" t="s">
-        <v>412</v>
+        <v>127</v>
       </c>
       <c r="M263" s="11">
-        <v>45891</v>
+        <v>45902</v>
       </c>
       <c r="N263" s="14">
-        <v>1159.8</v>
+        <v>16134.54</v>
       </c>
       <c r="O263" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P263" s="12">
         <v>28</v>
@@ -19003,271 +19016,788 @@
       <c r="Q263" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R263" s="52">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>9</v>
+      <c r="R263" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>46</v>
       </c>
       <c r="S263" s="14">
-        <v>0</v>
+        <v>25720</v>
       </c>
       <c r="T263" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A264" s="11">
-        <v>45882</v>
-      </c>
-      <c r="B264" s="11">
-        <v>45881</v>
-      </c>
-      <c r="C264" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E264" s="11" t="s">
+      <c r="A264" s="50">
+        <v>45840</v>
+      </c>
+      <c r="B264" s="50">
+        <v>45840</v>
+      </c>
+      <c r="C264" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F264" s="12">
-        <v>68502</v>
-      </c>
-      <c r="G264" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="H264" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I264" s="13">
-        <f>NETWORKDAYS(B264, A264)</f>
-        <v>2</v>
-      </c>
-      <c r="J264" s="12">
-        <v>66673</v>
-      </c>
-      <c r="K264" s="52">
-        <v>11682</v>
-      </c>
-      <c r="L264" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="M264" s="11">
-        <v>45891</v>
-      </c>
-      <c r="N264" s="14">
-        <v>1173.95</v>
-      </c>
-      <c r="O264" s="12" t="s">
+      <c r="F264" s="51">
+        <v>68452</v>
+      </c>
+      <c r="G264" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H264" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I264" s="52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J264" s="51">
+        <v>66037</v>
+      </c>
+      <c r="K264" s="51">
+        <v>11775</v>
+      </c>
+      <c r="L264" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M264" s="50">
+        <v>45905</v>
+      </c>
+      <c r="N264" s="53">
+        <v>1750</v>
+      </c>
+      <c r="O264" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="P264" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q264" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R264" s="52">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>9</v>
-      </c>
-      <c r="S264" s="14">
-        <v>0</v>
-      </c>
-      <c r="T264" s="14">
+      <c r="P264" s="51">
+        <v>30</v>
+      </c>
+      <c r="Q264" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="R264" s="51">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>65</v>
+      </c>
+      <c r="S264" s="53">
+        <v>0</v>
+      </c>
+      <c r="T264" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265" s="11">
-        <v>45882</v>
+        <v>45848</v>
       </c>
       <c r="B265" s="11">
-        <v>45881</v>
+        <v>45848</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E265" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F265" s="12">
-        <v>68502</v>
+        <v>68457</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="H265" s="12" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I265" s="13">
-        <f>NETWORKDAYS(B265, A265)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J265" s="12">
-        <v>66675</v>
-      </c>
-      <c r="K265" s="52">
-        <v>11783</v>
+        <v>66126</v>
+      </c>
+      <c r="K265" s="12">
+        <v>2931</v>
       </c>
       <c r="L265" s="12" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M265" s="11">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="N265" s="14">
-        <v>227.88</v>
+        <v>3500</v>
       </c>
       <c r="O265" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P265" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q265" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R265" s="52">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+      <c r="R265" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>57</v>
+      </c>
+      <c r="S265" s="14">
+        <v>320</v>
+      </c>
+      <c r="T265" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="6">
+        <v>45882</v>
+      </c>
+      <c r="B266" s="6">
+        <v>45882</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H266" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I266" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J266" s="7">
+        <v>65768</v>
+      </c>
+      <c r="K266" s="7">
+        <v>175</v>
+      </c>
+      <c r="L266" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M266" s="6">
+        <v>45882</v>
+      </c>
+      <c r="N266" s="8">
+        <v>3685</v>
+      </c>
+      <c r="O266" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P266" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q266" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R266" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S266" s="8">
+        <v>0</v>
+      </c>
+      <c r="T266" s="8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A267" s="11">
+        <v>45874</v>
+      </c>
+      <c r="B267" s="11">
+        <v>45853</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F267" s="12">
+        <v>68465</v>
+      </c>
+      <c r="G267" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H267" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I267" s="13">
+        <f t="shared" ref="I267:I273" si="5">NETWORKDAYS(B267, A267)</f>
+        <v>16</v>
+      </c>
+      <c r="J267" s="12">
+        <v>66555</v>
+      </c>
+      <c r="K267" s="12">
+        <v>11791</v>
+      </c>
+      <c r="L267" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="M267" s="11">
+        <v>45906</v>
+      </c>
+      <c r="N267" s="14">
+        <v>1075.55</v>
+      </c>
+      <c r="O267" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P267" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q267" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R267" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>32</v>
+      </c>
+      <c r="S267" s="14">
+        <v>1215.25</v>
+      </c>
+      <c r="T267" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A268" s="11">
+        <v>45877</v>
+      </c>
+      <c r="B268" s="11">
+        <v>45873</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F268" s="12">
+        <v>68493</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H268" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I268" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J268" s="12">
+        <v>66607</v>
+      </c>
+      <c r="K268" s="12">
+        <v>1586</v>
+      </c>
+      <c r="L268" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="M268" s="11">
+        <v>45907</v>
+      </c>
+      <c r="N268" s="14">
+        <v>680</v>
+      </c>
+      <c r="O268" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P268" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q268" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R268" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>30</v>
+      </c>
+      <c r="S268" s="14">
+        <v>0</v>
+      </c>
+      <c r="T268" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A269" s="11">
+        <v>45867</v>
+      </c>
+      <c r="B269" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F269" s="12">
+        <v>68483</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I269" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J269" s="12">
+        <v>66467</v>
+      </c>
+      <c r="K269" s="12">
+        <v>11164</v>
+      </c>
+      <c r="L269" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M269" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N269" s="14">
+        <v>2623.03</v>
+      </c>
+      <c r="O269" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P269" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q269" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R269" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S269" s="14">
+        <v>52</v>
+      </c>
+      <c r="T269" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B270" s="6">
+        <v>45883</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H270" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I270" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J270" s="7">
+        <v>66706</v>
+      </c>
+      <c r="K270" s="7">
+        <v>10581</v>
+      </c>
+      <c r="L270" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M270" s="6">
+        <v>45883</v>
+      </c>
+      <c r="N270" s="8">
+        <v>9854.93</v>
+      </c>
+      <c r="O270" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P270" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q270" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R270" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S270" s="8">
+        <v>0</v>
+      </c>
+      <c r="T270" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A271" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B271" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F271" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G271" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H271" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I271" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J271" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K271" s="12">
+        <v>333</v>
+      </c>
+      <c r="L271" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M271" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N271" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O271" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P271" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q271" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R271" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>243</v>
+      </c>
+      <c r="S271" s="14">
+        <v>0</v>
+      </c>
+      <c r="T271" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A272" s="11">
+        <v>45884</v>
+      </c>
+      <c r="B272" s="11">
+        <v>45883</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F272" s="12">
+        <v>68509</v>
+      </c>
+      <c r="G272" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H272" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I272" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J272" s="12">
+        <v>66713</v>
+      </c>
+      <c r="K272" s="12">
+        <v>3636</v>
+      </c>
+      <c r="L272" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M272" s="11">
+        <v>45890</v>
+      </c>
+      <c r="N272" s="14">
+        <v>425.09</v>
+      </c>
+      <c r="O272" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P272" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q272" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R272" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>6</v>
+      </c>
+      <c r="S272" s="14">
+        <v>0</v>
+      </c>
+      <c r="T272" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A273" s="11">
+        <v>45884</v>
+      </c>
+      <c r="B273" s="11">
+        <v>45874</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F273" s="12">
+        <v>68496</v>
+      </c>
+      <c r="G273" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H273" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I273" s="13">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="S265" s="14">
-        <v>0</v>
-      </c>
-      <c r="T265" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A266" s="11">
-        <v>45882</v>
-      </c>
-      <c r="B266" s="11">
-        <v>45882</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" s="11" t="s">
+      <c r="J273" s="12">
+        <v>66714</v>
+      </c>
+      <c r="K273" s="12">
+        <v>881</v>
+      </c>
+      <c r="L273" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="M273" s="11">
+        <v>45891</v>
+      </c>
+      <c r="N273" s="14">
+        <v>4736.25</v>
+      </c>
+      <c r="O273" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P273" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q273" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R273" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S273" s="14">
+        <v>0</v>
+      </c>
+      <c r="T273" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A274" s="11">
+        <v>45884</v>
+      </c>
+      <c r="B274" s="11">
+        <v>45874</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E266" s="11" t="s">
+      <c r="E274" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F266" s="12">
-        <v>68507</v>
-      </c>
-      <c r="G266" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H266" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I266" s="13">
-        <f>NETWORKDAYS(B266, A266)</f>
+      <c r="F274" s="12">
+        <v>68496</v>
+      </c>
+      <c r="G274" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H274" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I274" s="13">
+        <f>NETWORKDAYS(B274, A274)</f>
+        <v>9</v>
+      </c>
+      <c r="J274" s="12">
+        <v>66718</v>
+      </c>
+      <c r="K274" s="12">
+        <v>3011</v>
+      </c>
+      <c r="L274" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M274" s="11">
+        <v>45890</v>
+      </c>
+      <c r="N274" s="14">
+        <v>223.6</v>
+      </c>
+      <c r="O274" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P274" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q274" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R274" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>6</v>
+      </c>
+      <c r="S274" s="14">
+        <v>0</v>
+      </c>
+      <c r="T274" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A275" s="50">
+        <v>45884</v>
+      </c>
+      <c r="B275" s="50">
+        <v>45884</v>
+      </c>
+      <c r="C275" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F275" s="51">
+        <v>68511</v>
+      </c>
+      <c r="G275" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="H275" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="I275" s="52">
+        <f>NETWORKDAYS(B275, A275)</f>
         <v>1</v>
       </c>
-      <c r="J266" s="12">
-        <v>66681</v>
-      </c>
-      <c r="K266" s="52">
-        <v>10627</v>
-      </c>
-      <c r="L266" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="M266" s="11">
+      <c r="J275" s="51">
+        <v>66720</v>
+      </c>
+      <c r="K275" s="51">
+        <v>74</v>
+      </c>
+      <c r="L275" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="M275" s="50">
         <v>45890</v>
       </c>
-      <c r="N266" s="14">
-        <v>850</v>
-      </c>
-      <c r="O266" s="12" t="s">
+      <c r="N275" s="53">
+        <v>299.72000000000003</v>
+      </c>
+      <c r="O275" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="P266" s="12">
+      <c r="P275" s="51">
         <v>28</v>
       </c>
-      <c r="Q266" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R266" s="52">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
-      </c>
-      <c r="S266" s="14">
-        <v>0</v>
-      </c>
-      <c r="T266" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="6">
-        <v>45882</v>
-      </c>
-      <c r="B267" s="6">
-        <v>45882</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F267" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G267" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H267" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I267" s="10">
-        <f>NETWORKDAYS(B267, A267)</f>
-        <v>1</v>
-      </c>
-      <c r="J267" s="7">
-        <v>65768</v>
-      </c>
-      <c r="K267" s="50">
-        <v>175</v>
-      </c>
-      <c r="L267" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M267" s="6">
-        <v>45882</v>
-      </c>
-      <c r="N267" s="8">
-        <v>3685</v>
-      </c>
-      <c r="O267" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P267" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q267" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R267" s="50">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>0</v>
-      </c>
-      <c r="S267" s="8">
-        <v>0</v>
-      </c>
-      <c r="T267" s="8">
-        <v>191</v>
+      <c r="Q275" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="R275" s="51">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>6</v>
+      </c>
+      <c r="S275" s="53">
+        <v>0</v>
+      </c>
+      <c r="T275" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="J281" s="54" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -19285,7 +19815,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19543,7 +20073,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19551,7 +20081,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 584 dias para vencer</v>
+        <v>Faltam 582 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -19569,7 +20099,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19577,7 +20107,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 316 dias</v>
+        <v>Venceu há 318 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -19595,7 +20125,7 @@
       </c>
       <c r="E4" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F4" s="33" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19603,7 +20133,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 24 dias</v>
+        <v>Venceu há 26 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -19621,7 +20151,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19647,7 +20177,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19673,7 +20203,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19681,7 +20211,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 148 dias</v>
+        <v>Venceu há 150 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -19699,7 +20229,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19707,7 +20237,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 891 dias</v>
+        <v>Venceu há 893 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -19725,7 +20255,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19733,7 +20263,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 400 dias para vencer</v>
+        <v>Faltam 398 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -19751,7 +20281,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19759,7 +20289,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 321 dias para vencer</v>
+        <v>Faltam 319 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -19777,7 +20307,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -19785,7 +20315,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 110 dias para vencer</v>
+        <v>Faltam 108 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -19807,7 +20337,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19854,7 +20384,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -19888,7 +20418,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -19905,7 +20435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
@@ -19922,7 +20452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -19939,7 +20469,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
@@ -19956,7 +20486,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
@@ -19973,7 +20503,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -19990,7 +20520,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
@@ -20007,7 +20537,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>153</v>
       </c>
@@ -20024,7 +20554,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -20041,7 +20571,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
@@ -20058,7 +20588,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>172</v>
       </c>
@@ -20075,7 +20605,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>135</v>
       </c>
@@ -20092,7 +20622,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>197</v>
       </c>
@@ -20109,7 +20639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>217</v>
       </c>
@@ -20126,7 +20656,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>234</v>
       </c>
@@ -20143,7 +20673,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>254</v>
       </c>
@@ -20160,7 +20690,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>258</v>
       </c>
@@ -20194,7 +20724,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>306</v>
       </c>
@@ -20211,7 +20741,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>315</v>
       </c>
@@ -20525,10 +21055,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6577E-1BBE-47C5-96B8-0E0691F59A60}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21166,7 +21696,7 @@
         <v>11790</v>
       </c>
       <c r="E37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -21183,7 +21713,7 @@
         <v>11791</v>
       </c>
       <c r="E38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -21191,7 +21721,7 @@
         <v>45875</v>
       </c>
       <c r="B39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C39" t="s">
         <v>185</v>
@@ -21200,7 +21730,7 @@
         <v>11792</v>
       </c>
       <c r="E39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -21217,7 +21747,7 @@
         <v>11793</v>
       </c>
       <c r="E40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -21225,7 +21755,7 @@
         <v>45880</v>
       </c>
       <c r="B41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C41" t="s">
         <v>287</v>
@@ -21234,7 +21764,7 @@
         <v>11795</v>
       </c>
       <c r="E41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -21251,7 +21781,41 @@
         <v>11796</v>
       </c>
       <c r="E42" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="17">
+        <v>45883</v>
+      </c>
+      <c r="B43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>11797</v>
+      </c>
+      <c r="E43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="17">
+        <v>45883</v>
+      </c>
+      <c r="B44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C44" t="s">
+        <v>416</v>
+      </c>
+      <c r="D44">
+        <v>11798</v>
+      </c>
+      <c r="E44" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\splfps01\data$\GROUP\PUBLICO\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F3F46-CE99-4938-A209-24B41561AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F144BBC0-9295-4BF1-A6A6-B102C401D7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="420">
   <si>
     <t>SC</t>
   </si>
@@ -1128,9 +1128,6 @@
     <t>FIORATTI INDUSTRIA METALURGICA EIRELI</t>
   </si>
   <si>
-    <t>G.Z.V. COMERCIO E LOCACOES DE EQUIPAMENTOS DE INFORMATICA  LTDA. ME</t>
-  </si>
-  <si>
     <t>A A PAIVA AUTO REBOQUE LTDA</t>
   </si>
   <si>
@@ -1320,22 +1317,25 @@
     <t>FOTON TEM CONSULTORIA E PRODUCAO LTDA</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>logistica</t>
+  </si>
+  <si>
+    <t>TRANSLIGUE TRANSPORTES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>GARCIQUIMICA COM.PRODS.QUIMICOS LTDA</t>
+  </si>
+  <si>
+    <t>Razao Social</t>
+  </si>
+  <si>
+    <t>51.843.484 JOSE DARIO DA SILVA</t>
+  </si>
+  <si>
     <t>AGUARDANDO APROVAÇÃO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>logistica</t>
-  </si>
-  <si>
-    <t>TRANSLIGUE TRANSPORTES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>GARCIQUIMICA COM.PRODS.QUIMICOS LTDA</t>
-  </si>
-  <si>
-    <t>Razao Social</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1479,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1600,19 +1600,25 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1796,8 +1802,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T275" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T275" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T279" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:T279" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
@@ -1806,8 +1812,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T271">
-    <sortCondition ref="M1:M271"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T278">
+    <sortCondition ref="M1:M278"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
@@ -1890,8 +1896,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E44" totalsRowShown="0">
-  <autoFilter ref="A1:E44" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E45" totalsRowShown="0">
+  <autoFilter ref="A1:E45" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
@@ -2168,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I229" sqref="I229"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P260" sqref="P260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2232,10 +2238,10 @@
         <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>107</v>
@@ -2855,13 +2861,13 @@
         <v>68459</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="I11" s="13">
-        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
+        <f>NETWORKDAYS(B11, A11)</f>
         <v>1</v>
       </c>
       <c r="J11" s="12">
@@ -2871,7 +2877,7 @@
         <v>11781</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M11" s="11">
         <v>45855</v>
@@ -2925,7 +2931,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B12, A12)</f>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2989,7 +2995,7 @@
         <v>138</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B13, A13)</f>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -3053,7 +3059,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B14, A14)</f>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3117,7 +3123,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B15, A15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3181,7 +3187,7 @@
         <v>91</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B16, A16)</f>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3245,7 +3251,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B17, A17)</f>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3309,7 +3315,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B18, A18)</f>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3373,7 +3379,7 @@
         <v>91</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B19, A19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3437,7 +3443,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B20, A20)</f>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3501,7 +3507,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B21, A21)</f>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3565,7 +3571,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B22, A22)</f>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3629,7 +3635,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="30">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B23, A23)</f>
         <v>2</v>
       </c>
       <c r="J23" s="28">
@@ -3693,7 +3699,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B24, A24)</f>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3757,7 +3763,7 @@
         <v>126</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B25, A25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3821,7 +3827,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B26, A26)</f>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3885,7 +3891,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B27, A27)</f>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3949,7 +3955,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B28, A28)</f>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -4013,7 +4019,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B29, A29)</f>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4077,7 +4083,7 @@
         <v>138</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B30, A30)</f>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4141,7 +4147,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B31, A31)</f>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4205,7 +4211,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B32, A32)</f>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4269,7 +4275,7 @@
         <v>130</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B33, A33)</f>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4333,7 +4339,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B34, A34)</f>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -4397,7 +4403,7 @@
         <v>130</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B35, A35)</f>
         <v>37</v>
       </c>
       <c r="J35" s="7">
@@ -4461,7 +4467,7 @@
         <v>98</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B36, A36)</f>
         <v>4</v>
       </c>
       <c r="J36" s="7">
@@ -4525,7 +4531,7 @@
         <v>91</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B37, A37)</f>
         <v>3</v>
       </c>
       <c r="J37" s="7">
@@ -4589,7 +4595,7 @@
         <v>91</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B38, A38)</f>
         <v>3</v>
       </c>
       <c r="J38" s="7">
@@ -4653,7 +4659,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B39, A39)</f>
         <v>1</v>
       </c>
       <c r="J39" s="7">
@@ -4717,7 +4723,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B40, A40)</f>
         <v>1</v>
       </c>
       <c r="J40" s="7">
@@ -4781,7 +4787,7 @@
         <v>98</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B41, A41)</f>
         <v>1</v>
       </c>
       <c r="J41" s="7">
@@ -4845,7 +4851,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B42, A42)</f>
         <v>9</v>
       </c>
       <c r="J42" s="7">
@@ -4909,7 +4915,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B43, A43)</f>
         <v>1</v>
       </c>
       <c r="J43" s="7">
@@ -4973,7 +4979,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B44, A44)</f>
         <v>9</v>
       </c>
       <c r="J44" s="7">
@@ -5037,7 +5043,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B45, A45)</f>
         <v>9</v>
       </c>
       <c r="J45" s="7">
@@ -5101,7 +5107,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B46, A46)</f>
         <v>1</v>
       </c>
       <c r="J46" s="7">
@@ -5165,7 +5171,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B47, A47)</f>
         <v>2</v>
       </c>
       <c r="J47" s="7">
@@ -5229,7 +5235,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B48, A48)</f>
         <v>1</v>
       </c>
       <c r="J48" s="7">
@@ -5293,7 +5299,7 @@
         <v>130</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B49, A49)</f>
         <v>1</v>
       </c>
       <c r="J49" s="7">
@@ -5357,7 +5363,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B50, A50)</f>
         <v>1</v>
       </c>
       <c r="J50" s="7">
@@ -5421,7 +5427,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B51, A51)</f>
         <v>1</v>
       </c>
       <c r="J51" s="7">
@@ -5485,7 +5491,7 @@
         <v>98</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B52, A52)</f>
         <v>1</v>
       </c>
       <c r="J52" s="7">
@@ -5549,7 +5555,7 @@
         <v>98</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B53, A53)</f>
         <v>9</v>
       </c>
       <c r="J53" s="7">
@@ -5613,7 +5619,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B54, A54)</f>
         <v>1</v>
       </c>
       <c r="J54" s="7">
@@ -5677,7 +5683,7 @@
         <v>126</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B55, A55)</f>
         <v>6</v>
       </c>
       <c r="J55" s="7">
@@ -5741,7 +5747,7 @@
         <v>130</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B56, A56)</f>
         <v>1</v>
       </c>
       <c r="J56" s="7">
@@ -5805,7 +5811,7 @@
         <v>96</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B57, A57)</f>
         <v>2</v>
       </c>
       <c r="J57" s="7">
@@ -5869,7 +5875,7 @@
         <v>32</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B58, A58)</f>
         <v>1</v>
       </c>
       <c r="J58" s="7">
@@ -5933,7 +5939,7 @@
         <v>32</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B59, A59)</f>
         <v>1</v>
       </c>
       <c r="J59" s="7">
@@ -5997,7 +6003,7 @@
         <v>32</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B60, A60)</f>
         <v>1</v>
       </c>
       <c r="J60" s="7">
@@ -6061,7 +6067,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B61, A61)</f>
         <v>10</v>
       </c>
       <c r="J61" s="7">
@@ -6125,7 +6131,7 @@
         <v>130</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B62, A62)</f>
         <v>1</v>
       </c>
       <c r="J62" s="7">
@@ -6189,7 +6195,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B63, A63)</f>
         <v>18</v>
       </c>
       <c r="J63" s="7">
@@ -6253,7 +6259,7 @@
         <v>91</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B64, A64)</f>
         <v>4</v>
       </c>
       <c r="J64" s="7">
@@ -6317,7 +6323,7 @@
         <v>98</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B65, A65)</f>
         <v>1</v>
       </c>
       <c r="J65" s="7">
@@ -6381,7 +6387,7 @@
         <v>98</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B66, A66)</f>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6445,7 +6451,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B67, A67)</f>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6509,7 +6515,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B68, A68)</f>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6573,7 +6579,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B69, A69)</f>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6637,7 +6643,7 @@
         <v>98</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B70, A70)</f>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6701,7 +6707,7 @@
         <v>98</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B71, A71)</f>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6765,7 +6771,7 @@
         <v>98</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B72, A72)</f>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6829,7 +6835,7 @@
         <v>98</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B73, A73)</f>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6893,7 +6899,7 @@
         <v>98</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(B74, A74)</f>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6957,7 +6963,7 @@
         <v>98</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" ref="I75:I138" si="2">NETWORKDAYS(B75, A75)</f>
+        <f>NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -7021,7 +7027,7 @@
         <v>91</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B76, A76)</f>
         <v>3</v>
       </c>
       <c r="J76" s="7">
@@ -7085,7 +7091,7 @@
         <v>98</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B77, A77)</f>
         <v>2</v>
       </c>
       <c r="J77" s="7">
@@ -7149,7 +7155,7 @@
         <v>32</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B78, A78)</f>
         <v>1</v>
       </c>
       <c r="J78" s="7">
@@ -7213,7 +7219,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B79, A79)</f>
         <v>1</v>
       </c>
       <c r="J79" s="7">
@@ -7277,7 +7283,7 @@
         <v>138</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B80, A80)</f>
         <v>1</v>
       </c>
       <c r="J80" s="7">
@@ -7341,7 +7347,7 @@
         <v>130</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B81, A81)</f>
         <v>1</v>
       </c>
       <c r="J81" s="7">
@@ -7405,7 +7411,7 @@
         <v>98</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B82, A82)</f>
         <v>1</v>
       </c>
       <c r="J82" s="7">
@@ -7469,7 +7475,7 @@
         <v>130</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B83, A83)</f>
         <v>1</v>
       </c>
       <c r="J83" s="7">
@@ -7533,7 +7539,7 @@
         <v>98</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B84, A84)</f>
         <v>2</v>
       </c>
       <c r="J84" s="7">
@@ -7597,7 +7603,7 @@
         <v>98</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B85, A85)</f>
         <v>2</v>
       </c>
       <c r="J85" s="7">
@@ -7661,7 +7667,7 @@
         <v>34</v>
       </c>
       <c r="I86" s="30">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B86, A86)</f>
         <v>2</v>
       </c>
       <c r="J86" s="28">
@@ -7725,7 +7731,7 @@
         <v>32</v>
       </c>
       <c r="I87" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B87, A87)</f>
         <v>1</v>
       </c>
       <c r="J87" s="7">
@@ -7789,7 +7795,7 @@
         <v>32</v>
       </c>
       <c r="I88" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B88, A88)</f>
         <v>1</v>
       </c>
       <c r="J88" s="7">
@@ -7853,7 +7859,7 @@
         <v>126</v>
       </c>
       <c r="I89" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B89, A89)</f>
         <v>1</v>
       </c>
       <c r="J89" s="7">
@@ -7917,7 +7923,7 @@
         <v>98</v>
       </c>
       <c r="I90" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B90, A90)</f>
         <v>1</v>
       </c>
       <c r="J90" s="7">
@@ -7981,7 +7987,7 @@
         <v>32</v>
       </c>
       <c r="I91" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B91, A91)</f>
         <v>1</v>
       </c>
       <c r="J91" s="7">
@@ -8045,7 +8051,7 @@
         <v>98</v>
       </c>
       <c r="I92" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B92, A92)</f>
         <v>4</v>
       </c>
       <c r="J92" s="7">
@@ -8109,7 +8115,7 @@
         <v>126</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B93, A93)</f>
         <v>3</v>
       </c>
       <c r="J93" s="7">
@@ -8173,7 +8179,7 @@
         <v>126</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B94, A94)</f>
         <v>1</v>
       </c>
       <c r="J94" s="7">
@@ -8237,7 +8243,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B95, A95)</f>
         <v>2</v>
       </c>
       <c r="J95" s="7">
@@ -8295,13 +8301,13 @@
         <v>3</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I96" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B96, A96)</f>
         <v>1</v>
       </c>
       <c r="J96" s="7">
@@ -8365,7 +8371,7 @@
         <v>138</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B97, A97)</f>
         <v>1</v>
       </c>
       <c r="J97" s="7">
@@ -8429,7 +8435,7 @@
         <v>98</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B98, A98)</f>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8493,7 +8499,7 @@
         <v>130</v>
       </c>
       <c r="I99" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B99, A99)</f>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8557,7 +8563,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B100, A100)</f>
         <v>24</v>
       </c>
       <c r="J100" s="7">
@@ -8621,7 +8627,7 @@
         <v>126</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B101, A101)</f>
         <v>25</v>
       </c>
       <c r="J101" s="7">
@@ -8685,7 +8691,7 @@
         <v>98</v>
       </c>
       <c r="I102" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B102, A102)</f>
         <v>1</v>
       </c>
       <c r="J102" s="7">
@@ -8749,7 +8755,7 @@
         <v>91</v>
       </c>
       <c r="I103" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B103, A103)</f>
         <v>3</v>
       </c>
       <c r="J103" s="7">
@@ -8813,7 +8819,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B104, A104)</f>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8877,7 +8883,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B105, A105)</f>
         <v>1</v>
       </c>
       <c r="J105" s="7">
@@ -8941,7 +8947,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B106, A106)</f>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -9005,7 +9011,7 @@
         <v>98</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B107, A107)</f>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9069,7 +9075,7 @@
         <v>96</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B108, A108)</f>
         <v>6</v>
       </c>
       <c r="J108" s="7">
@@ -9133,7 +9139,7 @@
         <v>91</v>
       </c>
       <c r="I109" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B109, A109)</f>
         <v>4</v>
       </c>
       <c r="J109" s="7">
@@ -9197,7 +9203,7 @@
         <v>91</v>
       </c>
       <c r="I110" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B110, A110)</f>
         <v>4</v>
       </c>
       <c r="J110" s="7">
@@ -9261,7 +9267,7 @@
         <v>91</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B111, A111)</f>
         <v>4</v>
       </c>
       <c r="J111" s="7">
@@ -9325,7 +9331,7 @@
         <v>126</v>
       </c>
       <c r="I112" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B112, A112)</f>
         <v>9</v>
       </c>
       <c r="J112" s="7">
@@ -9389,7 +9395,7 @@
         <v>32</v>
       </c>
       <c r="I113" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B113, A113)</f>
         <v>1</v>
       </c>
       <c r="J113" s="7">
@@ -9453,7 +9459,7 @@
         <v>96</v>
       </c>
       <c r="I114" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B114, A114)</f>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9517,7 +9523,7 @@
         <v>91</v>
       </c>
       <c r="I115" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B115, A115)</f>
         <v>2</v>
       </c>
       <c r="J115" s="7">
@@ -9581,7 +9587,7 @@
         <v>32</v>
       </c>
       <c r="I116" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B116, A116)</f>
         <v>1</v>
       </c>
       <c r="J116" s="7">
@@ -9645,7 +9651,7 @@
         <v>98</v>
       </c>
       <c r="I117" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B117, A117)</f>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9709,7 +9715,7 @@
         <v>91</v>
       </c>
       <c r="I118" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B118, A118)</f>
         <v>5</v>
       </c>
       <c r="J118" s="7">
@@ -9773,7 +9779,7 @@
         <v>91</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B119, A119)</f>
         <v>1</v>
       </c>
       <c r="J119" s="7">
@@ -9837,7 +9843,7 @@
         <v>91</v>
       </c>
       <c r="I120" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B120, A120)</f>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9901,7 +9907,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B121, A121)</f>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9965,7 +9971,7 @@
         <v>126</v>
       </c>
       <c r="I122" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B122, A122)</f>
         <v>18</v>
       </c>
       <c r="J122" s="7">
@@ -10029,7 +10035,7 @@
         <v>91</v>
       </c>
       <c r="I123" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B123, A123)</f>
         <v>1</v>
       </c>
       <c r="J123" s="7">
@@ -10093,7 +10099,7 @@
         <v>32</v>
       </c>
       <c r="I124" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B124, A124)</f>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10157,7 +10163,7 @@
         <v>130</v>
       </c>
       <c r="I125" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B125, A125)</f>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10221,7 +10227,7 @@
         <v>130</v>
       </c>
       <c r="I126" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B126, A126)</f>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10285,7 +10291,7 @@
         <v>98</v>
       </c>
       <c r="I127" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B127, A127)</f>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10349,7 +10355,7 @@
         <v>130</v>
       </c>
       <c r="I128" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B128, A128)</f>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10413,7 +10419,7 @@
         <v>32</v>
       </c>
       <c r="I129" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B129, A129)</f>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10477,7 +10483,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B130, A130)</f>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10541,7 +10547,7 @@
         <v>91</v>
       </c>
       <c r="I131" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B131, A131)</f>
         <v>2</v>
       </c>
       <c r="J131" s="7">
@@ -10605,7 +10611,7 @@
         <v>126</v>
       </c>
       <c r="I132" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B132, A132)</f>
         <v>28</v>
       </c>
       <c r="J132" s="7">
@@ -10669,7 +10675,7 @@
         <v>98</v>
       </c>
       <c r="I133" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B133, A133)</f>
         <v>7</v>
       </c>
       <c r="J133" s="7">
@@ -10733,7 +10739,7 @@
         <v>126</v>
       </c>
       <c r="I134" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B134, A134)</f>
         <v>6</v>
       </c>
       <c r="J134" s="7">
@@ -10797,7 +10803,7 @@
         <v>126</v>
       </c>
       <c r="I135" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B135, A135)</f>
         <v>7</v>
       </c>
       <c r="J135" s="7">
@@ -10861,7 +10867,7 @@
         <v>32</v>
       </c>
       <c r="I136" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B136, A136)</f>
         <v>1</v>
       </c>
       <c r="J136" s="7">
@@ -10925,7 +10931,7 @@
         <v>98</v>
       </c>
       <c r="I137" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B137, A137)</f>
         <v>2</v>
       </c>
       <c r="J137" s="7">
@@ -10989,7 +10995,7 @@
         <v>98</v>
       </c>
       <c r="I138" s="10">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(B138, A138)</f>
         <v>7</v>
       </c>
       <c r="J138" s="7">
@@ -11053,7 +11059,7 @@
         <v>98</v>
       </c>
       <c r="I139" s="10">
-        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
+        <f>NETWORKDAYS(B139, A139)</f>
         <v>18</v>
       </c>
       <c r="J139" s="7">
@@ -11117,7 +11123,7 @@
         <v>91</v>
       </c>
       <c r="I140" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B140, A140)</f>
         <v>6</v>
       </c>
       <c r="J140" s="7">
@@ -11181,7 +11187,7 @@
         <v>130</v>
       </c>
       <c r="I141" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B141, A141)</f>
         <v>1</v>
       </c>
       <c r="J141" s="7">
@@ -11242,10 +11248,10 @@
         <v>293</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I142" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B142, A142)</f>
         <v>1</v>
       </c>
       <c r="J142" s="7">
@@ -11309,7 +11315,7 @@
         <v>98</v>
       </c>
       <c r="I143" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B143, A143)</f>
         <v>1</v>
       </c>
       <c r="J143" s="7">
@@ -11373,7 +11379,7 @@
         <v>34</v>
       </c>
       <c r="I144" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B144, A144)</f>
         <v>1</v>
       </c>
       <c r="J144" s="7">
@@ -11437,7 +11443,7 @@
         <v>126</v>
       </c>
       <c r="I145" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B145, A145)</f>
         <v>12</v>
       </c>
       <c r="J145" s="7">
@@ -11501,7 +11507,7 @@
         <v>91</v>
       </c>
       <c r="I146" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B146, A146)</f>
         <v>4</v>
       </c>
       <c r="J146" s="7">
@@ -11565,7 +11571,7 @@
         <v>98</v>
       </c>
       <c r="I147" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B147, A147)</f>
         <v>1</v>
       </c>
       <c r="J147" s="7">
@@ -11629,7 +11635,7 @@
         <v>138</v>
       </c>
       <c r="I148" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B148, A148)</f>
         <v>1</v>
       </c>
       <c r="J148" s="7">
@@ -11693,7 +11699,7 @@
         <v>91</v>
       </c>
       <c r="I149" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B149, A149)</f>
         <v>9</v>
       </c>
       <c r="J149" s="7">
@@ -11757,7 +11763,7 @@
         <v>130</v>
       </c>
       <c r="I150" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B150, A150)</f>
         <v>1</v>
       </c>
       <c r="J150" s="7">
@@ -11821,7 +11827,7 @@
         <v>32</v>
       </c>
       <c r="I151" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B151, A151)</f>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11885,7 +11891,7 @@
         <v>91</v>
       </c>
       <c r="I152" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B152, A152)</f>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11949,7 +11955,7 @@
         <v>32</v>
       </c>
       <c r="I153" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B153, A153)</f>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -12013,7 +12019,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B154, A154)</f>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12077,7 +12083,7 @@
         <v>130</v>
       </c>
       <c r="I155" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B155, A155)</f>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12141,7 +12147,7 @@
         <v>98</v>
       </c>
       <c r="I156" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B156, A156)</f>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12205,7 +12211,7 @@
         <v>91</v>
       </c>
       <c r="I157" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B157, A157)</f>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12269,7 +12275,7 @@
         <v>91</v>
       </c>
       <c r="I158" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B158, A158)</f>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12333,7 +12339,7 @@
         <v>32</v>
       </c>
       <c r="I159" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B159, A159)</f>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12397,7 +12403,7 @@
         <v>32</v>
       </c>
       <c r="I160" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B160, A160)</f>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12461,7 +12467,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B161, A161)</f>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12525,7 +12531,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B162, A162)</f>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12589,7 +12595,7 @@
         <v>185</v>
       </c>
       <c r="I163" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B163, A163)</f>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12653,7 +12659,7 @@
         <v>91</v>
       </c>
       <c r="I164" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B164, A164)</f>
         <v>17</v>
       </c>
       <c r="J164" s="7">
@@ -12717,7 +12723,7 @@
         <v>98</v>
       </c>
       <c r="I165" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B165, A165)</f>
         <v>2</v>
       </c>
       <c r="J165" s="7">
@@ -12781,7 +12787,7 @@
         <v>91</v>
       </c>
       <c r="I166" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B166, A166)</f>
         <v>4</v>
       </c>
       <c r="J166" s="7">
@@ -12845,7 +12851,7 @@
         <v>130</v>
       </c>
       <c r="I167" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B167, A167)</f>
         <v>5</v>
       </c>
       <c r="J167" s="7">
@@ -12909,7 +12915,7 @@
         <v>32</v>
       </c>
       <c r="I168" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B168, A168)</f>
         <v>1</v>
       </c>
       <c r="J168" s="7">
@@ -12973,7 +12979,7 @@
         <v>130</v>
       </c>
       <c r="I169" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B169, A169)</f>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -13037,7 +13043,7 @@
         <v>130</v>
       </c>
       <c r="I170" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B170, A170)</f>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13101,7 +13107,7 @@
         <v>126</v>
       </c>
       <c r="I171" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B171, A171)</f>
         <v>1</v>
       </c>
       <c r="J171" s="7">
@@ -13111,7 +13117,7 @@
         <v>1522</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M171" s="6">
         <v>45875</v>
@@ -13159,13 +13165,13 @@
         <v>3</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I172" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B172, A172)</f>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13175,7 +13181,7 @@
         <v>11473</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="M172" s="6">
         <v>45840</v>
@@ -13205,10 +13211,10 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
-        <v>45849</v>
+        <v>45785</v>
       </c>
       <c r="B173" s="11">
-        <v>45849</v>
+        <v>45784</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>7</v>
@@ -13219,49 +13225,49 @@
       <c r="E173" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F173" s="12" t="s">
-        <v>3</v>
+      <c r="F173" s="12">
+        <v>68369</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>371</v>
+        <v>39</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>372</v>
+        <v>98</v>
       </c>
       <c r="I173" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B173, A173)</f>
+        <v>2</v>
       </c>
       <c r="J173" s="12">
-        <v>66166</v>
+        <v>65234</v>
       </c>
       <c r="K173" s="12">
-        <v>11782</v>
+        <v>11610</v>
       </c>
       <c r="L173" s="12" t="s">
-        <v>370</v>
+        <v>38</v>
       </c>
       <c r="M173" s="11">
-        <v>45880</v>
+        <v>45887</v>
       </c>
       <c r="N173" s="14">
-        <v>2250</v>
+        <v>9114.5499999999993</v>
       </c>
       <c r="O173" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P173" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q173" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R173" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="S173" s="14">
-        <v>250</v>
+        <v>183.5</v>
       </c>
       <c r="T173" s="14">
         <v>0</v>
@@ -13293,7 +13299,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B174, A174)</f>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13357,7 +13363,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B175, A175)</f>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13421,7 +13427,7 @@
         <v>138</v>
       </c>
       <c r="I176" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B176, A176)</f>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13485,7 +13491,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B177, A177)</f>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13549,7 +13555,7 @@
         <v>130</v>
       </c>
       <c r="I178" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B178, A178)</f>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13613,7 +13619,7 @@
         <v>32</v>
       </c>
       <c r="I179" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B179, A179)</f>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13677,7 +13683,7 @@
         <v>32</v>
       </c>
       <c r="I180" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B180, A180)</f>
         <v>1</v>
       </c>
       <c r="J180" s="7">
@@ -13741,7 +13747,7 @@
         <v>91</v>
       </c>
       <c r="I181" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B181, A181)</f>
         <v>1</v>
       </c>
       <c r="J181" s="7">
@@ -13751,7 +13757,7 @@
         <v>10627</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M181" s="6">
         <v>45858</v>
@@ -13805,7 +13811,7 @@
         <v>91</v>
       </c>
       <c r="I182" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B182, A182)</f>
         <v>1</v>
       </c>
       <c r="J182" s="7">
@@ -13815,7 +13821,7 @@
         <v>2289</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M182" s="6">
         <v>45881</v>
@@ -13869,7 +13875,7 @@
         <v>98</v>
       </c>
       <c r="I183" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B183, A183)</f>
         <v>1</v>
       </c>
       <c r="J183" s="7">
@@ -13879,7 +13885,7 @@
         <v>10677</v>
       </c>
       <c r="L183" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M183" s="6">
         <v>45905</v>
@@ -13933,7 +13939,7 @@
         <v>98</v>
       </c>
       <c r="I184" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B184, A184)</f>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13997,7 +14003,7 @@
         <v>34</v>
       </c>
       <c r="I185" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B185, A185)</f>
         <v>1</v>
       </c>
       <c r="J185" s="7">
@@ -14061,7 +14067,7 @@
         <v>96</v>
       </c>
       <c r="I186" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B186, A186)</f>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14071,7 +14077,7 @@
         <v>11204</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M186" s="6">
         <v>45848</v>
@@ -14125,7 +14131,7 @@
         <v>32</v>
       </c>
       <c r="I187" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B187, A187)</f>
         <v>1</v>
       </c>
       <c r="J187" s="7">
@@ -14177,19 +14183,19 @@
         <v>5</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F188" s="7">
         <v>68487</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H188" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I188" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B188, A188)</f>
         <v>1</v>
       </c>
       <c r="J188" s="7">
@@ -14199,7 +14205,7 @@
         <v>11614</v>
       </c>
       <c r="L188" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M188" s="6">
         <v>45882</v>
@@ -14253,17 +14259,17 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B189, A189)</f>
         <v>1</v>
       </c>
       <c r="J189" s="7">
         <v>66164</v>
       </c>
       <c r="K189" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L189" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L189" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M189" s="6">
         <v>45860</v>
@@ -14317,7 +14323,7 @@
         <v>91</v>
       </c>
       <c r="I190" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B190, A190)</f>
         <v>1</v>
       </c>
       <c r="J190" s="7">
@@ -14327,7 +14333,7 @@
         <v>11783</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M190" s="6">
         <v>45859</v>
@@ -14381,7 +14387,7 @@
         <v>34</v>
       </c>
       <c r="I191" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B191, A191)</f>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14445,7 +14451,7 @@
         <v>96</v>
       </c>
       <c r="I192" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B192, A192)</f>
         <v>1</v>
       </c>
       <c r="J192" s="7">
@@ -14455,7 +14461,7 @@
         <v>10460</v>
       </c>
       <c r="L192" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M192" s="6">
         <v>45883</v>
@@ -14503,13 +14509,13 @@
         <v>68460</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H193" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I193" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B193, A193)</f>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14519,7 +14525,7 @@
         <v>11522</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M193" s="6">
         <v>45856</v>
@@ -14567,13 +14573,13 @@
         <v>3</v>
       </c>
       <c r="G194" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H194" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H194" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="I194" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B194, A194)</f>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14583,7 +14589,7 @@
         <v>11784</v>
       </c>
       <c r="L194" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M194" s="6">
         <v>45867</v>
@@ -14637,7 +14643,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B195, A195)</f>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14698,10 +14704,10 @@
         <v>275</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I196" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B196, A196)</f>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14762,10 +14768,10 @@
         <v>3</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I197" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B197, A197)</f>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14826,10 +14832,10 @@
         <v>3</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I198" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B198, A198)</f>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14893,7 +14899,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B199, A199)</f>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14957,7 +14963,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B200, A200)</f>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -15021,7 +15027,7 @@
         <v>126</v>
       </c>
       <c r="I201" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B201, A201)</f>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15085,7 +15091,7 @@
         <v>130</v>
       </c>
       <c r="I202" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B202, A202)</f>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15149,7 +15155,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f t="shared" ref="I203:I266" si="4">NETWORKDAYS(B203, A203)</f>
+        <f>NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15213,7 +15219,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B204, A204)</f>
         <v>1</v>
       </c>
       <c r="J204" s="7">
@@ -15277,7 +15283,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B205, A205)</f>
         <v>1</v>
       </c>
       <c r="J205" s="7">
@@ -15341,7 +15347,7 @@
         <v>126</v>
       </c>
       <c r="I206" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B206, A206)</f>
         <v>1</v>
       </c>
       <c r="J206" s="7">
@@ -15351,7 +15357,7 @@
         <v>9</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M206" s="6">
         <v>45880</v>
@@ -15405,7 +15411,7 @@
         <v>130</v>
       </c>
       <c r="I207" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B207, A207)</f>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15469,7 +15475,7 @@
         <v>130</v>
       </c>
       <c r="I208" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B208, A208)</f>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15533,7 +15539,7 @@
         <v>130</v>
       </c>
       <c r="I209" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B209, A209)</f>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15597,7 +15603,7 @@
         <v>130</v>
       </c>
       <c r="I210" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B210, A210)</f>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15661,7 +15667,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B211, A211)</f>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15671,7 +15677,7 @@
         <v>2952</v>
       </c>
       <c r="L211" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M211" s="6">
         <v>45867</v>
@@ -15725,7 +15731,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B212, A212)</f>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15735,7 +15741,7 @@
         <v>10567</v>
       </c>
       <c r="L212" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M212" s="6">
         <v>45861</v>
@@ -15783,13 +15789,13 @@
         <v>3</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>138</v>
       </c>
       <c r="I213" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B213, A213)</f>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15853,7 +15859,7 @@
         <v>91</v>
       </c>
       <c r="I214" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B214, A214)</f>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15863,7 +15869,7 @@
         <v>11783</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M214" s="6">
         <v>45863</v>
@@ -15917,7 +15923,7 @@
         <v>98</v>
       </c>
       <c r="I215" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B215, A215)</f>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15981,7 +15987,7 @@
         <v>138</v>
       </c>
       <c r="I216" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B216, A216)</f>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -16045,7 +16051,7 @@
         <v>98</v>
       </c>
       <c r="I217" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B217, A217)</f>
         <v>1</v>
       </c>
       <c r="J217" s="7">
@@ -16055,7 +16061,7 @@
         <v>11715</v>
       </c>
       <c r="L217" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M217" s="6">
         <v>45873</v>
@@ -16085,10 +16091,10 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218" s="11">
-        <v>45870</v>
+        <v>45868</v>
       </c>
       <c r="B218" s="11">
-        <v>45869</v>
+        <v>45862</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>7</v>
@@ -16100,48 +16106,48 @@
         <v>113</v>
       </c>
       <c r="F218" s="12">
-        <v>68491</v>
+        <v>68476</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="H218" s="12" t="s">
-        <v>372</v>
+        <v>98</v>
       </c>
       <c r="I218" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B218, A218)</f>
+        <v>5</v>
       </c>
       <c r="J218" s="12">
-        <v>66521</v>
+        <v>66491</v>
       </c>
       <c r="K218" s="12">
-        <v>3061</v>
+        <v>11522</v>
       </c>
       <c r="L218" s="12" t="s">
-        <v>192</v>
+        <v>375</v>
       </c>
       <c r="M218" s="11">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="N218" s="14">
-        <v>3000</v>
+        <v>1680.4</v>
       </c>
       <c r="O218" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P218" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q218" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R218" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S218" s="14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T218" s="14">
         <v>0</v>
@@ -16173,7 +16179,7 @@
         <v>130</v>
       </c>
       <c r="I219" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B219, A219)</f>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16237,7 +16243,7 @@
         <v>130</v>
       </c>
       <c r="I220" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B220, A220)</f>
         <v>1</v>
       </c>
       <c r="J220" s="7">
@@ -16301,7 +16307,7 @@
         <v>98</v>
       </c>
       <c r="I221" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B221, A221)</f>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16359,13 +16365,13 @@
         <v>68479</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H222" s="7" t="s">
         <v>91</v>
       </c>
       <c r="I222" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B222, A222)</f>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16375,7 +16381,7 @@
         <v>11788</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M222" s="6">
         <v>45889</v>
@@ -16429,7 +16435,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B223, A223)</f>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16487,13 +16493,13 @@
         <v>68481</v>
       </c>
       <c r="G224" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H224" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H224" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="I224" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B224, A224)</f>
         <v>2</v>
       </c>
       <c r="J224" s="7">
@@ -16503,7 +16509,7 @@
         <v>10535</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M224" s="6">
         <v>45868</v>
@@ -16557,7 +16563,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B225, A225)</f>
         <v>1</v>
       </c>
       <c r="J225" s="7">
@@ -16600,57 +16606,57 @@
         <v>45870</v>
       </c>
       <c r="B226" s="11">
-        <v>45867</v>
+        <v>45863</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E226" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F226" s="12">
-        <v>68485</v>
+        <v>68482</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>371</v>
+        <v>129</v>
       </c>
       <c r="H226" s="12" t="s">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="I226" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>NETWORKDAYS(B226, A226)</f>
+        <v>6</v>
       </c>
       <c r="J226" s="12">
-        <v>66526</v>
+        <v>66522</v>
       </c>
       <c r="K226" s="12">
-        <v>3061</v>
+        <v>679</v>
       </c>
       <c r="L226" s="12" t="s">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="M226" s="11">
-        <v>45884</v>
+        <v>45889</v>
       </c>
       <c r="N226" s="14">
-        <v>1150</v>
+        <v>6048.2</v>
       </c>
       <c r="O226" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P226" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R226" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S226" s="14">
         <v>0</v>
@@ -16660,66 +16666,66 @@
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A227" s="11">
+      <c r="A227" s="46">
+        <v>45882</v>
+      </c>
+      <c r="B227" s="46">
         <v>45880</v>
       </c>
-      <c r="B227" s="11">
-        <v>45869</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E227" s="11" t="s">
+      <c r="C227" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F227" s="12">
-        <v>68490</v>
-      </c>
-      <c r="G227" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H227" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I227" s="13">
-        <f t="shared" si="4"/>
+      <c r="F227" s="47">
+        <v>68498</v>
+      </c>
+      <c r="G227" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="H227" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I227" s="48">
+        <f>NETWORKDAYS(B227, A227)</f>
+        <v>3</v>
+      </c>
+      <c r="J227" s="47">
+        <v>66670</v>
+      </c>
+      <c r="K227" s="47">
+        <v>11796</v>
+      </c>
+      <c r="L227" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="M227" s="46">
+        <v>45890</v>
+      </c>
+      <c r="N227" s="49">
+        <v>42.23</v>
+      </c>
+      <c r="O227" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="P227" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="R227" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>8</v>
       </c>
-      <c r="J227" s="12">
-        <v>66638</v>
-      </c>
-      <c r="K227" s="12">
-        <v>8992</v>
-      </c>
-      <c r="L227" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M227" s="11">
-        <v>45884</v>
-      </c>
-      <c r="N227" s="14">
-        <v>10750</v>
-      </c>
-      <c r="O227" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P227" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q227" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R227" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>4</v>
-      </c>
-      <c r="S227" s="14">
-        <v>0</v>
-      </c>
-      <c r="T227" s="14">
+      <c r="S227" s="49">
+        <v>0</v>
+      </c>
+      <c r="T227" s="49">
         <v>0</v>
       </c>
     </row>
@@ -16749,7 +16755,7 @@
         <v>91</v>
       </c>
       <c r="I228" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B228, A228)</f>
         <v>3</v>
       </c>
       <c r="J228" s="7">
@@ -16759,7 +16765,7 @@
         <v>1277</v>
       </c>
       <c r="L228" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M228" s="6">
         <v>45884</v>
@@ -16789,47 +16795,47 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
-        <v>45785</v>
+        <v>45884</v>
       </c>
       <c r="B229" s="11">
-        <v>45784</v>
+        <v>45883</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E229" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F229" s="12">
-        <v>68369</v>
+        <v>68509</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>39</v>
+        <v>321</v>
       </c>
       <c r="H229" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I229" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B229, A229)</f>
         <v>2</v>
       </c>
       <c r="J229" s="12">
-        <v>65234</v>
+        <v>66713</v>
       </c>
       <c r="K229" s="12">
-        <v>11610</v>
+        <v>3636</v>
       </c>
       <c r="L229" s="12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M229" s="11">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="N229" s="14">
-        <v>9114.5499999999993</v>
+        <v>425.09</v>
       </c>
       <c r="O229" s="12" t="s">
         <v>122</v>
@@ -16842,10 +16848,10 @@
       </c>
       <c r="R229" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="S229" s="14">
-        <v>183.5</v>
+        <v>0</v>
       </c>
       <c r="T229" s="14">
         <v>0</v>
@@ -16853,47 +16859,47 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
-        <v>45868</v>
+        <v>45884</v>
       </c>
       <c r="B230" s="11">
-        <v>45862</v>
+        <v>45874</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E230" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F230" s="12">
-        <v>68476</v>
+        <v>68496</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="H230" s="12" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I230" s="13">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>NETWORKDAYS(B230, A230)</f>
+        <v>9</v>
       </c>
       <c r="J230" s="12">
-        <v>66491</v>
+        <v>66718</v>
       </c>
       <c r="K230" s="12">
-        <v>11522</v>
+        <v>3011</v>
       </c>
       <c r="L230" s="12" t="s">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="M230" s="11">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N230" s="14">
-        <v>1680.4</v>
+        <v>223.6</v>
       </c>
       <c r="O230" s="12" t="s">
         <v>122</v>
@@ -16906,7 +16912,7 @@
       </c>
       <c r="R230" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="S230" s="14">
         <v>0</v>
@@ -16935,13 +16941,13 @@
         <v>68468</v>
       </c>
       <c r="G231" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H231" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H231" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="I231" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B231, A231)</f>
         <v>1</v>
       </c>
       <c r="J231" s="7">
@@ -16951,7 +16957,7 @@
         <v>10556</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M231" s="6">
         <v>45877</v>
@@ -16979,76 +16985,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A232" s="11">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="6">
         <v>45881</v>
       </c>
-      <c r="B232" s="11">
+      <c r="B232" s="6">
         <v>45880</v>
       </c>
-      <c r="C232" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D232" s="11" t="s">
+      <c r="C232" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E232" s="11" t="s">
+      <c r="E232" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F232" s="12">
+      <c r="F232" s="7">
         <v>68500</v>
       </c>
-      <c r="G232" s="12" t="s">
+      <c r="G232" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H232" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H232" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="I232" s="13">
-        <f t="shared" si="4"/>
+      <c r="I232" s="10">
+        <f>NETWORKDAYS(B232, A232)</f>
         <v>2</v>
       </c>
-      <c r="J232" s="12">
+      <c r="J232" s="7">
         <v>66660</v>
       </c>
-      <c r="K232" s="12">
+      <c r="K232" s="7">
         <v>160</v>
       </c>
-      <c r="L232" s="12" t="s">
+      <c r="L232" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M232" s="11">
+      <c r="M232" s="6">
         <v>45888</v>
       </c>
-      <c r="N232" s="14">
+      <c r="N232" s="8">
         <v>524.1</v>
       </c>
-      <c r="O232" s="12" t="s">
+      <c r="O232" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P232" s="12">
+      <c r="P232" s="7">
         <v>28</v>
       </c>
-      <c r="Q232" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R232" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
-      </c>
-      <c r="S232" s="14">
-        <v>0</v>
-      </c>
-      <c r="T232" s="14">
+      <c r="Q232" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R232" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S232" s="8">
+        <v>0</v>
+      </c>
+      <c r="T232" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
-        <v>45870</v>
+        <v>45884</v>
       </c>
       <c r="B233" s="11">
-        <v>45863</v>
+        <v>45884</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>7</v>
@@ -17060,45 +17066,45 @@
         <v>113</v>
       </c>
       <c r="F233" s="12">
-        <v>68482</v>
+        <v>68511</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="H233" s="12" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="I233" s="13">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f>NETWORKDAYS(B233, A233)</f>
+        <v>1</v>
       </c>
       <c r="J233" s="12">
-        <v>66522</v>
+        <v>66720</v>
       </c>
       <c r="K233" s="12">
-        <v>679</v>
+        <v>74</v>
       </c>
       <c r="L233" s="12" t="s">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="M233" s="11">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="N233" s="14">
-        <v>6048.2</v>
+        <v>299.72000000000003</v>
       </c>
       <c r="O233" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P233" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R233" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="S233" s="14">
         <v>0</v>
@@ -17108,194 +17114,194 @@
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A234" s="46">
+      <c r="A234" s="11">
+        <v>45849</v>
+      </c>
+      <c r="B234" s="11">
+        <v>45849</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G234" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H234" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I234" s="13">
+        <f>NETWORKDAYS(B234, A234)</f>
+        <v>1</v>
+      </c>
+      <c r="J234" s="12">
+        <v>66166</v>
+      </c>
+      <c r="K234" s="12">
+        <v>11782</v>
+      </c>
+      <c r="L234" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="M234" s="11">
+        <v>45891</v>
+      </c>
+      <c r="N234" s="14">
+        <v>2250</v>
+      </c>
+      <c r="O234" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P234" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q234" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R234" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>42</v>
+      </c>
+      <c r="S234" s="14">
+        <v>250</v>
+      </c>
+      <c r="T234" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="6">
         <v>45882</v>
       </c>
-      <c r="B234" s="46">
-        <v>45880</v>
-      </c>
-      <c r="C234" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="46" t="s">
+      <c r="B235" s="6">
+        <v>45882</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E234" s="46" t="s">
+      <c r="E235" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F234" s="47">
-        <v>68498</v>
-      </c>
-      <c r="G234" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="H234" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I234" s="48">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J234" s="47">
-        <v>66670</v>
-      </c>
-      <c r="K234" s="47">
-        <v>11796</v>
-      </c>
-      <c r="L234" s="47" t="s">
-        <v>409</v>
-      </c>
-      <c r="M234" s="46">
+      <c r="F235" s="7">
+        <v>68507</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I235" s="10">
+        <f>NETWORKDAYS(B235, A235)</f>
+        <v>1</v>
+      </c>
+      <c r="J235" s="7">
+        <v>66681</v>
+      </c>
+      <c r="K235" s="7">
+        <v>10627</v>
+      </c>
+      <c r="L235" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M235" s="6">
         <v>45890</v>
       </c>
-      <c r="N234" s="49">
-        <v>42.23</v>
-      </c>
-      <c r="O234" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="P234" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q234" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="R234" s="47">
+      <c r="N235" s="8">
+        <v>850</v>
+      </c>
+      <c r="O235" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P235" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q235" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R235" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>8</v>
       </c>
-      <c r="S234" s="49">
-        <v>0</v>
-      </c>
-      <c r="T234" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A235" s="11">
-        <v>45882</v>
-      </c>
-      <c r="B235" s="11">
-        <v>45882</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="11" t="s">
+      <c r="S235" s="8">
+        <v>0</v>
+      </c>
+      <c r="T235" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A236" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B236" s="11">
+        <v>45869</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F236" s="12">
+        <v>68491</v>
+      </c>
+      <c r="G236" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H236" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I236" s="13">
+        <f>NETWORKDAYS(B236, A236)</f>
+        <v>2</v>
+      </c>
+      <c r="J236" s="12">
+        <v>66521</v>
+      </c>
+      <c r="K236" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L236" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="M236" s="11">
+        <v>45891</v>
+      </c>
+      <c r="N236" s="14">
+        <v>3000</v>
+      </c>
+      <c r="O236" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P236" s="12">
         <v>15</v>
       </c>
-      <c r="E235" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F235" s="12">
-        <v>68507</v>
-      </c>
-      <c r="G235" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H235" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I235" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J235" s="12">
-        <v>66681</v>
-      </c>
-      <c r="K235" s="12">
-        <v>10627</v>
-      </c>
-      <c r="L235" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="M235" s="11">
-        <v>45890</v>
-      </c>
-      <c r="N235" s="14">
-        <v>850</v>
-      </c>
-      <c r="O235" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P235" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q235" s="12" t="s">
+      <c r="Q236" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R235" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
-      </c>
-      <c r="S235" s="14">
-        <v>0</v>
-      </c>
-      <c r="T235" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A236" s="41">
-        <v>45826</v>
-      </c>
-      <c r="B236" s="41">
-        <v>45826</v>
-      </c>
-      <c r="C236" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E236" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F236" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G236" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H236" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I236" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J236" s="42">
-        <v>66341</v>
-      </c>
-      <c r="K236" s="42">
-        <v>11758</v>
-      </c>
-      <c r="L236" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="M236" s="41">
-        <v>45891</v>
-      </c>
-      <c r="N236" s="43">
-        <v>924.61</v>
-      </c>
-      <c r="O236" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="P236" s="42">
-        <v>28</v>
-      </c>
-      <c r="Q236" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="R236" s="42">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
-      </c>
-      <c r="S236" s="43">
-        <v>0</v>
-      </c>
-      <c r="T236" s="43">
+      <c r="R236" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>21</v>
+      </c>
+      <c r="S236" s="14">
+        <v>50</v>
+      </c>
+      <c r="T236" s="14">
         <v>0</v>
       </c>
     </row>
@@ -17325,7 +17331,7 @@
         <v>34</v>
       </c>
       <c r="I237" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B237, A237)</f>
         <v>1</v>
       </c>
       <c r="J237" s="7">
@@ -17335,7 +17341,7 @@
         <v>11790</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M237" s="6">
         <v>45873</v>
@@ -17389,7 +17395,7 @@
         <v>130</v>
       </c>
       <c r="I238" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B238, A238)</f>
         <v>1</v>
       </c>
       <c r="J238" s="7">
@@ -17399,7 +17405,7 @@
         <v>2856</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M238" s="6">
         <v>45875</v>
@@ -17453,7 +17459,7 @@
         <v>130</v>
       </c>
       <c r="I239" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B239, A239)</f>
         <v>1</v>
       </c>
       <c r="J239" s="7">
@@ -17517,7 +17523,7 @@
         <v>130</v>
       </c>
       <c r="I240" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B240, A240)</f>
         <v>1</v>
       </c>
       <c r="J240" s="7">
@@ -17581,7 +17587,7 @@
         <v>32</v>
       </c>
       <c r="I241" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B241, A241)</f>
         <v>1</v>
       </c>
       <c r="J241" s="7">
@@ -17645,7 +17651,7 @@
         <v>126</v>
       </c>
       <c r="I242" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B242, A242)</f>
         <v>1</v>
       </c>
       <c r="J242" s="7">
@@ -17709,7 +17715,7 @@
         <v>138</v>
       </c>
       <c r="I243" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B243, A243)</f>
         <v>1</v>
       </c>
       <c r="J243" s="7">
@@ -17749,10 +17755,10 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
-        <v>45877</v>
+        <v>45870</v>
       </c>
       <c r="B244" s="11">
-        <v>45877</v>
+        <v>45867</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>7</v>
@@ -17764,45 +17770,45 @@
         <v>113</v>
       </c>
       <c r="F244" s="12">
-        <v>68458</v>
+        <v>68485</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="H244" s="12" t="s">
-        <v>98</v>
+        <v>371</v>
       </c>
       <c r="I244" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B244, A244)</f>
+        <v>4</v>
       </c>
       <c r="J244" s="12">
-        <v>66605</v>
+        <v>66526</v>
       </c>
       <c r="K244" s="12">
-        <v>561</v>
+        <v>3061</v>
       </c>
       <c r="L244" s="12" t="s">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="M244" s="11">
         <v>45891</v>
       </c>
       <c r="N244" s="14">
-        <v>758.53</v>
+        <v>1150</v>
       </c>
       <c r="O244" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P244" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R244" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="S244" s="14">
         <v>0</v>
@@ -17837,7 +17843,7 @@
         <v>32</v>
       </c>
       <c r="I245" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B245, A245)</f>
         <v>1</v>
       </c>
       <c r="J245" s="7">
@@ -17876,66 +17882,66 @@
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A246" s="11">
-        <v>45882</v>
-      </c>
-      <c r="B246" s="11">
-        <v>45881</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" s="11" t="s">
+      <c r="A246" s="41">
+        <v>45826</v>
+      </c>
+      <c r="B246" s="41">
+        <v>45826</v>
+      </c>
+      <c r="C246" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E246" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F246" s="12">
-        <v>68502</v>
-      </c>
-      <c r="G246" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="H246" s="12" t="s">
-        <v>91</v>
+      <c r="E246" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F246" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H246" s="42" t="s">
+        <v>126</v>
       </c>
       <c r="I246" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J246" s="12">
-        <v>66672</v>
-      </c>
-      <c r="K246" s="12">
-        <v>10594</v>
-      </c>
-      <c r="L246" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="M246" s="11">
+        <f>NETWORKDAYS(B246, A246)</f>
+        <v>1</v>
+      </c>
+      <c r="J246" s="42">
+        <v>66341</v>
+      </c>
+      <c r="K246" s="42">
+        <v>11758</v>
+      </c>
+      <c r="L246" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M246" s="41">
         <v>45891</v>
       </c>
-      <c r="N246" s="14">
-        <v>2446.5500000000002</v>
-      </c>
-      <c r="O246" s="12" t="s">
+      <c r="N246" s="43">
+        <v>924.61</v>
+      </c>
+      <c r="O246" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="P246" s="12">
+      <c r="P246" s="42">
         <v>28</v>
       </c>
-      <c r="Q246" s="12" t="s">
+      <c r="Q246" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R246" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>9</v>
-      </c>
-      <c r="S246" s="14">
-        <v>0</v>
-      </c>
-      <c r="T246" s="14">
+      <c r="R246" s="42">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>65</v>
+      </c>
+      <c r="S246" s="43">
+        <v>0</v>
+      </c>
+      <c r="T246" s="43">
         <v>0</v>
       </c>
     </row>
@@ -17965,7 +17971,7 @@
         <v>32</v>
       </c>
       <c r="I247" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B247, A247)</f>
         <v>1</v>
       </c>
       <c r="J247" s="7">
@@ -18029,7 +18035,7 @@
         <v>98</v>
       </c>
       <c r="I248" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B248, A248)</f>
         <v>1</v>
       </c>
       <c r="J248" s="7">
@@ -18093,7 +18099,7 @@
         <v>98</v>
       </c>
       <c r="I249" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B249, A249)</f>
         <v>1</v>
       </c>
       <c r="J249" s="7">
@@ -18133,47 +18139,47 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
-        <v>45882</v>
+        <v>45877</v>
       </c>
       <c r="B250" s="11">
-        <v>45881</v>
+        <v>45877</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E250" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F250" s="12">
-        <v>68502</v>
+        <v>68458</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="H250" s="12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I250" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B250, A250)</f>
+        <v>1</v>
       </c>
       <c r="J250" s="12">
-        <v>66675</v>
+        <v>66605</v>
       </c>
       <c r="K250" s="12">
-        <v>11783</v>
+        <v>561</v>
       </c>
       <c r="L250" s="12" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="M250" s="11">
         <v>45891</v>
       </c>
       <c r="N250" s="14">
-        <v>227.88</v>
+        <v>758.53</v>
       </c>
       <c r="O250" s="12" t="s">
         <v>122</v>
@@ -18186,7 +18192,7 @@
       </c>
       <c r="R250" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S250" s="14">
         <v>0</v>
@@ -18197,60 +18203,60 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B251" s="11">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F251" s="12">
-        <v>68504</v>
+        <v>68502</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I251" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B251, A251)</f>
         <v>2</v>
       </c>
       <c r="J251" s="12">
-        <v>66691</v>
+        <v>66675</v>
       </c>
       <c r="K251" s="12">
-        <v>3509</v>
+        <v>11783</v>
       </c>
       <c r="L251" s="12" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="M251" s="11">
         <v>45891</v>
       </c>
       <c r="N251" s="14">
-        <v>1920</v>
+        <v>227.88</v>
       </c>
       <c r="O251" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P251" s="12">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Q251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R251" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S251" s="14">
         <v>0</v>
@@ -18259,67 +18265,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A252" s="11">
-        <v>45883</v>
-      </c>
-      <c r="B252" s="11">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="6">
         <v>45882</v>
       </c>
-      <c r="C252" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D252" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F252" s="12">
-        <v>68506</v>
-      </c>
-      <c r="G252" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H252" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I252" s="13">
-        <f t="shared" si="4"/>
+      <c r="B252" s="6">
+        <v>45881</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F252" s="7">
+        <v>68502</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H252" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I252" s="10">
+        <f>NETWORKDAYS(B252, A252)</f>
         <v>2</v>
       </c>
-      <c r="J252" s="12">
-        <v>66692</v>
-      </c>
-      <c r="K252" s="12">
-        <v>3509</v>
-      </c>
-      <c r="L252" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="M252" s="11">
+      <c r="J252" s="7">
+        <v>66672</v>
+      </c>
+      <c r="K252" s="7">
+        <v>10594</v>
+      </c>
+      <c r="L252" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M252" s="6">
         <v>45891</v>
       </c>
-      <c r="N252" s="14">
-        <v>1920</v>
-      </c>
-      <c r="O252" s="12" t="s">
+      <c r="N252" s="8">
+        <v>2446.5500000000002</v>
+      </c>
+      <c r="O252" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P252" s="12">
-        <v>7</v>
-      </c>
-      <c r="Q252" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R252" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
-      </c>
-      <c r="S252" s="14">
-        <v>0</v>
-      </c>
-      <c r="T252" s="14">
+      <c r="P252" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q252" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R252" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>9</v>
+      </c>
+      <c r="S252" s="8">
+        <v>0</v>
+      </c>
+      <c r="T252" s="8">
         <v>0</v>
       </c>
     </row>
@@ -18349,7 +18355,7 @@
         <v>32</v>
       </c>
       <c r="I253" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B253, A253)</f>
         <v>1</v>
       </c>
       <c r="J253" s="7">
@@ -18413,7 +18419,7 @@
         <v>32</v>
       </c>
       <c r="I254" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B254, A254)</f>
         <v>1</v>
       </c>
       <c r="J254" s="7">
@@ -18456,7 +18462,7 @@
         <v>45883</v>
       </c>
       <c r="B255" s="11">
-        <v>45874</v>
+        <v>45880</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>7</v>
@@ -18468,38 +18474,38 @@
         <v>113</v>
       </c>
       <c r="F255" s="12">
-        <v>68495</v>
+        <v>68500</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="H255" s="12" t="s">
-        <v>126</v>
+        <v>371</v>
       </c>
       <c r="I255" s="13">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>NETWORKDAYS(B255, A255)</f>
+        <v>4</v>
       </c>
       <c r="J255" s="12">
-        <v>66694</v>
+        <v>66708</v>
       </c>
       <c r="K255" s="12">
-        <v>2289</v>
+        <v>4656</v>
       </c>
       <c r="L255" s="12" t="s">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="M255" s="11">
         <v>45891</v>
       </c>
       <c r="N255" s="14">
-        <v>682.1</v>
+        <v>2207.7399999999998</v>
       </c>
       <c r="O255" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P255" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q255" s="12" t="s">
         <v>24</v>
@@ -18515,204 +18521,204 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A256" s="11">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="6">
         <v>45883</v>
       </c>
-      <c r="B256" s="11">
-        <v>45880</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" s="11" t="s">
+      <c r="B256" s="6">
+        <v>45882</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F256" s="7">
+        <v>68504</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H256" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I256" s="10">
+        <f>NETWORKDAYS(B256, A256)</f>
+        <v>2</v>
+      </c>
+      <c r="J256" s="7">
+        <v>66691</v>
+      </c>
+      <c r="K256" s="7">
+        <v>3509</v>
+      </c>
+      <c r="L256" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M256" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N256" s="8">
+        <v>1920</v>
+      </c>
+      <c r="O256" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P256" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q256" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R256" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S256" s="8">
+        <v>0</v>
+      </c>
+      <c r="T256" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B257" s="6">
+        <v>45882</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F257" s="7">
+        <v>68506</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H257" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I257" s="10">
+        <f>NETWORKDAYS(B257, A257)</f>
+        <v>2</v>
+      </c>
+      <c r="J257" s="7">
+        <v>66692</v>
+      </c>
+      <c r="K257" s="7">
+        <v>3509</v>
+      </c>
+      <c r="L257" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M257" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N257" s="8">
+        <v>1920</v>
+      </c>
+      <c r="O257" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P257" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q257" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R257" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S257" s="8">
+        <v>0</v>
+      </c>
+      <c r="T257" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B258" s="6">
+        <v>45874</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E256" s="11" t="s">
+      <c r="E258" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F256" s="12">
-        <v>68500</v>
-      </c>
-      <c r="G256" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="H256" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="I256" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J256" s="12">
-        <v>66708</v>
-      </c>
-      <c r="K256" s="12">
-        <v>4656</v>
-      </c>
-      <c r="L256" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M256" s="11">
+      <c r="F258" s="7">
+        <v>68495</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I258" s="10">
+        <f>NETWORKDAYS(B258, A258)</f>
+        <v>8</v>
+      </c>
+      <c r="J258" s="7">
+        <v>66694</v>
+      </c>
+      <c r="K258" s="7">
+        <v>2289</v>
+      </c>
+      <c r="L258" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M258" s="6">
         <v>45891</v>
       </c>
-      <c r="N256" s="14">
-        <v>2207.7399999999998</v>
-      </c>
-      <c r="O256" s="12" t="s">
+      <c r="N258" s="8">
+        <v>682.1</v>
+      </c>
+      <c r="O258" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P256" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q256" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R256" s="12">
+      <c r="P258" s="7">
+        <v>21</v>
+      </c>
+      <c r="Q258" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R258" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>8</v>
       </c>
-      <c r="S256" s="14">
-        <v>0</v>
-      </c>
-      <c r="T256" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A257" s="11">
-        <v>45880</v>
-      </c>
-      <c r="B257" s="11">
-        <v>45868</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E257" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F257" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G257" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H257" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I257" s="13">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J257" s="12">
-        <v>66629</v>
-      </c>
-      <c r="K257" s="12">
-        <v>11121</v>
-      </c>
-      <c r="L257" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="M257" s="11">
-        <v>45894</v>
-      </c>
-      <c r="N257" s="14">
-        <v>1242.04</v>
-      </c>
-      <c r="O257" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P257" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q257" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R257" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S257" s="14">
-        <v>108</v>
-      </c>
-      <c r="T257" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A258" s="11">
-        <v>45882</v>
-      </c>
-      <c r="B258" s="11">
-        <v>45881</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D258" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E258" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F258" s="12">
-        <v>68503</v>
-      </c>
-      <c r="G258" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H258" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I258" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J258" s="12">
-        <v>66669</v>
-      </c>
-      <c r="K258" s="12">
-        <v>3509</v>
-      </c>
-      <c r="L258" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="M258" s="11">
-        <v>45894</v>
-      </c>
-      <c r="N258" s="14">
-        <v>1920</v>
-      </c>
-      <c r="O258" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P258" s="12">
-        <v>7</v>
-      </c>
-      <c r="Q258" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R258" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>12</v>
-      </c>
-      <c r="S258" s="14">
-        <v>0</v>
-      </c>
-      <c r="T258" s="14">
+      <c r="S258" s="8">
+        <v>0</v>
+      </c>
+      <c r="T258" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259" s="11">
-        <v>45881</v>
+        <v>45884</v>
       </c>
       <c r="B259" s="11">
-        <v>45881</v>
+        <v>45874</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>7</v>
@@ -18721,48 +18727,48 @@
         <v>15</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F259" s="12">
-        <v>68501</v>
-      </c>
-      <c r="G259" s="12">
-        <v>2289</v>
+        <v>68496</v>
+      </c>
+      <c r="G259" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="H259" s="12" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I259" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B259, A259)</f>
+        <v>9</v>
       </c>
       <c r="J259" s="12">
-        <v>66662</v>
+        <v>66714</v>
       </c>
       <c r="K259" s="12">
-        <v>3040</v>
+        <v>881</v>
       </c>
       <c r="L259" s="12" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="M259" s="11">
-        <v>45896</v>
+        <v>45891</v>
       </c>
       <c r="N259" s="14">
-        <v>1000</v>
+        <v>4736.25</v>
       </c>
       <c r="O259" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P259" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q259" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R259" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S259" s="14">
         <v>0</v>
@@ -18773,10 +18779,10 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260" s="11">
-        <v>45868</v>
+        <v>45881</v>
       </c>
       <c r="B260" s="11">
-        <v>45868</v>
+        <v>45881</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>7</v>
@@ -18787,188 +18793,188 @@
       <c r="E260" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F260" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G260" s="12" t="s">
-        <v>125</v>
+      <c r="F260" s="12">
+        <v>68501</v>
+      </c>
+      <c r="G260" s="12">
+        <v>2289</v>
       </c>
       <c r="H260" s="12" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I260" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B260, A260)</f>
         <v>1</v>
       </c>
       <c r="J260" s="12">
-        <v>66504</v>
+        <v>66662</v>
       </c>
       <c r="K260" s="12">
-        <v>3034</v>
+        <v>3040</v>
       </c>
       <c r="L260" s="12" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="M260" s="11">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="N260" s="14">
-        <v>2220</v>
+        <v>1000</v>
       </c>
       <c r="O260" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P260" s="12">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R260" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="S260" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T260" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A261" s="11">
-        <v>45869</v>
-      </c>
-      <c r="B261" s="11">
-        <v>45869</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D261" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E261" s="11" t="s">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="6">
+        <v>45880</v>
+      </c>
+      <c r="B261" s="6">
+        <v>45868</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H261" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I261" s="10">
+        <f>NETWORKDAYS(B261, A261)</f>
+        <v>9</v>
+      </c>
+      <c r="J261" s="7">
+        <v>66629</v>
+      </c>
+      <c r="K261" s="7">
+        <v>11121</v>
+      </c>
+      <c r="L261" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M261" s="6">
+        <v>45894</v>
+      </c>
+      <c r="N261" s="8">
+        <v>1242.04</v>
+      </c>
+      <c r="O261" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P261" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q261" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R261" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>14</v>
+      </c>
+      <c r="S261" s="8">
+        <v>108</v>
+      </c>
+      <c r="T261" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="6">
+        <v>45882</v>
+      </c>
+      <c r="B262" s="6">
+        <v>45881</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F261" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G261" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H261" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I261" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J261" s="12">
-        <v>66427</v>
-      </c>
-      <c r="K261" s="12">
-        <v>1277</v>
-      </c>
-      <c r="L261" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="M261" s="11">
-        <v>45897</v>
-      </c>
-      <c r="N261" s="14">
-        <v>2715.75</v>
-      </c>
-      <c r="O261" s="12" t="s">
+      <c r="F262" s="7">
+        <v>68503</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I262" s="10">
+        <f>NETWORKDAYS(B262, A262)</f>
+        <v>2</v>
+      </c>
+      <c r="J262" s="7">
+        <v>66669</v>
+      </c>
+      <c r="K262" s="7">
+        <v>3509</v>
+      </c>
+      <c r="L262" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M262" s="6">
+        <v>45894</v>
+      </c>
+      <c r="N262" s="8">
+        <v>1920</v>
+      </c>
+      <c r="O262" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P261" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q261" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R261" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
-      </c>
-      <c r="S261" s="14">
-        <v>950</v>
-      </c>
-      <c r="T261" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A262" s="11">
-        <v>45875</v>
-      </c>
-      <c r="B262" s="11">
-        <v>45873</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D262" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E262" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G262" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H262" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I262" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J262" s="12">
-        <v>66430</v>
-      </c>
-      <c r="K262" s="12">
-        <v>333</v>
-      </c>
-      <c r="L262" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="M262" s="11">
-        <v>45901</v>
-      </c>
-      <c r="N262" s="45">
-        <v>1483685.03</v>
-      </c>
-      <c r="O262" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="P262" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q262" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R262" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>26</v>
-      </c>
-      <c r="S262" s="14">
-        <v>0</v>
-      </c>
-      <c r="T262" s="14">
-        <v>59008.35</v>
+      <c r="P262" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q262" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R262" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>12</v>
+      </c>
+      <c r="S262" s="8">
+        <v>0</v>
+      </c>
+      <c r="T262" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263" s="11">
-        <v>45856</v>
+        <v>45868</v>
       </c>
       <c r="B263" s="11">
-        <v>45856</v>
+        <v>45868</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>7</v>
@@ -18979,8 +18985,8 @@
       <c r="E263" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F263" s="12">
-        <v>68466</v>
+      <c r="F263" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G263" s="12" t="s">
         <v>125</v>
@@ -18989,170 +18995,170 @@
         <v>126</v>
       </c>
       <c r="I263" s="13">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B263, A263)</f>
         <v>1</v>
       </c>
       <c r="J263" s="12">
-        <v>66337</v>
+        <v>66504</v>
       </c>
       <c r="K263" s="12">
-        <v>11736</v>
+        <v>3034</v>
       </c>
       <c r="L263" s="12" t="s">
-        <v>127</v>
+        <v>349</v>
       </c>
       <c r="M263" s="11">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="N263" s="14">
-        <v>16134.54</v>
+        <v>2220</v>
       </c>
       <c r="O263" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P263" s="12">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Q263" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R263" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="S263" s="14">
-        <v>25720</v>
+        <v>80</v>
       </c>
       <c r="T263" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A264" s="50">
-        <v>45840</v>
-      </c>
-      <c r="B264" s="50">
-        <v>45840</v>
-      </c>
-      <c r="C264" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E264" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F264" s="51">
-        <v>68452</v>
-      </c>
-      <c r="G264" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H264" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I264" s="52">
-        <f t="shared" si="4"/>
+      <c r="A264" s="11">
+        <v>45869</v>
+      </c>
+      <c r="B264" s="11">
+        <v>45869</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F264" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H264" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I264" s="13">
+        <f>NETWORKDAYS(B264, A264)</f>
         <v>1</v>
       </c>
-      <c r="J264" s="51">
-        <v>66037</v>
-      </c>
-      <c r="K264" s="51">
-        <v>11775</v>
-      </c>
-      <c r="L264" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="M264" s="50">
-        <v>45905</v>
-      </c>
-      <c r="N264" s="53">
-        <v>1750</v>
-      </c>
-      <c r="O264" s="51" t="s">
+      <c r="J264" s="12">
+        <v>66427</v>
+      </c>
+      <c r="K264" s="12">
+        <v>1277</v>
+      </c>
+      <c r="L264" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M264" s="11">
+        <v>45897</v>
+      </c>
+      <c r="N264" s="14">
+        <v>2715.75</v>
+      </c>
+      <c r="O264" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P264" s="51">
+      <c r="P264" s="12">
         <v>30</v>
       </c>
-      <c r="Q264" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="R264" s="51">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
-      </c>
-      <c r="S264" s="53">
-        <v>0</v>
-      </c>
-      <c r="T264" s="53">
+      <c r="Q264" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R264" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>28</v>
+      </c>
+      <c r="S264" s="14">
+        <v>950</v>
+      </c>
+      <c r="T264" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265" s="11">
-        <v>45848</v>
+        <v>45875</v>
       </c>
       <c r="B265" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F265" s="12">
-        <v>68457</v>
-      </c>
-      <c r="G265" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H265" s="12" t="s">
-        <v>34</v>
+        <v>124</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G265" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H265" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="I265" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B265, A265)</f>
+        <v>3</v>
       </c>
       <c r="J265" s="12">
-        <v>66126</v>
+        <v>66430</v>
       </c>
       <c r="K265" s="12">
-        <v>2931</v>
+        <v>333</v>
       </c>
       <c r="L265" s="12" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="M265" s="11">
-        <v>45905</v>
-      </c>
-      <c r="N265" s="14">
-        <v>3500</v>
-      </c>
-      <c r="O265" s="12" t="s">
+        <v>45901</v>
+      </c>
+      <c r="N265" s="45">
+        <v>1483685.03</v>
+      </c>
+      <c r="O265" s="11" t="s">
         <v>122</v>
       </c>
       <c r="P265" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q265" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R265" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="S265" s="14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T265" s="14">
-        <v>0</v>
+        <v>59008.35</v>
       </c>
     </row>
     <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -19181,7 +19187,7 @@
         <v>34</v>
       </c>
       <c r="I266" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B266, A266)</f>
         <v>1</v>
       </c>
       <c r="J266" s="7">
@@ -19221,10 +19227,10 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A267" s="11">
-        <v>45874</v>
+        <v>45856</v>
       </c>
       <c r="B267" s="11">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>7</v>
@@ -19236,7 +19242,7 @@
         <v>124</v>
       </c>
       <c r="F267" s="12">
-        <v>68465</v>
+        <v>68466</v>
       </c>
       <c r="G267" s="12" t="s">
         <v>125</v>
@@ -19245,39 +19251,39 @@
         <v>126</v>
       </c>
       <c r="I267" s="13">
-        <f t="shared" ref="I267:I273" si="5">NETWORKDAYS(B267, A267)</f>
-        <v>16</v>
+        <f>NETWORKDAYS(B267, A267)</f>
+        <v>1</v>
       </c>
       <c r="J267" s="12">
-        <v>66555</v>
+        <v>66337</v>
       </c>
       <c r="K267" s="12">
-        <v>11791</v>
+        <v>11736</v>
       </c>
       <c r="L267" s="12" t="s">
-        <v>402</v>
+        <v>127</v>
       </c>
       <c r="M267" s="11">
-        <v>45906</v>
+        <v>45902</v>
       </c>
       <c r="N267" s="14">
-        <v>1075.55</v>
+        <v>16134.54</v>
       </c>
       <c r="O267" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P267" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q267" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R267" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="S267" s="14">
-        <v>1215.25</v>
+        <v>25720</v>
       </c>
       <c r="T267" s="14">
         <v>0</v>
@@ -19285,10 +19291,10 @@
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A268" s="11">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B268" s="11">
-        <v>45873</v>
+        <v>45869</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>7</v>
@@ -19300,32 +19306,32 @@
         <v>113</v>
       </c>
       <c r="F268" s="12">
-        <v>68493</v>
+        <v>68490</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="H268" s="12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I268" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>NETWORKDAYS(B268, A268)</f>
+        <v>8</v>
       </c>
       <c r="J268" s="12">
-        <v>66607</v>
+        <v>66638</v>
       </c>
       <c r="K268" s="12">
-        <v>1586</v>
+        <v>8992</v>
       </c>
       <c r="L268" s="12" t="s">
-        <v>406</v>
+        <v>180</v>
       </c>
       <c r="M268" s="11">
-        <v>45907</v>
+        <v>45905</v>
       </c>
       <c r="N268" s="14">
-        <v>680</v>
+        <v>10750</v>
       </c>
       <c r="O268" s="12" t="s">
         <v>122</v>
@@ -19338,7 +19344,7 @@
       </c>
       <c r="R268" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S268" s="14">
         <v>0</v>
@@ -19349,63 +19355,63 @@
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269" s="11">
-        <v>45867</v>
+        <v>45840</v>
       </c>
       <c r="B269" s="11">
-        <v>45866</v>
+        <v>45840</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F269" s="12">
-        <v>68483</v>
+        <v>68452</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="H269" s="12" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I269" s="13">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B269, A269)</f>
+        <v>1</v>
       </c>
       <c r="J269" s="12">
-        <v>66467</v>
+        <v>66037</v>
       </c>
       <c r="K269" s="12">
-        <v>11164</v>
+        <v>11775</v>
       </c>
       <c r="L269" s="12" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="M269" s="11">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="N269" s="14">
-        <v>2623.03</v>
+        <v>1750</v>
       </c>
       <c r="O269" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P269" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q269" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R269" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="S269" s="14">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="T269" s="14">
         <v>0</v>
@@ -19437,7 +19443,7 @@
         <v>32</v>
       </c>
       <c r="I270" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B270, A270)</f>
         <v>1</v>
       </c>
       <c r="J270" s="7">
@@ -19477,138 +19483,138 @@
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271" s="11">
-        <v>45870</v>
+        <v>45848</v>
       </c>
       <c r="B271" s="11">
-        <v>45870</v>
+        <v>45848</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F271" s="12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F271" s="12">
+        <v>68457</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="H271" s="12" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I271" s="13">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B271, A271)</f>
         <v>1</v>
       </c>
       <c r="J271" s="12">
-        <v>66430</v>
+        <v>66126</v>
       </c>
       <c r="K271" s="12">
-        <v>333</v>
+        <v>2931</v>
       </c>
       <c r="L271" s="12" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="M271" s="11">
-        <v>46113</v>
+        <v>45905</v>
       </c>
       <c r="N271" s="14">
-        <v>281569.34000000003</v>
+        <v>3500</v>
       </c>
       <c r="O271" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P271" s="12">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Q271" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R271" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="S271" s="14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T271" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A272" s="11">
-        <v>45884</v>
-      </c>
-      <c r="B272" s="11">
-        <v>45883</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D272" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E272" s="11" t="s">
+      <c r="A272" s="51">
+        <v>45887</v>
+      </c>
+      <c r="B272" s="51">
+        <v>45887</v>
+      </c>
+      <c r="C272" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E272" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="F272" s="12">
-        <v>68509</v>
-      </c>
-      <c r="G272" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="H272" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I272" s="13">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J272" s="12">
-        <v>66713</v>
-      </c>
-      <c r="K272" s="12">
-        <v>3636</v>
-      </c>
-      <c r="L272" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M272" s="11">
-        <v>45890</v>
-      </c>
-      <c r="N272" s="14">
-        <v>425.09</v>
-      </c>
-      <c r="O272" s="12" t="s">
+      <c r="F272" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G272" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="H272" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="I272" s="54">
+        <f>NETWORKDAYS(B272, A272)</f>
+        <v>1</v>
+      </c>
+      <c r="J272" s="52">
+        <v>66740</v>
+      </c>
+      <c r="K272" s="56">
+        <v>11799</v>
+      </c>
+      <c r="L272" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M272" s="51">
+        <v>45905</v>
+      </c>
+      <c r="N272" s="53">
+        <v>7290</v>
+      </c>
+      <c r="O272" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="P272" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q272" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R272" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>6</v>
-      </c>
-      <c r="S272" s="14">
-        <v>0</v>
-      </c>
-      <c r="T272" s="14">
+      <c r="P272" s="52">
+        <v>10</v>
+      </c>
+      <c r="Q272" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="R272" s="56">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>18</v>
+      </c>
+      <c r="S272" s="53">
+        <v>0</v>
+      </c>
+      <c r="T272" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273" s="11">
-        <v>45884</v>
+        <v>45874</v>
       </c>
       <c r="B273" s="11">
-        <v>45874</v>
+        <v>45853</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>7</v>
@@ -19617,51 +19623,51 @@
         <v>15</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F273" s="12">
-        <v>68496</v>
+        <v>68465</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H273" s="12" t="s">
         <v>126</v>
       </c>
       <c r="I273" s="13">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>NETWORKDAYS(B273, A273)</f>
+        <v>16</v>
       </c>
       <c r="J273" s="12">
-        <v>66714</v>
+        <v>66555</v>
       </c>
       <c r="K273" s="12">
-        <v>881</v>
+        <v>11791</v>
       </c>
       <c r="L273" s="12" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="M273" s="11">
-        <v>45891</v>
+        <v>45906</v>
       </c>
       <c r="N273" s="14">
-        <v>4736.25</v>
+        <v>1075.55</v>
       </c>
       <c r="O273" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P273" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q273" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R273" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="S273" s="14">
-        <v>0</v>
+        <v>1215.25</v>
       </c>
       <c r="T273" s="14">
         <v>0</v>
@@ -19669,60 +19675,60 @@
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A274" s="11">
-        <v>45884</v>
+        <v>45877</v>
       </c>
       <c r="B274" s="11">
-        <v>45874</v>
+        <v>45873</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E274" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F274" s="12">
-        <v>68496</v>
+        <v>68493</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="H274" s="12" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I274" s="13">
         <f>NETWORKDAYS(B274, A274)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J274" s="12">
-        <v>66718</v>
+        <v>66607</v>
       </c>
       <c r="K274" s="12">
-        <v>3011</v>
+        <v>1586</v>
       </c>
       <c r="L274" s="12" t="s">
-        <v>89</v>
+        <v>405</v>
       </c>
       <c r="M274" s="11">
-        <v>45890</v>
+        <v>45907</v>
       </c>
       <c r="N274" s="14">
-        <v>223.6</v>
+        <v>680</v>
       </c>
       <c r="O274" s="12" t="s">
         <v>122</v>
       </c>
       <c r="P274" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q274" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R274" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S274" s="14">
         <v>0</v>
@@ -19732,72 +19738,328 @@
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A275" s="50">
+      <c r="A275" s="11">
+        <v>45867</v>
+      </c>
+      <c r="B275" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F275" s="12">
+        <v>68483</v>
+      </c>
+      <c r="G275" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H275" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I275" s="13">
+        <f>NETWORKDAYS(B275, A275)</f>
+        <v>2</v>
+      </c>
+      <c r="J275" s="12">
+        <v>66467</v>
+      </c>
+      <c r="K275" s="12">
+        <v>11164</v>
+      </c>
+      <c r="L275" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M275" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N275" s="14">
+        <v>2623.03</v>
+      </c>
+      <c r="O275" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P275" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q275" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R275" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S275" s="14">
+        <v>52</v>
+      </c>
+      <c r="T275" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="6">
         <v>45884</v>
       </c>
-      <c r="B275" s="50">
+      <c r="B276" s="6">
         <v>45884</v>
       </c>
-      <c r="C275" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D275" s="50" t="s">
+      <c r="C276" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G276" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H276" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I276" s="10">
+        <f>NETWORKDAYS(B276, A276)</f>
+        <v>1</v>
+      </c>
+      <c r="J276" s="7">
+        <v>66724</v>
+      </c>
+      <c r="K276" s="7">
+        <v>10990</v>
+      </c>
+      <c r="L276" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M276" s="6">
+        <v>45887</v>
+      </c>
+      <c r="N276" s="8">
+        <v>10968.26</v>
+      </c>
+      <c r="O276" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P276" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q276" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R276" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S276" s="8">
+        <v>0</v>
+      </c>
+      <c r="T276" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="6">
+        <v>45887</v>
+      </c>
+      <c r="B277" s="6">
+        <v>45887</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G277" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H277" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I277" s="10">
+        <f>NETWORKDAYS(B277, A277)</f>
+        <v>1</v>
+      </c>
+      <c r="J277" s="7">
+        <v>63750</v>
+      </c>
+      <c r="K277" s="7">
+        <v>11121</v>
+      </c>
+      <c r="L277" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M277" s="6">
+        <v>45887</v>
+      </c>
+      <c r="N277" s="8">
+        <v>21816.95</v>
+      </c>
+      <c r="O277" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P277" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q277" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R277" s="55">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S277" s="8">
+        <v>0</v>
+      </c>
+      <c r="T277" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A278" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B278" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D278" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E275" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F275" s="51">
-        <v>68511</v>
-      </c>
-      <c r="G275" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="H275" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="I275" s="52">
-        <f>NETWORKDAYS(B275, A275)</f>
+      <c r="E278" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G278" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H278" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I278" s="13">
+        <f>NETWORKDAYS(B278, A278)</f>
         <v>1</v>
       </c>
-      <c r="J275" s="51">
-        <v>66720</v>
-      </c>
-      <c r="K275" s="51">
-        <v>74</v>
-      </c>
-      <c r="L275" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="M275" s="50">
-        <v>45890</v>
-      </c>
-      <c r="N275" s="53">
-        <v>299.72000000000003</v>
-      </c>
-      <c r="O275" s="51" t="s">
+      <c r="J278" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K278" s="12">
+        <v>333</v>
+      </c>
+      <c r="L278" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="M278" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N278" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O278" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P275" s="51">
-        <v>28</v>
-      </c>
-      <c r="Q275" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="R275" s="51">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>6</v>
-      </c>
-      <c r="S275" s="53">
-        <v>0</v>
-      </c>
-      <c r="T275" s="53">
+      <c r="P278" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q278" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R278" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>243</v>
+      </c>
+      <c r="S278" s="14">
+        <v>0</v>
+      </c>
+      <c r="T278" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A279" s="51">
+        <v>45887</v>
+      </c>
+      <c r="B279" s="51">
+        <v>45887</v>
+      </c>
+      <c r="C279" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E279" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F279" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G279" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="H279" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I279" s="54">
+        <f>NETWORKDAYS(B279, A279)</f>
+        <v>1</v>
+      </c>
+      <c r="J279" s="52">
+        <v>66745</v>
+      </c>
+      <c r="K279" s="52">
+        <v>11473</v>
+      </c>
+      <c r="L279" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="M279" s="51">
+        <v>45887</v>
+      </c>
+      <c r="N279" s="53">
+        <v>527.02</v>
+      </c>
+      <c r="O279" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="P279" s="52">
+        <v>14</v>
+      </c>
+      <c r="Q279" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="R279" s="56">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S279" s="53">
+        <v>0</v>
+      </c>
+      <c r="T279" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="J281" s="54" t="s">
-        <v>415</v>
+      <c r="J281" s="50" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -19815,7 +20077,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19968,13 +20230,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>12</v>
@@ -20073,7 +20335,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20081,7 +20343,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 582 dias para vencer</v>
+        <v>Faltam 579 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -20099,7 +20361,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20107,7 +20369,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 318 dias</v>
+        <v>Venceu há 321 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -20125,7 +20387,7 @@
       </c>
       <c r="E4" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F4" s="33" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20133,7 +20395,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 26 dias</v>
+        <v>Venceu há 29 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -20151,7 +20413,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20177,7 +20439,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20203,7 +20465,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20211,7 +20473,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 150 dias</v>
+        <v>Venceu há 153 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -20229,7 +20491,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20237,7 +20499,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 893 dias</v>
+        <v>Venceu há 896 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -20255,7 +20517,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20263,7 +20525,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 398 dias para vencer</v>
+        <v>Faltam 395 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -20281,7 +20543,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20289,7 +20551,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 319 dias para vencer</v>
+        <v>Faltam 316 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -20307,7 +20569,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20315,7 +20577,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 108 dias para vencer</v>
+        <v>Faltam 105 dias para vencer</v>
       </c>
     </row>
   </sheetData>
@@ -21055,7 +21317,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6577E-1BBE-47C5-96B8-0E0691F59A60}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
@@ -21458,7 +21720,7 @@
         <v>11773</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -21475,7 +21737,7 @@
         <v>11775</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -21492,7 +21754,7 @@
         <v>11777</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -21509,7 +21771,7 @@
         <v>11778</v>
       </c>
       <c r="E26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -21526,7 +21788,7 @@
         <v>11779</v>
       </c>
       <c r="E27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -21560,7 +21822,7 @@
         <v>11781</v>
       </c>
       <c r="E29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -21577,7 +21839,7 @@
         <v>11782</v>
       </c>
       <c r="E30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -21594,7 +21856,7 @@
         <v>11783</v>
       </c>
       <c r="E31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -21611,7 +21873,7 @@
         <v>11784</v>
       </c>
       <c r="E32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -21628,7 +21890,7 @@
         <v>11785</v>
       </c>
       <c r="E33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -21645,7 +21907,7 @@
         <v>11786</v>
       </c>
       <c r="E34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -21662,7 +21924,7 @@
         <v>11787</v>
       </c>
       <c r="E35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -21679,7 +21941,7 @@
         <v>11788</v>
       </c>
       <c r="E36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -21696,7 +21958,7 @@
         <v>11790</v>
       </c>
       <c r="E37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -21713,7 +21975,7 @@
         <v>11791</v>
       </c>
       <c r="E38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -21721,7 +21983,7 @@
         <v>45875</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C39" t="s">
         <v>185</v>
@@ -21730,7 +21992,7 @@
         <v>11792</v>
       </c>
       <c r="E39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -21747,7 +22009,7 @@
         <v>11793</v>
       </c>
       <c r="E40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -21755,7 +22017,7 @@
         <v>45880</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" t="s">
         <v>287</v>
@@ -21764,7 +22026,7 @@
         <v>11795</v>
       </c>
       <c r="E41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -21781,7 +22043,7 @@
         <v>11796</v>
       </c>
       <c r="E42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -21789,7 +22051,7 @@
         <v>45883</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C43" t="s">
         <v>96</v>
@@ -21798,7 +22060,7 @@
         <v>11797</v>
       </c>
       <c r="E43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -21806,16 +22068,33 @@
         <v>45883</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D44">
         <v>11798</v>
       </c>
       <c r="E44" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="17">
+        <v>45887</v>
+      </c>
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45">
+        <v>11799</v>
+      </c>
+      <c r="E45" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -21842,7 +22121,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" s="38">
         <v>0.7</v>
@@ -21857,7 +22136,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" s="36">
         <v>0.5</v>
@@ -21876,15 +22155,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068C9492B0923CC418696A025D9B79530" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12b5152450087b045156d8e5bdb7ac17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7545978-8353-4157-ab02-92f5c69a97d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74a8823586b7fc5940aaf3e9d5b706e7" ns3:_="">
     <xsd:import namespace="b7545978-8353-4157-ab02-92f5c69a97d9"/>
@@ -22010,21 +22280,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED76536-08DB-4BCA-BAA6-597FC860B20C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22042,7 +22313,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -22056,4 +22327,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\splfps01\data$\GROUP\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409ACDBE-A996-440E-BEBF-8BDAA5A28A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB2390-857D-4522-80C3-15AA4080A6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="log_sup" sheetId="3" r:id="rId4"/>
     <sheet name="base_consumo" sheetId="4" r:id="rId5"/>
     <sheet name="log_cadastro_fornecedores" sheetId="10" r:id="rId6"/>
-    <sheet name="Planilha1" sheetId="11" r:id="rId7"/>
+    <sheet name="Resumos" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="464">
   <si>
     <t>SC</t>
   </si>
@@ -1354,6 +1354,120 @@
   </si>
   <si>
     <t>KRATOS EQUIPAMENTOS INDUSTRIAIS LTDA</t>
+  </si>
+  <si>
+    <t>EN24CORPO</t>
+  </si>
+  <si>
+    <t>EN24TP-RES</t>
+  </si>
+  <si>
+    <t>EN24TP-SUP</t>
+  </si>
+  <si>
+    <t>Ultima Compra</t>
+  </si>
+  <si>
+    <t>Preço Fechado</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Primeira Proposta</t>
+  </si>
+  <si>
+    <t>Dif %</t>
+  </si>
+  <si>
+    <t>Eduardo Nottolini</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO DO GRUPO DE ELETRONICA DE POTENCIA E CONTROLE</t>
+  </si>
+  <si>
+    <t>ZILOTRONICA TECNOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>MENDONCA PRODUTOS ELETRONICOS LTDA</t>
+  </si>
+  <si>
+    <t>IDEAL SAFE COMERCIO DE EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>JOAO LUCA BURTSCHENKO</t>
+  </si>
+  <si>
+    <t>PRO SAUDE SHOP LTDA</t>
+  </si>
+  <si>
+    <t>54.699.791 MARILDA NEMEZIO DA SILVA</t>
+  </si>
+  <si>
+    <t>VITORIA A. C. ROCHA COMERCIO</t>
+  </si>
+  <si>
+    <t>CASA MEDICA ESPERANCA PRODUTOS MEDICOS LTDA</t>
+  </si>
+  <si>
+    <t>ROMA WEB SALES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMA WEB SALES LTDA </t>
+  </si>
+  <si>
+    <t>CONECTA TREINE LTDA</t>
+  </si>
+  <si>
+    <t>AGUARDANDO PAGAMENTO</t>
+  </si>
+  <si>
+    <t>D. S. SCHIAVETTO E CIA LTDA</t>
+  </si>
+  <si>
+    <t>eir</t>
+  </si>
+  <si>
+    <t>SKA AUTOMACAO DE ENGENHARIAS LTDA</t>
+  </si>
+  <si>
+    <t>LOJA ELECTROLUX COMERCIO VIRTUAL DE ELETRODOMESTICOS LTDA</t>
+  </si>
+  <si>
+    <t>52.412.421 EVELIN DE JESUS SALLES</t>
+  </si>
+  <si>
+    <t>Quickly Travel</t>
+  </si>
+  <si>
+    <t>glaudoberto.filho</t>
+  </si>
+  <si>
+    <t>@Comprassptech1</t>
+  </si>
+  <si>
+    <t>https://www.argoit.com.br/quicklytravel/nx/login.aspx?cliente=sptech#!/autenticacao/login</t>
+  </si>
+  <si>
+    <t>AJUSTAR</t>
+  </si>
+  <si>
+    <t>REAL DESENTUPIDORA LTDA</t>
+  </si>
+  <si>
+    <t>A C DA SILVA COMERCIO DE SUPORTES</t>
+  </si>
+  <si>
+    <t>INDIKA PRODUCOES SERIGRAFICAS INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>A G DE OLIVEIRA EQUIPAMENTOS DE SEGURANCA LTDA</t>
+  </si>
+  <si>
+    <t>ETIG MULTIFUNCIONAL LTDA</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1534,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1454,6 +1568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC6C6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,7 +1617,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1591,15 +1711,6 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1618,6 +1729,64 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1625,13 +1794,138 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC1B3"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1799,56 +2093,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T285" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:T285" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T335" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:T335" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
         <filter val="AGUARDANDO ENTREGA"/>
+        <filter val="AGUARDANDO PAGAMENTO"/>
+        <filter val="AJUSTAR"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T285">
-    <sortCondition ref="M1:M285"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A226:T319">
+    <sortCondition ref="M1:M319"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{90533836-8E21-43D7-BDD8-371E534225A1}" name="Inclusão" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{A2843543-7BB5-478B-98A8-F39ABE24C0BF}" name="Comprador" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{F96820D0-5CCA-48B2-ABB6-86DAC15B93D8}" name="Tipo" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{9BB7D0DF-F533-472F-8DBA-EDE24AEBA2AD}" name="Classe" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{418BAC5A-0224-4ADC-9584-000CEC133677}" name="SC" dataDxfId="29"/>
-    <tableColumn id="16387" xr3:uid="{548D4F13-D7B5-49C2-9319-BB68076AD4A4}" name="Requisitante" dataDxfId="28"/>
-    <tableColumn id="16388" xr3:uid="{BC82948B-97DA-4CAB-B464-D766A39BE955}" name="Setor" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{FA311683-649A-417B-8E3D-86AF7A67B501}" name="Lead-Time (Atendimento)" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="43"/>
+    <tableColumn id="16" xr3:uid="{90533836-8E21-43D7-BDD8-371E534225A1}" name="Inclusão" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{A2843543-7BB5-478B-98A8-F39ABE24C0BF}" name="Comprador" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{F96820D0-5CCA-48B2-ABB6-86DAC15B93D8}" name="Tipo" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{9BB7D0DF-F533-472F-8DBA-EDE24AEBA2AD}" name="Classe" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{418BAC5A-0224-4ADC-9584-000CEC133677}" name="SC" dataDxfId="38"/>
+    <tableColumn id="16387" xr3:uid="{548D4F13-D7B5-49C2-9319-BB68076AD4A4}" name="Requisitante" dataDxfId="37"/>
+    <tableColumn id="16388" xr3:uid="{BC82948B-97DA-4CAB-B464-D766A39BE955}" name="Setor" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{FA311683-649A-417B-8E3D-86AF7A67B501}" name="Lead-Time (Atendimento)" dataDxfId="35">
       <calculatedColumnFormula>NETWORKDAYS(B2, A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{81C44B0D-A0B7-4F4C-8424-331171E8D7E3}" name="PC" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{B60A7FCB-15E8-4D26-B7D4-6B9F86777A31}" name="Cód.Fornecedor" dataDxfId="24"/>
-    <tableColumn id="16385" xr3:uid="{AE2A9E6F-190B-401D-B9F6-220DA57C5307}" name="Razao Social" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{54EBBA21-57F9-454C-B0A8-87487C142038}" name="Previsao de Entrega" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{6DAB93EC-62B7-4C66-B061-0755851DD270}" name="Spend" dataDxfId="21" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{7F8CD74C-A817-491A-B14F-1EC515438D4F}" name="Condição" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{DDF55835-ADD0-4C2C-A984-3ECFBBE18396}" name="Condição de Pagamento" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{8BAFDE04-B2A0-4EA1-9C4C-1C93F1611DE4}" name="Status" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{32AD281D-AC61-4EAC-B6CB-87DCAB2B5F69}" name="Lead-Time (Fornecedor)" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{81C44B0D-A0B7-4F4C-8424-331171E8D7E3}" name="PC" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{B60A7FCB-15E8-4D26-B7D4-6B9F86777A31}" name="Cód.Fornecedor" dataDxfId="33"/>
+    <tableColumn id="16385" xr3:uid="{AE2A9E6F-190B-401D-B9F6-220DA57C5307}" name="Razao Social" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{54EBBA21-57F9-454C-B0A8-87487C142038}" name="Previsao de Entrega" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{6DAB93EC-62B7-4C66-B061-0755851DD270}" name="Spend" dataDxfId="30" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{7F8CD74C-A817-491A-B14F-1EC515438D4F}" name="Condição" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{DDF55835-ADD0-4C2C-A984-3ECFBBE18396}" name="Condição de Pagamento" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{8BAFDE04-B2A0-4EA1-9C4C-1C93F1611DE4}" name="Status" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{32AD281D-AC61-4EAC-B6CB-87DCAB2B5F69}" name="Lead-Time (Fornecedor)" dataDxfId="26">
       <calculatedColumnFormula>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3F87E5B0-A802-4BAD-905E-99DB3C957566}" name="Saving" dataDxfId="16" dataCellStyle="Moeda"/>
-    <tableColumn id="10" xr3:uid="{FA0346D4-664F-496B-957A-F821E2AC90D7}" name="Coast Avoidance" dataDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{3F87E5B0-A802-4BAD-905E-99DB3C957566}" name="Saving" dataDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="10" xr3:uid="{FA0346D4-664F-496B-957A-F821E2AC90D7}" name="Coast Avoidance" dataDxfId="24" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{380A73FC-B6AA-4AA8-939F-05F0D9766DCE}" name="Tabela2" displayName="Tabela2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:D11" xr:uid="{380A73FC-B6AA-4AA8-939F-05F0D9766DCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{380A73FC-B6AA-4AA8-939F-05F0D9766DCE}" name="Tabela2" displayName="Tabela2" ref="A1:D12" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:D12" xr:uid="{380A73FC-B6AA-4AA8-939F-05F0D9766DCE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{680691B2-150B-4C41-9CDE-8A7F73114142}" name="FORNECEDOR" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{896CA4BD-2EE0-4C22-968D-6E20E5E451A0}" name="SITE" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{16E705D5-80B5-408E-8B4C-3C59509B86DC}" name="LOGIN" dataDxfId="11" dataCellStyle="Hiperlink"/>
-    <tableColumn id="3" xr3:uid="{2C5B1339-42AB-4EF3-8544-BA012F24C5BD}" name="SENHA" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{680691B2-150B-4C41-9CDE-8A7F73114142}" name="FORNECEDOR" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{896CA4BD-2EE0-4C22-968D-6E20E5E451A0}" name="SITE" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{16E705D5-80B5-408E-8B4C-3C59509B86DC}" name="LOGIN" dataDxfId="20" dataCellStyle="Hiperlink"/>
+    <tableColumn id="3" xr3:uid="{2C5B1339-42AB-4EF3-8544-BA012F24C5BD}" name="SENHA" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1862,10 +2158,10 @@
     <tableColumn id="2" xr3:uid="{8C460BAC-83FD-4964-A600-9D64C22B5E6A}" name="Fornecedor"/>
     <tableColumn id="3" xr3:uid="{48852BBB-C8F5-48B8-85E8-3542A6ACCC9C}" name="Contratação"/>
     <tableColumn id="4" xr3:uid="{6D5185B4-FC47-4B90-8904-FDA33B190E39}" name="Validade"/>
-    <tableColumn id="6" xr3:uid="{476428EF-4E64-4661-AFD1-5E9F65FA757B}" name="Hoje" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{476428EF-4E64-4661-AFD1-5E9F65FA757B}" name="Hoje" dataDxfId="18">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{169D95EF-FFB5-4EC5-A60C-81272A42D33C}" name="Dias" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{169D95EF-FFB5-4EC5-A60C-81272A42D33C}" name="Dias" dataDxfId="17">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
    IF(DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &lt;= 90,
       "Negociar",
@@ -1878,28 +2174,48 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}" name="Tabela3" displayName="Tabela3" ref="A1:E24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}" name="Tabela3" displayName="Tabela3" ref="A1:E24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:E24" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{D8511443-CF4D-4DC9-8296-BF1A944D3CAC}" name="Fornecedor" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D2B0299B-E81C-4AF4-BF9F-2F26C1F2794A}" name="Segmento" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{582CBCD0-31E7-44DD-8F12-A70BB18121C1}" name="Vendedor" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{512B0ADB-4619-4B1F-923A-1CFD5BF403F2}" name="e-mail" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{15128DC1-115F-4F44-9C6D-530065665CF0}" name="Contato" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D8511443-CF4D-4DC9-8296-BF1A944D3CAC}" name="Fornecedor" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{D2B0299B-E81C-4AF4-BF9F-2F26C1F2794A}" name="Segmento" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{582CBCD0-31E7-44DD-8F12-A70BB18121C1}" name="Vendedor" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{512B0ADB-4619-4B1F-923A-1CFD5BF403F2}" name="e-mail" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{15128DC1-115F-4F44-9C6D-530065665CF0}" name="Contato" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E48" totalsRowShown="0">
-  <autoFilter ref="A1:E48" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E60" totalsRowShown="0">
+  <autoFilter ref="A1:E60" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
     <tableColumn id="3" xr3:uid="{8D90E12A-5260-43E8-85CB-ED7D43E4C653}" name="setor"/>
     <tableColumn id="4" xr3:uid="{7C773510-64C2-4F47-847F-46F1EA901D4B}" name="cod"/>
     <tableColumn id="5" xr3:uid="{72DFD44D-CDE9-4C56-983D-0799F00B11C0}" name="razao social"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{832D0BAD-4975-4EBA-9F49-A2BF228D313B}" name="Tabela5" displayName="Tabela5" ref="A5:G8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A5:G8" xr:uid="{832D0BAD-4975-4EBA-9F49-A2BF228D313B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A7B26440-5C0A-44AA-851C-217243E26553}" name="Produto" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{080C8E46-AE45-4C5B-A911-19E6FC39D431}" name="Ultima Compra" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{52FB93CA-9FE6-45AB-9158-D47B02335CFD}" name="Primeira Proposta" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{A8DFBE92-DA8B-483B-B76D-3CF147232E35}" name="Preço Fechado" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{4A5106DE-DEF9-4D55-BF68-683D2D9152B2}" name="Coluna1" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{F48E3952-E3F2-4B14-94CD-6DB42AFDEE9E}" name="Dif %" dataDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela5[[#This Row],[Primeira Proposta]]-Tabela5[[#This Row],[Preço Fechado]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D824E88C-08D6-45AE-9660-5D535899B438}" name="%" dataDxfId="1" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>D6/C6-1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2168,18 +2484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T285"/>
+  <dimension ref="A1:T335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I246" sqref="I246"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L307" sqref="L307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
@@ -2837,67 +3153,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>45848</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="6">
         <v>45848</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="7">
         <v>68459</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="I11" s="13">
-        <f>NETWORKDAYS(B11, A11)</f>
+      <c r="I11" s="10">
+        <f t="shared" ref="I11:I74" si="1">NETWORKDAYS(B11, A11)</f>
         <v>1</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>66162</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="7">
         <v>11781</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="6">
         <v>45855</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="8">
         <v>5396.77</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="7">
         <v>15</v>
       </c>
-      <c r="Q11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
-      </c>
-      <c r="S11" s="14">
+      <c r="Q11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S11" s="8">
         <v>284.04000000000002</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +3243,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="10">
-        <f>NETWORKDAYS(B12, A12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="7">
@@ -2991,7 +3307,7 @@
         <v>137</v>
       </c>
       <c r="I13" s="10">
-        <f>NETWORKDAYS(B13, A13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="7">
@@ -3055,7 +3371,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f>NETWORKDAYS(B14, A14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="7">
@@ -3119,7 +3435,7 @@
         <v>90</v>
       </c>
       <c r="I15" s="10">
-        <f>NETWORKDAYS(B15, A15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J15" s="7">
@@ -3183,7 +3499,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="10">
-        <f>NETWORKDAYS(B16, A16)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J16" s="7">
@@ -3247,7 +3563,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="10">
-        <f>NETWORKDAYS(B17, A17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J17" s="7">
@@ -3311,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="10">
-        <f>NETWORKDAYS(B18, A18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J18" s="7">
@@ -3375,7 +3691,7 @@
         <v>90</v>
       </c>
       <c r="I19" s="10">
-        <f>NETWORKDAYS(B19, A19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="7">
@@ -3439,7 +3755,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10">
-        <f>NETWORKDAYS(B20, A20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="7">
@@ -3503,7 +3819,7 @@
         <v>97</v>
       </c>
       <c r="I21" s="10">
-        <f>NETWORKDAYS(B21, A21)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J21" s="7">
@@ -3567,7 +3883,7 @@
         <v>97</v>
       </c>
       <c r="I22" s="10">
-        <f>NETWORKDAYS(B22, A22)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J22" s="7">
@@ -3631,7 +3947,7 @@
         <v>95</v>
       </c>
       <c r="I23" s="30">
-        <f>NETWORKDAYS(B23, A23)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J23" s="28">
@@ -3695,7 +4011,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="10">
-        <f>NETWORKDAYS(B24, A24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J24" s="7">
@@ -3759,7 +4075,7 @@
         <v>125</v>
       </c>
       <c r="I25" s="10">
-        <f>NETWORKDAYS(B25, A25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J25" s="7">
@@ -3823,7 +4139,7 @@
         <v>129</v>
       </c>
       <c r="I26" s="10">
-        <f>NETWORKDAYS(B26, A26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="7">
@@ -3887,7 +4203,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="10">
-        <f>NETWORKDAYS(B27, A27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="7">
@@ -3951,7 +4267,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="10">
-        <f>NETWORKDAYS(B28, A28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="7">
@@ -4009,13 +4325,13 @@
         <v>3</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="10">
-        <f>NETWORKDAYS(B29, A29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="7">
@@ -4079,7 +4395,7 @@
         <v>137</v>
       </c>
       <c r="I30" s="10">
-        <f>NETWORKDAYS(B30, A30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" s="7">
@@ -4143,7 +4459,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10">
-        <f>NETWORKDAYS(B31, A31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="7">
@@ -4207,7 +4523,7 @@
         <v>129</v>
       </c>
       <c r="I32" s="10">
-        <f>NETWORKDAYS(B32, A32)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J32" s="7">
@@ -4271,7 +4587,7 @@
         <v>129</v>
       </c>
       <c r="I33" s="10">
-        <f>NETWORKDAYS(B33, A33)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J33" s="7">
@@ -4335,7 +4651,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="10">
-        <f>NETWORKDAYS(B34, A34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J34" s="7">
@@ -4399,7 +4715,7 @@
         <v>129</v>
       </c>
       <c r="I35" s="10">
-        <f>NETWORKDAYS(B35, A35)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="J35" s="7">
@@ -4463,7 +4779,7 @@
         <v>97</v>
       </c>
       <c r="I36" s="10">
-        <f>NETWORKDAYS(B36, A36)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J36" s="7">
@@ -4527,7 +4843,7 @@
         <v>90</v>
       </c>
       <c r="I37" s="10">
-        <f>NETWORKDAYS(B37, A37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J37" s="7">
@@ -4591,7 +4907,7 @@
         <v>90</v>
       </c>
       <c r="I38" s="10">
-        <f>NETWORKDAYS(B38, A38)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J38" s="7">
@@ -4655,7 +4971,7 @@
         <v>129</v>
       </c>
       <c r="I39" s="10">
-        <f>NETWORKDAYS(B39, A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J39" s="7">
@@ -4719,7 +5035,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="10">
-        <f>NETWORKDAYS(B40, A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J40" s="7">
@@ -4783,7 +5099,7 @@
         <v>97</v>
       </c>
       <c r="I41" s="10">
-        <f>NETWORKDAYS(B41, A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J41" s="7">
@@ -4847,7 +5163,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="10">
-        <f>NETWORKDAYS(B42, A42)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J42" s="7">
@@ -4911,7 +5227,7 @@
         <v>129</v>
       </c>
       <c r="I43" s="10">
-        <f>NETWORKDAYS(B43, A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J43" s="7">
@@ -4975,7 +5291,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="10">
-        <f>NETWORKDAYS(B44, A44)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J44" s="7">
@@ -5039,7 +5355,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="10">
-        <f>NETWORKDAYS(B45, A45)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J45" s="7">
@@ -5100,10 +5416,10 @@
         <v>3</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="I46" s="10">
-        <f>NETWORKDAYS(B46, A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J46" s="7">
@@ -5167,7 +5483,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="10">
-        <f>NETWORKDAYS(B47, A47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J47" s="7">
@@ -5231,7 +5547,7 @@
         <v>129</v>
       </c>
       <c r="I48" s="10">
-        <f>NETWORKDAYS(B48, A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J48" s="7">
@@ -5289,13 +5605,13 @@
         <v>3</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>129</v>
       </c>
       <c r="I49" s="10">
-        <f>NETWORKDAYS(B49, A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J49" s="7">
@@ -5353,13 +5669,13 @@
         <v>3</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>129</v>
       </c>
       <c r="I50" s="10">
-        <f>NETWORKDAYS(B50, A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J50" s="7">
@@ -5423,7 +5739,7 @@
         <v>129</v>
       </c>
       <c r="I51" s="10">
-        <f>NETWORKDAYS(B51, A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J51" s="7">
@@ -5487,7 +5803,7 @@
         <v>97</v>
       </c>
       <c r="I52" s="10">
-        <f>NETWORKDAYS(B52, A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J52" s="7">
@@ -5551,7 +5867,7 @@
         <v>97</v>
       </c>
       <c r="I53" s="10">
-        <f>NETWORKDAYS(B53, A53)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J53" s="7">
@@ -5615,7 +5931,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="10">
-        <f>NETWORKDAYS(B54, A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J54" s="7">
@@ -5679,7 +5995,7 @@
         <v>125</v>
       </c>
       <c r="I55" s="10">
-        <f>NETWORKDAYS(B55, A55)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J55" s="7">
@@ -5743,7 +6059,7 @@
         <v>129</v>
       </c>
       <c r="I56" s="10">
-        <f>NETWORKDAYS(B56, A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J56" s="7">
@@ -5807,7 +6123,7 @@
         <v>95</v>
       </c>
       <c r="I57" s="10">
-        <f>NETWORKDAYS(B57, A57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J57" s="7">
@@ -5871,7 +6187,7 @@
         <v>32</v>
       </c>
       <c r="I58" s="10">
-        <f>NETWORKDAYS(B58, A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J58" s="7">
@@ -5935,7 +6251,7 @@
         <v>32</v>
       </c>
       <c r="I59" s="10">
-        <f>NETWORKDAYS(B59, A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J59" s="7">
@@ -5999,7 +6315,7 @@
         <v>32</v>
       </c>
       <c r="I60" s="10">
-        <f>NETWORKDAYS(B60, A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J60" s="7">
@@ -6063,7 +6379,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="10">
-        <f>NETWORKDAYS(B61, A61)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J61" s="7">
@@ -6127,7 +6443,7 @@
         <v>129</v>
       </c>
       <c r="I62" s="10">
-        <f>NETWORKDAYS(B62, A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J62" s="7">
@@ -6191,7 +6507,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="10">
-        <f>NETWORKDAYS(B63, A63)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J63" s="7">
@@ -6255,7 +6571,7 @@
         <v>90</v>
       </c>
       <c r="I64" s="10">
-        <f>NETWORKDAYS(B64, A64)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J64" s="7">
@@ -6319,7 +6635,7 @@
         <v>97</v>
       </c>
       <c r="I65" s="10">
-        <f>NETWORKDAYS(B65, A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J65" s="7">
@@ -6383,7 +6699,7 @@
         <v>97</v>
       </c>
       <c r="I66" s="10">
-        <f>NETWORKDAYS(B66, A66)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J66" s="7">
@@ -6447,7 +6763,7 @@
         <v>90</v>
       </c>
       <c r="I67" s="10">
-        <f>NETWORKDAYS(B67, A67)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J67" s="7">
@@ -6511,7 +6827,7 @@
         <v>32</v>
       </c>
       <c r="I68" s="10">
-        <f>NETWORKDAYS(B68, A68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J68" s="7">
@@ -6575,7 +6891,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="10">
-        <f>NETWORKDAYS(B69, A69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J69" s="7">
@@ -6639,7 +6955,7 @@
         <v>97</v>
       </c>
       <c r="I70" s="10">
-        <f>NETWORKDAYS(B70, A70)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J70" s="7">
@@ -6703,7 +7019,7 @@
         <v>97</v>
       </c>
       <c r="I71" s="10">
-        <f>NETWORKDAYS(B71, A71)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J71" s="7">
@@ -6767,7 +7083,7 @@
         <v>97</v>
       </c>
       <c r="I72" s="10">
-        <f>NETWORKDAYS(B72, A72)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J72" s="7">
@@ -6831,7 +7147,7 @@
         <v>97</v>
       </c>
       <c r="I73" s="10">
-        <f>NETWORKDAYS(B73, A73)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J73" s="7">
@@ -6895,7 +7211,7 @@
         <v>97</v>
       </c>
       <c r="I74" s="10">
-        <f>NETWORKDAYS(B74, A74)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J74" s="7">
@@ -6959,7 +7275,7 @@
         <v>97</v>
       </c>
       <c r="I75" s="10">
-        <f>NETWORKDAYS(B75, A75)</f>
+        <f t="shared" ref="I75:I138" si="2">NETWORKDAYS(B75, A75)</f>
         <v>6</v>
       </c>
       <c r="J75" s="7">
@@ -7023,7 +7339,7 @@
         <v>90</v>
       </c>
       <c r="I76" s="10">
-        <f>NETWORKDAYS(B76, A76)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J76" s="7">
@@ -7087,7 +7403,7 @@
         <v>97</v>
       </c>
       <c r="I77" s="10">
-        <f>NETWORKDAYS(B77, A77)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J77" s="7">
@@ -7148,10 +7464,10 @@
         <v>3</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="I78" s="10">
-        <f>NETWORKDAYS(B78, A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J78" s="7">
@@ -7215,7 +7531,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="10">
-        <f>NETWORKDAYS(B79, A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J79" s="7">
@@ -7279,7 +7595,7 @@
         <v>137</v>
       </c>
       <c r="I80" s="10">
-        <f>NETWORKDAYS(B80, A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J80" s="7">
@@ -7343,7 +7659,7 @@
         <v>129</v>
       </c>
       <c r="I81" s="10">
-        <f>NETWORKDAYS(B81, A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J81" s="7">
@@ -7407,7 +7723,7 @@
         <v>97</v>
       </c>
       <c r="I82" s="10">
-        <f>NETWORKDAYS(B82, A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J82" s="7">
@@ -7471,7 +7787,7 @@
         <v>129</v>
       </c>
       <c r="I83" s="10">
-        <f>NETWORKDAYS(B83, A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J83" s="7">
@@ -7535,7 +7851,7 @@
         <v>97</v>
       </c>
       <c r="I84" s="10">
-        <f>NETWORKDAYS(B84, A84)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J84" s="7">
@@ -7599,7 +7915,7 @@
         <v>97</v>
       </c>
       <c r="I85" s="10">
-        <f>NETWORKDAYS(B85, A85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J85" s="7">
@@ -7663,7 +7979,7 @@
         <v>34</v>
       </c>
       <c r="I86" s="30">
-        <f>NETWORKDAYS(B86, A86)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J86" s="28">
@@ -7727,7 +8043,7 @@
         <v>32</v>
       </c>
       <c r="I87" s="10">
-        <f>NETWORKDAYS(B87, A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J87" s="7">
@@ -7791,7 +8107,7 @@
         <v>32</v>
       </c>
       <c r="I88" s="10">
-        <f>NETWORKDAYS(B88, A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J88" s="7">
@@ -7855,7 +8171,7 @@
         <v>125</v>
       </c>
       <c r="I89" s="10">
-        <f>NETWORKDAYS(B89, A89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J89" s="7">
@@ -7919,7 +8235,7 @@
         <v>97</v>
       </c>
       <c r="I90" s="10">
-        <f>NETWORKDAYS(B90, A90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J90" s="7">
@@ -7983,7 +8299,7 @@
         <v>32</v>
       </c>
       <c r="I91" s="10">
-        <f>NETWORKDAYS(B91, A91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J91" s="7">
@@ -8047,7 +8363,7 @@
         <v>97</v>
       </c>
       <c r="I92" s="10">
-        <f>NETWORKDAYS(B92, A92)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J92" s="7">
@@ -8111,7 +8427,7 @@
         <v>125</v>
       </c>
       <c r="I93" s="10">
-        <f>NETWORKDAYS(B93, A93)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J93" s="7">
@@ -8175,7 +8491,7 @@
         <v>125</v>
       </c>
       <c r="I94" s="10">
-        <f>NETWORKDAYS(B94, A94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J94" s="7">
@@ -8239,7 +8555,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="10">
-        <f>NETWORKDAYS(B95, A95)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J95" s="7">
@@ -8303,7 +8619,7 @@
         <v>129</v>
       </c>
       <c r="I96" s="10">
-        <f>NETWORKDAYS(B96, A96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J96" s="7">
@@ -8367,7 +8683,7 @@
         <v>137</v>
       </c>
       <c r="I97" s="10">
-        <f>NETWORKDAYS(B97, A97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J97" s="7">
@@ -8431,7 +8747,7 @@
         <v>97</v>
       </c>
       <c r="I98" s="10">
-        <f>NETWORKDAYS(B98, A98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J98" s="7">
@@ -8495,7 +8811,7 @@
         <v>129</v>
       </c>
       <c r="I99" s="10">
-        <f>NETWORKDAYS(B99, A99)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J99" s="7">
@@ -8559,7 +8875,7 @@
         <v>129</v>
       </c>
       <c r="I100" s="10">
-        <f>NETWORKDAYS(B100, A100)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J100" s="7">
@@ -8623,7 +8939,7 @@
         <v>125</v>
       </c>
       <c r="I101" s="10">
-        <f>NETWORKDAYS(B101, A101)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J101" s="7">
@@ -8687,7 +9003,7 @@
         <v>97</v>
       </c>
       <c r="I102" s="10">
-        <f>NETWORKDAYS(B102, A102)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J102" s="7">
@@ -8751,7 +9067,7 @@
         <v>90</v>
       </c>
       <c r="I103" s="10">
-        <f>NETWORKDAYS(B103, A103)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J103" s="7">
@@ -8815,7 +9131,7 @@
         <v>90</v>
       </c>
       <c r="I104" s="10">
-        <f>NETWORKDAYS(B104, A104)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J104" s="7">
@@ -8879,7 +9195,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="10">
-        <f>NETWORKDAYS(B105, A105)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J105" s="7">
@@ -8943,7 +9259,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="10">
-        <f>NETWORKDAYS(B106, A106)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J106" s="7">
@@ -9007,7 +9323,7 @@
         <v>97</v>
       </c>
       <c r="I107" s="10">
-        <f>NETWORKDAYS(B107, A107)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J107" s="7">
@@ -9071,7 +9387,7 @@
         <v>95</v>
       </c>
       <c r="I108" s="10">
-        <f>NETWORKDAYS(B108, A108)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J108" s="7">
@@ -9135,7 +9451,7 @@
         <v>90</v>
       </c>
       <c r="I109" s="10">
-        <f>NETWORKDAYS(B109, A109)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J109" s="7">
@@ -9199,7 +9515,7 @@
         <v>90</v>
       </c>
       <c r="I110" s="10">
-        <f>NETWORKDAYS(B110, A110)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J110" s="7">
@@ -9263,7 +9579,7 @@
         <v>90</v>
       </c>
       <c r="I111" s="10">
-        <f>NETWORKDAYS(B111, A111)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J111" s="7">
@@ -9327,7 +9643,7 @@
         <v>125</v>
       </c>
       <c r="I112" s="10">
-        <f>NETWORKDAYS(B112, A112)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J112" s="7">
@@ -9391,7 +9707,7 @@
         <v>32</v>
       </c>
       <c r="I113" s="10">
-        <f>NETWORKDAYS(B113, A113)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J113" s="7">
@@ -9455,7 +9771,7 @@
         <v>95</v>
       </c>
       <c r="I114" s="10">
-        <f>NETWORKDAYS(B114, A114)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J114" s="7">
@@ -9519,7 +9835,7 @@
         <v>90</v>
       </c>
       <c r="I115" s="10">
-        <f>NETWORKDAYS(B115, A115)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J115" s="7">
@@ -9577,13 +9893,13 @@
         <v>3</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I116" s="10">
-        <f>NETWORKDAYS(B116, A116)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J116" s="7">
@@ -9647,7 +9963,7 @@
         <v>97</v>
       </c>
       <c r="I117" s="10">
-        <f>NETWORKDAYS(B117, A117)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J117" s="7">
@@ -9711,7 +10027,7 @@
         <v>90</v>
       </c>
       <c r="I118" s="10">
-        <f>NETWORKDAYS(B118, A118)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J118" s="7">
@@ -9775,7 +10091,7 @@
         <v>90</v>
       </c>
       <c r="I119" s="10">
-        <f>NETWORKDAYS(B119, A119)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J119" s="7">
@@ -9839,7 +10155,7 @@
         <v>90</v>
       </c>
       <c r="I120" s="10">
-        <f>NETWORKDAYS(B120, A120)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J120" s="7">
@@ -9903,7 +10219,7 @@
         <v>97</v>
       </c>
       <c r="I121" s="10">
-        <f>NETWORKDAYS(B121, A121)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J121" s="7">
@@ -9967,7 +10283,7 @@
         <v>125</v>
       </c>
       <c r="I122" s="10">
-        <f>NETWORKDAYS(B122, A122)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J122" s="7">
@@ -10031,7 +10347,7 @@
         <v>90</v>
       </c>
       <c r="I123" s="10">
-        <f>NETWORKDAYS(B123, A123)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J123" s="7">
@@ -10095,7 +10411,7 @@
         <v>32</v>
       </c>
       <c r="I124" s="10">
-        <f>NETWORKDAYS(B124, A124)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J124" s="7">
@@ -10159,7 +10475,7 @@
         <v>129</v>
       </c>
       <c r="I125" s="10">
-        <f>NETWORKDAYS(B125, A125)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J125" s="7">
@@ -10223,7 +10539,7 @@
         <v>129</v>
       </c>
       <c r="I126" s="10">
-        <f>NETWORKDAYS(B126, A126)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J126" s="7">
@@ -10287,7 +10603,7 @@
         <v>97</v>
       </c>
       <c r="I127" s="10">
-        <f>NETWORKDAYS(B127, A127)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J127" s="7">
@@ -10351,7 +10667,7 @@
         <v>129</v>
       </c>
       <c r="I128" s="10">
-        <f>NETWORKDAYS(B128, A128)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J128" s="7">
@@ -10415,7 +10731,7 @@
         <v>32</v>
       </c>
       <c r="I129" s="10">
-        <f>NETWORKDAYS(B129, A129)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J129" s="7">
@@ -10479,7 +10795,7 @@
         <v>32</v>
       </c>
       <c r="I130" s="10">
-        <f>NETWORKDAYS(B130, A130)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J130" s="7">
@@ -10543,7 +10859,7 @@
         <v>90</v>
       </c>
       <c r="I131" s="10">
-        <f>NETWORKDAYS(B131, A131)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J131" s="7">
@@ -10607,7 +10923,7 @@
         <v>125</v>
       </c>
       <c r="I132" s="10">
-        <f>NETWORKDAYS(B132, A132)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="J132" s="7">
@@ -10671,7 +10987,7 @@
         <v>97</v>
       </c>
       <c r="I133" s="10">
-        <f>NETWORKDAYS(B133, A133)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J133" s="7">
@@ -10735,7 +11051,7 @@
         <v>125</v>
       </c>
       <c r="I134" s="10">
-        <f>NETWORKDAYS(B134, A134)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J134" s="7">
@@ -10799,7 +11115,7 @@
         <v>125</v>
       </c>
       <c r="I135" s="10">
-        <f>NETWORKDAYS(B135, A135)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J135" s="7">
@@ -10863,7 +11179,7 @@
         <v>32</v>
       </c>
       <c r="I136" s="10">
-        <f>NETWORKDAYS(B136, A136)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J136" s="7">
@@ -10927,7 +11243,7 @@
         <v>97</v>
       </c>
       <c r="I137" s="10">
-        <f>NETWORKDAYS(B137, A137)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J137" s="7">
@@ -10991,7 +11307,7 @@
         <v>97</v>
       </c>
       <c r="I138" s="10">
-        <f>NETWORKDAYS(B138, A138)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J138" s="7">
@@ -11055,7 +11371,7 @@
         <v>97</v>
       </c>
       <c r="I139" s="10">
-        <f>NETWORKDAYS(B139, A139)</f>
+        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
         <v>18</v>
       </c>
       <c r="J139" s="7">
@@ -11119,7 +11435,7 @@
         <v>90</v>
       </c>
       <c r="I140" s="10">
-        <f>NETWORKDAYS(B140, A140)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J140" s="7">
@@ -11183,7 +11499,7 @@
         <v>129</v>
       </c>
       <c r="I141" s="10">
-        <f>NETWORKDAYS(B141, A141)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J141" s="7">
@@ -11247,7 +11563,7 @@
         <v>370</v>
       </c>
       <c r="I142" s="10">
-        <f>NETWORKDAYS(B142, A142)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J142" s="7">
@@ -11311,7 +11627,7 @@
         <v>97</v>
       </c>
       <c r="I143" s="10">
-        <f>NETWORKDAYS(B143, A143)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J143" s="7">
@@ -11375,7 +11691,7 @@
         <v>34</v>
       </c>
       <c r="I144" s="10">
-        <f>NETWORKDAYS(B144, A144)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J144" s="7">
@@ -11439,7 +11755,7 @@
         <v>125</v>
       </c>
       <c r="I145" s="10">
-        <f>NETWORKDAYS(B145, A145)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="J145" s="7">
@@ -11503,7 +11819,7 @@
         <v>90</v>
       </c>
       <c r="I146" s="10">
-        <f>NETWORKDAYS(B146, A146)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J146" s="7">
@@ -11567,7 +11883,7 @@
         <v>97</v>
       </c>
       <c r="I147" s="10">
-        <f>NETWORKDAYS(B147, A147)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J147" s="7">
@@ -11631,7 +11947,7 @@
         <v>137</v>
       </c>
       <c r="I148" s="10">
-        <f>NETWORKDAYS(B148, A148)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J148" s="7">
@@ -11695,7 +12011,7 @@
         <v>90</v>
       </c>
       <c r="I149" s="10">
-        <f>NETWORKDAYS(B149, A149)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="J149" s="7">
@@ -11753,13 +12069,13 @@
         <v>3</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>129</v>
       </c>
       <c r="I150" s="10">
-        <f>NETWORKDAYS(B150, A150)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J150" s="7">
@@ -11823,7 +12139,7 @@
         <v>32</v>
       </c>
       <c r="I151" s="10">
-        <f>NETWORKDAYS(B151, A151)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J151" s="7">
@@ -11887,7 +12203,7 @@
         <v>90</v>
       </c>
       <c r="I152" s="10">
-        <f>NETWORKDAYS(B152, A152)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J152" s="7">
@@ -11951,7 +12267,7 @@
         <v>32</v>
       </c>
       <c r="I153" s="10">
-        <f>NETWORKDAYS(B153, A153)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J153" s="7">
@@ -12015,7 +12331,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="10">
-        <f>NETWORKDAYS(B154, A154)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J154" s="7">
@@ -12079,7 +12395,7 @@
         <v>129</v>
       </c>
       <c r="I155" s="10">
-        <f>NETWORKDAYS(B155, A155)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J155" s="7">
@@ -12143,7 +12459,7 @@
         <v>97</v>
       </c>
       <c r="I156" s="10">
-        <f>NETWORKDAYS(B156, A156)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J156" s="7">
@@ -12207,7 +12523,7 @@
         <v>90</v>
       </c>
       <c r="I157" s="10">
-        <f>NETWORKDAYS(B157, A157)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J157" s="7">
@@ -12271,7 +12587,7 @@
         <v>90</v>
       </c>
       <c r="I158" s="10">
-        <f>NETWORKDAYS(B158, A158)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J158" s="7">
@@ -12335,7 +12651,7 @@
         <v>32</v>
       </c>
       <c r="I159" s="10">
-        <f>NETWORKDAYS(B159, A159)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J159" s="7">
@@ -12399,7 +12715,7 @@
         <v>32</v>
       </c>
       <c r="I160" s="10">
-        <f>NETWORKDAYS(B160, A160)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J160" s="7">
@@ -12463,7 +12779,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="10">
-        <f>NETWORKDAYS(B161, A161)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J161" s="7">
@@ -12527,7 +12843,7 @@
         <v>32</v>
       </c>
       <c r="I162" s="10">
-        <f>NETWORKDAYS(B162, A162)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J162" s="7">
@@ -12591,7 +12907,7 @@
         <v>184</v>
       </c>
       <c r="I163" s="10">
-        <f>NETWORKDAYS(B163, A163)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J163" s="7">
@@ -12655,7 +12971,7 @@
         <v>90</v>
       </c>
       <c r="I164" s="10">
-        <f>NETWORKDAYS(B164, A164)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J164" s="7">
@@ -12719,7 +13035,7 @@
         <v>97</v>
       </c>
       <c r="I165" s="10">
-        <f>NETWORKDAYS(B165, A165)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J165" s="7">
@@ -12783,7 +13099,7 @@
         <v>90</v>
       </c>
       <c r="I166" s="10">
-        <f>NETWORKDAYS(B166, A166)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J166" s="7">
@@ -12847,7 +13163,7 @@
         <v>129</v>
       </c>
       <c r="I167" s="10">
-        <f>NETWORKDAYS(B167, A167)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J167" s="7">
@@ -12908,10 +13224,10 @@
         <v>3</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="I168" s="10">
-        <f>NETWORKDAYS(B168, A168)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J168" s="7">
@@ -12975,7 +13291,7 @@
         <v>129</v>
       </c>
       <c r="I169" s="10">
-        <f>NETWORKDAYS(B169, A169)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J169" s="7">
@@ -13039,7 +13355,7 @@
         <v>129</v>
       </c>
       <c r="I170" s="10">
-        <f>NETWORKDAYS(B170, A170)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J170" s="7">
@@ -13103,7 +13419,7 @@
         <v>125</v>
       </c>
       <c r="I171" s="10">
-        <f>NETWORKDAYS(B171, A171)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J171" s="7">
@@ -13167,7 +13483,7 @@
         <v>129</v>
       </c>
       <c r="I172" s="10">
-        <f>NETWORKDAYS(B172, A172)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J172" s="7">
@@ -13205,67 +13521,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="6">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A173" s="58">
         <v>45785</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="58">
         <v>45784</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D173" s="6" t="s">
+      <c r="C173" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173" s="59">
         <v>68369</v>
       </c>
-      <c r="G173" s="7" t="s">
+      <c r="G173" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H173" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="I173" s="10">
-        <f>NETWORKDAYS(B173, A173)</f>
+      <c r="I173" s="60">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J173" s="7">
+      <c r="J173" s="59">
         <v>65234</v>
       </c>
-      <c r="K173" s="7">
+      <c r="K173" s="59">
         <v>11610</v>
       </c>
-      <c r="L173" s="7" t="s">
+      <c r="L173" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="M173" s="6">
+      <c r="M173" s="58">
         <v>45887</v>
       </c>
-      <c r="N173" s="8">
+      <c r="N173" s="61">
         <v>8931</v>
       </c>
-      <c r="O173" s="7" t="s">
+      <c r="O173" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="P173" s="7">
+      <c r="P173" s="59">
         <v>28</v>
       </c>
-      <c r="Q173" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R173" s="7">
+      <c r="Q173" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="R173" s="59">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>102</v>
       </c>
-      <c r="S173" s="8">
+      <c r="S173" s="61">
         <v>183.5</v>
       </c>
-      <c r="T173" s="8">
+      <c r="T173" s="61">
         <v>0</v>
       </c>
     </row>
@@ -13295,7 +13611,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f>NETWORKDAYS(B174, A174)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13359,7 +13675,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f>NETWORKDAYS(B175, A175)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13423,7 +13739,7 @@
         <v>137</v>
       </c>
       <c r="I176" s="10">
-        <f>NETWORKDAYS(B176, A176)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13487,7 +13803,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f>NETWORKDAYS(B177, A177)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13551,7 +13867,7 @@
         <v>129</v>
       </c>
       <c r="I178" s="10">
-        <f>NETWORKDAYS(B178, A178)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13615,7 +13931,7 @@
         <v>32</v>
       </c>
       <c r="I179" s="10">
-        <f>NETWORKDAYS(B179, A179)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13679,7 +13995,7 @@
         <v>32</v>
       </c>
       <c r="I180" s="10">
-        <f>NETWORKDAYS(B180, A180)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J180" s="7">
@@ -13743,7 +14059,7 @@
         <v>90</v>
       </c>
       <c r="I181" s="10">
-        <f>NETWORKDAYS(B181, A181)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J181" s="7">
@@ -13807,7 +14123,7 @@
         <v>90</v>
       </c>
       <c r="I182" s="10">
-        <f>NETWORKDAYS(B182, A182)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J182" s="7">
@@ -13871,7 +14187,7 @@
         <v>97</v>
       </c>
       <c r="I183" s="10">
-        <f>NETWORKDAYS(B183, A183)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J183" s="7">
@@ -13935,7 +14251,7 @@
         <v>97</v>
       </c>
       <c r="I184" s="10">
-        <f>NETWORKDAYS(B184, A184)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -13999,7 +14315,7 @@
         <v>34</v>
       </c>
       <c r="I185" s="10">
-        <f>NETWORKDAYS(B185, A185)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J185" s="7">
@@ -14063,7 +14379,7 @@
         <v>95</v>
       </c>
       <c r="I186" s="10">
-        <f>NETWORKDAYS(B186, A186)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14127,7 +14443,7 @@
         <v>32</v>
       </c>
       <c r="I187" s="10">
-        <f>NETWORKDAYS(B187, A187)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J187" s="7">
@@ -14191,7 +14507,7 @@
         <v>95</v>
       </c>
       <c r="I188" s="10">
-        <f>NETWORKDAYS(B188, A188)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J188" s="7">
@@ -14255,7 +14571,7 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f>NETWORKDAYS(B189, A189)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J189" s="7">
@@ -14319,7 +14635,7 @@
         <v>90</v>
       </c>
       <c r="I190" s="10">
-        <f>NETWORKDAYS(B190, A190)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J190" s="7">
@@ -14368,7 +14684,7 @@
         <v>7</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>112</v>
@@ -14380,10 +14696,10 @@
         <v>33</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I191" s="10">
-        <f>NETWORKDAYS(B191, A191)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14447,7 +14763,7 @@
         <v>95</v>
       </c>
       <c r="I192" s="10">
-        <f>NETWORKDAYS(B192, A192)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J192" s="7">
@@ -14511,7 +14827,7 @@
         <v>97</v>
       </c>
       <c r="I193" s="10">
-        <f>NETWORKDAYS(B193, A193)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14575,7 +14891,7 @@
         <v>370</v>
       </c>
       <c r="I194" s="10">
-        <f>NETWORKDAYS(B194, A194)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J194" s="7">
@@ -14639,7 +14955,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f>NETWORKDAYS(B195, A195)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -14703,7 +15019,7 @@
         <v>370</v>
       </c>
       <c r="I196" s="10">
-        <f>NETWORKDAYS(B196, A196)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -14767,7 +15083,7 @@
         <v>370</v>
       </c>
       <c r="I197" s="10">
-        <f>NETWORKDAYS(B197, A197)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -14831,7 +15147,7 @@
         <v>370</v>
       </c>
       <c r="I198" s="10">
-        <f>NETWORKDAYS(B198, A198)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -14895,7 +15211,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f>NETWORKDAYS(B199, A199)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -14959,7 +15275,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f>NETWORKDAYS(B200, A200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -15023,7 +15339,7 @@
         <v>125</v>
       </c>
       <c r="I201" s="10">
-        <f>NETWORKDAYS(B201, A201)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15087,7 +15403,7 @@
         <v>129</v>
       </c>
       <c r="I202" s="10">
-        <f>NETWORKDAYS(B202, A202)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15151,7 +15467,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f>NETWORKDAYS(B203, A203)</f>
+        <f t="shared" ref="I203:I225" si="4">NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15215,7 +15531,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="10">
-        <f>NETWORKDAYS(B204, A204)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J204" s="7">
@@ -15279,7 +15595,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="10">
-        <f>NETWORKDAYS(B205, A205)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J205" s="7">
@@ -15343,7 +15659,7 @@
         <v>125</v>
       </c>
       <c r="I206" s="10">
-        <f>NETWORKDAYS(B206, A206)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J206" s="7">
@@ -15407,7 +15723,7 @@
         <v>129</v>
       </c>
       <c r="I207" s="10">
-        <f>NETWORKDAYS(B207, A207)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15465,13 +15781,13 @@
         <v>3</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="H208" s="7" t="s">
         <v>129</v>
       </c>
       <c r="I208" s="10">
-        <f>NETWORKDAYS(B208, A208)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15529,13 +15845,13 @@
         <v>3</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>129</v>
       </c>
       <c r="I209" s="10">
-        <f>NETWORKDAYS(B209, A209)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15599,7 +15915,7 @@
         <v>129</v>
       </c>
       <c r="I210" s="10">
-        <f>NETWORKDAYS(B210, A210)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15663,7 +15979,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f>NETWORKDAYS(B211, A211)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -15727,7 +16043,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f>NETWORKDAYS(B212, A212)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -15791,7 +16107,7 @@
         <v>137</v>
       </c>
       <c r="I213" s="10">
-        <f>NETWORKDAYS(B213, A213)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -15855,7 +16171,7 @@
         <v>90</v>
       </c>
       <c r="I214" s="10">
-        <f>NETWORKDAYS(B214, A214)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -15919,7 +16235,7 @@
         <v>97</v>
       </c>
       <c r="I215" s="10">
-        <f>NETWORKDAYS(B215, A215)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -15983,7 +16299,7 @@
         <v>137</v>
       </c>
       <c r="I216" s="10">
-        <f>NETWORKDAYS(B216, A216)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -16047,7 +16363,7 @@
         <v>97</v>
       </c>
       <c r="I217" s="10">
-        <f>NETWORKDAYS(B217, A217)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J217" s="7">
@@ -16111,7 +16427,7 @@
         <v>129</v>
       </c>
       <c r="I218" s="10">
-        <f>NETWORKDAYS(B218, A218)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J218" s="7">
@@ -16175,7 +16491,7 @@
         <v>129</v>
       </c>
       <c r="I219" s="10">
-        <f>NETWORKDAYS(B219, A219)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16239,13 +16555,13 @@
         <v>129</v>
       </c>
       <c r="I220" s="10">
-        <f>NETWORKDAYS(B220, A220)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J220" s="7">
         <v>66429</v>
       </c>
-      <c r="K220" s="44">
+      <c r="K220" s="41">
         <v>766</v>
       </c>
       <c r="L220" s="7" t="s">
@@ -16303,7 +16619,7 @@
         <v>97</v>
       </c>
       <c r="I221" s="10">
-        <f>NETWORKDAYS(B221, A221)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16367,7 +16683,7 @@
         <v>90</v>
       </c>
       <c r="I222" s="10">
-        <f>NETWORKDAYS(B222, A222)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16431,7 +16747,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f>NETWORKDAYS(B223, A223)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16495,7 +16811,7 @@
         <v>370</v>
       </c>
       <c r="I224" s="10">
-        <f>NETWORKDAYS(B224, A224)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J224" s="7">
@@ -16559,7 +16875,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="10">
-        <f>NETWORKDAYS(B225, A225)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J225" s="7">
@@ -16623,7 +16939,7 @@
         <v>97</v>
       </c>
       <c r="I226" s="13">
-        <f>NETWORKDAYS(B226, A226)</f>
+        <f t="shared" ref="I226:I257" si="5">NETWORKDAYS(B226, A226)</f>
         <v>5</v>
       </c>
       <c r="J226" s="12">
@@ -16661,67 +16977,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A227" s="11">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="6">
         <v>45870</v>
       </c>
-      <c r="B227" s="11">
+      <c r="B227" s="6">
         <v>45863</v>
       </c>
-      <c r="C227" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" s="11" t="s">
+      <c r="C227" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E227" s="11" t="s">
+      <c r="E227" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F227" s="12">
+      <c r="F227" s="7">
         <v>68482</v>
       </c>
-      <c r="G227" s="12" t="s">
+      <c r="G227" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H227" s="12" t="s">
+      <c r="H227" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I227" s="13">
-        <f>NETWORKDAYS(B227, A227)</f>
+      <c r="I227" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J227" s="12">
-        <v>66522</v>
-      </c>
-      <c r="K227" s="12">
+      <c r="J227" s="7">
+        <v>66924</v>
+      </c>
+      <c r="K227" s="7">
         <v>679</v>
       </c>
-      <c r="L227" s="12" t="s">
+      <c r="L227" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="M227" s="11">
+      <c r="M227" s="6">
         <v>45889</v>
       </c>
-      <c r="N227" s="14">
+      <c r="N227" s="8">
         <v>6048.2</v>
       </c>
-      <c r="O227" s="12" t="s">
+      <c r="O227" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P227" s="12">
+      <c r="P227" s="7">
         <v>30</v>
       </c>
-      <c r="Q227" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R227" s="12">
+      <c r="Q227" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R227" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>19</v>
       </c>
-      <c r="S227" s="14">
-        <v>0</v>
-      </c>
-      <c r="T227" s="14">
+      <c r="S227" s="8">
+        <v>0</v>
+      </c>
+      <c r="T227" s="8">
         <v>0</v>
       </c>
     </row>
@@ -16751,7 +17067,7 @@
         <v>90</v>
       </c>
       <c r="I228" s="10">
-        <f>NETWORKDAYS(B228, A228)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J228" s="7">
@@ -16790,130 +17106,130 @@
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A229" s="11">
+      <c r="A229" s="43">
         <v>45884</v>
       </c>
-      <c r="B229" s="11">
+      <c r="B229" s="43">
         <v>45883</v>
       </c>
-      <c r="C229" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="11" t="s">
+      <c r="C229" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E229" s="11" t="s">
+      <c r="E229" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F229" s="12">
+      <c r="F229" s="44">
         <v>68509</v>
       </c>
-      <c r="G229" s="12" t="s">
+      <c r="G229" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="H229" s="12" t="s">
+      <c r="H229" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="I229" s="13">
-        <f>NETWORKDAYS(B229, A229)</f>
+      <c r="I229" s="46">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J229" s="12">
-        <v>66713</v>
-      </c>
-      <c r="K229" s="12">
-        <v>3636</v>
-      </c>
-      <c r="L229" s="12" t="s">
+      <c r="J229" s="44">
+        <v>67024</v>
+      </c>
+      <c r="K229" s="44">
+        <v>10367</v>
+      </c>
+      <c r="L229" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="M229" s="11">
+      <c r="M229" s="43">
         <v>45890</v>
       </c>
-      <c r="N229" s="14">
+      <c r="N229" s="45">
         <v>425.09</v>
       </c>
-      <c r="O229" s="12" t="s">
+      <c r="O229" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="P229" s="12">
+      <c r="P229" s="44">
         <v>28</v>
       </c>
-      <c r="Q229" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R229" s="12">
+      <c r="Q229" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R229" s="44">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>6</v>
       </c>
-      <c r="S229" s="14">
-        <v>0</v>
-      </c>
-      <c r="T229" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A230" s="11">
+      <c r="S229" s="45">
+        <v>0</v>
+      </c>
+      <c r="T229" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="6">
         <v>45884</v>
       </c>
-      <c r="B230" s="11">
+      <c r="B230" s="6">
         <v>45874</v>
       </c>
-      <c r="C230" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D230" s="11" t="s">
+      <c r="C230" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E230" s="11" t="s">
+      <c r="E230" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F230" s="12">
+      <c r="F230" s="7">
         <v>68496</v>
       </c>
-      <c r="G230" s="12" t="s">
+      <c r="G230" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H230" s="12" t="s">
+      <c r="H230" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I230" s="13">
-        <f>NETWORKDAYS(B230, A230)</f>
+      <c r="I230" s="10">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J230" s="12">
+      <c r="J230" s="7">
         <v>66718</v>
       </c>
-      <c r="K230" s="12">
+      <c r="K230" s="7">
         <v>3011</v>
       </c>
-      <c r="L230" s="12" t="s">
+      <c r="L230" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M230" s="11">
+      <c r="M230" s="6">
         <v>45890</v>
       </c>
-      <c r="N230" s="14">
+      <c r="N230" s="8">
         <v>223.6</v>
       </c>
-      <c r="O230" s="12" t="s">
+      <c r="O230" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P230" s="12">
+      <c r="P230" s="7">
         <v>28</v>
       </c>
-      <c r="Q230" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R230" s="12">
+      <c r="Q230" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R230" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>6</v>
       </c>
-      <c r="S230" s="14">
-        <v>0</v>
-      </c>
-      <c r="T230" s="14">
+      <c r="S230" s="8">
+        <v>0</v>
+      </c>
+      <c r="T230" s="8">
         <v>0</v>
       </c>
     </row>
@@ -16943,7 +17259,7 @@
         <v>370</v>
       </c>
       <c r="I231" s="10">
-        <f>NETWORKDAYS(B231, A231)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J231" s="7">
@@ -17007,7 +17323,7 @@
         <v>370</v>
       </c>
       <c r="I232" s="10">
-        <f>NETWORKDAYS(B232, A232)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J232" s="7">
@@ -17045,67 +17361,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A233" s="11">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="6">
         <v>45888</v>
       </c>
-      <c r="B233" s="11">
+      <c r="B233" s="6">
         <v>45887</v>
       </c>
-      <c r="C233" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="11" t="s">
+      <c r="C233" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E233" s="11" t="s">
+      <c r="E233" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F233" s="12">
+      <c r="F233" s="7">
         <v>68508</v>
       </c>
-      <c r="G233" s="12" t="s">
+      <c r="G233" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H233" s="12" t="s">
+      <c r="H233" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I233" s="13">
-        <f>NETWORKDAYS(B233, A233)</f>
+      <c r="I233" s="10">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J233" s="12">
+      <c r="J233" s="7">
         <v>66762</v>
       </c>
-      <c r="K233" s="12" t="s">
+      <c r="K233" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L233" s="12" t="s">
+      <c r="L233" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M233" s="11">
+      <c r="M233" s="6">
         <v>45890</v>
       </c>
-      <c r="N233" s="14">
-        <v>108.44</v>
-      </c>
-      <c r="O233" s="12" t="s">
+      <c r="N233" s="8">
+        <v>115.86</v>
+      </c>
+      <c r="O233" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P233" s="12">
+      <c r="P233" s="7">
         <v>30</v>
       </c>
-      <c r="Q233" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R233" s="12">
+      <c r="Q233" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R233" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>2</v>
       </c>
-      <c r="S233" s="14">
-        <v>0</v>
-      </c>
-      <c r="T233" s="14">
+      <c r="S233" s="8">
+        <v>0</v>
+      </c>
+      <c r="T233" s="8">
         <v>0</v>
       </c>
     </row>
@@ -17135,7 +17451,7 @@
         <v>95</v>
       </c>
       <c r="I234" s="10">
-        <f>NETWORKDAYS(B234, A234)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J234" s="7">
@@ -17199,7 +17515,7 @@
         <v>34</v>
       </c>
       <c r="I235" s="10">
-        <f>NETWORKDAYS(B235, A235)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J235" s="7">
@@ -17263,7 +17579,7 @@
         <v>370</v>
       </c>
       <c r="I236" s="13">
-        <f>NETWORKDAYS(B236, A236)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J236" s="12">
@@ -17327,7 +17643,7 @@
         <v>34</v>
       </c>
       <c r="I237" s="10">
-        <f>NETWORKDAYS(B237, A237)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J237" s="7">
@@ -17391,7 +17707,7 @@
         <v>129</v>
       </c>
       <c r="I238" s="10">
-        <f>NETWORKDAYS(B238, A238)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J238" s="7">
@@ -17455,7 +17771,7 @@
         <v>129</v>
       </c>
       <c r="I239" s="10">
-        <f>NETWORKDAYS(B239, A239)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J239" s="7">
@@ -17519,7 +17835,7 @@
         <v>129</v>
       </c>
       <c r="I240" s="10">
-        <f>NETWORKDAYS(B240, A240)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J240" s="7">
@@ -17580,10 +17896,10 @@
         <v>3</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="I241" s="10">
-        <f>NETWORKDAYS(B241, A241)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J241" s="7">
@@ -17647,7 +17963,7 @@
         <v>125</v>
       </c>
       <c r="I242" s="10">
-        <f>NETWORKDAYS(B242, A242)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J242" s="7">
@@ -17711,7 +18027,7 @@
         <v>137</v>
       </c>
       <c r="I243" s="10">
-        <f>NETWORKDAYS(B243, A243)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J243" s="7">
@@ -17775,7 +18091,7 @@
         <v>370</v>
       </c>
       <c r="I244" s="13">
-        <f>NETWORKDAYS(B244, A244)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J244" s="12">
@@ -17839,7 +18155,7 @@
         <v>32</v>
       </c>
       <c r="I245" s="10">
-        <f>NETWORKDAYS(B245, A245)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J245" s="7">
@@ -17903,7 +18219,7 @@
         <v>370</v>
       </c>
       <c r="I246" s="13">
-        <f>NETWORKDAYS(B246, A246)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J246" s="12">
@@ -17967,7 +18283,7 @@
         <v>32</v>
       </c>
       <c r="I247" s="10">
-        <f>NETWORKDAYS(B247, A247)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J247" s="7">
@@ -18031,7 +18347,7 @@
         <v>97</v>
       </c>
       <c r="I248" s="10">
-        <f>NETWORKDAYS(B248, A248)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J248" s="7">
@@ -18095,7 +18411,7 @@
         <v>97</v>
       </c>
       <c r="I249" s="10">
-        <f>NETWORKDAYS(B249, A249)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J249" s="7">
@@ -18133,67 +18449,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A250" s="41">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="54">
         <v>45826</v>
       </c>
-      <c r="B250" s="41">
+      <c r="B250" s="54">
         <v>45826</v>
       </c>
-      <c r="C250" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" s="41" t="s">
+      <c r="C250" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E250" s="41" t="s">
+      <c r="E250" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="F250" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G250" s="42" t="s">
+      <c r="F250" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G250" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="H250" s="42" t="s">
+      <c r="H250" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I250" s="13">
-        <f>NETWORKDAYS(B250, A250)</f>
+      <c r="I250" s="46">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J250" s="42">
+      <c r="J250" s="55">
         <v>66341</v>
       </c>
-      <c r="K250" s="42">
-        <v>11758</v>
-      </c>
-      <c r="L250" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="M250" s="41">
+      <c r="K250" s="44">
+        <v>11791</v>
+      </c>
+      <c r="L250" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M250" s="54">
         <v>45891</v>
       </c>
-      <c r="N250" s="43">
+      <c r="N250" s="56">
         <v>924.61</v>
       </c>
-      <c r="O250" s="42" t="s">
+      <c r="O250" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="P250" s="42">
+      <c r="P250" s="55">
         <v>28</v>
       </c>
-      <c r="Q250" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="R250" s="42">
+      <c r="Q250" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="R250" s="55">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>65</v>
       </c>
-      <c r="S250" s="43">
-        <v>0</v>
-      </c>
-      <c r="T250" s="43">
+      <c r="S250" s="56">
+        <v>0</v>
+      </c>
+      <c r="T250" s="56">
         <v>0</v>
       </c>
     </row>
@@ -18223,7 +18539,7 @@
         <v>97</v>
       </c>
       <c r="I251" s="13">
-        <f>NETWORKDAYS(B251, A251)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J251" s="12">
@@ -18287,7 +18603,7 @@
         <v>90</v>
       </c>
       <c r="I252" s="10">
-        <f>NETWORKDAYS(B252, A252)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J252" s="7">
@@ -18351,7 +18667,7 @@
         <v>32</v>
       </c>
       <c r="I253" s="10">
-        <f>NETWORKDAYS(B253, A253)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J253" s="7">
@@ -18415,7 +18731,7 @@
         <v>32</v>
       </c>
       <c r="I254" s="10">
-        <f>NETWORKDAYS(B254, A254)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J254" s="7">
@@ -18479,7 +18795,7 @@
         <v>90</v>
       </c>
       <c r="I255" s="10">
-        <f>NETWORKDAYS(B255, A255)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J255" s="7">
@@ -18543,7 +18859,7 @@
         <v>97</v>
       </c>
       <c r="I256" s="10">
-        <f>NETWORKDAYS(B256, A256)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J256" s="7">
@@ -18607,7 +18923,7 @@
         <v>97</v>
       </c>
       <c r="I257" s="10">
-        <f>NETWORKDAYS(B257, A257)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J257" s="7">
@@ -18671,7 +18987,7 @@
         <v>125</v>
       </c>
       <c r="I258" s="10">
-        <f>NETWORKDAYS(B258, A258)</f>
+        <f t="shared" ref="I258:I289" si="6">NETWORKDAYS(B258, A258)</f>
         <v>8</v>
       </c>
       <c r="J258" s="7">
@@ -18735,7 +19051,7 @@
         <v>370</v>
       </c>
       <c r="I259" s="10">
-        <f>NETWORKDAYS(B259, A259)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J259" s="7">
@@ -18773,67 +19089,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A260" s="11">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="6">
         <v>45884</v>
       </c>
-      <c r="B260" s="11">
+      <c r="B260" s="6">
         <v>45874</v>
       </c>
-      <c r="C260" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D260" s="11" t="s">
+      <c r="C260" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E260" s="11" t="s">
+      <c r="E260" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F260" s="12">
+      <c r="F260" s="7">
         <v>68496</v>
       </c>
-      <c r="G260" s="12" t="s">
+      <c r="G260" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H260" s="12" t="s">
+      <c r="H260" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I260" s="13">
-        <f>NETWORKDAYS(B260, A260)</f>
+      <c r="I260" s="10">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J260" s="12">
+      <c r="J260" s="7">
         <v>66714</v>
       </c>
-      <c r="K260" s="12">
+      <c r="K260" s="7">
         <v>881</v>
       </c>
-      <c r="L260" s="12" t="s">
+      <c r="L260" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="M260" s="11">
+      <c r="M260" s="6">
         <v>45891</v>
       </c>
-      <c r="N260" s="14">
+      <c r="N260" s="8">
         <v>4736.25</v>
       </c>
-      <c r="O260" s="12" t="s">
+      <c r="O260" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P260" s="12">
+      <c r="P260" s="7">
         <v>35</v>
       </c>
-      <c r="Q260" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R260" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
-      </c>
-      <c r="S260" s="14">
-        <v>0</v>
-      </c>
-      <c r="T260" s="14">
+      <c r="Q260" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R260" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S260" s="8">
+        <v>0</v>
+      </c>
+      <c r="T260" s="8">
         <v>0</v>
       </c>
     </row>
@@ -18863,7 +19179,7 @@
         <v>32</v>
       </c>
       <c r="I261" s="10">
-        <f>NETWORKDAYS(B261, A261)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="J261" s="7">
@@ -18927,7 +19243,7 @@
         <v>97</v>
       </c>
       <c r="I262" s="10">
-        <f>NETWORKDAYS(B262, A262)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J262" s="7">
@@ -18965,195 +19281,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A263" s="11">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B263" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F263" s="7">
+        <v>68510</v>
+      </c>
+      <c r="G263" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H263" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I263" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J263" s="7">
+        <v>66857</v>
+      </c>
+      <c r="K263" s="7">
+        <v>11810</v>
+      </c>
+      <c r="L263" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="M263" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N263" s="8">
+        <v>37.47</v>
+      </c>
+      <c r="O263" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P263" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q263" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R263" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S263" s="8">
+        <v>0</v>
+      </c>
+      <c r="T263" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="6">
         <v>45882</v>
       </c>
-      <c r="B263" s="11">
+      <c r="B264" s="6">
         <v>45880</v>
       </c>
-      <c r="C263" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D263" s="11" t="s">
+      <c r="C264" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E263" s="11" t="s">
+      <c r="E264" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F263" s="12">
+      <c r="F264" s="7">
         <v>68498</v>
       </c>
-      <c r="G263" s="12" t="s">
+      <c r="G264" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H263" s="12" t="s">
+      <c r="H264" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I263" s="13">
-        <f>NETWORKDAYS(B263, A263)</f>
-        <v>3</v>
-      </c>
-      <c r="J263" s="12">
-        <v>66670</v>
-      </c>
-      <c r="K263" s="12">
+      <c r="I264" s="10">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J264" s="7">
+        <v>66897</v>
+      </c>
+      <c r="K264" s="7">
         <v>11796</v>
       </c>
-      <c r="L263" s="12" t="s">
+      <c r="L264" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M263" s="11">
+      <c r="M264" s="6">
         <v>45894</v>
       </c>
-      <c r="N263" s="14">
+      <c r="N264" s="8">
         <v>42.23</v>
       </c>
-      <c r="O263" s="12" t="s">
+      <c r="O264" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P263" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q263" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R263" s="12">
+      <c r="P264" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R264" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>12</v>
       </c>
-      <c r="S263" s="14">
-        <v>0</v>
-      </c>
-      <c r="T263" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A264" s="11">
+      <c r="S264" s="8">
+        <v>0</v>
+      </c>
+      <c r="T264" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="6">
         <v>45888</v>
       </c>
-      <c r="B264" s="11">
+      <c r="B265" s="6">
         <v>45887</v>
       </c>
-      <c r="C264" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="11" t="s">
+      <c r="C265" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E264" s="11" t="s">
+      <c r="E265" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F264" s="12">
+      <c r="F265" s="7">
         <v>68513</v>
       </c>
-      <c r="G264" s="12" t="s">
+      <c r="G265" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H264" s="12" t="s">
+      <c r="H265" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I264" s="13">
-        <f>NETWORKDAYS(B264, A264)</f>
+      <c r="I265" s="10">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J264" s="12">
+      <c r="J265" s="7">
         <v>66763</v>
       </c>
-      <c r="K264" s="12">
+      <c r="K265" s="7">
         <v>2812</v>
       </c>
-      <c r="L264" s="12" t="s">
+      <c r="L265" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="M264" s="11">
+      <c r="M265" s="6">
         <v>45894</v>
       </c>
-      <c r="N264" s="14">
+      <c r="N265" s="8">
         <v>1167.67</v>
       </c>
-      <c r="O264" s="12" t="s">
+      <c r="O265" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P264" s="12">
+      <c r="P265" s="7">
         <v>30</v>
       </c>
-      <c r="Q264" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R264" s="12">
+      <c r="Q265" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R265" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>6</v>
       </c>
-      <c r="S264" s="14">
-        <v>0</v>
-      </c>
-      <c r="T264" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A265" s="11">
-        <v>45881</v>
-      </c>
-      <c r="B265" s="11">
-        <v>45881</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D265" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E265" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F265" s="12">
-        <v>68501</v>
-      </c>
-      <c r="G265" s="12">
-        <v>2289</v>
-      </c>
-      <c r="H265" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I265" s="13">
-        <f>NETWORKDAYS(B265, A265)</f>
-        <v>1</v>
-      </c>
-      <c r="J265" s="12">
-        <v>66662</v>
-      </c>
-      <c r="K265" s="12">
-        <v>3040</v>
-      </c>
-      <c r="L265" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="M265" s="11">
-        <v>45896</v>
-      </c>
-      <c r="N265" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O265" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P265" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q265" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R265" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>15</v>
-      </c>
-      <c r="S265" s="14">
-        <v>0</v>
-      </c>
-      <c r="T265" s="14">
+      <c r="S265" s="8">
+        <v>0</v>
+      </c>
+      <c r="T265" s="8">
         <v>0</v>
       </c>
     </row>
@@ -19183,7 +19499,7 @@
         <v>34</v>
       </c>
       <c r="I266" s="10">
-        <f>NETWORKDAYS(B266, A266)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J266" s="7">
@@ -19221,195 +19537,195 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A267" s="46">
-        <v>45888</v>
-      </c>
-      <c r="B267" s="46">
-        <v>45887</v>
-      </c>
-      <c r="C267" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267" s="46" t="s">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B267" s="6">
+        <v>45869</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E267" s="46" t="s">
+      <c r="E267" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F267" s="47">
-        <v>68512</v>
-      </c>
-      <c r="G267" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H267" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="I267" s="49">
-        <f>NETWORKDAYS(B267, A267)</f>
-        <v>2</v>
-      </c>
-      <c r="J267" s="47">
-        <v>66769</v>
-      </c>
-      <c r="K267" s="47">
-        <v>74</v>
-      </c>
-      <c r="L267" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="M267" s="46">
+      <c r="F267" s="7">
+        <v>68492</v>
+      </c>
+      <c r="G267" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I267" s="10">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J267" s="7">
+        <v>66846</v>
+      </c>
+      <c r="K267" s="7">
+        <v>11805</v>
+      </c>
+      <c r="L267" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M267" s="6">
+        <v>45894</v>
+      </c>
+      <c r="N267" s="8">
+        <v>173.49</v>
+      </c>
+      <c r="O267" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P267" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q267" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R267" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>4</v>
+      </c>
+      <c r="S267" s="8">
+        <v>0</v>
+      </c>
+      <c r="T267" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="6">
+        <v>45881</v>
+      </c>
+      <c r="B268" s="6">
+        <v>45881</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F268" s="7">
+        <v>68501</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H268" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I268" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J268" s="7">
+        <v>66662</v>
+      </c>
+      <c r="K268" s="7">
+        <v>3040</v>
+      </c>
+      <c r="L268" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M268" s="6">
         <v>45896</v>
       </c>
-      <c r="N267" s="48">
-        <v>1383.7</v>
-      </c>
-      <c r="O267" s="47" t="s">
+      <c r="N268" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O268" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P267" s="47">
-        <v>28</v>
-      </c>
-      <c r="Q267" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="R267" s="47">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
-      </c>
-      <c r="S267" s="48">
-        <v>0</v>
-      </c>
-      <c r="T267" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A268" s="11">
-        <v>45868</v>
-      </c>
-      <c r="B268" s="11">
-        <v>45868</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" s="11" t="s">
+      <c r="P268" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q268" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R268" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>15</v>
       </c>
-      <c r="E268" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F268" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G268" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H268" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I268" s="13">
-        <f>NETWORKDAYS(B268, A268)</f>
-        <v>1</v>
-      </c>
-      <c r="J268" s="12">
-        <v>66504</v>
-      </c>
-      <c r="K268" s="12">
-        <v>3034</v>
-      </c>
-      <c r="L268" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="M268" s="11">
-        <v>45897</v>
-      </c>
-      <c r="N268" s="14">
-        <v>2220</v>
-      </c>
-      <c r="O268" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P268" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q268" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R268" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
-      </c>
-      <c r="S268" s="14">
-        <v>80</v>
-      </c>
-      <c r="T268" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A269" s="11">
-        <v>45869</v>
-      </c>
-      <c r="B269" s="11">
-        <v>45869</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" s="11" t="s">
+      <c r="S268" s="8">
+        <v>0</v>
+      </c>
+      <c r="T268" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="6">
+        <v>45891</v>
+      </c>
+      <c r="B269" s="6">
+        <v>45883</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E269" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F269" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G269" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H269" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I269" s="13">
-        <f>NETWORKDAYS(B269, A269)</f>
-        <v>1</v>
-      </c>
-      <c r="J269" s="12">
-        <v>66427</v>
-      </c>
-      <c r="K269" s="12">
-        <v>1277</v>
-      </c>
-      <c r="L269" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="M269" s="11">
-        <v>45897</v>
-      </c>
-      <c r="N269" s="14">
-        <v>2715.75</v>
-      </c>
-      <c r="O269" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P269" s="12">
+      <c r="E269" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F269" s="7">
+        <v>68510</v>
+      </c>
+      <c r="G269" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H269" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I269" s="10">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="J269" s="7">
+        <v>66858</v>
+      </c>
+      <c r="K269" s="7">
+        <v>11811</v>
+      </c>
+      <c r="L269" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M269" s="6">
+        <v>45894</v>
+      </c>
+      <c r="N269" s="8">
+        <v>49.92</v>
+      </c>
+      <c r="O269" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P269" s="7">
         <v>30</v>
       </c>
-      <c r="Q269" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R269" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>28</v>
-      </c>
-      <c r="S269" s="14">
-        <v>950</v>
-      </c>
-      <c r="T269" s="14">
+      <c r="Q269" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R269" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S269" s="8">
+        <v>0</v>
+      </c>
+      <c r="T269" s="8">
         <v>0</v>
       </c>
     </row>
@@ -19427,7 +19743,7 @@
         <v>5</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F270" s="7" t="s">
         <v>3</v>
@@ -19439,7 +19755,7 @@
         <v>32</v>
       </c>
       <c r="I270" s="10">
-        <f>NETWORKDAYS(B270, A270)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J270" s="7">
@@ -19477,190 +19793,190 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A271" s="11">
-        <v>45875</v>
-      </c>
-      <c r="B271" s="11">
-        <v>45873</v>
-      </c>
-      <c r="C271" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D271" s="11" t="s">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="6">
+        <v>45891</v>
+      </c>
+      <c r="B271" s="6">
+        <v>45883</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E271" s="11" t="s">
+      <c r="E271" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F271" s="7">
+        <v>68510</v>
+      </c>
+      <c r="G271" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I271" s="10">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="J271" s="7">
+        <v>66860</v>
+      </c>
+      <c r="K271" s="7">
+        <v>11812</v>
+      </c>
+      <c r="L271" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M271" s="6">
+        <v>45894</v>
+      </c>
+      <c r="N271" s="8">
+        <v>113.96</v>
+      </c>
+      <c r="O271" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P271" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q271" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R271" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S271" s="8">
+        <v>0</v>
+      </c>
+      <c r="T271" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B272" s="6">
+        <v>45869</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F271" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G271" s="11" t="s">
+      <c r="F272" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G272" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H271" s="11" t="s">
+      <c r="H272" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I271" s="13">
-        <f>NETWORKDAYS(B271, A271)</f>
-        <v>3</v>
-      </c>
-      <c r="J271" s="12">
-        <v>66430</v>
-      </c>
-      <c r="K271" s="12">
-        <v>333</v>
-      </c>
-      <c r="L271" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="M271" s="11">
-        <v>45901</v>
-      </c>
-      <c r="N271" s="45">
-        <v>1483685.03</v>
-      </c>
-      <c r="O271" s="11" t="s">
+      <c r="I272" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J272" s="7">
+        <v>66427</v>
+      </c>
+      <c r="K272" s="7">
+        <v>1277</v>
+      </c>
+      <c r="L272" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M272" s="6">
+        <v>45897</v>
+      </c>
+      <c r="N272" s="8">
+        <v>2715.75</v>
+      </c>
+      <c r="O272" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P271" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q271" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R271" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>26</v>
-      </c>
-      <c r="S271" s="14">
-        <v>0</v>
-      </c>
-      <c r="T271" s="14">
-        <v>59008.35</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A272" s="11">
-        <v>45856</v>
-      </c>
-      <c r="B272" s="11">
-        <v>45856</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D272" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E272" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F272" s="12">
-        <v>68466</v>
-      </c>
-      <c r="G272" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H272" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I272" s="13">
-        <f>NETWORKDAYS(B272, A272)</f>
-        <v>1</v>
-      </c>
-      <c r="J272" s="12">
-        <v>66337</v>
-      </c>
-      <c r="K272" s="12">
-        <v>11736</v>
-      </c>
-      <c r="L272" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M272" s="11">
-        <v>45902</v>
-      </c>
-      <c r="N272" s="14">
-        <v>16134.54</v>
-      </c>
-      <c r="O272" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="P272" s="12">
+      <c r="P272" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q272" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R272" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>28</v>
       </c>
-      <c r="Q272" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R272" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>46</v>
-      </c>
-      <c r="S272" s="14">
-        <v>25720</v>
-      </c>
-      <c r="T272" s="14">
+      <c r="S272" s="8">
+        <v>950</v>
+      </c>
+      <c r="T272" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273" s="11">
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="B273" s="11">
-        <v>45869</v>
+        <v>45887</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E273" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F273" s="12">
-        <v>68490</v>
+        <v>68512</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="H273" s="12" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I273" s="13">
-        <f>NETWORKDAYS(B273, A273)</f>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="J273" s="12">
-        <v>66638</v>
+        <v>66769</v>
       </c>
       <c r="K273" s="12">
-        <v>8992</v>
+        <v>74</v>
       </c>
       <c r="L273" s="12" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="M273" s="11">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="N273" s="14">
-        <v>10750</v>
+        <v>1383.7</v>
       </c>
       <c r="O273" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P273" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q273" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R273" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="S273" s="14">
         <v>0</v>
@@ -19670,130 +19986,130 @@
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A274" s="11">
-        <v>45840</v>
-      </c>
-      <c r="B274" s="11">
-        <v>45840</v>
-      </c>
-      <c r="C274" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D274" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E274" s="11" t="s">
+      <c r="A274" s="51">
+        <v>45868</v>
+      </c>
+      <c r="B274" s="51">
+        <v>45868</v>
+      </c>
+      <c r="C274" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E274" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F274" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G274" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H274" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I274" s="50">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J274" s="52">
+        <v>66504</v>
+      </c>
+      <c r="K274" s="52">
+        <v>3034</v>
+      </c>
+      <c r="L274" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="M274" s="51">
+        <v>45897</v>
+      </c>
+      <c r="N274" s="53">
+        <v>2220</v>
+      </c>
+      <c r="O274" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P274" s="52">
+        <v>90</v>
+      </c>
+      <c r="Q274" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R274" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>29</v>
+      </c>
+      <c r="S274" s="53">
+        <v>80</v>
+      </c>
+      <c r="T274" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="6">
+        <v>45895</v>
+      </c>
+      <c r="B275" s="6">
+        <v>45895</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F274" s="12">
-        <v>68452</v>
-      </c>
-      <c r="G274" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H274" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I274" s="13">
-        <f>NETWORKDAYS(B274, A274)</f>
+      <c r="F275" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G275" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H275" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I275" s="10">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J274" s="12">
-        <v>66037</v>
-      </c>
-      <c r="K274" s="12">
-        <v>11775</v>
-      </c>
-      <c r="L274" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="M274" s="11">
-        <v>45905</v>
-      </c>
-      <c r="N274" s="14">
-        <v>1750</v>
-      </c>
-      <c r="O274" s="12" t="s">
+      <c r="J275" s="7">
+        <v>66898</v>
+      </c>
+      <c r="K275" s="7">
+        <v>160</v>
+      </c>
+      <c r="L275" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M275" s="6">
+        <v>45898</v>
+      </c>
+      <c r="N275" s="8">
+        <v>448</v>
+      </c>
+      <c r="O275" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P274" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q274" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R274" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
-      </c>
-      <c r="S274" s="14">
-        <v>0</v>
-      </c>
-      <c r="T274" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A275" s="11">
-        <v>45848</v>
-      </c>
-      <c r="B275" s="11">
-        <v>45848</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D275" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E275" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F275" s="12">
-        <v>68457</v>
-      </c>
-      <c r="G275" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H275" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I275" s="13">
-        <f>NETWORKDAYS(B275, A275)</f>
-        <v>1</v>
-      </c>
-      <c r="J275" s="12">
-        <v>66126</v>
-      </c>
-      <c r="K275" s="12">
-        <v>2931</v>
-      </c>
-      <c r="L275" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="M275" s="11">
-        <v>45905</v>
-      </c>
-      <c r="N275" s="14">
-        <v>3500</v>
-      </c>
-      <c r="O275" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P275" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q275" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R275" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
-      </c>
-      <c r="S275" s="14">
-        <v>320</v>
-      </c>
-      <c r="T275" s="14">
+      <c r="P275" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q275" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R275" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S275" s="8">
+        <v>0</v>
+      </c>
+      <c r="T275" s="8">
         <v>0</v>
       </c>
     </row>
@@ -19823,7 +20139,7 @@
         <v>129</v>
       </c>
       <c r="I276" s="10">
-        <f>NETWORKDAYS(B276, A276)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J276" s="7">
@@ -19887,7 +20203,7 @@
         <v>32</v>
       </c>
       <c r="I277" s="10">
-        <f>NETWORKDAYS(B277, A277)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J277" s="7">
@@ -19927,74 +20243,74 @@
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A278" s="11">
-        <v>45887</v>
+        <v>45875</v>
       </c>
       <c r="B278" s="11">
-        <v>45887</v>
+        <v>45873</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F278" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G278" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H278" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G278" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H278" s="11" t="s">
         <v>125</v>
       </c>
       <c r="I278" s="13">
-        <f>NETWORKDAYS(B278, A278)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="J278" s="12">
-        <v>66740</v>
+        <v>66430</v>
       </c>
       <c r="K278" s="12">
-        <v>11799</v>
+        <v>333</v>
       </c>
       <c r="L278" s="12" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="M278" s="11">
-        <v>45905</v>
-      </c>
-      <c r="N278" s="14">
-        <v>7290</v>
-      </c>
-      <c r="O278" s="12" t="s">
+        <v>45901</v>
+      </c>
+      <c r="N278" s="42">
+        <v>1483685.03</v>
+      </c>
+      <c r="O278" s="11" t="s">
         <v>121</v>
       </c>
       <c r="P278" s="12">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="Q278" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R278" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="S278" s="14">
         <v>0</v>
       </c>
       <c r="T278" s="14">
-        <v>0</v>
+        <v>59008.35</v>
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A279" s="11">
-        <v>45888</v>
+        <v>45856</v>
       </c>
       <c r="B279" s="11">
-        <v>45887</v>
+        <v>45856</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>7</v>
@@ -20003,38 +20319,38 @@
         <v>15</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F279" s="12">
-        <v>68514</v>
+        <v>68466</v>
       </c>
       <c r="G279" s="12" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="H279" s="12" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I279" s="13">
-        <f>NETWORKDAYS(B279, A279)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="J279" s="12">
-        <v>66767</v>
+        <v>66337</v>
       </c>
       <c r="K279" s="12">
-        <v>10466</v>
+        <v>11736</v>
       </c>
       <c r="L279" s="12" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="M279" s="11">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="N279" s="14">
-        <v>1588.13</v>
+        <v>16134.54</v>
       </c>
       <c r="O279" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P279" s="12">
         <v>28</v>
@@ -20044,10 +20360,10 @@
       </c>
       <c r="R279" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="S279" s="14">
-        <v>0</v>
+        <v>25720</v>
       </c>
       <c r="T279" s="14">
         <v>0</v>
@@ -20079,7 +20395,7 @@
         <v>97</v>
       </c>
       <c r="I280" s="10">
-        <f>NETWORKDAYS(B280, A280)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J280" s="7">
@@ -20143,7 +20459,7 @@
         <v>129</v>
       </c>
       <c r="I281" s="10">
-        <f>NETWORKDAYS(B281, A281)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J281" s="7">
@@ -20181,207 +20497,207 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A282" s="11">
-        <v>45874</v>
-      </c>
-      <c r="B282" s="11">
-        <v>45853</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D282" s="11" t="s">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="6">
+        <v>45896</v>
+      </c>
+      <c r="B282" s="6">
+        <v>45896</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F282" s="7">
+        <v>68522</v>
+      </c>
+      <c r="G282" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H282" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I282" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J282" s="7">
+        <v>66921</v>
+      </c>
+      <c r="K282" s="7">
+        <v>11770</v>
+      </c>
+      <c r="L282" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M282" s="6">
+        <v>45903</v>
+      </c>
+      <c r="N282" s="8">
+        <v>1499</v>
+      </c>
+      <c r="O282" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P282" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q282" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R282" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S282" s="8">
+        <v>0</v>
+      </c>
+      <c r="T282" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B283" s="6">
+        <v>45898</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E282" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F282" s="12">
-        <v>68465</v>
-      </c>
-      <c r="G282" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H282" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I282" s="13">
-        <f>NETWORKDAYS(B282, A282)</f>
-        <v>16</v>
-      </c>
-      <c r="J282" s="12">
-        <v>66555</v>
-      </c>
-      <c r="K282" s="12">
-        <v>11791</v>
-      </c>
-      <c r="L282" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="M282" s="11">
-        <v>45906</v>
-      </c>
-      <c r="N282" s="14">
-        <v>1075.55</v>
-      </c>
-      <c r="O282" s="12" t="s">
+      <c r="E283" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F283" s="7">
+        <v>68525</v>
+      </c>
+      <c r="G283" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H283" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I283" s="10">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J283" s="7">
+        <v>66943</v>
+      </c>
+      <c r="K283" s="7">
+        <v>11817</v>
+      </c>
+      <c r="L283" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M283" s="6">
+        <v>45903</v>
+      </c>
+      <c r="N283" s="8">
+        <v>1043</v>
+      </c>
+      <c r="O283" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P282" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q282" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R282" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>32</v>
-      </c>
-      <c r="S282" s="14">
-        <v>1215.25</v>
-      </c>
-      <c r="T282" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A283" s="11">
-        <v>45877</v>
-      </c>
-      <c r="B283" s="11">
-        <v>45873</v>
-      </c>
-      <c r="C283" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D283" s="11" t="s">
+      <c r="P283" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q283" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R283" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>2</v>
+      </c>
+      <c r="S283" s="8">
+        <v>0</v>
+      </c>
+      <c r="T283" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="6">
+        <v>45880</v>
+      </c>
+      <c r="B284" s="6">
+        <v>45869</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E283" s="11" t="s">
+      <c r="E284" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F283" s="12">
-        <v>68493</v>
-      </c>
-      <c r="G283" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="H283" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I283" s="13">
-        <f>NETWORKDAYS(B283, A283)</f>
-        <v>5</v>
-      </c>
-      <c r="J283" s="12">
-        <v>66607</v>
-      </c>
-      <c r="K283" s="12">
-        <v>1586</v>
-      </c>
-      <c r="L283" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="M283" s="11">
-        <v>45907</v>
-      </c>
-      <c r="N283" s="14">
-        <v>680</v>
-      </c>
-      <c r="O283" s="12" t="s">
+      <c r="F284" s="7">
+        <v>68490</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H284" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I284" s="10">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J284" s="7">
+        <v>66638</v>
+      </c>
+      <c r="K284" s="7">
+        <v>8992</v>
+      </c>
+      <c r="L284" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M284" s="6">
+        <v>45905</v>
+      </c>
+      <c r="N284" s="8">
+        <v>10750</v>
+      </c>
+      <c r="O284" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P283" s="12">
+      <c r="P284" s="7">
         <v>30</v>
       </c>
-      <c r="Q283" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R283" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
-      </c>
-      <c r="S283" s="14">
-        <v>0</v>
-      </c>
-      <c r="T283" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A284" s="11">
-        <v>45867</v>
-      </c>
-      <c r="B284" s="11">
-        <v>45866</v>
-      </c>
-      <c r="C284" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E284" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F284" s="12">
-        <v>68483</v>
-      </c>
-      <c r="G284" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H284" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I284" s="13">
-        <f>NETWORKDAYS(B284, A284)</f>
-        <v>2</v>
-      </c>
-      <c r="J284" s="12">
-        <v>66467</v>
-      </c>
-      <c r="K284" s="12">
-        <v>11164</v>
-      </c>
-      <c r="L284" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="M284" s="11">
-        <v>45908</v>
-      </c>
-      <c r="N284" s="14">
-        <v>2623.03</v>
-      </c>
-      <c r="O284" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P284" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q284" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R284" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
-      </c>
-      <c r="S284" s="14">
-        <v>52</v>
-      </c>
-      <c r="T284" s="14">
+      <c r="Q284" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R284" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>25</v>
+      </c>
+      <c r="S284" s="8">
+        <v>0</v>
+      </c>
+      <c r="T284" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285" s="11">
-        <v>45870</v>
+        <v>45894</v>
       </c>
       <c r="B285" s="11">
-        <v>45870</v>
+        <v>45887</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>15</v>
@@ -20389,51 +20705,3251 @@
       <c r="E285" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F285" s="12" t="s">
-        <v>3</v>
+      <c r="F285" s="12">
+        <v>68516</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="H285" s="12" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="I285" s="13">
-        <f>NETWORKDAYS(B285, A285)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="J285" s="12">
-        <v>66430</v>
+        <v>66891</v>
       </c>
       <c r="K285" s="12">
-        <v>333</v>
+        <v>11622</v>
       </c>
       <c r="L285" s="12" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="M285" s="11">
-        <v>46113</v>
+        <v>45904</v>
       </c>
       <c r="N285" s="14">
-        <v>281569.34000000003</v>
+        <v>10103.200000000001</v>
       </c>
       <c r="O285" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P285" s="12">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="Q285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R285" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>10</v>
+      </c>
+      <c r="S285" s="14">
+        <v>0</v>
+      </c>
+      <c r="T285" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A286" s="62">
+        <v>45840</v>
+      </c>
+      <c r="B286" s="62">
+        <v>45840</v>
+      </c>
+      <c r="C286" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E286" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F286" s="63">
+        <v>68452</v>
+      </c>
+      <c r="G286" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H286" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I286" s="64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J286" s="63">
+        <v>66037</v>
+      </c>
+      <c r="K286" s="63">
+        <v>11775</v>
+      </c>
+      <c r="L286" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="M286" s="62">
+        <v>45905</v>
+      </c>
+      <c r="N286" s="65">
+        <v>1750</v>
+      </c>
+      <c r="O286" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="P286" s="63">
+        <v>30</v>
+      </c>
+      <c r="Q286" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="R286" s="63">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>65</v>
+      </c>
+      <c r="S286" s="65">
+        <v>0</v>
+      </c>
+      <c r="T286" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="6">
+        <v>45889</v>
+      </c>
+      <c r="B287" s="6">
+        <v>45889</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F287" s="7">
+        <v>68519</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H287" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I287" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J287" s="7">
+        <v>66808</v>
+      </c>
+      <c r="K287" s="7">
+        <v>11745</v>
+      </c>
+      <c r="L287" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M287" s="6">
+        <v>45890</v>
+      </c>
+      <c r="N287" s="8">
+        <v>1030</v>
+      </c>
+      <c r="O287" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P287" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q287" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R287" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S287" s="8">
+        <v>0</v>
+      </c>
+      <c r="T287" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B288" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G288" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H288" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I288" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J288" s="7">
+        <v>66833</v>
+      </c>
+      <c r="K288" s="7">
+        <v>3061</v>
+      </c>
+      <c r="L288" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M288" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N288" s="8">
+        <v>9227.08</v>
+      </c>
+      <c r="O288" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P288" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q288" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R288" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S288" s="8">
+        <v>0</v>
+      </c>
+      <c r="T288" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B289" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H289" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I289" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J289" s="7">
+        <v>66834</v>
+      </c>
+      <c r="K289" s="7">
+        <v>3061</v>
+      </c>
+      <c r="L289" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M289" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N289" s="8">
+        <v>13000</v>
+      </c>
+      <c r="O289" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P289" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q289" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R289" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S289" s="8">
+        <v>0</v>
+      </c>
+      <c r="T289" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B290" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G290" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H290" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I290" s="10">
+        <f t="shared" ref="I290:I324" si="7">NETWORKDAYS(B290, A290)</f>
+        <v>1</v>
+      </c>
+      <c r="J290" s="7">
+        <v>66836</v>
+      </c>
+      <c r="K290" s="7">
+        <v>953</v>
+      </c>
+      <c r="L290" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M290" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N290" s="8">
+        <v>4341.7299999999996</v>
+      </c>
+      <c r="O290" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P290" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q290" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R290" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S290" s="8">
+        <v>0</v>
+      </c>
+      <c r="T290" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B291" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G291" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H291" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I291" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J291" s="7">
+        <v>66838</v>
+      </c>
+      <c r="K291" s="7">
+        <v>419</v>
+      </c>
+      <c r="L291" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M291" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N291" s="8">
+        <v>5133.62</v>
+      </c>
+      <c r="O291" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P291" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q291" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R291" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S291" s="8">
+        <v>0</v>
+      </c>
+      <c r="T291" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B292" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G292" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H292" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I292" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J292" s="7">
+        <v>66839</v>
+      </c>
+      <c r="K292" s="41">
+        <v>766</v>
+      </c>
+      <c r="L292" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M292" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N292" s="8">
+        <v>10637.58</v>
+      </c>
+      <c r="O292" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P292" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q292" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R292" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S292" s="8">
+        <v>0</v>
+      </c>
+      <c r="T292" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B293" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G293" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H293" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I293" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J293" s="7">
+        <v>66840</v>
+      </c>
+      <c r="K293" s="41">
+        <v>766</v>
+      </c>
+      <c r="L293" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M293" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N293" s="8">
+        <v>9875.76</v>
+      </c>
+      <c r="O293" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P293" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q293" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R293" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S293" s="8">
+        <v>0</v>
+      </c>
+      <c r="T293" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B294" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G294" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H294" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I294" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J294" s="7">
+        <v>66841</v>
+      </c>
+      <c r="K294" s="7">
+        <v>10194</v>
+      </c>
+      <c r="L294" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M294" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N294" s="8">
+        <v>993.07</v>
+      </c>
+      <c r="O294" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P294" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q294" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R294" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S294" s="8">
+        <v>0</v>
+      </c>
+      <c r="T294" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B295" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G295" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H295" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I295" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J295" s="7">
+        <v>63853</v>
+      </c>
+      <c r="K295" s="7">
+        <v>789</v>
+      </c>
+      <c r="L295" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M295" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N295" s="8">
+        <v>75436.87</v>
+      </c>
+      <c r="O295" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P295" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q295" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R295" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S295" s="8">
+        <v>0</v>
+      </c>
+      <c r="T295" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B296" s="6">
+        <v>45890</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G296" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H296" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I296" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J296" s="7">
+        <v>63854</v>
+      </c>
+      <c r="K296" s="7">
+        <v>789</v>
+      </c>
+      <c r="L296" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M296" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N296" s="8">
+        <v>1428.29</v>
+      </c>
+      <c r="O296" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P296" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q296" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R296" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S296" s="8">
+        <v>0</v>
+      </c>
+      <c r="T296" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A297" s="11">
+        <v>45848</v>
+      </c>
+      <c r="B297" s="11">
+        <v>45848</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F297" s="12">
+        <v>68457</v>
+      </c>
+      <c r="G297" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H297" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I297" s="13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J297" s="12">
+        <v>66126</v>
+      </c>
+      <c r="K297" s="12">
+        <v>2931</v>
+      </c>
+      <c r="L297" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M297" s="11">
+        <v>45905</v>
+      </c>
+      <c r="N297" s="14">
+        <v>3500</v>
+      </c>
+      <c r="O297" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P297" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q297" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R297" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>57</v>
+      </c>
+      <c r="S297" s="14">
+        <v>320</v>
+      </c>
+      <c r="T297" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B298" s="6">
+        <v>45889</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G298" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H298" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I298" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J298" s="7">
+        <v>66847</v>
+      </c>
+      <c r="K298" s="7">
+        <v>11806</v>
+      </c>
+      <c r="L298" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M298" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N298" s="8">
+        <v>144.96</v>
+      </c>
+      <c r="O298" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P298" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q298" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R298" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S298" s="8">
+        <v>0</v>
+      </c>
+      <c r="T298" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B299" s="6">
+        <v>45883</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F299" s="7">
+        <v>68510</v>
+      </c>
+      <c r="G299" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H299" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I299" s="10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J299" s="7">
+        <v>66853</v>
+      </c>
+      <c r="K299" s="7">
+        <v>11807</v>
+      </c>
+      <c r="L299" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M299" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N299" s="8">
+        <v>74.7</v>
+      </c>
+      <c r="O299" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P299" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q299" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R299" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S299" s="8">
+        <v>0</v>
+      </c>
+      <c r="T299" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B300" s="6">
+        <v>45883</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F300" s="7">
+        <v>68510</v>
+      </c>
+      <c r="G300" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H300" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I300" s="10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J300" s="7">
+        <v>66854</v>
+      </c>
+      <c r="K300" s="7">
+        <v>11808</v>
+      </c>
+      <c r="L300" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M300" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N300" s="8">
+        <v>263.94</v>
+      </c>
+      <c r="O300" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P300" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q300" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R300" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S300" s="8">
+        <v>0</v>
+      </c>
+      <c r="T300" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B301" s="6">
+        <v>45883</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F301" s="7">
+        <v>68510</v>
+      </c>
+      <c r="G301" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H301" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I301" s="10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J301" s="7">
+        <v>66856</v>
+      </c>
+      <c r="K301" s="7">
+        <v>11809</v>
+      </c>
+      <c r="L301" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M301" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N301" s="8">
+        <v>77.91</v>
+      </c>
+      <c r="O301" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P301" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q301" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R301" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S301" s="8">
+        <v>0</v>
+      </c>
+      <c r="T301" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="6">
+        <v>45888</v>
+      </c>
+      <c r="B302" s="6">
+        <v>45887</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F302" s="7">
+        <v>68514</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H302" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I302" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J302" s="7">
+        <v>66767</v>
+      </c>
+      <c r="K302" s="7">
+        <v>10466</v>
+      </c>
+      <c r="L302" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M302" s="6">
+        <v>45905</v>
+      </c>
+      <c r="N302" s="8">
+        <v>1588.13</v>
+      </c>
+      <c r="O302" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P302" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q302" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R302" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>17</v>
+      </c>
+      <c r="S302" s="8">
+        <v>0</v>
+      </c>
+      <c r="T302" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="6">
+        <v>45874</v>
+      </c>
+      <c r="B303" s="6">
+        <v>45853</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F303" s="7">
+        <v>68465</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H303" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I303" s="10">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="J303" s="7">
+        <v>66555</v>
+      </c>
+      <c r="K303" s="7">
+        <v>11791</v>
+      </c>
+      <c r="L303" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M303" s="6">
+        <v>45906</v>
+      </c>
+      <c r="N303" s="8">
+        <v>1075.55</v>
+      </c>
+      <c r="O303" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P303" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q303" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R303" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>32</v>
+      </c>
+      <c r="S303" s="8">
+        <v>1215.25</v>
+      </c>
+      <c r="T303" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A304" s="51">
+        <v>45887</v>
+      </c>
+      <c r="B304" s="51">
+        <v>45887</v>
+      </c>
+      <c r="C304" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F304" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G304" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="H304" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I304" s="50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J304" s="52">
+        <v>66740</v>
+      </c>
+      <c r="K304" s="52">
+        <v>11799</v>
+      </c>
+      <c r="L304" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="M304" s="51">
+        <v>45905</v>
+      </c>
+      <c r="N304" s="53">
+        <v>7290</v>
+      </c>
+      <c r="O304" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P304" s="52">
+        <v>10</v>
+      </c>
+      <c r="Q304" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R304" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>18</v>
+      </c>
+      <c r="S304" s="53">
+        <v>0</v>
+      </c>
+      <c r="T304" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="6">
+        <v>45891</v>
+      </c>
+      <c r="B305" s="6">
+        <v>45891</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G305" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H305" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I305" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J305" s="7">
+        <v>66865</v>
+      </c>
+      <c r="K305" s="7">
+        <v>10581</v>
+      </c>
+      <c r="L305" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M305" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N305" s="8">
+        <v>23002.38</v>
+      </c>
+      <c r="O305" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P305" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q305" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R305" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S305" s="8">
+        <v>0</v>
+      </c>
+      <c r="T305" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A306" s="11">
+        <v>45877</v>
+      </c>
+      <c r="B306" s="11">
+        <v>45873</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E306" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F306" s="12">
+        <v>68493</v>
+      </c>
+      <c r="G306" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H306" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I306" s="13">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J306" s="12">
+        <v>66607</v>
+      </c>
+      <c r="K306" s="12">
+        <v>1586</v>
+      </c>
+      <c r="L306" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M306" s="11">
+        <v>45907</v>
+      </c>
+      <c r="N306" s="14">
+        <v>680</v>
+      </c>
+      <c r="O306" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P306" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q306" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R306" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>30</v>
+      </c>
+      <c r="S306" s="14">
+        <v>0</v>
+      </c>
+      <c r="T306" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A307" s="11">
+        <v>45867</v>
+      </c>
+      <c r="B307" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F307" s="12">
+        <v>68483</v>
+      </c>
+      <c r="G307" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H307" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I307" s="13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J307" s="12">
+        <v>66467</v>
+      </c>
+      <c r="K307" s="12">
+        <v>11164</v>
+      </c>
+      <c r="L307" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="M307" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N307" s="14">
+        <v>2623.03</v>
+      </c>
+      <c r="O307" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P307" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q307" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R307" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S307" s="14">
+        <v>52</v>
+      </c>
+      <c r="T307" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A308" s="11">
+        <v>45901</v>
+      </c>
+      <c r="B308" s="11">
+        <v>45897</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F308" s="12">
+        <v>68523</v>
+      </c>
+      <c r="G308" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H308" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I308" s="13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J308" s="12">
+        <v>66944</v>
+      </c>
+      <c r="K308" s="12">
+        <v>74</v>
+      </c>
+      <c r="L308" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M308" s="11">
+        <v>45908</v>
+      </c>
+      <c r="N308" s="14">
+        <v>149.85</v>
+      </c>
+      <c r="O308" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P308" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q308" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R308" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S308" s="14">
+        <v>0</v>
+      </c>
+      <c r="T308" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="6">
+        <v>45891</v>
+      </c>
+      <c r="B309" s="6">
+        <v>45891</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G309" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H309" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I309" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J309" s="7">
+        <v>55644</v>
+      </c>
+      <c r="K309" s="7">
+        <v>591</v>
+      </c>
+      <c r="L309" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M309" s="6">
+        <v>45894</v>
+      </c>
+      <c r="N309" s="8">
+        <v>975</v>
+      </c>
+      <c r="O309" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P309" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q309" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R309" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S309" s="8">
+        <v>0</v>
+      </c>
+      <c r="T309" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="6">
+        <v>45891</v>
+      </c>
+      <c r="B310" s="6">
+        <v>45891</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G310" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H310" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I310" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J310" s="7">
+        <v>66870</v>
+      </c>
+      <c r="K310" s="7">
+        <v>10567</v>
+      </c>
+      <c r="L310" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M310" s="6">
+        <v>45894</v>
+      </c>
+      <c r="N310" s="8">
+        <v>674.76</v>
+      </c>
+      <c r="O310" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P310" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q310" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R310" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S310" s="8">
+        <v>0</v>
+      </c>
+      <c r="T310" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A311" s="11">
+        <v>45891</v>
+      </c>
+      <c r="B311" s="11">
+        <v>45890</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E311" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F311" s="12">
+        <v>68520</v>
+      </c>
+      <c r="G311" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H311" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I311" s="13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J311" s="12">
+        <v>66868</v>
+      </c>
+      <c r="K311" s="12">
+        <v>11813</v>
+      </c>
+      <c r="L311" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="M311" s="11">
+        <v>45912</v>
+      </c>
+      <c r="N311" s="14">
+        <v>6275</v>
+      </c>
+      <c r="O311" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P311" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q311" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R311" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>21</v>
+      </c>
+      <c r="S311" s="14">
+        <v>225</v>
+      </c>
+      <c r="T311" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="6">
+        <v>45895</v>
+      </c>
+      <c r="B312" s="6">
+        <v>45894</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G312" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H312" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I312" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J312" s="7">
+        <v>66896</v>
+      </c>
+      <c r="K312" s="7">
+        <v>3011</v>
+      </c>
+      <c r="L312" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M312" s="6">
+        <v>45896</v>
+      </c>
+      <c r="N312" s="8">
+        <v>234</v>
+      </c>
+      <c r="O312" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P312" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q312" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R312" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S312" s="8">
+        <v>0</v>
+      </c>
+      <c r="T312" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A313" s="51">
+        <v>45889</v>
+      </c>
+      <c r="B313" s="51">
+        <v>45889</v>
+      </c>
+      <c r="C313" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E313" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="F313" s="52">
+        <v>68518</v>
+      </c>
+      <c r="G313" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H313" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I313" s="50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J313" s="52">
+        <v>66812</v>
+      </c>
+      <c r="K313" s="52">
+        <v>10677</v>
+      </c>
+      <c r="L313" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="M313" s="51">
+        <v>45920</v>
+      </c>
+      <c r="N313" s="53">
+        <v>3600</v>
+      </c>
+      <c r="O313" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="P313" s="52">
+        <v>30</v>
+      </c>
+      <c r="Q313" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="R313" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S313" s="53">
+        <v>0</v>
+      </c>
+      <c r="T313" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A314" s="11">
+        <v>45891</v>
+      </c>
+      <c r="B314" s="11">
+        <v>45890</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F314" s="12">
+        <v>68517</v>
+      </c>
+      <c r="G314" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H314" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I314" s="13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J314" s="12">
+        <v>66866</v>
+      </c>
+      <c r="K314" s="12">
+        <v>1277</v>
+      </c>
+      <c r="L314" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="M314" s="11">
+        <v>45922</v>
+      </c>
+      <c r="N314" s="14">
+        <v>894.6</v>
+      </c>
+      <c r="O314" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P314" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q314" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R314" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S314" s="14">
+        <v>0</v>
+      </c>
+      <c r="T314" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A315" s="11">
+        <v>45891</v>
+      </c>
+      <c r="B315" s="11">
+        <v>45882</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F315" s="12">
+        <v>68505</v>
+      </c>
+      <c r="G315" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H315" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I315" s="13">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="J315" s="12">
+        <v>66867</v>
+      </c>
+      <c r="K315" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L315" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="M315" s="11">
+        <v>45922</v>
+      </c>
+      <c r="N315" s="14">
+        <v>6358.8</v>
+      </c>
+      <c r="O315" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P315" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q315" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R315" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S315" s="14">
+        <v>0</v>
+      </c>
+      <c r="T315" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="6">
+        <v>45897</v>
+      </c>
+      <c r="B316" s="6">
+        <v>45897</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G316" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H316" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I316" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J316" s="7">
+        <v>66929</v>
+      </c>
+      <c r="K316" s="7">
+        <v>405</v>
+      </c>
+      <c r="L316" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M316" s="6">
+        <v>45902</v>
+      </c>
+      <c r="N316" s="8">
+        <v>1517.15</v>
+      </c>
+      <c r="O316" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P316" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q316" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R316" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>5</v>
+      </c>
+      <c r="S316" s="8">
+        <v>0</v>
+      </c>
+      <c r="T316" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A317" s="11">
+        <v>45896</v>
+      </c>
+      <c r="B317" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F317" s="12">
+        <v>68484</v>
+      </c>
+      <c r="G317" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H317" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I317" s="13">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="J317" s="12">
+        <v>66912</v>
+      </c>
+      <c r="K317" s="12">
+        <v>10644</v>
+      </c>
+      <c r="L317" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="M317" s="11">
+        <v>45927</v>
+      </c>
+      <c r="N317" s="14">
+        <v>60757.599999999999</v>
+      </c>
+      <c r="O317" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P317" s="12">
+        <v>40</v>
+      </c>
+      <c r="Q317" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R317" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S317" s="14">
+        <v>38888</v>
+      </c>
+      <c r="T317" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A318" s="11">
+        <v>45901</v>
+      </c>
+      <c r="B318" s="11">
+        <v>45895</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F318" s="12">
+        <v>68521</v>
+      </c>
+      <c r="G318" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H318" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I318" s="13">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J318" s="12">
+        <v>66945</v>
+      </c>
+      <c r="K318" s="12">
+        <v>11590</v>
+      </c>
+      <c r="L318" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M318" s="11">
+        <v>45930</v>
+      </c>
+      <c r="N318" s="14">
+        <v>8500</v>
+      </c>
+      <c r="O318" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P318" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q318" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R318" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>29</v>
+      </c>
+      <c r="S318" s="14">
+        <v>636.26</v>
+      </c>
+      <c r="T318" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A319" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B319" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F319" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G319" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H319" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="I319" s="13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J319" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K319" s="12">
+        <v>333</v>
+      </c>
+      <c r="L319" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="M319" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N319" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O319" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P319" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q319" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R319" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>243</v>
       </c>
-      <c r="S285" s="14">
-        <v>0</v>
-      </c>
-      <c r="T285" s="14">
+      <c r="S319" s="14">
+        <v>0</v>
+      </c>
+      <c r="T319" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="6">
+        <v>45902</v>
+      </c>
+      <c r="B320" s="6">
+        <v>45902</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G320" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H320" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I320" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J320" s="7">
+        <v>66989</v>
+      </c>
+      <c r="K320" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L320" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M320" s="6">
+        <v>45908</v>
+      </c>
+      <c r="N320" s="8">
+        <v>817.26</v>
+      </c>
+      <c r="O320" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P320" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q320" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R320" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>6</v>
+      </c>
+      <c r="S320" s="8">
+        <v>0</v>
+      </c>
+      <c r="T320" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="6">
+        <v>45902</v>
+      </c>
+      <c r="B321" s="6">
+        <v>45902</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G321" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H321" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I321" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J321" s="7">
+        <v>66990</v>
+      </c>
+      <c r="K321" s="7">
+        <v>11743</v>
+      </c>
+      <c r="L321" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M321" s="6">
+        <v>45903</v>
+      </c>
+      <c r="N321" s="8">
+        <v>644.14</v>
+      </c>
+      <c r="O321" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P321" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q321" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R321" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S321" s="8">
+        <v>0</v>
+      </c>
+      <c r="T321" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="6">
+        <v>45902</v>
+      </c>
+      <c r="B322" s="6">
+        <v>45902</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G322" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H322" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I322" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J322" s="7">
+        <v>66991</v>
+      </c>
+      <c r="K322" s="7">
+        <v>11527</v>
+      </c>
+      <c r="L322" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M322" s="6">
+        <v>45903</v>
+      </c>
+      <c r="N322" s="8">
+        <v>10441</v>
+      </c>
+      <c r="O322" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P322" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q322" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R322" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S322" s="8">
+        <v>0</v>
+      </c>
+      <c r="T322" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="6">
+        <v>45902</v>
+      </c>
+      <c r="B323" s="6">
+        <v>45902</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G323" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H323" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I323" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J323" s="7">
+        <v>66992</v>
+      </c>
+      <c r="K323" s="7">
+        <v>11527</v>
+      </c>
+      <c r="L323" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M323" s="6">
+        <v>45903</v>
+      </c>
+      <c r="N323" s="8">
+        <v>10500</v>
+      </c>
+      <c r="O323" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P323" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q323" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R323" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S323" s="8">
+        <v>0</v>
+      </c>
+      <c r="T323" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="6">
+        <v>45902</v>
+      </c>
+      <c r="B324" s="6">
+        <v>45902</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G324" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H324" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I324" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J324" s="7">
+        <v>66993</v>
+      </c>
+      <c r="K324" s="7">
+        <v>495</v>
+      </c>
+      <c r="L324" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M324" s="6">
+        <v>45903</v>
+      </c>
+      <c r="N324" s="8">
+        <v>1112</v>
+      </c>
+      <c r="O324" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P324" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q324" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R324" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S324" s="8">
+        <v>0</v>
+      </c>
+      <c r="T324" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="27">
+        <v>45903</v>
+      </c>
+      <c r="B325" s="27">
+        <v>45903</v>
+      </c>
+      <c r="C325" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E325" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F325" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G325" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H325" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I325" s="30">
+        <f t="shared" ref="I325:I331" si="8">NETWORKDAYS(B325, A325)</f>
+        <v>1</v>
+      </c>
+      <c r="J325" s="28">
+        <v>66996</v>
+      </c>
+      <c r="K325" s="28">
+        <v>381</v>
+      </c>
+      <c r="L325" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M325" s="27">
+        <v>45904</v>
+      </c>
+      <c r="N325" s="29">
+        <v>6753.8</v>
+      </c>
+      <c r="O325" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="P325" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q325" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="R325" s="28">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S325" s="29">
+        <v>0</v>
+      </c>
+      <c r="T325" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="6">
+        <v>45903</v>
+      </c>
+      <c r="B326" s="6">
+        <v>45903</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G326" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H326" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I326" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J326" s="7">
+        <v>67000</v>
+      </c>
+      <c r="K326" s="7">
+        <v>419</v>
+      </c>
+      <c r="L326" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M326" s="6">
+        <v>45904</v>
+      </c>
+      <c r="N326" s="8">
+        <v>5073.18</v>
+      </c>
+      <c r="O326" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P326" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q326" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R326" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S326" s="8">
+        <v>0</v>
+      </c>
+      <c r="T326" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="6">
+        <v>45903</v>
+      </c>
+      <c r="B327" s="6">
+        <v>45903</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G327" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H327" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I327" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J327" s="7">
+        <v>67004</v>
+      </c>
+      <c r="K327" s="7">
+        <v>280</v>
+      </c>
+      <c r="L327" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M327" s="6">
+        <v>45904</v>
+      </c>
+      <c r="N327" s="8">
+        <v>15258.1</v>
+      </c>
+      <c r="O327" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P327" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q327" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R327" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S327" s="8">
+        <v>0</v>
+      </c>
+      <c r="T327" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A328" s="11">
+        <v>45903</v>
+      </c>
+      <c r="B328" s="11">
+        <v>45903</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F328" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G328" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H328" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I328" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J328" s="12">
+        <v>67017</v>
+      </c>
+      <c r="K328" s="12">
+        <v>1632</v>
+      </c>
+      <c r="L328" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="M328" s="11">
+        <v>45911</v>
+      </c>
+      <c r="N328" s="14">
+        <v>900</v>
+      </c>
+      <c r="O328" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P328" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q328" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R328" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S328" s="14">
+        <v>60</v>
+      </c>
+      <c r="T328" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="6">
+        <v>45903</v>
+      </c>
+      <c r="B329" s="6">
+        <v>45901</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F329" s="7">
+        <v>68526</v>
+      </c>
+      <c r="G329" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H329" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I329" s="10">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J329" s="7">
+        <v>67018</v>
+      </c>
+      <c r="K329" s="7">
+        <v>11819</v>
+      </c>
+      <c r="L329" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M329" s="6">
+        <v>45904</v>
+      </c>
+      <c r="N329" s="8">
+        <v>35.49</v>
+      </c>
+      <c r="O329" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P329" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q329" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R329" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S329" s="8">
+        <v>0</v>
+      </c>
+      <c r="T329" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="6">
+        <v>45903</v>
+      </c>
+      <c r="B330" s="6">
+        <v>45901</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F330" s="7">
+        <v>68526</v>
+      </c>
+      <c r="G330" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H330" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I330" s="10">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J330" s="7">
+        <v>67019</v>
+      </c>
+      <c r="K330" s="7">
+        <v>11821</v>
+      </c>
+      <c r="L330" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M330" s="6">
+        <v>45904</v>
+      </c>
+      <c r="N330" s="8">
+        <v>17.86</v>
+      </c>
+      <c r="O330" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P330" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q330" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R330" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S330" s="8">
+        <v>0</v>
+      </c>
+      <c r="T330" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="6">
+        <v>45903</v>
+      </c>
+      <c r="B331" s="6">
+        <v>45901</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F331" s="7">
+        <v>68526</v>
+      </c>
+      <c r="G331" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H331" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I331" s="10">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J331" s="7">
+        <v>67020</v>
+      </c>
+      <c r="K331" s="7">
+        <v>11822</v>
+      </c>
+      <c r="L331" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M331" s="6">
+        <v>45904</v>
+      </c>
+      <c r="N331" s="8">
+        <v>18</v>
+      </c>
+      <c r="O331" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P331" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q331" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R331" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S331" s="8">
+        <v>0</v>
+      </c>
+      <c r="T331" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="6">
+        <v>45904</v>
+      </c>
+      <c r="B332" s="6">
+        <v>45904</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F332" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G332" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H332" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I332" s="10">
+        <f>NETWORKDAYS(B332, A332)</f>
+        <v>1</v>
+      </c>
+      <c r="J332" s="7">
+        <v>67022</v>
+      </c>
+      <c r="K332" s="7">
+        <v>11673</v>
+      </c>
+      <c r="L332" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M332" s="6">
+        <v>45905</v>
+      </c>
+      <c r="N332" s="8">
+        <v>4917.3599999999997</v>
+      </c>
+      <c r="O332" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P332" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q332" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R332" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S332" s="8">
+        <v>0</v>
+      </c>
+      <c r="T332" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A333" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B333" s="43">
+        <v>45903</v>
+      </c>
+      <c r="C333" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E333" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F333" s="44">
+        <v>68529</v>
+      </c>
+      <c r="G333" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H333" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I333" s="46">
+        <f>NETWORKDAYS(B333, A333)</f>
+        <v>2</v>
+      </c>
+      <c r="J333" s="44">
+        <v>67023</v>
+      </c>
+      <c r="K333" s="44">
+        <v>11552</v>
+      </c>
+      <c r="L333" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="M333" s="43">
+        <v>45951</v>
+      </c>
+      <c r="N333" s="45">
+        <v>13649.81</v>
+      </c>
+      <c r="O333" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P333" s="44">
+        <v>30</v>
+      </c>
+      <c r="Q333" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R333" s="44">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>47</v>
+      </c>
+      <c r="S333" s="45">
+        <v>0</v>
+      </c>
+      <c r="T333" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A334" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B334" s="43">
+        <v>45898</v>
+      </c>
+      <c r="C334" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F334" s="44">
+        <v>68524</v>
+      </c>
+      <c r="G334" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H334" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I334" s="46">
+        <f>NETWORKDAYS(B334, A334)</f>
+        <v>5</v>
+      </c>
+      <c r="J334" s="44">
+        <v>67027</v>
+      </c>
+      <c r="K334" s="66">
+        <v>1450</v>
+      </c>
+      <c r="L334" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="M334" s="43">
+        <v>45935</v>
+      </c>
+      <c r="N334" s="45">
+        <v>180</v>
+      </c>
+      <c r="O334" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P334" s="44">
+        <v>120</v>
+      </c>
+      <c r="Q334" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R334" s="66">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S334" s="45">
+        <v>0</v>
+      </c>
+      <c r="T334" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A335" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B335" s="43">
+        <v>45904</v>
+      </c>
+      <c r="C335" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E335" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F335" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G335" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H335" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="I335" s="46">
+        <f>NETWORKDAYS(B335, A335)</f>
+        <v>1</v>
+      </c>
+      <c r="J335" s="44">
+        <v>67028</v>
+      </c>
+      <c r="K335" s="44">
+        <v>10692</v>
+      </c>
+      <c r="L335" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M335" s="43">
+        <v>45905</v>
+      </c>
+      <c r="N335" s="45">
+        <v>3386.73</v>
+      </c>
+      <c r="O335" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P335" s="44">
+        <v>14</v>
+      </c>
+      <c r="Q335" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R335" s="66">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S335" s="45">
+        <v>0</v>
+      </c>
+      <c r="T335" s="45">
         <v>0</v>
       </c>
     </row>
@@ -20449,16 +23965,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBDBCA4-D7A3-4813-9FF6-B4DFD12EC85D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.1796875" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
@@ -20615,6 +24131,20 @@
       </c>
       <c r="D11" s="15" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -20647,10 +24177,11 @@
     <hyperlink ref="D10" r:id="rId26" xr:uid="{CACA32D9-B21A-4112-8C80-B9F1CD004D0B}"/>
     <hyperlink ref="B11" r:id="rId27" xr:uid="{5D66A833-FBBF-4513-A467-8E13774986AF}"/>
     <hyperlink ref="D11" r:id="rId28" xr:uid="{2D8992BC-7F69-4CD2-B609-D21BE8CE9F14}"/>
+    <hyperlink ref="B12" r:id="rId29" location="!/autenticacao/login" xr:uid="{302E78B3-E739-485E-AEAA-8DF14977EAE2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20710,7 +24241,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20718,7 +24249,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 577 dias para vencer</v>
+        <v>Faltam 562 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -20736,7 +24267,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20744,7 +24275,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 323 dias</v>
+        <v>Venceu há 338 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -20762,7 +24293,7 @@
       </c>
       <c r="E4" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F4" s="33" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20770,7 +24301,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 31 dias</v>
+        <v>Venceu há 46 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -20788,7 +24319,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20814,7 +24345,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20840,7 +24371,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20848,7 +24379,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 155 dias</v>
+        <v>Venceu há 170 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -20866,7 +24397,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20874,7 +24405,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 898 dias</v>
+        <v>Venceu há 913 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -20892,7 +24423,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20900,7 +24431,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 393 dias para vencer</v>
+        <v>Faltam 378 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -20918,7 +24449,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20926,7 +24457,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 314 dias para vencer</v>
+        <v>Faltam 299 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -20944,7 +24475,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45889</v>
+        <v>45904</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -20952,7 +24483,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 103 dias para vencer</v>
+        <v>Negociar</v>
       </c>
     </row>
   </sheetData>
@@ -21692,10 +25223,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6577E-1BBE-47C5-96B8-0E0691F59A60}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22523,6 +26054,210 @@
         <v>423</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17">
+        <v>45889</v>
+      </c>
+      <c r="B49" t="s">
+        <v>420</v>
+      </c>
+      <c r="C49" t="s">
+        <v>421</v>
+      </c>
+      <c r="D49">
+        <v>11803</v>
+      </c>
+      <c r="E49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="17">
+        <v>45889</v>
+      </c>
+      <c r="B50" t="s">
+        <v>420</v>
+      </c>
+      <c r="C50" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50">
+        <v>11804</v>
+      </c>
+      <c r="E50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="17">
+        <v>45890</v>
+      </c>
+      <c r="B51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51">
+        <v>11805</v>
+      </c>
+      <c r="E51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="17">
+        <v>45890</v>
+      </c>
+      <c r="B52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52">
+        <v>11806</v>
+      </c>
+      <c r="E52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="17">
+        <v>45890</v>
+      </c>
+      <c r="B53" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" t="s">
+        <v>286</v>
+      </c>
+      <c r="D53">
+        <v>11807</v>
+      </c>
+      <c r="E53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="17">
+        <v>45890</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54">
+        <v>11808</v>
+      </c>
+      <c r="E54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="17">
+        <v>45890</v>
+      </c>
+      <c r="B55" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55">
+        <v>11810</v>
+      </c>
+      <c r="E55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="17">
+        <v>45891</v>
+      </c>
+      <c r="B56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56">
+        <v>11811</v>
+      </c>
+      <c r="E56" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="17">
+        <v>45891</v>
+      </c>
+      <c r="B57" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57">
+        <v>11812</v>
+      </c>
+      <c r="E57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="17">
+        <v>45891</v>
+      </c>
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58">
+        <v>11813</v>
+      </c>
+      <c r="E58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="17">
+        <v>45901</v>
+      </c>
+      <c r="B59" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59">
+        <v>11818</v>
+      </c>
+      <c r="E59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="17">
+        <v>45903</v>
+      </c>
+      <c r="B60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60">
+        <v>11819</v>
+      </c>
+      <c r="E60" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -22533,54 +26268,203 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1E336F-BFDB-46B3-834C-4B4ACAB8CE34}">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>377</v>
       </c>
       <c r="B2" s="38">
         <v>0.7</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D2" s="40">
-        <f>C2/B2-1</f>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40">
+        <f>D2/B2-1</f>
         <v>-0.90571428571428569</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>378</v>
       </c>
       <c r="B3" s="36">
         <v>0.5</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36">
         <v>0.2</v>
       </c>
-      <c r="D3" s="37">
-        <f>C3/B3-1</f>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37">
+        <f>D3/B3-1</f>
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="48">
+        <v>318.63</v>
+      </c>
+      <c r="C6" s="48">
+        <v>303.7</v>
+      </c>
+      <c r="D6" s="48">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="E6" s="48">
+        <v>250</v>
+      </c>
+      <c r="F6" s="48">
+        <f>Tabela5[[#This Row],[Primeira Proposta]]-Tabela5[[#This Row],[Preço Fechado]]</f>
+        <v>14.800000000000011</v>
+      </c>
+      <c r="G6" s="49">
+        <f t="shared" ref="G6:G8" si="0">D6/C6-1</f>
+        <v>-4.8732301613434337E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" s="48">
+        <v>60.75</v>
+      </c>
+      <c r="C7" s="48">
+        <v>57.76</v>
+      </c>
+      <c r="D7" s="48">
+        <v>54.78</v>
+      </c>
+      <c r="E7" s="48">
+        <v>250</v>
+      </c>
+      <c r="F7" s="48">
+        <f>Tabela5[[#This Row],[Primeira Proposta]]-Tabela5[[#This Row],[Preço Fechado]]</f>
+        <v>2.9799999999999969</v>
+      </c>
+      <c r="G7" s="49">
+        <f t="shared" si="0"/>
+        <v>-5.1592797783933442E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" s="48">
+        <v>91.86</v>
+      </c>
+      <c r="C8" s="48">
+        <v>87.98</v>
+      </c>
+      <c r="D8" s="48">
+        <v>82.28</v>
+      </c>
+      <c r="E8" s="48">
+        <v>250</v>
+      </c>
+      <c r="F8" s="48">
+        <f>Tabela5[[#This Row],[Primeira Proposta]]-Tabela5[[#This Row],[Preço Fechado]]</f>
+        <v>5.7000000000000028</v>
+      </c>
+      <c r="G8" s="49">
+        <f t="shared" si="0"/>
+        <v>-6.47874516935667E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f>E6*F6</f>
+        <v>3700.0000000000027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>E7*F7</f>
+        <v>744.9999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f>E8*F8</f>
+        <v>1425.0000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="47">
+        <f>SUM(F11:F13)</f>
+        <v>5870.0000000000027</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068C9492B0923CC418696A025D9B79530" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12b5152450087b045156d8e5bdb7ac17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7545978-8353-4157-ab02-92f5c69a97d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74a8823586b7fc5940aaf3e9d5b706e7" ns3:_="">
     <xsd:import namespace="b7545978-8353-4157-ab02-92f5c69a97d9"/>
@@ -22706,12 +26590,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22722,6 +26600,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED76536-08DB-4BCA-BAA6-597FC860B20C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22739,22 +26633,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7545978-8353-4157-ab02-92f5c69a97d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
   <ds:schemaRefs>

--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\splfps01\data$\GROUP\PUBLICO\Compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup_background\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB2390-857D-4522-80C3-15AA4080A6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83518C06-4077-43A9-914E-9461BC554B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="475">
   <si>
     <t>SC</t>
   </si>
@@ -1422,52 +1422,85 @@
     <t>CONECTA TREINE LTDA</t>
   </si>
   <si>
+    <t>D. S. SCHIAVETTO E CIA LTDA</t>
+  </si>
+  <si>
+    <t>SKA AUTOMACAO DE ENGENHARIAS LTDA</t>
+  </si>
+  <si>
+    <t>LOJA ELECTROLUX COMERCIO VIRTUAL DE ELETRODOMESTICOS LTDA</t>
+  </si>
+  <si>
+    <t>52.412.421 EVELIN DE JESUS SALLES</t>
+  </si>
+  <si>
+    <t>Quickly Travel</t>
+  </si>
+  <si>
+    <t>glaudoberto.filho</t>
+  </si>
+  <si>
+    <t>@Comprassptech1</t>
+  </si>
+  <si>
+    <t>https://www.argoit.com.br/quicklytravel/nx/login.aspx?cliente=sptech#!/autenticacao/login</t>
+  </si>
+  <si>
+    <t>REAL DESENTUPIDORA LTDA</t>
+  </si>
+  <si>
+    <t>A C DA SILVA COMERCIO DE SUPORTES</t>
+  </si>
+  <si>
+    <t>INDIKA PRODUCOES SERIGRAFICAS INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>A G DE OLIVEIRA EQUIPAMENTOS DE SEGURANCA LTDA</t>
+  </si>
+  <si>
+    <t>ETIG MULTIFUNCIONAL LTDA</t>
+  </si>
+  <si>
+    <t>LIKE DISTRIBUICAO E LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>DFL SUPRIMENTOS DE INFORMATICA LTDA</t>
+  </si>
+  <si>
+    <t>55.777.424 ELISABETH GOULART CARRETTI</t>
+  </si>
+  <si>
+    <t>CAMISETAS RAPIDO PRODUTOS PERSONALIZADOS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASA BARUERI ALUGUEL DE EQUIPAMENTOS E COMERCIO DE MAQUINAS LTDA ME        </t>
+  </si>
+  <si>
     <t>AGUARDANDO PAGAMENTO</t>
   </si>
   <si>
-    <t>D. S. SCHIAVETTO E CIA LTDA</t>
-  </si>
-  <si>
-    <t>eir</t>
-  </si>
-  <si>
-    <t>SKA AUTOMACAO DE ENGENHARIAS LTDA</t>
-  </si>
-  <si>
-    <t>LOJA ELECTROLUX COMERCIO VIRTUAL DE ELETRODOMESTICOS LTDA</t>
-  </si>
-  <si>
-    <t>52.412.421 EVELIN DE JESUS SALLES</t>
-  </si>
-  <si>
-    <t>Quickly Travel</t>
-  </si>
-  <si>
-    <t>glaudoberto.filho</t>
-  </si>
-  <si>
-    <t>@Comprassptech1</t>
-  </si>
-  <si>
-    <t>https://www.argoit.com.br/quicklytravel/nx/login.aspx?cliente=sptech#!/autenticacao/login</t>
-  </si>
-  <si>
-    <t>AJUSTAR</t>
-  </si>
-  <si>
-    <t>REAL DESENTUPIDORA LTDA</t>
-  </si>
-  <si>
-    <t>A C DA SILVA COMERCIO DE SUPORTES</t>
-  </si>
-  <si>
-    <t>INDIKA PRODUCOES SERIGRAFICAS INDUSTRIA E COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>A G DE OLIVEIRA EQUIPAMENTOS DE SEGURANCA LTDA</t>
-  </si>
-  <si>
-    <t>ETIG MULTIFUNCIONAL LTDA</t>
+    <t>OPEN CHOPP LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZETINE COMERCIO LTDA                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZETINE COMERCIO LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA BEATRIZ GUIMARAES DE TOLEDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECREACAO CRIATIVA EVENTOS E ESPORTES LTDA </t>
+  </si>
+  <si>
+    <t>ENERGIA VIVA QUALIDADE DE VIDA GINASTICA</t>
+  </si>
+  <si>
+    <t>A.F.A. LIMA TECNOLOGIA EM NEGOCIOS</t>
+  </si>
+  <si>
+    <t>AJUSTE</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1567,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1568,12 +1601,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC6C6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,7 +1644,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1760,18 +1787,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1782,9 +1797,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2093,19 +2105,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T335" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:T335" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T357" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:T357" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
         <filter val="AGUARDANDO APROVAÇÃO"/>
         <filter val="AGUARDANDO ENTREGA"/>
         <filter val="AGUARDANDO PAGAMENTO"/>
-        <filter val="AJUSTAR"/>
+        <filter val="AJUSTE"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A226:T319">
-    <sortCondition ref="M1:M319"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A194:T357">
+    <sortCondition ref="M1:M357"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="43"/>
@@ -2188,8 +2200,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E60" totalsRowShown="0">
-  <autoFilter ref="A1:E60" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E67" totalsRowShown="0">
+  <autoFilter ref="A1:E67" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
@@ -2484,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T335"/>
+  <dimension ref="A1:T357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L307" sqref="L307"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M304" sqref="M304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2597,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>129</v>
@@ -11371,7 +11383,7 @@
         <v>97</v>
       </c>
       <c r="I139" s="10">
-        <f t="shared" ref="I139:I202" si="3">NETWORKDAYS(B139, A139)</f>
+        <f t="shared" ref="I139:I172" si="3">NETWORKDAYS(B139, A139)</f>
         <v>18</v>
       </c>
       <c r="J139" s="7">
@@ -12993,7 +13005,7 @@
         <v>121</v>
       </c>
       <c r="P164" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q164" s="7" t="s">
         <v>115</v>
@@ -13521,67 +13533,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A173" s="58">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="6">
         <v>45785</v>
       </c>
-      <c r="B173" s="58">
+      <c r="B173" s="6">
         <v>45784</v>
       </c>
-      <c r="C173" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D173" s="58" t="s">
+      <c r="C173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E173" s="58" t="s">
+      <c r="E173" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F173" s="59">
+      <c r="F173" s="7">
         <v>68369</v>
       </c>
-      <c r="G173" s="59" t="s">
+      <c r="G173" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H173" s="59" t="s">
+      <c r="H173" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I173" s="60">
-        <f t="shared" si="3"/>
+      <c r="I173" s="10">
+        <f t="shared" ref="I173:I193" si="4">NETWORKDAYS(B173, A173)</f>
         <v>2</v>
       </c>
-      <c r="J173" s="59">
-        <v>65234</v>
-      </c>
-      <c r="K173" s="59">
+      <c r="J173" s="7">
+        <v>67058</v>
+      </c>
+      <c r="K173" s="7">
         <v>11610</v>
       </c>
-      <c r="L173" s="59" t="s">
+      <c r="L173" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="M173" s="58">
+      <c r="M173" s="6">
         <v>45887</v>
       </c>
-      <c r="N173" s="61">
+      <c r="N173" s="8">
         <v>8931</v>
       </c>
-      <c r="O173" s="59" t="s">
+      <c r="O173" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P173" s="59">
+      <c r="P173" s="7">
         <v>28</v>
       </c>
-      <c r="Q173" s="59" t="s">
-        <v>458</v>
-      </c>
-      <c r="R173" s="59">
+      <c r="Q173" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R173" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>102</v>
       </c>
-      <c r="S173" s="61">
+      <c r="S173" s="8">
         <v>183.5</v>
       </c>
-      <c r="T173" s="61">
+      <c r="T173" s="8">
         <v>0</v>
       </c>
     </row>
@@ -13611,7 +13623,7 @@
         <v>32</v>
       </c>
       <c r="I174" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J174" s="7">
@@ -13675,7 +13687,7 @@
         <v>32</v>
       </c>
       <c r="I175" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J175" s="7">
@@ -13739,7 +13751,7 @@
         <v>137</v>
       </c>
       <c r="I176" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J176" s="7">
@@ -13803,7 +13815,7 @@
         <v>32</v>
       </c>
       <c r="I177" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J177" s="7">
@@ -13867,7 +13879,7 @@
         <v>129</v>
       </c>
       <c r="I178" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J178" s="7">
@@ -13931,7 +13943,7 @@
         <v>32</v>
       </c>
       <c r="I179" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J179" s="7">
@@ -13995,7 +14007,7 @@
         <v>32</v>
       </c>
       <c r="I180" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J180" s="7">
@@ -14059,7 +14071,7 @@
         <v>90</v>
       </c>
       <c r="I181" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J181" s="7">
@@ -14123,7 +14135,7 @@
         <v>90</v>
       </c>
       <c r="I182" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J182" s="7">
@@ -14187,7 +14199,7 @@
         <v>97</v>
       </c>
       <c r="I183" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J183" s="7">
@@ -14251,7 +14263,7 @@
         <v>97</v>
       </c>
       <c r="I184" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J184" s="7">
@@ -14315,7 +14327,7 @@
         <v>34</v>
       </c>
       <c r="I185" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J185" s="7">
@@ -14379,7 +14391,7 @@
         <v>95</v>
       </c>
       <c r="I186" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J186" s="7">
@@ -14443,7 +14455,7 @@
         <v>32</v>
       </c>
       <c r="I187" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J187" s="7">
@@ -14507,7 +14519,7 @@
         <v>95</v>
       </c>
       <c r="I188" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J188" s="7">
@@ -14571,7 +14583,7 @@
         <v>34</v>
       </c>
       <c r="I189" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J189" s="7">
@@ -14635,7 +14647,7 @@
         <v>90</v>
       </c>
       <c r="I190" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J190" s="7">
@@ -14699,7 +14711,7 @@
         <v>32</v>
       </c>
       <c r="I191" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J191" s="7">
@@ -14763,7 +14775,7 @@
         <v>95</v>
       </c>
       <c r="I192" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J192" s="7">
@@ -14827,7 +14839,7 @@
         <v>97</v>
       </c>
       <c r="I193" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J193" s="7">
@@ -14865,67 +14877,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="6">
-        <v>45853</v>
-      </c>
-      <c r="B194" s="6">
-        <v>45853</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E194" s="6" t="s">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A194" s="58">
+        <v>45840</v>
+      </c>
+      <c r="B194" s="58">
+        <v>45840</v>
+      </c>
+      <c r="C194" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="F194" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H194" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I194" s="10">
-        <f t="shared" si="3"/>
+      <c r="F194" s="59">
+        <v>68452</v>
+      </c>
+      <c r="G194" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" s="60">
+        <f>NETWORKDAYS(B194, A194)</f>
         <v>1</v>
       </c>
-      <c r="J194" s="7">
-        <v>66234</v>
-      </c>
-      <c r="K194" s="7">
-        <v>11784</v>
-      </c>
-      <c r="L194" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M194" s="6">
-        <v>45867</v>
-      </c>
-      <c r="N194" s="8">
-        <v>1011.5</v>
-      </c>
-      <c r="O194" s="7" t="s">
+      <c r="J194" s="59">
+        <v>66037</v>
+      </c>
+      <c r="K194" s="59">
+        <v>11775</v>
+      </c>
+      <c r="L194" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="M194" s="58">
+        <v>45905</v>
+      </c>
+      <c r="N194" s="61">
+        <v>1750</v>
+      </c>
+      <c r="O194" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="P194" s="7">
+      <c r="P194" s="59">
         <v>30</v>
       </c>
-      <c r="Q194" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R194" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
-      </c>
-      <c r="S194" s="8">
-        <v>0</v>
-      </c>
-      <c r="T194" s="8">
+      <c r="Q194" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="R194" s="59">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>65</v>
+      </c>
+      <c r="S194" s="61">
+        <v>0</v>
+      </c>
+      <c r="T194" s="61">
         <v>0</v>
       </c>
     </row>
@@ -14955,7 +14967,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B195, A195)</f>
         <v>1</v>
       </c>
       <c r="J195" s="7">
@@ -15019,7 +15031,7 @@
         <v>370</v>
       </c>
       <c r="I196" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B196, A196)</f>
         <v>1</v>
       </c>
       <c r="J196" s="7">
@@ -15083,7 +15095,7 @@
         <v>370</v>
       </c>
       <c r="I197" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B197, A197)</f>
         <v>1</v>
       </c>
       <c r="J197" s="7">
@@ -15147,7 +15159,7 @@
         <v>370</v>
       </c>
       <c r="I198" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B198, A198)</f>
         <v>1</v>
       </c>
       <c r="J198" s="7">
@@ -15211,7 +15223,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B199, A199)</f>
         <v>1</v>
       </c>
       <c r="J199" s="7">
@@ -15275,7 +15287,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B200, A200)</f>
         <v>1</v>
       </c>
       <c r="J200" s="7">
@@ -15339,7 +15351,7 @@
         <v>125</v>
       </c>
       <c r="I201" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B201, A201)</f>
         <v>1</v>
       </c>
       <c r="J201" s="7">
@@ -15403,7 +15415,7 @@
         <v>129</v>
       </c>
       <c r="I202" s="10">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(B202, A202)</f>
         <v>1</v>
       </c>
       <c r="J202" s="7">
@@ -15467,7 +15479,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="10">
-        <f t="shared" ref="I203:I225" si="4">NETWORKDAYS(B203, A203)</f>
+        <f>NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="7">
@@ -15531,7 +15543,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B204, A204)</f>
         <v>1</v>
       </c>
       <c r="J204" s="7">
@@ -15595,7 +15607,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B205, A205)</f>
         <v>1</v>
       </c>
       <c r="J205" s="7">
@@ -15659,7 +15671,7 @@
         <v>125</v>
       </c>
       <c r="I206" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B206, A206)</f>
         <v>1</v>
       </c>
       <c r="J206" s="7">
@@ -15723,7 +15735,7 @@
         <v>129</v>
       </c>
       <c r="I207" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B207, A207)</f>
         <v>1</v>
       </c>
       <c r="J207" s="7">
@@ -15787,7 +15799,7 @@
         <v>129</v>
       </c>
       <c r="I208" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B208, A208)</f>
         <v>1</v>
       </c>
       <c r="J208" s="7">
@@ -15851,7 +15863,7 @@
         <v>129</v>
       </c>
       <c r="I209" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B209, A209)</f>
         <v>1</v>
       </c>
       <c r="J209" s="7">
@@ -15915,7 +15927,7 @@
         <v>129</v>
       </c>
       <c r="I210" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B210, A210)</f>
         <v>1</v>
       </c>
       <c r="J210" s="7">
@@ -15979,7 +15991,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B211, A211)</f>
         <v>1</v>
       </c>
       <c r="J211" s="7">
@@ -16043,7 +16055,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B212, A212)</f>
         <v>1</v>
       </c>
       <c r="J212" s="7">
@@ -16107,7 +16119,7 @@
         <v>137</v>
       </c>
       <c r="I213" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B213, A213)</f>
         <v>1</v>
       </c>
       <c r="J213" s="7">
@@ -16171,7 +16183,7 @@
         <v>90</v>
       </c>
       <c r="I214" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B214, A214)</f>
         <v>1</v>
       </c>
       <c r="J214" s="7">
@@ -16235,7 +16247,7 @@
         <v>97</v>
       </c>
       <c r="I215" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B215, A215)</f>
         <v>1</v>
       </c>
       <c r="J215" s="7">
@@ -16299,7 +16311,7 @@
         <v>137</v>
       </c>
       <c r="I216" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B216, A216)</f>
         <v>1</v>
       </c>
       <c r="J216" s="7">
@@ -16363,7 +16375,7 @@
         <v>97</v>
       </c>
       <c r="I217" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B217, A217)</f>
         <v>1</v>
       </c>
       <c r="J217" s="7">
@@ -16427,7 +16439,7 @@
         <v>129</v>
       </c>
       <c r="I218" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B218, A218)</f>
         <v>1</v>
       </c>
       <c r="J218" s="7">
@@ -16491,7 +16503,7 @@
         <v>129</v>
       </c>
       <c r="I219" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B219, A219)</f>
         <v>1</v>
       </c>
       <c r="J219" s="7">
@@ -16555,7 +16567,7 @@
         <v>129</v>
       </c>
       <c r="I220" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B220, A220)</f>
         <v>1</v>
       </c>
       <c r="J220" s="7">
@@ -16619,7 +16631,7 @@
         <v>97</v>
       </c>
       <c r="I221" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B221, A221)</f>
         <v>1</v>
       </c>
       <c r="J221" s="7">
@@ -16683,7 +16695,7 @@
         <v>90</v>
       </c>
       <c r="I222" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B222, A222)</f>
         <v>1</v>
       </c>
       <c r="J222" s="7">
@@ -16747,7 +16759,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B223, A223)</f>
         <v>1</v>
       </c>
       <c r="J223" s="7">
@@ -16787,22 +16799,22 @@
     </row>
     <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
-        <v>45866</v>
+        <v>45853</v>
       </c>
       <c r="B224" s="6">
-        <v>45863</v>
+        <v>45853</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F224" s="7">
-        <v>68481</v>
+      <c r="F224" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="G224" s="7" t="s">
         <v>369</v>
@@ -16811,36 +16823,36 @@
         <v>370</v>
       </c>
       <c r="I224" s="10">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B224, A224)</f>
+        <v>1</v>
       </c>
       <c r="J224" s="7">
-        <v>66462</v>
+        <v>66234</v>
       </c>
       <c r="K224" s="7">
-        <v>10535</v>
+        <v>11784</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="M224" s="6">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="N224" s="8">
-        <v>300</v>
+        <v>1011.5</v>
       </c>
       <c r="O224" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P224" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q224" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R224" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>14</v>
-      </c>
-      <c r="Q224" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R224" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>2</v>
       </c>
       <c r="S224" s="8">
         <v>0</v>
@@ -16875,7 +16887,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="10">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(B225, A225)</f>
         <v>1</v>
       </c>
       <c r="J225" s="7">
@@ -16915,10 +16927,10 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226" s="11">
-        <v>45868</v>
+        <v>45877</v>
       </c>
       <c r="B226" s="11">
-        <v>45862</v>
+        <v>45873</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>7</v>
@@ -16930,45 +16942,45 @@
         <v>112</v>
       </c>
       <c r="F226" s="12">
-        <v>68476</v>
+        <v>68493</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="H226" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I226" s="13">
-        <f t="shared" ref="I226:I257" si="5">NETWORKDAYS(B226, A226)</f>
+        <f>NETWORKDAYS(B226, A226)</f>
         <v>5</v>
       </c>
       <c r="J226" s="12">
-        <v>66491</v>
+        <v>66607</v>
       </c>
       <c r="K226" s="12">
-        <v>11522</v>
+        <v>1586</v>
       </c>
       <c r="L226" s="12" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="M226" s="11">
-        <v>45888</v>
+        <v>45916</v>
       </c>
       <c r="N226" s="14">
-        <v>1680.4</v>
+        <v>680</v>
       </c>
       <c r="O226" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P226" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R226" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S226" s="14">
         <v>0</v>
@@ -17003,7 +17015,7 @@
         <v>129</v>
       </c>
       <c r="I227" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B227, A227)</f>
         <v>6</v>
       </c>
       <c r="J227" s="7">
@@ -17067,7 +17079,7 @@
         <v>90</v>
       </c>
       <c r="I228" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B228, A228)</f>
         <v>3</v>
       </c>
       <c r="J228" s="7">
@@ -17105,67 +17117,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A229" s="43">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="6">
         <v>45884</v>
       </c>
-      <c r="B229" s="43">
+      <c r="B229" s="6">
         <v>45883</v>
       </c>
-      <c r="C229" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="43" t="s">
+      <c r="C229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E229" s="43" t="s">
+      <c r="E229" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F229" s="44">
+      <c r="F229" s="7">
         <v>68509</v>
       </c>
-      <c r="G229" s="44" t="s">
+      <c r="G229" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H229" s="44" t="s">
+      <c r="H229" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I229" s="46">
-        <f t="shared" si="5"/>
+      <c r="I229" s="10">
+        <f>NETWORKDAYS(B229, A229)</f>
         <v>2</v>
       </c>
-      <c r="J229" s="44">
+      <c r="J229" s="7">
         <v>67024</v>
       </c>
-      <c r="K229" s="44">
+      <c r="K229" s="7">
         <v>10367</v>
       </c>
-      <c r="L229" s="44" t="s">
+      <c r="L229" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M229" s="43">
+      <c r="M229" s="6">
         <v>45890</v>
       </c>
-      <c r="N229" s="45">
+      <c r="N229" s="8">
         <v>425.09</v>
       </c>
-      <c r="O229" s="44" t="s">
+      <c r="O229" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P229" s="44">
+      <c r="P229" s="7">
         <v>28</v>
       </c>
-      <c r="Q229" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="R229" s="44">
+      <c r="Q229" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R229" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>6</v>
       </c>
-      <c r="S229" s="45">
-        <v>0</v>
-      </c>
-      <c r="T229" s="45">
+      <c r="S229" s="8">
+        <v>0</v>
+      </c>
+      <c r="T229" s="8">
         <v>0</v>
       </c>
     </row>
@@ -17195,7 +17207,7 @@
         <v>125</v>
       </c>
       <c r="I230" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B230, A230)</f>
         <v>9</v>
       </c>
       <c r="J230" s="7">
@@ -17235,22 +17247,22 @@
     </row>
     <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
-        <v>45868</v>
+        <v>45866</v>
       </c>
       <c r="B231" s="6">
-        <v>45868</v>
+        <v>45863</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F231" s="7">
-        <v>68468</v>
+        <v>68481</v>
       </c>
       <c r="G231" s="7" t="s">
         <v>369</v>
@@ -17259,36 +17271,36 @@
         <v>370</v>
       </c>
       <c r="I231" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B231, A231)</f>
+        <v>2</v>
       </c>
       <c r="J231" s="7">
-        <v>66499</v>
+        <v>66462</v>
       </c>
       <c r="K231" s="7">
-        <v>10556</v>
+        <v>10535</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M231" s="6">
-        <v>45877</v>
+        <v>45868</v>
       </c>
       <c r="N231" s="8">
-        <v>1217</v>
+        <v>300</v>
       </c>
       <c r="O231" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P231" s="7">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q231" s="7" t="s">
         <v>115</v>
       </c>
       <c r="R231" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S231" s="8">
         <v>0</v>
@@ -17299,10 +17311,10 @@
     </row>
     <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
-        <v>45881</v>
+        <v>45868</v>
       </c>
       <c r="B232" s="6">
-        <v>45880</v>
+        <v>45868</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>7</v>
@@ -17314,7 +17326,7 @@
         <v>112</v>
       </c>
       <c r="F232" s="7">
-        <v>68500</v>
+        <v>68468</v>
       </c>
       <c r="G232" s="7" t="s">
         <v>369</v>
@@ -17323,36 +17335,36 @@
         <v>370</v>
       </c>
       <c r="I232" s="10">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B232, A232)</f>
+        <v>1</v>
       </c>
       <c r="J232" s="7">
-        <v>66660</v>
+        <v>66499</v>
       </c>
       <c r="K232" s="7">
-        <v>160</v>
+        <v>10556</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>200</v>
+        <v>394</v>
       </c>
       <c r="M232" s="6">
-        <v>45888</v>
+        <v>45877</v>
       </c>
       <c r="N232" s="8">
-        <v>524.1</v>
+        <v>1217</v>
       </c>
       <c r="O232" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P232" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q232" s="7" t="s">
         <v>115</v>
       </c>
       <c r="R232" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S232" s="8">
         <v>0</v>
@@ -17387,7 +17399,7 @@
         <v>97</v>
       </c>
       <c r="I233" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B233, A233)</f>
         <v>2</v>
       </c>
       <c r="J233" s="7">
@@ -17451,7 +17463,7 @@
         <v>95</v>
       </c>
       <c r="I234" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B234, A234)</f>
         <v>1</v>
       </c>
       <c r="J234" s="7">
@@ -17515,7 +17527,7 @@
         <v>34</v>
       </c>
       <c r="I235" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B235, A235)</f>
         <v>1</v>
       </c>
       <c r="J235" s="7">
@@ -17554,66 +17566,66 @@
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A236" s="11">
-        <v>45849</v>
-      </c>
-      <c r="B236" s="11">
-        <v>45849</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="11" t="s">
+      <c r="A236" s="43">
+        <v>45868</v>
+      </c>
+      <c r="B236" s="43">
+        <v>45862</v>
+      </c>
+      <c r="C236" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E236" s="11" t="s">
+      <c r="E236" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F236" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G236" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="H236" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="I236" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J236" s="12">
-        <v>66166</v>
-      </c>
-      <c r="K236" s="12">
-        <v>11782</v>
-      </c>
-      <c r="L236" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="M236" s="11">
-        <v>45891</v>
-      </c>
-      <c r="N236" s="14">
-        <v>2250</v>
-      </c>
-      <c r="O236" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="P236" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q236" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R236" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>42</v>
-      </c>
-      <c r="S236" s="14">
-        <v>250</v>
-      </c>
-      <c r="T236" s="14">
+      <c r="F236" s="44">
+        <v>68476</v>
+      </c>
+      <c r="G236" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H236" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I236" s="46">
+        <f>NETWORKDAYS(B236, A236)</f>
+        <v>5</v>
+      </c>
+      <c r="J236" s="44">
+        <v>66491</v>
+      </c>
+      <c r="K236" s="44">
+        <v>11522</v>
+      </c>
+      <c r="L236" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M236" s="43">
+        <v>45916</v>
+      </c>
+      <c r="N236" s="45">
+        <v>1680.4</v>
+      </c>
+      <c r="O236" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P236" s="44">
+        <v>28</v>
+      </c>
+      <c r="Q236" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R236" s="44">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>48</v>
+      </c>
+      <c r="S236" s="45">
+        <v>0</v>
+      </c>
+      <c r="T236" s="45">
         <v>0</v>
       </c>
     </row>
@@ -17643,7 +17655,7 @@
         <v>34</v>
       </c>
       <c r="I237" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B237, A237)</f>
         <v>1</v>
       </c>
       <c r="J237" s="7">
@@ -17707,7 +17719,7 @@
         <v>129</v>
       </c>
       <c r="I238" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B238, A238)</f>
         <v>1</v>
       </c>
       <c r="J238" s="7">
@@ -17771,7 +17783,7 @@
         <v>129</v>
       </c>
       <c r="I239" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B239, A239)</f>
         <v>1</v>
       </c>
       <c r="J239" s="7">
@@ -17835,7 +17847,7 @@
         <v>129</v>
       </c>
       <c r="I240" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B240, A240)</f>
         <v>1</v>
       </c>
       <c r="J240" s="7">
@@ -17899,7 +17911,7 @@
         <v>137</v>
       </c>
       <c r="I241" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B241, A241)</f>
         <v>1</v>
       </c>
       <c r="J241" s="7">
@@ -17963,7 +17975,7 @@
         <v>125</v>
       </c>
       <c r="I242" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B242, A242)</f>
         <v>1</v>
       </c>
       <c r="J242" s="7">
@@ -18027,7 +18039,7 @@
         <v>137</v>
       </c>
       <c r="I243" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B243, A243)</f>
         <v>1</v>
       </c>
       <c r="J243" s="7">
@@ -18067,10 +18079,10 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
-        <v>45870</v>
+        <v>45910</v>
       </c>
       <c r="B244" s="11">
-        <v>45869</v>
+        <v>45910</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>7</v>
@@ -18079,51 +18091,51 @@
         <v>5</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F244" s="12">
-        <v>68491</v>
+        <v>68538</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="H244" s="12" t="s">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="I244" s="13">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B244, A244)</f>
+        <v>1</v>
       </c>
       <c r="J244" s="12">
-        <v>66521</v>
+        <v>67083</v>
       </c>
       <c r="K244" s="12">
-        <v>3061</v>
+        <v>3509</v>
       </c>
       <c r="L244" s="12" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="M244" s="11">
-        <v>45891</v>
+        <v>45916</v>
       </c>
       <c r="N244" s="14">
-        <v>3000</v>
+        <v>1750</v>
       </c>
       <c r="O244" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P244" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R244" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="S244" s="14">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="T244" s="14">
         <v>0</v>
@@ -18155,7 +18167,7 @@
         <v>32</v>
       </c>
       <c r="I245" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B245, A245)</f>
         <v>1</v>
       </c>
       <c r="J245" s="7">
@@ -18194,66 +18206,66 @@
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A246" s="11">
-        <v>45870</v>
-      </c>
-      <c r="B246" s="11">
-        <v>45867</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E246" s="11" t="s">
+      <c r="A246" s="43">
+        <v>45912</v>
+      </c>
+      <c r="B246" s="43">
+        <v>45905</v>
+      </c>
+      <c r="C246" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F246" s="12">
-        <v>68485</v>
-      </c>
-      <c r="G246" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="H246" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="I246" s="13">
-        <f t="shared" si="5"/>
+      <c r="F246" s="44">
+        <v>68531</v>
+      </c>
+      <c r="G246" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H246" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I246" s="46">
+        <f>NETWORKDAYS(B246, A246)</f>
+        <v>6</v>
+      </c>
+      <c r="J246" s="44">
+        <v>67125</v>
+      </c>
+      <c r="K246" s="44">
+        <v>11829</v>
+      </c>
+      <c r="L246" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="M246" s="43">
+        <v>45916</v>
+      </c>
+      <c r="N246" s="45">
+        <v>138</v>
+      </c>
+      <c r="O246" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="P246" s="44">
+        <v>30</v>
+      </c>
+      <c r="Q246" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R246" s="44">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>4</v>
       </c>
-      <c r="J246" s="12">
-        <v>66526</v>
-      </c>
-      <c r="K246" s="12">
-        <v>3061</v>
-      </c>
-      <c r="L246" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="M246" s="11">
-        <v>45891</v>
-      </c>
-      <c r="N246" s="14">
-        <v>1150</v>
-      </c>
-      <c r="O246" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P246" s="12">
-        <v>15</v>
-      </c>
-      <c r="Q246" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R246" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>21</v>
-      </c>
-      <c r="S246" s="14">
-        <v>0</v>
-      </c>
-      <c r="T246" s="14">
+      <c r="S246" s="45">
+        <v>0</v>
+      </c>
+      <c r="T246" s="45">
         <v>0</v>
       </c>
     </row>
@@ -18283,7 +18295,7 @@
         <v>32</v>
       </c>
       <c r="I247" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B247, A247)</f>
         <v>1</v>
       </c>
       <c r="J247" s="7">
@@ -18347,7 +18359,7 @@
         <v>97</v>
       </c>
       <c r="I248" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B248, A248)</f>
         <v>1</v>
       </c>
       <c r="J248" s="7">
@@ -18411,7 +18423,7 @@
         <v>97</v>
       </c>
       <c r="I249" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B249, A249)</f>
         <v>1</v>
       </c>
       <c r="J249" s="7">
@@ -18475,7 +18487,7 @@
         <v>125</v>
       </c>
       <c r="I250" s="46">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B250, A250)</f>
         <v>1</v>
       </c>
       <c r="J250" s="55">
@@ -18515,50 +18527,50 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
-        <v>45877</v>
+        <v>45856</v>
       </c>
       <c r="B251" s="11">
-        <v>45877</v>
+        <v>45856</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F251" s="12">
-        <v>68458</v>
+        <v>68466</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="I251" s="13">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B251, A251)</f>
         <v>1</v>
       </c>
       <c r="J251" s="12">
-        <v>66605</v>
+        <v>66337</v>
       </c>
       <c r="K251" s="12">
-        <v>561</v>
+        <v>11736</v>
       </c>
       <c r="L251" s="12" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="M251" s="11">
-        <v>45891</v>
+        <v>45916</v>
       </c>
       <c r="N251" s="14">
-        <v>758.53</v>
+        <v>16134.54</v>
       </c>
       <c r="O251" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P251" s="12">
         <v>28</v>
@@ -18568,10 +18580,10 @@
       </c>
       <c r="R251" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="S251" s="14">
-        <v>0</v>
+        <v>25720</v>
       </c>
       <c r="T251" s="14">
         <v>0</v>
@@ -18603,7 +18615,7 @@
         <v>90</v>
       </c>
       <c r="I252" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B252, A252)</f>
         <v>2</v>
       </c>
       <c r="J252" s="7">
@@ -18667,7 +18679,7 @@
         <v>32</v>
       </c>
       <c r="I253" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B253, A253)</f>
         <v>1</v>
       </c>
       <c r="J253" s="7">
@@ -18731,7 +18743,7 @@
         <v>32</v>
       </c>
       <c r="I254" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B254, A254)</f>
         <v>1</v>
       </c>
       <c r="J254" s="7">
@@ -18795,7 +18807,7 @@
         <v>90</v>
       </c>
       <c r="I255" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B255, A255)</f>
         <v>2</v>
       </c>
       <c r="J255" s="7">
@@ -18859,7 +18871,7 @@
         <v>97</v>
       </c>
       <c r="I256" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B256, A256)</f>
         <v>2</v>
       </c>
       <c r="J256" s="7">
@@ -18923,7 +18935,7 @@
         <v>97</v>
       </c>
       <c r="I257" s="10">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B257, A257)</f>
         <v>2</v>
       </c>
       <c r="J257" s="7">
@@ -18987,7 +18999,7 @@
         <v>125</v>
       </c>
       <c r="I258" s="10">
-        <f t="shared" ref="I258:I289" si="6">NETWORKDAYS(B258, A258)</f>
+        <f>NETWORKDAYS(B258, A258)</f>
         <v>8</v>
       </c>
       <c r="J258" s="7">
@@ -19025,67 +19037,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="6">
-        <v>45883</v>
-      </c>
-      <c r="B259" s="6">
-        <v>45880</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E259" s="6" t="s">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A259" s="11">
+        <v>45911</v>
+      </c>
+      <c r="B259" s="11">
+        <v>45910</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F259" s="7">
-        <v>68500</v>
-      </c>
-      <c r="G259" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H259" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I259" s="10">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J259" s="7">
-        <v>66708</v>
-      </c>
-      <c r="K259" s="7">
-        <v>4656</v>
-      </c>
-      <c r="L259" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M259" s="6">
-        <v>45891</v>
-      </c>
-      <c r="N259" s="8">
-        <v>2207.7399999999998</v>
-      </c>
-      <c r="O259" s="7" t="s">
+      <c r="F259" s="12">
+        <v>68539</v>
+      </c>
+      <c r="G259" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H259" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I259" s="13">
+        <f>NETWORKDAYS(B259, A259)</f>
+        <v>2</v>
+      </c>
+      <c r="J259" s="12">
+        <v>67103</v>
+      </c>
+      <c r="K259" s="12">
+        <v>10315</v>
+      </c>
+      <c r="L259" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="M259" s="11">
+        <v>45919</v>
+      </c>
+      <c r="N259" s="14">
+        <v>364</v>
+      </c>
+      <c r="O259" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="P259" s="7">
-        <v>28</v>
-      </c>
-      <c r="Q259" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R259" s="7">
+      <c r="P259" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q259" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R259" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>8</v>
       </c>
-      <c r="S259" s="8">
-        <v>0</v>
-      </c>
-      <c r="T259" s="8">
+      <c r="S259" s="14">
+        <v>0</v>
+      </c>
+      <c r="T259" s="14">
         <v>0</v>
       </c>
     </row>
@@ -19115,7 +19127,7 @@
         <v>125</v>
       </c>
       <c r="I260" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B260, A260)</f>
         <v>9</v>
       </c>
       <c r="J260" s="7">
@@ -19179,7 +19191,7 @@
         <v>32</v>
       </c>
       <c r="I261" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B261, A261)</f>
         <v>9</v>
       </c>
       <c r="J261" s="7">
@@ -19243,7 +19255,7 @@
         <v>97</v>
       </c>
       <c r="I262" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B262, A262)</f>
         <v>2</v>
       </c>
       <c r="J262" s="7">
@@ -19281,67 +19293,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="6">
-        <v>45890</v>
-      </c>
-      <c r="B263" s="6">
-        <v>45890</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D263" s="6" t="s">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A263" s="11">
+        <v>45911</v>
+      </c>
+      <c r="B263" s="11">
+        <v>45909</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E263" s="6" t="s">
+      <c r="E263" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F263" s="7">
-        <v>68510</v>
-      </c>
-      <c r="G263" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H263" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I263" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J263" s="7">
-        <v>66857</v>
-      </c>
-      <c r="K263" s="7">
-        <v>11810</v>
-      </c>
-      <c r="L263" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="M263" s="6">
-        <v>45891</v>
-      </c>
-      <c r="N263" s="8">
-        <v>37.47</v>
-      </c>
-      <c r="O263" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P263" s="7">
+      <c r="F263" s="12">
+        <v>68537</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H263" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I263" s="13">
+        <f>NETWORKDAYS(B263, A263)</f>
+        <v>3</v>
+      </c>
+      <c r="J263" s="12">
+        <v>67105</v>
+      </c>
+      <c r="K263" s="12">
+        <v>160</v>
+      </c>
+      <c r="L263" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="M263" s="11">
+        <v>45919</v>
+      </c>
+      <c r="N263" s="14">
+        <v>690.74</v>
+      </c>
+      <c r="O263" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P263" s="12">
         <v>30</v>
       </c>
-      <c r="Q263" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R263" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>1</v>
-      </c>
-      <c r="S263" s="8">
-        <v>0</v>
-      </c>
-      <c r="T263" s="8">
+      <c r="Q263" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R263" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S263" s="14">
+        <v>0</v>
+      </c>
+      <c r="T263" s="14">
         <v>0</v>
       </c>
     </row>
@@ -19371,7 +19383,7 @@
         <v>90</v>
       </c>
       <c r="I264" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B264, A264)</f>
         <v>3</v>
       </c>
       <c r="J264" s="7">
@@ -19435,7 +19447,7 @@
         <v>34</v>
       </c>
       <c r="I265" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B265, A265)</f>
         <v>2</v>
       </c>
       <c r="J265" s="7">
@@ -19499,7 +19511,7 @@
         <v>34</v>
       </c>
       <c r="I266" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B266, A266)</f>
         <v>1</v>
       </c>
       <c r="J266" s="7">
@@ -19563,7 +19575,7 @@
         <v>97</v>
       </c>
       <c r="I267" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B267, A267)</f>
         <v>16</v>
       </c>
       <c r="J267" s="7">
@@ -19627,7 +19639,7 @@
         <v>90</v>
       </c>
       <c r="I268" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B268, A268)</f>
         <v>1</v>
       </c>
       <c r="J268" s="7">
@@ -19667,10 +19679,10 @@
     </row>
     <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
-        <v>45891</v>
+        <v>45881</v>
       </c>
       <c r="B269" s="6">
-        <v>45883</v>
+        <v>45880</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>7</v>
@@ -19682,7 +19694,7 @@
         <v>112</v>
       </c>
       <c r="F269" s="7">
-        <v>68510</v>
+        <v>68500</v>
       </c>
       <c r="G269" s="7" t="s">
         <v>369</v>
@@ -19691,36 +19703,36 @@
         <v>370</v>
       </c>
       <c r="I269" s="10">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f>NETWORKDAYS(B269, A269)</f>
+        <v>2</v>
       </c>
       <c r="J269" s="7">
-        <v>66858</v>
+        <v>66660</v>
       </c>
       <c r="K269" s="7">
-        <v>11811</v>
+        <v>160</v>
       </c>
       <c r="L269" s="7" t="s">
-        <v>444</v>
+        <v>200</v>
       </c>
       <c r="M269" s="6">
-        <v>45894</v>
+        <v>45888</v>
       </c>
       <c r="N269" s="8">
-        <v>49.92</v>
+        <v>524.1</v>
       </c>
       <c r="O269" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P269" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q269" s="7" t="s">
         <v>115</v>
       </c>
       <c r="R269" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S269" s="8">
         <v>0</v>
@@ -19755,7 +19767,7 @@
         <v>32</v>
       </c>
       <c r="I270" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B270, A270)</f>
         <v>1</v>
       </c>
       <c r="J270" s="7">
@@ -19795,10 +19807,10 @@
     </row>
     <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
-        <v>45891</v>
+        <v>45883</v>
       </c>
       <c r="B271" s="6">
-        <v>45883</v>
+        <v>45880</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>7</v>
@@ -19810,7 +19822,7 @@
         <v>112</v>
       </c>
       <c r="F271" s="7">
-        <v>68510</v>
+        <v>68500</v>
       </c>
       <c r="G271" s="7" t="s">
         <v>369</v>
@@ -19819,36 +19831,36 @@
         <v>370</v>
       </c>
       <c r="I271" s="10">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f>NETWORKDAYS(B271, A271)</f>
+        <v>4</v>
       </c>
       <c r="J271" s="7">
-        <v>66860</v>
+        <v>66708</v>
       </c>
       <c r="K271" s="7">
-        <v>11812</v>
+        <v>4656</v>
       </c>
       <c r="L271" s="7" t="s">
-        <v>446</v>
+        <v>69</v>
       </c>
       <c r="M271" s="6">
-        <v>45894</v>
+        <v>45891</v>
       </c>
       <c r="N271" s="8">
-        <v>113.96</v>
+        <v>2207.7399999999998</v>
       </c>
       <c r="O271" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P271" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q271" s="7" t="s">
         <v>115</v>
       </c>
       <c r="R271" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S271" s="8">
         <v>0</v>
@@ -19883,7 +19895,7 @@
         <v>125</v>
       </c>
       <c r="I272" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B272, A272)</f>
         <v>1</v>
       </c>
       <c r="J272" s="7">
@@ -19921,140 +19933,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A273" s="11">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="6">
         <v>45888</v>
       </c>
-      <c r="B273" s="11">
+      <c r="B273" s="6">
         <v>45887</v>
       </c>
-      <c r="C273" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D273" s="11" t="s">
+      <c r="C273" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E273" s="11" t="s">
+      <c r="E273" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F273" s="12">
+      <c r="F273" s="7">
         <v>68512</v>
       </c>
-      <c r="G273" s="12" t="s">
+      <c r="G273" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H273" s="12" t="s">
+      <c r="H273" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I273" s="13">
-        <f t="shared" si="6"/>
+      <c r="I273" s="10">
+        <f>NETWORKDAYS(B273, A273)</f>
         <v>2</v>
       </c>
-      <c r="J273" s="12">
-        <v>66769</v>
-      </c>
-      <c r="K273" s="12">
+      <c r="J273" s="7">
+        <v>67057</v>
+      </c>
+      <c r="K273" s="7">
         <v>74</v>
       </c>
-      <c r="L273" s="12" t="s">
+      <c r="L273" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M273" s="11">
+      <c r="M273" s="6">
         <v>45896</v>
       </c>
-      <c r="N273" s="14">
+      <c r="N273" s="8">
         <v>1383.7</v>
       </c>
-      <c r="O273" s="12" t="s">
+      <c r="O273" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P273" s="12">
+      <c r="P273" s="7">
         <v>28</v>
       </c>
-      <c r="Q273" s="12" t="s">
+      <c r="Q273" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R273" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S273" s="8">
+        <v>0</v>
+      </c>
+      <c r="T273" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A274" s="11">
+        <v>45910</v>
+      </c>
+      <c r="B274" s="11">
+        <v>45910</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F274" s="12">
+        <v>68536</v>
+      </c>
+      <c r="G274" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H274" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I274" s="13">
+        <f>NETWORKDAYS(B274, A274)</f>
+        <v>1</v>
+      </c>
+      <c r="J274" s="12">
+        <v>67084</v>
+      </c>
+      <c r="K274" s="12">
+        <v>2954</v>
+      </c>
+      <c r="L274" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="M274" s="11">
+        <v>45919</v>
+      </c>
+      <c r="N274" s="14">
+        <v>621</v>
+      </c>
+      <c r="O274" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P274" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q274" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R273" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
-      </c>
-      <c r="S273" s="14">
-        <v>0</v>
-      </c>
-      <c r="T273" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A274" s="51">
-        <v>45868</v>
-      </c>
-      <c r="B274" s="51">
-        <v>45868</v>
-      </c>
-      <c r="C274" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D274" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E274" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="F274" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G274" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H274" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="I274" s="50">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J274" s="52">
-        <v>66504</v>
-      </c>
-      <c r="K274" s="52">
-        <v>3034</v>
-      </c>
-      <c r="L274" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="M274" s="51">
-        <v>45897</v>
-      </c>
-      <c r="N274" s="53">
-        <v>2220</v>
-      </c>
-      <c r="O274" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="P274" s="52">
-        <v>90</v>
-      </c>
-      <c r="Q274" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="R274" s="52">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
-      </c>
-      <c r="S274" s="53">
-        <v>80</v>
-      </c>
-      <c r="T274" s="53">
+      <c r="R274" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>9</v>
+      </c>
+      <c r="S274" s="14">
+        <v>0</v>
+      </c>
+      <c r="T274" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
-        <v>45895</v>
+        <v>45890</v>
       </c>
       <c r="B275" s="6">
-        <v>45895</v>
+        <v>45890</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>7</v>
@@ -20065,8 +20077,8 @@
       <c r="E275" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F275" s="7" t="s">
-        <v>3</v>
+      <c r="F275" s="7">
+        <v>68510</v>
       </c>
       <c r="G275" s="7" t="s">
         <v>369</v>
@@ -20075,36 +20087,36 @@
         <v>370</v>
       </c>
       <c r="I275" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B275, A275)</f>
         <v>1</v>
       </c>
       <c r="J275" s="7">
-        <v>66898</v>
+        <v>66857</v>
       </c>
       <c r="K275" s="7">
-        <v>160</v>
+        <v>11810</v>
       </c>
       <c r="L275" s="7" t="s">
-        <v>200</v>
+        <v>443</v>
       </c>
       <c r="M275" s="6">
-        <v>45898</v>
+        <v>45891</v>
       </c>
       <c r="N275" s="8">
-        <v>448</v>
+        <v>37.47</v>
       </c>
       <c r="O275" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P275" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q275" s="7" t="s">
         <v>115</v>
       </c>
       <c r="R275" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S275" s="8">
         <v>0</v>
@@ -20139,7 +20151,7 @@
         <v>129</v>
       </c>
       <c r="I276" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B276, A276)</f>
         <v>1</v>
       </c>
       <c r="J276" s="7">
@@ -20203,7 +20215,7 @@
         <v>32</v>
       </c>
       <c r="I277" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B277, A277)</f>
         <v>1</v>
       </c>
       <c r="J277" s="7">
@@ -20241,131 +20253,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A278" s="11">
-        <v>45875</v>
-      </c>
-      <c r="B278" s="11">
-        <v>45873</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D278" s="11" t="s">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B278" s="6">
+        <v>45889</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E278" s="11" t="s">
+      <c r="E278" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G278" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H278" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I278" s="10">
+        <f>NETWORKDAYS(B278, A278)</f>
+        <v>2</v>
+      </c>
+      <c r="J278" s="7">
+        <v>66847</v>
+      </c>
+      <c r="K278" s="7">
+        <v>11806</v>
+      </c>
+      <c r="L278" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M278" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N278" s="8">
+        <v>144.96</v>
+      </c>
+      <c r="O278" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P278" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q278" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R278" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S278" s="8">
+        <v>0</v>
+      </c>
+      <c r="T278" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="6">
+        <v>45894</v>
+      </c>
+      <c r="B279" s="6">
+        <v>45887</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F278" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G278" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H278" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I278" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J278" s="12">
-        <v>66430</v>
-      </c>
-      <c r="K278" s="12">
-        <v>333</v>
-      </c>
-      <c r="L278" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="M278" s="11">
-        <v>45901</v>
-      </c>
-      <c r="N278" s="42">
-        <v>1483685.03</v>
-      </c>
-      <c r="O278" s="11" t="s">
+      <c r="F279" s="7">
+        <v>68516</v>
+      </c>
+      <c r="G279" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H279" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I279" s="10">
+        <f>NETWORKDAYS(B279, A279)</f>
+        <v>6</v>
+      </c>
+      <c r="J279" s="7">
+        <v>66891</v>
+      </c>
+      <c r="K279" s="7">
+        <v>11622</v>
+      </c>
+      <c r="L279" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M279" s="6">
+        <v>45904</v>
+      </c>
+      <c r="N279" s="8">
+        <v>10103.200000000001</v>
+      </c>
+      <c r="O279" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P278" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q278" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R278" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>26</v>
-      </c>
-      <c r="S278" s="14">
-        <v>0</v>
-      </c>
-      <c r="T278" s="14">
-        <v>59008.35</v>
-      </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A279" s="11">
-        <v>45856</v>
-      </c>
-      <c r="B279" s="11">
-        <v>45856</v>
-      </c>
-      <c r="C279" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D279" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E279" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F279" s="12">
-        <v>68466</v>
-      </c>
-      <c r="G279" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H279" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I279" s="13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J279" s="12">
-        <v>66337</v>
-      </c>
-      <c r="K279" s="12">
-        <v>11736</v>
-      </c>
-      <c r="L279" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M279" s="11">
-        <v>45902</v>
-      </c>
-      <c r="N279" s="14">
-        <v>16134.54</v>
-      </c>
-      <c r="O279" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="P279" s="12">
+      <c r="P279" s="7">
         <v>28</v>
       </c>
-      <c r="Q279" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R279" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>46</v>
-      </c>
-      <c r="S279" s="14">
-        <v>25720</v>
-      </c>
-      <c r="T279" s="14">
+      <c r="Q279" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R279" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>10</v>
+      </c>
+      <c r="S279" s="8">
+        <v>0</v>
+      </c>
+      <c r="T279" s="8">
         <v>0</v>
       </c>
     </row>
@@ -20395,7 +20407,7 @@
         <v>97</v>
       </c>
       <c r="I280" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B280, A280)</f>
         <v>2</v>
       </c>
       <c r="J280" s="7">
@@ -20459,7 +20471,7 @@
         <v>129</v>
       </c>
       <c r="I281" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B281, A281)</f>
         <v>1</v>
       </c>
       <c r="J281" s="7">
@@ -20523,7 +20535,7 @@
         <v>90</v>
       </c>
       <c r="I282" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B282, A282)</f>
         <v>1</v>
       </c>
       <c r="J282" s="7">
@@ -20587,7 +20599,7 @@
         <v>90</v>
       </c>
       <c r="I283" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B283, A283)</f>
         <v>2</v>
       </c>
       <c r="J283" s="7">
@@ -20597,7 +20609,7 @@
         <v>11817</v>
       </c>
       <c r="L283" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M283" s="6">
         <v>45903</v>
@@ -20651,7 +20663,7 @@
         <v>97</v>
       </c>
       <c r="I284" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B284, A284)</f>
         <v>8</v>
       </c>
       <c r="J284" s="7">
@@ -20691,10 +20703,10 @@
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285" s="11">
-        <v>45894</v>
+        <v>45911</v>
       </c>
       <c r="B285" s="11">
-        <v>45887</v>
+        <v>45910</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>7</v>
@@ -20703,48 +20715,48 @@
         <v>15</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F285" s="12">
-        <v>68516</v>
+        <v>68540</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>229</v>
+        <v>369</v>
       </c>
       <c r="H285" s="12" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="I285" s="13">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>NETWORKDAYS(B285, A285)</f>
+        <v>2</v>
       </c>
       <c r="J285" s="12">
-        <v>66891</v>
+        <v>67104</v>
       </c>
       <c r="K285" s="12">
-        <v>11622</v>
+        <v>2289</v>
       </c>
       <c r="L285" s="12" t="s">
-        <v>449</v>
+        <v>358</v>
       </c>
       <c r="M285" s="11">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="N285" s="14">
-        <v>10103.200000000001</v>
+        <v>620.63</v>
       </c>
       <c r="O285" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P285" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R285" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S285" s="14">
         <v>0</v>
@@ -20753,67 +20765,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A286" s="62">
-        <v>45840</v>
-      </c>
-      <c r="B286" s="62">
-        <v>45840</v>
-      </c>
-      <c r="C286" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D286" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E286" s="62" t="s">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B286" s="6">
+        <v>45883</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F286" s="63">
-        <v>68452</v>
-      </c>
-      <c r="G286" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H286" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="I286" s="64">
-        <f t="shared" si="6"/>
+      <c r="F286" s="7">
+        <v>68510</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H286" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I286" s="10">
+        <f>NETWORKDAYS(B286, A286)</f>
+        <v>6</v>
+      </c>
+      <c r="J286" s="7">
+        <v>66853</v>
+      </c>
+      <c r="K286" s="7">
+        <v>11807</v>
+      </c>
+      <c r="L286" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M286" s="6">
+        <v>45891</v>
+      </c>
+      <c r="N286" s="8">
+        <v>74.7</v>
+      </c>
+      <c r="O286" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P286" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q286" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R286" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>1</v>
       </c>
-      <c r="J286" s="63">
-        <v>66037</v>
-      </c>
-      <c r="K286" s="63">
-        <v>11775</v>
-      </c>
-      <c r="L286" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="M286" s="62">
-        <v>45905</v>
-      </c>
-      <c r="N286" s="65">
-        <v>1750</v>
-      </c>
-      <c r="O286" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="P286" s="63">
-        <v>30</v>
-      </c>
-      <c r="Q286" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="R286" s="63">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>65</v>
-      </c>
-      <c r="S286" s="65">
-        <v>0</v>
-      </c>
-      <c r="T286" s="65">
+      <c r="S286" s="8">
+        <v>0</v>
+      </c>
+      <c r="T286" s="8">
         <v>0</v>
       </c>
     </row>
@@ -20843,7 +20855,7 @@
         <v>90</v>
       </c>
       <c r="I287" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B287, A287)</f>
         <v>1</v>
       </c>
       <c r="J287" s="7">
@@ -20907,7 +20919,7 @@
         <v>370</v>
       </c>
       <c r="I288" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B288, A288)</f>
         <v>1</v>
       </c>
       <c r="J288" s="7">
@@ -20971,7 +20983,7 @@
         <v>370</v>
       </c>
       <c r="I289" s="10">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B289, A289)</f>
         <v>1</v>
       </c>
       <c r="J289" s="7">
@@ -21035,7 +21047,7 @@
         <v>137</v>
       </c>
       <c r="I290" s="10">
-        <f t="shared" ref="I290:I324" si="7">NETWORKDAYS(B290, A290)</f>
+        <f>NETWORKDAYS(B290, A290)</f>
         <v>1</v>
       </c>
       <c r="J290" s="7">
@@ -21099,7 +21111,7 @@
         <v>32</v>
       </c>
       <c r="I291" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B291, A291)</f>
         <v>1</v>
       </c>
       <c r="J291" s="7">
@@ -21163,7 +21175,7 @@
         <v>129</v>
       </c>
       <c r="I292" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B292, A292)</f>
         <v>1</v>
       </c>
       <c r="J292" s="7">
@@ -21227,7 +21239,7 @@
         <v>129</v>
       </c>
       <c r="I293" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B293, A293)</f>
         <v>1</v>
       </c>
       <c r="J293" s="7">
@@ -21291,7 +21303,7 @@
         <v>129</v>
       </c>
       <c r="I294" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B294, A294)</f>
         <v>1</v>
       </c>
       <c r="J294" s="7">
@@ -21355,7 +21367,7 @@
         <v>32</v>
       </c>
       <c r="I295" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B295, A295)</f>
         <v>1</v>
       </c>
       <c r="J295" s="7">
@@ -21419,7 +21431,7 @@
         <v>32</v>
       </c>
       <c r="I296" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B296, A296)</f>
         <v>1</v>
       </c>
       <c r="J296" s="7">
@@ -21457,67 +21469,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A297" s="11">
-        <v>45848</v>
-      </c>
-      <c r="B297" s="11">
-        <v>45848</v>
-      </c>
-      <c r="C297" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D297" s="11" t="s">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="6">
+        <v>45887</v>
+      </c>
+      <c r="B297" s="6">
+        <v>45887</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E297" s="11" t="s">
+      <c r="E297" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F297" s="12">
-        <v>68457</v>
-      </c>
-      <c r="G297" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H297" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I297" s="13">
-        <f t="shared" si="7"/>
+      <c r="F297" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G297" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H297" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I297" s="10">
+        <f>NETWORKDAYS(B297, A297)</f>
         <v>1</v>
       </c>
-      <c r="J297" s="12">
-        <v>66126</v>
-      </c>
-      <c r="K297" s="12">
-        <v>2931</v>
-      </c>
-      <c r="L297" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="M297" s="11">
+      <c r="J297" s="7">
+        <v>66740</v>
+      </c>
+      <c r="K297" s="7">
+        <v>11799</v>
+      </c>
+      <c r="L297" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M297" s="6">
         <v>45905</v>
       </c>
-      <c r="N297" s="14">
-        <v>3500</v>
-      </c>
-      <c r="O297" s="12" t="s">
+      <c r="N297" s="8">
+        <v>7290</v>
+      </c>
+      <c r="O297" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P297" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q297" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R297" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
-      </c>
-      <c r="S297" s="14">
-        <v>320</v>
-      </c>
-      <c r="T297" s="14">
+      <c r="P297" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q297" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R297" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>18</v>
+      </c>
+      <c r="S297" s="8">
+        <v>0</v>
+      </c>
+      <c r="T297" s="8">
         <v>0</v>
       </c>
     </row>
@@ -21526,7 +21538,7 @@
         <v>45890</v>
       </c>
       <c r="B298" s="6">
-        <v>45889</v>
+        <v>45883</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>7</v>
@@ -21537,8 +21549,8 @@
       <c r="E298" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F298" s="7" t="s">
-        <v>3</v>
+      <c r="F298" s="7">
+        <v>68510</v>
       </c>
       <c r="G298" s="7" t="s">
         <v>369</v>
@@ -21547,23 +21559,23 @@
         <v>370</v>
       </c>
       <c r="I298" s="10">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B298, A298)</f>
+        <v>6</v>
       </c>
       <c r="J298" s="7">
-        <v>66847</v>
+        <v>66854</v>
       </c>
       <c r="K298" s="7">
-        <v>11806</v>
+        <v>11808</v>
       </c>
       <c r="L298" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M298" s="6">
         <v>45891</v>
       </c>
       <c r="N298" s="8">
-        <v>144.96</v>
+        <v>263.94</v>
       </c>
       <c r="O298" s="7" t="s">
         <v>122</v>
@@ -21611,23 +21623,23 @@
         <v>370</v>
       </c>
       <c r="I299" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B299, A299)</f>
         <v>6</v>
       </c>
       <c r="J299" s="7">
-        <v>66853</v>
+        <v>66856</v>
       </c>
       <c r="K299" s="7">
-        <v>11807</v>
+        <v>11809</v>
       </c>
       <c r="L299" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M299" s="6">
         <v>45891</v>
       </c>
       <c r="N299" s="8">
-        <v>74.7</v>
+        <v>77.91</v>
       </c>
       <c r="O299" s="7" t="s">
         <v>122</v>
@@ -21651,7 +21663,7 @@
     </row>
     <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B300" s="6">
         <v>45883</v>
@@ -21675,23 +21687,23 @@
         <v>370</v>
       </c>
       <c r="I300" s="10">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f>NETWORKDAYS(B300, A300)</f>
+        <v>7</v>
       </c>
       <c r="J300" s="7">
-        <v>66854</v>
+        <v>66858</v>
       </c>
       <c r="K300" s="7">
-        <v>11808</v>
+        <v>11811</v>
       </c>
       <c r="L300" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M300" s="6">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="N300" s="8">
-        <v>263.94</v>
+        <v>49.92</v>
       </c>
       <c r="O300" s="7" t="s">
         <v>122</v>
@@ -21704,7 +21716,7 @@
       </c>
       <c r="R300" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S300" s="8">
         <v>0</v>
@@ -21715,7 +21727,7 @@
     </row>
     <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B301" s="6">
         <v>45883</v>
@@ -21739,23 +21751,23 @@
         <v>370</v>
       </c>
       <c r="I301" s="10">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f>NETWORKDAYS(B301, A301)</f>
+        <v>7</v>
       </c>
       <c r="J301" s="7">
-        <v>66856</v>
+        <v>66860</v>
       </c>
       <c r="K301" s="7">
-        <v>11809</v>
+        <v>11812</v>
       </c>
       <c r="L301" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M301" s="6">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="N301" s="8">
-        <v>77.91</v>
+        <v>113.96</v>
       </c>
       <c r="O301" s="7" t="s">
         <v>122</v>
@@ -21768,7 +21780,7 @@
       </c>
       <c r="R301" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S301" s="8">
         <v>0</v>
@@ -21803,7 +21815,7 @@
         <v>34</v>
       </c>
       <c r="I302" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B302, A302)</f>
         <v>2</v>
       </c>
       <c r="J302" s="7">
@@ -21867,7 +21879,7 @@
         <v>125</v>
       </c>
       <c r="I303" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B303, A303)</f>
         <v>16</v>
       </c>
       <c r="J303" s="7">
@@ -21906,66 +21918,66 @@
       </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A304" s="51">
-        <v>45887</v>
-      </c>
-      <c r="B304" s="51">
-        <v>45887</v>
-      </c>
-      <c r="C304" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D304" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E304" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="F304" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G304" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="H304" s="52" t="s">
+      <c r="A304" s="11">
+        <v>45891</v>
+      </c>
+      <c r="B304" s="11">
+        <v>45890</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F304" s="12">
+        <v>68517</v>
+      </c>
+      <c r="G304" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H304" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I304" s="50">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J304" s="52">
-        <v>66740</v>
-      </c>
-      <c r="K304" s="52">
-        <v>11799</v>
-      </c>
-      <c r="L304" s="52" t="s">
-        <v>415</v>
-      </c>
-      <c r="M304" s="51">
-        <v>45905</v>
-      </c>
-      <c r="N304" s="53">
-        <v>7290</v>
-      </c>
-      <c r="O304" s="52" t="s">
+      <c r="I304" s="13">
+        <f>NETWORKDAYS(B304, A304)</f>
+        <v>2</v>
+      </c>
+      <c r="J304" s="12">
+        <v>66866</v>
+      </c>
+      <c r="K304" s="12">
+        <v>1277</v>
+      </c>
+      <c r="L304" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="M304" s="11">
+        <v>45922</v>
+      </c>
+      <c r="N304" s="14">
+        <v>894.6</v>
+      </c>
+      <c r="O304" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="P304" s="52">
-        <v>10</v>
-      </c>
-      <c r="Q304" s="52" t="s">
+      <c r="P304" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q304" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R304" s="52">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>18</v>
-      </c>
-      <c r="S304" s="53">
-        <v>0</v>
-      </c>
-      <c r="T304" s="53">
+      <c r="R304" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S304" s="14">
+        <v>0</v>
+      </c>
+      <c r="T304" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21995,7 +22007,7 @@
         <v>32</v>
       </c>
       <c r="I305" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B305, A305)</f>
         <v>1</v>
       </c>
       <c r="J305" s="7">
@@ -22033,195 +22045,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A306" s="11">
-        <v>45877</v>
-      </c>
-      <c r="B306" s="11">
-        <v>45873</v>
-      </c>
-      <c r="C306" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D306" s="11" t="s">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="6">
+        <v>45867</v>
+      </c>
+      <c r="B306" s="6">
+        <v>45866</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F306" s="7">
+        <v>68483</v>
+      </c>
+      <c r="G306" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H306" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I306" s="10">
+        <f>NETWORKDAYS(B306, A306)</f>
+        <v>2</v>
+      </c>
+      <c r="J306" s="7">
+        <v>66467</v>
+      </c>
+      <c r="K306" s="7">
+        <v>11164</v>
+      </c>
+      <c r="L306" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M306" s="6">
+        <v>45908</v>
+      </c>
+      <c r="N306" s="8">
+        <v>2623.03</v>
+      </c>
+      <c r="O306" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P306" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q306" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R306" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>41</v>
+      </c>
+      <c r="S306" s="8">
+        <v>52</v>
+      </c>
+      <c r="T306" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B307" s="6">
+        <v>45897</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F307" s="7">
+        <v>68523</v>
+      </c>
+      <c r="G307" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H307" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I307" s="10">
+        <f>NETWORKDAYS(B307, A307)</f>
+        <v>3</v>
+      </c>
+      <c r="J307" s="7">
+        <v>67057</v>
+      </c>
+      <c r="K307" s="7">
+        <v>74</v>
+      </c>
+      <c r="L307" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M307" s="6">
+        <v>45908</v>
+      </c>
+      <c r="N307" s="8">
+        <v>149.85</v>
+      </c>
+      <c r="O307" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P307" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q307" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R307" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>7</v>
+      </c>
+      <c r="S307" s="8">
+        <v>0</v>
+      </c>
+      <c r="T307" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="6">
+        <v>45903</v>
+      </c>
+      <c r="B308" s="6">
+        <v>45903</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E306" s="11" t="s">
+      <c r="E308" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F306" s="12">
-        <v>68493</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="H306" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I306" s="13">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="J306" s="12">
-        <v>66607</v>
-      </c>
-      <c r="K306" s="12">
-        <v>1586</v>
-      </c>
-      <c r="L306" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="M306" s="11">
-        <v>45907</v>
-      </c>
-      <c r="N306" s="14">
-        <v>680</v>
-      </c>
-      <c r="O306" s="12" t="s">
+      <c r="F308" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H308" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I308" s="10">
+        <f>NETWORKDAYS(B308, A308)</f>
+        <v>1</v>
+      </c>
+      <c r="J308" s="7">
+        <v>67017</v>
+      </c>
+      <c r="K308" s="7">
+        <v>1632</v>
+      </c>
+      <c r="L308" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M308" s="6">
+        <v>45911</v>
+      </c>
+      <c r="N308" s="8">
+        <v>900</v>
+      </c>
+      <c r="O308" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P306" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q306" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R306" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>30</v>
-      </c>
-      <c r="S306" s="14">
-        <v>0</v>
-      </c>
-      <c r="T306" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A307" s="11">
-        <v>45867</v>
-      </c>
-      <c r="B307" s="11">
-        <v>45866</v>
-      </c>
-      <c r="C307" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F307" s="12">
-        <v>68483</v>
-      </c>
-      <c r="G307" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H307" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I307" s="13">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J307" s="12">
-        <v>66467</v>
-      </c>
-      <c r="K307" s="12">
-        <v>11164</v>
-      </c>
-      <c r="L307" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="M307" s="11">
-        <v>45908</v>
-      </c>
-      <c r="N307" s="14">
-        <v>2623.03</v>
-      </c>
-      <c r="O307" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P307" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q307" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R307" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>41</v>
-      </c>
-      <c r="S307" s="14">
-        <v>52</v>
-      </c>
-      <c r="T307" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A308" s="11">
-        <v>45901</v>
-      </c>
-      <c r="B308" s="11">
-        <v>45897</v>
-      </c>
-      <c r="C308" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D308" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E308" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F308" s="12">
-        <v>68523</v>
-      </c>
-      <c r="G308" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="H308" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I308" s="13">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="J308" s="12">
-        <v>66944</v>
-      </c>
-      <c r="K308" s="12">
-        <v>74</v>
-      </c>
-      <c r="L308" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M308" s="11">
-        <v>45908</v>
-      </c>
-      <c r="N308" s="14">
-        <v>149.85</v>
-      </c>
-      <c r="O308" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P308" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q308" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R308" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>7</v>
-      </c>
-      <c r="S308" s="14">
-        <v>0</v>
-      </c>
-      <c r="T308" s="14">
+      <c r="P308" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q308" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R308" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>8</v>
+      </c>
+      <c r="S308" s="8">
+        <v>60</v>
+      </c>
+      <c r="T308" s="8">
         <v>0</v>
       </c>
     </row>
@@ -22251,7 +22263,7 @@
         <v>97</v>
       </c>
       <c r="I309" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B309, A309)</f>
         <v>1</v>
       </c>
       <c r="J309" s="7">
@@ -22315,7 +22327,7 @@
         <v>32</v>
       </c>
       <c r="I310" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B310, A310)</f>
         <v>1</v>
       </c>
       <c r="J310" s="7">
@@ -22353,67 +22365,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A311" s="11">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="6">
         <v>45891</v>
       </c>
-      <c r="B311" s="11">
+      <c r="B311" s="6">
         <v>45890</v>
       </c>
-      <c r="C311" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D311" s="11" t="s">
+      <c r="C311" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E311" s="11" t="s">
+      <c r="E311" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F311" s="12">
+      <c r="F311" s="7">
         <v>68520</v>
       </c>
-      <c r="G311" s="12" t="s">
+      <c r="G311" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H311" s="12" t="s">
+      <c r="H311" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="I311" s="13">
-        <f t="shared" si="7"/>
+      <c r="I311" s="10">
+        <f>NETWORKDAYS(B311, A311)</f>
         <v>2</v>
       </c>
-      <c r="J311" s="12">
+      <c r="J311" s="7">
         <v>66868</v>
       </c>
-      <c r="K311" s="12">
+      <c r="K311" s="7">
         <v>11813</v>
       </c>
-      <c r="L311" s="12" t="s">
+      <c r="L311" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="M311" s="11">
+      <c r="M311" s="6">
         <v>45912</v>
       </c>
-      <c r="N311" s="14">
+      <c r="N311" s="8">
         <v>6275</v>
       </c>
-      <c r="O311" s="12" t="s">
+      <c r="O311" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P311" s="12">
+      <c r="P311" s="7">
         <v>15</v>
       </c>
-      <c r="Q311" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R311" s="12">
+      <c r="Q311" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R311" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>21</v>
       </c>
-      <c r="S311" s="14">
+      <c r="S311" s="8">
         <v>225</v>
       </c>
-      <c r="T311" s="14">
+      <c r="T311" s="8">
         <v>0</v>
       </c>
     </row>
@@ -22443,7 +22455,7 @@
         <v>125</v>
       </c>
       <c r="I312" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B312, A312)</f>
         <v>2</v>
       </c>
       <c r="J312" s="7">
@@ -22482,189 +22494,189 @@
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A313" s="51">
+      <c r="A313" s="11">
+        <v>45891</v>
+      </c>
+      <c r="B313" s="11">
+        <v>45882</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E313" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F313" s="12">
+        <v>68505</v>
+      </c>
+      <c r="G313" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H313" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I313" s="13">
+        <f>NETWORKDAYS(B313, A313)</f>
+        <v>8</v>
+      </c>
+      <c r="J313" s="12">
+        <v>66867</v>
+      </c>
+      <c r="K313" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L313" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="M313" s="11">
+        <v>45922</v>
+      </c>
+      <c r="N313" s="14">
+        <v>6358.8</v>
+      </c>
+      <c r="O313" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P313" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q313" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R313" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S313" s="14">
+        <v>0</v>
+      </c>
+      <c r="T313" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="6">
         <v>45889</v>
       </c>
-      <c r="B313" s="51">
+      <c r="B314" s="6">
         <v>45889</v>
       </c>
-      <c r="C313" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313" s="51" t="s">
+      <c r="C314" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E313" s="51" t="s">
+      <c r="E314" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F313" s="52">
+      <c r="F314" s="7">
         <v>68518</v>
       </c>
-      <c r="G313" s="52" t="s">
+      <c r="G314" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H313" s="52" t="s">
+      <c r="H314" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I313" s="50">
-        <f t="shared" si="7"/>
+      <c r="I314" s="10">
+        <f>NETWORKDAYS(B314, A314)</f>
         <v>1</v>
       </c>
-      <c r="J313" s="52">
+      <c r="J314" s="7">
         <v>66812</v>
       </c>
-      <c r="K313" s="52">
+      <c r="K314" s="7">
         <v>10677</v>
       </c>
-      <c r="L313" s="52" t="s">
+      <c r="L314" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="M313" s="51">
+      <c r="M314" s="6">
         <v>45920</v>
       </c>
-      <c r="N313" s="53">
+      <c r="N314" s="8">
         <v>3600</v>
       </c>
-      <c r="O313" s="52" t="s">
+      <c r="O314" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P313" s="52">
+      <c r="P314" s="7">
         <v>30</v>
       </c>
-      <c r="Q313" s="52" t="s">
-        <v>448</v>
-      </c>
-      <c r="R313" s="52">
+      <c r="Q314" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R314" s="7">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>31</v>
       </c>
-      <c r="S313" s="53">
-        <v>0</v>
-      </c>
-      <c r="T313" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A314" s="11">
-        <v>45891</v>
-      </c>
-      <c r="B314" s="11">
-        <v>45890</v>
-      </c>
-      <c r="C314" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D314" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F314" s="12">
-        <v>68517</v>
-      </c>
-      <c r="G314" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H314" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I314" s="13">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J314" s="12">
-        <v>66866</v>
-      </c>
-      <c r="K314" s="12">
-        <v>1277</v>
-      </c>
-      <c r="L314" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="M314" s="11">
-        <v>45922</v>
-      </c>
-      <c r="N314" s="14">
-        <v>894.6</v>
-      </c>
-      <c r="O314" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P314" s="12">
-        <v>35</v>
-      </c>
-      <c r="Q314" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R314" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S314" s="14">
-        <v>0</v>
-      </c>
-      <c r="T314" s="14">
+      <c r="S314" s="8">
+        <v>0</v>
+      </c>
+      <c r="T314" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315" s="11">
-        <v>45891</v>
+        <v>45912</v>
       </c>
       <c r="B315" s="11">
-        <v>45882</v>
+        <v>45912</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F315" s="12">
-        <v>68505</v>
+        <v>123</v>
+      </c>
+      <c r="F315" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="H315" s="12" t="s">
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="I315" s="13">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <f>NETWORKDAYS(B315, A315)</f>
+        <v>1</v>
       </c>
       <c r="J315" s="12">
-        <v>66867</v>
+        <v>67130</v>
       </c>
       <c r="K315" s="12">
-        <v>3061</v>
+        <v>11832</v>
       </c>
       <c r="L315" s="12" t="s">
-        <v>191</v>
+        <v>473</v>
       </c>
       <c r="M315" s="11">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="N315" s="14">
-        <v>6358.8</v>
+        <v>1000</v>
       </c>
       <c r="O315" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P315" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q315" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R315" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="S315" s="14">
         <v>0</v>
@@ -22699,7 +22711,7 @@
         <v>97</v>
       </c>
       <c r="I316" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B316, A316)</f>
         <v>1</v>
       </c>
       <c r="J316" s="7">
@@ -22737,195 +22749,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A317" s="11">
-        <v>45896</v>
-      </c>
-      <c r="B317" s="11">
-        <v>45866</v>
-      </c>
-      <c r="C317" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D317" s="11" t="s">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="6">
+        <v>45895</v>
+      </c>
+      <c r="B317" s="6">
+        <v>45895</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E317" s="11" t="s">
+      <c r="E317" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F317" s="12">
-        <v>68484</v>
-      </c>
-      <c r="G317" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H317" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I317" s="13">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="J317" s="12">
-        <v>66912</v>
-      </c>
-      <c r="K317" s="12">
-        <v>10644</v>
-      </c>
-      <c r="L317" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="M317" s="11">
-        <v>45927</v>
-      </c>
-      <c r="N317" s="14">
-        <v>60757.599999999999</v>
-      </c>
-      <c r="O317" s="12" t="s">
+      <c r="F317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G317" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H317" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I317" s="10">
+        <f>NETWORKDAYS(B317, A317)</f>
+        <v>1</v>
+      </c>
+      <c r="J317" s="7">
+        <v>66898</v>
+      </c>
+      <c r="K317" s="7">
+        <v>160</v>
+      </c>
+      <c r="L317" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M317" s="6">
+        <v>45898</v>
+      </c>
+      <c r="N317" s="8">
+        <v>448</v>
+      </c>
+      <c r="O317" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P317" s="12">
-        <v>40</v>
-      </c>
-      <c r="Q317" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R317" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S317" s="14">
-        <v>38888</v>
-      </c>
-      <c r="T317" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A318" s="11">
+      <c r="P317" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q317" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R317" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S317" s="8">
+        <v>0</v>
+      </c>
+      <c r="T317" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="6">
+        <v>45903</v>
+      </c>
+      <c r="B318" s="6">
         <v>45901</v>
       </c>
-      <c r="B318" s="11">
-        <v>45895</v>
-      </c>
-      <c r="C318" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D318" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E318" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F318" s="12">
-        <v>68521</v>
-      </c>
-      <c r="G318" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="H318" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I318" s="13">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="J318" s="12">
-        <v>66945</v>
-      </c>
-      <c r="K318" s="12">
-        <v>11590</v>
-      </c>
-      <c r="L318" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="M318" s="11">
-        <v>45930</v>
-      </c>
-      <c r="N318" s="14">
-        <v>8500</v>
-      </c>
-      <c r="O318" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P318" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q318" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R318" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
-      </c>
-      <c r="S318" s="14">
-        <v>636.26</v>
-      </c>
-      <c r="T318" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A319" s="11">
-        <v>45870</v>
-      </c>
-      <c r="B319" s="11">
-        <v>45870</v>
-      </c>
-      <c r="C319" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D319" s="11" t="s">
+      <c r="C318" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E319" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F319" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G319" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H319" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="I319" s="13">
-        <f t="shared" si="7"/>
+      <c r="E318" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F318" s="7">
+        <v>68526</v>
+      </c>
+      <c r="G318" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H318" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I318" s="10">
+        <f>NETWORKDAYS(B318, A318)</f>
+        <v>3</v>
+      </c>
+      <c r="J318" s="7">
+        <v>67018</v>
+      </c>
+      <c r="K318" s="7">
+        <v>11819</v>
+      </c>
+      <c r="L318" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M318" s="6">
+        <v>45904</v>
+      </c>
+      <c r="N318" s="8">
+        <v>35.49</v>
+      </c>
+      <c r="O318" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P318" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q318" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R318" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>1</v>
       </c>
-      <c r="J319" s="12">
-        <v>66430</v>
-      </c>
-      <c r="K319" s="12">
-        <v>333</v>
-      </c>
-      <c r="L319" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="M319" s="11">
-        <v>46113</v>
-      </c>
-      <c r="N319" s="14">
-        <v>281569.34000000003</v>
-      </c>
-      <c r="O319" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P319" s="12">
-        <v>120</v>
-      </c>
-      <c r="Q319" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R319" s="12">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>243</v>
-      </c>
-      <c r="S319" s="14">
-        <v>0</v>
-      </c>
-      <c r="T319" s="14">
+      <c r="S318" s="8">
+        <v>0</v>
+      </c>
+      <c r="T318" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="6">
+        <v>45903</v>
+      </c>
+      <c r="B319" s="6">
+        <v>45901</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F319" s="7">
+        <v>68526</v>
+      </c>
+      <c r="G319" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H319" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I319" s="10">
+        <f>NETWORKDAYS(B319, A319)</f>
+        <v>3</v>
+      </c>
+      <c r="J319" s="7">
+        <v>67019</v>
+      </c>
+      <c r="K319" s="7">
+        <v>11821</v>
+      </c>
+      <c r="L319" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="M319" s="6">
+        <v>45904</v>
+      </c>
+      <c r="N319" s="8">
+        <v>17.86</v>
+      </c>
+      <c r="O319" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P319" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q319" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R319" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S319" s="8">
+        <v>0</v>
+      </c>
+      <c r="T319" s="8">
         <v>0</v>
       </c>
     </row>
@@ -22955,7 +22967,7 @@
         <v>137</v>
       </c>
       <c r="I320" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B320, A320)</f>
         <v>1</v>
       </c>
       <c r="J320" s="7">
@@ -23019,7 +23031,7 @@
         <v>129</v>
       </c>
       <c r="I321" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B321, A321)</f>
         <v>1</v>
       </c>
       <c r="J321" s="7">
@@ -23083,7 +23095,7 @@
         <v>129</v>
       </c>
       <c r="I322" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B322, A322)</f>
         <v>1</v>
       </c>
       <c r="J322" s="7">
@@ -23093,7 +23105,7 @@
         <v>11527</v>
       </c>
       <c r="L322" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M322" s="6">
         <v>45903</v>
@@ -23147,7 +23159,7 @@
         <v>129</v>
       </c>
       <c r="I323" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B323, A323)</f>
         <v>1</v>
       </c>
       <c r="J323" s="7">
@@ -23157,7 +23169,7 @@
         <v>11527</v>
       </c>
       <c r="L323" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M323" s="6">
         <v>45903</v>
@@ -23211,7 +23223,7 @@
         <v>137</v>
       </c>
       <c r="I324" s="10">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B324, A324)</f>
         <v>1</v>
       </c>
       <c r="J324" s="7">
@@ -23275,7 +23287,7 @@
         <v>32</v>
       </c>
       <c r="I325" s="30">
-        <f t="shared" ref="I325:I331" si="8">NETWORKDAYS(B325, A325)</f>
+        <f>NETWORKDAYS(B325, A325)</f>
         <v>1</v>
       </c>
       <c r="J325" s="28">
@@ -23339,7 +23351,7 @@
         <v>32</v>
       </c>
       <c r="I326" s="10">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B326, A326)</f>
         <v>1</v>
       </c>
       <c r="J326" s="7">
@@ -23403,7 +23415,7 @@
         <v>129</v>
       </c>
       <c r="I327" s="10">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B327, A327)</f>
         <v>1</v>
       </c>
       <c r="J327" s="7">
@@ -23443,10 +23455,10 @@
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A328" s="11">
-        <v>45903</v>
+        <v>45848</v>
       </c>
       <c r="B328" s="11">
-        <v>45903</v>
+        <v>45848</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>7</v>
@@ -23457,8 +23469,8 @@
       <c r="E328" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F328" s="12" t="s">
-        <v>3</v>
+      <c r="F328" s="12">
+        <v>68457</v>
       </c>
       <c r="G328" s="12" t="s">
         <v>33</v>
@@ -23467,39 +23479,39 @@
         <v>34</v>
       </c>
       <c r="I328" s="13">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B328, A328)</f>
         <v>1</v>
       </c>
       <c r="J328" s="12">
-        <v>67017</v>
+        <v>66126</v>
       </c>
       <c r="K328" s="12">
-        <v>1632</v>
+        <v>2931</v>
       </c>
       <c r="L328" s="12" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="M328" s="11">
-        <v>45911</v>
+        <v>45925</v>
       </c>
       <c r="N328" s="14">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="O328" s="12" t="s">
         <v>121</v>
       </c>
       <c r="P328" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q328" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R328" s="12">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="S328" s="14">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="T328" s="14">
         <v>0</v>
@@ -23531,29 +23543,29 @@
         <v>370</v>
       </c>
       <c r="I329" s="10">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B329, A329)</f>
         <v>3</v>
       </c>
       <c r="J329" s="7">
-        <v>67018</v>
+        <v>67020</v>
       </c>
       <c r="K329" s="7">
-        <v>11819</v>
+        <v>11822</v>
       </c>
       <c r="L329" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M329" s="6">
         <v>45904</v>
       </c>
       <c r="N329" s="8">
-        <v>35.49</v>
+        <v>18</v>
       </c>
       <c r="O329" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P329" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q329" s="7" t="s">
         <v>115</v>
@@ -23569,131 +23581,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="6">
-        <v>45903</v>
-      </c>
-      <c r="B330" s="6">
-        <v>45901</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D330" s="6" t="s">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A330" s="11">
+        <v>45849</v>
+      </c>
+      <c r="B330" s="11">
+        <v>45849</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E330" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F330" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G330" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H330" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I330" s="13">
+        <f>NETWORKDAYS(B330, A330)</f>
+        <v>1</v>
+      </c>
+      <c r="J330" s="12">
+        <v>66166</v>
+      </c>
+      <c r="K330" s="12">
+        <v>11782</v>
+      </c>
+      <c r="L330" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="M330" s="11">
+        <v>45925</v>
+      </c>
+      <c r="N330" s="14">
+        <v>2250</v>
+      </c>
+      <c r="O330" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P330" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q330" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R330" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>76</v>
+      </c>
+      <c r="S330" s="14">
+        <v>250</v>
+      </c>
+      <c r="T330" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A331" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B331" s="11">
+        <v>45869</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E331" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F331" s="12">
+        <v>68491</v>
+      </c>
+      <c r="G331" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H331" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I331" s="13">
+        <f>NETWORKDAYS(B331, A331)</f>
+        <v>2</v>
+      </c>
+      <c r="J331" s="12">
+        <v>66521</v>
+      </c>
+      <c r="K331" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L331" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="M331" s="11">
+        <v>45925</v>
+      </c>
+      <c r="N331" s="14">
+        <v>3000</v>
+      </c>
+      <c r="O331" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P331" s="12">
         <v>15</v>
       </c>
-      <c r="E330" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F330" s="7">
-        <v>68526</v>
-      </c>
-      <c r="G330" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H330" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I330" s="10">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="J330" s="7">
-        <v>67019</v>
-      </c>
-      <c r="K330" s="7">
-        <v>11821</v>
-      </c>
-      <c r="L330" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="M330" s="6">
-        <v>45904</v>
-      </c>
-      <c r="N330" s="8">
-        <v>17.86</v>
-      </c>
-      <c r="O330" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P330" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q330" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R330" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>1</v>
-      </c>
-      <c r="S330" s="8">
-        <v>0</v>
-      </c>
-      <c r="T330" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="6">
-        <v>45903</v>
-      </c>
-      <c r="B331" s="6">
-        <v>45901</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E331" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F331" s="7">
-        <v>68526</v>
-      </c>
-      <c r="G331" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H331" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I331" s="10">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="J331" s="7">
-        <v>67020</v>
-      </c>
-      <c r="K331" s="7">
-        <v>11822</v>
-      </c>
-      <c r="L331" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="M331" s="6">
-        <v>45904</v>
-      </c>
-      <c r="N331" s="8">
-        <v>18</v>
-      </c>
-      <c r="O331" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P331" s="7">
-        <v>9</v>
-      </c>
-      <c r="Q331" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R331" s="7">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>1</v>
-      </c>
-      <c r="S331" s="8">
-        <v>0</v>
-      </c>
-      <c r="T331" s="8">
+      <c r="Q331" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R331" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>55</v>
+      </c>
+      <c r="S331" s="14">
+        <v>50</v>
+      </c>
+      <c r="T331" s="14">
         <v>0</v>
       </c>
     </row>
@@ -23762,194 +23774,1602 @@
       </c>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A333" s="43">
+      <c r="A333" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B333" s="11">
+        <v>45867</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E333" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F333" s="12">
+        <v>68485</v>
+      </c>
+      <c r="G333" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H333" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I333" s="13">
+        <f>NETWORKDAYS(B333, A333)</f>
+        <v>4</v>
+      </c>
+      <c r="J333" s="12">
+        <v>66526</v>
+      </c>
+      <c r="K333" s="12">
+        <v>3061</v>
+      </c>
+      <c r="L333" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="M333" s="11">
+        <v>45925</v>
+      </c>
+      <c r="N333" s="14">
+        <v>1150</v>
+      </c>
+      <c r="O333" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P333" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q333" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R333" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>55</v>
+      </c>
+      <c r="S333" s="14">
+        <v>0</v>
+      </c>
+      <c r="T333" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A334" s="11">
+        <v>45877</v>
+      </c>
+      <c r="B334" s="11">
+        <v>45877</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E334" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F334" s="12">
+        <v>68458</v>
+      </c>
+      <c r="G334" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H334" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I334" s="13">
+        <f>NETWORKDAYS(B334, A334)</f>
+        <v>1</v>
+      </c>
+      <c r="J334" s="12">
+        <v>66605</v>
+      </c>
+      <c r="K334" s="12">
+        <v>561</v>
+      </c>
+      <c r="L334" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="M334" s="11">
+        <v>45925</v>
+      </c>
+      <c r="N334" s="14">
+        <v>758.53</v>
+      </c>
+      <c r="O334" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P334" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q334" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R334" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>48</v>
+      </c>
+      <c r="S334" s="14">
+        <v>0</v>
+      </c>
+      <c r="T334" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="6">
         <v>45904</v>
       </c>
-      <c r="B333" s="43">
-        <v>45903</v>
-      </c>
-      <c r="C333" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D333" s="43" t="s">
+      <c r="B335" s="6">
+        <v>45904</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E333" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F333" s="44">
-        <v>68529</v>
-      </c>
-      <c r="G333" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H333" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I333" s="46">
-        <f>NETWORKDAYS(B333, A333)</f>
-        <v>2</v>
-      </c>
-      <c r="J333" s="44">
-        <v>67023</v>
-      </c>
-      <c r="K333" s="44">
-        <v>11552</v>
-      </c>
-      <c r="L333" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="M333" s="43">
-        <v>45951</v>
-      </c>
-      <c r="N333" s="45">
-        <v>13649.81</v>
-      </c>
-      <c r="O333" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="P333" s="44">
-        <v>30</v>
-      </c>
-      <c r="Q333" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="R333" s="44">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>47</v>
-      </c>
-      <c r="S333" s="45">
-        <v>0</v>
-      </c>
-      <c r="T333" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A334" s="43">
-        <v>45904</v>
-      </c>
-      <c r="B334" s="43">
-        <v>45898</v>
-      </c>
-      <c r="C334" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D334" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E334" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F334" s="44">
-        <v>68524</v>
-      </c>
-      <c r="G334" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="H334" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="I334" s="46">
-        <f>NETWORKDAYS(B334, A334)</f>
-        <v>5</v>
-      </c>
-      <c r="J334" s="44">
-        <v>67027</v>
-      </c>
-      <c r="K334" s="66">
-        <v>1450</v>
-      </c>
-      <c r="L334" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="M334" s="43">
-        <v>45935</v>
-      </c>
-      <c r="N334" s="45">
-        <v>180</v>
-      </c>
-      <c r="O334" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="P334" s="44">
-        <v>120</v>
-      </c>
-      <c r="Q334" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="R334" s="66">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
-      </c>
-      <c r="S334" s="45">
-        <v>0</v>
-      </c>
-      <c r="T334" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A335" s="43">
-        <v>45904</v>
-      </c>
-      <c r="B335" s="43">
-        <v>45904</v>
-      </c>
-      <c r="C335" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D335" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E335" s="43" t="s">
+      <c r="E335" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F335" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G335" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H335" s="44" t="s">
+      <c r="F335" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G335" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H335" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I335" s="46">
+      <c r="I335" s="10">
         <f>NETWORKDAYS(B335, A335)</f>
         <v>1</v>
       </c>
-      <c r="J335" s="44">
+      <c r="J335" s="7">
         <v>67028</v>
       </c>
-      <c r="K335" s="44">
+      <c r="K335" s="7">
         <v>10692</v>
       </c>
-      <c r="L335" s="44" t="s">
+      <c r="L335" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M335" s="43">
+      <c r="M335" s="6">
         <v>45905</v>
       </c>
-      <c r="N335" s="45">
+      <c r="N335" s="8">
         <v>3386.73</v>
       </c>
-      <c r="O335" s="44" t="s">
+      <c r="O335" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P335" s="44">
+      <c r="P335" s="7">
         <v>14</v>
       </c>
-      <c r="Q335" s="44" t="s">
+      <c r="Q335" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R335" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>1</v>
+      </c>
+      <c r="S335" s="8">
+        <v>0</v>
+      </c>
+      <c r="T335" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="6">
+        <v>45905</v>
+      </c>
+      <c r="B336" s="6">
+        <v>45905</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G336" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H336" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I336" s="10">
+        <f>NETWORKDAYS(B336, A336)</f>
+        <v>1</v>
+      </c>
+      <c r="J336" s="7">
+        <v>64425</v>
+      </c>
+      <c r="K336" s="7">
+        <v>2954</v>
+      </c>
+      <c r="L336" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M336" s="6">
+        <v>45908</v>
+      </c>
+      <c r="N336" s="8">
+        <v>255.15</v>
+      </c>
+      <c r="O336" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P336" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q336" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R336" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S336" s="8">
+        <v>0</v>
+      </c>
+      <c r="T336" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="6">
+        <v>45905</v>
+      </c>
+      <c r="B337" s="6">
+        <v>45905</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F337" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G337" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H337" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I337" s="10">
+        <f>NETWORKDAYS(B337, A337)</f>
+        <v>1</v>
+      </c>
+      <c r="J337" s="7">
+        <v>67032</v>
+      </c>
+      <c r="K337" s="7">
+        <v>10581</v>
+      </c>
+      <c r="L337" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M337" s="6">
+        <v>45908</v>
+      </c>
+      <c r="N337" s="8">
+        <v>30812.26</v>
+      </c>
+      <c r="O337" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P337" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q337" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R337" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S337" s="8">
+        <v>0</v>
+      </c>
+      <c r="T337" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="6">
+        <v>45905</v>
+      </c>
+      <c r="B338" s="6">
+        <v>45905</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G338" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H338" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I338" s="10">
+        <f>NETWORKDAYS(B338, A338)</f>
+        <v>1</v>
+      </c>
+      <c r="J338" s="7">
+        <v>63752</v>
+      </c>
+      <c r="K338" s="7">
+        <v>266</v>
+      </c>
+      <c r="L338" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M338" s="6">
+        <v>45908</v>
+      </c>
+      <c r="N338" s="8">
+        <v>1407.45</v>
+      </c>
+      <c r="O338" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P338" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q338" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R338" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>3</v>
+      </c>
+      <c r="S338" s="8">
+        <v>0</v>
+      </c>
+      <c r="T338" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A339" s="51">
+        <v>45868</v>
+      </c>
+      <c r="B339" s="51">
+        <v>45868</v>
+      </c>
+      <c r="C339" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E339" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F339" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G339" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H339" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I339" s="50">
+        <f>NETWORKDAYS(B339, A339)</f>
+        <v>1</v>
+      </c>
+      <c r="J339" s="52">
+        <v>66504</v>
+      </c>
+      <c r="K339" s="52">
+        <v>3034</v>
+      </c>
+      <c r="L339" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="M339" s="51">
+        <v>45925</v>
+      </c>
+      <c r="N339" s="53">
+        <v>2220</v>
+      </c>
+      <c r="O339" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P339" s="52">
+        <v>90</v>
+      </c>
+      <c r="Q339" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R339" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>57</v>
+      </c>
+      <c r="S339" s="53">
+        <v>80</v>
+      </c>
+      <c r="T339" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A340" s="11">
+        <v>45875</v>
+      </c>
+      <c r="B340" s="11">
+        <v>45873</v>
+      </c>
+      <c r="C340" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D340" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F340" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G340" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H340" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I340" s="13">
+        <f>NETWORKDAYS(B340, A340)</f>
+        <v>3</v>
+      </c>
+      <c r="J340" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K340" s="12">
+        <v>333</v>
+      </c>
+      <c r="L340" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="M340" s="11">
+        <v>45925</v>
+      </c>
+      <c r="N340" s="42">
+        <v>1483685.03</v>
+      </c>
+      <c r="O340" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P340" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q340" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R340" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>50</v>
+      </c>
+      <c r="S340" s="14">
+        <v>0</v>
+      </c>
+      <c r="T340" s="14">
+        <v>59008.35</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A341" s="11">
+        <v>45905</v>
+      </c>
+      <c r="B341" s="11">
+        <v>45905</v>
+      </c>
+      <c r="C341" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F341" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G341" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H341" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I341" s="13">
+        <f>NETWORKDAYS(B341, A341)</f>
+        <v>1</v>
+      </c>
+      <c r="J341" s="12">
+        <v>67037</v>
+      </c>
+      <c r="K341" s="12">
+        <v>11683</v>
+      </c>
+      <c r="L341" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="M341" s="11">
+        <v>45926</v>
+      </c>
+      <c r="N341" s="14">
+        <v>1320.9</v>
+      </c>
+      <c r="O341" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P341" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q341" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R341" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>21</v>
+      </c>
+      <c r="S341" s="14">
+        <v>0</v>
+      </c>
+      <c r="T341" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="6">
+        <v>45908</v>
+      </c>
+      <c r="B342" s="6">
+        <v>45908</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E342" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F342" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G342" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H342" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I342" s="10">
+        <f>NETWORKDAYS(B342, A342)</f>
+        <v>1</v>
+      </c>
+      <c r="J342" s="7">
+        <v>67059</v>
+      </c>
+      <c r="K342" s="7">
+        <v>10581</v>
+      </c>
+      <c r="L342" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M342" s="6">
+        <v>45908</v>
+      </c>
+      <c r="N342" s="8">
+        <v>24556.27</v>
+      </c>
+      <c r="O342" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P342" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q342" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R342" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S342" s="8">
+        <v>0</v>
+      </c>
+      <c r="T342" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="6">
+        <v>45908</v>
+      </c>
+      <c r="B343" s="6">
+        <v>45908</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E343" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G343" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H343" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I343" s="10">
+        <f>NETWORKDAYS(B343, A343)</f>
+        <v>1</v>
+      </c>
+      <c r="J343" s="7">
+        <v>67068</v>
+      </c>
+      <c r="K343" s="7">
+        <v>1441</v>
+      </c>
+      <c r="L343" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M343" s="6">
+        <v>45908</v>
+      </c>
+      <c r="N343" s="8">
+        <v>1312.13</v>
+      </c>
+      <c r="O343" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P343" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q343" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R343" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S343" s="8">
+        <v>0</v>
+      </c>
+      <c r="T343" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="6">
+        <v>45909</v>
+      </c>
+      <c r="B344" s="6">
+        <v>45909</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F344" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G344" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H344" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I344" s="10">
+        <f>NETWORKDAYS(B344, A344)</f>
+        <v>1</v>
+      </c>
+      <c r="J344" s="7">
+        <v>65768</v>
+      </c>
+      <c r="K344" s="7">
+        <v>175</v>
+      </c>
+      <c r="L344" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M344" s="6">
+        <v>45909</v>
+      </c>
+      <c r="N344" s="8">
+        <v>3685</v>
+      </c>
+      <c r="O344" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P344" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q344" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R344" s="7">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>0</v>
+      </c>
+      <c r="S344" s="8">
+        <v>0</v>
+      </c>
+      <c r="T344" s="8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A345" s="11">
+        <v>45905</v>
+      </c>
+      <c r="B345" s="11">
+        <v>45905</v>
+      </c>
+      <c r="C345" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D345" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E345" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F345" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G345" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H345" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I345" s="13">
+        <f>NETWORKDAYS(B345, A345)</f>
+        <v>1</v>
+      </c>
+      <c r="J345" s="12">
+        <v>67038</v>
+      </c>
+      <c r="K345" s="12">
+        <v>11820</v>
+      </c>
+      <c r="L345" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="M345" s="11">
+        <v>45926</v>
+      </c>
+      <c r="N345" s="14">
+        <v>1540</v>
+      </c>
+      <c r="O345" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P345" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q345" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R345" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>21</v>
+      </c>
+      <c r="S345" s="14">
+        <v>0</v>
+      </c>
+      <c r="T345" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A346" s="11">
+        <v>45905</v>
+      </c>
+      <c r="B346" s="11">
+        <v>45905</v>
+      </c>
+      <c r="C346" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E346" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F346" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G346" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H346" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I346" s="13">
+        <f>NETWORKDAYS(B346, A346)</f>
+        <v>1</v>
+      </c>
+      <c r="J346" s="12">
+        <v>67039</v>
+      </c>
+      <c r="K346" s="12">
+        <v>11823</v>
+      </c>
+      <c r="L346" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="M346" s="11">
+        <v>45926</v>
+      </c>
+      <c r="N346" s="14">
+        <v>903</v>
+      </c>
+      <c r="O346" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P346" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q346" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R346" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>21</v>
+      </c>
+      <c r="S346" s="14">
+        <v>0</v>
+      </c>
+      <c r="T346" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A347" s="51">
+        <v>45910</v>
+      </c>
+      <c r="B347" s="51">
+        <v>45910</v>
+      </c>
+      <c r="C347" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E347" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F347" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G347" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="H347" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="I347" s="50">
+        <f>NETWORKDAYS(B347, A347)</f>
+        <v>1</v>
+      </c>
+      <c r="J347" s="52">
+        <v>67096</v>
+      </c>
+      <c r="K347" s="52">
+        <v>11826</v>
+      </c>
+      <c r="L347" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="M347" s="51">
+        <v>45926</v>
+      </c>
+      <c r="N347" s="53">
+        <v>2401.5</v>
+      </c>
+      <c r="O347" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="P347" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q347" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="R347" s="52">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>16</v>
+      </c>
+      <c r="S347" s="53">
+        <v>0</v>
+      </c>
+      <c r="T347" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A348" s="11">
+        <v>45896</v>
+      </c>
+      <c r="B348" s="11">
+        <v>45866</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E348" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F348" s="12">
+        <v>68484</v>
+      </c>
+      <c r="G348" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H348" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I348" s="13">
+        <f>NETWORKDAYS(B348, A348)</f>
+        <v>23</v>
+      </c>
+      <c r="J348" s="12">
+        <v>66912</v>
+      </c>
+      <c r="K348" s="12">
+        <v>10644</v>
+      </c>
+      <c r="L348" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="M348" s="11">
+        <v>45927</v>
+      </c>
+      <c r="N348" s="14">
+        <v>60757.599999999999</v>
+      </c>
+      <c r="O348" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P348" s="12">
+        <v>40</v>
+      </c>
+      <c r="Q348" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R348" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S348" s="14">
+        <v>38888</v>
+      </c>
+      <c r="T348" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A349" s="11">
+        <v>45901</v>
+      </c>
+      <c r="B349" s="11">
+        <v>45895</v>
+      </c>
+      <c r="C349" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E349" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F349" s="12">
+        <v>68521</v>
+      </c>
+      <c r="G349" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H349" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I349" s="13">
+        <f>NETWORKDAYS(B349, A349)</f>
+        <v>5</v>
+      </c>
+      <c r="J349" s="12">
+        <v>66945</v>
+      </c>
+      <c r="K349" s="12">
+        <v>11590</v>
+      </c>
+      <c r="L349" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M349" s="11">
+        <v>45930</v>
+      </c>
+      <c r="N349" s="14">
+        <v>8500</v>
+      </c>
+      <c r="O349" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P349" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q349" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R349" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>29</v>
+      </c>
+      <c r="S349" s="14">
+        <v>636.26</v>
+      </c>
+      <c r="T349" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A350" s="11">
+        <v>45904</v>
+      </c>
+      <c r="B350" s="11">
+        <v>45898</v>
+      </c>
+      <c r="C350" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D350" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F350" s="12">
+        <v>68524</v>
+      </c>
+      <c r="G350" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H350" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I350" s="13">
+        <f>NETWORKDAYS(B350, A350)</f>
+        <v>5</v>
+      </c>
+      <c r="J350" s="12">
+        <v>67027</v>
+      </c>
+      <c r="K350" s="12">
+        <v>1450</v>
+      </c>
+      <c r="L350" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M350" s="11">
+        <v>45935</v>
+      </c>
+      <c r="N350" s="14">
+        <v>180</v>
+      </c>
+      <c r="O350" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P350" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q350" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R350" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S350" s="14">
+        <v>0</v>
+      </c>
+      <c r="T350" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A351" s="43">
+        <v>45911</v>
+      </c>
+      <c r="B351" s="43">
+        <v>45905</v>
+      </c>
+      <c r="C351" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D351" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E351" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F351" s="44">
+        <v>68532</v>
+      </c>
+      <c r="G351" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H351" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I351" s="46">
+        <f>NETWORKDAYS(B351, A351)</f>
+        <v>5</v>
+      </c>
+      <c r="J351" s="44">
+        <v>67110</v>
+      </c>
+      <c r="K351" s="44">
+        <v>1415</v>
+      </c>
+      <c r="L351" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M351" s="43">
+        <v>45942</v>
+      </c>
+      <c r="N351" s="45">
+        <v>1009.45</v>
+      </c>
+      <c r="O351" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P351" s="44">
+        <v>90</v>
+      </c>
+      <c r="Q351" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="R335" s="66">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+      <c r="R351" s="44">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>31</v>
+      </c>
+      <c r="S351" s="45">
+        <v>0</v>
+      </c>
+      <c r="T351" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A352" s="43">
+        <v>45912</v>
+      </c>
+      <c r="B352" s="43">
+        <v>45905</v>
+      </c>
+      <c r="C352" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D352" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E352" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F352" s="44">
+        <v>68535</v>
+      </c>
+      <c r="G352" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H352" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I352" s="46">
+        <f>NETWORKDAYS(B352, A352)</f>
+        <v>6</v>
+      </c>
+      <c r="J352" s="44">
+        <v>67142</v>
+      </c>
+      <c r="K352" s="44">
+        <v>1546</v>
+      </c>
+      <c r="L352" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="M352" s="43">
+        <v>45942</v>
+      </c>
+      <c r="N352" s="45">
+        <v>146.52000000000001</v>
+      </c>
+      <c r="O352" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P352" s="44">
+        <v>30</v>
+      </c>
+      <c r="Q352" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R352" s="44">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>30</v>
+      </c>
+      <c r="S352" s="45">
+        <v>0</v>
+      </c>
+      <c r="T352" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A353" s="43">
+        <v>45912</v>
+      </c>
+      <c r="B353" s="43">
+        <v>45905</v>
+      </c>
+      <c r="C353" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F353" s="44">
+        <v>68534</v>
+      </c>
+      <c r="G353" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H353" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I353" s="46">
+        <f>NETWORKDAYS(B353, A353)</f>
+        <v>6</v>
+      </c>
+      <c r="J353" s="44">
+        <v>67141</v>
+      </c>
+      <c r="K353" s="44">
+        <v>3508</v>
+      </c>
+      <c r="L353" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="M353" s="43">
+        <v>45945</v>
+      </c>
+      <c r="N353" s="45">
+        <v>359.6</v>
+      </c>
+      <c r="O353" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P353" s="44">
+        <v>30</v>
+      </c>
+      <c r="Q353" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R353" s="44">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>33</v>
+      </c>
+      <c r="S353" s="45">
+        <v>0</v>
+      </c>
+      <c r="T353" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A354" s="43">
+        <v>45912</v>
+      </c>
+      <c r="B354" s="43">
+        <v>45912</v>
+      </c>
+      <c r="C354" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F354" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G354" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="H354" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="I354" s="46">
+        <f>NETWORKDAYS(B354, A354)</f>
         <v>1</v>
       </c>
-      <c r="S335" s="45">
-        <v>0</v>
-      </c>
-      <c r="T335" s="45">
+      <c r="J354" s="44">
+        <v>67127</v>
+      </c>
+      <c r="K354" s="44">
+        <v>940</v>
+      </c>
+      <c r="L354" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="M354" s="43">
+        <v>45946</v>
+      </c>
+      <c r="N354" s="45">
+        <v>608</v>
+      </c>
+      <c r="O354" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P354" s="44">
+        <v>7</v>
+      </c>
+      <c r="Q354" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R354" s="44">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>34</v>
+      </c>
+      <c r="S354" s="45">
+        <v>32</v>
+      </c>
+      <c r="T354" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A355" s="11">
+        <v>45904</v>
+      </c>
+      <c r="B355" s="11">
+        <v>45903</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E355" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F355" s="12">
+        <v>68529</v>
+      </c>
+      <c r="G355" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H355" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I355" s="13">
+        <f>NETWORKDAYS(B355, A355)</f>
+        <v>2</v>
+      </c>
+      <c r="J355" s="12">
+        <v>67023</v>
+      </c>
+      <c r="K355" s="12">
+        <v>11552</v>
+      </c>
+      <c r="L355" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="M355" s="11">
+        <v>45951</v>
+      </c>
+      <c r="N355" s="14">
+        <v>13649.81</v>
+      </c>
+      <c r="O355" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P355" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q355" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R355" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>47</v>
+      </c>
+      <c r="S355" s="14">
+        <v>0</v>
+      </c>
+      <c r="T355" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A356" s="43">
+        <v>45912</v>
+      </c>
+      <c r="B356" s="43">
+        <v>45905</v>
+      </c>
+      <c r="C356" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F356" s="44">
+        <v>68533</v>
+      </c>
+      <c r="G356" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H356" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I356" s="46">
+        <f>NETWORKDAYS(B356, A356)</f>
+        <v>6</v>
+      </c>
+      <c r="J356" s="44">
+        <v>67140</v>
+      </c>
+      <c r="K356" s="44">
+        <v>1450</v>
+      </c>
+      <c r="L356" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="M356" s="43">
+        <v>45951</v>
+      </c>
+      <c r="N356" s="45">
+        <v>5631.29</v>
+      </c>
+      <c r="O356" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P356" s="44">
+        <v>120</v>
+      </c>
+      <c r="Q356" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R356" s="44">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>39</v>
+      </c>
+      <c r="S356" s="45">
+        <v>0</v>
+      </c>
+      <c r="T356" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A357" s="11">
+        <v>45870</v>
+      </c>
+      <c r="B357" s="11">
+        <v>45870</v>
+      </c>
+      <c r="C357" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D357" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E357" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F357" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G357" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H357" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I357" s="13">
+        <f>NETWORKDAYS(B357, A357)</f>
+        <v>1</v>
+      </c>
+      <c r="J357" s="12">
+        <v>66430</v>
+      </c>
+      <c r="K357" s="12">
+        <v>333</v>
+      </c>
+      <c r="L357" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="M357" s="11">
+        <v>46113</v>
+      </c>
+      <c r="N357" s="14">
+        <v>281569.34000000003</v>
+      </c>
+      <c r="O357" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P357" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q357" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R357" s="12">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>243</v>
+      </c>
+      <c r="S357" s="14">
+        <v>0</v>
+      </c>
+      <c r="T357" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24135,16 +25555,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" s="57" t="s">
         <v>454</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -24241,7 +25661,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E6" ca="1" si="0">TODAY()</f>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F2" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24249,7 +25669,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 562 dias para vencer</v>
+        <v>Faltam 553 dias para vencer</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -24267,7 +25687,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F3" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24275,7 +25695,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 338 dias</v>
+        <v>Venceu há 347 dias</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -24293,7 +25713,7 @@
       </c>
       <c r="E4" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F4" s="33" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24301,7 +25721,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 46 dias</v>
+        <v>Venceu há 55 dias</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -24319,7 +25739,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F5" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24345,7 +25765,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F6" s="3" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24371,7 +25791,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E9" ca="1" si="1">TODAY()</f>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F7" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24379,7 +25799,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 170 dias</v>
+        <v>Venceu há 179 dias</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -24397,7 +25817,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F8" s="21" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24405,7 +25825,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Venceu há 913 dias</v>
+        <v>Venceu há 922 dias</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -24423,7 +25843,7 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F9" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24431,7 +25851,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 378 dias para vencer</v>
+        <v>Faltam 369 dias para vencer</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -24449,7 +25869,7 @@
       </c>
       <c r="E10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F10" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24457,7 +25877,7 @@
       "Negociar",
       "Faltam " &amp; DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &amp; " dias para vencer"),
    "Venceu há " &amp; DATEDIF(Tabela4[[#This Row],[Validade]],Tabela4[[#This Row],[Hoje]],"D") &amp; " dias")</f>
-        <v>Faltam 299 dias para vencer</v>
+        <v>Faltam 290 dias para vencer</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -24475,7 +25895,7 @@
       </c>
       <c r="E11" s="24">
         <f ca="1">TODAY()</f>
-        <v>45904</v>
+        <v>45913</v>
       </c>
       <c r="F11" s="22" t="str">
         <f ca="1">IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
@@ -24964,7 +26384,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25223,10 +26643,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6577E-1BBE-47C5-96B8-0E0691F59A60}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B60"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26238,7 +27658,7 @@
         <v>11818</v>
       </c>
       <c r="E59" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -26255,7 +27675,126 @@
         <v>11819</v>
       </c>
       <c r="E60" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="17">
+        <v>45905</v>
+      </c>
+      <c r="B61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61">
+        <v>11820</v>
+      </c>
+      <c r="E61" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="17">
+        <v>45905</v>
+      </c>
+      <c r="B62" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62">
+        <v>11823</v>
+      </c>
+      <c r="E62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="17">
+        <v>45912</v>
+      </c>
+      <c r="B63" t="s">
+        <v>401</v>
+      </c>
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63">
+        <v>11828</v>
+      </c>
+      <c r="E63" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="17">
+        <v>45912</v>
+      </c>
+      <c r="B64" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64">
+        <v>11829</v>
+      </c>
+      <c r="E64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="17">
+        <v>45912</v>
+      </c>
+      <c r="B65" t="s">
+        <v>401</v>
+      </c>
+      <c r="C65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65">
+        <v>11830</v>
+      </c>
+      <c r="E65" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="17">
+        <v>45912</v>
+      </c>
+      <c r="B66" t="s">
+        <v>401</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66">
+        <v>11831</v>
+      </c>
+      <c r="E66" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="17">
+        <v>45912</v>
+      </c>
+      <c r="B67" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67">
+        <v>11832</v>
+      </c>
+      <c r="E67" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -26271,7 +27810,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26459,12 +27998,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068C9492B0923CC418696A025D9B79530" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12b5152450087b045156d8e5bdb7ac17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7545978-8353-4157-ab02-92f5c69a97d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74a8823586b7fc5940aaf3e9d5b706e7" ns3:_="">
     <xsd:import namespace="b7545978-8353-4157-ab02-92f5c69a97d9"/>
@@ -26590,16 +28138,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E5A34-0198-4570-927D-9873053383F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -26615,7 +28162,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED76536-08DB-4BCA-BAA6-597FC860B20C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26631,12 +28178,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DB20CA-6C9E-462A-9B1E-209C1B3156BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Atendimento.xlsx
+++ b/Atendimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glaudoberto.filho\Desktop\Projetos Python\app_fup_background\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PUBLICO\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C80109-EF04-4220-BEF3-2D348B100276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35E555-AA61-4206-9BEB-603BF38F65D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_dados" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,13 @@
     <sheet name="base_consumo" sheetId="4" r:id="rId5"/>
     <sheet name="log_cadastro_fornecedores" sheetId="10" r:id="rId6"/>
     <sheet name="Resumos" sheetId="11" r:id="rId7"/>
+    <sheet name="Planilha1" sheetId="12" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Planilha1!$A$2:$F$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="501">
   <si>
     <t>SC</t>
   </si>
@@ -1326,6 +1331,9 @@
     <t>51.843.484 JOSE DARIO DA SILVA</t>
   </si>
   <si>
+    <t>AGUARDANDO APROVAÇÃO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tamires </t>
   </si>
   <si>
@@ -1473,9 +1481,6 @@
     <t xml:space="preserve">CASA BARUERI ALUGUEL DE EQUIPAMENTOS E COMERCIO DE MAQUINAS LTDA ME        </t>
   </si>
   <si>
-    <t>AGUARDANDO PAGAMENTO</t>
-  </si>
-  <si>
     <t>OPEN CHOPP LTDA</t>
   </si>
   <si>
@@ -1497,23 +1502,99 @@
     <t>A.F.A. LIMA TECNOLOGIA EM NEGOCIOS</t>
   </si>
   <si>
-    <t>AJUSTE</t>
-  </si>
-  <si>
     <t>Geovanna Alves</t>
   </si>
   <si>
     <t>CD ORTEGA FILHO ARTES GRAFICA ME</t>
+  </si>
+  <si>
+    <t>068542</t>
+  </si>
+  <si>
+    <t>FERRAMENTAS</t>
+  </si>
+  <si>
+    <t>SANSEI</t>
+  </si>
+  <si>
+    <t>LJDM</t>
+  </si>
+  <si>
+    <t>MABEM</t>
+  </si>
+  <si>
+    <t>ALICATE CRIMPADOR DE TERMINAIS - MEGA POLO-IMF 4560</t>
+  </si>
+  <si>
+    <t>ALICATE DE CORTE HK-170 - HIKARI-21J637</t>
+  </si>
+  <si>
+    <t>ALICATE DESENCAPADOR DE FIOS - MTX-177319</t>
+  </si>
+  <si>
+    <t>ALICATE UNIVERSAL 8 POL. PROFISSIONAL - GEDORE-8280-200-IOX</t>
+  </si>
+  <si>
+    <t>CARTELA DE LAMINA PARA ESTILETE TRAPEZOIDAL COM 10 PECAS - KS01R</t>
+  </si>
+  <si>
+    <t>ESTILETE DE SEGURANCA RETRATIL COM AJUSTE DE LAMINA - 44033/405</t>
+  </si>
+  <si>
+    <t>JOGO DE ADAPTADORES PARA SOQUETES 1/4" / 3/8" 1/2" COM 8 PECAS DA CORNETA - 3324</t>
+  </si>
+  <si>
+    <t>JOGO DE CHAVE COMBINADA 8 A 17 MM MULTIENCAIXE 7 PECAS - ST47530</t>
+  </si>
+  <si>
+    <t>JOGO DE CHAVE DE FENDA E PHILLIPS ISOLADAS COM 7 PECAS - VDE 2170 DA GEDORE</t>
+  </si>
+  <si>
+    <t>JOGO DE CHAVES ALLEN ABAULADA - GEDORE-42KL-9M</t>
+  </si>
+  <si>
+    <t>JOGO DE CHAVES COMBINADAS - BELZER-8556BJ</t>
+  </si>
+  <si>
+    <t>JOGO DE CHAVES ESTRELA CATRACA 6 - FORTGPRO-FG150</t>
+  </si>
+  <si>
+    <t>JOGO DE CHAVES FENDA E PHILLIPS - GEDORE-150-160S</t>
+  </si>
+  <si>
+    <t>JOGO DE SOQUETE ESTRIADO DE 8 A 32MM DE 1/2  - TELS-135769</t>
+  </si>
+  <si>
+    <t>JOGO DE SOQUETES E ACESSORIOS 1/4 - STELS-1410055</t>
+  </si>
+  <si>
+    <t>MALETA PLASTICA ANTI-IMPACTO MAI 570 -  VONDER-6109570000</t>
+  </si>
+  <si>
+    <t>PEGADOR MAGNETICO PMV 0580 - VONDER-3599580000</t>
+  </si>
+  <si>
+    <t>068543</t>
+  </si>
+  <si>
+    <t>TOK E LEVE PAPELARIA E SUPRIMENTOS PARA INFORMATICA LTDA</t>
+  </si>
+  <si>
+    <t>STORE 360 COMERCIO ELETRONICO LTDA</t>
+  </si>
+  <si>
+    <t>LABMOR  LABORATORIOS MORANDINI LTDA  EPP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.000_-;\-&quot;R$&quot;\ * #,##0.000_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1635,7 +1716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1727,6 +1808,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1734,7 +1834,147 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2164,57 +2404,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T357" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A1:T357" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}" name="Tabela1" displayName="Tabela1" ref="A1:T369" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A1:T369" xr:uid="{0C573FEE-B8A0-4FE7-911C-81B026DE4530}">
     <filterColumn colId="16">
       <filters>
+        <filter val="AGUARDANDO APROVAÇÃO"/>
         <filter val="AGUARDANDO ENTREGA"/>
-        <filter val="AGUARDANDO PAGAMENTO"/>
-        <filter val="AJUSTE"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A194:T356">
-    <sortCondition ref="M1:M356"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A251:T369">
+    <sortCondition ref="M1:M369"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{90533836-8E21-43D7-BDD8-371E534225A1}" name="Inclusão" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{A2843543-7BB5-478B-98A8-F39ABE24C0BF}" name="Comprador" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{F96820D0-5CCA-48B2-ABB6-86DAC15B93D8}" name="Tipo" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{9BB7D0DF-F533-472F-8DBA-EDE24AEBA2AD}" name="Classe" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{418BAC5A-0224-4ADC-9584-000CEC133677}" name="SC" dataDxfId="42"/>
-    <tableColumn id="16387" xr3:uid="{548D4F13-D7B5-49C2-9319-BB68076AD4A4}" name="Requisitante" dataDxfId="41"/>
-    <tableColumn id="16388" xr3:uid="{BC82948B-97DA-4CAB-B464-D766A39BE955}" name="Setor" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{FA311683-649A-417B-8E3D-86AF7A67B501}" name="Lead-Time (Atendimento)" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{FD977268-8F92-4E92-82D7-959136F54294}" name="Atendimento" dataDxfId="67"/>
+    <tableColumn id="16" xr3:uid="{90533836-8E21-43D7-BDD8-371E534225A1}" name="Inclusão" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{A2843543-7BB5-478B-98A8-F39ABE24C0BF}" name="Comprador" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{F96820D0-5CCA-48B2-ABB6-86DAC15B93D8}" name="Tipo" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{9BB7D0DF-F533-472F-8DBA-EDE24AEBA2AD}" name="Classe" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{418BAC5A-0224-4ADC-9584-000CEC133677}" name="SC" dataDxfId="62"/>
+    <tableColumn id="16387" xr3:uid="{548D4F13-D7B5-49C2-9319-BB68076AD4A4}" name="Requisitante" dataDxfId="61"/>
+    <tableColumn id="16388" xr3:uid="{BC82948B-97DA-4CAB-B464-D766A39BE955}" name="Setor" dataDxfId="60"/>
+    <tableColumn id="17" xr3:uid="{FA311683-649A-417B-8E3D-86AF7A67B501}" name="Lead-Time (Atendimento)" dataDxfId="59">
       <calculatedColumnFormula>NETWORKDAYS(B2, A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{81C44B0D-A0B7-4F4C-8424-331171E8D7E3}" name="PC" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{B60A7FCB-15E8-4D26-B7D4-6B9F86777A31}" name="Cód.Fornecedor" dataDxfId="37"/>
-    <tableColumn id="16385" xr3:uid="{AE2A9E6F-190B-401D-B9F6-220DA57C5307}" name="Razao Social" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{54EBBA21-57F9-454C-B0A8-87487C142038}" name="Previsao de Entrega" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{6DAB93EC-62B7-4C66-B061-0755851DD270}" name="Spend" dataDxfId="34" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{7F8CD74C-A817-491A-B14F-1EC515438D4F}" name="Condição" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{DDF55835-ADD0-4C2C-A984-3ECFBBE18396}" name="Condição de Pagamento" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{8BAFDE04-B2A0-4EA1-9C4C-1C93F1611DE4}" name="Status" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{32AD281D-AC61-4EAC-B6CB-87DCAB2B5F69}" name="Lead-Time (Fornecedor)" dataDxfId="30">
+    <tableColumn id="3" xr3:uid="{81C44B0D-A0B7-4F4C-8424-331171E8D7E3}" name="PC" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{B60A7FCB-15E8-4D26-B7D4-6B9F86777A31}" name="Cód.Fornecedor" dataDxfId="57"/>
+    <tableColumn id="16385" xr3:uid="{AE2A9E6F-190B-401D-B9F6-220DA57C5307}" name="Razao Social" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{54EBBA21-57F9-454C-B0A8-87487C142038}" name="Previsao de Entrega" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{6DAB93EC-62B7-4C66-B061-0755851DD270}" name="Spend" dataDxfId="54" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{7F8CD74C-A817-491A-B14F-1EC515438D4F}" name="Condição" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{DDF55835-ADD0-4C2C-A984-3ECFBBE18396}" name="Condição de Pagamento" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{8BAFDE04-B2A0-4EA1-9C4C-1C93F1611DE4}" name="Status" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{32AD281D-AC61-4EAC-B6CB-87DCAB2B5F69}" name="Lead-Time (Fornecedor)" dataDxfId="50">
       <calculatedColumnFormula>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3F87E5B0-A802-4BAD-905E-99DB3C957566}" name="Saving" dataDxfId="29" dataCellStyle="Moeda"/>
-    <tableColumn id="10" xr3:uid="{FA0346D4-664F-496B-957A-F821E2AC90D7}" name="Coast Avoidance" dataDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{3F87E5B0-A802-4BAD-905E-99DB3C957566}" name="Saving" dataDxfId="49" dataCellStyle="Moeda"/>
+    <tableColumn id="10" xr3:uid="{FA0346D4-664F-496B-957A-F821E2AC90D7}" name="Coast Avoidance" dataDxfId="48" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{380A73FC-B6AA-4AA8-939F-05F0D9766DCE}" name="Tabela2" displayName="Tabela2" ref="A1:D12" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{380A73FC-B6AA-4AA8-939F-05F0D9766DCE}" name="Tabela2" displayName="Tabela2" ref="A1:D12" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:D12" xr:uid="{380A73FC-B6AA-4AA8-939F-05F0D9766DCE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{680691B2-150B-4C41-9CDE-8A7F73114142}" name="FORNECEDOR" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{896CA4BD-2EE0-4C22-968D-6E20E5E451A0}" name="SITE" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{16E705D5-80B5-408E-8B4C-3C59509B86DC}" name="LOGIN" dataDxfId="24" dataCellStyle="Hiperlink"/>
-    <tableColumn id="3" xr3:uid="{2C5B1339-42AB-4EF3-8544-BA012F24C5BD}" name="SENHA" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{680691B2-150B-4C41-9CDE-8A7F73114142}" name="FORNECEDOR" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{896CA4BD-2EE0-4C22-968D-6E20E5E451A0}" name="SITE" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{16E705D5-80B5-408E-8B4C-3C59509B86DC}" name="LOGIN" dataDxfId="44" dataCellStyle="Hiperlink"/>
+    <tableColumn id="3" xr3:uid="{2C5B1339-42AB-4EF3-8544-BA012F24C5BD}" name="SENHA" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2228,10 +2467,10 @@
     <tableColumn id="2" xr3:uid="{8C460BAC-83FD-4964-A600-9D64C22B5E6A}" name="Fornecedor"/>
     <tableColumn id="3" xr3:uid="{48852BBB-C8F5-48B8-85E8-3542A6ACCC9C}" name="Contratação"/>
     <tableColumn id="4" xr3:uid="{6D5185B4-FC47-4B90-8904-FDA33B190E39}" name="Validade"/>
-    <tableColumn id="6" xr3:uid="{476428EF-4E64-4661-AFD1-5E9F65FA757B}" name="Hoje" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{476428EF-4E64-4661-AFD1-5E9F65FA757B}" name="Hoje" dataDxfId="42">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{169D95EF-FFB5-4EC5-A60C-81272A42D33C}" name="Dias" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{169D95EF-FFB5-4EC5-A60C-81272A42D33C}" name="Dias" dataDxfId="41">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[Hoje]] &lt;= Tabela4[[#This Row],[Validade]],
    IF(DATEDIF(Tabela4[[#This Row],[Hoje]],Tabela4[[#This Row],[Validade]],"D") &lt;= 90,
       "Negociar",
@@ -2244,22 +2483,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}" name="Tabela3" displayName="Tabela3" ref="A1:E24" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}" name="Tabela3" displayName="Tabela3" ref="A1:E24" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:E24" xr:uid="{78239A7E-FC7B-49B4-8A55-E7BC213AA07B}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{D8511443-CF4D-4DC9-8296-BF1A944D3CAC}" name="Fornecedor" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{D2B0299B-E81C-4AF4-BF9F-2F26C1F2794A}" name="Segmento" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{582CBCD0-31E7-44DD-8F12-A70BB18121C1}" name="Vendedor" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{512B0ADB-4619-4B1F-923A-1CFD5BF403F2}" name="e-mail" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{15128DC1-115F-4F44-9C6D-530065665CF0}" name="Contato" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D8511443-CF4D-4DC9-8296-BF1A944D3CAC}" name="Fornecedor" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{D2B0299B-E81C-4AF4-BF9F-2F26C1F2794A}" name="Segmento" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{582CBCD0-31E7-44DD-8F12-A70BB18121C1}" name="Vendedor" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{512B0ADB-4619-4B1F-923A-1CFD5BF403F2}" name="e-mail" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{15128DC1-115F-4F44-9C6D-530065665CF0}" name="Contato" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E67" totalsRowShown="0">
-  <autoFilter ref="A1:E67" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}" name="Tabela6" displayName="Tabela6" ref="A1:E69" totalsRowShown="0">
+  <autoFilter ref="A1:E69" xr:uid="{BB230BD9-36EF-4D37-BEB8-0438680DF5A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40ADAE7E-AD00-4188-9DB3-F04A606A9D2B}" name="data"/>
     <tableColumn id="2" xr3:uid="{D9B738D8-98DD-4AD6-8BCF-D51CBE71FF94}" name="solicitante"/>
@@ -2272,18 +2511,18 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{832D0BAD-4975-4EBA-9F49-A2BF228D313B}" name="Tabela5" displayName="Tabela5" ref="A5:G8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{832D0BAD-4975-4EBA-9F49-A2BF228D313B}" name="Tabela5" displayName="Tabela5" ref="A5:G8" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A5:G8" xr:uid="{832D0BAD-4975-4EBA-9F49-A2BF228D313B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A7B26440-5C0A-44AA-851C-217243E26553}" name="Produto" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{080C8E46-AE45-4C5B-A911-19E6FC39D431}" name="Ultima Compra" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{52FB93CA-9FE6-45AB-9158-D47B02335CFD}" name="Primeira Proposta" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{A8DFBE92-DA8B-483B-B76D-3CF147232E35}" name="Preço Fechado" dataDxfId="8" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{4A5106DE-DEF9-4D55-BF68-683D2D9152B2}" name="Coluna1" dataDxfId="7" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{F48E3952-E3F2-4B14-94CD-6DB42AFDEE9E}" name="Dif %" dataDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{A7B26440-5C0A-44AA-851C-217243E26553}" name="Produto" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{080C8E46-AE45-4C5B-A911-19E6FC39D431}" name="Ultima Compra" dataDxfId="30" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{52FB93CA-9FE6-45AB-9158-D47B02335CFD}" name="Primeira Proposta" dataDxfId="29" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{A8DFBE92-DA8B-483B-B76D-3CF147232E35}" name="Preço Fechado" dataDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{4A5106DE-DEF9-4D55-BF68-683D2D9152B2}" name="Coluna1" dataDxfId="27" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{F48E3952-E3F2-4B14-94CD-6DB42AFDEE9E}" name="Dif %" dataDxfId="26" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela5[[#This Row],[Primeira Proposta]]-Tabela5[[#This Row],[Preço Fechado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D824E88C-08D6-45AE-9660-5D535899B438}" name="%" dataDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{D824E88C-08D6-45AE-9660-5D535899B438}" name="%" dataDxfId="25" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D6/C6-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2554,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T357"/>
+  <dimension ref="A1:T369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A357" sqref="A357"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L349" sqref="L349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2578,7 +2817,7 @@
     <col min="14" max="14" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.453125" style="1" bestFit="1" customWidth="1"/>
@@ -5166,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="1"/>
@@ -11694,7 +11933,7 @@
         <v>3</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="I143" s="6">
         <f t="shared" si="3"/>
@@ -13627,7 +13866,7 @@
         <v>11610</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M173" s="33">
         <v>45887</v>
@@ -14935,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="33">
         <v>45840</v>
       </c>
@@ -14961,7 +15200,7 @@
         <v>34</v>
       </c>
       <c r="I194" s="6">
-        <f t="shared" ref="I194:I225" si="5">NETWORKDAYS(B194, A194)</f>
+        <f>NETWORKDAYS(B194, A194)</f>
         <v>1</v>
       </c>
       <c r="J194" s="1">
@@ -14977,7 +15216,7 @@
         <v>45905</v>
       </c>
       <c r="N194" s="34">
-        <v>1750</v>
+        <v>4240</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>121</v>
@@ -14986,14 +15225,14 @@
         <v>30</v>
       </c>
       <c r="Q194" s="1" t="s">
-        <v>473</v>
+        <v>115</v>
       </c>
       <c r="R194" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>65</v>
       </c>
       <c r="S194" s="34">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T194" s="34">
         <v>0</v>
@@ -15025,7 +15264,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B195, A195)</f>
         <v>1</v>
       </c>
       <c r="J195" s="1">
@@ -15089,7 +15328,7 @@
         <v>370</v>
       </c>
       <c r="I196" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B196, A196)</f>
         <v>1</v>
       </c>
       <c r="J196" s="1">
@@ -15153,7 +15392,7 @@
         <v>370</v>
       </c>
       <c r="I197" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B197, A197)</f>
         <v>1</v>
       </c>
       <c r="J197" s="1">
@@ -15172,7 +15411,7 @@
         <v>9802.08</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P197" s="1">
         <v>30</v>
@@ -15217,7 +15456,7 @@
         <v>370</v>
       </c>
       <c r="I198" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B198, A198)</f>
         <v>1</v>
       </c>
       <c r="J198" s="1">
@@ -15236,7 +15475,7 @@
         <v>12500</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P198" s="1">
         <v>30</v>
@@ -15281,7 +15520,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B199, A199)</f>
         <v>1</v>
       </c>
       <c r="J199" s="1">
@@ -15345,7 +15584,7 @@
         <v>32</v>
       </c>
       <c r="I200" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B200, A200)</f>
         <v>1</v>
       </c>
       <c r="J200" s="1">
@@ -15409,7 +15648,7 @@
         <v>125</v>
       </c>
       <c r="I201" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B201, A201)</f>
         <v>1</v>
       </c>
       <c r="J201" s="1">
@@ -15473,7 +15712,7 @@
         <v>129</v>
       </c>
       <c r="I202" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B202, A202)</f>
         <v>1</v>
       </c>
       <c r="J202" s="1">
@@ -15537,7 +15776,7 @@
         <v>32</v>
       </c>
       <c r="I203" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B203, A203)</f>
         <v>1</v>
       </c>
       <c r="J203" s="1">
@@ -15601,7 +15840,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B204, A204)</f>
         <v>1</v>
       </c>
       <c r="J204" s="1">
@@ -15665,7 +15904,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B205, A205)</f>
         <v>1</v>
       </c>
       <c r="J205" s="1">
@@ -15729,7 +15968,7 @@
         <v>125</v>
       </c>
       <c r="I206" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B206, A206)</f>
         <v>1</v>
       </c>
       <c r="J206" s="1">
@@ -15793,7 +16032,7 @@
         <v>129</v>
       </c>
       <c r="I207" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B207, A207)</f>
         <v>1</v>
       </c>
       <c r="J207" s="1">
@@ -15857,7 +16096,7 @@
         <v>129</v>
       </c>
       <c r="I208" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B208, A208)</f>
         <v>1</v>
       </c>
       <c r="J208" s="1">
@@ -15921,7 +16160,7 @@
         <v>129</v>
       </c>
       <c r="I209" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B209, A209)</f>
         <v>1</v>
       </c>
       <c r="J209" s="1">
@@ -15985,7 +16224,7 @@
         <v>129</v>
       </c>
       <c r="I210" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B210, A210)</f>
         <v>1</v>
       </c>
       <c r="J210" s="1">
@@ -16049,7 +16288,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B211, A211)</f>
         <v>1</v>
       </c>
       <c r="J211" s="1">
@@ -16113,7 +16352,7 @@
         <v>32</v>
       </c>
       <c r="I212" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B212, A212)</f>
         <v>1</v>
       </c>
       <c r="J212" s="1">
@@ -16177,7 +16416,7 @@
         <v>137</v>
       </c>
       <c r="I213" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B213, A213)</f>
         <v>1</v>
       </c>
       <c r="J213" s="1">
@@ -16241,7 +16480,7 @@
         <v>90</v>
       </c>
       <c r="I214" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B214, A214)</f>
         <v>1</v>
       </c>
       <c r="J214" s="1">
@@ -16305,7 +16544,7 @@
         <v>97</v>
       </c>
       <c r="I215" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B215, A215)</f>
         <v>1</v>
       </c>
       <c r="J215" s="1">
@@ -16369,7 +16608,7 @@
         <v>137</v>
       </c>
       <c r="I216" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B216, A216)</f>
         <v>1</v>
       </c>
       <c r="J216" s="1">
@@ -16433,7 +16672,7 @@
         <v>97</v>
       </c>
       <c r="I217" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B217, A217)</f>
         <v>1</v>
       </c>
       <c r="J217" s="1">
@@ -16497,7 +16736,7 @@
         <v>129</v>
       </c>
       <c r="I218" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B218, A218)</f>
         <v>1</v>
       </c>
       <c r="J218" s="1">
@@ -16561,7 +16800,7 @@
         <v>129</v>
       </c>
       <c r="I219" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B219, A219)</f>
         <v>1</v>
       </c>
       <c r="J219" s="1">
@@ -16625,7 +16864,7 @@
         <v>129</v>
       </c>
       <c r="I220" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B220, A220)</f>
         <v>1</v>
       </c>
       <c r="J220" s="1">
@@ -16689,7 +16928,7 @@
         <v>97</v>
       </c>
       <c r="I221" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B221, A221)</f>
         <v>1</v>
       </c>
       <c r="J221" s="1">
@@ -16753,7 +16992,7 @@
         <v>90</v>
       </c>
       <c r="I222" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B222, A222)</f>
         <v>1</v>
       </c>
       <c r="J222" s="1">
@@ -16817,7 +17056,7 @@
         <v>32</v>
       </c>
       <c r="I223" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B223, A223)</f>
         <v>1</v>
       </c>
       <c r="J223" s="1">
@@ -16881,7 +17120,7 @@
         <v>370</v>
       </c>
       <c r="I224" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B224, A224)</f>
         <v>1</v>
       </c>
       <c r="J224" s="1">
@@ -16945,7 +17184,7 @@
         <v>32</v>
       </c>
       <c r="I225" s="6">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(B225, A225)</f>
         <v>1</v>
       </c>
       <c r="J225" s="1">
@@ -17009,7 +17248,7 @@
         <v>90</v>
       </c>
       <c r="I226" s="6">
-        <f t="shared" ref="I226:I257" si="6">NETWORKDAYS(B226, A226)</f>
+        <f>NETWORKDAYS(B226, A226)</f>
         <v>5</v>
       </c>
       <c r="J226" s="1">
@@ -17073,7 +17312,7 @@
         <v>129</v>
       </c>
       <c r="I227" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B227, A227)</f>
         <v>6</v>
       </c>
       <c r="J227" s="1">
@@ -17137,7 +17376,7 @@
         <v>90</v>
       </c>
       <c r="I228" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B228, A228)</f>
         <v>3</v>
       </c>
       <c r="J228" s="1">
@@ -17201,7 +17440,7 @@
         <v>90</v>
       </c>
       <c r="I229" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B229, A229)</f>
         <v>2</v>
       </c>
       <c r="J229" s="1">
@@ -17265,7 +17504,7 @@
         <v>125</v>
       </c>
       <c r="I230" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B230, A230)</f>
         <v>9</v>
       </c>
       <c r="J230" s="1">
@@ -17329,7 +17568,7 @@
         <v>370</v>
       </c>
       <c r="I231" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B231, A231)</f>
         <v>2</v>
       </c>
       <c r="J231" s="1">
@@ -17393,7 +17632,7 @@
         <v>370</v>
       </c>
       <c r="I232" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B232, A232)</f>
         <v>1</v>
       </c>
       <c r="J232" s="1">
@@ -17457,7 +17696,7 @@
         <v>97</v>
       </c>
       <c r="I233" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B233, A233)</f>
         <v>2</v>
       </c>
       <c r="J233" s="1">
@@ -17521,7 +17760,7 @@
         <v>95</v>
       </c>
       <c r="I234" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B234, A234)</f>
         <v>1</v>
       </c>
       <c r="J234" s="1">
@@ -17585,7 +17824,7 @@
         <v>34</v>
       </c>
       <c r="I235" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B235, A235)</f>
         <v>1</v>
       </c>
       <c r="J235" s="1">
@@ -17649,7 +17888,7 @@
         <v>97</v>
       </c>
       <c r="I236" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B236, A236)</f>
         <v>1</v>
       </c>
       <c r="J236" s="1">
@@ -17713,7 +17952,7 @@
         <v>34</v>
       </c>
       <c r="I237" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B237, A237)</f>
         <v>1</v>
       </c>
       <c r="J237" s="1">
@@ -17777,7 +18016,7 @@
         <v>129</v>
       </c>
       <c r="I238" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B238, A238)</f>
         <v>1</v>
       </c>
       <c r="J238" s="1">
@@ -17841,7 +18080,7 @@
         <v>129</v>
       </c>
       <c r="I239" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B239, A239)</f>
         <v>1</v>
       </c>
       <c r="J239" s="1">
@@ -17905,7 +18144,7 @@
         <v>129</v>
       </c>
       <c r="I240" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B240, A240)</f>
         <v>1</v>
       </c>
       <c r="J240" s="1">
@@ -17969,7 +18208,7 @@
         <v>137</v>
       </c>
       <c r="I241" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B241, A241)</f>
         <v>1</v>
       </c>
       <c r="J241" s="1">
@@ -18033,7 +18272,7 @@
         <v>125</v>
       </c>
       <c r="I242" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B242, A242)</f>
         <v>1</v>
       </c>
       <c r="J242" s="1">
@@ -18097,7 +18336,7 @@
         <v>137</v>
       </c>
       <c r="I243" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B243, A243)</f>
         <v>1</v>
       </c>
       <c r="J243" s="1">
@@ -18135,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="33">
         <v>45856</v>
       </c>
@@ -18161,7 +18400,7 @@
         <v>125</v>
       </c>
       <c r="I244" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B244, A244)</f>
         <v>1</v>
       </c>
       <c r="J244" s="1">
@@ -18174,7 +18413,7 @@
         <v>126</v>
       </c>
       <c r="M244" s="33">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="N244" s="34">
         <v>16134.54</v>
@@ -18186,11 +18425,11 @@
         <v>28</v>
       </c>
       <c r="Q244" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="R244" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S244" s="34">
         <v>25720</v>
@@ -18225,7 +18464,7 @@
         <v>32</v>
       </c>
       <c r="I245" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B245, A245)</f>
         <v>1</v>
       </c>
       <c r="J245" s="1">
@@ -18289,7 +18528,7 @@
         <v>97</v>
       </c>
       <c r="I246" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B246, A246)</f>
         <v>5</v>
       </c>
       <c r="J246" s="1">
@@ -18353,7 +18592,7 @@
         <v>32</v>
       </c>
       <c r="I247" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B247, A247)</f>
         <v>1</v>
       </c>
       <c r="J247" s="1">
@@ -18417,7 +18656,7 @@
         <v>97</v>
       </c>
       <c r="I248" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B248, A248)</f>
         <v>1</v>
       </c>
       <c r="J248" s="1">
@@ -18481,7 +18720,7 @@
         <v>97</v>
       </c>
       <c r="I249" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B249, A249)</f>
         <v>1</v>
       </c>
       <c r="J249" s="1">
@@ -18545,7 +18784,7 @@
         <v>125</v>
       </c>
       <c r="I250" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B250, A250)</f>
         <v>1</v>
       </c>
       <c r="J250" s="36">
@@ -18585,60 +18824,60 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="33">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="B251" s="33">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="C251" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E251" s="33" t="s">
         <v>112</v>
       </c>
       <c r="F251" s="1">
-        <v>68539</v>
+        <v>68547</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>33</v>
+        <v>473</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="I251" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B251, A251)</f>
         <v>2</v>
       </c>
       <c r="J251" s="1">
-        <v>67103</v>
+        <v>67194</v>
       </c>
       <c r="K251" s="1">
-        <v>10315</v>
+        <v>11834</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="M251" s="33">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="N251" s="34">
-        <v>364</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="O251" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P251" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Q251" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R251" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S251" s="34">
         <v>0</v>
@@ -18673,7 +18912,7 @@
         <v>90</v>
       </c>
       <c r="I252" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B252, A252)</f>
         <v>2</v>
       </c>
       <c r="J252" s="1">
@@ -18737,7 +18976,7 @@
         <v>32</v>
       </c>
       <c r="I253" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B253, A253)</f>
         <v>1</v>
       </c>
       <c r="J253" s="1">
@@ -18801,7 +19040,7 @@
         <v>32</v>
       </c>
       <c r="I254" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B254, A254)</f>
         <v>1</v>
       </c>
       <c r="J254" s="1">
@@ -18865,7 +19104,7 @@
         <v>90</v>
       </c>
       <c r="I255" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B255, A255)</f>
         <v>2</v>
       </c>
       <c r="J255" s="1">
@@ -18929,7 +19168,7 @@
         <v>97</v>
       </c>
       <c r="I256" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B256, A256)</f>
         <v>2</v>
       </c>
       <c r="J256" s="1">
@@ -18993,7 +19232,7 @@
         <v>97</v>
       </c>
       <c r="I257" s="6">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(B257, A257)</f>
         <v>2</v>
       </c>
       <c r="J257" s="1">
@@ -19057,7 +19296,7 @@
         <v>125</v>
       </c>
       <c r="I258" s="6">
-        <f t="shared" ref="I258:I289" si="7">NETWORKDAYS(B258, A258)</f>
+        <f>NETWORKDAYS(B258, A258)</f>
         <v>8</v>
       </c>
       <c r="J258" s="1">
@@ -19095,62 +19334,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="33">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="B259" s="33">
-        <v>45909</v>
+        <v>45916</v>
       </c>
       <c r="C259" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D259" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I259" s="6">
+        <f>NETWORKDAYS(B259, A259)</f>
+        <v>1</v>
+      </c>
+      <c r="J259" s="1">
+        <v>67182</v>
+      </c>
+      <c r="K259" s="1">
+        <v>3061</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M259" s="33">
+        <v>45918</v>
+      </c>
+      <c r="N259" s="34">
+        <v>13060.81</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P259" s="1">
         <v>15</v>
       </c>
-      <c r="E259" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F259" s="1">
-        <v>68537</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I259" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="J259" s="1">
-        <v>67105</v>
-      </c>
-      <c r="K259" s="1">
-        <v>160</v>
-      </c>
-      <c r="L259" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M259" s="33">
-        <v>45919</v>
-      </c>
-      <c r="N259" s="34">
-        <v>690.74</v>
-      </c>
-      <c r="O259" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P259" s="1">
-        <v>30</v>
-      </c>
       <c r="Q259" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="R259" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S259" s="34">
         <v>0</v>
@@ -19185,7 +19424,7 @@
         <v>125</v>
       </c>
       <c r="I260" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B260, A260)</f>
         <v>9</v>
       </c>
       <c r="J260" s="1">
@@ -19249,7 +19488,7 @@
         <v>32</v>
       </c>
       <c r="I261" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B261, A261)</f>
         <v>9</v>
       </c>
       <c r="J261" s="1">
@@ -19313,7 +19552,7 @@
         <v>97</v>
       </c>
       <c r="I262" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B262, A262)</f>
         <v>2</v>
       </c>
       <c r="J262" s="1">
@@ -19377,7 +19616,7 @@
         <v>370</v>
       </c>
       <c r="I263" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B263, A263)</f>
         <v>4</v>
       </c>
       <c r="J263" s="1">
@@ -19396,7 +19635,7 @@
         <v>1150</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P263" s="1">
         <v>15</v>
@@ -19441,7 +19680,7 @@
         <v>90</v>
       </c>
       <c r="I264" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B264, A264)</f>
         <v>3</v>
       </c>
       <c r="J264" s="1">
@@ -19505,7 +19744,7 @@
         <v>34</v>
       </c>
       <c r="I265" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B265, A265)</f>
         <v>2</v>
       </c>
       <c r="J265" s="1">
@@ -19515,7 +19754,7 @@
         <v>2812</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M265" s="33">
         <v>45894</v>
@@ -19569,7 +19808,7 @@
         <v>34</v>
       </c>
       <c r="I266" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B266, A266)</f>
         <v>1</v>
       </c>
       <c r="J266" s="1">
@@ -19633,7 +19872,7 @@
         <v>97</v>
       </c>
       <c r="I267" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B267, A267)</f>
         <v>16</v>
       </c>
       <c r="J267" s="1">
@@ -19643,7 +19882,7 @@
         <v>11805</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M267" s="33">
         <v>45894</v>
@@ -19697,7 +19936,7 @@
         <v>90</v>
       </c>
       <c r="I268" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B268, A268)</f>
         <v>1</v>
       </c>
       <c r="J268" s="1">
@@ -19761,7 +20000,7 @@
         <v>370</v>
       </c>
       <c r="I269" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B269, A269)</f>
         <v>2</v>
       </c>
       <c r="J269" s="1">
@@ -19825,7 +20064,7 @@
         <v>32</v>
       </c>
       <c r="I270" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B270, A270)</f>
         <v>1</v>
       </c>
       <c r="J270" s="1">
@@ -19889,7 +20128,7 @@
         <v>370</v>
       </c>
       <c r="I271" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B271, A271)</f>
         <v>4</v>
       </c>
       <c r="J271" s="1">
@@ -19953,7 +20192,7 @@
         <v>125</v>
       </c>
       <c r="I272" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B272, A272)</f>
         <v>1</v>
       </c>
       <c r="J272" s="1">
@@ -20017,7 +20256,7 @@
         <v>34</v>
       </c>
       <c r="I273" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B273, A273)</f>
         <v>2</v>
       </c>
       <c r="J273" s="1">
@@ -20055,12 +20294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="33">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="B274" s="33">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="C274" s="33" t="s">
         <v>7</v>
@@ -20069,48 +20308,48 @@
         <v>5</v>
       </c>
       <c r="E274" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F274" s="1">
-        <v>68536</v>
+        <v>141</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>370</v>
       </c>
       <c r="I274" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B274, A274)</f>
         <v>1</v>
       </c>
       <c r="J274" s="1">
-        <v>67084</v>
+        <v>67183</v>
       </c>
       <c r="K274" s="1">
-        <v>2954</v>
+        <v>3061</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="M274" s="33">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="N274" s="34">
-        <v>621</v>
+        <v>2902.08</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P274" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q274" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="R274" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S274" s="34">
         <v>0</v>
@@ -20145,7 +20384,7 @@
         <v>370</v>
       </c>
       <c r="I275" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B275, A275)</f>
         <v>1</v>
       </c>
       <c r="J275" s="1">
@@ -20155,7 +20394,7 @@
         <v>11810</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M275" s="33">
         <v>45891</v>
@@ -20209,7 +20448,7 @@
         <v>129</v>
       </c>
       <c r="I276" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B276, A276)</f>
         <v>1</v>
       </c>
       <c r="J276" s="1">
@@ -20273,7 +20512,7 @@
         <v>32</v>
       </c>
       <c r="I277" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B277, A277)</f>
         <v>1</v>
       </c>
       <c r="J277" s="1">
@@ -20337,7 +20576,7 @@
         <v>370</v>
       </c>
       <c r="I278" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B278, A278)</f>
         <v>2</v>
       </c>
       <c r="J278" s="1">
@@ -20347,7 +20586,7 @@
         <v>11806</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M278" s="33">
         <v>45891</v>
@@ -20401,7 +20640,7 @@
         <v>281</v>
       </c>
       <c r="I279" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B279, A279)</f>
         <v>6</v>
       </c>
       <c r="J279" s="1">
@@ -20411,7 +20650,7 @@
         <v>11622</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M279" s="33">
         <v>45904</v>
@@ -20465,7 +20704,7 @@
         <v>97</v>
       </c>
       <c r="I280" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B280, A280)</f>
         <v>2</v>
       </c>
       <c r="J280" s="1">
@@ -20529,7 +20768,7 @@
         <v>129</v>
       </c>
       <c r="I281" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B281, A281)</f>
         <v>1</v>
       </c>
       <c r="J281" s="1">
@@ -20593,7 +20832,7 @@
         <v>90</v>
       </c>
       <c r="I282" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B282, A282)</f>
         <v>1</v>
       </c>
       <c r="J282" s="1">
@@ -20657,7 +20896,7 @@
         <v>90</v>
       </c>
       <c r="I283" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B283, A283)</f>
         <v>2</v>
       </c>
       <c r="J283" s="1">
@@ -20667,7 +20906,7 @@
         <v>11817</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M283" s="33">
         <v>45903</v>
@@ -20721,7 +20960,7 @@
         <v>97</v>
       </c>
       <c r="I284" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B284, A284)</f>
         <v>8</v>
       </c>
       <c r="J284" s="1">
@@ -20760,61 +20999,61 @@
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A285" s="33">
-        <v>45911</v>
-      </c>
-      <c r="B285" s="33">
-        <v>45910</v>
-      </c>
-      <c r="C285" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285" s="33" t="s">
+      <c r="A285" s="44">
+        <v>45916</v>
+      </c>
+      <c r="B285" s="44">
+        <v>45916</v>
+      </c>
+      <c r="C285" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E285" s="33" t="s">
+      <c r="E285" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="F285" s="1">
-        <v>68540</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H285" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I285" s="6">
-        <f t="shared" si="7"/>
+      <c r="F285" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G285" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H285" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="I285" s="46">
+        <f>NETWORKDAYS(B285, A285)</f>
+        <v>1</v>
+      </c>
+      <c r="J285" s="45">
+        <v>67205</v>
+      </c>
+      <c r="K285" s="47">
+        <v>11833</v>
+      </c>
+      <c r="L285" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="M285" s="44">
+        <v>45918</v>
+      </c>
+      <c r="N285" s="34">
+        <v>57</v>
+      </c>
+      <c r="O285" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="P285" s="45">
+        <v>30</v>
+      </c>
+      <c r="Q285" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R285" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
         <v>2</v>
-      </c>
-      <c r="J285" s="1">
-        <v>67104</v>
-      </c>
-      <c r="K285" s="1">
-        <v>2289</v>
-      </c>
-      <c r="L285" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M285" s="33">
-        <v>45919</v>
-      </c>
-      <c r="N285" s="34">
-        <v>620.63</v>
-      </c>
-      <c r="O285" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P285" s="1">
-        <v>30</v>
-      </c>
-      <c r="Q285" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R285" s="1">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>8</v>
       </c>
       <c r="S285" s="34">
         <v>0</v>
@@ -20849,7 +21088,7 @@
         <v>370</v>
       </c>
       <c r="I286" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B286, A286)</f>
         <v>6</v>
       </c>
       <c r="J286" s="1">
@@ -20859,7 +21098,7 @@
         <v>11807</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M286" s="33">
         <v>45891</v>
@@ -20907,13 +21146,13 @@
         <v>68519</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I287" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B287, A287)</f>
         <v>1</v>
       </c>
       <c r="J287" s="1">
@@ -20977,7 +21216,7 @@
         <v>370</v>
       </c>
       <c r="I288" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B288, A288)</f>
         <v>1</v>
       </c>
       <c r="J288" s="1">
@@ -21041,7 +21280,7 @@
         <v>370</v>
       </c>
       <c r="I289" s="6">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(B289, A289)</f>
         <v>1</v>
       </c>
       <c r="J289" s="1">
@@ -21105,7 +21344,7 @@
         <v>137</v>
       </c>
       <c r="I290" s="6">
-        <f t="shared" ref="I290:I321" si="8">NETWORKDAYS(B290, A290)</f>
+        <f>NETWORKDAYS(B290, A290)</f>
         <v>1</v>
       </c>
       <c r="J290" s="1">
@@ -21169,7 +21408,7 @@
         <v>32</v>
       </c>
       <c r="I291" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B291, A291)</f>
         <v>1</v>
       </c>
       <c r="J291" s="1">
@@ -21233,7 +21472,7 @@
         <v>129</v>
       </c>
       <c r="I292" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B292, A292)</f>
         <v>1</v>
       </c>
       <c r="J292" s="1">
@@ -21297,7 +21536,7 @@
         <v>129</v>
       </c>
       <c r="I293" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B293, A293)</f>
         <v>1</v>
       </c>
       <c r="J293" s="1">
@@ -21361,7 +21600,7 @@
         <v>129</v>
       </c>
       <c r="I294" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B294, A294)</f>
         <v>1</v>
       </c>
       <c r="J294" s="1">
@@ -21425,7 +21664,7 @@
         <v>32</v>
       </c>
       <c r="I295" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B295, A295)</f>
         <v>1</v>
       </c>
       <c r="J295" s="1">
@@ -21489,7 +21728,7 @@
         <v>32</v>
       </c>
       <c r="I296" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B296, A296)</f>
         <v>1</v>
       </c>
       <c r="J296" s="1">
@@ -21553,7 +21792,7 @@
         <v>125</v>
       </c>
       <c r="I297" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B297, A297)</f>
         <v>1</v>
       </c>
       <c r="J297" s="1">
@@ -21617,7 +21856,7 @@
         <v>370</v>
       </c>
       <c r="I298" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B298, A298)</f>
         <v>6</v>
       </c>
       <c r="J298" s="1">
@@ -21627,7 +21866,7 @@
         <v>11808</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M298" s="33">
         <v>45891</v>
@@ -21681,7 +21920,7 @@
         <v>370</v>
       </c>
       <c r="I299" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B299, A299)</f>
         <v>6</v>
       </c>
       <c r="J299" s="1">
@@ -21691,7 +21930,7 @@
         <v>11809</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M299" s="33">
         <v>45891</v>
@@ -21745,7 +21984,7 @@
         <v>370</v>
       </c>
       <c r="I300" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B300, A300)</f>
         <v>7</v>
       </c>
       <c r="J300" s="1">
@@ -21755,7 +21994,7 @@
         <v>11811</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M300" s="33">
         <v>45894</v>
@@ -21809,7 +22048,7 @@
         <v>370</v>
       </c>
       <c r="I301" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B301, A301)</f>
         <v>7</v>
       </c>
       <c r="J301" s="1">
@@ -21819,7 +22058,7 @@
         <v>11812</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M301" s="33">
         <v>45894</v>
@@ -21873,7 +22112,7 @@
         <v>34</v>
       </c>
       <c r="I302" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B302, A302)</f>
         <v>2</v>
       </c>
       <c r="J302" s="1">
@@ -21937,7 +22176,7 @@
         <v>125</v>
       </c>
       <c r="I303" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B303, A303)</f>
         <v>16</v>
       </c>
       <c r="J303" s="1">
@@ -21977,60 +22216,60 @@
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A304" s="33">
-        <v>45891</v>
+        <v>45911</v>
       </c>
       <c r="B304" s="33">
-        <v>45890</v>
+        <v>45910</v>
       </c>
       <c r="C304" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D304" s="33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E304" s="33" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F304" s="1">
-        <v>68517</v>
+        <v>68539</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="I304" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B304, A304)</f>
         <v>2</v>
       </c>
       <c r="J304" s="1">
-        <v>66866</v>
+        <v>67103</v>
       </c>
       <c r="K304" s="1">
-        <v>1277</v>
+        <v>10315</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
       <c r="M304" s="33">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="N304" s="34">
-        <v>894.6</v>
+        <v>364</v>
       </c>
       <c r="O304" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P304" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q304" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R304" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="S304" s="34">
         <v>0</v>
@@ -22065,7 +22304,7 @@
         <v>32</v>
       </c>
       <c r="I305" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B305, A305)</f>
         <v>1</v>
       </c>
       <c r="J305" s="1">
@@ -22129,7 +22368,7 @@
         <v>125</v>
       </c>
       <c r="I306" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B306, A306)</f>
         <v>2</v>
       </c>
       <c r="J306" s="1">
@@ -22193,7 +22432,7 @@
         <v>95</v>
       </c>
       <c r="I307" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B307, A307)</f>
         <v>3</v>
       </c>
       <c r="J307" s="1">
@@ -22257,7 +22496,7 @@
         <v>34</v>
       </c>
       <c r="I308" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B308, A308)</f>
         <v>1</v>
       </c>
       <c r="J308" s="1">
@@ -22267,7 +22506,7 @@
         <v>1632</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M308" s="33">
         <v>45911</v>
@@ -22321,7 +22560,7 @@
         <v>97</v>
       </c>
       <c r="I309" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B309, A309)</f>
         <v>1</v>
       </c>
       <c r="J309" s="1">
@@ -22385,7 +22624,7 @@
         <v>32</v>
       </c>
       <c r="I310" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B310, A310)</f>
         <v>1</v>
       </c>
       <c r="J310" s="1">
@@ -22449,7 +22688,7 @@
         <v>370</v>
       </c>
       <c r="I311" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B311, A311)</f>
         <v>2</v>
       </c>
       <c r="J311" s="1">
@@ -22459,7 +22698,7 @@
         <v>11813</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M311" s="33">
         <v>45912</v>
@@ -22513,7 +22752,7 @@
         <v>125</v>
       </c>
       <c r="I312" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B312, A312)</f>
         <v>2</v>
       </c>
       <c r="J312" s="1">
@@ -22553,60 +22792,60 @@
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A313" s="33">
-        <v>45891</v>
+        <v>45911</v>
       </c>
       <c r="B313" s="33">
-        <v>45882</v>
+        <v>45909</v>
       </c>
       <c r="C313" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D313" s="33" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E313" s="33" t="s">
         <v>112</v>
       </c>
       <c r="F313" s="1">
-        <v>68505</v>
+        <v>68537</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="I313" s="6">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f>NETWORKDAYS(B313, A313)</f>
+        <v>3</v>
       </c>
       <c r="J313" s="1">
-        <v>66867</v>
+        <v>67105</v>
       </c>
       <c r="K313" s="1">
-        <v>3061</v>
+        <v>160</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M313" s="33">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="N313" s="34">
-        <v>6358.8</v>
+        <v>690.74</v>
       </c>
       <c r="O313" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P313" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q313" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R313" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="S313" s="34">
         <v>0</v>
@@ -22641,7 +22880,7 @@
         <v>97</v>
       </c>
       <c r="I314" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B314, A314)</f>
         <v>1</v>
       </c>
       <c r="J314" s="1">
@@ -22681,60 +22920,60 @@
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315" s="33">
-        <v>45912</v>
+        <v>45910</v>
       </c>
       <c r="B315" s="33">
-        <v>45912</v>
+        <v>45910</v>
       </c>
       <c r="C315" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D315" s="33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E315" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="F315" s="1">
+        <v>68536</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="I315" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B315, A315)</f>
         <v>1</v>
       </c>
       <c r="J315" s="1">
-        <v>67130</v>
+        <v>67084</v>
       </c>
       <c r="K315" s="1">
-        <v>11832</v>
+        <v>2954</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>472</v>
+        <v>291</v>
       </c>
       <c r="M315" s="33">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="N315" s="34">
-        <v>1000</v>
+        <v>621</v>
       </c>
       <c r="O315" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P315" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q315" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R315" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S315" s="34">
         <v>0</v>
@@ -22769,7 +23008,7 @@
         <v>97</v>
       </c>
       <c r="I316" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B316, A316)</f>
         <v>1</v>
       </c>
       <c r="J316" s="1">
@@ -22833,7 +23072,7 @@
         <v>370</v>
       </c>
       <c r="I317" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B317, A317)</f>
         <v>1</v>
       </c>
       <c r="J317" s="1">
@@ -22897,7 +23136,7 @@
         <v>370</v>
       </c>
       <c r="I318" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B318, A318)</f>
         <v>3</v>
       </c>
       <c r="J318" s="1">
@@ -22907,7 +23146,7 @@
         <v>11819</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M318" s="33">
         <v>45904</v>
@@ -22961,7 +23200,7 @@
         <v>370</v>
       </c>
       <c r="I319" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B319, A319)</f>
         <v>3</v>
       </c>
       <c r="J319" s="1">
@@ -22971,7 +23210,7 @@
         <v>11821</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M319" s="33">
         <v>45904</v>
@@ -23025,7 +23264,7 @@
         <v>137</v>
       </c>
       <c r="I320" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B320, A320)</f>
         <v>1</v>
       </c>
       <c r="J320" s="1">
@@ -23089,7 +23328,7 @@
         <v>129</v>
       </c>
       <c r="I321" s="6">
-        <f t="shared" si="8"/>
+        <f>NETWORKDAYS(B321, A321)</f>
         <v>1</v>
       </c>
       <c r="J321" s="1">
@@ -23153,7 +23392,7 @@
         <v>129</v>
       </c>
       <c r="I322" s="6">
-        <f t="shared" ref="I322:I357" si="9">NETWORKDAYS(B322, A322)</f>
+        <f>NETWORKDAYS(B322, A322)</f>
         <v>1</v>
       </c>
       <c r="J322" s="1">
@@ -23163,7 +23402,7 @@
         <v>11527</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M322" s="33">
         <v>45903</v>
@@ -23217,7 +23456,7 @@
         <v>129</v>
       </c>
       <c r="I323" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B323, A323)</f>
         <v>1</v>
       </c>
       <c r="J323" s="1">
@@ -23227,7 +23466,7 @@
         <v>11527</v>
       </c>
       <c r="L323" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M323" s="33">
         <v>45903</v>
@@ -23281,7 +23520,7 @@
         <v>137</v>
       </c>
       <c r="I324" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B324, A324)</f>
         <v>1</v>
       </c>
       <c r="J324" s="1">
@@ -23345,7 +23584,7 @@
         <v>32</v>
       </c>
       <c r="I325" s="37">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B325, A325)</f>
         <v>1</v>
       </c>
       <c r="J325" s="36">
@@ -23409,7 +23648,7 @@
         <v>32</v>
       </c>
       <c r="I326" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B326, A326)</f>
         <v>1</v>
       </c>
       <c r="J326" s="1">
@@ -23473,7 +23712,7 @@
         <v>129</v>
       </c>
       <c r="I327" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B327, A327)</f>
         <v>1</v>
       </c>
       <c r="J327" s="1">
@@ -23537,7 +23776,7 @@
         <v>370</v>
       </c>
       <c r="I328" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B328, A328)</f>
         <v>3</v>
       </c>
       <c r="J328" s="1">
@@ -23547,7 +23786,7 @@
         <v>11822</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M328" s="33">
         <v>45904</v>
@@ -23577,22 +23816,22 @@
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A329" s="33">
-        <v>45849</v>
+        <v>45911</v>
       </c>
       <c r="B329" s="33">
-        <v>45849</v>
+        <v>45910</v>
       </c>
       <c r="C329" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D329" s="33" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E329" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F329" s="1" t="s">
-        <v>3</v>
+      <c r="F329" s="1">
+        <v>68540</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>369</v>
@@ -23601,26 +23840,26 @@
         <v>370</v>
       </c>
       <c r="I329" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B329, A329)</f>
+        <v>2</v>
       </c>
       <c r="J329" s="1">
-        <v>66166</v>
+        <v>67104</v>
       </c>
       <c r="K329" s="1">
-        <v>11782</v>
+        <v>2289</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M329" s="33">
-        <v>45925</v>
+        <v>45919</v>
       </c>
       <c r="N329" s="34">
-        <v>2250</v>
+        <v>620.63</v>
       </c>
       <c r="O329" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P329" s="1">
         <v>30</v>
@@ -23630,10 +23869,10 @@
       </c>
       <c r="R329" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="S329" s="34">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="T329" s="34">
         <v>0</v>
@@ -23641,63 +23880,63 @@
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A330" s="33">
-        <v>45870</v>
+        <v>45916</v>
       </c>
       <c r="B330" s="33">
-        <v>45869</v>
+        <v>45916</v>
       </c>
       <c r="C330" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D330" s="33" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E330" s="33" t="s">
         <v>112</v>
       </c>
       <c r="F330" s="1">
-        <v>68491</v>
+        <v>68543</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="I330" s="6">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>NETWORKDAYS(B330, A330)</f>
+        <v>1</v>
       </c>
       <c r="J330" s="1">
-        <v>66521</v>
+        <v>67193</v>
       </c>
       <c r="K330" s="1">
-        <v>3061</v>
+        <v>10594</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>191</v>
+        <v>408</v>
       </c>
       <c r="M330" s="33">
-        <v>45925</v>
+        <v>45919</v>
       </c>
       <c r="N330" s="34">
-        <v>3000</v>
+        <v>2060.9499999999998</v>
       </c>
       <c r="O330" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P330" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q330" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R330" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="S330" s="34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T330" s="34">
         <v>0</v>
@@ -23729,7 +23968,7 @@
         <v>32</v>
       </c>
       <c r="I331" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B331, A331)</f>
         <v>1</v>
       </c>
       <c r="J331" s="1">
@@ -23767,65 +24006,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="33">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B332" s="33">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="C332" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D332" s="33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E332" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="F332" s="1">
+        <v>68491</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="I332" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B332, A332)</f>
+        <v>2</v>
       </c>
       <c r="J332" s="1">
-        <v>66504</v>
+        <v>66521</v>
       </c>
       <c r="K332" s="1">
-        <v>3034</v>
+        <v>3061</v>
       </c>
       <c r="L332" s="1" t="s">
-        <v>348</v>
+        <v>191</v>
       </c>
       <c r="M332" s="33">
         <v>45925</v>
       </c>
       <c r="N332" s="34">
-        <v>2220</v>
+        <v>3000</v>
       </c>
       <c r="O332" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P332" s="1">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="Q332" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="R332" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S332" s="34">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="T332" s="34">
         <v>0</v>
@@ -23833,13 +24072,13 @@
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A333" s="33">
-        <v>45875</v>
+        <v>45891</v>
       </c>
       <c r="B333" s="33">
-        <v>45873</v>
+        <v>45890</v>
       </c>
       <c r="C333" s="33" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D333" s="33" t="s">
         <v>15</v>
@@ -23847,52 +24086,52 @@
       <c r="E333" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F333" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G333" s="33" t="s">
+      <c r="F333" s="1">
+        <v>68517</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H333" s="33" t="s">
+      <c r="H333" s="1" t="s">
         <v>125</v>
       </c>
       <c r="I333" s="6">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>NETWORKDAYS(B333, A333)</f>
+        <v>2</v>
       </c>
       <c r="J333" s="1">
-        <v>66430</v>
+        <v>66866</v>
       </c>
       <c r="K333" s="1">
-        <v>333</v>
+        <v>1277</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M333" s="33">
-        <v>45925</v>
-      </c>
-      <c r="N333" s="40">
-        <v>1483685.03</v>
-      </c>
-      <c r="O333" s="33" t="s">
+        <v>45922</v>
+      </c>
+      <c r="N333" s="34">
+        <v>894.6</v>
+      </c>
+      <c r="O333" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P333" s="1">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="Q333" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R333" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S333" s="34">
         <v>0</v>
       </c>
       <c r="T333" s="34">
-        <v>59008.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
@@ -23921,7 +24160,7 @@
         <v>137</v>
       </c>
       <c r="I334" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B334, A334)</f>
         <v>1</v>
       </c>
       <c r="J334" s="1">
@@ -23985,7 +24224,7 @@
         <v>32</v>
       </c>
       <c r="I335" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B335, A335)</f>
         <v>1</v>
       </c>
       <c r="J335" s="1">
@@ -24049,7 +24288,7 @@
         <v>32</v>
       </c>
       <c r="I336" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B336, A336)</f>
         <v>1</v>
       </c>
       <c r="J336" s="1">
@@ -24113,7 +24352,7 @@
         <v>97</v>
       </c>
       <c r="I337" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B337, A337)</f>
         <v>1</v>
       </c>
       <c r="J337" s="1">
@@ -24153,22 +24392,22 @@
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A338" s="33">
-        <v>45905</v>
+        <v>45891</v>
       </c>
       <c r="B338" s="33">
-        <v>45905</v>
+        <v>45882</v>
       </c>
       <c r="C338" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D338" s="33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E338" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F338" s="1" t="s">
-        <v>3</v>
+      <c r="F338" s="1">
+        <v>68505</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>369</v>
@@ -24177,36 +24416,36 @@
         <v>370</v>
       </c>
       <c r="I338" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B338, A338)</f>
+        <v>8</v>
       </c>
       <c r="J338" s="1">
-        <v>67037</v>
+        <v>66867</v>
       </c>
       <c r="K338" s="1">
-        <v>11683</v>
+        <v>3061</v>
       </c>
       <c r="L338" s="1" t="s">
-        <v>460</v>
+        <v>191</v>
       </c>
       <c r="M338" s="33">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="N338" s="34">
-        <v>1320.9</v>
+        <v>6358.8</v>
       </c>
       <c r="O338" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P338" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q338" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R338" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S338" s="34">
         <v>0</v>
@@ -24217,10 +24456,10 @@
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A339" s="33">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="B339" s="33">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="C339" s="33" t="s">
         <v>7</v>
@@ -24231,46 +24470,46 @@
       <c r="E339" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F339" s="1" t="s">
-        <v>3</v>
+      <c r="F339" s="1">
+        <v>68545</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>369</v>
+        <v>473</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="I339" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B339, A339)</f>
         <v>1</v>
       </c>
       <c r="J339" s="1">
-        <v>67038</v>
+        <v>67159</v>
       </c>
       <c r="K339" s="1">
-        <v>11820</v>
+        <v>4655</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="M339" s="33">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="N339" s="34">
-        <v>1540</v>
+        <v>248</v>
       </c>
       <c r="O339" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P339" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q339" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R339" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="S339" s="34">
         <v>0</v>
@@ -24281,10 +24520,10 @@
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A340" s="33">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="B340" s="33">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="C340" s="33" t="s">
         <v>7</v>
@@ -24293,48 +24532,48 @@
         <v>15</v>
       </c>
       <c r="E340" s="33" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="I340" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B340, A340)</f>
         <v>1</v>
       </c>
       <c r="J340" s="1">
-        <v>67039</v>
+        <v>67130</v>
       </c>
       <c r="K340" s="1">
-        <v>11823</v>
+        <v>11832</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="M340" s="33">
-        <v>45926</v>
+        <v>45924</v>
       </c>
       <c r="N340" s="34">
-        <v>903</v>
+        <v>1000</v>
       </c>
       <c r="O340" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P340" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q340" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R340" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S340" s="34">
         <v>0</v>
@@ -24369,7 +24608,7 @@
         <v>32</v>
       </c>
       <c r="I341" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B341, A341)</f>
         <v>1</v>
       </c>
       <c r="J341" s="1">
@@ -24433,7 +24672,7 @@
         <v>129</v>
       </c>
       <c r="I342" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B342, A342)</f>
         <v>1</v>
       </c>
       <c r="J342" s="1">
@@ -24497,7 +24736,7 @@
         <v>34</v>
       </c>
       <c r="I343" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B343, A343)</f>
         <v>1</v>
       </c>
       <c r="J343" s="1">
@@ -24537,10 +24776,10 @@
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A344" s="33">
-        <v>45910</v>
+        <v>45849</v>
       </c>
       <c r="B344" s="33">
-        <v>45910</v>
+        <v>45849</v>
       </c>
       <c r="C344" s="33" t="s">
         <v>7</v>
@@ -24561,39 +24800,39 @@
         <v>370</v>
       </c>
       <c r="I344" s="6">
-        <f t="shared" si="9"/>
+        <f>NETWORKDAYS(B344, A344)</f>
         <v>1</v>
       </c>
       <c r="J344" s="1">
-        <v>67096</v>
+        <v>66166</v>
       </c>
       <c r="K344" s="1">
-        <v>11826</v>
+        <v>11782</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>463</v>
+        <v>368</v>
       </c>
       <c r="M344" s="33">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="N344" s="34">
-        <v>2401.5</v>
+        <v>2250</v>
       </c>
       <c r="O344" s="1" t="s">
         <v>120</v>
       </c>
       <c r="P344" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q344" s="1" t="s">
-        <v>465</v>
+        <v>24</v>
       </c>
       <c r="R344" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="S344" s="34">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T344" s="34">
         <v>0</v>
@@ -24601,10 +24840,10 @@
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A345" s="33">
-        <v>45896</v>
+        <v>45868</v>
       </c>
       <c r="B345" s="33">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="C345" s="33" t="s">
         <v>7</v>
@@ -24613,10 +24852,10 @@
         <v>15</v>
       </c>
       <c r="E345" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F345" s="1">
-        <v>68484</v>
+        <v>123</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G345" s="1" t="s">
         <v>124</v>
@@ -24625,39 +24864,39 @@
         <v>125</v>
       </c>
       <c r="I345" s="6">
-        <f t="shared" si="9"/>
-        <v>23</v>
+        <f>NETWORKDAYS(B345, A345)</f>
+        <v>1</v>
       </c>
       <c r="J345" s="1">
-        <v>66912</v>
+        <v>66504</v>
       </c>
       <c r="K345" s="1">
-        <v>10644</v>
+        <v>3034</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="M345" s="33">
-        <v>45927</v>
+        <v>45925</v>
       </c>
       <c r="N345" s="34">
-        <v>60757.599999999999</v>
+        <v>2220</v>
       </c>
       <c r="O345" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P345" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="Q345" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R345" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="S345" s="34">
-        <v>38888</v>
+        <v>80</v>
       </c>
       <c r="T345" s="34">
         <v>0</v>
@@ -24665,188 +24904,188 @@
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A346" s="33">
-        <v>45848</v>
+        <v>45875</v>
       </c>
       <c r="B346" s="33">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="C346" s="33" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="D346" s="33" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E346" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F346" s="1">
-        <v>68457</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>34</v>
+        <v>123</v>
+      </c>
+      <c r="F346" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G346" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H346" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="I346" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>NETWORKDAYS(B346, A346)</f>
+        <v>3</v>
       </c>
       <c r="J346" s="1">
-        <v>66126</v>
+        <v>66430</v>
       </c>
       <c r="K346" s="1">
-        <v>2931</v>
+        <v>333</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="M346" s="33">
-        <v>45930</v>
-      </c>
-      <c r="N346" s="34">
-        <v>3500</v>
-      </c>
-      <c r="O346" s="1" t="s">
+        <v>45925</v>
+      </c>
+      <c r="N346" s="40">
+        <v>1483685.03</v>
+      </c>
+      <c r="O346" s="33" t="s">
         <v>121</v>
       </c>
       <c r="P346" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q346" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R346" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="S346" s="34">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T346" s="34">
-        <v>0</v>
+        <v>59008.35</v>
       </c>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A347" s="33">
-        <v>45901</v>
-      </c>
-      <c r="B347" s="33">
-        <v>45895</v>
-      </c>
-      <c r="C347" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D347" s="33" t="s">
+      <c r="A347" s="44">
+        <v>45916</v>
+      </c>
+      <c r="B347" s="44">
+        <v>45910</v>
+      </c>
+      <c r="C347" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F347" s="45">
+        <v>68542</v>
+      </c>
+      <c r="G347" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="H347" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I347" s="46">
+        <f>NETWORKDAYS(B347, A347)</f>
         <v>5</v>
       </c>
-      <c r="E347" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F347" s="1">
-        <v>68521</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H347" s="1" t="s">
+      <c r="J347" s="45">
+        <v>67200</v>
+      </c>
+      <c r="K347" s="47">
+        <v>10357</v>
+      </c>
+      <c r="L347" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M347" s="44">
+        <v>45925</v>
+      </c>
+      <c r="N347" s="34">
+        <v>2008.23</v>
+      </c>
+      <c r="O347" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P347" s="45">
+        <v>28</v>
+      </c>
+      <c r="Q347" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R347" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>9</v>
+      </c>
+      <c r="S347" s="34">
+        <v>0</v>
+      </c>
+      <c r="T347" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A348" s="44">
+        <v>45916</v>
+      </c>
+      <c r="B348" s="44">
+        <v>45910</v>
+      </c>
+      <c r="C348" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E348" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F348" s="45">
+        <v>68542</v>
+      </c>
+      <c r="G348" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="H348" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="I347" s="6">
-        <f t="shared" si="9"/>
+      <c r="I348" s="46">
+        <f>NETWORKDAYS(B348, A348)</f>
         <v>5</v>
       </c>
-      <c r="J347" s="1">
-        <v>66945</v>
-      </c>
-      <c r="K347" s="1">
-        <v>11590</v>
-      </c>
-      <c r="L347" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M347" s="33">
-        <v>45930</v>
-      </c>
-      <c r="N347" s="34">
-        <v>8500</v>
-      </c>
-      <c r="O347" s="1" t="s">
+      <c r="J348" s="45">
+        <v>67201</v>
+      </c>
+      <c r="K348" s="47">
+        <v>3011</v>
+      </c>
+      <c r="L348" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="M348" s="44">
+        <v>45925</v>
+      </c>
+      <c r="N348" s="34">
+        <v>798.49</v>
+      </c>
+      <c r="O348" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="P347" s="1">
+      <c r="P348" s="45">
         <v>28</v>
       </c>
-      <c r="Q347" s="1" t="s">
+      <c r="Q348" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="R347" s="1">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>29</v>
-      </c>
-      <c r="S347" s="34">
-        <v>636.26</v>
-      </c>
-      <c r="T347" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A348" s="33">
-        <v>45904</v>
-      </c>
-      <c r="B348" s="33">
-        <v>45898</v>
-      </c>
-      <c r="C348" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D348" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E348" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F348" s="1">
-        <v>68524</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I348" s="6">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="J348" s="1">
-        <v>67027</v>
-      </c>
-      <c r="K348" s="1">
-        <v>1450</v>
-      </c>
-      <c r="L348" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M348" s="33">
-        <v>45935</v>
-      </c>
-      <c r="N348" s="34">
-        <v>180</v>
-      </c>
-      <c r="O348" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P348" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q348" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R348" s="1">
-        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+      <c r="R348" s="47">
+        <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
+        <v>9</v>
       </c>
       <c r="S348" s="34">
         <v>0</v>
@@ -24857,7 +25096,7 @@
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A349" s="33">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="B349" s="33">
         <v>45905</v>
@@ -24869,48 +25108,48 @@
         <v>15</v>
       </c>
       <c r="E349" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F349" s="1">
-        <v>68532</v>
+        <v>112</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="I349" s="6">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f>NETWORKDAYS(B349, A349)</f>
+        <v>1</v>
       </c>
       <c r="J349" s="1">
-        <v>67110</v>
+        <v>67037</v>
       </c>
       <c r="K349" s="1">
-        <v>1415</v>
+        <v>11683</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>288</v>
+        <v>461</v>
       </c>
       <c r="M349" s="33">
-        <v>45942</v>
+        <v>45926</v>
       </c>
       <c r="N349" s="34">
-        <v>1009.45</v>
+        <v>1320.9</v>
       </c>
       <c r="O349" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P349" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q349" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R349" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[[#This Row],[Previsao de Entrega]],"D")</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="S349" s="34">
         <v>0</v>
@@ -24921,7 +25160,7 @@
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A350" s="33">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="B350" s="33">
         <v>45905</v>
@@ -24933,35 +25172,35 @@
         <v>15</v>
       </c>
       <c r="E350" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F350" s="1">
-        <v>68535</v>
+        <v>112</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="I350" s="6">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f>NETWORKDAYS(B350, A350)</f>
+        <v>1</v>
       </c>
       <c r="J350" s="1">
-        <v>67142</v>
+        <v>67038</v>
       </c>
       <c r="K350" s="1">
-        <v>1546</v>
+        <v>11820</v>
       </c>
       <c r="L350" s="1" t="s">
-        <v>289</v>
+        <v>462</v>
       </c>
       <c r="M350" s="33">
-        <v>45942</v>
+        <v>45926</v>
       </c>
       <c r="N350" s="34">
-        <v>146.52000000000001</v>
+        <v>1540</v>
       </c>
       <c r="O350" s="1" t="s">
         <v>121</v>
@@ -24974,7 +25213,7 @@
       </c>
       <c r="R350" s="1">
         <f>DATEDIF(Tabela1[[#This Row],[Atendimento]],Tabela1[